--- a/tables/ols_coefficients.xlsx
+++ b/tables/ols_coefficients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="5600" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="7008" uniqueCount="179">
   <si>
     <t>y1</t>
   </si>
@@ -541,6 +541,18 @@
   </si>
   <si>
     <t>se</t>
+  </si>
+  <si>
+    <t>bin_75</t>
+  </si>
+  <si>
+    <t>o.bin_77</t>
+  </si>
+  <si>
+    <t>bin_162</t>
+  </si>
+  <si>
+    <t>o.bin_163</t>
   </si>
 </sst>
 </file>
@@ -584,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FR4"/>
+  <dimension ref="A1:FS4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1368,13 +1380,13 @@
         <v>84</v>
       </c>
       <c r="CH2" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="CI2" t="s">
         <v>86</v>
       </c>
       <c r="CJ2" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="CK2" t="s">
         <v>88</v>
@@ -1629,10 +1641,13 @@
         <v>171</v>
       </c>
       <c r="FQ2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FS2" t="s">
         <v>172</v>
-      </c>
-      <c r="FR2">
-        <v>-6.2609226920571848</v>
       </c>
     </row>
     <row r="3">
@@ -1640,520 +1655,526 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>1.0381038247526595</v>
+        <v>1.0095492353515743</v>
       </c>
       <c r="C3">
-        <v>-0.56980175133233368</v>
+        <v>-0.55631264043364181</v>
       </c>
       <c r="D3">
-        <v>-0.54322862209293754</v>
+        <v>-0.60325047735841919</v>
       </c>
       <c r="E3">
-        <v>-0.55392816953588031</v>
+        <v>-0.61017514990647426</v>
       </c>
       <c r="F3">
-        <v>0.76481408011559415</v>
+        <v>0.77200337709206313</v>
       </c>
       <c r="G3">
-        <v>0.77029646228235615</v>
+        <v>0.78352914947613994</v>
       </c>
       <c r="H3">
-        <v>0.71791706780261377</v>
+        <v>0.74349517548148059</v>
       </c>
       <c r="I3">
-        <v>0.52869760416624245</v>
+        <v>0.50008686125536428</v>
       </c>
       <c r="J3">
-        <v>0.51642250797800204</v>
+        <v>0.51009044540679904</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.97333983828891346</v>
+        <v>0.43078247148940868</v>
       </c>
       <c r="M3">
-        <v>-0.96396197236864867</v>
+        <v>0.56912160141518742</v>
       </c>
       <c r="N3">
-        <v>-0.91713791468175654</v>
+        <v>-1.0439965595061262</v>
       </c>
       <c r="O3">
-        <v>-0.89866403828628671</v>
+        <v>-1.0106238941666745</v>
       </c>
       <c r="P3">
-        <v>-0.8959106674381887</v>
+        <v>-0.99038157985659103</v>
       </c>
       <c r="Q3">
-        <v>-0.89199746063014873</v>
+        <v>-0.98639480123186751</v>
       </c>
       <c r="R3">
-        <v>-0.84072908792312162</v>
+        <v>-1.0032855801829101</v>
       </c>
       <c r="S3">
-        <v>-0.8871223958128126</v>
+        <v>-0.97186878452077652</v>
       </c>
       <c r="T3">
-        <v>-0.92532976385927812</v>
+        <v>-0.95465346998649525</v>
       </c>
       <c r="U3">
-        <v>-0.81333173515751811</v>
+        <v>-0.92129938120671429</v>
       </c>
       <c r="V3">
-        <v>-0.85309198497195915</v>
+        <v>-0.89969013541787646</v>
       </c>
       <c r="W3">
-        <v>-0.80067856897740597</v>
+        <v>-0.90216822732893098</v>
       </c>
       <c r="X3">
-        <v>-0.84854492861814301</v>
+        <v>-0.91002737085504615</v>
       </c>
       <c r="Y3">
-        <v>-0.79530719163058061</v>
+        <v>-0.89901151409209901</v>
       </c>
       <c r="Z3">
-        <v>-0.79191328073889267</v>
+        <v>-0.89324067133677565</v>
       </c>
       <c r="AA3">
-        <v>-0.83328903913777452</v>
+        <v>-0.88122093904424981</v>
       </c>
       <c r="AB3">
-        <v>-0.83736460978338356</v>
+        <v>-0.83072362232293273</v>
       </c>
       <c r="AC3">
-        <v>-0.74394713695839887</v>
+        <v>-0.88357687602371204</v>
       </c>
       <c r="AD3">
-        <v>-0.78454731101185349</v>
+        <v>-0.86103088024824725</v>
       </c>
       <c r="AE3">
-        <v>-0.78699357871013953</v>
+        <v>-0.83450891952940842</v>
       </c>
       <c r="AF3">
-        <v>-0.75920444829592326</v>
+        <v>-0.87615014393997426</v>
       </c>
       <c r="AG3">
-        <v>-0.80189503538377283</v>
+        <v>-0.82054863689065993</v>
       </c>
       <c r="AH3">
-        <v>-0.753043880109459</v>
+        <v>-0.86966205295257126</v>
       </c>
       <c r="AI3">
-        <v>-0.81593537911833591</v>
+        <v>-0.86063613156278407</v>
       </c>
       <c r="AJ3">
-        <v>-0.73349912137678586</v>
+        <v>-0.84969083844554671</v>
       </c>
       <c r="AK3">
-        <v>-0.84193596001372173</v>
+        <v>-0.84726279812238503</v>
       </c>
       <c r="AL3">
-        <v>-0.76214098222571425</v>
+        <v>-0.82622890447412067</v>
       </c>
       <c r="AM3">
-        <v>-0.825948756669874</v>
+        <v>-0.81769583234337373</v>
       </c>
       <c r="AN3">
-        <v>-0.71605863661397051</v>
+        <v>-0.80704495442251212</v>
       </c>
       <c r="AO3">
-        <v>-0.79848235194546335</v>
+        <v>-0.80800329923324565</v>
       </c>
       <c r="AP3">
-        <v>-0.76160941074750177</v>
+        <v>-0.78127796599348809</v>
       </c>
       <c r="AQ3">
-        <v>-0.73582656546494207</v>
+        <v>-0.85076617716232039</v>
       </c>
       <c r="AR3">
-        <v>-0.82038811135060985</v>
+        <v>-0.80872780547995904</v>
       </c>
       <c r="AS3">
-        <v>-0.78801481567452691</v>
+        <v>-0.7691470188003211</v>
       </c>
       <c r="AT3">
-        <v>-0.79533112353788793</v>
+        <v>-0.8300630683413367</v>
       </c>
       <c r="AU3">
-        <v>-0.79727940529349339</v>
+        <v>-0.75934900475260536</v>
       </c>
       <c r="AV3">
-        <v>-0.78687470818023275</v>
+        <v>-0.70684821264822939</v>
       </c>
       <c r="AW3">
-        <v>-0.76017844163718595</v>
+        <v>-0.79881024979101789</v>
       </c>
       <c r="AX3">
-        <v>-0.78645422354824868</v>
+        <v>-0.81829741651842491</v>
       </c>
       <c r="AY3">
-        <v>-0.79605085082928906</v>
+        <v>-0.76168755678203715</v>
       </c>
       <c r="AZ3">
-        <v>-0.81125335110569063</v>
+        <v>-0.84271072401368596</v>
       </c>
       <c r="BA3">
-        <v>-0.7527791239500421</v>
+        <v>-0.81757944171612584</v>
       </c>
       <c r="BB3">
-        <v>-0.72869394327539883</v>
+        <v>-0.79934402379692504</v>
       </c>
       <c r="BC3">
-        <v>-0.73290379189080979</v>
+        <v>-0.84810346591063002</v>
       </c>
       <c r="BD3">
-        <v>-0.81763493605968973</v>
+        <v>-0.79579394053007069</v>
       </c>
       <c r="BE3">
-        <v>-0.76187944971835753</v>
+        <v>-0.78072160040027105</v>
       </c>
       <c r="BF3">
-        <v>-0.75311934440966244</v>
+        <v>-0.76781839025525001</v>
       </c>
       <c r="BG3">
-        <v>-0.73236005182715613</v>
+        <v>-0.82842972347928623</v>
       </c>
       <c r="BH3">
-        <v>-0.74156344957911124</v>
+        <v>-0.76840366679823324</v>
       </c>
       <c r="BI3">
-        <v>-0.73440871679584385</v>
+        <v>-0.84701280831486048</v>
       </c>
       <c r="BJ3">
-        <v>-0.51028561925636717</v>
+        <v>-0.82419272620029127</v>
       </c>
       <c r="BK3">
-        <v>-0.5102622651889942</v>
+        <v>-0.81410852841433889</v>
       </c>
       <c r="BL3">
-        <v>-0.48148990220181259</v>
+        <v>-0.51916957858569557</v>
       </c>
       <c r="BM3">
-        <v>-0.44910014410255106</v>
+        <v>-0.55562465247417547</v>
       </c>
       <c r="BN3">
-        <v>-0.48745026101511102</v>
+        <v>-0.51737583079706739</v>
       </c>
       <c r="BO3">
-        <v>-0.44692113269675121</v>
+        <v>-0.56603670081298696</v>
       </c>
       <c r="BP3">
-        <v>-0.5224114320710842</v>
+        <v>-0.56493917597284693</v>
       </c>
       <c r="BQ3">
-        <v>-0.4481795476813179</v>
+        <v>-0.4919756023873646</v>
       </c>
       <c r="BR3">
-        <v>-0.46935032705542118</v>
+        <v>-0.50914376046186305</v>
       </c>
       <c r="BS3">
-        <v>-0.52394657161398195</v>
+        <v>-0.59355827760715474</v>
       </c>
       <c r="BT3">
-        <v>-0.52540301415002744</v>
+        <v>-0.54836655778581778</v>
       </c>
       <c r="BU3">
-        <v>-0.3436114698467847</v>
+        <v>-0.473007572512473</v>
       </c>
       <c r="BV3">
-        <v>-0.38846522101246583</v>
+        <v>-0.53622550892913057</v>
       </c>
       <c r="BW3">
-        <v>-0.34264348445704673</v>
+        <v>-0.4245155396580233</v>
       </c>
       <c r="BX3">
-        <v>-0.38519482346370393</v>
+        <v>-0.37546693377787765</v>
       </c>
       <c r="BY3">
-        <v>-0.3676481143235546</v>
+        <v>-0.42216762041781913</v>
       </c>
       <c r="BZ3">
-        <v>-0.35272062458860992</v>
+        <v>-0.41443509159169029</v>
       </c>
       <c r="CA3">
-        <v>-0.29365208681851707</v>
+        <v>-0.46047083448798443</v>
       </c>
       <c r="CB3">
-        <v>-0.28367655260686803</v>
+        <v>-0.39563131358898385</v>
       </c>
       <c r="CC3">
-        <v>-0.29980202284694557</v>
+        <v>-0.41013128135770588</v>
       </c>
       <c r="CD3">
-        <v>-0.061531795384750433</v>
+        <v>-0.40548657014415068</v>
       </c>
       <c r="CE3">
-        <v>-0.038161488906790351</v>
+        <v>-0.42073197706251303</v>
       </c>
       <c r="CF3">
-        <v>0.060752974125424852</v>
+        <v>-0.1555574652762316</v>
       </c>
       <c r="CG3">
-        <v>0.054002855124687624</v>
+        <v>0.022572545777616075</v>
       </c>
       <c r="CH3">
+        <v>-0.030198024249245232</v>
+      </c>
+      <c r="CI3">
+        <v>-0.0078731012764640066</v>
+      </c>
+      <c r="CJ3">
         <v>0</v>
       </c>
-      <c r="CI3">
-        <v>-0.003895993223143354</v>
-      </c>
-      <c r="CJ3">
-        <v>0.0107241886334478</v>
-      </c>
       <c r="CK3">
-        <v>0.052926757641675252</v>
+        <v>-0.025585670876712582</v>
       </c>
       <c r="CL3">
-        <v>-0.010957081121843756</v>
+        <v>-0.03608876627676115</v>
       </c>
       <c r="CM3">
-        <v>0.059011784390825613</v>
+        <v>-0.015289811479125408</v>
       </c>
       <c r="CN3">
-        <v>0.057251858998446273</v>
+        <v>-0.027547960618363246</v>
       </c>
       <c r="CO3">
-        <v>0.42013507086405766</v>
+        <v>-0.051786593679570336</v>
       </c>
       <c r="CP3">
-        <v>0.41132164332686716</v>
+        <v>0.0077142540152058906</v>
       </c>
       <c r="CQ3">
-        <v>0.44944008126227952</v>
+        <v>0.37962143828638434</v>
       </c>
       <c r="CR3">
-        <v>0.41204958695566313</v>
+        <v>0.3602725874836824</v>
       </c>
       <c r="CS3">
-        <v>0.42712582951100758</v>
+        <v>0.36982497615924187</v>
       </c>
       <c r="CT3">
-        <v>0.45470735636962295</v>
+        <v>0.37819422635283229</v>
       </c>
       <c r="CU3">
-        <v>0.47185135147758361</v>
+        <v>0.39548994741314342</v>
       </c>
       <c r="CV3">
-        <v>0.44723724651723962</v>
+        <v>0.36335391696021324</v>
       </c>
       <c r="CW3">
-        <v>0.47263913252988432</v>
+        <v>0.43849635234731049</v>
       </c>
       <c r="CX3">
-        <v>0.47201161420503335</v>
+        <v>0.38371917453566656</v>
       </c>
       <c r="CY3">
-        <v>0.49947882767039387</v>
+        <v>0.36773538656030591</v>
       </c>
       <c r="CZ3">
-        <v>0.56002428206855015</v>
+        <v>0.36930676163174919</v>
       </c>
       <c r="DA3">
-        <v>0.54553994017061891</v>
+        <v>0.49732538116479991</v>
       </c>
       <c r="DB3">
-        <v>0.54389592371319062</v>
+        <v>0.48496476358906326</v>
       </c>
       <c r="DC3">
-        <v>0.52401452427365314</v>
+        <v>0.5175237668585736</v>
       </c>
       <c r="DD3">
-        <v>0.57716991494659498</v>
+        <v>0.49773764946195864</v>
       </c>
       <c r="DE3">
-        <v>0.55527969351288498</v>
+        <v>0.48029506610800765</v>
       </c>
       <c r="DF3">
-        <v>0.52842161258612674</v>
+        <v>0.52715783950387507</v>
       </c>
       <c r="DG3">
-        <v>0.5546993743504971</v>
+        <v>0.4719410933356179</v>
       </c>
       <c r="DH3">
-        <v>0.55704391802753805</v>
+        <v>0.46259205886807231</v>
       </c>
       <c r="DI3">
-        <v>0.80256502361924431</v>
+        <v>0.49591408481899946</v>
       </c>
       <c r="DJ3">
-        <v>0.79912115926615834</v>
+        <v>0.48345105707834946</v>
       </c>
       <c r="DK3">
-        <v>0.8176714530290573</v>
+        <v>0.7607447691526088</v>
       </c>
       <c r="DL3">
-        <v>0.82340115721269824</v>
+        <v>0.7376342453139676</v>
       </c>
       <c r="DM3">
-        <v>0.80906831457767558</v>
+        <v>0.74328574159748884</v>
       </c>
       <c r="DN3">
-        <v>0.83334244396963109</v>
+        <v>0.75163916569806966</v>
       </c>
       <c r="DO3">
-        <v>0.83161372738853412</v>
+        <v>0.71999196093925744</v>
       </c>
       <c r="DP3">
-        <v>0.812992034810602</v>
+        <v>0.75678898486153146</v>
       </c>
       <c r="DQ3">
-        <v>0.80827643327846688</v>
+        <v>0.75675362376501332</v>
       </c>
       <c r="DR3">
-        <v>0.81867705399534896</v>
+        <v>0.74541666324257028</v>
       </c>
       <c r="DS3">
-        <v>0.76963098302763033</v>
+        <v>0.73179884727407818</v>
       </c>
       <c r="DT3">
-        <v>0.81837909530394448</v>
+        <v>0.71821017366083617</v>
       </c>
       <c r="DU3">
-        <v>0.78114744679847714</v>
+        <v>0.7462759665405615</v>
       </c>
       <c r="DV3">
-        <v>0.80016850749316792</v>
+        <v>0.75673813331267725</v>
       </c>
       <c r="DW3">
-        <v>0.79302955308757017</v>
+        <v>0.75975107986314716</v>
       </c>
       <c r="DX3">
-        <v>0.78450123189837762</v>
+        <v>0.75207454807186724</v>
       </c>
       <c r="DY3">
-        <v>0.81852793340423002</v>
+        <v>0.74663995568336239</v>
       </c>
       <c r="DZ3">
-        <v>0.78787731733392619</v>
+        <v>0.70931593057194953</v>
       </c>
       <c r="EA3">
-        <v>0.77323279256819177</v>
+        <v>0.71247597970037457</v>
       </c>
       <c r="EB3">
-        <v>0.79766979293057194</v>
+        <v>0.7372515351920983</v>
       </c>
       <c r="EC3">
-        <v>0.80674385195315668</v>
+        <v>0.74546575033807294</v>
       </c>
       <c r="ED3">
-        <v>0.80268927879743956</v>
+        <v>0.737670381176603</v>
       </c>
       <c r="EE3">
-        <v>0.79938293275258432</v>
+        <v>0.7492134287658252</v>
       </c>
       <c r="EF3">
-        <v>0.80644300260983504</v>
+        <v>0.74801559236076742</v>
       </c>
       <c r="EG3">
-        <v>0.79934538304536129</v>
+        <v>0.7304422803351418</v>
       </c>
       <c r="EH3">
-        <v>0.8039139675205097</v>
+        <v>0.74294036772989636</v>
       </c>
       <c r="EI3">
-        <v>0.78214096301944225</v>
+        <v>0.72505228033365299</v>
       </c>
       <c r="EJ3">
-        <v>0.78406241690378387</v>
+        <v>0.72051357035252006</v>
       </c>
       <c r="EK3">
-        <v>0.76720808207104219</v>
+        <v>0.70625154128415712</v>
       </c>
       <c r="EL3">
-        <v>0.77166603529139222</v>
+        <v>0.74397406404906252</v>
       </c>
       <c r="EM3">
-        <v>0.77172758777247685</v>
+        <v>0.74256971097909996</v>
       </c>
       <c r="EN3">
-        <v>0.78237712926631953</v>
+        <v>0.74112870260640662</v>
       </c>
       <c r="EO3">
-        <v>0.78072613386418932</v>
+        <v>0.73139959471364324</v>
       </c>
       <c r="EP3">
-        <v>0.77413339183642527</v>
+        <v>0.76004039644881927</v>
       </c>
       <c r="EQ3">
-        <v>0.79764505289205678</v>
+        <v>0.75870069247638772</v>
       </c>
       <c r="ER3">
-        <v>0.78811093103653895</v>
+        <v>0.71872847630794001</v>
       </c>
       <c r="ES3">
-        <v>0.76428964489717777</v>
+        <v>0.74005376233648901</v>
       </c>
       <c r="ET3">
-        <v>0.79488546963950724</v>
+        <v>0.73800575961365222</v>
       </c>
       <c r="EU3">
-        <v>0.80698981580083173</v>
+        <v>0.73457530711792451</v>
       </c>
       <c r="EV3">
-        <v>0.75257097746141932</v>
+        <v>0.70561258016736439</v>
       </c>
       <c r="EW3">
-        <v>0.79236924980568935</v>
+        <v>0.76032717935915028</v>
       </c>
       <c r="EX3">
-        <v>0.72396776903221616</v>
+        <v>0.76014828443016791</v>
       </c>
       <c r="EY3">
-        <v>0.7738087941296502</v>
+        <v>0.6885743722068155</v>
       </c>
       <c r="EZ3">
-        <v>0.7994029788571545</v>
+        <v>0.7145342068848225</v>
       </c>
       <c r="FA3">
-        <v>0.77315650679582626</v>
+        <v>0.71483602071645969</v>
       </c>
       <c r="FB3">
-        <v>0.77719773879071874</v>
+        <v>0.71652628856201872</v>
       </c>
       <c r="FC3">
-        <v>0.78312397079855733</v>
+        <v>0.71728190487369847</v>
       </c>
       <c r="FD3">
-        <v>0.80111064661438292</v>
+        <v>0.70288358985480381</v>
       </c>
       <c r="FE3">
-        <v>0.80157746715328848</v>
+        <v>0.72995770523978198</v>
       </c>
       <c r="FF3">
-        <v>0.75309709730363417</v>
+        <v>0.72420471489136251</v>
       </c>
       <c r="FG3">
-        <v>0.7633674092370859</v>
+        <v>0.74968399857927903</v>
       </c>
       <c r="FH3">
-        <v>0.75813412223233934</v>
+        <v>0.68767290161921679</v>
       </c>
       <c r="FI3">
-        <v>0.75476359056906195</v>
+        <v>0.69109376964337677</v>
       </c>
       <c r="FJ3">
-        <v>0.73835800754233216</v>
+        <v>0.73743986379271065</v>
       </c>
       <c r="FK3">
-        <v>0.77291103309007991</v>
+        <v>0.71331137510547116</v>
       </c>
       <c r="FL3">
-        <v>0.73265478317711075</v>
+        <v>0.69573504187566271</v>
       </c>
       <c r="FM3">
-        <v>0.77104664870690365</v>
+        <v>0.7390751606439574</v>
       </c>
       <c r="FN3">
-        <v>0.73136611340856106</v>
+        <v>0.72926747270566861</v>
       </c>
       <c r="FO3">
-        <v>0.77402637334491331</v>
+        <v>0.65961357170828427</v>
       </c>
       <c r="FP3">
         <v>0</v>
       </c>
       <c r="FQ3">
-        <v>-6.2863834875426008</v>
+        <v>0.7176288230279334</v>
+      </c>
+      <c r="FR3">
+        <v>0</v>
+      </c>
+      <c r="FS3">
+        <v>-6.2330524249505492</v>
       </c>
     </row>
     <row r="4">
@@ -2161,520 +2182,526 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.26441015587484973</v>
+        <v>0.26348488906131945</v>
       </c>
       <c r="C4">
-        <v>0.12605725191914099</v>
+        <v>0.12561613198023169</v>
       </c>
       <c r="D4">
-        <v>0.15585849974905519</v>
+        <v>0.15531309446026234</v>
       </c>
       <c r="E4">
-        <v>0.19250235313428873</v>
+        <v>0.19182871774273932</v>
       </c>
       <c r="F4">
-        <v>0.1812610674345855</v>
+        <v>0.1806267693694156</v>
       </c>
       <c r="G4">
-        <v>0.14799904181564844</v>
+        <v>0.14748113961414888</v>
       </c>
       <c r="H4">
-        <v>0.11533054293908493</v>
+        <v>0.11492695963641211</v>
       </c>
       <c r="I4">
-        <v>0.12657516690956616</v>
+        <v>0.1261322345986948</v>
       </c>
       <c r="J4">
-        <v>0.12963921312184418</v>
+        <v>0.12918555860453748</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.27735481937135548</v>
+        <v>0.27638425449612269</v>
       </c>
       <c r="M4">
-        <v>0.27735481937135553</v>
+        <v>0.27638425449612269</v>
       </c>
       <c r="N4">
-        <v>0.27735481937135548</v>
+        <v>0.27638425449612269</v>
       </c>
       <c r="O4">
-        <v>0.27735481937135542</v>
+        <v>0.27638425449612264</v>
       </c>
       <c r="P4">
-        <v>0.27735481937135542</v>
+        <v>0.27638425449612264</v>
       </c>
       <c r="Q4">
-        <v>0.27735481937135537</v>
+        <v>0.27638425449612264</v>
       </c>
       <c r="R4">
-        <v>0.27735481937135542</v>
+        <v>0.27638425449612264</v>
       </c>
       <c r="S4">
-        <v>0.27735481937135537</v>
+        <v>0.27638425449612264</v>
       </c>
       <c r="T4">
-        <v>0.27735481937135531</v>
+        <v>0.27638425449612258</v>
       </c>
       <c r="U4">
-        <v>0.27735481937135531</v>
+        <v>0.27638425449612264</v>
       </c>
       <c r="V4">
-        <v>0.27735481937135531</v>
+        <v>0.27638425449612258</v>
       </c>
       <c r="W4">
-        <v>0.27735481937135525</v>
+        <v>0.27638425449612258</v>
       </c>
       <c r="X4">
-        <v>0.27735481937135525</v>
+        <v>0.27638425449612258</v>
       </c>
       <c r="Y4">
-        <v>0.27735481937135525</v>
+        <v>0.27638425449612258</v>
       </c>
       <c r="Z4">
-        <v>0.27735481937135525</v>
+        <v>0.27638425449612258</v>
       </c>
       <c r="AA4">
-        <v>0.27735481937135525</v>
+        <v>0.27638425449612258</v>
       </c>
       <c r="AB4">
-        <v>0.2773548193713552</v>
+        <v>0.27638425449612253</v>
       </c>
       <c r="AC4">
-        <v>0.2773548193713552</v>
+        <v>0.27638425449612258</v>
       </c>
       <c r="AD4">
-        <v>0.27735481937135514</v>
+        <v>0.27638425449612258</v>
       </c>
       <c r="AE4">
-        <v>0.27735481937135514</v>
+        <v>0.27638425449612253</v>
       </c>
       <c r="AF4">
-        <v>0.27735481937135509</v>
+        <v>0.27638425449612253</v>
       </c>
       <c r="AG4">
-        <v>0.27735481937135514</v>
+        <v>0.27638425449612247</v>
       </c>
       <c r="AH4">
-        <v>0.27735481937135509</v>
+        <v>0.27638425449612253</v>
       </c>
       <c r="AI4">
-        <v>0.27735481937135509</v>
+        <v>0.27638425449612247</v>
       </c>
       <c r="AJ4">
-        <v>0.27735481937135509</v>
+        <v>0.27638425449612242</v>
       </c>
       <c r="AK4">
-        <v>0.27735481937135509</v>
+        <v>0.27638425449612247</v>
       </c>
       <c r="AL4">
-        <v>0.27735481937135509</v>
+        <v>0.27638425449612247</v>
       </c>
       <c r="AM4">
-        <v>0.27735481937135509</v>
+        <v>0.27638425449612247</v>
       </c>
       <c r="AN4">
-        <v>0.27735481937135509</v>
+        <v>0.27638425449612231</v>
       </c>
       <c r="AO4">
-        <v>0.27735481937135503</v>
+        <v>0.27638425449612247</v>
       </c>
       <c r="AP4">
-        <v>0.27735481937135509</v>
+        <v>0.27638425449612231</v>
       </c>
       <c r="AQ4">
-        <v>0.27735481937135509</v>
+        <v>0.27638425449612236</v>
       </c>
       <c r="AR4">
-        <v>0.27735481937135503</v>
+        <v>0.27638425449612231</v>
       </c>
       <c r="AS4">
-        <v>0.27735481937135498</v>
+        <v>0.27638425449612231</v>
       </c>
       <c r="AT4">
-        <v>0.27735481937135498</v>
+        <v>0.27638425449612231</v>
       </c>
       <c r="AU4">
-        <v>0.27735481937135498</v>
+        <v>0.27638425449612231</v>
       </c>
       <c r="AV4">
-        <v>0.27735481937135498</v>
+        <v>0.27638425449612231</v>
       </c>
       <c r="AW4">
-        <v>0.27735481937135492</v>
+        <v>0.27638425449612219</v>
       </c>
       <c r="AX4">
-        <v>0.27735481937135492</v>
+        <v>0.27638425449612231</v>
       </c>
       <c r="AY4">
-        <v>0.27735481937135492</v>
+        <v>0.27638425449612219</v>
       </c>
       <c r="AZ4">
-        <v>0.27735481937135487</v>
+        <v>0.27638425449612219</v>
       </c>
       <c r="BA4">
-        <v>0.27735481937135487</v>
+        <v>0.27638425449612219</v>
       </c>
       <c r="BB4">
-        <v>0.27735481937135487</v>
+        <v>0.27638425449612219</v>
       </c>
       <c r="BC4">
-        <v>0.27735481937135481</v>
+        <v>0.27638425449612219</v>
       </c>
       <c r="BD4">
-        <v>0.27735481937135481</v>
+        <v>0.27638425449612214</v>
       </c>
       <c r="BE4">
-        <v>0.27735481937135481</v>
+        <v>0.27638425449612219</v>
       </c>
       <c r="BF4">
-        <v>0.27735481937135481</v>
+        <v>0.27638425449612219</v>
       </c>
       <c r="BG4">
-        <v>0.27735481937135481</v>
+        <v>0.27638425449612219</v>
       </c>
       <c r="BH4">
-        <v>0.27735481937135481</v>
+        <v>0.27638425449612214</v>
       </c>
       <c r="BI4">
-        <v>0.27735481937135481</v>
+        <v>0.27638425449612214</v>
       </c>
       <c r="BJ4">
-        <v>0.26403876108381208</v>
+        <v>0.27638425449612214</v>
       </c>
       <c r="BK4">
-        <v>0.26403876108381208</v>
+        <v>0.27638425449612208</v>
       </c>
       <c r="BL4">
-        <v>0.26403876108381208</v>
+        <v>0.26311479391501419</v>
       </c>
       <c r="BM4">
-        <v>0.26403876108381213</v>
+        <v>0.26311479391501419</v>
       </c>
       <c r="BN4">
-        <v>0.26403876108381213</v>
+        <v>0.26311479391501419</v>
       </c>
       <c r="BO4">
-        <v>0.28454276546883711</v>
+        <v>0.26311479391501424</v>
       </c>
       <c r="BP4">
-        <v>0.28454276546883711</v>
+        <v>0.26311479391501424</v>
       </c>
       <c r="BQ4">
-        <v>0.28454276546883706</v>
+        <v>0.28354704736921776</v>
       </c>
       <c r="BR4">
-        <v>0.29317346652437287</v>
+        <v>0.28354704736921776</v>
       </c>
       <c r="BS4">
-        <v>0.29317346652437287</v>
+        <v>0.28354704736921776</v>
       </c>
       <c r="BT4">
-        <v>0.30686246938294226</v>
+        <v>0.2921475464786934</v>
       </c>
       <c r="BU4">
-        <v>0.29178689050469553</v>
+        <v>0.2921475464786934</v>
       </c>
       <c r="BV4">
-        <v>0.29178689050469558</v>
+        <v>0.30578864656283233</v>
       </c>
       <c r="BW4">
-        <v>0.2870568322181255</v>
+        <v>0.29076582259024991</v>
       </c>
       <c r="BX4">
-        <v>0.28705683221812545</v>
+        <v>0.29076582259024997</v>
       </c>
       <c r="BY4">
-        <v>0.28705683221812545</v>
+        <v>0.28605231648922308</v>
       </c>
       <c r="BZ4">
-        <v>0.28130552029022721</v>
+        <v>0.28605231648922308</v>
       </c>
       <c r="CA4">
-        <v>0.28130552029022721</v>
+        <v>0.28605231648922308</v>
       </c>
       <c r="CB4">
-        <v>0.28130552029022715</v>
+        <v>0.28032113048289764</v>
       </c>
       <c r="CC4">
-        <v>0.28130552029022715</v>
+        <v>0.2803211304828977</v>
       </c>
       <c r="CD4">
-        <v>0.2696629170093342</v>
+        <v>0.28032113048289764</v>
       </c>
       <c r="CE4">
-        <v>0.25634185989633113</v>
+        <v>0.28032113048289764</v>
       </c>
       <c r="CF4">
-        <v>0.25634185989633113</v>
+        <v>0.2687192688838233</v>
       </c>
       <c r="CG4">
-        <v>0.25634185989633113</v>
+        <v>0.25544482696995557</v>
       </c>
       <c r="CH4">
+        <v>0.25544482696995557</v>
+      </c>
+      <c r="CI4">
+        <v>0.25544482696995557</v>
+      </c>
+      <c r="CJ4">
         <v>0</v>
       </c>
-      <c r="CI4">
-        <v>0.27417399311309515</v>
-      </c>
-      <c r="CJ4">
-        <v>0.29588076546571768</v>
-      </c>
       <c r="CK4">
-        <v>0.29588076546571768</v>
+        <v>0.27321455909994574</v>
       </c>
       <c r="CL4">
-        <v>0.30639066169356965</v>
+        <v>0.29484537160139612</v>
       </c>
       <c r="CM4">
-        <v>0.30639066169356965</v>
+        <v>0.29484537160139612</v>
       </c>
       <c r="CN4">
-        <v>0.31951389831258148</v>
+        <v>0.30531848989928329</v>
       </c>
       <c r="CO4">
-        <v>0.29178689050469553</v>
+        <v>0.30531848989928317</v>
       </c>
       <c r="CP4">
-        <v>0.29178689050469547</v>
+        <v>0.3183958035646629</v>
       </c>
       <c r="CQ4">
-        <v>0.28705683221812517</v>
+        <v>0.29076582259024952</v>
       </c>
       <c r="CR4">
-        <v>0.28705683221812517</v>
+        <v>0.29076582259024952</v>
       </c>
       <c r="CS4">
-        <v>0.28705683221812517</v>
+        <v>0.28605231648922302</v>
       </c>
       <c r="CT4">
-        <v>0.28130552029022693</v>
+        <v>0.28605231648922297</v>
       </c>
       <c r="CU4">
-        <v>0.28130552029022687</v>
+        <v>0.28605231648922297</v>
       </c>
       <c r="CV4">
-        <v>0.28130552029022687</v>
+        <v>0.28032113048289742</v>
       </c>
       <c r="CW4">
-        <v>0.28130552029022687</v>
+        <v>0.28032113048289742</v>
       </c>
       <c r="CX4">
-        <v>0.28130552029022687</v>
+        <v>0.28032113048289742</v>
       </c>
       <c r="CY4">
-        <v>0.26397681115105381</v>
+        <v>0.28032113048289742</v>
       </c>
       <c r="CZ4">
-        <v>0.26397681115105381</v>
+        <v>0.28032113048289742</v>
       </c>
       <c r="DA4">
-        <v>0.26397681115105381</v>
+        <v>0.26305306076748824</v>
       </c>
       <c r="DB4">
-        <v>0.26397681115105376</v>
+        <v>0.26305306076748819</v>
       </c>
       <c r="DC4">
-        <v>0.26397681115105381</v>
+        <v>0.26305306076748824</v>
       </c>
       <c r="DD4">
-        <v>0.28398709571547326</v>
+        <v>0.26305306076748819</v>
       </c>
       <c r="DE4">
-        <v>0.28398709571547326</v>
+        <v>0.26305306076748824</v>
       </c>
       <c r="DF4">
-        <v>0.28398709571547326</v>
+        <v>0.28299332210538841</v>
       </c>
       <c r="DG4">
-        <v>0.2839870957154732</v>
+        <v>0.28299332210538847</v>
       </c>
       <c r="DH4">
-        <v>0.2839870957154732</v>
+        <v>0.28299332210538841</v>
       </c>
       <c r="DI4">
-        <v>0.27735481937135392</v>
+        <v>0.28299332210538841</v>
       </c>
       <c r="DJ4">
-        <v>0.27735481937135392</v>
+        <v>0.28299332210538847</v>
       </c>
       <c r="DK4">
-        <v>0.27735481937135387</v>
+        <v>0.27638425449612153</v>
       </c>
       <c r="DL4">
-        <v>0.27735481937135387</v>
+        <v>0.27638425449612158</v>
       </c>
       <c r="DM4">
-        <v>0.27735481937135381</v>
+        <v>0.27638425449612153</v>
       </c>
       <c r="DN4">
-        <v>0.27735481937135381</v>
+        <v>0.27638425449612153</v>
       </c>
       <c r="DO4">
-        <v>0.27735481937135381</v>
+        <v>0.27638425449612153</v>
       </c>
       <c r="DP4">
-        <v>0.27735481937135381</v>
+        <v>0.27638425449612153</v>
       </c>
       <c r="DQ4">
-        <v>0.27735481937135376</v>
+        <v>0.27638425449612153</v>
       </c>
       <c r="DR4">
-        <v>0.27735481937135376</v>
+        <v>0.27638425449612147</v>
       </c>
       <c r="DS4">
-        <v>0.27735481937135376</v>
+        <v>0.27638425449612153</v>
       </c>
       <c r="DT4">
-        <v>0.27735481937135376</v>
+        <v>0.27638425449612147</v>
       </c>
       <c r="DU4">
-        <v>0.2773548193713537</v>
+        <v>0.27638425449612147</v>
       </c>
       <c r="DV4">
-        <v>0.27735481937135376</v>
+        <v>0.27638425449612142</v>
       </c>
       <c r="DW4">
-        <v>0.27735481937135376</v>
+        <v>0.27638425449612142</v>
       </c>
       <c r="DX4">
-        <v>0.27735481937135376</v>
+        <v>0.27638425449612142</v>
       </c>
       <c r="DY4">
-        <v>0.2773548193713537</v>
+        <v>0.27638425449612142</v>
       </c>
       <c r="DZ4">
-        <v>0.27735481937135364</v>
+        <v>0.27638425449612142</v>
       </c>
       <c r="EA4">
-        <v>0.27735481937135364</v>
+        <v>0.27638425449612142</v>
       </c>
       <c r="EB4">
-        <v>0.27735481937135364</v>
+        <v>0.27638425449612142</v>
       </c>
       <c r="EC4">
-        <v>0.27735481937135364</v>
+        <v>0.27638425449612142</v>
       </c>
       <c r="ED4">
-        <v>0.27735481937135364</v>
+        <v>0.27638425449612142</v>
       </c>
       <c r="EE4">
-        <v>0.27735481937135364</v>
+        <v>0.27638425449612142</v>
       </c>
       <c r="EF4">
-        <v>0.27735481937135359</v>
+        <v>0.27638425449612136</v>
       </c>
       <c r="EG4">
-        <v>0.27735481937135359</v>
+        <v>0.27638425449612136</v>
       </c>
       <c r="EH4">
-        <v>0.27735481937135359</v>
+        <v>0.27638425449612136</v>
       </c>
       <c r="EI4">
-        <v>0.27735481937135359</v>
+        <v>0.27638425449612136</v>
       </c>
       <c r="EJ4">
-        <v>0.27735481937135359</v>
+        <v>0.27638425449612136</v>
       </c>
       <c r="EK4">
-        <v>0.27735481937135359</v>
+        <v>0.27638425449612136</v>
       </c>
       <c r="EL4">
-        <v>0.27735481937135359</v>
+        <v>0.27638425449612136</v>
       </c>
       <c r="EM4">
-        <v>0.27735481937135359</v>
+        <v>0.27638425449612131</v>
       </c>
       <c r="EN4">
-        <v>0.27735481937135359</v>
+        <v>0.27638425449612136</v>
       </c>
       <c r="EO4">
-        <v>0.27735481937135359</v>
+        <v>0.27638425449612131</v>
       </c>
       <c r="EP4">
-        <v>0.27735481937135359</v>
+        <v>0.27638425449612131</v>
       </c>
       <c r="EQ4">
-        <v>0.27735481937135359</v>
+        <v>0.27638425449612125</v>
       </c>
       <c r="ER4">
-        <v>0.27735481937135359</v>
+        <v>0.27638425449612131</v>
       </c>
       <c r="ES4">
-        <v>0.27735481937135353</v>
+        <v>0.27638425449612125</v>
       </c>
       <c r="ET4">
-        <v>0.27735481937135353</v>
+        <v>0.27638425449612125</v>
       </c>
       <c r="EU4">
-        <v>0.27735481937135353</v>
+        <v>0.27638425449612125</v>
       </c>
       <c r="EV4">
-        <v>0.27735481937135348</v>
+        <v>0.27638425449612125</v>
       </c>
       <c r="EW4">
-        <v>0.27735481937135342</v>
+        <v>0.27638425449612125</v>
       </c>
       <c r="EX4">
-        <v>0.27735481937135342</v>
+        <v>0.27638425449612125</v>
       </c>
       <c r="EY4">
-        <v>0.27735481937135348</v>
+        <v>0.27638425449612125</v>
       </c>
       <c r="EZ4">
-        <v>0.27735481937135342</v>
+        <v>0.27638425449612125</v>
       </c>
       <c r="FA4">
-        <v>0.27735481937135342</v>
+        <v>0.27638425449612125</v>
       </c>
       <c r="FB4">
-        <v>0.27735481937135342</v>
+        <v>0.27638425449612125</v>
       </c>
       <c r="FC4">
-        <v>0.27735481937135337</v>
+        <v>0.2763842544961212</v>
       </c>
       <c r="FD4">
-        <v>0.27735481937135337</v>
+        <v>0.2763842544961212</v>
       </c>
       <c r="FE4">
-        <v>0.27735481937135337</v>
+        <v>0.2763842544961212</v>
       </c>
       <c r="FF4">
-        <v>0.27735481937135331</v>
+        <v>0.27638425449612114</v>
       </c>
       <c r="FG4">
-        <v>0.27735481937135331</v>
+        <v>0.27638425449612114</v>
       </c>
       <c r="FH4">
-        <v>0.27735481937135331</v>
+        <v>0.27638425449612114</v>
       </c>
       <c r="FI4">
-        <v>0.27735481937135331</v>
+        <v>0.27638425449612114</v>
       </c>
       <c r="FJ4">
-        <v>0.27735481937135331</v>
+        <v>0.27638425449612114</v>
       </c>
       <c r="FK4">
-        <v>0.27735481937135331</v>
+        <v>0.27638425449612114</v>
       </c>
       <c r="FL4">
-        <v>0.27735481937135326</v>
+        <v>0.27638425449612114</v>
       </c>
       <c r="FM4">
-        <v>0.27735481937135326</v>
+        <v>0.27638425449612108</v>
       </c>
       <c r="FN4">
-        <v>0.27735481937135326</v>
+        <v>0.27638425449612114</v>
       </c>
       <c r="FO4">
-        <v>0.27735481937135326</v>
+        <v>0.27638425449612108</v>
       </c>
       <c r="FP4">
         <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.20992884809142046</v>
+        <v>0.27638425449612103</v>
+      </c>
+      <c r="FR4">
+        <v>0</v>
+      </c>
+      <c r="FS4">
+        <v>0.20919423108810647</v>
       </c>
     </row>
   </sheetData>
@@ -2683,7 +2710,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FR4"/>
+  <dimension ref="A1:FS4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3467,13 +3494,13 @@
         <v>84</v>
       </c>
       <c r="CH2" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="CI2" t="s">
         <v>86</v>
       </c>
       <c r="CJ2" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="CK2" t="s">
         <v>88</v>
@@ -3728,10 +3755,13 @@
         <v>171</v>
       </c>
       <c r="FQ2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FS2" t="s">
         <v>172</v>
-      </c>
-      <c r="FR2">
-        <v>-5.8108638730821687</v>
       </c>
     </row>
     <row r="3">
@@ -3739,520 +3769,526 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>0.45871201937944195</v>
+        <v>0.43788999944709606</v>
       </c>
       <c r="C3">
-        <v>-0.24047562573979045</v>
+        <v>-0.23909331350071106</v>
       </c>
       <c r="D3">
-        <v>-0.2487864798410811</v>
+        <v>-0.23821600678375535</v>
       </c>
       <c r="E3">
-        <v>-0.25257494947217307</v>
+        <v>-0.27145647197003225</v>
       </c>
       <c r="F3">
-        <v>0.32991947781729719</v>
+        <v>0.32307400188955321</v>
       </c>
       <c r="G3">
-        <v>0.33035355271362277</v>
+        <v>0.3253326268031011</v>
       </c>
       <c r="H3">
-        <v>0.3046882015458397</v>
+        <v>0.31277491051385642</v>
       </c>
       <c r="I3">
-        <v>0.21797074165490021</v>
+        <v>0.2175144292241005</v>
       </c>
       <c r="J3">
-        <v>0.22413301495603966</v>
+        <v>0.21105704937011022</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.59066593500821885</v>
+        <v>0.83089267600177008</v>
       </c>
       <c r="M3">
-        <v>-0.54456735667150546</v>
+        <v>0.96792740572197078</v>
       </c>
       <c r="N3">
-        <v>-0.51690642929965247</v>
+        <v>-0.58802653114769321</v>
       </c>
       <c r="O3">
-        <v>-0.55367224778424329</v>
+        <v>-0.60672276999553032</v>
       </c>
       <c r="P3">
-        <v>-0.53276266795024507</v>
+        <v>-0.55672075577555935</v>
       </c>
       <c r="Q3">
-        <v>-0.50453099510297716</v>
+        <v>-0.58478215274841361</v>
       </c>
       <c r="R3">
-        <v>-0.51109459622941411</v>
+        <v>-0.56286092746941141</v>
       </c>
       <c r="S3">
-        <v>-0.48232670924351506</v>
+        <v>-0.57822026033135898</v>
       </c>
       <c r="T3">
-        <v>-0.5166796131382968</v>
+        <v>-0.55094671949786511</v>
       </c>
       <c r="U3">
-        <v>-0.45019030852423375</v>
+        <v>-0.54295839842556837</v>
       </c>
       <c r="V3">
-        <v>-0.44399438949094999</v>
+        <v>-0.49118535957101256</v>
       </c>
       <c r="W3">
-        <v>-0.44872669197665427</v>
+        <v>-0.54593872940996024</v>
       </c>
       <c r="X3">
-        <v>-0.45980929511932844</v>
+        <v>-0.47960925796547882</v>
       </c>
       <c r="Y3">
-        <v>-0.39499035343827388</v>
+        <v>-0.4620868831776927</v>
       </c>
       <c r="Z3">
-        <v>-0.38375801319772862</v>
+        <v>-0.49147113854428853</v>
       </c>
       <c r="AA3">
-        <v>-0.4254509667878294</v>
+        <v>-0.40656999282575201</v>
       </c>
       <c r="AB3">
-        <v>-0.40654797624209638</v>
+        <v>-0.45003767724688754</v>
       </c>
       <c r="AC3">
-        <v>-0.36480173067092453</v>
+        <v>-0.42768572563338264</v>
       </c>
       <c r="AD3">
-        <v>-0.38826997189413925</v>
+        <v>-0.45024519964793264</v>
       </c>
       <c r="AE3">
-        <v>-0.36229601625074881</v>
+        <v>-0.39696295585532754</v>
       </c>
       <c r="AF3">
-        <v>-0.36081136255151941</v>
+        <v>-0.40856844122766667</v>
       </c>
       <c r="AG3">
-        <v>-0.3984678468116104</v>
+        <v>-0.39711837016799612</v>
       </c>
       <c r="AH3">
-        <v>-0.40390100319751654</v>
+        <v>-0.44112069833289258</v>
       </c>
       <c r="AI3">
-        <v>-0.37411354115654971</v>
+        <v>-0.41427982569117916</v>
       </c>
       <c r="AJ3">
-        <v>-0.3349702282057056</v>
+        <v>-0.38858698157382393</v>
       </c>
       <c r="AK3">
-        <v>-0.40104296076513235</v>
+        <v>-0.3752414721690277</v>
       </c>
       <c r="AL3">
-        <v>-0.35808778887031345</v>
+        <v>-0.37747031654025537</v>
       </c>
       <c r="AM3">
-        <v>-0.40011453711917622</v>
+        <v>-0.36911076680722571</v>
       </c>
       <c r="AN3">
-        <v>-0.30876240277451855</v>
+        <v>-0.37338894931129857</v>
       </c>
       <c r="AO3">
-        <v>-0.34948125557255982</v>
+        <v>-0.35100257324465217</v>
       </c>
       <c r="AP3">
-        <v>-0.28621887904443166</v>
+        <v>-0.35731827339209965</v>
       </c>
       <c r="AQ3">
-        <v>-0.31109035206354346</v>
+        <v>-0.40094515524593682</v>
       </c>
       <c r="AR3">
-        <v>-0.35867853331854205</v>
+        <v>-0.40595938998461345</v>
       </c>
       <c r="AS3">
-        <v>-0.34818584563218452</v>
+        <v>-0.34407967355009778</v>
       </c>
       <c r="AT3">
-        <v>-0.33685531781963829</v>
+        <v>-0.34399073244307588</v>
       </c>
       <c r="AU3">
-        <v>-0.3137634899637407</v>
+        <v>-0.33896602722389846</v>
       </c>
       <c r="AV3">
-        <v>-0.31677892656262141</v>
+        <v>-0.35884478447593499</v>
       </c>
       <c r="AW3">
-        <v>-0.32107819876995264</v>
+        <v>-0.35638562906452287</v>
       </c>
       <c r="AX3">
-        <v>-0.34245984375528671</v>
+        <v>-0.30510226873871293</v>
       </c>
       <c r="AY3">
-        <v>-0.36910099268037783</v>
+        <v>-0.3713226018387748</v>
       </c>
       <c r="AZ3">
-        <v>-0.32556278202333361</v>
+        <v>-0.37770397330021149</v>
       </c>
       <c r="BA3">
-        <v>-0.33464862589864075</v>
+        <v>-0.35987777848993818</v>
       </c>
       <c r="BB3">
-        <v>-0.31036129919501326</v>
+        <v>-0.32926983296640505</v>
       </c>
       <c r="BC3">
-        <v>-0.31986270828191515</v>
+        <v>-0.37274496570350246</v>
       </c>
       <c r="BD3">
-        <v>-0.35527836857504042</v>
+        <v>-0.33263698286243015</v>
       </c>
       <c r="BE3">
-        <v>-0.3373349481524674</v>
+        <v>-0.34028427796201205</v>
       </c>
       <c r="BF3">
-        <v>-0.3161148447483646</v>
+        <v>-0.32770344916950811</v>
       </c>
       <c r="BG3">
-        <v>-0.31799282700023274</v>
+        <v>-0.36810744532305156</v>
       </c>
       <c r="BH3">
-        <v>-0.30508184323332266</v>
+        <v>-0.32599371086496581</v>
       </c>
       <c r="BI3">
-        <v>-0.28865832900287269</v>
+        <v>-0.3662815021179559</v>
       </c>
       <c r="BJ3">
-        <v>-0.18790021645889127</v>
+        <v>-0.32931401071309513</v>
       </c>
       <c r="BK3">
-        <v>-0.19605523702202951</v>
+        <v>-0.31255227194100266</v>
       </c>
       <c r="BL3">
-        <v>-0.14607854976071274</v>
+        <v>-0.24192894809470555</v>
       </c>
       <c r="BM3">
-        <v>-0.18082209135043473</v>
+        <v>-0.22285595452998258</v>
       </c>
       <c r="BN3">
-        <v>-0.16122839154855231</v>
+        <v>-0.22859338304898991</v>
       </c>
       <c r="BO3">
-        <v>-0.17738018470679009</v>
+        <v>-0.23104435407966856</v>
       </c>
       <c r="BP3">
-        <v>-0.21957535313691925</v>
+        <v>-0.24787132995838596</v>
       </c>
       <c r="BQ3">
-        <v>-0.17800350841048335</v>
+        <v>-0.21153415499303568</v>
       </c>
       <c r="BR3">
-        <v>-0.18055135311323833</v>
+        <v>-0.22587896442775279</v>
       </c>
       <c r="BS3">
-        <v>-0.20879429336280642</v>
+        <v>-0.21444558158492527</v>
       </c>
       <c r="BT3">
-        <v>-0.24879187083326668</v>
+        <v>-0.23716711765325471</v>
       </c>
       <c r="BU3">
-        <v>-0.13935129652838404</v>
+        <v>-0.1880732935200253</v>
       </c>
       <c r="BV3">
-        <v>-0.18070522390013993</v>
+        <v>-0.24823496369738707</v>
       </c>
       <c r="BW3">
-        <v>-0.13757517616797105</v>
+        <v>-0.15319464693724633</v>
       </c>
       <c r="BX3">
-        <v>-0.16879288067711931</v>
+        <v>-0.13996292210438885</v>
       </c>
       <c r="BY3">
-        <v>-0.1483707270361625</v>
+        <v>-0.18183496893052178</v>
       </c>
       <c r="BZ3">
-        <v>-0.13809189282114573</v>
+        <v>-0.16387709640368064</v>
       </c>
       <c r="CA3">
-        <v>-0.11083049583110145</v>
+        <v>-0.14942196095449339</v>
       </c>
       <c r="CB3">
-        <v>-0.095487920487903513</v>
+        <v>-0.14399053966141745</v>
       </c>
       <c r="CC3">
-        <v>-0.09526026964296623</v>
+        <v>-0.16174543866150701</v>
       </c>
       <c r="CD3">
-        <v>0.01584490230281848</v>
+        <v>-0.15515408477559339</v>
       </c>
       <c r="CE3">
-        <v>0.036582356334483444</v>
+        <v>-0.16651055413448881</v>
       </c>
       <c r="CF3">
-        <v>0.048012405332197201</v>
+        <v>-0.029644055972537175</v>
       </c>
       <c r="CG3">
-        <v>0.051850341714278672</v>
+        <v>0.012609326345039454</v>
       </c>
       <c r="CH3">
+        <v>-0.0013895815574825796</v>
+      </c>
+      <c r="CI3">
+        <v>0.0073875996137641687</v>
+      </c>
+      <c r="CJ3">
         <v>0</v>
       </c>
-      <c r="CI3">
-        <v>0.035045621413888804</v>
-      </c>
-      <c r="CJ3">
-        <v>0.0062377881341786475</v>
-      </c>
       <c r="CK3">
-        <v>0.028092658101699718</v>
+        <v>-0.040306407824791023</v>
       </c>
       <c r="CL3">
-        <v>-0.0085416490658055105</v>
+        <v>-0.0070428476462955488</v>
       </c>
       <c r="CM3">
-        <v>0.056920127912845876</v>
+        <v>0.0024615429854586792</v>
       </c>
       <c r="CN3">
-        <v>0.046760689963952877</v>
+        <v>0.014734531471128635</v>
       </c>
       <c r="CO3">
-        <v>0.19125055378112599</v>
+        <v>-0.013388646986035969</v>
       </c>
       <c r="CP3">
-        <v>0.18243712624393571</v>
+        <v>0.023078959379159811</v>
       </c>
       <c r="CQ3">
-        <v>0.22307971781456448</v>
+        <v>0.18410451528100855</v>
       </c>
       <c r="CR3">
-        <v>0.18568922350794809</v>
+        <v>0.16475566447830645</v>
       </c>
       <c r="CS3">
-        <v>0.20076546606329265</v>
+        <v>0.17894162688913476</v>
       </c>
       <c r="CT3">
-        <v>0.21498997126592989</v>
+        <v>0.18731087708272517</v>
       </c>
       <c r="CU3">
-        <v>0.2321339663738903</v>
+        <v>0.204606598143036</v>
       </c>
       <c r="CV3">
-        <v>0.20751986141354609</v>
+        <v>0.15873243883739618</v>
       </c>
       <c r="CW3">
-        <v>0.23292174742619115</v>
+        <v>0.23387487422449313</v>
       </c>
       <c r="CX3">
-        <v>0.23229422910133987</v>
+        <v>0.17909769641284964</v>
       </c>
       <c r="CY3">
-        <v>0.20851044069398417</v>
+        <v>0.16311390843748877</v>
       </c>
       <c r="CZ3">
-        <v>0.26905589509214001</v>
+        <v>0.16468528350893211</v>
       </c>
       <c r="DA3">
-        <v>0.25457155319420921</v>
+        <v>0.21862998657380267</v>
       </c>
       <c r="DB3">
-        <v>0.25292753673678114</v>
+        <v>0.20626936899806614</v>
       </c>
       <c r="DC3">
-        <v>0.23304613729724374</v>
+        <v>0.23882837226757631</v>
       </c>
       <c r="DD3">
-        <v>0.27698284322549543</v>
+        <v>0.21904225487096124</v>
       </c>
       <c r="DE3">
-        <v>0.25509262179178582</v>
+        <v>0.20159967151701028</v>
       </c>
       <c r="DF3">
-        <v>0.22823454086502726</v>
+        <v>0.25669292691559015</v>
       </c>
       <c r="DG3">
-        <v>0.2545123026293975</v>
+        <v>0.20147618074733314</v>
       </c>
       <c r="DH3">
-        <v>0.25685684630643857</v>
+        <v>0.19212714627978753</v>
       </c>
       <c r="DI3">
-        <v>0.35623320538716158</v>
+        <v>0.22544917223071442</v>
       </c>
       <c r="DJ3">
-        <v>0.35278934103407583</v>
+        <v>0.21298614449006439</v>
       </c>
       <c r="DK3">
-        <v>0.37133963479697468</v>
+        <v>0.34076315854597977</v>
       </c>
       <c r="DL3">
-        <v>0.37706933898061551</v>
+        <v>0.3176526347073389</v>
       </c>
       <c r="DM3">
-        <v>0.3627364963455928</v>
+        <v>0.32330413099086003</v>
       </c>
       <c r="DN3">
-        <v>0.38701062573754791</v>
+        <v>0.33165755509144096</v>
       </c>
       <c r="DO3">
-        <v>0.38528190915645127</v>
+        <v>0.30001035033262874</v>
       </c>
       <c r="DP3">
-        <v>0.3666602165785196</v>
+        <v>0.33680737425490292</v>
       </c>
       <c r="DQ3">
-        <v>0.36194461504638448</v>
+        <v>0.33677201315838451</v>
       </c>
       <c r="DR3">
-        <v>0.3723452357632665</v>
+        <v>0.32543505263594147</v>
       </c>
       <c r="DS3">
-        <v>0.32329916479554793</v>
+        <v>0.31181723666744954</v>
       </c>
       <c r="DT3">
-        <v>0.37204727707186225</v>
+        <v>0.29822856305420742</v>
       </c>
       <c r="DU3">
-        <v>0.33481562856639491</v>
+        <v>0.32629435593393274</v>
       </c>
       <c r="DV3">
-        <v>0.35383668926108541</v>
+        <v>0.3367565227060485</v>
       </c>
       <c r="DW3">
-        <v>0.34669773485548788</v>
+        <v>0.33976946925651857</v>
       </c>
       <c r="DX3">
-        <v>0.33816941366629522</v>
+        <v>0.3320929374652381</v>
       </c>
       <c r="DY3">
-        <v>0.37219611517214768</v>
+        <v>0.32665834507673347</v>
       </c>
       <c r="DZ3">
-        <v>0.34154549910184384</v>
+        <v>0.28933431996532094</v>
       </c>
       <c r="EA3">
-        <v>0.32690097433610937</v>
+        <v>0.2924943690937461</v>
       </c>
       <c r="EB3">
-        <v>0.35133797469848949</v>
+        <v>0.31726992458546988</v>
       </c>
       <c r="EC3">
-        <v>0.36041203372107461</v>
+        <v>0.32548413973144447</v>
       </c>
       <c r="ED3">
-        <v>0.35635746056535716</v>
+        <v>0.31768877056997441</v>
       </c>
       <c r="EE3">
-        <v>0.35305111452050181</v>
+        <v>0.32923181815919639</v>
       </c>
       <c r="EF3">
-        <v>0.36011118437775252</v>
+        <v>0.32803398175413878</v>
       </c>
       <c r="EG3">
-        <v>0.35301356481327906</v>
+        <v>0.31046066972851344</v>
       </c>
       <c r="EH3">
-        <v>0.3575821492884273</v>
+        <v>0.32295875712326794</v>
       </c>
       <c r="EI3">
-        <v>0.33580914478735985</v>
+        <v>0.30507066972702468</v>
       </c>
       <c r="EJ3">
-        <v>0.33773059867170158</v>
+        <v>0.30053195974589181</v>
       </c>
       <c r="EK3">
-        <v>0.32087626383896023</v>
+        <v>0.28626993067752859</v>
       </c>
       <c r="EL3">
-        <v>0.3253342170593102</v>
+        <v>0.32399245344243432</v>
       </c>
       <c r="EM3">
-        <v>0.32539576954039484</v>
+        <v>0.32258810037247165</v>
       </c>
       <c r="EN3">
-        <v>0.33604531103423751</v>
+        <v>0.32114709199977826</v>
       </c>
       <c r="EO3">
-        <v>0.33439431563210714</v>
+        <v>0.31141798410701493</v>
       </c>
       <c r="EP3">
-        <v>0.32780157360434309</v>
+        <v>0.34005878584219057</v>
       </c>
       <c r="EQ3">
-        <v>0.35131323465997466</v>
+        <v>0.3387190818697593</v>
       </c>
       <c r="ER3">
-        <v>0.34177911280445655</v>
+        <v>0.29874686570131187</v>
       </c>
       <c r="ES3">
-        <v>0.3179578266650957</v>
+        <v>0.32007215172986037</v>
       </c>
       <c r="ET3">
-        <v>0.34855365140742511</v>
+        <v>0.31802414900702392</v>
       </c>
       <c r="EU3">
-        <v>0.36065799756874956</v>
+        <v>0.31459369651129615</v>
       </c>
       <c r="EV3">
-        <v>0.30623915922933731</v>
+        <v>0.28563096956073586</v>
       </c>
       <c r="EW3">
-        <v>0.34603743157360733</v>
+        <v>0.34034556875252181</v>
       </c>
       <c r="EX3">
-        <v>0.27763595080013398</v>
+        <v>0.34016667382353938</v>
       </c>
       <c r="EY3">
-        <v>0.3274769758975683</v>
+        <v>0.26859276160018714</v>
       </c>
       <c r="EZ3">
-        <v>0.3530711606250726</v>
+        <v>0.29455259627819413</v>
       </c>
       <c r="FA3">
-        <v>0.32682468856374441</v>
+        <v>0.29485441010983132</v>
       </c>
       <c r="FB3">
-        <v>0.33086592055863689</v>
+        <v>0.29654467795539041</v>
       </c>
       <c r="FC3">
-        <v>0.33679215256647538</v>
+        <v>0.29730029426707022</v>
       </c>
       <c r="FD3">
-        <v>0.35477882838230135</v>
+        <v>0.28290197924817567</v>
       </c>
       <c r="FE3">
-        <v>0.35524564892120675</v>
+        <v>0.30997609463315362</v>
       </c>
       <c r="FF3">
-        <v>0.30676527907155221</v>
+        <v>0.30422310428473415</v>
       </c>
       <c r="FG3">
-        <v>0.317035591005004</v>
+        <v>0.32970238797265061</v>
       </c>
       <c r="FH3">
-        <v>0.31180230400025727</v>
+        <v>0.26769129101258832</v>
       </c>
       <c r="FI3">
-        <v>0.30843177233697988</v>
+        <v>0.27111215903674851</v>
       </c>
       <c r="FJ3">
-        <v>0.29202618931025009</v>
+        <v>0.31745825318608223</v>
       </c>
       <c r="FK3">
-        <v>0.32657921485799801</v>
+        <v>0.29332976449884279</v>
       </c>
       <c r="FL3">
-        <v>0.28632296494502901</v>
+        <v>0.27575343126903451</v>
       </c>
       <c r="FM3">
-        <v>0.32471483047482175</v>
+        <v>0.31909355003732898</v>
       </c>
       <c r="FN3">
-        <v>0.28503429517647921</v>
+        <v>0.30928586209904013</v>
       </c>
       <c r="FO3">
-        <v>0.32769455511283141</v>
+        <v>0.23963196110165583</v>
       </c>
       <c r="FP3">
         <v>0</v>
       </c>
       <c r="FQ3">
-        <v>-5.8400516693105189</v>
+        <v>0.29764721242130482</v>
+      </c>
+      <c r="FR3">
+        <v>0</v>
+      </c>
+      <c r="FS3">
+        <v>-5.8130708143439218</v>
       </c>
     </row>
     <row r="4">
@@ -4260,520 +4296,526 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.11324475057779242</v>
+        <v>0.11186527542501555</v>
       </c>
       <c r="C4">
-        <v>0.053989310678602853</v>
+        <v>0.053331647411944967</v>
       </c>
       <c r="D4">
-        <v>0.066752946274366357</v>
+        <v>0.065939804558831125</v>
       </c>
       <c r="E4">
-        <v>0.082447214987645692</v>
+        <v>0.08144289572418352</v>
       </c>
       <c r="F4">
-        <v>0.077632662418647039</v>
+        <v>0.076686990956578285</v>
       </c>
       <c r="G4">
-        <v>0.063386803433141403</v>
+        <v>0.062614665917681681</v>
       </c>
       <c r="H4">
-        <v>0.049395147194421181</v>
+        <v>0.048793447090223457</v>
       </c>
       <c r="I4">
-        <v>0.054211129518038643</v>
+        <v>0.053550764196090075</v>
       </c>
       <c r="J4">
-        <v>0.055523435953168498</v>
+        <v>0.054847084953201543</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.11878884620500083</v>
+        <v>0.11734183642368584</v>
       </c>
       <c r="M4">
-        <v>0.11878884620500085</v>
+        <v>0.11734183642368584</v>
       </c>
       <c r="N4">
-        <v>0.11878884620500083</v>
+        <v>0.11734183642368584</v>
       </c>
       <c r="O4">
-        <v>0.11878884620500083</v>
+        <v>0.11734183642368583</v>
       </c>
       <c r="P4">
-        <v>0.11878884620500081</v>
+        <v>0.11734183642368583</v>
       </c>
       <c r="Q4">
-        <v>0.1187888462050008</v>
+        <v>0.11734183642368581</v>
       </c>
       <c r="R4">
-        <v>0.11878884620500081</v>
+        <v>0.11734183642368581</v>
       </c>
       <c r="S4">
-        <v>0.1187888462050008</v>
+        <v>0.11734183642368583</v>
       </c>
       <c r="T4">
-        <v>0.11878884620500076</v>
+        <v>0.11734183642368581</v>
       </c>
       <c r="U4">
-        <v>0.11878884620500076</v>
+        <v>0.11734183642368581</v>
       </c>
       <c r="V4">
-        <v>0.11878884620500076</v>
+        <v>0.1173418364236858</v>
       </c>
       <c r="W4">
-        <v>0.11878884620500074</v>
+        <v>0.1173418364236858</v>
       </c>
       <c r="X4">
-        <v>0.11878884620500073</v>
+        <v>0.1173418364236858</v>
       </c>
       <c r="Y4">
-        <v>0.11878884620500074</v>
+        <v>0.1173418364236858</v>
       </c>
       <c r="Z4">
-        <v>0.11878884620500073</v>
+        <v>0.1173418364236858</v>
       </c>
       <c r="AA4">
-        <v>0.11878884620500073</v>
+        <v>0.1173418364236858</v>
       </c>
       <c r="AB4">
-        <v>0.1187888462050007</v>
+        <v>0.11734183642368577</v>
       </c>
       <c r="AC4">
-        <v>0.1187888462050007</v>
+        <v>0.1173418364236858</v>
       </c>
       <c r="AD4">
-        <v>0.11878884620500069</v>
+        <v>0.1173418364236858</v>
       </c>
       <c r="AE4">
-        <v>0.11878884620500069</v>
+        <v>0.11734183642368579</v>
       </c>
       <c r="AF4">
-        <v>0.11878884620500064</v>
+        <v>0.11734183642368579</v>
       </c>
       <c r="AG4">
-        <v>0.11878884620500069</v>
+        <v>0.11734183642368577</v>
       </c>
       <c r="AH4">
-        <v>0.11878884620500064</v>
+        <v>0.11734183642368579</v>
       </c>
       <c r="AI4">
-        <v>0.11878884620500066</v>
+        <v>0.11734183642368577</v>
       </c>
       <c r="AJ4">
-        <v>0.11878884620500064</v>
+        <v>0.11734183642368573</v>
       </c>
       <c r="AK4">
-        <v>0.11878884620500064</v>
+        <v>0.11734183642368577</v>
       </c>
       <c r="AL4">
-        <v>0.11878884620500064</v>
+        <v>0.11734183642368577</v>
       </c>
       <c r="AM4">
-        <v>0.11878884620500064</v>
+        <v>0.11734183642368577</v>
       </c>
       <c r="AN4">
-        <v>0.11878884620500064</v>
+        <v>0.1173418364236857</v>
       </c>
       <c r="AO4">
-        <v>0.11878884620500064</v>
+        <v>0.11734183642368577</v>
       </c>
       <c r="AP4">
-        <v>0.11878884620500064</v>
+        <v>0.1173418364236857</v>
       </c>
       <c r="AQ4">
-        <v>0.11878884620500064</v>
+        <v>0.11734183642368572</v>
       </c>
       <c r="AR4">
-        <v>0.11878884620500064</v>
+        <v>0.1173418364236857</v>
       </c>
       <c r="AS4">
-        <v>0.11878884620500063</v>
+        <v>0.1173418364236857</v>
       </c>
       <c r="AT4">
-        <v>0.11878884620500063</v>
+        <v>0.1173418364236857</v>
       </c>
       <c r="AU4">
-        <v>0.11878884620500063</v>
+        <v>0.1173418364236857</v>
       </c>
       <c r="AV4">
-        <v>0.11878884620500063</v>
+        <v>0.1173418364236857</v>
       </c>
       <c r="AW4">
-        <v>0.1187888462050006</v>
+        <v>0.11734183642368565</v>
       </c>
       <c r="AX4">
-        <v>0.1187888462050006</v>
+        <v>0.1173418364236857</v>
       </c>
       <c r="AY4">
-        <v>0.1187888462050006</v>
+        <v>0.11734183642368566</v>
       </c>
       <c r="AZ4">
-        <v>0.11878884620500058</v>
+        <v>0.11734183642368566</v>
       </c>
       <c r="BA4">
-        <v>0.11878884620500058</v>
+        <v>0.11734183642368566</v>
       </c>
       <c r="BB4">
-        <v>0.11878884620500058</v>
+        <v>0.11734183642368566</v>
       </c>
       <c r="BC4">
-        <v>0.11878884620500056</v>
+        <v>0.11734183642368566</v>
       </c>
       <c r="BD4">
-        <v>0.11878884620500056</v>
+        <v>0.11734183642368561</v>
       </c>
       <c r="BE4">
-        <v>0.11878884620500056</v>
+        <v>0.11734183642368566</v>
       </c>
       <c r="BF4">
-        <v>0.11878884620500055</v>
+        <v>0.11734183642368563</v>
       </c>
       <c r="BG4">
-        <v>0.11878884620500053</v>
+        <v>0.11734183642368566</v>
       </c>
       <c r="BH4">
-        <v>0.11878884620500053</v>
+        <v>0.11734183642368561</v>
       </c>
       <c r="BI4">
-        <v>0.11878884620500053</v>
+        <v>0.11734183642368561</v>
       </c>
       <c r="BJ4">
-        <v>0.11308568516543037</v>
+        <v>0.11734183642368561</v>
       </c>
       <c r="BK4">
-        <v>0.11308568516543037</v>
+        <v>0.11734183642368559</v>
       </c>
       <c r="BL4">
-        <v>0.11308568516543037</v>
+        <v>0.11170814764580062</v>
       </c>
       <c r="BM4">
-        <v>0.11308568516543038</v>
+        <v>0.11170814764580062</v>
       </c>
       <c r="BN4">
-        <v>0.11308568516543038</v>
+        <v>0.11170814764580063</v>
       </c>
       <c r="BO4">
-        <v>0.12186738590890389</v>
+        <v>0.11170814764580064</v>
       </c>
       <c r="BP4">
-        <v>0.12186738590890389</v>
+        <v>0.11170814764580064</v>
       </c>
       <c r="BQ4">
-        <v>0.12186738590890388</v>
+        <v>0.12038287532506531</v>
       </c>
       <c r="BR4">
-        <v>0.12556384599800974</v>
+        <v>0.12038287532506531</v>
       </c>
       <c r="BS4">
-        <v>0.12556384599800974</v>
+        <v>0.12038287532506531</v>
       </c>
       <c r="BT4">
-        <v>0.13142673620829018</v>
+        <v>0.12403430750055595</v>
       </c>
       <c r="BU4">
-        <v>0.12496998660185317</v>
+        <v>0.12403430750055597</v>
       </c>
       <c r="BV4">
-        <v>0.12496998660185318</v>
+        <v>0.12982577973051476</v>
       </c>
       <c r="BW4">
-        <v>0.12294414054798758</v>
+        <v>0.12344768211990242</v>
       </c>
       <c r="BX4">
-        <v>0.12294414054798757</v>
+        <v>0.12344768211990244</v>
       </c>
       <c r="BY4">
-        <v>0.12294414054798755</v>
+        <v>0.12144651362751822</v>
       </c>
       <c r="BZ4">
-        <v>0.12048089974464189</v>
+        <v>0.12144651362751822</v>
       </c>
       <c r="CA4">
-        <v>0.12048089974464189</v>
+        <v>0.12144651362751822</v>
       </c>
       <c r="CB4">
-        <v>0.12048089974464186</v>
+        <v>0.11901327844885724</v>
       </c>
       <c r="CC4">
-        <v>0.12048089974464186</v>
+        <v>0.11901327844885724</v>
       </c>
       <c r="CD4">
-        <v>0.11549446607208293</v>
+        <v>0.11901327844885724</v>
       </c>
       <c r="CE4">
-        <v>0.10978916407563247</v>
+        <v>0.11901327844885724</v>
       </c>
       <c r="CF4">
-        <v>0.10978916407563245</v>
+        <v>0.11408758632341121</v>
       </c>
       <c r="CG4">
-        <v>0.10978916407563247</v>
+        <v>0.10845178266841451</v>
       </c>
       <c r="CH4">
+        <v>0.1084517826684145</v>
+      </c>
+      <c r="CI4">
+        <v>0.1084517826684145</v>
+      </c>
+      <c r="CJ4">
         <v>0</v>
       </c>
-      <c r="CI4">
-        <v>0.11742652381214055</v>
-      </c>
-      <c r="CJ4">
-        <v>0.12672336043624197</v>
-      </c>
       <c r="CK4">
-        <v>0.12672336043624197</v>
+        <v>0.11599610897126933</v>
       </c>
       <c r="CL4">
-        <v>0.13122466475635633</v>
+        <v>0.12517969747519483</v>
       </c>
       <c r="CM4">
-        <v>0.13122466475635633</v>
+        <v>0.12517969747519483</v>
       </c>
       <c r="CN4">
-        <v>0.13684524182071373</v>
+        <v>0.12962616978381841</v>
       </c>
       <c r="CO4">
-        <v>0.12496998660185314</v>
+        <v>0.12962616978381838</v>
       </c>
       <c r="CP4">
-        <v>0.12496998660185313</v>
+        <v>0.13517828057168438</v>
       </c>
       <c r="CQ4">
-        <v>0.12294414054798744</v>
+        <v>0.12344768211990227</v>
       </c>
       <c r="CR4">
-        <v>0.12294414054798744</v>
+        <v>0.12344768211990227</v>
       </c>
       <c r="CS4">
-        <v>0.12294414054798744</v>
+        <v>0.12144651362751818</v>
       </c>
       <c r="CT4">
-        <v>0.12048089974464177</v>
+        <v>0.12144651362751818</v>
       </c>
       <c r="CU4">
-        <v>0.12048089974464177</v>
+        <v>0.12144651362751817</v>
       </c>
       <c r="CV4">
-        <v>0.12048089974464177</v>
+        <v>0.11901327844885716</v>
       </c>
       <c r="CW4">
-        <v>0.12048089974464177</v>
+        <v>0.11901327844885713</v>
       </c>
       <c r="CX4">
-        <v>0.12048089974464177</v>
+        <v>0.11901327844885713</v>
       </c>
       <c r="CY4">
-        <v>0.11305915250574372</v>
+        <v>0.11901327844885713</v>
       </c>
       <c r="CZ4">
-        <v>0.11305915250574372</v>
+        <v>0.11901327844885713</v>
       </c>
       <c r="DA4">
-        <v>0.11305915250574371</v>
+        <v>0.11168193819001193</v>
       </c>
       <c r="DB4">
-        <v>0.11305915250574369</v>
+        <v>0.11168193819001189</v>
       </c>
       <c r="DC4">
-        <v>0.11305915250574371</v>
+        <v>0.11168193819001192</v>
       </c>
       <c r="DD4">
-        <v>0.12162939700709675</v>
+        <v>0.11168193819001189</v>
       </c>
       <c r="DE4">
-        <v>0.12162939700709674</v>
+        <v>0.11168193819001192</v>
       </c>
       <c r="DF4">
-        <v>0.12162939700709674</v>
+        <v>0.12014778545190888</v>
       </c>
       <c r="DG4">
-        <v>0.12162939700709674</v>
+        <v>0.12014778545190889</v>
       </c>
       <c r="DH4">
-        <v>0.12162939700709673</v>
+        <v>0.12014778545190888</v>
       </c>
       <c r="DI4">
-        <v>0.11878884620500017</v>
+        <v>0.12014778545190888</v>
       </c>
       <c r="DJ4">
-        <v>0.11878884620500016</v>
+        <v>0.12014778545190888</v>
       </c>
       <c r="DK4">
-        <v>0.11878884620500016</v>
+        <v>0.11734183642368536</v>
       </c>
       <c r="DL4">
-        <v>0.11878884620500016</v>
+        <v>0.11734183642368537</v>
       </c>
       <c r="DM4">
-        <v>0.11878884620500012</v>
+        <v>0.11734183642368536</v>
       </c>
       <c r="DN4">
-        <v>0.11878884620500012</v>
+        <v>0.11734183642368536</v>
       </c>
       <c r="DO4">
-        <v>0.11878884620500013</v>
+        <v>0.11734183642368536</v>
       </c>
       <c r="DP4">
-        <v>0.1187888462050001</v>
+        <v>0.11734183642368536</v>
       </c>
       <c r="DQ4">
-        <v>0.1187888462050001</v>
+        <v>0.11734183642368536</v>
       </c>
       <c r="DR4">
-        <v>0.11878884620500009</v>
+        <v>0.11734183642368534</v>
       </c>
       <c r="DS4">
-        <v>0.11878884620500009</v>
+        <v>0.11734183642368536</v>
       </c>
       <c r="DT4">
-        <v>0.11878884620500009</v>
+        <v>0.11734183642368533</v>
       </c>
       <c r="DU4">
-        <v>0.11878884620500008</v>
+        <v>0.11734183642368534</v>
       </c>
       <c r="DV4">
-        <v>0.11878884620500009</v>
+        <v>0.11734183642368531</v>
       </c>
       <c r="DW4">
-        <v>0.11878884620500009</v>
+        <v>0.11734183642368531</v>
       </c>
       <c r="DX4">
-        <v>0.11878884620500009</v>
+        <v>0.11734183642368531</v>
       </c>
       <c r="DY4">
-        <v>0.11878884620500006</v>
+        <v>0.11734183642368531</v>
       </c>
       <c r="DZ4">
-        <v>0.11878884620500006</v>
+        <v>0.11734183642368531</v>
       </c>
       <c r="EA4">
-        <v>0.11878884620500006</v>
+        <v>0.11734183642368531</v>
       </c>
       <c r="EB4">
-        <v>0.11878884620500006</v>
+        <v>0.11734183642368531</v>
       </c>
       <c r="EC4">
-        <v>0.11878884620500006</v>
+        <v>0.11734183642368529</v>
       </c>
       <c r="ED4">
-        <v>0.11878884620500006</v>
+        <v>0.11734183642368529</v>
       </c>
       <c r="EE4">
-        <v>0.11878884620500003</v>
+        <v>0.11734183642368529</v>
       </c>
       <c r="EF4">
-        <v>0.11878884620500003</v>
+        <v>0.11734183642368527</v>
       </c>
       <c r="EG4">
-        <v>0.11878884620500002</v>
+        <v>0.11734183642368527</v>
       </c>
       <c r="EH4">
-        <v>0.11878884620500002</v>
+        <v>0.11734183642368527</v>
       </c>
       <c r="EI4">
-        <v>0.11878884620500003</v>
+        <v>0.11734183642368527</v>
       </c>
       <c r="EJ4">
-        <v>0.11878884620500002</v>
+        <v>0.11734183642368529</v>
       </c>
       <c r="EK4">
-        <v>0.11878884620500002</v>
+        <v>0.11734183642368527</v>
       </c>
       <c r="EL4">
-        <v>0.11878884620500003</v>
+        <v>0.11734183642368527</v>
       </c>
       <c r="EM4">
-        <v>0.11878884620500002</v>
+        <v>0.11734183642368526</v>
       </c>
       <c r="EN4">
-        <v>0.11878884620500002</v>
+        <v>0.11734183642368527</v>
       </c>
       <c r="EO4">
-        <v>0.11878884620500002</v>
+        <v>0.11734183642368526</v>
       </c>
       <c r="EP4">
-        <v>0.11878884620500002</v>
+        <v>0.11734183642368526</v>
       </c>
       <c r="EQ4">
-        <v>0.11878884620500002</v>
+        <v>0.11734183642368524</v>
       </c>
       <c r="ER4">
-        <v>0.11878884620500002</v>
+        <v>0.11734183642368526</v>
       </c>
       <c r="ES4">
-        <v>0.11878884620499998</v>
+        <v>0.11734183642368524</v>
       </c>
       <c r="ET4">
-        <v>0.11878884620499998</v>
+        <v>0.11734183642368524</v>
       </c>
       <c r="EU4">
-        <v>0.11878884620499998</v>
+        <v>0.11734183642368524</v>
       </c>
       <c r="EV4">
-        <v>0.11878884620499998</v>
+        <v>0.11734183642368524</v>
       </c>
       <c r="EW4">
-        <v>0.11878884620499996</v>
+        <v>0.11734183642368524</v>
       </c>
       <c r="EX4">
-        <v>0.11878884620499996</v>
+        <v>0.11734183642368524</v>
       </c>
       <c r="EY4">
-        <v>0.11878884620499998</v>
+        <v>0.11734183642368524</v>
       </c>
       <c r="EZ4">
-        <v>0.11878884620499995</v>
+        <v>0.11734183642368524</v>
       </c>
       <c r="FA4">
-        <v>0.11878884620499995</v>
+        <v>0.11734183642368524</v>
       </c>
       <c r="FB4">
-        <v>0.11878884620499995</v>
+        <v>0.11734183642368524</v>
       </c>
       <c r="FC4">
-        <v>0.11878884620499994</v>
+        <v>0.11734183642368522</v>
       </c>
       <c r="FD4">
-        <v>0.11878884620499994</v>
+        <v>0.11734183642368522</v>
       </c>
       <c r="FE4">
-        <v>0.11878884620499994</v>
+        <v>0.11734183642368522</v>
       </c>
       <c r="FF4">
-        <v>0.11878884620499992</v>
+        <v>0.1173418364236852</v>
       </c>
       <c r="FG4">
-        <v>0.11878884620499992</v>
+        <v>0.1173418364236852</v>
       </c>
       <c r="FH4">
-        <v>0.11878884620499991</v>
+        <v>0.1173418364236852</v>
       </c>
       <c r="FI4">
-        <v>0.1187888462049999</v>
+        <v>0.1173418364236852</v>
       </c>
       <c r="FJ4">
-        <v>0.1187888462049999</v>
+        <v>0.1173418364236852</v>
       </c>
       <c r="FK4">
-        <v>0.11878884620499991</v>
+        <v>0.1173418364236852</v>
       </c>
       <c r="FL4">
-        <v>0.11878884620499988</v>
+        <v>0.1173418364236852</v>
       </c>
       <c r="FM4">
-        <v>0.11878884620499988</v>
+        <v>0.11734183642368516</v>
       </c>
       <c r="FN4">
-        <v>0.11878884620499987</v>
+        <v>0.11734183642368518</v>
       </c>
       <c r="FO4">
-        <v>0.11878884620499987</v>
+        <v>0.11734183642368516</v>
       </c>
       <c r="FP4">
         <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.089910843108645763</v>
+        <v>0.11734183642368515</v>
+      </c>
+      <c r="FR4">
+        <v>0</v>
+      </c>
+      <c r="FS4">
+        <v>0.088815606698983252</v>
       </c>
     </row>
   </sheetData>
@@ -4782,7 +4824,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FR4"/>
+  <dimension ref="A1:FS4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5566,13 +5608,13 @@
         <v>84</v>
       </c>
       <c r="CH2" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="CI2" t="s">
         <v>86</v>
       </c>
       <c r="CJ2" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="CK2" t="s">
         <v>88</v>
@@ -5827,10 +5869,13 @@
         <v>171</v>
       </c>
       <c r="FQ2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FS2" t="s">
         <v>172</v>
-      </c>
-      <c r="FR2">
-        <v>-6.3434983996230985</v>
       </c>
     </row>
     <row r="3">
@@ -5838,520 +5883,526 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>4.3631222993935044</v>
+        <v>4.3808831340092311</v>
       </c>
       <c r="C3">
-        <v>-0.56041927573475603</v>
+        <v>-0.58035195982616983</v>
       </c>
       <c r="D3">
-        <v>-0.61428286604204341</v>
+        <v>-0.59033378554845128</v>
       </c>
       <c r="E3">
-        <v>-0.63422023400476313</v>
+        <v>-0.62707777036904733</v>
       </c>
       <c r="F3">
-        <v>0.82616034934488425</v>
+        <v>0.81093187223975971</v>
       </c>
       <c r="G3">
-        <v>0.8358193116221625</v>
+        <v>0.85066509273700008</v>
       </c>
       <c r="H3">
-        <v>0.78454430481201798</v>
+        <v>0.79579355272385444</v>
       </c>
       <c r="I3">
-        <v>0.57707175977340219</v>
+        <v>0.55965503454852039</v>
       </c>
       <c r="J3">
-        <v>0.53705700286284652</v>
+        <v>0.55280756410193077</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.93179026817948529</v>
+        <v>0.39767247087256313</v>
       </c>
       <c r="M3">
-        <v>-0.92396027849847462</v>
+        <v>0.54637169634159855</v>
       </c>
       <c r="N3">
-        <v>-0.88176230302044178</v>
+        <v>-0.99208045766455155</v>
       </c>
       <c r="O3">
-        <v>-0.93696127294106857</v>
+        <v>-1.0487728955719287</v>
       </c>
       <c r="P3">
-        <v>-0.91104386073532595</v>
+        <v>-0.99151138972132591</v>
       </c>
       <c r="Q3">
-        <v>-0.87337825986444306</v>
+        <v>-0.96733581651356404</v>
       </c>
       <c r="R3">
-        <v>-0.87885974145504731</v>
+        <v>-1.0025094321389154</v>
       </c>
       <c r="S3">
-        <v>-0.84571593522800392</v>
+        <v>-1.0317945652967861</v>
       </c>
       <c r="T3">
-        <v>-0.89094561048793586</v>
+        <v>-0.96192198913514815</v>
       </c>
       <c r="U3">
-        <v>-0.82376986915872552</v>
+        <v>-0.96473569202670917</v>
       </c>
       <c r="V3">
-        <v>-0.80232998784867893</v>
+        <v>-0.91620777312633739</v>
       </c>
       <c r="W3">
-        <v>-0.8586147320910742</v>
+        <v>-0.9177348676115803</v>
       </c>
       <c r="X3">
-        <v>-0.85311789288049367</v>
+        <v>-0.92958460012738653</v>
       </c>
       <c r="Y3">
-        <v>-0.81819521424482</v>
+        <v>-0.88456139813655543</v>
       </c>
       <c r="Z3">
-        <v>-0.76331540640307904</v>
+        <v>-0.91459991736619028</v>
       </c>
       <c r="AA3">
-        <v>-0.78895405528370832</v>
+        <v>-0.87694714402624541</v>
       </c>
       <c r="AB3">
-        <v>-0.78443457189223298</v>
+        <v>-0.89964758443561665</v>
       </c>
       <c r="AC3">
-        <v>-0.73446349309424841</v>
+        <v>-0.79278753779888644</v>
       </c>
       <c r="AD3">
-        <v>-0.85633914451644377</v>
+        <v>-0.88932302270456665</v>
       </c>
       <c r="AE3">
-        <v>-0.80447065180682209</v>
+        <v>-0.87737353683589225</v>
       </c>
       <c r="AF3">
-        <v>-0.74267522819093879</v>
+        <v>-0.84472746302925938</v>
       </c>
       <c r="AG3">
-        <v>-0.77577039063835962</v>
+        <v>-0.8806271699019711</v>
       </c>
       <c r="AH3">
-        <v>-0.78839129804737273</v>
+        <v>-0.88409304767697605</v>
       </c>
       <c r="AI3">
-        <v>-0.77737600999980649</v>
+        <v>-0.86650822305497321</v>
       </c>
       <c r="AJ3">
-        <v>-0.7316293530542699</v>
+        <v>-0.85713117457986032</v>
       </c>
       <c r="AK3">
-        <v>-0.80531445530687429</v>
+        <v>-0.84015946822926257</v>
       </c>
       <c r="AL3">
-        <v>-0.75422597132810143</v>
+        <v>-0.80645544661520174</v>
       </c>
       <c r="AM3">
-        <v>-0.81195658208055144</v>
+        <v>-0.85436907962526709</v>
       </c>
       <c r="AN3">
-        <v>-0.76146631687398314</v>
+        <v>-0.87330562429423619</v>
       </c>
       <c r="AO3">
-        <v>-0.78331397007357717</v>
+        <v>-0.79910362751754072</v>
       </c>
       <c r="AP3">
-        <v>-0.7141999793550422</v>
+        <v>-0.83655237474204203</v>
       </c>
       <c r="AQ3">
-        <v>-0.70660538476760748</v>
+        <v>-0.83852450544720225</v>
       </c>
       <c r="AR3">
-        <v>-0.77527956921467334</v>
+        <v>-0.87171503210067225</v>
       </c>
       <c r="AS3">
-        <v>-0.76652629108515358</v>
+        <v>-0.79505293621152173</v>
       </c>
       <c r="AT3">
-        <v>-0.76400969674943553</v>
+        <v>-0.82548014724000218</v>
       </c>
       <c r="AU3">
-        <v>-0.72255978339186155</v>
+        <v>-0.79403980659459683</v>
       </c>
       <c r="AV3">
-        <v>-0.73571540061615348</v>
+        <v>-0.80218596962097555</v>
       </c>
       <c r="AW3">
-        <v>-0.74882321490445003</v>
+        <v>-0.84960805828829133</v>
       </c>
       <c r="AX3">
-        <v>-0.79944329940443992</v>
+        <v>-0.80601131943979287</v>
       </c>
       <c r="AY3">
-        <v>-0.7697033122136272</v>
+        <v>-0.82223447039135955</v>
       </c>
       <c r="AZ3">
-        <v>-0.75797057544649848</v>
+        <v>-0.83137108800874815</v>
       </c>
       <c r="BA3">
-        <v>-0.77023886804027397</v>
+        <v>-0.86511590367179392</v>
       </c>
       <c r="BB3">
-        <v>-0.73029746560494091</v>
+        <v>-0.78993871878506694</v>
       </c>
       <c r="BC3">
-        <v>-0.7159485457789343</v>
+        <v>-0.81933180701895725</v>
       </c>
       <c r="BD3">
-        <v>-0.78582634215824732</v>
+        <v>-0.75780565101788899</v>
       </c>
       <c r="BE3">
-        <v>-0.75003790411192273</v>
+        <v>-0.8274897259547459</v>
       </c>
       <c r="BF3">
-        <v>-0.7406905923813657</v>
+        <v>-0.78762030661399274</v>
       </c>
       <c r="BG3">
-        <v>-0.79428478494039145</v>
+        <v>-0.87798608315999127</v>
       </c>
       <c r="BH3">
-        <v>-0.70749354847465162</v>
+        <v>-0.8183512038373395</v>
       </c>
       <c r="BI3">
-        <v>-0.73515747247509722</v>
+        <v>-0.85701231546973899</v>
       </c>
       <c r="BJ3">
-        <v>-0.49043105435543555</v>
+        <v>-0.82439767907761907</v>
       </c>
       <c r="BK3">
-        <v>-0.48019368288791486</v>
+        <v>-0.82267333819246047</v>
       </c>
       <c r="BL3">
-        <v>-0.41266957567613233</v>
+        <v>-0.55974907335828483</v>
       </c>
       <c r="BM3">
-        <v>-0.44260836287239791</v>
+        <v>-0.55906130474064686</v>
       </c>
       <c r="BN3">
-        <v>-0.44972719311521453</v>
+        <v>-0.52476369138269052</v>
       </c>
       <c r="BO3">
-        <v>-0.44154991515675646</v>
+        <v>-0.59943850009819155</v>
       </c>
       <c r="BP3">
-        <v>-0.46449002887177521</v>
+        <v>-0.51485650367026581</v>
       </c>
       <c r="BQ3">
-        <v>-0.48381562880877349</v>
+        <v>-0.53888012076650949</v>
       </c>
       <c r="BR3">
-        <v>-0.43245003195910597</v>
+        <v>-0.55965845126472358</v>
       </c>
       <c r="BS3">
-        <v>-0.44419077127373507</v>
+        <v>-0.55194740466909831</v>
       </c>
       <c r="BT3">
-        <v>-0.52212160211881076</v>
+        <v>-0.56433956525899254</v>
       </c>
       <c r="BU3">
-        <v>-0.3238412084938343</v>
+        <v>-0.54287055997472045</v>
       </c>
       <c r="BV3">
-        <v>-0.35513249523991358</v>
+        <v>-0.62380244161638199</v>
       </c>
       <c r="BW3">
-        <v>-0.32263676821025195</v>
+        <v>-0.37914685681002247</v>
       </c>
       <c r="BX3">
-        <v>-0.38912500448641973</v>
+        <v>-0.37013500128132859</v>
       </c>
       <c r="BY3">
-        <v>-0.32286477935670033</v>
+        <v>-0.4453412682282194</v>
       </c>
       <c r="BZ3">
-        <v>-0.3456210952080615</v>
+        <v>-0.45723185031276353</v>
       </c>
       <c r="CA3">
-        <v>-0.25462137533937379</v>
+        <v>-0.44538302144892694</v>
       </c>
       <c r="CB3">
-        <v>-0.24785468913462189</v>
+        <v>-0.41203932754837519</v>
       </c>
       <c r="CC3">
-        <v>-0.32511934111490254</v>
+        <v>-0.39547357440890046</v>
       </c>
       <c r="CD3">
-        <v>-0.025016371985820639</v>
+        <v>-0.41950133637492809</v>
       </c>
       <c r="CE3">
-        <v>0.047868671227871543</v>
+        <v>-0.41645320787301571</v>
       </c>
       <c r="CF3">
-        <v>0.092135366400867807</v>
+        <v>-0.11759373857306818</v>
       </c>
       <c r="CG3">
-        <v>0.10200134482425449</v>
+        <v>-0.042613676129179684</v>
       </c>
       <c r="CH3">
+        <v>-0.0058750369235691588</v>
+      </c>
+      <c r="CI3">
+        <v>0.021191892108925595</v>
+      </c>
+      <c r="CJ3">
         <v>0</v>
       </c>
-      <c r="CI3">
-        <v>0.060741284646928843</v>
-      </c>
-      <c r="CJ3">
-        <v>0.070029617210875431</v>
-      </c>
       <c r="CK3">
-        <v>0.13005199666740622</v>
+        <v>-0.041833477410547847</v>
       </c>
       <c r="CL3">
-        <v>0.060995072363567472</v>
+        <v>-0.066854006623890391</v>
       </c>
       <c r="CM3">
-        <v>0.15033146312321147</v>
+        <v>-0.013717156302829327</v>
       </c>
       <c r="CN3">
-        <v>0.19564513457459878</v>
+        <v>0.0022796881711841738</v>
       </c>
       <c r="CO3">
-        <v>0.50803283365609997</v>
+        <v>-0.031330987314486629</v>
       </c>
       <c r="CP3">
-        <v>0.49921940611890964</v>
+        <v>0.084960445787027467</v>
       </c>
       <c r="CQ3">
-        <v>0.53524955399906382</v>
+        <v>0.44390024110635579</v>
       </c>
       <c r="CR3">
-        <v>0.49785905969244754</v>
+        <v>0.42455139030365374</v>
       </c>
       <c r="CS3">
-        <v>0.51293530224779238</v>
+        <v>0.42000005492263054</v>
       </c>
       <c r="CT3">
-        <v>0.53996463527160843</v>
+        <v>0.42836930511622123</v>
       </c>
       <c r="CU3">
-        <v>0.55710863037956859</v>
+        <v>0.44566502617653181</v>
       </c>
       <c r="CV3">
-        <v>0.53249452541922448</v>
+        <v>0.420947778732846</v>
       </c>
       <c r="CW3">
-        <v>0.5578964114318693</v>
+        <v>0.49609021411994259</v>
       </c>
       <c r="CX3">
-        <v>0.55726889310701844</v>
+        <v>0.44131303630829943</v>
       </c>
       <c r="CY3">
-        <v>0.59386264727350158</v>
+        <v>0.42532924833293878</v>
       </c>
       <c r="CZ3">
-        <v>0.65440810167165764</v>
+        <v>0.42690062340438201</v>
       </c>
       <c r="DA3">
-        <v>0.63992375977372651</v>
+        <v>0.55128434491204126</v>
       </c>
       <c r="DB3">
-        <v>0.63827974331629855</v>
+        <v>0.53892372733630489</v>
       </c>
       <c r="DC3">
-        <v>0.61839834387676096</v>
+        <v>0.57148273060581467</v>
       </c>
       <c r="DD3">
-        <v>0.68542356491086043</v>
+        <v>0.55169661320919994</v>
       </c>
       <c r="DE3">
-        <v>0.66353334347715109</v>
+        <v>0.53425402985524895</v>
       </c>
       <c r="DF3">
-        <v>0.63667526255039242</v>
+        <v>0.58954233055012828</v>
       </c>
       <c r="DG3">
-        <v>0.66295302431476277</v>
+        <v>0.53432558438187161</v>
       </c>
       <c r="DH3">
-        <v>0.66529756799180384</v>
+        <v>0.52497654991432607</v>
       </c>
       <c r="DI3">
-        <v>0.92113592102593256</v>
+        <v>0.55829857586525289</v>
       </c>
       <c r="DJ3">
-        <v>0.91769205667284648</v>
+        <v>0.54583554812460289</v>
       </c>
       <c r="DK3">
-        <v>0.93624235043574544</v>
+        <v>0.84448781954642771</v>
       </c>
       <c r="DL3">
-        <v>0.94197205461938638</v>
+        <v>0.8213772957077875</v>
       </c>
       <c r="DM3">
-        <v>0.92763921198436339</v>
+        <v>0.82702879199130841</v>
       </c>
       <c r="DN3">
-        <v>0.95191334137631822</v>
+        <v>0.83538221609188901</v>
       </c>
       <c r="DO3">
-        <v>0.95018462479522159</v>
+        <v>0.80373501133307734</v>
       </c>
       <c r="DP3">
-        <v>0.93156293221728992</v>
+        <v>0.84053203525535092</v>
       </c>
       <c r="DQ3">
-        <v>0.92684733068515468</v>
+        <v>0.84049667415883267</v>
       </c>
       <c r="DR3">
-        <v>0.93724795140203676</v>
+        <v>0.82915971363638974</v>
       </c>
       <c r="DS3">
-        <v>0.88820188043431836</v>
+        <v>0.81554189766789775</v>
       </c>
       <c r="DT3">
-        <v>0.93694999271063251</v>
+        <v>0.80195322405465597</v>
       </c>
       <c r="DU3">
-        <v>0.89971834420516494</v>
+        <v>0.83001901693438096</v>
       </c>
       <c r="DV3">
-        <v>0.91873940489985573</v>
+        <v>0.8404811837064966</v>
       </c>
       <c r="DW3">
-        <v>0.91160045049425809</v>
+        <v>0.84349413025696651</v>
       </c>
       <c r="DX3">
-        <v>0.90307212930506542</v>
+        <v>0.8358175984656866</v>
       </c>
       <c r="DY3">
-        <v>0.93709883081091794</v>
+        <v>0.83038300607718218</v>
       </c>
       <c r="DZ3">
-        <v>0.90644821474061399</v>
+        <v>0.79305898096576954</v>
       </c>
       <c r="EA3">
-        <v>0.89180368997487969</v>
+        <v>0.79621903009419448</v>
       </c>
       <c r="EB3">
-        <v>0.91624069033725986</v>
+        <v>0.82099458558591842</v>
       </c>
       <c r="EC3">
-        <v>0.92531474935984492</v>
+        <v>0.82920880073189296</v>
       </c>
       <c r="ED3">
-        <v>0.92126017620412703</v>
+        <v>0.82141343157042301</v>
       </c>
       <c r="EE3">
-        <v>0.91795383015927179</v>
+        <v>0.83295647915964466</v>
       </c>
       <c r="EF3">
-        <v>0.92501390001652251</v>
+        <v>0.83175864275458711</v>
       </c>
       <c r="EG3">
-        <v>0.91791628045204909</v>
+        <v>0.8141853307289616</v>
       </c>
       <c r="EH3">
-        <v>0.92248486492719739</v>
+        <v>0.82668341812371615</v>
       </c>
       <c r="EI3">
-        <v>0.90071186042613016</v>
+        <v>0.80879533072747312</v>
       </c>
       <c r="EJ3">
-        <v>0.90263331431047178</v>
+        <v>0.80425662074634019</v>
       </c>
       <c r="EK3">
-        <v>0.88577897947773065</v>
+        <v>0.78999459167797714</v>
       </c>
       <c r="EL3">
-        <v>0.89023693269808069</v>
+        <v>0.82771711444288265</v>
       </c>
       <c r="EM3">
-        <v>0.8902984851791651</v>
+        <v>0.82631276137291998</v>
       </c>
       <c r="EN3">
-        <v>0.90094802667300766</v>
+        <v>0.82487175300022686</v>
       </c>
       <c r="EO3">
-        <v>0.89929703127087735</v>
+        <v>0.81514264510746315</v>
       </c>
       <c r="EP3">
-        <v>0.89270428924311351</v>
+        <v>0.84378344684263862</v>
       </c>
       <c r="EQ3">
-        <v>0.91621595029874459</v>
+        <v>0.84244374287020751</v>
       </c>
       <c r="ER3">
-        <v>0.90668182844322653</v>
+        <v>0.80247152670176025</v>
       </c>
       <c r="ES3">
-        <v>0.88286054230386601</v>
+        <v>0.8237968127303088</v>
       </c>
       <c r="ET3">
-        <v>0.91345636704619526</v>
+        <v>0.82174881000747235</v>
       </c>
       <c r="EU3">
-        <v>0.92556071320751965</v>
+        <v>0.81831835751174453</v>
       </c>
       <c r="EV3">
-        <v>0.87114187486810779</v>
+        <v>0.7893556305611843</v>
       </c>
       <c r="EW3">
-        <v>0.91094014721237726</v>
+        <v>0.84407022975296986</v>
       </c>
       <c r="EX3">
-        <v>0.8425386664389044</v>
+        <v>0.84389133482398704</v>
       </c>
       <c r="EY3">
-        <v>0.89237969153633856</v>
+        <v>0.77231742260063552</v>
       </c>
       <c r="EZ3">
-        <v>0.91797387626384264</v>
+        <v>0.79827725727864229</v>
       </c>
       <c r="FA3">
-        <v>0.89172740420251462</v>
+        <v>0.79857907111027948</v>
       </c>
       <c r="FB3">
-        <v>0.89576863619740721</v>
+        <v>0.80026933895583852</v>
       </c>
       <c r="FC3">
-        <v>0.90169486820524547</v>
+        <v>0.80102495526751849</v>
       </c>
       <c r="FD3">
-        <v>0.91968154402107116</v>
+        <v>0.78662664024862416</v>
       </c>
       <c r="FE3">
-        <v>0.92014836455997639</v>
+        <v>0.81370075563360167</v>
       </c>
       <c r="FF3">
-        <v>0.87166799471032241</v>
+        <v>0.80794776528518231</v>
       </c>
       <c r="FG3">
-        <v>0.88193830664377404</v>
+        <v>0.83342704897309861</v>
       </c>
       <c r="FH3">
-        <v>0.87670501963902758</v>
+        <v>0.77141595201303692</v>
       </c>
       <c r="FI3">
-        <v>0.8733344879757502</v>
+        <v>0.77483682003719678</v>
       </c>
       <c r="FJ3">
-        <v>0.85692890494902019</v>
+        <v>0.82118291418653022</v>
       </c>
       <c r="FK3">
-        <v>0.89148193049676816</v>
+        <v>0.79705442549929095</v>
       </c>
       <c r="FL3">
-        <v>0.85122568058379899</v>
+        <v>0.77947809226948261</v>
       </c>
       <c r="FM3">
-        <v>0.88961754611359178</v>
+        <v>0.82281821103777708</v>
       </c>
       <c r="FN3">
-        <v>0.84993701081524953</v>
+        <v>0.8130105230994884</v>
       </c>
       <c r="FO3">
-        <v>0.89259727075160133</v>
+        <v>0.7433566221021044</v>
       </c>
       <c r="FP3">
         <v>0</v>
       </c>
       <c r="FQ3">
-        <v>-6.4049543849492885</v>
+        <v>0.8013718734217532</v>
+      </c>
+      <c r="FR3">
+        <v>0</v>
+      </c>
+      <c r="FS3">
+        <v>-6.31679547534437</v>
       </c>
     </row>
     <row r="4">
@@ -6359,520 +6410,526 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.28462383990107532</v>
+        <v>0.28516683769147033</v>
       </c>
       <c r="C4">
-        <v>0.13569410361675088</v>
+        <v>0.13595297721798566</v>
       </c>
       <c r="D4">
-        <v>0.16777360360089114</v>
+        <v>0.16809367761884142</v>
       </c>
       <c r="E4">
-        <v>0.20721881411017948</v>
+        <v>0.20761414065144296</v>
       </c>
       <c r="F4">
-        <v>0.19511815220221185</v>
+        <v>0.19549039342258223</v>
       </c>
       <c r="G4">
-        <v>0.15931330415004097</v>
+        <v>0.15961723783375459</v>
       </c>
       <c r="H4">
-        <v>0.12414735689931396</v>
+        <v>0.12438420192432259</v>
       </c>
       <c r="I4">
-        <v>0.13625161228289651</v>
+        <v>0.13651154948433358</v>
       </c>
       <c r="J4">
-        <v>0.13954989935393355</v>
+        <v>0.13981612893970785</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.29855809979518705</v>
+        <v>0.29912768099589765</v>
       </c>
       <c r="M4">
-        <v>0.2985580997951871</v>
+        <v>0.29912768099589765</v>
       </c>
       <c r="N4">
-        <v>0.29855809979518705</v>
+        <v>0.29912768099589765</v>
       </c>
       <c r="O4">
-        <v>0.29855809979518705</v>
+        <v>0.29912768099589759</v>
       </c>
       <c r="P4">
-        <v>0.29855809979518699</v>
+        <v>0.29912768099589759</v>
       </c>
       <c r="Q4">
-        <v>0.29855809979518694</v>
+        <v>0.29912768099589754</v>
       </c>
       <c r="R4">
-        <v>0.29855809979518699</v>
+        <v>0.29912768099589754</v>
       </c>
       <c r="S4">
-        <v>0.29855809979518694</v>
+        <v>0.29912768099589759</v>
       </c>
       <c r="T4">
-        <v>0.29855809979518683</v>
+        <v>0.29912768099589754</v>
       </c>
       <c r="U4">
-        <v>0.29855809979518683</v>
+        <v>0.29912768099589754</v>
       </c>
       <c r="V4">
-        <v>0.29855809979518683</v>
+        <v>0.29912768099589748</v>
       </c>
       <c r="W4">
-        <v>0.29855809979518683</v>
+        <v>0.29912768099589748</v>
       </c>
       <c r="X4">
-        <v>0.29855809979518677</v>
+        <v>0.29912768099589748</v>
       </c>
       <c r="Y4">
-        <v>0.29855809979518683</v>
+        <v>0.29912768099589748</v>
       </c>
       <c r="Z4">
-        <v>0.29855809979518677</v>
+        <v>0.29912768099589748</v>
       </c>
       <c r="AA4">
-        <v>0.29855809979518677</v>
+        <v>0.29912768099589748</v>
       </c>
       <c r="AB4">
-        <v>0.29855809979518677</v>
+        <v>0.29912768099589743</v>
       </c>
       <c r="AC4">
-        <v>0.29855809979518677</v>
+        <v>0.29912768099589748</v>
       </c>
       <c r="AD4">
-        <v>0.29855809979518666</v>
+        <v>0.29912768099589748</v>
       </c>
       <c r="AE4">
-        <v>0.29855809979518666</v>
+        <v>0.29912768099589748</v>
       </c>
       <c r="AF4">
-        <v>0.2985580997951866</v>
+        <v>0.29912768099589748</v>
       </c>
       <c r="AG4">
-        <v>0.29855809979518666</v>
+        <v>0.29912768099589743</v>
       </c>
       <c r="AH4">
-        <v>0.2985580997951866</v>
+        <v>0.29912768099589748</v>
       </c>
       <c r="AI4">
-        <v>0.29855809979518666</v>
+        <v>0.29912768099589743</v>
       </c>
       <c r="AJ4">
-        <v>0.2985580997951866</v>
+        <v>0.29912768099589732</v>
       </c>
       <c r="AK4">
-        <v>0.2985580997951866</v>
+        <v>0.29912768099589743</v>
       </c>
       <c r="AL4">
-        <v>0.2985580997951866</v>
+        <v>0.29912768099589743</v>
       </c>
       <c r="AM4">
-        <v>0.2985580997951866</v>
+        <v>0.29912768099589743</v>
       </c>
       <c r="AN4">
-        <v>0.2985580997951866</v>
+        <v>0.29912768099589726</v>
       </c>
       <c r="AO4">
-        <v>0.29855809979518655</v>
+        <v>0.29912768099589743</v>
       </c>
       <c r="AP4">
-        <v>0.2985580997951866</v>
+        <v>0.29912768099589726</v>
       </c>
       <c r="AQ4">
-        <v>0.2985580997951866</v>
+        <v>0.29912768099589732</v>
       </c>
       <c r="AR4">
-        <v>0.29855809979518655</v>
+        <v>0.29912768099589726</v>
       </c>
       <c r="AS4">
-        <v>0.29855809979518655</v>
+        <v>0.29912768099589726</v>
       </c>
       <c r="AT4">
-        <v>0.29855809979518655</v>
+        <v>0.29912768099589726</v>
       </c>
       <c r="AU4">
-        <v>0.29855809979518655</v>
+        <v>0.29912768099589726</v>
       </c>
       <c r="AV4">
-        <v>0.29855809979518655</v>
+        <v>0.29912768099589726</v>
       </c>
       <c r="AW4">
-        <v>0.29855809979518649</v>
+        <v>0.29912768099589709</v>
       </c>
       <c r="AX4">
-        <v>0.29855809979518649</v>
+        <v>0.29912768099589726</v>
       </c>
       <c r="AY4">
-        <v>0.29855809979518649</v>
+        <v>0.29912768099589715</v>
       </c>
       <c r="AZ4">
-        <v>0.29855809979518644</v>
+        <v>0.29912768099589715</v>
       </c>
       <c r="BA4">
-        <v>0.29855809979518644</v>
+        <v>0.29912768099589715</v>
       </c>
       <c r="BB4">
-        <v>0.29855809979518638</v>
+        <v>0.29912768099589715</v>
       </c>
       <c r="BC4">
-        <v>0.29855809979518638</v>
+        <v>0.29912768099589715</v>
       </c>
       <c r="BD4">
-        <v>0.29855809979518638</v>
+        <v>0.29912768099589704</v>
       </c>
       <c r="BE4">
-        <v>0.29855809979518638</v>
+        <v>0.29912768099589715</v>
       </c>
       <c r="BF4">
-        <v>0.29855809979518638</v>
+        <v>0.29912768099589709</v>
       </c>
       <c r="BG4">
-        <v>0.29855809979518633</v>
+        <v>0.29912768099589715</v>
       </c>
       <c r="BH4">
-        <v>0.29855809979518633</v>
+        <v>0.29912768099589704</v>
       </c>
       <c r="BI4">
-        <v>0.29855809979518633</v>
+        <v>0.29912768099589704</v>
       </c>
       <c r="BJ4">
-        <v>0.28422405264179007</v>
+        <v>0.29912768099589704</v>
       </c>
       <c r="BK4">
-        <v>0.28422405264179007</v>
+        <v>0.29912768099589698</v>
       </c>
       <c r="BL4">
-        <v>0.28422405264179007</v>
+        <v>0.28476628772865148</v>
       </c>
       <c r="BM4">
-        <v>0.28422405264179013</v>
+        <v>0.28476628772865148</v>
       </c>
       <c r="BN4">
-        <v>0.28422405264179013</v>
+        <v>0.28476628772865153</v>
       </c>
       <c r="BO4">
-        <v>0.30629555152996651</v>
+        <v>0.28476628772865153</v>
       </c>
       <c r="BP4">
-        <v>0.30629555152996651</v>
+        <v>0.28476628772865153</v>
       </c>
       <c r="BQ4">
-        <v>0.30629555152996651</v>
+        <v>0.30687989403527299</v>
       </c>
       <c r="BR4">
-        <v>0.31558605426174346</v>
+        <v>0.30687989403527299</v>
       </c>
       <c r="BS4">
-        <v>0.31558605426174346</v>
+        <v>0.30687989403527299</v>
       </c>
       <c r="BT4">
-        <v>0.33032155693232534</v>
+        <v>0.31618812094101667</v>
       </c>
       <c r="BU4">
-        <v>0.31409347698259349</v>
+        <v>0.31618812094101667</v>
       </c>
       <c r="BV4">
-        <v>0.31409347698259354</v>
+        <v>0.33095173561161534</v>
       </c>
       <c r="BW4">
-        <v>0.30900181419065181</v>
+        <v>0.31469269616263978</v>
       </c>
       <c r="BX4">
-        <v>0.30900181419065176</v>
+        <v>0.31469269616263984</v>
       </c>
       <c r="BY4">
-        <v>0.3090018141906517</v>
+        <v>0.30959131963187236</v>
       </c>
       <c r="BZ4">
-        <v>0.30281082474105564</v>
+        <v>0.30959131963187236</v>
       </c>
       <c r="CA4">
-        <v>0.30281082474105564</v>
+        <v>0.30959131963187236</v>
       </c>
       <c r="CB4">
-        <v>0.30281082474105558</v>
+        <v>0.30338851917728887</v>
       </c>
       <c r="CC4">
-        <v>0.30281082474105558</v>
+        <v>0.30338851917728893</v>
       </c>
       <c r="CD4">
-        <v>0.29027816523980299</v>
+        <v>0.30338851917728887</v>
       </c>
       <c r="CE4">
-        <v>0.27593873710967082</v>
+        <v>0.30338851917728887</v>
       </c>
       <c r="CF4">
-        <v>0.27593873710967076</v>
+        <v>0.29083195020163055</v>
       </c>
       <c r="CG4">
-        <v>0.27593873710967082</v>
+        <v>0.27646516569196633</v>
       </c>
       <c r="CH4">
+        <v>0.27646516569196627</v>
+      </c>
+      <c r="CI4">
+        <v>0.27646516569196627</v>
+      </c>
+      <c r="CJ4">
         <v>0</v>
       </c>
-      <c r="CI4">
-        <v>0.29513410505228943</v>
-      </c>
-      <c r="CJ4">
-        <v>0.31850032137034273</v>
-      </c>
       <c r="CK4">
-        <v>0.31850032137034273</v>
+        <v>0.29569715404692093</v>
       </c>
       <c r="CL4">
-        <v>0.32981368038802328</v>
+        <v>0.31910794781088586</v>
       </c>
       <c r="CM4">
-        <v>0.32981368038802328</v>
+        <v>0.31910794781088586</v>
       </c>
       <c r="CN4">
-        <v>0.34394016500082114</v>
+        <v>0.33044289015394412</v>
       </c>
       <c r="CO4">
-        <v>0.31409347698259343</v>
+        <v>0.33044289015394401</v>
       </c>
       <c r="CP4">
-        <v>0.31409347698259338</v>
+        <v>0.3445963248983096</v>
       </c>
       <c r="CQ4">
-        <v>0.30900181419065148</v>
+        <v>0.3146926961626394</v>
       </c>
       <c r="CR4">
-        <v>0.30900181419065148</v>
+        <v>0.3146926961626394</v>
       </c>
       <c r="CS4">
-        <v>0.30900181419065148</v>
+        <v>0.30959131963187225</v>
       </c>
       <c r="CT4">
-        <v>0.30281082474105536</v>
+        <v>0.30959131963187225</v>
       </c>
       <c r="CU4">
-        <v>0.30281082474105531</v>
+        <v>0.3095913196318722</v>
       </c>
       <c r="CV4">
-        <v>0.30281082474105531</v>
+        <v>0.30338851917728865</v>
       </c>
       <c r="CW4">
-        <v>0.30281082474105531</v>
+        <v>0.3033885191772886</v>
       </c>
       <c r="CX4">
-        <v>0.30281082474105531</v>
+        <v>0.3033885191772886</v>
       </c>
       <c r="CY4">
-        <v>0.28415736674735109</v>
+        <v>0.3033885191772886</v>
       </c>
       <c r="CZ4">
-        <v>0.28415736674735109</v>
+        <v>0.3033885191772886</v>
       </c>
       <c r="DA4">
-        <v>0.28415736674735109</v>
+        <v>0.28469947461263778</v>
       </c>
       <c r="DB4">
-        <v>0.28415736674735104</v>
+        <v>0.28469947461263773</v>
       </c>
       <c r="DC4">
-        <v>0.28415736674735109</v>
+        <v>0.28469947461263778</v>
       </c>
       <c r="DD4">
-        <v>0.30569740181670757</v>
+        <v>0.28469947461263773</v>
       </c>
       <c r="DE4">
-        <v>0.30569740181670757</v>
+        <v>0.28469947461263778</v>
       </c>
       <c r="DF4">
-        <v>0.30569740181670757</v>
+        <v>0.3062806031878979</v>
       </c>
       <c r="DG4">
-        <v>0.30569740181670751</v>
+        <v>0.30628060318789796</v>
       </c>
       <c r="DH4">
-        <v>0.30569740181670751</v>
+        <v>0.3062806031878979</v>
       </c>
       <c r="DI4">
-        <v>0.29855809979518538</v>
+        <v>0.3062806031878979</v>
       </c>
       <c r="DJ4">
-        <v>0.29855809979518538</v>
+        <v>0.3062806031878979</v>
       </c>
       <c r="DK4">
-        <v>0.29855809979518538</v>
+        <v>0.29912768099589637</v>
       </c>
       <c r="DL4">
-        <v>0.29855809979518538</v>
+        <v>0.29912768099589643</v>
       </c>
       <c r="DM4">
-        <v>0.29855809979518527</v>
+        <v>0.29912768099589637</v>
       </c>
       <c r="DN4">
-        <v>0.29855809979518527</v>
+        <v>0.29912768099589637</v>
       </c>
       <c r="DO4">
-        <v>0.29855809979518527</v>
+        <v>0.29912768099589637</v>
       </c>
       <c r="DP4">
-        <v>0.29855809979518522</v>
+        <v>0.29912768099589637</v>
       </c>
       <c r="DQ4">
-        <v>0.29855809979518522</v>
+        <v>0.29912768099589637</v>
       </c>
       <c r="DR4">
-        <v>0.29855809979518522</v>
+        <v>0.29912768099589637</v>
       </c>
       <c r="DS4">
-        <v>0.29855809979518522</v>
+        <v>0.29912768099589637</v>
       </c>
       <c r="DT4">
-        <v>0.29855809979518522</v>
+        <v>0.29912768099589632</v>
       </c>
       <c r="DU4">
-        <v>0.29855809979518516</v>
+        <v>0.29912768099589637</v>
       </c>
       <c r="DV4">
-        <v>0.29855809979518522</v>
+        <v>0.29912768099589626</v>
       </c>
       <c r="DW4">
-        <v>0.29855809979518522</v>
+        <v>0.29912768099589626</v>
       </c>
       <c r="DX4">
-        <v>0.29855809979518522</v>
+        <v>0.29912768099589626</v>
       </c>
       <c r="DY4">
-        <v>0.29855809979518511</v>
+        <v>0.29912768099589626</v>
       </c>
       <c r="DZ4">
-        <v>0.29855809979518511</v>
+        <v>0.29912768099589626</v>
       </c>
       <c r="EA4">
-        <v>0.29855809979518511</v>
+        <v>0.29912768099589626</v>
       </c>
       <c r="EB4">
-        <v>0.29855809979518511</v>
+        <v>0.29912768099589626</v>
       </c>
       <c r="EC4">
-        <v>0.29855809979518511</v>
+        <v>0.29912768099589621</v>
       </c>
       <c r="ED4">
-        <v>0.29855809979518511</v>
+        <v>0.29912768099589621</v>
       </c>
       <c r="EE4">
-        <v>0.29855809979518511</v>
+        <v>0.29912768099589621</v>
       </c>
       <c r="EF4">
-        <v>0.29855809979518505</v>
+        <v>0.29912768099589615</v>
       </c>
       <c r="EG4">
-        <v>0.29855809979518499</v>
+        <v>0.29912768099589615</v>
       </c>
       <c r="EH4">
-        <v>0.29855809979518499</v>
+        <v>0.29912768099589615</v>
       </c>
       <c r="EI4">
-        <v>0.29855809979518505</v>
+        <v>0.29912768099589615</v>
       </c>
       <c r="EJ4">
-        <v>0.29855809979518499</v>
+        <v>0.29912768099589621</v>
       </c>
       <c r="EK4">
-        <v>0.29855809979518499</v>
+        <v>0.29912768099589615</v>
       </c>
       <c r="EL4">
-        <v>0.29855809979518505</v>
+        <v>0.29912768099589615</v>
       </c>
       <c r="EM4">
-        <v>0.29855809979518499</v>
+        <v>0.29912768099589615</v>
       </c>
       <c r="EN4">
-        <v>0.29855809979518499</v>
+        <v>0.29912768099589615</v>
       </c>
       <c r="EO4">
-        <v>0.29855809979518499</v>
+        <v>0.29912768099589615</v>
       </c>
       <c r="EP4">
-        <v>0.29855809979518499</v>
+        <v>0.29912768099589615</v>
       </c>
       <c r="EQ4">
-        <v>0.29855809979518499</v>
+        <v>0.29912768099589609</v>
       </c>
       <c r="ER4">
-        <v>0.29855809979518499</v>
+        <v>0.29912768099589615</v>
       </c>
       <c r="ES4">
-        <v>0.29855809979518494</v>
+        <v>0.29912768099589609</v>
       </c>
       <c r="ET4">
-        <v>0.29855809979518494</v>
+        <v>0.29912768099589609</v>
       </c>
       <c r="EU4">
-        <v>0.29855809979518494</v>
+        <v>0.29912768099589609</v>
       </c>
       <c r="EV4">
-        <v>0.29855809979518488</v>
+        <v>0.29912768099589609</v>
       </c>
       <c r="EW4">
-        <v>0.29855809979518488</v>
+        <v>0.29912768099589609</v>
       </c>
       <c r="EX4">
-        <v>0.29855809979518488</v>
+        <v>0.29912768099589609</v>
       </c>
       <c r="EY4">
-        <v>0.29855809979518488</v>
+        <v>0.29912768099589609</v>
       </c>
       <c r="EZ4">
-        <v>0.29855809979518483</v>
+        <v>0.29912768099589609</v>
       </c>
       <c r="FA4">
-        <v>0.29855809979518483</v>
+        <v>0.29912768099589609</v>
       </c>
       <c r="FB4">
-        <v>0.29855809979518483</v>
+        <v>0.29912768099589609</v>
       </c>
       <c r="FC4">
-        <v>0.29855809979518477</v>
+        <v>0.29912768099589604</v>
       </c>
       <c r="FD4">
-        <v>0.29855809979518483</v>
+        <v>0.29912768099589604</v>
       </c>
       <c r="FE4">
-        <v>0.29855809979518477</v>
+        <v>0.29912768099589604</v>
       </c>
       <c r="FF4">
-        <v>0.29855809979518477</v>
+        <v>0.29912768099589598</v>
       </c>
       <c r="FG4">
-        <v>0.29855809979518477</v>
+        <v>0.29912768099589598</v>
       </c>
       <c r="FH4">
-        <v>0.29855809979518472</v>
+        <v>0.29912768099589598</v>
       </c>
       <c r="FI4">
-        <v>0.29855809979518472</v>
+        <v>0.29912768099589598</v>
       </c>
       <c r="FJ4">
-        <v>0.29855809979518472</v>
+        <v>0.29912768099589598</v>
       </c>
       <c r="FK4">
-        <v>0.29855809979518472</v>
+        <v>0.29912768099589598</v>
       </c>
       <c r="FL4">
-        <v>0.29855809979518466</v>
+        <v>0.29912768099589598</v>
       </c>
       <c r="FM4">
-        <v>0.29855809979518466</v>
+        <v>0.29912768099589587</v>
       </c>
       <c r="FN4">
-        <v>0.29855809979518466</v>
+        <v>0.29912768099589593</v>
       </c>
       <c r="FO4">
-        <v>0.29855809979518466</v>
+        <v>0.29912768099589587</v>
       </c>
       <c r="FP4">
         <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.2259775334729229</v>
+        <v>0.29912768099589587</v>
+      </c>
+      <c r="FR4">
+        <v>0</v>
+      </c>
+      <c r="FS4">
+        <v>0.22640864739993016</v>
       </c>
     </row>
   </sheetData>
@@ -6881,7 +6938,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FR4"/>
+  <dimension ref="A1:FS4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7665,13 +7722,13 @@
         <v>84</v>
       </c>
       <c r="CH2" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="CI2" t="s">
         <v>86</v>
       </c>
       <c r="CJ2" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="CK2" t="s">
         <v>88</v>
@@ -7926,10 +7983,13 @@
         <v>171</v>
       </c>
       <c r="FQ2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FS2" t="s">
         <v>172</v>
-      </c>
-      <c r="FR2">
-        <v>-6.3690690252077706</v>
       </c>
     </row>
     <row r="3">
@@ -7937,520 +7997,526 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>2.2538388423497255</v>
+        <v>2.3008174638585506</v>
       </c>
       <c r="C3">
-        <v>-0.57076958055252913</v>
+        <v>-0.53651615445862599</v>
       </c>
       <c r="D3">
-        <v>-0.58709248585293272</v>
+        <v>-0.56121062717202208</v>
       </c>
       <c r="E3">
-        <v>-0.57981267824156824</v>
+        <v>-0.55690196643844025</v>
       </c>
       <c r="F3">
-        <v>1.7477171529447986</v>
+        <v>1.733633484012375</v>
       </c>
       <c r="G3">
-        <v>1.6450627325192617</v>
+        <v>1.6065414827795799</v>
       </c>
       <c r="H3">
-        <v>1.4083561617324571</v>
+        <v>1.4278501742972594</v>
       </c>
       <c r="I3">
-        <v>1.0381403976427808</v>
+        <v>1.0558708758500321</v>
       </c>
       <c r="J3">
-        <v>0.90667113033078395</v>
+        <v>0.9335562815609818</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.95708654921413239</v>
+        <v>0.48644625153270166</v>
       </c>
       <c r="M3">
-        <v>-0.96204663763178255</v>
+        <v>0.5933524309571494</v>
       </c>
       <c r="N3">
-        <v>-0.92220501978354008</v>
+        <v>-0.94686437274759139</v>
       </c>
       <c r="O3">
-        <v>-0.96542349412355066</v>
+        <v>-1.0043168642844249</v>
       </c>
       <c r="P3">
-        <v>-0.89080297109189732</v>
+        <v>-0.92218407506315248</v>
       </c>
       <c r="Q3">
-        <v>-0.88616876691503521</v>
+        <v>-0.98498472284815419</v>
       </c>
       <c r="R3">
-        <v>-0.91596999565727877</v>
+        <v>-0.98719692329588282</v>
       </c>
       <c r="S3">
-        <v>-0.86582583057548124</v>
+        <v>-0.88320180340236609</v>
       </c>
       <c r="T3">
-        <v>-0.89608846579023882</v>
+        <v>-0.88783452826800136</v>
       </c>
       <c r="U3">
-        <v>-0.81058697020938708</v>
+        <v>-0.8832561330917702</v>
       </c>
       <c r="V3">
-        <v>-0.85359548970392785</v>
+        <v>-0.86591330728707483</v>
       </c>
       <c r="W3">
-        <v>-0.7882973536137764</v>
+        <v>-0.87614071789621339</v>
       </c>
       <c r="X3">
-        <v>-0.87780979031387429</v>
+        <v>-0.86349523513827164</v>
       </c>
       <c r="Y3">
-        <v>-0.76398728892267742</v>
+        <v>-0.83198028994283713</v>
       </c>
       <c r="Z3">
-        <v>-0.77102537829340234</v>
+        <v>-0.86078070822905683</v>
       </c>
       <c r="AA3">
-        <v>-0.83683477659487226</v>
+        <v>-0.78576133332183706</v>
       </c>
       <c r="AB3">
-        <v>-0.74727454702154061</v>
+        <v>-0.83466888434024922</v>
       </c>
       <c r="AC3">
-        <v>-0.76072557275108998</v>
+        <v>-0.79364623434287995</v>
       </c>
       <c r="AD3">
-        <v>-0.79771362726809569</v>
+        <v>-0.82630747754843181</v>
       </c>
       <c r="AE3">
-        <v>-0.78136269136025749</v>
+        <v>-0.78813173048473328</v>
       </c>
       <c r="AF3">
-        <v>-0.78830396812922909</v>
+        <v>-0.80458414188355543</v>
       </c>
       <c r="AG3">
-        <v>-0.85249624317079842</v>
+        <v>-0.76680956681783163</v>
       </c>
       <c r="AH3">
-        <v>-0.79166192114386402</v>
+        <v>-0.83502031377212738</v>
       </c>
       <c r="AI3">
-        <v>-0.79885438287554078</v>
+        <v>-0.79383634936686631</v>
       </c>
       <c r="AJ3">
-        <v>-0.73678963583980861</v>
+        <v>-0.78358428118627521</v>
       </c>
       <c r="AK3">
-        <v>-0.79172702745477719</v>
+        <v>-0.77570921152059646</v>
       </c>
       <c r="AL3">
-        <v>-0.75112135655642476</v>
+        <v>-0.80078161215036436</v>
       </c>
       <c r="AM3">
-        <v>-0.82836610146832479</v>
+        <v>-0.75621372365306938</v>
       </c>
       <c r="AN3">
-        <v>-0.72947207222722588</v>
+        <v>-0.78120361741545707</v>
       </c>
       <c r="AO3">
-        <v>-0.80803877888917253</v>
+        <v>-0.75988931227755807</v>
       </c>
       <c r="AP3">
-        <v>-0.72328928211746857</v>
+        <v>-0.73809256128053902</v>
       </c>
       <c r="AQ3">
-        <v>-0.68498281243209724</v>
+        <v>-0.82078215025975443</v>
       </c>
       <c r="AR3">
-        <v>-0.80723183442831725</v>
+        <v>-0.78973675307964408</v>
       </c>
       <c r="AS3">
-        <v>-0.74398200376793044</v>
+        <v>-0.76277315647885957</v>
       </c>
       <c r="AT3">
-        <v>-0.74107692751036025</v>
+        <v>-0.7432468622706202</v>
       </c>
       <c r="AU3">
-        <v>-0.7397866381429099</v>
+        <v>-0.76421704209227648</v>
       </c>
       <c r="AV3">
-        <v>-0.77129485001432996</v>
+        <v>-0.73788298627182636</v>
       </c>
       <c r="AW3">
-        <v>-0.71238505015079578</v>
+        <v>-0.77798593273819949</v>
       </c>
       <c r="AX3">
-        <v>-0.78677954291094065</v>
+        <v>-0.71566053069969759</v>
       </c>
       <c r="AY3">
-        <v>-0.74879845509799148</v>
+        <v>-0.77435574091448356</v>
       </c>
       <c r="AZ3">
-        <v>-0.74176953119898348</v>
+        <v>-0.81672216168665468</v>
       </c>
       <c r="BA3">
-        <v>-0.74793063423668704</v>
+        <v>-0.79496846882512462</v>
       </c>
       <c r="BB3">
-        <v>-0.73272161391360657</v>
+        <v>-0.72793507753236797</v>
       </c>
       <c r="BC3">
-        <v>-0.72616322143808698</v>
+        <v>-0.80044623767656642</v>
       </c>
       <c r="BD3">
-        <v>-0.78088141618771401</v>
+        <v>-0.74287448548580326</v>
       </c>
       <c r="BE3">
-        <v>-0.74156984318899299</v>
+        <v>-0.7065457421266137</v>
       </c>
       <c r="BF3">
-        <v>-0.69938473697234782</v>
+        <v>-0.75704702517093414</v>
       </c>
       <c r="BG3">
-        <v>-0.67954234739328057</v>
+        <v>-0.8015258077319678</v>
       </c>
       <c r="BH3">
-        <v>-0.75214958108639884</v>
+        <v>-0.73970285850789685</v>
       </c>
       <c r="BI3">
-        <v>-0.68744241240959914</v>
+        <v>-0.76345336117662221</v>
       </c>
       <c r="BJ3">
-        <v>-0.48075439901456424</v>
+        <v>-0.78214073623439839</v>
       </c>
       <c r="BK3">
-        <v>-0.46632765386137831</v>
+        <v>-0.74553595124266425</v>
       </c>
       <c r="BL3">
-        <v>-0.40956792433956662</v>
+        <v>-0.55032268681034424</v>
       </c>
       <c r="BM3">
-        <v>-0.45098792067055643</v>
+        <v>-0.50634715154956533</v>
       </c>
       <c r="BN3">
-        <v>-0.44829943282447948</v>
+        <v>-0.48232408454248166</v>
       </c>
       <c r="BO3">
-        <v>-0.41507801527928256</v>
+        <v>-0.52806901284285868</v>
       </c>
       <c r="BP3">
-        <v>-0.47374929593857312</v>
+        <v>-0.54973770826913049</v>
       </c>
       <c r="BQ3">
-        <v>-0.44318216873702604</v>
+        <v>-0.47013573568941563</v>
       </c>
       <c r="BR3">
-        <v>-0.49432535923902443</v>
+        <v>-0.45544640409828213</v>
       </c>
       <c r="BS3">
-        <v>-0.4832693562463975</v>
+        <v>-0.48623260329522139</v>
       </c>
       <c r="BT3">
-        <v>-0.50643644020138867</v>
+        <v>-0.49898473473623828</v>
       </c>
       <c r="BU3">
-        <v>-0.2994937473172179</v>
+        <v>-0.47757713349552694</v>
       </c>
       <c r="BV3">
-        <v>-0.34158532235769307</v>
+        <v>-0.58695223932732821</v>
       </c>
       <c r="BW3">
-        <v>-0.31980109938722379</v>
+        <v>-0.30553145457587938</v>
       </c>
       <c r="BX3">
-        <v>-0.36987434825429705</v>
+        <v>-0.3113077596035001</v>
       </c>
       <c r="BY3">
-        <v>-0.35565950788997297</v>
+        <v>-0.30898210856140279</v>
       </c>
       <c r="BZ3">
-        <v>-0.24958959635120812</v>
+        <v>-0.28610214484060842</v>
       </c>
       <c r="CA3">
-        <v>-0.29505282144488681</v>
+        <v>-0.35301870408044994</v>
       </c>
       <c r="CB3">
-        <v>-0.29646835077553579</v>
+        <v>-0.28625453756590102</v>
       </c>
       <c r="CC3">
-        <v>-0.30300613670551685</v>
+        <v>-0.29797911031913399</v>
       </c>
       <c r="CD3">
-        <v>-0.057048277288313493</v>
+        <v>-0.35851393777804835</v>
       </c>
       <c r="CE3">
-        <v>0.079385283064838177</v>
+        <v>-0.39397431073183442</v>
       </c>
       <c r="CF3">
-        <v>0.061786401254102355</v>
+        <v>-0.10467896888526598</v>
       </c>
       <c r="CG3">
-        <v>0.08530486871016553</v>
+        <v>0.016499157106280287</v>
       </c>
       <c r="CH3">
+        <v>0.037463478767695062</v>
+      </c>
+      <c r="CI3">
+        <v>-0.012668280354818309</v>
+      </c>
+      <c r="CJ3">
         <v>0</v>
       </c>
-      <c r="CI3">
-        <v>0.058440072617497146</v>
-      </c>
-      <c r="CJ3">
-        <v>0.047075275582354303</v>
-      </c>
       <c r="CK3">
-        <v>0.062283004469786032</v>
+        <v>-0.039335921960897739</v>
       </c>
       <c r="CL3">
-        <v>0.066114269799568387</v>
+        <v>0.0021198607011183252</v>
       </c>
       <c r="CM3">
-        <v>0.049000696487220434</v>
+        <v>-0.025429346800111354</v>
       </c>
       <c r="CN3">
-        <v>0.060704368565368406</v>
+        <v>0.01681829574670789</v>
       </c>
       <c r="CO3">
-        <v>0.71266292251615571</v>
+        <v>-0.059826151644942129</v>
       </c>
       <c r="CP3">
-        <v>0.67266734316748711</v>
+        <v>-0.0048878721094211411</v>
       </c>
       <c r="CQ3">
-        <v>0.70859713310781225</v>
+        <v>0.69783643037443988</v>
       </c>
       <c r="CR3">
-        <v>0.66029320893300236</v>
+        <v>0.6587699183178134</v>
       </c>
       <c r="CS3">
-        <v>0.63367318119615501</v>
+        <v>0.69618965041822867</v>
       </c>
       <c r="CT3">
-        <v>0.72289187657850618</v>
+        <v>0.67464593148410323</v>
       </c>
       <c r="CU3">
-        <v>0.70656791193669888</v>
+        <v>0.6544755040017407</v>
       </c>
       <c r="CV3">
-        <v>0.67741868870124489</v>
+        <v>0.67554755965924307</v>
       </c>
       <c r="CW3">
-        <v>0.67387937146815147</v>
+        <v>0.69742372452375856</v>
       </c>
       <c r="CX3">
-        <v>0.63416767823416187</v>
+        <v>0.63685020516403912</v>
       </c>
       <c r="CY3">
-        <v>0.75815048710245692</v>
+        <v>0.59538452263611663</v>
       </c>
       <c r="CZ3">
-        <v>0.77773372850773992</v>
+        <v>0.58281637125237074</v>
       </c>
       <c r="DA3">
-        <v>0.75584536959231607</v>
+        <v>0.74342542250596955</v>
       </c>
       <c r="DB3">
-        <v>0.71586084210744982</v>
+        <v>0.72325386176038986</v>
       </c>
       <c r="DC3">
-        <v>0.686587797380808</v>
+        <v>0.71523899394473467</v>
       </c>
       <c r="DD3">
-        <v>0.77046054912953676</v>
+        <v>0.69172021714099763</v>
       </c>
       <c r="DE3">
-        <v>0.73515503881075828</v>
+        <v>0.64955506834882215</v>
       </c>
       <c r="DF3">
-        <v>0.70377137018521585</v>
+        <v>0.7335543345106077</v>
       </c>
       <c r="DG3">
-        <v>0.70733213289399566</v>
+        <v>0.68738612585200387</v>
       </c>
       <c r="DH3">
-        <v>0.70050971262771544</v>
+        <v>0.65067536071540144</v>
       </c>
       <c r="DI3">
-        <v>1.117242119005069</v>
+        <v>0.67504459207243217</v>
       </c>
       <c r="DJ3">
-        <v>1.1172099096932055</v>
+        <v>0.6450991648013582</v>
       </c>
       <c r="DK3">
-        <v>1.1138626046553073</v>
+        <v>1.1174543508822739</v>
       </c>
       <c r="DL3">
-        <v>1.0985793112526219</v>
+        <v>1.0821481367790502</v>
       </c>
       <c r="DM3">
-        <v>1.0888900021706873</v>
+        <v>1.0771429939839172</v>
       </c>
       <c r="DN3">
-        <v>1.0935151143671571</v>
+        <v>1.0741646648253071</v>
       </c>
       <c r="DO3">
-        <v>1.0869055872374618</v>
+        <v>1.0374279018732728</v>
       </c>
       <c r="DP3">
-        <v>1.0588954021311745</v>
+        <v>1.0513305408262716</v>
       </c>
       <c r="DQ3">
-        <v>1.0521386487772371</v>
+        <v>1.0443845809554704</v>
       </c>
       <c r="DR3">
-        <v>1.0511273310686682</v>
+        <v>1.029315998800191</v>
       </c>
       <c r="DS3">
-        <v>1.0027487372850041</v>
+        <v>1.0086377875156824</v>
       </c>
       <c r="DT3">
-        <v>1.0308684747371271</v>
+        <v>0.98543047538408302</v>
       </c>
       <c r="DU3">
-        <v>0.99491434133556633</v>
+        <v>1.0011955344020556</v>
       </c>
       <c r="DV3">
-        <v>1.0080967763338253</v>
+        <v>1.0092015116871758</v>
       </c>
       <c r="DW3">
-        <v>0.99945457759657907</v>
+        <v>1.0120010215275692</v>
       </c>
       <c r="DX3">
-        <v>0.98290083443314191</v>
+        <v>0.9936526217330004</v>
       </c>
       <c r="DY3">
-        <v>1.0141736268249772</v>
+        <v>0.98507613370242042</v>
       </c>
       <c r="DZ3">
-        <v>0.97648262635917538</v>
+        <v>0.93624566402263742</v>
       </c>
       <c r="EA3">
-        <v>0.95766850974098094</v>
+        <v>0.93800650045806255</v>
       </c>
       <c r="EB3">
-        <v>0.98266598880224865</v>
+        <v>0.95359841373717857</v>
       </c>
       <c r="EC3">
-        <v>0.98472839221937092</v>
+        <v>0.9536854787571184</v>
       </c>
       <c r="ED3">
-        <v>0.98313825166927504</v>
+        <v>0.9563370962880241</v>
       </c>
       <c r="EE3">
-        <v>0.96924007141828594</v>
+        <v>0.96128315808892706</v>
       </c>
       <c r="EF3">
-        <v>0.96782924520795899</v>
+        <v>0.95558782080625282</v>
       </c>
       <c r="EG3">
-        <v>0.96195627136778639</v>
+        <v>0.93018334653631507</v>
       </c>
       <c r="EH3">
-        <v>0.96870131407957849</v>
+        <v>0.93889860896545541</v>
       </c>
       <c r="EI3">
-        <v>0.94173962101710074</v>
+        <v>0.92862793273908728</v>
       </c>
       <c r="EJ3">
-        <v>0.94057884995047658</v>
+        <v>0.90990228280005936</v>
       </c>
       <c r="EK3">
-        <v>0.92986560433298271</v>
+        <v>0.89436978016956892</v>
       </c>
       <c r="EL3">
-        <v>0.92579567251869899</v>
+        <v>0.9296148417305542</v>
       </c>
       <c r="EM3">
-        <v>0.92559555469307297</v>
+        <v>0.92693000706987827</v>
       </c>
       <c r="EN3">
-        <v>0.93101037649042984</v>
+        <v>0.9230120893283732</v>
       </c>
       <c r="EO3">
-        <v>0.93031952936018814</v>
+        <v>0.91680742393798864</v>
       </c>
       <c r="EP3">
-        <v>0.9176245669431542</v>
+        <v>0.93359227639890785</v>
       </c>
       <c r="EQ3">
-        <v>0.94222878727735848</v>
+        <v>0.93551545870908881</v>
       </c>
       <c r="ER3">
-        <v>0.9287100043313864</v>
+        <v>0.8952961033446678</v>
       </c>
       <c r="ES3">
-        <v>0.90257478599591134</v>
+        <v>0.91634361908109507</v>
       </c>
       <c r="ET3">
-        <v>0.93332511117985961</v>
+        <v>0.90943223702871767</v>
       </c>
       <c r="EU3">
-        <v>0.94156257901798146</v>
+        <v>0.90415071273378356</v>
       </c>
       <c r="EV3">
-        <v>0.89394812301982685</v>
+        <v>0.87628338336627809</v>
       </c>
       <c r="EW3">
-        <v>0.92880723239252305</v>
+        <v>0.92737948745143883</v>
       </c>
       <c r="EX3">
-        <v>0.86358069164684381</v>
+        <v>0.92696684945947927</v>
       </c>
       <c r="EY3">
-        <v>0.90984634940672759</v>
+        <v>0.85719417845142531</v>
       </c>
       <c r="EZ3">
-        <v>0.93463328298392723</v>
+        <v>0.88298310919584866</v>
       </c>
       <c r="FA3">
-        <v>0.90740394212758269</v>
+        <v>0.87804666129615805</v>
       </c>
       <c r="FB3">
-        <v>0.91043282338150622</v>
+        <v>0.88008364345259482</v>
       </c>
       <c r="FC3">
-        <v>0.91614026899460654</v>
+        <v>0.87958674579227147</v>
       </c>
       <c r="FD3">
-        <v>0.93217017127818547</v>
+        <v>0.86573180680408512</v>
       </c>
       <c r="FE3">
-        <v>0.93226780377633378</v>
+        <v>0.89251013291561476</v>
       </c>
       <c r="FF3">
-        <v>0.88267899146495576</v>
+        <v>0.88373277236801495</v>
       </c>
       <c r="FG3">
-        <v>0.89101723790081111</v>
+        <v>0.9117128959358648</v>
       </c>
       <c r="FH3">
-        <v>0.88687262147468349</v>
+        <v>0.84885245622495087</v>
       </c>
       <c r="FI3">
-        <v>0.88120883516574866</v>
+        <v>0.85014562555073336</v>
       </c>
       <c r="FJ3">
-        <v>0.86478281989535821</v>
+        <v>0.89512449789399517</v>
       </c>
       <c r="FK3">
-        <v>0.89909747513743921</v>
+        <v>0.87180217788043202</v>
       </c>
       <c r="FL3">
-        <v>0.85877756960026719</v>
+        <v>0.85353261383153989</v>
       </c>
       <c r="FM3">
-        <v>0.89980303301401299</v>
+        <v>0.89582512927159552</v>
       </c>
       <c r="FN3">
-        <v>0.85510795460224265</v>
+        <v>0.88807156659505893</v>
       </c>
       <c r="FO3">
-        <v>0.89901708908441547</v>
+        <v>0.81675390489188859</v>
       </c>
       <c r="FP3">
         <v>0</v>
       </c>
       <c r="FQ3">
-        <v>-6.4043906552322456</v>
+        <v>0.87511594194681119</v>
+      </c>
+      <c r="FR3">
+        <v>0</v>
+      </c>
+      <c r="FS3">
+        <v>-6.381356480204496</v>
       </c>
     </row>
     <row r="4">
@@ -8458,520 +8524,526 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.30069845448782534</v>
+        <v>0.30100451875992912</v>
       </c>
       <c r="C4">
-        <v>0.14335765849708665</v>
+        <v>0.14350357430324526</v>
       </c>
       <c r="D4">
-        <v>0.17724890270672797</v>
+        <v>0.17742931452986216</v>
       </c>
       <c r="E4">
-        <v>0.21892184844877266</v>
+        <v>0.21914467685108766</v>
       </c>
       <c r="F4">
-        <v>0.20613778111530465</v>
+        <v>0.20634759732482622</v>
       </c>
       <c r="G4">
-        <v>0.16831079348067352</v>
+        <v>0.16848210769837196</v>
       </c>
       <c r="H4">
-        <v>0.13115878965496006</v>
+        <v>0.13129228890940028</v>
       </c>
       <c r="I4">
-        <v>0.14394665341167925</v>
+        <v>0.14409316872307962</v>
       </c>
       <c r="J4">
-        <v>0.14743121684481517</v>
+        <v>0.14758127889998968</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.31541967536674881</v>
+        <v>0.31574072355271254</v>
       </c>
       <c r="M4">
-        <v>0.31541967536674892</v>
+        <v>0.31574072355271254</v>
       </c>
       <c r="N4">
-        <v>0.31541967536674881</v>
+        <v>0.31574072355271254</v>
       </c>
       <c r="O4">
-        <v>0.31541967536674881</v>
+        <v>0.31574072355271249</v>
       </c>
       <c r="P4">
-        <v>0.31541967536674875</v>
+        <v>0.31574072355271249</v>
       </c>
       <c r="Q4">
-        <v>0.31541967536674875</v>
+        <v>0.31574072355271243</v>
       </c>
       <c r="R4">
-        <v>0.31541967536674875</v>
+        <v>0.31574072355271243</v>
       </c>
       <c r="S4">
-        <v>0.31541967536674875</v>
+        <v>0.31574072355271249</v>
       </c>
       <c r="T4">
-        <v>0.31541967536674864</v>
+        <v>0.31574072355271243</v>
       </c>
       <c r="U4">
-        <v>0.31541967536674864</v>
+        <v>0.31574072355271243</v>
       </c>
       <c r="V4">
-        <v>0.31541967536674864</v>
+        <v>0.31574072355271238</v>
       </c>
       <c r="W4">
-        <v>0.31541967536674859</v>
+        <v>0.31574072355271238</v>
       </c>
       <c r="X4">
-        <v>0.31541967536674859</v>
+        <v>0.31574072355271238</v>
       </c>
       <c r="Y4">
-        <v>0.31541967536674859</v>
+        <v>0.31574072355271238</v>
       </c>
       <c r="Z4">
-        <v>0.31541967536674859</v>
+        <v>0.31574072355271238</v>
       </c>
       <c r="AA4">
-        <v>0.31541967536674859</v>
+        <v>0.31574072355271238</v>
       </c>
       <c r="AB4">
-        <v>0.31541967536674853</v>
+        <v>0.31574072355271232</v>
       </c>
       <c r="AC4">
-        <v>0.31541967536674853</v>
+        <v>0.31574072355271238</v>
       </c>
       <c r="AD4">
-        <v>0.31541967536674842</v>
+        <v>0.31574072355271238</v>
       </c>
       <c r="AE4">
-        <v>0.31541967536674842</v>
+        <v>0.31574072355271238</v>
       </c>
       <c r="AF4">
-        <v>0.31541967536674836</v>
+        <v>0.31574072355271238</v>
       </c>
       <c r="AG4">
-        <v>0.31541967536674842</v>
+        <v>0.31574072355271232</v>
       </c>
       <c r="AH4">
-        <v>0.31541967536674836</v>
+        <v>0.31574072355271238</v>
       </c>
       <c r="AI4">
-        <v>0.31541967536674842</v>
+        <v>0.31574072355271232</v>
       </c>
       <c r="AJ4">
-        <v>0.31541967536674836</v>
+        <v>0.31574072355271221</v>
       </c>
       <c r="AK4">
-        <v>0.31541967536674836</v>
+        <v>0.31574072355271232</v>
       </c>
       <c r="AL4">
-        <v>0.31541967536674836</v>
+        <v>0.31574072355271232</v>
       </c>
       <c r="AM4">
-        <v>0.31541967536674836</v>
+        <v>0.31574072355271232</v>
       </c>
       <c r="AN4">
-        <v>0.31541967536674836</v>
+        <v>0.3157407235527121</v>
       </c>
       <c r="AO4">
-        <v>0.31541967536674831</v>
+        <v>0.31574072355271232</v>
       </c>
       <c r="AP4">
-        <v>0.31541967536674836</v>
+        <v>0.3157407235527121</v>
       </c>
       <c r="AQ4">
-        <v>0.31541967536674836</v>
+        <v>0.31574072355271221</v>
       </c>
       <c r="AR4">
-        <v>0.31541967536674831</v>
+        <v>0.3157407235527121</v>
       </c>
       <c r="AS4">
-        <v>0.31541967536674831</v>
+        <v>0.3157407235527121</v>
       </c>
       <c r="AT4">
-        <v>0.31541967536674831</v>
+        <v>0.3157407235527121</v>
       </c>
       <c r="AU4">
-        <v>0.31541967536674831</v>
+        <v>0.3157407235527121</v>
       </c>
       <c r="AV4">
-        <v>0.31541967536674831</v>
+        <v>0.3157407235527121</v>
       </c>
       <c r="AW4">
-        <v>0.31541967536674825</v>
+        <v>0.31574072355271199</v>
       </c>
       <c r="AX4">
-        <v>0.31541967536674825</v>
+        <v>0.3157407235527121</v>
       </c>
       <c r="AY4">
-        <v>0.31541967536674825</v>
+        <v>0.31574072355271199</v>
       </c>
       <c r="AZ4">
-        <v>0.3154196753667482</v>
+        <v>0.31574072355271199</v>
       </c>
       <c r="BA4">
-        <v>0.3154196753667482</v>
+        <v>0.31574072355271199</v>
       </c>
       <c r="BB4">
-        <v>0.31541967536674814</v>
+        <v>0.31574072355271199</v>
       </c>
       <c r="BC4">
-        <v>0.31541967536674814</v>
+        <v>0.31574072355271199</v>
       </c>
       <c r="BD4">
-        <v>0.31541967536674814</v>
+        <v>0.31574072355271188</v>
       </c>
       <c r="BE4">
-        <v>0.31541967536674814</v>
+        <v>0.31574072355271199</v>
       </c>
       <c r="BF4">
-        <v>0.31541967536674809</v>
+        <v>0.31574072355271193</v>
       </c>
       <c r="BG4">
-        <v>0.31541967536674809</v>
+        <v>0.31574072355271199</v>
       </c>
       <c r="BH4">
-        <v>0.31541967536674809</v>
+        <v>0.31574072355271188</v>
       </c>
       <c r="BI4">
-        <v>0.31541967536674809</v>
+        <v>0.31574072355271188</v>
       </c>
       <c r="BJ4">
-        <v>0.30027608856432164</v>
+        <v>0.31574072355271188</v>
       </c>
       <c r="BK4">
-        <v>0.30027608856432164</v>
+        <v>0.31574072355271188</v>
       </c>
       <c r="BL4">
-        <v>0.30027608856432164</v>
+        <v>0.30058172293355034</v>
       </c>
       <c r="BM4">
-        <v>0.30027608856432164</v>
+        <v>0.30058172293355034</v>
       </c>
       <c r="BN4">
-        <v>0.3002760885643217</v>
+        <v>0.3005817229335504</v>
       </c>
       <c r="BO4">
-        <v>0.32359411282473194</v>
+        <v>0.30058172293355045</v>
       </c>
       <c r="BP4">
-        <v>0.32359411282473194</v>
+        <v>0.30058172293355045</v>
       </c>
       <c r="BQ4">
-        <v>0.32359411282473188</v>
+        <v>0.32392348131701559</v>
       </c>
       <c r="BR4">
-        <v>0.33340931247150507</v>
+        <v>0.32392348131701559</v>
       </c>
       <c r="BS4">
-        <v>0.33340931247150507</v>
+        <v>0.32392348131701559</v>
       </c>
       <c r="BT4">
-        <v>0.3489770276730329</v>
+        <v>0.33374867131089198</v>
       </c>
       <c r="BU4">
-        <v>0.33183243935644896</v>
+        <v>0.33374867131089198</v>
       </c>
       <c r="BV4">
-        <v>0.33183243935644902</v>
+        <v>0.34933223202593056</v>
       </c>
       <c r="BW4">
-        <v>0.3264532162638149</v>
+        <v>0.33217019318418911</v>
       </c>
       <c r="BX4">
-        <v>0.32645321626381485</v>
+        <v>0.33217019318418911</v>
       </c>
       <c r="BY4">
-        <v>0.32645321626381485</v>
+        <v>0.32678549487884762</v>
       </c>
       <c r="BZ4">
-        <v>0.31991258017412183</v>
+        <v>0.32678549487884762</v>
       </c>
       <c r="CA4">
-        <v>0.31991258017412183</v>
+        <v>0.32678549487884762</v>
       </c>
       <c r="CB4">
-        <v>0.31991258017412183</v>
+        <v>0.32023820143859211</v>
       </c>
       <c r="CC4">
-        <v>0.31991258017412183</v>
+        <v>0.32023820143859216</v>
       </c>
       <c r="CD4">
-        <v>0.30667211744985168</v>
+        <v>0.32023820143859211</v>
       </c>
       <c r="CE4">
-        <v>0.29152284577089238</v>
+        <v>0.32023820143859211</v>
       </c>
       <c r="CF4">
-        <v>0.29152284577089238</v>
+        <v>0.30698426198198836</v>
       </c>
       <c r="CG4">
-        <v>0.29152284577089238</v>
+        <v>0.29181957069997527</v>
       </c>
       <c r="CH4">
+        <v>0.29181957069997522</v>
+      </c>
+      <c r="CI4">
+        <v>0.29181957069997522</v>
+      </c>
+      <c r="CJ4">
         <v>0</v>
       </c>
-      <c r="CI4">
-        <v>0.31180230470756021</v>
-      </c>
-      <c r="CJ4">
-        <v>0.33648816776284352</v>
-      </c>
       <c r="CK4">
-        <v>0.33648816776284352</v>
+        <v>0.31211967097265447</v>
       </c>
       <c r="CL4">
-        <v>0.34844046793862932</v>
+        <v>0.33683066039820009</v>
       </c>
       <c r="CM4">
-        <v>0.34844046793862932</v>
+        <v>0.33683066039820014</v>
       </c>
       <c r="CN4">
-        <v>0.36336476975358178</v>
+        <v>0.34879512615713659</v>
       </c>
       <c r="CO4">
-        <v>0.33183243935644885</v>
+        <v>0.34879512615713648</v>
       </c>
       <c r="CP4">
-        <v>0.33183243935644879</v>
+        <v>0.36373461859081524</v>
       </c>
       <c r="CQ4">
-        <v>0.32645321626381457</v>
+        <v>0.33217019318418867</v>
       </c>
       <c r="CR4">
-        <v>0.32645321626381457</v>
+        <v>0.33217019318418867</v>
       </c>
       <c r="CS4">
-        <v>0.32645321626381457</v>
+        <v>0.32678549487884756</v>
       </c>
       <c r="CT4">
-        <v>0.31991258017412155</v>
+        <v>0.3267854948788475</v>
       </c>
       <c r="CU4">
-        <v>0.3199125801741215</v>
+        <v>0.32678549487884745</v>
       </c>
       <c r="CV4">
-        <v>0.3199125801741215</v>
+        <v>0.32023820143859189</v>
       </c>
       <c r="CW4">
-        <v>0.3199125801741215</v>
+        <v>0.32023820143859183</v>
       </c>
       <c r="CX4">
-        <v>0.3199125801741215</v>
+        <v>0.32023820143859183</v>
       </c>
       <c r="CY4">
-        <v>0.3002056364707763</v>
+        <v>0.32023820143859183</v>
       </c>
       <c r="CZ4">
-        <v>0.3002056364707763</v>
+        <v>0.32023820143859183</v>
       </c>
       <c r="DA4">
-        <v>0.30020563647077625</v>
+        <v>0.30051119913072899</v>
       </c>
       <c r="DB4">
-        <v>0.30020563647077625</v>
+        <v>0.30051119913072888</v>
       </c>
       <c r="DC4">
-        <v>0.30020563647077625</v>
+        <v>0.30051119913072893</v>
       </c>
       <c r="DD4">
-        <v>0.32296218159089074</v>
+        <v>0.30051119913072888</v>
       </c>
       <c r="DE4">
-        <v>0.32296218159089074</v>
+        <v>0.30051119913072893</v>
       </c>
       <c r="DF4">
-        <v>0.32296218159089074</v>
+        <v>0.32329090687543011</v>
       </c>
       <c r="DG4">
-        <v>0.32296218159089068</v>
+        <v>0.32329090687543016</v>
       </c>
       <c r="DH4">
-        <v>0.32296218159089068</v>
+        <v>0.32329090687543011</v>
       </c>
       <c r="DI4">
-        <v>0.31541967536674709</v>
+        <v>0.32329090687543011</v>
       </c>
       <c r="DJ4">
-        <v>0.31541967536674709</v>
+        <v>0.32329090687543016</v>
       </c>
       <c r="DK4">
-        <v>0.31541967536674703</v>
+        <v>0.31574072355271121</v>
       </c>
       <c r="DL4">
-        <v>0.31541967536674703</v>
+        <v>0.31574072355271127</v>
       </c>
       <c r="DM4">
-        <v>0.31541967536674692</v>
+        <v>0.31574072355271121</v>
       </c>
       <c r="DN4">
-        <v>0.31541967536674692</v>
+        <v>0.31574072355271121</v>
       </c>
       <c r="DO4">
-        <v>0.31541967536674698</v>
+        <v>0.31574072355271121</v>
       </c>
       <c r="DP4">
-        <v>0.31541967536674692</v>
+        <v>0.31574072355271121</v>
       </c>
       <c r="DQ4">
-        <v>0.31541967536674692</v>
+        <v>0.31574072355271121</v>
       </c>
       <c r="DR4">
-        <v>0.31541967536674687</v>
+        <v>0.31574072355271116</v>
       </c>
       <c r="DS4">
-        <v>0.31541967536674687</v>
+        <v>0.31574072355271121</v>
       </c>
       <c r="DT4">
-        <v>0.31541967536674687</v>
+        <v>0.31574072355271116</v>
       </c>
       <c r="DU4">
-        <v>0.31541967536674681</v>
+        <v>0.31574072355271116</v>
       </c>
       <c r="DV4">
-        <v>0.31541967536674687</v>
+        <v>0.3157407235527111</v>
       </c>
       <c r="DW4">
-        <v>0.31541967536674687</v>
+        <v>0.3157407235527111</v>
       </c>
       <c r="DX4">
-        <v>0.31541967536674687</v>
+        <v>0.3157407235527111</v>
       </c>
       <c r="DY4">
-        <v>0.31541967536674681</v>
+        <v>0.3157407235527111</v>
       </c>
       <c r="DZ4">
-        <v>0.31541967536674675</v>
+        <v>0.3157407235527111</v>
       </c>
       <c r="EA4">
-        <v>0.31541967536674675</v>
+        <v>0.3157407235527111</v>
       </c>
       <c r="EB4">
-        <v>0.31541967536674675</v>
+        <v>0.3157407235527111</v>
       </c>
       <c r="EC4">
-        <v>0.31541967536674675</v>
+        <v>0.31574072355271104</v>
       </c>
       <c r="ED4">
-        <v>0.31541967536674675</v>
+        <v>0.31574072355271104</v>
       </c>
       <c r="EE4">
-        <v>0.31541967536674675</v>
+        <v>0.31574072355271104</v>
       </c>
       <c r="EF4">
-        <v>0.3154196753667467</v>
+        <v>0.31574072355271099</v>
       </c>
       <c r="EG4">
-        <v>0.3154196753667467</v>
+        <v>0.31574072355271099</v>
       </c>
       <c r="EH4">
-        <v>0.3154196753667467</v>
+        <v>0.31574072355271099</v>
       </c>
       <c r="EI4">
-        <v>0.3154196753667467</v>
+        <v>0.31574072355271099</v>
       </c>
       <c r="EJ4">
-        <v>0.3154196753667467</v>
+        <v>0.31574072355271099</v>
       </c>
       <c r="EK4">
-        <v>0.3154196753667467</v>
+        <v>0.31574072355271099</v>
       </c>
       <c r="EL4">
-        <v>0.3154196753667467</v>
+        <v>0.31574072355271099</v>
       </c>
       <c r="EM4">
-        <v>0.3154196753667467</v>
+        <v>0.31574072355271099</v>
       </c>
       <c r="EN4">
-        <v>0.3154196753667467</v>
+        <v>0.31574072355271099</v>
       </c>
       <c r="EO4">
-        <v>0.3154196753667467</v>
+        <v>0.31574072355271099</v>
       </c>
       <c r="EP4">
-        <v>0.3154196753667467</v>
+        <v>0.31574072355271099</v>
       </c>
       <c r="EQ4">
-        <v>0.3154196753667467</v>
+        <v>0.31574072355271093</v>
       </c>
       <c r="ER4">
-        <v>0.3154196753667467</v>
+        <v>0.31574072355271099</v>
       </c>
       <c r="ES4">
-        <v>0.31541967536674659</v>
+        <v>0.31574072355271093</v>
       </c>
       <c r="ET4">
-        <v>0.31541967536674659</v>
+        <v>0.31574072355271093</v>
       </c>
       <c r="EU4">
-        <v>0.31541967536674659</v>
+        <v>0.31574072355271088</v>
       </c>
       <c r="EV4">
-        <v>0.31541967536674659</v>
+        <v>0.31574072355271088</v>
       </c>
       <c r="EW4">
-        <v>0.31541967536674653</v>
+        <v>0.31574072355271093</v>
       </c>
       <c r="EX4">
-        <v>0.31541967536674653</v>
+        <v>0.31574072355271093</v>
       </c>
       <c r="EY4">
-        <v>0.31541967536674659</v>
+        <v>0.31574072355271088</v>
       </c>
       <c r="EZ4">
-        <v>0.31541967536674648</v>
+        <v>0.31574072355271093</v>
       </c>
       <c r="FA4">
-        <v>0.31541967536674648</v>
+        <v>0.31574072355271088</v>
       </c>
       <c r="FB4">
-        <v>0.31541967536674648</v>
+        <v>0.31574072355271088</v>
       </c>
       <c r="FC4">
-        <v>0.31541967536674642</v>
+        <v>0.31574072355271082</v>
       </c>
       <c r="FD4">
-        <v>0.31541967536674648</v>
+        <v>0.31574072355271082</v>
       </c>
       <c r="FE4">
-        <v>0.31541967536674642</v>
+        <v>0.31574072355271082</v>
       </c>
       <c r="FF4">
-        <v>0.31541967536674642</v>
+        <v>0.31574072355271082</v>
       </c>
       <c r="FG4">
-        <v>0.31541967536674642</v>
+        <v>0.31574072355271082</v>
       </c>
       <c r="FH4">
-        <v>0.31541967536674637</v>
+        <v>0.31574072355271082</v>
       </c>
       <c r="FI4">
-        <v>0.31541967536674637</v>
+        <v>0.31574072355271082</v>
       </c>
       <c r="FJ4">
-        <v>0.31541967536674637</v>
+        <v>0.31574072355271082</v>
       </c>
       <c r="FK4">
-        <v>0.31541967536674637</v>
+        <v>0.31574072355271082</v>
       </c>
       <c r="FL4">
-        <v>0.31541967536674631</v>
+        <v>0.31574072355271082</v>
       </c>
       <c r="FM4">
-        <v>0.31541967536674631</v>
+        <v>0.31574072355271066</v>
       </c>
       <c r="FN4">
-        <v>0.31541967536674631</v>
+        <v>0.31574072355271077</v>
       </c>
       <c r="FO4">
-        <v>0.31541967536674631</v>
+        <v>0.31574072355271066</v>
       </c>
       <c r="FP4">
         <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.2387399983356841</v>
+        <v>0.31574072355271066</v>
+      </c>
+      <c r="FR4">
+        <v>0</v>
+      </c>
+      <c r="FS4">
+        <v>0.23898299853307561</v>
       </c>
     </row>
   </sheetData>

--- a/tables/ols_coefficients.xlsx
+++ b/tables/ols_coefficients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="7008" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9840" uniqueCount="182">
   <si>
     <t>y1</t>
   </si>
@@ -553,6 +553,15 @@
   </si>
   <si>
     <t>o.bin_163</t>
+  </si>
+  <si>
+    <t>o.bin_82</t>
+  </si>
+  <si>
+    <t>bin_161</t>
+  </si>
+  <si>
+    <t>min6b</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1386,7 +1395,7 @@
         <v>86</v>
       </c>
       <c r="CJ2" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="CK2" t="s">
         <v>88</v>
@@ -1401,7 +1410,7 @@
         <v>91</v>
       </c>
       <c r="CO2" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="CP2" t="s">
         <v>93</v>
@@ -1638,7 +1647,7 @@
         <v>170</v>
       </c>
       <c r="FP2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="FQ2" t="s">
         <v>177</v>
@@ -1655,526 +1664,526 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>1.0095492353515743</v>
+        <v>-0.010874914394811154</v>
       </c>
       <c r="C3">
-        <v>-0.55631264043364181</v>
+        <v>-1.5590162837283594</v>
       </c>
       <c r="D3">
-        <v>-0.60325047735841919</v>
+        <v>-1.6234370101064852</v>
       </c>
       <c r="E3">
-        <v>-0.61017514990647426</v>
+        <v>-1.6123011789407171</v>
       </c>
       <c r="F3">
-        <v>0.77200337709206313</v>
+        <v>-0.0088758978820310495</v>
       </c>
       <c r="G3">
-        <v>0.78352914947613994</v>
+        <v>0.00012811017715570104</v>
       </c>
       <c r="H3">
-        <v>0.74349517548148059</v>
+        <v>0.0018932997800219613</v>
       </c>
       <c r="I3">
-        <v>0.50008686125536428</v>
+        <v>0.011714965908428247</v>
       </c>
       <c r="J3">
-        <v>0.51009044540679904</v>
+        <v>-0.010134772642417637</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.43078247148940868</v>
+        <v>1.2036052280969363</v>
       </c>
       <c r="M3">
-        <v>0.56912160141518742</v>
+        <v>1.2808343995083882</v>
       </c>
       <c r="N3">
-        <v>-1.0439965595061262</v>
+        <v>-0.27211367359849087</v>
       </c>
       <c r="O3">
-        <v>-1.0106238941666745</v>
+        <v>-0.22825792244544998</v>
       </c>
       <c r="P3">
-        <v>-0.99038157985659103</v>
+        <v>-0.22929635466154014</v>
       </c>
       <c r="Q3">
-        <v>-0.98639480123186751</v>
+        <v>-0.22488240322306852</v>
       </c>
       <c r="R3">
-        <v>-1.0032855801829101</v>
+        <v>-0.2172276432958832</v>
       </c>
       <c r="S3">
-        <v>-0.97186878452077652</v>
+        <v>-0.23258457021575149</v>
       </c>
       <c r="T3">
-        <v>-0.95465346998649525</v>
+        <v>-0.20181137154915921</v>
       </c>
       <c r="U3">
-        <v>-0.92129938120671429</v>
+        <v>-0.18775316081950882</v>
       </c>
       <c r="V3">
-        <v>-0.89969013541787646</v>
+        <v>-0.13158175748711221</v>
       </c>
       <c r="W3">
-        <v>-0.90216822732893098</v>
+        <v>-0.10329310378269062</v>
       </c>
       <c r="X3">
-        <v>-0.91002737085504615</v>
+        <v>-0.030140835335443962</v>
       </c>
       <c r="Y3">
-        <v>-0.89901151409209901</v>
+        <v>-0.11189454287664689</v>
       </c>
       <c r="Z3">
-        <v>-0.89324067133677565</v>
+        <v>-0.12085348861139208</v>
       </c>
       <c r="AA3">
-        <v>-0.88122093904424981</v>
+        <v>-0.10840269276947229</v>
       </c>
       <c r="AB3">
-        <v>-0.83072362232293273</v>
+        <v>-0.169121909732527</v>
       </c>
       <c r="AC3">
-        <v>-0.88357687602371204</v>
+        <v>-0.13607075102339988</v>
       </c>
       <c r="AD3">
-        <v>-0.86103088024824725</v>
+        <v>-0.12832462386014881</v>
       </c>
       <c r="AE3">
-        <v>-0.83450891952940842</v>
+        <v>-0.17365837958937577</v>
       </c>
       <c r="AF3">
-        <v>-0.87615014393997426</v>
+        <v>-0.033398464271532466</v>
       </c>
       <c r="AG3">
-        <v>-0.82054863689065993</v>
+        <v>-0.061039018803457162</v>
       </c>
       <c r="AH3">
-        <v>-0.86966205295257126</v>
+        <v>0.0065688636472515287</v>
       </c>
       <c r="AI3">
-        <v>-0.86063613156278407</v>
+        <v>-0.096833710818961583</v>
       </c>
       <c r="AJ3">
-        <v>-0.84969083844554671</v>
+        <v>-0.044991580120840251</v>
       </c>
       <c r="AK3">
-        <v>-0.84726279812238503</v>
+        <v>-0.097175561845209812</v>
       </c>
       <c r="AL3">
-        <v>-0.82622890447412067</v>
+        <v>0.012067330332713132</v>
       </c>
       <c r="AM3">
-        <v>-0.81769583234337373</v>
+        <v>-0.0302787330327835</v>
       </c>
       <c r="AN3">
-        <v>-0.80704495442251212</v>
+        <v>-0.028783238105441949</v>
       </c>
       <c r="AO3">
-        <v>-0.80800329923324565</v>
+        <v>-0.011089636365627481</v>
       </c>
       <c r="AP3">
-        <v>-0.78127796599348809</v>
+        <v>-0.026834083599861957</v>
       </c>
       <c r="AQ3">
-        <v>-0.85076617716232039</v>
+        <v>-0.054538834369396438</v>
       </c>
       <c r="AR3">
-        <v>-0.80872780547995904</v>
+        <v>-0.046981871582888052</v>
       </c>
       <c r="AS3">
-        <v>-0.7691470188003211</v>
+        <v>-0.019058368518577201</v>
       </c>
       <c r="AT3">
-        <v>-0.8300630683413367</v>
+        <v>-0.070951473966397977</v>
       </c>
       <c r="AU3">
-        <v>-0.75934900475260536</v>
+        <v>0.0040411189914112836</v>
       </c>
       <c r="AV3">
-        <v>-0.70684821264822939</v>
+        <v>-0.066267497979343462</v>
       </c>
       <c r="AW3">
-        <v>-0.79881024979101789</v>
+        <v>-0.029752575266098126</v>
       </c>
       <c r="AX3">
-        <v>-0.81829741651842491</v>
+        <v>-0.0019470028685743752</v>
       </c>
       <c r="AY3">
-        <v>-0.76168755678203715</v>
+        <v>-0.039646500577354464</v>
       </c>
       <c r="AZ3">
-        <v>-0.84271072401368596</v>
+        <v>-0.040312143696600015</v>
       </c>
       <c r="BA3">
-        <v>-0.81757944171612584</v>
+        <v>-0.022421618978999133</v>
       </c>
       <c r="BB3">
-        <v>-0.79934402379692504</v>
+        <v>-0.073972331223218349</v>
       </c>
       <c r="BC3">
-        <v>-0.84810346591063002</v>
+        <v>-0.0028312696690544156</v>
       </c>
       <c r="BD3">
-        <v>-0.79579394053007069</v>
+        <v>-0.047150661872243239</v>
       </c>
       <c r="BE3">
-        <v>-0.78072160040027105</v>
+        <v>-0.049815036766197821</v>
       </c>
       <c r="BF3">
-        <v>-0.76781839025525001</v>
+        <v>-0.056074342577743255</v>
       </c>
       <c r="BG3">
-        <v>-0.82842972347928623</v>
+        <v>-0.0014702326294816024</v>
       </c>
       <c r="BH3">
-        <v>-0.76840366679823324</v>
+        <v>-0.044675657402244169</v>
       </c>
       <c r="BI3">
-        <v>-0.84701280831486048</v>
+        <v>-0.024661627694110805</v>
       </c>
       <c r="BJ3">
-        <v>-0.82419272620029127</v>
+        <v>0.025376669615533396</v>
       </c>
       <c r="BK3">
-        <v>-0.81410852841433889</v>
+        <v>-0.06700973966070127</v>
       </c>
       <c r="BL3">
-        <v>-0.51916957858569557</v>
+        <v>-0.027285815933508834</v>
       </c>
       <c r="BM3">
-        <v>-0.55562465247417547</v>
+        <v>0.0038510578953095506</v>
       </c>
       <c r="BN3">
-        <v>-0.51737583079706739</v>
+        <v>-0.054377062373416121</v>
       </c>
       <c r="BO3">
-        <v>-0.56603670081298696</v>
+        <v>-0.048488730547690262</v>
       </c>
       <c r="BP3">
-        <v>-0.56493917597284693</v>
+        <v>-0.065006374960161678</v>
       </c>
       <c r="BQ3">
-        <v>-0.4919756023873646</v>
+        <v>0.0036467234866916168</v>
       </c>
       <c r="BR3">
-        <v>-0.50914376046186305</v>
+        <v>-0.01065852763578538</v>
       </c>
       <c r="BS3">
-        <v>-0.59355827760715474</v>
+        <v>-0.010024153282520614</v>
       </c>
       <c r="BT3">
-        <v>-0.54836655778581778</v>
+        <v>0.019822203998396907</v>
       </c>
       <c r="BU3">
-        <v>-0.473007572512473</v>
+        <v>-0.082441292055089876</v>
       </c>
       <c r="BV3">
-        <v>-0.53622550892913057</v>
+        <v>-0.073835357347700567</v>
       </c>
       <c r="BW3">
-        <v>-0.4245155396580233</v>
+        <v>-0.050944330316413197</v>
       </c>
       <c r="BX3">
-        <v>-0.37546693377787765</v>
+        <v>-0.041522258244505915</v>
       </c>
       <c r="BY3">
-        <v>-0.42216762041781913</v>
+        <v>-0.063190873059067648</v>
       </c>
       <c r="BZ3">
-        <v>-0.41443509159169029</v>
+        <v>-0.028951250311432055</v>
       </c>
       <c r="CA3">
-        <v>-0.46047083448798443</v>
+        <v>-0.050382274545821379</v>
       </c>
       <c r="CB3">
-        <v>-0.39563131358898385</v>
+        <v>-0.010999171574230956</v>
       </c>
       <c r="CC3">
-        <v>-0.41013128135770588</v>
+        <v>-0.0515769669754228</v>
       </c>
       <c r="CD3">
-        <v>-0.40548657014415068</v>
+        <v>-0.073086949506776688</v>
       </c>
       <c r="CE3">
-        <v>-0.42073197706251303</v>
+        <v>-0.042137903097534499</v>
       </c>
       <c r="CF3">
-        <v>-0.1555574652762316</v>
+        <v>-0.045484535454096364</v>
       </c>
       <c r="CG3">
-        <v>0.022572545777616075</v>
+        <v>-0.062195516530823051</v>
       </c>
       <c r="CH3">
-        <v>-0.030198024249245232</v>
+        <v>-0.05884412136897637</v>
       </c>
       <c r="CI3">
-        <v>-0.0078731012764640066</v>
+        <v>-0.11381026535514609</v>
       </c>
       <c r="CJ3">
+        <v>-0.042650849937484886</v>
+      </c>
+      <c r="CK3">
+        <v>-0.0093393448442846347</v>
+      </c>
+      <c r="CL3">
+        <v>0.025167929235381945</v>
+      </c>
+      <c r="CM3">
+        <v>-0.049344635753303327</v>
+      </c>
+      <c r="CN3">
+        <v>-0.063265073621187093</v>
+      </c>
+      <c r="CO3">
         <v>0</v>
       </c>
-      <c r="CK3">
-        <v>-0.025585670876712582</v>
-      </c>
-      <c r="CL3">
-        <v>-0.03608876627676115</v>
-      </c>
-      <c r="CM3">
-        <v>-0.015289811479125408</v>
-      </c>
-      <c r="CN3">
-        <v>-0.027547960618363246</v>
-      </c>
-      <c r="CO3">
-        <v>-0.051786593679570336</v>
-      </c>
       <c r="CP3">
-        <v>0.0077142540152058906</v>
+        <v>-0.043383822096932652</v>
       </c>
       <c r="CQ3">
-        <v>0.37962143828638434</v>
+        <v>-0.029642210018817561</v>
       </c>
       <c r="CR3">
-        <v>0.3602725874836824</v>
+        <v>-0.014776268296579104</v>
       </c>
       <c r="CS3">
-        <v>0.36982497615924187</v>
+        <v>-0.0061575488044227434</v>
       </c>
       <c r="CT3">
-        <v>0.37819422635283229</v>
+        <v>-0.033925230785101693</v>
       </c>
       <c r="CU3">
-        <v>0.39548994741314342</v>
+        <v>-0.044562416179653924</v>
       </c>
       <c r="CV3">
-        <v>0.36335391696021324</v>
+        <v>-0.054184838509371412</v>
       </c>
       <c r="CW3">
-        <v>0.43849635234731049</v>
+        <v>-0.058030929539310772</v>
       </c>
       <c r="CX3">
-        <v>0.38371917453566656</v>
+        <v>-0.057208325551044048</v>
       </c>
       <c r="CY3">
-        <v>0.36773538656030591</v>
+        <v>-0.059688689285079359</v>
       </c>
       <c r="CZ3">
-        <v>0.36930676163174919</v>
+        <v>-0.014984793525507802</v>
       </c>
       <c r="DA3">
-        <v>0.49732538116479991</v>
+        <v>-0.026597845571488147</v>
       </c>
       <c r="DB3">
-        <v>0.48496476358906326</v>
+        <v>-0.0479577351586392</v>
       </c>
       <c r="DC3">
-        <v>0.5175237668585736</v>
+        <v>-0.082150707073703894</v>
       </c>
       <c r="DD3">
-        <v>0.49773764946195864</v>
+        <v>-0.036497576016770013</v>
       </c>
       <c r="DE3">
-        <v>0.48029506610800765</v>
+        <v>-0.017471059375057326</v>
       </c>
       <c r="DF3">
-        <v>0.52715783950387507</v>
+        <v>-0.017442666506168138</v>
       </c>
       <c r="DG3">
-        <v>0.4719410933356179</v>
+        <v>-0.035672024694707205</v>
       </c>
       <c r="DH3">
-        <v>0.46259205886807231</v>
+        <v>-0.056782213113012209</v>
       </c>
       <c r="DI3">
-        <v>0.49591408481899946</v>
+        <v>0.013091587412297892</v>
       </c>
       <c r="DJ3">
-        <v>0.48345105707834946</v>
+        <v>-0.050244694672393043</v>
       </c>
       <c r="DK3">
-        <v>0.7607447691526088</v>
+        <v>-0.019560466702641496</v>
       </c>
       <c r="DL3">
-        <v>0.7376342453139676</v>
+        <v>-0.029500299844347939</v>
       </c>
       <c r="DM3">
-        <v>0.74328574159748884</v>
+        <v>-0.077004522989292321</v>
       </c>
       <c r="DN3">
-        <v>0.75163916569806966</v>
+        <v>-0.052602395217382594</v>
       </c>
       <c r="DO3">
-        <v>0.71999196093925744</v>
+        <v>-0.032318098981726009</v>
       </c>
       <c r="DP3">
-        <v>0.75678898486153146</v>
+        <v>-0.083867669810407705</v>
       </c>
       <c r="DQ3">
-        <v>0.75675362376501332</v>
+        <v>-0.024511775658608823</v>
       </c>
       <c r="DR3">
-        <v>0.74541666324257028</v>
+        <v>-0.064406593739998394</v>
       </c>
       <c r="DS3">
-        <v>0.73179884727407818</v>
+        <v>-0.032387966744187653</v>
       </c>
       <c r="DT3">
-        <v>0.71821017366083617</v>
+        <v>-0.026636773354316266</v>
       </c>
       <c r="DU3">
-        <v>0.7462759665405615</v>
+        <v>-0.037253625217036845</v>
       </c>
       <c r="DV3">
-        <v>0.75673813331267725</v>
+        <v>-0.04375423127275796</v>
       </c>
       <c r="DW3">
-        <v>0.75975107986314716</v>
+        <v>-0.045185067617320621</v>
       </c>
       <c r="DX3">
-        <v>0.75207454807186724</v>
+        <v>-0.04223956906641807</v>
       </c>
       <c r="DY3">
-        <v>0.74663995568336239</v>
+        <v>-0.028122179463850459</v>
       </c>
       <c r="DZ3">
-        <v>0.70931593057194953</v>
+        <v>-0.045542251050276705</v>
       </c>
       <c r="EA3">
-        <v>0.71247597970037457</v>
+        <v>-0.067661216787110026</v>
       </c>
       <c r="EB3">
-        <v>0.7372515351920983</v>
+        <v>-0.064439622007090983</v>
       </c>
       <c r="EC3">
-        <v>0.74546575033807294</v>
+        <v>-0.038149758738805495</v>
       </c>
       <c r="ED3">
-        <v>0.737670381176603</v>
+        <v>-0.060785971582920338</v>
       </c>
       <c r="EE3">
-        <v>0.7492134287658252</v>
+        <v>-0.020977911035427566</v>
       </c>
       <c r="EF3">
-        <v>0.74801559236076742</v>
+        <v>-0.059589183737487658</v>
       </c>
       <c r="EG3">
-        <v>0.7304422803351418</v>
+        <v>-0.05339981774378031</v>
       </c>
       <c r="EH3">
-        <v>0.74294036772989636</v>
+        <v>-0.042170668225453657</v>
       </c>
       <c r="EI3">
-        <v>0.72505228033365299</v>
+        <v>-0.047232638545818606</v>
       </c>
       <c r="EJ3">
-        <v>0.72051357035252006</v>
+        <v>-0.042253575993356246</v>
       </c>
       <c r="EK3">
-        <v>0.70625154128415712</v>
+        <v>-0.063659681998894352</v>
       </c>
       <c r="EL3">
-        <v>0.74397406404906252</v>
+        <v>-0.091151869358764612</v>
       </c>
       <c r="EM3">
-        <v>0.74256971097909996</v>
+        <v>-0.053044492616164569</v>
       </c>
       <c r="EN3">
-        <v>0.74112870260640662</v>
+        <v>-0.054975494662056819</v>
       </c>
       <c r="EO3">
-        <v>0.73139959471364324</v>
+        <v>-0.061317310028049056</v>
       </c>
       <c r="EP3">
-        <v>0.76004039644881927</v>
+        <v>-0.054615934750156157</v>
       </c>
       <c r="EQ3">
-        <v>0.75870069247638772</v>
+        <v>-0.051382351754987066</v>
       </c>
       <c r="ER3">
-        <v>0.71872847630794001</v>
+        <v>-0.040731156764358699</v>
       </c>
       <c r="ES3">
-        <v>0.74005376233648901</v>
+        <v>-0.021063329961123773</v>
       </c>
       <c r="ET3">
-        <v>0.73800575961365222</v>
+        <v>-0.067204382091714504</v>
       </c>
       <c r="EU3">
-        <v>0.73457530711792451</v>
+        <v>-0.046659479557303415</v>
       </c>
       <c r="EV3">
-        <v>0.70561258016736439</v>
+        <v>-0.091895129325105546</v>
       </c>
       <c r="EW3">
-        <v>0.76032717935915028</v>
+        <v>-0.062268399181560991</v>
       </c>
       <c r="EX3">
-        <v>0.76014828443016791</v>
+        <v>-0.04158503425951663</v>
       </c>
       <c r="EY3">
-        <v>0.6885743722068155</v>
+        <v>-0.066327390983021414</v>
       </c>
       <c r="EZ3">
-        <v>0.7145342068848225</v>
+        <v>-0.090613724170789306</v>
       </c>
       <c r="FA3">
-        <v>0.71483602071645969</v>
+        <v>-0.059682388351622144</v>
       </c>
       <c r="FB3">
-        <v>0.71652628856201872</v>
+        <v>-0.077395543872532724</v>
       </c>
       <c r="FC3">
-        <v>0.71728190487369847</v>
+        <v>-0.05941236963167159</v>
       </c>
       <c r="FD3">
-        <v>0.70288358985480381</v>
+        <v>-0.061354668446980475</v>
       </c>
       <c r="FE3">
-        <v>0.72995770523978198</v>
+        <v>-0.044792906965173837</v>
       </c>
       <c r="FF3">
-        <v>0.72420471489136251</v>
+        <v>-0.10565095857575219</v>
       </c>
       <c r="FG3">
-        <v>0.74968399857927903</v>
+        <v>-0.13159997382204247</v>
       </c>
       <c r="FH3">
-        <v>0.68767290161921679</v>
+        <v>-0.029729021753842313</v>
       </c>
       <c r="FI3">
-        <v>0.69109376964337677</v>
+        <v>-0.03935346105110183</v>
       </c>
       <c r="FJ3">
-        <v>0.73743986379271065</v>
+        <v>-0.088097502783366616</v>
       </c>
       <c r="FK3">
-        <v>0.71331137510547116</v>
+        <v>-0.056129549336413141</v>
       </c>
       <c r="FL3">
-        <v>0.69573504187566271</v>
+        <v>-0.064964898437527022</v>
       </c>
       <c r="FM3">
-        <v>0.7390751606439574</v>
+        <v>-0.059454830742554629</v>
       </c>
       <c r="FN3">
-        <v>0.72926747270566861</v>
+        <v>-0.11334846787012696</v>
       </c>
       <c r="FO3">
-        <v>0.65961357170828427</v>
+        <v>-0.060200403869896869</v>
       </c>
       <c r="FP3">
-        <v>0</v>
+        <v>-0.11307450889833237</v>
       </c>
       <c r="FQ3">
-        <v>0.7176288230279334</v>
+        <v>-0.077823823314672969</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-6.2330524249505492</v>
+        <v>-5.4425401807381215</v>
       </c>
     </row>
     <row r="4">
@@ -2182,526 +2191,526 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.26348488906131945</v>
+        <v>0.039834345329219464</v>
       </c>
       <c r="C4">
-        <v>0.12561613198023169</v>
+        <v>0.017372142729139166</v>
       </c>
       <c r="D4">
-        <v>0.15531309446026234</v>
+        <v>0.025431131408154811</v>
       </c>
       <c r="E4">
-        <v>0.19182871774273932</v>
+        <v>0.030077206507573031</v>
       </c>
       <c r="F4">
-        <v>0.1806267693694156</v>
+        <v>0.02752425389103964</v>
       </c>
       <c r="G4">
-        <v>0.14748113961414888</v>
+        <v>0.023026194795400981</v>
       </c>
       <c r="H4">
-        <v>0.11492695963641211</v>
+        <v>0.018662864794923444</v>
       </c>
       <c r="I4">
-        <v>0.1261322345986948</v>
+        <v>0.018555246319019236</v>
       </c>
       <c r="J4">
-        <v>0.12918555860453748</v>
+        <v>0.019584006490712486</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.27638425449612269</v>
+        <v>0.042487282435385083</v>
       </c>
       <c r="M4">
-        <v>0.27638425449612269</v>
+        <v>0.042487282435385083</v>
       </c>
       <c r="N4">
-        <v>0.27638425449612269</v>
+        <v>0.04248728243538509</v>
       </c>
       <c r="O4">
-        <v>0.27638425449612264</v>
+        <v>0.042487282435385097</v>
       </c>
       <c r="P4">
-        <v>0.27638425449612264</v>
+        <v>0.04248728243538509</v>
       </c>
       <c r="Q4">
-        <v>0.27638425449612264</v>
+        <v>0.042487282435385104</v>
       </c>
       <c r="R4">
-        <v>0.27638425449612264</v>
+        <v>0.042487282435385104</v>
       </c>
       <c r="S4">
-        <v>0.27638425449612264</v>
+        <v>0.042487282435385111</v>
       </c>
       <c r="T4">
-        <v>0.27638425449612258</v>
+        <v>0.042487282435385111</v>
       </c>
       <c r="U4">
-        <v>0.27638425449612264</v>
+        <v>0.042487282435385097</v>
       </c>
       <c r="V4">
-        <v>0.27638425449612258</v>
+        <v>0.042487282435385118</v>
       </c>
       <c r="W4">
-        <v>0.27638425449612258</v>
+        <v>0.042487282435385104</v>
       </c>
       <c r="X4">
-        <v>0.27638425449612258</v>
+        <v>0.042487282435385118</v>
       </c>
       <c r="Y4">
-        <v>0.27638425449612258</v>
+        <v>0.042487282435385111</v>
       </c>
       <c r="Z4">
-        <v>0.27638425449612258</v>
+        <v>0.042487282435385118</v>
       </c>
       <c r="AA4">
-        <v>0.27638425449612258</v>
+        <v>0.042487282435385118</v>
       </c>
       <c r="AB4">
-        <v>0.27638425449612253</v>
+        <v>0.042487282435385118</v>
       </c>
       <c r="AC4">
-        <v>0.27638425449612258</v>
+        <v>0.042487282435385118</v>
       </c>
       <c r="AD4">
-        <v>0.27638425449612258</v>
+        <v>0.042487282435385118</v>
       </c>
       <c r="AE4">
-        <v>0.27638425449612253</v>
+        <v>0.042487282435385125</v>
       </c>
       <c r="AF4">
-        <v>0.27638425449612253</v>
+        <v>0.042487282435385125</v>
       </c>
       <c r="AG4">
-        <v>0.27638425449612247</v>
+        <v>0.042487282435385125</v>
       </c>
       <c r="AH4">
-        <v>0.27638425449612253</v>
+        <v>0.042487282435385118</v>
       </c>
       <c r="AI4">
-        <v>0.27638425449612247</v>
+        <v>0.042487282435385118</v>
       </c>
       <c r="AJ4">
-        <v>0.27638425449612242</v>
+        <v>0.042487282435385125</v>
       </c>
       <c r="AK4">
-        <v>0.27638425449612247</v>
+        <v>0.042487282435385132</v>
       </c>
       <c r="AL4">
-        <v>0.27638425449612247</v>
+        <v>0.042487282435385132</v>
       </c>
       <c r="AM4">
-        <v>0.27638425449612247</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="AN4">
-        <v>0.27638425449612231</v>
+        <v>0.042487282435385132</v>
       </c>
       <c r="AO4">
-        <v>0.27638425449612247</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="AP4">
-        <v>0.27638425449612231</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="AQ4">
-        <v>0.27638425449612236</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="AR4">
-        <v>0.27638425449612231</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="AS4">
-        <v>0.27638425449612231</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="AT4">
-        <v>0.27638425449612231</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="AU4">
-        <v>0.27638425449612231</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="AV4">
-        <v>0.27638425449612231</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="AW4">
-        <v>0.27638425449612219</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="AX4">
-        <v>0.27638425449612231</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="AY4">
-        <v>0.27638425449612219</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="AZ4">
-        <v>0.27638425449612219</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="BA4">
-        <v>0.27638425449612219</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="BB4">
-        <v>0.27638425449612219</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="BC4">
-        <v>0.27638425449612219</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="BD4">
-        <v>0.27638425449612214</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="BE4">
-        <v>0.27638425449612219</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="BF4">
-        <v>0.27638425449612219</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="BG4">
-        <v>0.27638425449612219</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="BH4">
-        <v>0.27638425449612214</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="BI4">
-        <v>0.27638425449612214</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="BJ4">
-        <v>0.27638425449612214</v>
+        <v>0.042487282435385139</v>
       </c>
       <c r="BK4">
-        <v>0.27638425449612208</v>
+        <v>0.042487282435385146</v>
       </c>
       <c r="BL4">
-        <v>0.26311479391501419</v>
+        <v>0.042487282435385146</v>
       </c>
       <c r="BM4">
-        <v>0.26311479391501419</v>
+        <v>0.042487282435385153</v>
       </c>
       <c r="BN4">
-        <v>0.26311479391501419</v>
+        <v>0.042487282435385153</v>
       </c>
       <c r="BO4">
-        <v>0.26311479391501424</v>
+        <v>0.04248728243538516</v>
       </c>
       <c r="BP4">
-        <v>0.26311479391501424</v>
+        <v>0.04248728243538516</v>
       </c>
       <c r="BQ4">
-        <v>0.28354704736921776</v>
+        <v>0.042463226673954323</v>
       </c>
       <c r="BR4">
-        <v>0.28354704736921776</v>
+        <v>0.042463226673954323</v>
       </c>
       <c r="BS4">
-        <v>0.28354704736921776</v>
+        <v>0.042463226673954323</v>
       </c>
       <c r="BT4">
-        <v>0.2921475464786934</v>
+        <v>0.038528354816141683</v>
       </c>
       <c r="BU4">
-        <v>0.2921475464786934</v>
+        <v>0.038528354816141683</v>
       </c>
       <c r="BV4">
-        <v>0.30578864656283233</v>
+        <v>0.044677026112075205</v>
       </c>
       <c r="BW4">
-        <v>0.29076582259024991</v>
+        <v>0.043815196071639625</v>
       </c>
       <c r="BX4">
-        <v>0.29076582259024997</v>
+        <v>0.043815196071639625</v>
       </c>
       <c r="BY4">
-        <v>0.28605231648922308</v>
+        <v>0.043161634357616024</v>
       </c>
       <c r="BZ4">
-        <v>0.28605231648922308</v>
+        <v>0.043161634357616031</v>
       </c>
       <c r="CA4">
-        <v>0.28605231648922308</v>
+        <v>0.043161634357616031</v>
       </c>
       <c r="CB4">
-        <v>0.28032113048289764</v>
+        <v>0.042631571626201945</v>
       </c>
       <c r="CC4">
-        <v>0.2803211304828977</v>
+        <v>0.042631571626201958</v>
       </c>
       <c r="CD4">
-        <v>0.28032113048289764</v>
+        <v>0.042631571626201951</v>
       </c>
       <c r="CE4">
-        <v>0.28032113048289764</v>
+        <v>0.042631571626201951</v>
       </c>
       <c r="CF4">
-        <v>0.2687192688838233</v>
+        <v>0.042631571626201958</v>
       </c>
       <c r="CG4">
-        <v>0.25544482696995557</v>
+        <v>0.042516131382817207</v>
       </c>
       <c r="CH4">
-        <v>0.25544482696995557</v>
+        <v>0.0425161313828172</v>
       </c>
       <c r="CI4">
-        <v>0.25544482696995557</v>
+        <v>0.0425161313828172</v>
       </c>
       <c r="CJ4">
+        <v>0.042516131382817207</v>
+      </c>
+      <c r="CK4">
+        <v>0.043074824185233618</v>
+      </c>
+      <c r="CL4">
+        <v>0.040653664039869496</v>
+      </c>
+      <c r="CM4">
+        <v>0.040653664039869503</v>
+      </c>
+      <c r="CN4">
+        <v>0.036936072246725384</v>
+      </c>
+      <c r="CO4">
         <v>0</v>
       </c>
-      <c r="CK4">
-        <v>0.27321455909994574</v>
-      </c>
-      <c r="CL4">
-        <v>0.29484537160139612</v>
-      </c>
-      <c r="CM4">
-        <v>0.29484537160139612</v>
-      </c>
-      <c r="CN4">
-        <v>0.30531848989928329</v>
-      </c>
-      <c r="CO4">
-        <v>0.30531848989928317</v>
-      </c>
       <c r="CP4">
-        <v>0.3183958035646629</v>
+        <v>0.043311383843002836</v>
       </c>
       <c r="CQ4">
-        <v>0.29076582259024952</v>
+        <v>0.043830118392172594</v>
       </c>
       <c r="CR4">
-        <v>0.29076582259024952</v>
+        <v>0.043830118392172594</v>
       </c>
       <c r="CS4">
-        <v>0.28605231648922302</v>
+        <v>0.043176782556093495</v>
       </c>
       <c r="CT4">
-        <v>0.28605231648922297</v>
+        <v>0.043176782556093501</v>
       </c>
       <c r="CU4">
-        <v>0.28605231648922297</v>
+        <v>0.043176782556093495</v>
       </c>
       <c r="CV4">
-        <v>0.28032113048289742</v>
+        <v>0.042646908103585054</v>
       </c>
       <c r="CW4">
-        <v>0.28032113048289742</v>
+        <v>0.042646908103585048</v>
       </c>
       <c r="CX4">
-        <v>0.28032113048289742</v>
+        <v>0.042646908103585061</v>
       </c>
       <c r="CY4">
-        <v>0.28032113048289742</v>
+        <v>0.042646908103585041</v>
       </c>
       <c r="CZ4">
-        <v>0.28032113048289742</v>
+        <v>0.042646908103585061</v>
       </c>
       <c r="DA4">
-        <v>0.26305306076748824</v>
+        <v>0.042586248852987091</v>
       </c>
       <c r="DB4">
-        <v>0.26305306076748819</v>
+        <v>0.042586248852987077</v>
       </c>
       <c r="DC4">
-        <v>0.26305306076748824</v>
+        <v>0.042586248852987091</v>
       </c>
       <c r="DD4">
-        <v>0.26305306076748819</v>
+        <v>0.042586248852987084</v>
       </c>
       <c r="DE4">
-        <v>0.26305306076748824</v>
+        <v>0.042586248852987091</v>
       </c>
       <c r="DF4">
-        <v>0.28299332210538841</v>
+        <v>0.039880233460194821</v>
       </c>
       <c r="DG4">
-        <v>0.28299332210538847</v>
+        <v>0.039880233460194814</v>
       </c>
       <c r="DH4">
-        <v>0.28299332210538841</v>
+        <v>0.039880233460194821</v>
       </c>
       <c r="DI4">
-        <v>0.28299332210538841</v>
+        <v>0.039880233460194828</v>
       </c>
       <c r="DJ4">
-        <v>0.28299332210538847</v>
+        <v>0.039880233460194828</v>
       </c>
       <c r="DK4">
-        <v>0.27638425449612153</v>
+        <v>0.042518053950004277</v>
       </c>
       <c r="DL4">
-        <v>0.27638425449612158</v>
+        <v>0.042518053950004277</v>
       </c>
       <c r="DM4">
-        <v>0.27638425449612153</v>
+        <v>0.042518053950004277</v>
       </c>
       <c r="DN4">
-        <v>0.27638425449612153</v>
+        <v>0.04251805395000427</v>
       </c>
       <c r="DO4">
-        <v>0.27638425449612153</v>
+        <v>0.042518053950004277</v>
       </c>
       <c r="DP4">
-        <v>0.27638425449612153</v>
+        <v>0.042518053950004277</v>
       </c>
       <c r="DQ4">
-        <v>0.27638425449612153</v>
+        <v>0.042518053950004284</v>
       </c>
       <c r="DR4">
-        <v>0.27638425449612147</v>
+        <v>0.042518053950004277</v>
       </c>
       <c r="DS4">
-        <v>0.27638425449612153</v>
+        <v>0.042518053950004311</v>
       </c>
       <c r="DT4">
-        <v>0.27638425449612147</v>
+        <v>0.042518053950004284</v>
       </c>
       <c r="DU4">
-        <v>0.27638425449612147</v>
+        <v>0.042518053950004311</v>
       </c>
       <c r="DV4">
-        <v>0.27638425449612142</v>
+        <v>0.042518053950004311</v>
       </c>
       <c r="DW4">
-        <v>0.27638425449612142</v>
+        <v>0.042518053950004311</v>
       </c>
       <c r="DX4">
-        <v>0.27638425449612142</v>
+        <v>0.042518053950004304</v>
       </c>
       <c r="DY4">
-        <v>0.27638425449612142</v>
+        <v>0.042518053950004318</v>
       </c>
       <c r="DZ4">
-        <v>0.27638425449612142</v>
+        <v>0.042518053950004318</v>
       </c>
       <c r="EA4">
-        <v>0.27638425449612142</v>
+        <v>0.042518053950004325</v>
       </c>
       <c r="EB4">
-        <v>0.27638425449612142</v>
+        <v>0.042518053950004325</v>
       </c>
       <c r="EC4">
-        <v>0.27638425449612142</v>
+        <v>0.042518053950004325</v>
       </c>
       <c r="ED4">
-        <v>0.27638425449612142</v>
+        <v>0.042518053950004325</v>
       </c>
       <c r="EE4">
-        <v>0.27638425449612142</v>
+        <v>0.042518053950004325</v>
       </c>
       <c r="EF4">
-        <v>0.27638425449612136</v>
+        <v>0.042518053950004339</v>
       </c>
       <c r="EG4">
-        <v>0.27638425449612136</v>
+        <v>0.042518053950004325</v>
       </c>
       <c r="EH4">
-        <v>0.27638425449612136</v>
+        <v>0.042518053950004346</v>
       </c>
       <c r="EI4">
-        <v>0.27638425449612136</v>
+        <v>0.042518053950004339</v>
       </c>
       <c r="EJ4">
-        <v>0.27638425449612136</v>
+        <v>0.042518053950004346</v>
       </c>
       <c r="EK4">
-        <v>0.27638425449612136</v>
+        <v>0.042518053950004339</v>
       </c>
       <c r="EL4">
-        <v>0.27638425449612136</v>
+        <v>0.042518053950004346</v>
       </c>
       <c r="EM4">
-        <v>0.27638425449612131</v>
+        <v>0.042518053950004339</v>
       </c>
       <c r="EN4">
-        <v>0.27638425449612136</v>
+        <v>0.042518053950004353</v>
       </c>
       <c r="EO4">
-        <v>0.27638425449612131</v>
+        <v>0.042518053950004339</v>
       </c>
       <c r="EP4">
-        <v>0.27638425449612131</v>
+        <v>0.042518053950004346</v>
       </c>
       <c r="EQ4">
-        <v>0.27638425449612125</v>
+        <v>0.042518053950004353</v>
       </c>
       <c r="ER4">
-        <v>0.27638425449612131</v>
+        <v>0.04251805395000436</v>
       </c>
       <c r="ES4">
-        <v>0.27638425449612125</v>
+        <v>0.042518053950004353</v>
       </c>
       <c r="ET4">
-        <v>0.27638425449612125</v>
+        <v>0.042518053950004353</v>
       </c>
       <c r="EU4">
-        <v>0.27638425449612125</v>
+        <v>0.042518053950004353</v>
       </c>
       <c r="EV4">
-        <v>0.27638425449612125</v>
+        <v>0.042518053950004353</v>
       </c>
       <c r="EW4">
-        <v>0.27638425449612125</v>
+        <v>0.042518053950004339</v>
       </c>
       <c r="EX4">
-        <v>0.27638425449612125</v>
+        <v>0.042518053950004353</v>
       </c>
       <c r="EY4">
-        <v>0.27638425449612125</v>
+        <v>0.042518053950004367</v>
       </c>
       <c r="EZ4">
-        <v>0.27638425449612125</v>
+        <v>0.042518053950004367</v>
       </c>
       <c r="FA4">
-        <v>0.27638425449612125</v>
+        <v>0.042518053950004367</v>
       </c>
       <c r="FB4">
-        <v>0.27638425449612125</v>
+        <v>0.042518053950004367</v>
       </c>
       <c r="FC4">
-        <v>0.2763842544961212</v>
+        <v>0.042518053950004367</v>
       </c>
       <c r="FD4">
-        <v>0.2763842544961212</v>
+        <v>0.042518053950004367</v>
       </c>
       <c r="FE4">
-        <v>0.2763842544961212</v>
+        <v>0.042518053950004374</v>
       </c>
       <c r="FF4">
-        <v>0.27638425449612114</v>
+        <v>0.042518053950004367</v>
       </c>
       <c r="FG4">
-        <v>0.27638425449612114</v>
+        <v>0.042518053950004374</v>
       </c>
       <c r="FH4">
-        <v>0.27638425449612114</v>
+        <v>0.042518053950004374</v>
       </c>
       <c r="FI4">
-        <v>0.27638425449612114</v>
+        <v>0.042518053950004381</v>
       </c>
       <c r="FJ4">
-        <v>0.27638425449612114</v>
+        <v>0.042518053950004381</v>
       </c>
       <c r="FK4">
-        <v>0.27638425449612114</v>
+        <v>0.042518053950004388</v>
       </c>
       <c r="FL4">
-        <v>0.27638425449612114</v>
+        <v>0.042518053950004388</v>
       </c>
       <c r="FM4">
-        <v>0.27638425449612108</v>
+        <v>0.042518053950004388</v>
       </c>
       <c r="FN4">
-        <v>0.27638425449612114</v>
+        <v>0.042518053950004388</v>
       </c>
       <c r="FO4">
-        <v>0.27638425449612108</v>
+        <v>0.042518053950004388</v>
       </c>
       <c r="FP4">
-        <v>0</v>
+        <v>0.042518053950004388</v>
       </c>
       <c r="FQ4">
-        <v>0.27638425449612103</v>
+        <v>0.042518053950004395</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.20919423108810647</v>
+        <v>0.033550680994392221</v>
       </c>
     </row>
   </sheetData>
@@ -3245,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3500,7 +3509,7 @@
         <v>86</v>
       </c>
       <c r="CJ2" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="CK2" t="s">
         <v>88</v>
@@ -3515,7 +3524,7 @@
         <v>91</v>
       </c>
       <c r="CO2" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="CP2" t="s">
         <v>93</v>
@@ -3752,7 +3761,7 @@
         <v>170</v>
       </c>
       <c r="FP2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="FQ2" t="s">
         <v>177</v>
@@ -3769,526 +3778,526 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>0.43788999944709606</v>
+        <v>-0.023749482575566375</v>
       </c>
       <c r="C3">
-        <v>-0.23909331350071106</v>
+        <v>-0.67245297434045026</v>
       </c>
       <c r="D3">
-        <v>-0.23821600678375535</v>
+        <v>-0.68711179790630472</v>
       </c>
       <c r="E3">
-        <v>-0.27145647197003225</v>
+        <v>-0.71119750826564843</v>
       </c>
       <c r="F3">
-        <v>0.32307400188955321</v>
+        <v>-0.010374339643374482</v>
       </c>
       <c r="G3">
-        <v>0.3253326268031011</v>
+        <v>0.0067373625985030832</v>
       </c>
       <c r="H3">
-        <v>0.31277491051385642</v>
+        <v>0.0082258663937716369</v>
       </c>
       <c r="I3">
-        <v>0.2175144292241005</v>
+        <v>0.0047285413021742866</v>
       </c>
       <c r="J3">
-        <v>0.21105704937011022</v>
+        <v>-0.012847089397867368</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.83089267600177008</v>
+        <v>1.1410169875132945</v>
       </c>
       <c r="M3">
-        <v>0.96792740572197078</v>
+        <v>1.2363403036997758</v>
       </c>
       <c r="N3">
-        <v>-0.58802653114769321</v>
+        <v>-0.30909621582834612</v>
       </c>
       <c r="O3">
-        <v>-0.60672276999553032</v>
+        <v>-0.29356220956114559</v>
       </c>
       <c r="P3">
-        <v>-0.55672075577555935</v>
+        <v>-0.28186023682417438</v>
       </c>
       <c r="Q3">
-        <v>-0.58478215274841361</v>
+        <v>-0.24563891400372539</v>
       </c>
       <c r="R3">
-        <v>-0.56286092746941141</v>
+        <v>-0.25028215342367904</v>
       </c>
       <c r="S3">
-        <v>-0.57822026033135898</v>
+        <v>-0.24356688307713614</v>
       </c>
       <c r="T3">
-        <v>-0.55094671949786511</v>
+        <v>-0.21339924090862303</v>
       </c>
       <c r="U3">
-        <v>-0.54295839842556837</v>
+        <v>-0.22597151373922997</v>
       </c>
       <c r="V3">
-        <v>-0.49118535957101256</v>
+        <v>-0.18774165399559356</v>
       </c>
       <c r="W3">
-        <v>-0.54593872940996024</v>
+        <v>-0.21242980846140114</v>
       </c>
       <c r="X3">
-        <v>-0.47960925796547882</v>
+        <v>-0.1184888647452223</v>
       </c>
       <c r="Y3">
-        <v>-0.4620868831776927</v>
+        <v>-0.18418609006053319</v>
       </c>
       <c r="Z3">
-        <v>-0.49147113854428853</v>
+        <v>-0.17020970355753207</v>
       </c>
       <c r="AA3">
-        <v>-0.40656999282575201</v>
+        <v>-0.15051506911152324</v>
       </c>
       <c r="AB3">
-        <v>-0.45003767724688754</v>
+        <v>-0.18326270751912638</v>
       </c>
       <c r="AC3">
-        <v>-0.42768572563338264</v>
+        <v>-0.12405985076222842</v>
       </c>
       <c r="AD3">
-        <v>-0.45024519964793264</v>
+        <v>-0.12540192823556379</v>
       </c>
       <c r="AE3">
-        <v>-0.39696295585532754</v>
+        <v>-0.13220761609661852</v>
       </c>
       <c r="AF3">
-        <v>-0.40856844122766667</v>
+        <v>-0.11838117599191671</v>
       </c>
       <c r="AG3">
-        <v>-0.39711837016799612</v>
+        <v>-0.092833079977124769</v>
       </c>
       <c r="AH3">
-        <v>-0.44112069833289258</v>
+        <v>-0.079218254592938839</v>
       </c>
       <c r="AI3">
-        <v>-0.41427982569117916</v>
+        <v>-0.13641644424463664</v>
       </c>
       <c r="AJ3">
-        <v>-0.38858698157382393</v>
+        <v>-0.075955664117040467</v>
       </c>
       <c r="AK3">
-        <v>-0.3752414721690277</v>
+        <v>-0.13646925864738321</v>
       </c>
       <c r="AL3">
-        <v>-0.37747031654025537</v>
+        <v>-0.099795730752686176</v>
       </c>
       <c r="AM3">
-        <v>-0.36911076680722571</v>
+        <v>-0.07355169346163952</v>
       </c>
       <c r="AN3">
-        <v>-0.37338894931129857</v>
+        <v>-0.05779683299082735</v>
       </c>
       <c r="AO3">
-        <v>-0.35100257324465217</v>
+        <v>-0.023275816418905988</v>
       </c>
       <c r="AP3">
-        <v>-0.35731827339209965</v>
+        <v>-0.086462773456967137</v>
       </c>
       <c r="AQ3">
-        <v>-0.40094515524593682</v>
+        <v>-0.058709022660540858</v>
       </c>
       <c r="AR3">
-        <v>-0.40595938998461345</v>
+        <v>-0.11445015384362307</v>
       </c>
       <c r="AS3">
-        <v>-0.34407967355009778</v>
+        <v>-0.069972705043731681</v>
       </c>
       <c r="AT3">
-        <v>-0.34399073244307588</v>
+        <v>-0.092311277608753753</v>
       </c>
       <c r="AU3">
-        <v>-0.33896602722389846</v>
+        <v>-0.072116823196472668</v>
       </c>
       <c r="AV3">
-        <v>-0.35884478447593499</v>
+        <v>-0.045488513964888233</v>
       </c>
       <c r="AW3">
-        <v>-0.35638562906452287</v>
+        <v>-0.067796765820762786</v>
       </c>
       <c r="AX3">
-        <v>-0.30510226873871293</v>
+        <v>-0.063760521187063476</v>
       </c>
       <c r="AY3">
-        <v>-0.3713226018387748</v>
+        <v>-0.033816453099585378</v>
       </c>
       <c r="AZ3">
-        <v>-0.37770397330021149</v>
+        <v>-0.033742177266358801</v>
       </c>
       <c r="BA3">
-        <v>-0.35987777848993818</v>
+        <v>-0.0032449826066207514</v>
       </c>
       <c r="BB3">
-        <v>-0.32926983296640505</v>
+        <v>-0.042799802401051086</v>
       </c>
       <c r="BC3">
-        <v>-0.37274496570350246</v>
+        <v>-0.047289829061447908</v>
       </c>
       <c r="BD3">
-        <v>-0.33263698286243015</v>
+        <v>-0.040808762609766368</v>
       </c>
       <c r="BE3">
-        <v>-0.34028427796201205</v>
+        <v>-0.040206971792002187</v>
       </c>
       <c r="BF3">
-        <v>-0.32770344916950811</v>
+        <v>-0.031700738965863173</v>
       </c>
       <c r="BG3">
-        <v>-0.36810744532305156</v>
+        <v>-0.034556711701425082</v>
       </c>
       <c r="BH3">
-        <v>-0.32599371086496581</v>
+        <v>-0.053216108830093575</v>
       </c>
       <c r="BI3">
-        <v>-0.3662815021179559</v>
+        <v>-0.0072024064950188676</v>
       </c>
       <c r="BJ3">
-        <v>-0.32931401071309513</v>
+        <v>-0.010181879415112862</v>
       </c>
       <c r="BK3">
-        <v>-0.31255227194100266</v>
+        <v>-0.04890297543457308</v>
       </c>
       <c r="BL3">
-        <v>-0.24192894809470555</v>
+        <v>-0.027911319257558992</v>
       </c>
       <c r="BM3">
-        <v>-0.22285595452998258</v>
+        <v>-0.04466666401163176</v>
       </c>
       <c r="BN3">
-        <v>-0.22859338304898991</v>
+        <v>-0.047488410171974541</v>
       </c>
       <c r="BO3">
-        <v>-0.23104435407966856</v>
+        <v>-0.033167780951741728</v>
       </c>
       <c r="BP3">
-        <v>-0.24787132995838596</v>
+        <v>-0.075372424680873268</v>
       </c>
       <c r="BQ3">
-        <v>-0.21153415499303568</v>
+        <v>0.0088773920595205946</v>
       </c>
       <c r="BR3">
-        <v>-0.22587896442775279</v>
+        <v>-0.05635894762741088</v>
       </c>
       <c r="BS3">
-        <v>-0.21444558158492527</v>
+        <v>-0.055722702553090926</v>
       </c>
       <c r="BT3">
-        <v>-0.23716711765325471</v>
+        <v>0.023131357847742669</v>
       </c>
       <c r="BU3">
-        <v>-0.1880732935200253</v>
+        <v>-0.056301850254766986</v>
       </c>
       <c r="BV3">
-        <v>-0.24823496369738707</v>
+        <v>-0.061366284019403493</v>
       </c>
       <c r="BW3">
-        <v>-0.15319464693724633</v>
+        <v>-0.053946580234653693</v>
       </c>
       <c r="BX3">
-        <v>-0.13996292210438885</v>
+        <v>-0.04499792417245696</v>
       </c>
       <c r="BY3">
-        <v>-0.18183496893052178</v>
+        <v>-0.063863869540786988</v>
       </c>
       <c r="BZ3">
-        <v>-0.16387709640368064</v>
+        <v>-0.031841357809091766</v>
       </c>
       <c r="CA3">
-        <v>-0.14942196095449339</v>
+        <v>-0.093020668157818953</v>
       </c>
       <c r="CB3">
-        <v>-0.14399053966141745</v>
+        <v>-0.050692420669655715</v>
       </c>
       <c r="CC3">
-        <v>-0.16174543866150701</v>
+        <v>-0.077575916568425884</v>
       </c>
       <c r="CD3">
-        <v>-0.15515408477559339</v>
+        <v>-0.084096861814203117</v>
       </c>
       <c r="CE3">
-        <v>-0.16651055413448881</v>
+        <v>-0.032223418956612571</v>
       </c>
       <c r="CF3">
-        <v>-0.029644055972537175</v>
+        <v>-0.053624261027870886</v>
       </c>
       <c r="CG3">
-        <v>0.012609326345039454</v>
+        <v>-0.06217948896653084</v>
       </c>
       <c r="CH3">
-        <v>-0.0013895815574825796</v>
+        <v>-0.060892233221912798</v>
       </c>
       <c r="CI3">
-        <v>0.0073875996137641687</v>
+        <v>-0.08439094736630004</v>
       </c>
       <c r="CJ3">
+        <v>-0.022382641627263212</v>
+      </c>
+      <c r="CK3">
+        <v>-0.032029705133384462</v>
+      </c>
+      <c r="CL3">
+        <v>0.013776880393634654</v>
+      </c>
+      <c r="CM3">
+        <v>-0.075185035932892594</v>
+      </c>
+      <c r="CN3">
+        <v>-0.035431173662547596</v>
+      </c>
+      <c r="CO3">
         <v>0</v>
       </c>
-      <c r="CK3">
-        <v>-0.040306407824791023</v>
-      </c>
-      <c r="CL3">
-        <v>-0.0070428476462955488</v>
-      </c>
-      <c r="CM3">
-        <v>0.0024615429854586792</v>
-      </c>
-      <c r="CN3">
-        <v>0.014734531471128635</v>
-      </c>
-      <c r="CO3">
-        <v>-0.013388646986035969</v>
-      </c>
       <c r="CP3">
-        <v>0.023078959379159811</v>
+        <v>-0.041077000193938916</v>
       </c>
       <c r="CQ3">
-        <v>0.18410451528100855</v>
+        <v>-0.034379609703254405</v>
       </c>
       <c r="CR3">
-        <v>0.16475566447830645</v>
+        <v>-0.019513667981016211</v>
       </c>
       <c r="CS3">
-        <v>0.17894162688913476</v>
+        <v>-0.01494879558020514</v>
       </c>
       <c r="CT3">
-        <v>0.18731087708272517</v>
+        <v>-0.042716477560884043</v>
       </c>
       <c r="CU3">
-        <v>0.204606598143036</v>
+        <v>-0.053353662955436088</v>
       </c>
       <c r="CV3">
-        <v>0.15873243883739618</v>
+        <v>-0.062837742381354852</v>
       </c>
       <c r="CW3">
-        <v>0.23387487422449313</v>
+        <v>-0.066683833411294247</v>
       </c>
       <c r="CX3">
-        <v>0.17909769641284964</v>
+        <v>-0.06586122942302744</v>
       </c>
       <c r="CY3">
-        <v>0.16311390843748877</v>
+        <v>-0.068341593157062661</v>
       </c>
       <c r="CZ3">
-        <v>0.16468528350893211</v>
+        <v>-0.023637697397491036</v>
       </c>
       <c r="DA3">
-        <v>0.21862998657380267</v>
+        <v>-0.028591253833469842</v>
       </c>
       <c r="DB3">
-        <v>0.20626936899806614</v>
+        <v>-0.049951143420620805</v>
       </c>
       <c r="DC3">
-        <v>0.23882837226757631</v>
+        <v>-0.084144115335685665</v>
       </c>
       <c r="DD3">
-        <v>0.21904225487096124</v>
+        <v>-0.038490984278751944</v>
       </c>
       <c r="DE3">
-        <v>0.20159967151701028</v>
+        <v>-0.019464467637039028</v>
       </c>
       <c r="DF3">
-        <v>0.25669292691559015</v>
+        <v>-0.021573128693551977</v>
       </c>
       <c r="DG3">
-        <v>0.20147618074733314</v>
+        <v>-0.039802486882091002</v>
       </c>
       <c r="DH3">
-        <v>0.19212714627978753</v>
+        <v>-0.060912675300396089</v>
       </c>
       <c r="DI3">
-        <v>0.22544917223071442</v>
+        <v>0.0089611252249142889</v>
       </c>
       <c r="DJ3">
-        <v>0.21298614449006439</v>
+        <v>-0.054375156859776973</v>
       </c>
       <c r="DK3">
-        <v>0.34076315854597977</v>
+        <v>-0.025047087267750068</v>
       </c>
       <c r="DL3">
-        <v>0.3176526347073389</v>
+        <v>-0.034986920409456827</v>
       </c>
       <c r="DM3">
-        <v>0.32330413099086003</v>
+        <v>-0.082491143554401056</v>
       </c>
       <c r="DN3">
-        <v>0.33165755509144096</v>
+        <v>-0.058089015782491357</v>
       </c>
       <c r="DO3">
-        <v>0.30001035033262874</v>
+        <v>-0.037804719546834849</v>
       </c>
       <c r="DP3">
-        <v>0.33680737425490292</v>
+        <v>-0.089354290375516399</v>
       </c>
       <c r="DQ3">
-        <v>0.33677201315838451</v>
+        <v>-0.029998396223717673</v>
       </c>
       <c r="DR3">
-        <v>0.32543505263594147</v>
+        <v>-0.069893214305107171</v>
       </c>
       <c r="DS3">
-        <v>0.31181723666744954</v>
+        <v>-0.037874587309296499</v>
       </c>
       <c r="DT3">
-        <v>0.29822856305420742</v>
+        <v>-0.032123393919425224</v>
       </c>
       <c r="DU3">
-        <v>0.32629435593393274</v>
+        <v>-0.042740245782145719</v>
       </c>
       <c r="DV3">
-        <v>0.3367565227060485</v>
+        <v>-0.049240851837866764</v>
       </c>
       <c r="DW3">
-        <v>0.33976946925651857</v>
+        <v>-0.050671688182429356</v>
       </c>
       <c r="DX3">
-        <v>0.3320929374652381</v>
+        <v>-0.047726189631527111</v>
       </c>
       <c r="DY3">
-        <v>0.32665834507673347</v>
+        <v>-0.033608800028959274</v>
       </c>
       <c r="DZ3">
-        <v>0.28933431996532094</v>
+        <v>-0.051028871615385489</v>
       </c>
       <c r="EA3">
-        <v>0.2924943690937461</v>
+        <v>-0.073147837352218872</v>
       </c>
       <c r="EB3">
-        <v>0.31726992458546988</v>
+        <v>-0.069926242572199954</v>
       </c>
       <c r="EC3">
-        <v>0.32548413973144447</v>
+        <v>-0.043636379303914417</v>
       </c>
       <c r="ED3">
-        <v>0.31768877056997441</v>
+        <v>-0.066272592148029441</v>
       </c>
       <c r="EE3">
-        <v>0.32923181815919639</v>
+        <v>-0.026464531600536391</v>
       </c>
       <c r="EF3">
-        <v>0.32803398175413878</v>
+        <v>-0.065075804302596768</v>
       </c>
       <c r="EG3">
-        <v>0.31046066972851344</v>
+        <v>-0.058886438308889406</v>
       </c>
       <c r="EH3">
-        <v>0.32295875712326794</v>
+        <v>-0.047657288790562753</v>
       </c>
       <c r="EI3">
-        <v>0.30507066972702468</v>
+        <v>-0.05271925911092766</v>
       </c>
       <c r="EJ3">
-        <v>0.30053195974589181</v>
+        <v>-0.047740196558465314</v>
       </c>
       <c r="EK3">
-        <v>0.28626993067752859</v>
+        <v>-0.069146302564003642</v>
       </c>
       <c r="EL3">
-        <v>0.32399245344243432</v>
+        <v>-0.096638489923873833</v>
       </c>
       <c r="EM3">
-        <v>0.32258810037247165</v>
+        <v>-0.058531113181273929</v>
       </c>
       <c r="EN3">
-        <v>0.32114709199977826</v>
+        <v>-0.060462115227166192</v>
       </c>
       <c r="EO3">
-        <v>0.31141798410701493</v>
+        <v>-0.066803930593158548</v>
       </c>
       <c r="EP3">
-        <v>0.34005878584219057</v>
+        <v>-0.060102555315265697</v>
       </c>
       <c r="EQ3">
-        <v>0.3387190818697593</v>
+        <v>-0.056868972320096425</v>
       </c>
       <c r="ER3">
-        <v>0.29874686570131187</v>
+        <v>-0.04621777732946819</v>
       </c>
       <c r="ES3">
-        <v>0.32007215172986037</v>
+        <v>-0.026549950526233393</v>
       </c>
       <c r="ET3">
-        <v>0.31802414900702392</v>
+        <v>-0.072691002656824197</v>
       </c>
       <c r="EU3">
-        <v>0.31459369651129615</v>
+        <v>-0.052146100122413275</v>
       </c>
       <c r="EV3">
-        <v>0.28563096956073586</v>
+        <v>-0.097381749890215363</v>
       </c>
       <c r="EW3">
-        <v>0.34034556875252181</v>
+        <v>-0.067755019746671058</v>
       </c>
       <c r="EX3">
-        <v>0.34016667382353938</v>
+        <v>-0.047071654824626497</v>
       </c>
       <c r="EY3">
-        <v>0.26859276160018714</v>
+        <v>-0.071814011548131315</v>
       </c>
       <c r="EZ3">
-        <v>0.29455259627819413</v>
+        <v>-0.096100344735899318</v>
       </c>
       <c r="FA3">
-        <v>0.29485441010983132</v>
+        <v>-0.065169008916732329</v>
       </c>
       <c r="FB3">
-        <v>0.29654467795539041</v>
+        <v>-0.082882164437642722</v>
       </c>
       <c r="FC3">
-        <v>0.29730029426707022</v>
+        <v>-0.064898990196781817</v>
       </c>
       <c r="FD3">
-        <v>0.28290197924817567</v>
+        <v>-0.066841289012090868</v>
       </c>
       <c r="FE3">
-        <v>0.30997609463315362</v>
+        <v>-0.05027952753028405</v>
       </c>
       <c r="FF3">
-        <v>0.30422310428473415</v>
+        <v>-0.11113757914086252</v>
       </c>
       <c r="FG3">
-        <v>0.32970238797265061</v>
+        <v>-0.13708659438715273</v>
       </c>
       <c r="FH3">
-        <v>0.26769129101258832</v>
+        <v>-0.035215642318952689</v>
       </c>
       <c r="FI3">
-        <v>0.27111215903674851</v>
+        <v>-0.044840081616212092</v>
       </c>
       <c r="FJ3">
-        <v>0.31745825318608223</v>
+        <v>-0.093584123348476989</v>
       </c>
       <c r="FK3">
-        <v>0.29332976449884279</v>
+        <v>-0.061616169901523785</v>
       </c>
       <c r="FL3">
-        <v>0.27575343126903451</v>
+        <v>-0.070451519002637478</v>
       </c>
       <c r="FM3">
-        <v>0.31909355003732898</v>
+        <v>-0.064941451307665085</v>
       </c>
       <c r="FN3">
-        <v>0.30928586209904013</v>
+        <v>-0.11883508843523743</v>
       </c>
       <c r="FO3">
-        <v>0.23963196110165583</v>
+        <v>-0.065687024435007332</v>
       </c>
       <c r="FP3">
-        <v>0</v>
+        <v>-0.11856112946344305</v>
       </c>
       <c r="FQ3">
-        <v>0.29764721242130482</v>
+        <v>-0.083310443879783438</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.8130708143439218</v>
+        <v>-5.4370535601730117</v>
       </c>
     </row>
     <row r="4">
@@ -4296,526 +4305,526 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.11186527542501555</v>
+        <v>0.021892218450917419</v>
       </c>
       <c r="C4">
-        <v>0.053331647411944967</v>
+        <v>0.0095474079075139519</v>
       </c>
       <c r="D4">
-        <v>0.065939804558831125</v>
+        <v>0.013976478831018394</v>
       </c>
       <c r="E4">
-        <v>0.08144289572418352</v>
+        <v>0.016529875659187742</v>
       </c>
       <c r="F4">
-        <v>0.076686990956578285</v>
+        <v>0.015126820182460889</v>
       </c>
       <c r="G4">
-        <v>0.062614665917681681</v>
+        <v>0.012654770208675437</v>
       </c>
       <c r="H4">
-        <v>0.048793447090223457</v>
+        <v>0.010256764850374057</v>
       </c>
       <c r="I4">
-        <v>0.053550764196090075</v>
+        <v>0.010197619729138149</v>
       </c>
       <c r="J4">
-        <v>0.054847084953201543</v>
+        <v>0.010763007266605512</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.11734183642368584</v>
+        <v>0.023350223551408436</v>
       </c>
       <c r="M4">
-        <v>0.11734183642368584</v>
+        <v>0.023350223551408436</v>
       </c>
       <c r="N4">
-        <v>0.11734183642368584</v>
+        <v>0.02335022355140844</v>
       </c>
       <c r="O4">
-        <v>0.11734183642368583</v>
+        <v>0.023350223551408443</v>
       </c>
       <c r="P4">
-        <v>0.11734183642368583</v>
+        <v>0.02335022355140844</v>
       </c>
       <c r="Q4">
-        <v>0.11734183642368581</v>
+        <v>0.02335022355140845</v>
       </c>
       <c r="R4">
-        <v>0.11734183642368581</v>
+        <v>0.02335022355140845</v>
       </c>
       <c r="S4">
-        <v>0.11734183642368583</v>
+        <v>0.02335022355140845</v>
       </c>
       <c r="T4">
-        <v>0.11734183642368581</v>
+        <v>0.023350223551408453</v>
       </c>
       <c r="U4">
-        <v>0.11734183642368581</v>
+        <v>0.023350223551408446</v>
       </c>
       <c r="V4">
-        <v>0.1173418364236858</v>
+        <v>0.023350223551408457</v>
       </c>
       <c r="W4">
-        <v>0.1173418364236858</v>
+        <v>0.02335022355140845</v>
       </c>
       <c r="X4">
-        <v>0.1173418364236858</v>
+        <v>0.023350223551408457</v>
       </c>
       <c r="Y4">
-        <v>0.1173418364236858</v>
+        <v>0.023350223551408453</v>
       </c>
       <c r="Z4">
-        <v>0.1173418364236858</v>
+        <v>0.023350223551408457</v>
       </c>
       <c r="AA4">
-        <v>0.1173418364236858</v>
+        <v>0.023350223551408457</v>
       </c>
       <c r="AB4">
-        <v>0.11734183642368577</v>
+        <v>0.023350223551408457</v>
       </c>
       <c r="AC4">
-        <v>0.1173418364236858</v>
+        <v>0.023350223551408457</v>
       </c>
       <c r="AD4">
-        <v>0.1173418364236858</v>
+        <v>0.023350223551408457</v>
       </c>
       <c r="AE4">
-        <v>0.11734183642368579</v>
+        <v>0.023350223551408457</v>
       </c>
       <c r="AF4">
-        <v>0.11734183642368579</v>
+        <v>0.023350223551408457</v>
       </c>
       <c r="AG4">
-        <v>0.11734183642368577</v>
+        <v>0.023350223551408457</v>
       </c>
       <c r="AH4">
-        <v>0.11734183642368579</v>
+        <v>0.023350223551408457</v>
       </c>
       <c r="AI4">
-        <v>0.11734183642368577</v>
+        <v>0.023350223551408457</v>
       </c>
       <c r="AJ4">
-        <v>0.11734183642368573</v>
+        <v>0.023350223551408457</v>
       </c>
       <c r="AK4">
-        <v>0.11734183642368577</v>
+        <v>0.023350223551408464</v>
       </c>
       <c r="AL4">
-        <v>0.11734183642368577</v>
+        <v>0.023350223551408464</v>
       </c>
       <c r="AM4">
-        <v>0.11734183642368577</v>
+        <v>0.023350223551408467</v>
       </c>
       <c r="AN4">
-        <v>0.1173418364236857</v>
+        <v>0.023350223551408464</v>
       </c>
       <c r="AO4">
-        <v>0.11734183642368577</v>
+        <v>0.023350223551408467</v>
       </c>
       <c r="AP4">
-        <v>0.1173418364236857</v>
+        <v>0.023350223551408467</v>
       </c>
       <c r="AQ4">
-        <v>0.11734183642368572</v>
+        <v>0.023350223551408471</v>
       </c>
       <c r="AR4">
-        <v>0.1173418364236857</v>
+        <v>0.023350223551408471</v>
       </c>
       <c r="AS4">
-        <v>0.1173418364236857</v>
+        <v>0.023350223551408471</v>
       </c>
       <c r="AT4">
-        <v>0.1173418364236857</v>
+        <v>0.023350223551408467</v>
       </c>
       <c r="AU4">
-        <v>0.1173418364236857</v>
+        <v>0.023350223551408467</v>
       </c>
       <c r="AV4">
-        <v>0.1173418364236857</v>
+        <v>0.023350223551408467</v>
       </c>
       <c r="AW4">
-        <v>0.11734183642368565</v>
+        <v>0.023350223551408467</v>
       </c>
       <c r="AX4">
-        <v>0.1173418364236857</v>
+        <v>0.023350223551408467</v>
       </c>
       <c r="AY4">
-        <v>0.11734183642368566</v>
+        <v>0.023350223551408467</v>
       </c>
       <c r="AZ4">
-        <v>0.11734183642368566</v>
+        <v>0.023350223551408467</v>
       </c>
       <c r="BA4">
-        <v>0.11734183642368566</v>
+        <v>0.023350223551408467</v>
       </c>
       <c r="BB4">
-        <v>0.11734183642368566</v>
+        <v>0.023350223551408467</v>
       </c>
       <c r="BC4">
-        <v>0.11734183642368566</v>
+        <v>0.023350223551408471</v>
       </c>
       <c r="BD4">
-        <v>0.11734183642368561</v>
+        <v>0.023350223551408467</v>
       </c>
       <c r="BE4">
-        <v>0.11734183642368566</v>
+        <v>0.023350223551408471</v>
       </c>
       <c r="BF4">
-        <v>0.11734183642368563</v>
+        <v>0.023350223551408467</v>
       </c>
       <c r="BG4">
-        <v>0.11734183642368566</v>
+        <v>0.023350223551408471</v>
       </c>
       <c r="BH4">
-        <v>0.11734183642368561</v>
+        <v>0.023350223551408467</v>
       </c>
       <c r="BI4">
-        <v>0.11734183642368561</v>
+        <v>0.023350223551408471</v>
       </c>
       <c r="BJ4">
-        <v>0.11734183642368561</v>
+        <v>0.023350223551408471</v>
       </c>
       <c r="BK4">
-        <v>0.11734183642368559</v>
+        <v>0.023350223551408471</v>
       </c>
       <c r="BL4">
-        <v>0.11170814764580062</v>
+        <v>0.023350223551408471</v>
       </c>
       <c r="BM4">
-        <v>0.11170814764580062</v>
+        <v>0.023350223551408474</v>
       </c>
       <c r="BN4">
-        <v>0.11170814764580063</v>
+        <v>0.023350223551408474</v>
       </c>
       <c r="BO4">
-        <v>0.11170814764580064</v>
+        <v>0.023350223551408478</v>
       </c>
       <c r="BP4">
-        <v>0.11170814764580064</v>
+        <v>0.023350223551408478</v>
       </c>
       <c r="BQ4">
-        <v>0.12038287532506531</v>
+        <v>0.023337002950444798</v>
       </c>
       <c r="BR4">
-        <v>0.12038287532506531</v>
+        <v>0.023337002950444798</v>
       </c>
       <c r="BS4">
-        <v>0.12038287532506531</v>
+        <v>0.023337002950444802</v>
       </c>
       <c r="BT4">
-        <v>0.12403430750055595</v>
+        <v>0.021174470252200261</v>
       </c>
       <c r="BU4">
-        <v>0.12403430750055597</v>
+        <v>0.021174470252200265</v>
       </c>
       <c r="BV4">
-        <v>0.12982577973051476</v>
+        <v>0.024553666121517687</v>
       </c>
       <c r="BW4">
-        <v>0.12344768211990242</v>
+        <v>0.024080020292601829</v>
       </c>
       <c r="BX4">
-        <v>0.12344768211990244</v>
+        <v>0.024080020292601829</v>
       </c>
       <c r="BY4">
-        <v>0.12144651362751822</v>
+        <v>0.023720834878700584</v>
       </c>
       <c r="BZ4">
-        <v>0.12144651362751822</v>
+        <v>0.023720834878700588</v>
       </c>
       <c r="CA4">
-        <v>0.12144651362751822</v>
+        <v>0.023720834878700588</v>
       </c>
       <c r="CB4">
-        <v>0.11901327844885724</v>
+        <v>0.023429522218409545</v>
       </c>
       <c r="CC4">
-        <v>0.11901327844885724</v>
+        <v>0.023429522218409552</v>
       </c>
       <c r="CD4">
-        <v>0.11901327844885724</v>
+        <v>0.023429522218409549</v>
       </c>
       <c r="CE4">
-        <v>0.11901327844885724</v>
+        <v>0.023429522218409549</v>
       </c>
       <c r="CF4">
-        <v>0.11408758632341121</v>
+        <v>0.023429522218409552</v>
       </c>
       <c r="CG4">
-        <v>0.10845178266841451</v>
+        <v>0.023366078398627421</v>
       </c>
       <c r="CH4">
-        <v>0.1084517826684145</v>
+        <v>0.023366078398627418</v>
       </c>
       <c r="CI4">
-        <v>0.1084517826684145</v>
+        <v>0.023366078398627421</v>
       </c>
       <c r="CJ4">
+        <v>0.023366078398627425</v>
+      </c>
+      <c r="CK4">
+        <v>0.023673125615705282</v>
+      </c>
+      <c r="CL4">
+        <v>0.022342500840303585</v>
+      </c>
+      <c r="CM4">
+        <v>0.022342500840303588</v>
+      </c>
+      <c r="CN4">
+        <v>0.020299381241519823</v>
+      </c>
+      <c r="CO4">
         <v>0</v>
       </c>
-      <c r="CK4">
-        <v>0.11599610897126933</v>
-      </c>
-      <c r="CL4">
-        <v>0.12517969747519483</v>
-      </c>
-      <c r="CM4">
-        <v>0.12517969747519483</v>
-      </c>
-      <c r="CN4">
-        <v>0.12962616978381841</v>
-      </c>
-      <c r="CO4">
-        <v>0.12962616978381838</v>
-      </c>
       <c r="CP4">
-        <v>0.13517828057168438</v>
+        <v>0.023803134422471318</v>
       </c>
       <c r="CQ4">
-        <v>0.12344768211990227</v>
+        <v>0.024088221323601649</v>
       </c>
       <c r="CR4">
-        <v>0.12344768211990227</v>
+        <v>0.024088221323601649</v>
       </c>
       <c r="CS4">
-        <v>0.12144651362751818</v>
+        <v>0.023729160048035387</v>
       </c>
       <c r="CT4">
-        <v>0.12144651362751818</v>
+        <v>0.023729160048035387</v>
       </c>
       <c r="CU4">
-        <v>0.12144651362751817</v>
+        <v>0.023729160048035387</v>
       </c>
       <c r="CV4">
-        <v>0.11901327844885716</v>
+        <v>0.023437950862343911</v>
       </c>
       <c r="CW4">
-        <v>0.11901327844885713</v>
+        <v>0.023437950862343907</v>
       </c>
       <c r="CX4">
-        <v>0.11901327844885713</v>
+        <v>0.023437950862343911</v>
       </c>
       <c r="CY4">
-        <v>0.11901327844885713</v>
+        <v>0.023437950862343904</v>
       </c>
       <c r="CZ4">
-        <v>0.11901327844885713</v>
+        <v>0.023437950862343911</v>
       </c>
       <c r="DA4">
-        <v>0.11168193819001193</v>
+        <v>0.023404613661639734</v>
       </c>
       <c r="DB4">
-        <v>0.11168193819001189</v>
+        <v>0.02340461366163973</v>
       </c>
       <c r="DC4">
-        <v>0.11168193819001192</v>
+        <v>0.023404613661639734</v>
       </c>
       <c r="DD4">
-        <v>0.11168193819001189</v>
+        <v>0.023404613661639734</v>
       </c>
       <c r="DE4">
-        <v>0.11168193819001192</v>
+        <v>0.023404613661639734</v>
       </c>
       <c r="DF4">
-        <v>0.12014778545190888</v>
+        <v>0.021917437717841833</v>
       </c>
       <c r="DG4">
-        <v>0.12014778545190889</v>
+        <v>0.021917437717841833</v>
       </c>
       <c r="DH4">
-        <v>0.12014778545190888</v>
+        <v>0.021917437717841833</v>
       </c>
       <c r="DI4">
-        <v>0.12014778545190888</v>
+        <v>0.021917437717841836</v>
       </c>
       <c r="DJ4">
-        <v>0.12014778545190888</v>
+        <v>0.021917437717841836</v>
       </c>
       <c r="DK4">
-        <v>0.11734183642368536</v>
+        <v>0.023367135005947011</v>
       </c>
       <c r="DL4">
-        <v>0.11734183642368537</v>
+        <v>0.023367135005947011</v>
       </c>
       <c r="DM4">
-        <v>0.11734183642368536</v>
+        <v>0.023367135005947011</v>
       </c>
       <c r="DN4">
-        <v>0.11734183642368536</v>
+        <v>0.023367135005947007</v>
       </c>
       <c r="DO4">
-        <v>0.11734183642368536</v>
+        <v>0.023367135005947014</v>
       </c>
       <c r="DP4">
-        <v>0.11734183642368536</v>
+        <v>0.023367135005947011</v>
       </c>
       <c r="DQ4">
-        <v>0.11734183642368536</v>
+        <v>0.023367135005947014</v>
       </c>
       <c r="DR4">
-        <v>0.11734183642368534</v>
+        <v>0.023367135005947014</v>
       </c>
       <c r="DS4">
-        <v>0.11734183642368536</v>
+        <v>0.023367135005947032</v>
       </c>
       <c r="DT4">
-        <v>0.11734183642368533</v>
+        <v>0.023367135005947018</v>
       </c>
       <c r="DU4">
-        <v>0.11734183642368534</v>
+        <v>0.023367135005947032</v>
       </c>
       <c r="DV4">
-        <v>0.11734183642368531</v>
+        <v>0.023367135005947032</v>
       </c>
       <c r="DW4">
-        <v>0.11734183642368531</v>
+        <v>0.023367135005947032</v>
       </c>
       <c r="DX4">
-        <v>0.11734183642368531</v>
+        <v>0.023367135005947028</v>
       </c>
       <c r="DY4">
-        <v>0.11734183642368531</v>
+        <v>0.023367135005947032</v>
       </c>
       <c r="DZ4">
-        <v>0.11734183642368531</v>
+        <v>0.023367135005947032</v>
       </c>
       <c r="EA4">
-        <v>0.11734183642368531</v>
+        <v>0.023367135005947039</v>
       </c>
       <c r="EB4">
-        <v>0.11734183642368531</v>
+        <v>0.023367135005947042</v>
       </c>
       <c r="EC4">
-        <v>0.11734183642368529</v>
+        <v>0.023367135005947039</v>
       </c>
       <c r="ED4">
-        <v>0.11734183642368529</v>
+        <v>0.023367135005947039</v>
       </c>
       <c r="EE4">
-        <v>0.11734183642368529</v>
+        <v>0.023367135005947039</v>
       </c>
       <c r="EF4">
-        <v>0.11734183642368527</v>
+        <v>0.023367135005947046</v>
       </c>
       <c r="EG4">
-        <v>0.11734183642368527</v>
+        <v>0.023367135005947042</v>
       </c>
       <c r="EH4">
-        <v>0.11734183642368527</v>
+        <v>0.023367135005947049</v>
       </c>
       <c r="EI4">
-        <v>0.11734183642368527</v>
+        <v>0.023367135005947042</v>
       </c>
       <c r="EJ4">
-        <v>0.11734183642368529</v>
+        <v>0.023367135005947049</v>
       </c>
       <c r="EK4">
-        <v>0.11734183642368527</v>
+        <v>0.023367135005947046</v>
       </c>
       <c r="EL4">
-        <v>0.11734183642368527</v>
+        <v>0.023367135005947049</v>
       </c>
       <c r="EM4">
-        <v>0.11734183642368526</v>
+        <v>0.023367135005947046</v>
       </c>
       <c r="EN4">
-        <v>0.11734183642368527</v>
+        <v>0.023367135005947056</v>
       </c>
       <c r="EO4">
-        <v>0.11734183642368526</v>
+        <v>0.023367135005947042</v>
       </c>
       <c r="EP4">
-        <v>0.11734183642368526</v>
+        <v>0.023367135005947049</v>
       </c>
       <c r="EQ4">
-        <v>0.11734183642368524</v>
+        <v>0.023367135005947056</v>
       </c>
       <c r="ER4">
-        <v>0.11734183642368526</v>
+        <v>0.023367135005947056</v>
       </c>
       <c r="ES4">
-        <v>0.11734183642368524</v>
+        <v>0.023367135005947056</v>
       </c>
       <c r="ET4">
-        <v>0.11734183642368524</v>
+        <v>0.023367135005947056</v>
       </c>
       <c r="EU4">
-        <v>0.11734183642368524</v>
+        <v>0.023367135005947056</v>
       </c>
       <c r="EV4">
-        <v>0.11734183642368524</v>
+        <v>0.023367135005947053</v>
       </c>
       <c r="EW4">
-        <v>0.11734183642368524</v>
+        <v>0.023367135005947046</v>
       </c>
       <c r="EX4">
-        <v>0.11734183642368524</v>
+        <v>0.023367135005947056</v>
       </c>
       <c r="EY4">
-        <v>0.11734183642368524</v>
+        <v>0.02336713500594706</v>
       </c>
       <c r="EZ4">
-        <v>0.11734183642368524</v>
+        <v>0.02336713500594706</v>
       </c>
       <c r="FA4">
-        <v>0.11734183642368524</v>
+        <v>0.023367135005947063</v>
       </c>
       <c r="FB4">
-        <v>0.11734183642368524</v>
+        <v>0.023367135005947063</v>
       </c>
       <c r="FC4">
-        <v>0.11734183642368522</v>
+        <v>0.023367135005947063</v>
       </c>
       <c r="FD4">
-        <v>0.11734183642368522</v>
+        <v>0.023367135005947063</v>
       </c>
       <c r="FE4">
-        <v>0.11734183642368522</v>
+        <v>0.023367135005947066</v>
       </c>
       <c r="FF4">
-        <v>0.1173418364236852</v>
+        <v>0.023367135005947063</v>
       </c>
       <c r="FG4">
-        <v>0.1173418364236852</v>
+        <v>0.023367135005947066</v>
       </c>
       <c r="FH4">
-        <v>0.1173418364236852</v>
+        <v>0.023367135005947063</v>
       </c>
       <c r="FI4">
-        <v>0.1173418364236852</v>
+        <v>0.02336713500594707</v>
       </c>
       <c r="FJ4">
-        <v>0.1173418364236852</v>
+        <v>0.02336713500594707</v>
       </c>
       <c r="FK4">
-        <v>0.1173418364236852</v>
+        <v>0.023367135005947073</v>
       </c>
       <c r="FL4">
-        <v>0.1173418364236852</v>
+        <v>0.023367135005947073</v>
       </c>
       <c r="FM4">
-        <v>0.11734183642368516</v>
+        <v>0.023367135005947073</v>
       </c>
       <c r="FN4">
-        <v>0.11734183642368518</v>
+        <v>0.02336713500594707</v>
       </c>
       <c r="FO4">
-        <v>0.11734183642368516</v>
+        <v>0.023367135005947073</v>
       </c>
       <c r="FP4">
-        <v>0</v>
+        <v>0.023367135005947073</v>
       </c>
       <c r="FQ4">
-        <v>0.11734183642368515</v>
+        <v>0.023367135005947077</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.088815606698983252</v>
+        <v>0.018438832907528794</v>
       </c>
     </row>
   </sheetData>
@@ -5359,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5614,7 +5623,7 @@
         <v>86</v>
       </c>
       <c r="CJ2" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="CK2" t="s">
         <v>88</v>
@@ -5629,7 +5638,7 @@
         <v>91</v>
       </c>
       <c r="CO2" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="CP2" t="s">
         <v>93</v>
@@ -5866,7 +5875,7 @@
         <v>170</v>
       </c>
       <c r="FP2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="FQ2" t="s">
         <v>177</v>
@@ -5883,526 +5892,526 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>4.3808831340092311</v>
+        <v>3.2870390882603964</v>
       </c>
       <c r="C3">
-        <v>-0.58035195982616983</v>
+        <v>-1.6955174841967169</v>
       </c>
       <c r="D3">
-        <v>-0.59033378554845128</v>
+        <v>-1.7428670455932227</v>
       </c>
       <c r="E3">
-        <v>-0.62707777036904733</v>
+        <v>-1.761763132358503</v>
       </c>
       <c r="F3">
-        <v>0.81093187223975971</v>
+        <v>0.0078322285069910985</v>
       </c>
       <c r="G3">
-        <v>0.85066509273700008</v>
+        <v>-0.011402611284238667</v>
       </c>
       <c r="H3">
-        <v>0.79579355272385444</v>
+        <v>0.001186067747344011</v>
       </c>
       <c r="I3">
-        <v>0.55965503454852039</v>
+        <v>0.015813185025541594</v>
       </c>
       <c r="J3">
-        <v>0.55280756410193077</v>
+        <v>-0.013290577405686623</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.39767247087256313</v>
+        <v>1.2735286869148539</v>
       </c>
       <c r="M3">
-        <v>0.54637169634159855</v>
+        <v>1.3355388507250667</v>
       </c>
       <c r="N3">
-        <v>-0.99208045766455155</v>
+        <v>-0.22521771701148671</v>
       </c>
       <c r="O3">
-        <v>-1.0487728955719287</v>
+        <v>-0.21747603385995809</v>
       </c>
       <c r="P3">
-        <v>-0.99151138972132591</v>
+        <v>-0.17643004207404664</v>
       </c>
       <c r="Q3">
-        <v>-0.96733581651356404</v>
+        <v>-0.1611814838725952</v>
       </c>
       <c r="R3">
-        <v>-1.0025094321389154</v>
+        <v>-0.16487281221737418</v>
       </c>
       <c r="S3">
-        <v>-1.0317945652967861</v>
+        <v>-0.14535825689165724</v>
       </c>
       <c r="T3">
-        <v>-0.96192198913514815</v>
+        <v>-0.11155505346270118</v>
       </c>
       <c r="U3">
-        <v>-0.96473569202670917</v>
+        <v>-0.085941486768118122</v>
       </c>
       <c r="V3">
-        <v>-0.91620777312633739</v>
+        <v>-0.071322578741518941</v>
       </c>
       <c r="W3">
-        <v>-0.9177348676115803</v>
+        <v>-0.021817507084678195</v>
       </c>
       <c r="X3">
-        <v>-0.92958460012738653</v>
+        <v>-0.017187649103504569</v>
       </c>
       <c r="Y3">
-        <v>-0.88456139813655543</v>
+        <v>-0.086932890531166804</v>
       </c>
       <c r="Z3">
-        <v>-0.91459991736619028</v>
+        <v>-0.12285761931213442</v>
       </c>
       <c r="AA3">
-        <v>-0.87694714402624541</v>
+        <v>-0.034403395188950081</v>
       </c>
       <c r="AB3">
-        <v>-0.89964758443561665</v>
+        <v>-0.086545218020761094</v>
       </c>
       <c r="AC3">
-        <v>-0.79278753779888644</v>
+        <v>-0.075345142456327729</v>
       </c>
       <c r="AD3">
-        <v>-0.88932302270456665</v>
+        <v>-0.10599249039456216</v>
       </c>
       <c r="AE3">
-        <v>-0.87737353683589225</v>
+        <v>-0.026701604398425064</v>
       </c>
       <c r="AF3">
-        <v>-0.84472746302925938</v>
+        <v>-0.035372002268563588</v>
       </c>
       <c r="AG3">
-        <v>-0.8806271699019711</v>
+        <v>-0.010695719744729236</v>
       </c>
       <c r="AH3">
-        <v>-0.88409304767697605</v>
+        <v>0.0089304494174483485</v>
       </c>
       <c r="AI3">
-        <v>-0.86650822305497321</v>
+        <v>-0.012795819302433358</v>
       </c>
       <c r="AJ3">
-        <v>-0.85713117457986032</v>
+        <v>-0.029505312418535792</v>
       </c>
       <c r="AK3">
-        <v>-0.84015946822926257</v>
+        <v>-0.023795003282665927</v>
       </c>
       <c r="AL3">
-        <v>-0.80645544661520174</v>
+        <v>0.031655525098768574</v>
       </c>
       <c r="AM3">
-        <v>-0.85436907962526709</v>
+        <v>0.0063271208736097517</v>
       </c>
       <c r="AN3">
-        <v>-0.87330562429423619</v>
+        <v>0.00029331230538477254</v>
       </c>
       <c r="AO3">
-        <v>-0.79910362751754072</v>
+        <v>0.024025705822058138</v>
       </c>
       <c r="AP3">
-        <v>-0.83655237474204203</v>
+        <v>-0.044474891073427794</v>
       </c>
       <c r="AQ3">
-        <v>-0.83852450544720225</v>
+        <v>-0.010024715219276297</v>
       </c>
       <c r="AR3">
-        <v>-0.87171503210067225</v>
+        <v>-0.051475379549371758</v>
       </c>
       <c r="AS3">
-        <v>-0.79505293621152173</v>
+        <v>-0.0027440685332634123</v>
       </c>
       <c r="AT3">
-        <v>-0.82548014724000218</v>
+        <v>0.0041796335835492891</v>
       </c>
       <c r="AU3">
-        <v>-0.79403980659459683</v>
+        <v>-0.026468694474098768</v>
       </c>
       <c r="AV3">
-        <v>-0.80218596962097555</v>
+        <v>0.06997364631541203</v>
       </c>
       <c r="AW3">
-        <v>-0.84960805828829133</v>
+        <v>0.052250147157798139</v>
       </c>
       <c r="AX3">
-        <v>-0.80601131943979287</v>
+        <v>0.014212817694520527</v>
       </c>
       <c r="AY3">
-        <v>-0.82223447039135955</v>
+        <v>0.023014776389166727</v>
       </c>
       <c r="AZ3">
-        <v>-0.83137108800874815</v>
+        <v>-0.0017417430005115351</v>
       </c>
       <c r="BA3">
-        <v>-0.86511590367179392</v>
+        <v>0.064715308333866614</v>
       </c>
       <c r="BB3">
-        <v>-0.78993871878506694</v>
+        <v>0.0075678736637892069</v>
       </c>
       <c r="BC3">
-        <v>-0.81933180701895725</v>
+        <v>-0.017450811478516539</v>
       </c>
       <c r="BD3">
-        <v>-0.75780565101788899</v>
+        <v>0.025071479583654518</v>
       </c>
       <c r="BE3">
-        <v>-0.8274897259547459</v>
+        <v>0.018307902651642106</v>
       </c>
       <c r="BF3">
-        <v>-0.78762030661399274</v>
+        <v>0.011650183469182214</v>
       </c>
       <c r="BG3">
-        <v>-0.87798608315999127</v>
+        <v>-0.008253845135688484</v>
       </c>
       <c r="BH3">
-        <v>-0.8183512038373395</v>
+        <v>0.011491474276306412</v>
       </c>
       <c r="BI3">
-        <v>-0.85701231546973899</v>
+        <v>0.019169871563446357</v>
       </c>
       <c r="BJ3">
-        <v>-0.82439767907761907</v>
+        <v>-0.022080213142587023</v>
       </c>
       <c r="BK3">
-        <v>-0.82267333819246047</v>
+        <v>0.003901462594962954</v>
       </c>
       <c r="BL3">
-        <v>-0.55974907335828483</v>
+        <v>0.0078968575887293623</v>
       </c>
       <c r="BM3">
-        <v>-0.55906130474064686</v>
+        <v>0.032095362685143888</v>
       </c>
       <c r="BN3">
-        <v>-0.52476369138269052</v>
+        <v>-0.043926114701536234</v>
       </c>
       <c r="BO3">
-        <v>-0.59943850009819155</v>
+        <v>-0.0032099593913637097</v>
       </c>
       <c r="BP3">
-        <v>-0.51485650367026581</v>
+        <v>0.0022797379563848437</v>
       </c>
       <c r="BQ3">
-        <v>-0.53888012076650949</v>
+        <v>0.012356364873367101</v>
       </c>
       <c r="BR3">
-        <v>-0.55965845126472358</v>
+        <v>-0.038463827738849002</v>
       </c>
       <c r="BS3">
-        <v>-0.55194740466909831</v>
+        <v>0.002994972251554014</v>
       </c>
       <c r="BT3">
-        <v>-0.56433956525899254</v>
+        <v>0.014046919816385324</v>
       </c>
       <c r="BU3">
-        <v>-0.54287055997472045</v>
+        <v>-0.01668973545774605</v>
       </c>
       <c r="BV3">
-        <v>-0.62380244161638199</v>
+        <v>-0.10662978742258274</v>
       </c>
       <c r="BW3">
-        <v>-0.37914685681002247</v>
+        <v>-0.078355823785408882</v>
       </c>
       <c r="BX3">
-        <v>-0.37013500128132859</v>
+        <v>-0.037955540090896099</v>
       </c>
       <c r="BY3">
-        <v>-0.4453412682282194</v>
+        <v>-0.030014300136061021</v>
       </c>
       <c r="BZ3">
-        <v>-0.45723185031276353</v>
+        <v>0.016602468566441469</v>
       </c>
       <c r="CA3">
-        <v>-0.44538302144892694</v>
+        <v>-0.037804913992908078</v>
       </c>
       <c r="CB3">
-        <v>-0.41203932754837519</v>
+        <v>-0.013610778526782072</v>
       </c>
       <c r="CC3">
-        <v>-0.39547357440890046</v>
+        <v>-0.04136423915414681</v>
       </c>
       <c r="CD3">
-        <v>-0.41950133637492809</v>
+        <v>-0.051377337599563276</v>
       </c>
       <c r="CE3">
-        <v>-0.41645320787301571</v>
+        <v>-0.0018039472988213387</v>
       </c>
       <c r="CF3">
-        <v>-0.11759373857306818</v>
+        <v>-0.044125974154457494</v>
       </c>
       <c r="CG3">
-        <v>-0.042613676129179684</v>
+        <v>-0.069806240910438092</v>
       </c>
       <c r="CH3">
-        <v>-0.0058750369235691588</v>
+        <v>-0.059349146133504109</v>
       </c>
       <c r="CI3">
-        <v>0.021191892108925595</v>
+        <v>-0.085863960805188932</v>
       </c>
       <c r="CJ3">
+        <v>-0.0056319241548955417</v>
+      </c>
+      <c r="CK3">
+        <v>-0.031226459781833506</v>
+      </c>
+      <c r="CL3">
+        <v>0.02353086096125168</v>
+      </c>
+      <c r="CM3">
+        <v>-0.066497153495993319</v>
+      </c>
+      <c r="CN3">
+        <v>-0.037970711588597494</v>
+      </c>
+      <c r="CO3">
         <v>0</v>
       </c>
-      <c r="CK3">
-        <v>-0.041833477410547847</v>
-      </c>
-      <c r="CL3">
-        <v>-0.066854006623890391</v>
-      </c>
-      <c r="CM3">
-        <v>-0.013717156302829327</v>
-      </c>
-      <c r="CN3">
-        <v>0.0022796881711841738</v>
-      </c>
-      <c r="CO3">
-        <v>-0.031330987314486629</v>
-      </c>
       <c r="CP3">
-        <v>0.084960445787027467</v>
+        <v>0.039478947241020183</v>
       </c>
       <c r="CQ3">
-        <v>0.44390024110635579</v>
+        <v>-0.024856471287488469</v>
       </c>
       <c r="CR3">
-        <v>0.42455139030365374</v>
+        <v>-0.0099905295652503862</v>
       </c>
       <c r="CS3">
-        <v>0.42000005492263054</v>
+        <v>0.012747613852114608</v>
       </c>
       <c r="CT3">
-        <v>0.42836930511622123</v>
+        <v>-0.01502006812856449</v>
       </c>
       <c r="CU3">
-        <v>0.44566502617653181</v>
+        <v>-0.025657253523116721</v>
       </c>
       <c r="CV3">
-        <v>0.420947778732846</v>
+        <v>-0.040691420567192771</v>
       </c>
       <c r="CW3">
-        <v>0.49609021411994259</v>
+        <v>-0.044537511597132214</v>
       </c>
       <c r="CX3">
-        <v>0.44131303630829943</v>
+        <v>-0.04371490760886533</v>
       </c>
       <c r="CY3">
-        <v>0.42532924833293878</v>
+        <v>-0.046195271342900794</v>
       </c>
       <c r="CZ3">
-        <v>0.42690062340438201</v>
+        <v>-0.0014913755833289928</v>
       </c>
       <c r="DA3">
-        <v>0.55128434491204126</v>
+        <v>-0.015507153204205261</v>
       </c>
       <c r="DB3">
-        <v>0.53892372733630489</v>
+        <v>-0.0368670427913564</v>
       </c>
       <c r="DC3">
-        <v>0.57148273060581467</v>
+        <v>-0.071060014706421329</v>
       </c>
       <c r="DD3">
-        <v>0.55169661320919994</v>
+        <v>-0.025406883649487202</v>
       </c>
       <c r="DE3">
-        <v>0.53425402985524895</v>
+        <v>-0.0063803670077744335</v>
       </c>
       <c r="DF3">
-        <v>0.58954233055012828</v>
+        <v>-0.0027249621986939749</v>
       </c>
       <c r="DG3">
-        <v>0.53432558438187161</v>
+        <v>-0.020954320387233279</v>
       </c>
       <c r="DH3">
-        <v>0.52497654991432607</v>
+        <v>-0.042064508805538185</v>
       </c>
       <c r="DI3">
-        <v>0.55829857586525289</v>
+        <v>0.027809291719772151</v>
       </c>
       <c r="DJ3">
-        <v>0.54583554812460289</v>
+        <v>-0.03552699036491902</v>
       </c>
       <c r="DK3">
-        <v>0.84448781954642771</v>
+        <v>-0.0064206647768017076</v>
       </c>
       <c r="DL3">
-        <v>0.8213772957077875</v>
+        <v>-0.016360497918508611</v>
       </c>
       <c r="DM3">
-        <v>0.82702879199130841</v>
+        <v>-0.06386472106345277</v>
       </c>
       <c r="DN3">
-        <v>0.83538221609188901</v>
+        <v>-0.039462593291543106</v>
       </c>
       <c r="DO3">
-        <v>0.80373501133307734</v>
+        <v>-0.019178297055886355</v>
       </c>
       <c r="DP3">
-        <v>0.84053203525535092</v>
+        <v>-0.07072786788456796</v>
       </c>
       <c r="DQ3">
-        <v>0.84049667415883267</v>
+        <v>-0.01137197373276932</v>
       </c>
       <c r="DR3">
-        <v>0.82915971363638974</v>
+        <v>-0.051266791814158816</v>
       </c>
       <c r="DS3">
-        <v>0.81554189766789775</v>
+        <v>-0.019248164818347836</v>
       </c>
       <c r="DT3">
-        <v>0.80195322405465597</v>
+        <v>-0.013496971428476823</v>
       </c>
       <c r="DU3">
-        <v>0.83001901693438096</v>
+        <v>-0.024113823291197312</v>
       </c>
       <c r="DV3">
-        <v>0.8404811837064966</v>
+        <v>-0.030614429346918437</v>
       </c>
       <c r="DW3">
-        <v>0.84349413025696651</v>
+        <v>-0.032045265691480938</v>
       </c>
       <c r="DX3">
-        <v>0.8358175984656866</v>
+        <v>-0.029099767140578769</v>
       </c>
       <c r="DY3">
-        <v>0.83038300607718218</v>
+        <v>-0.014982377538010856</v>
       </c>
       <c r="DZ3">
-        <v>0.79305898096576954</v>
+        <v>-0.032402449124437023</v>
       </c>
       <c r="EA3">
-        <v>0.79621903009419448</v>
+        <v>-0.054521414861270497</v>
       </c>
       <c r="EB3">
-        <v>0.82099458558591842</v>
+        <v>-0.051299820081251515</v>
       </c>
       <c r="EC3">
-        <v>0.82920880073189296</v>
+        <v>-0.025009956812965868</v>
       </c>
       <c r="ED3">
-        <v>0.82141343157042301</v>
+        <v>-0.047646169657081031</v>
       </c>
       <c r="EE3">
-        <v>0.83295647915964466</v>
+        <v>-0.007838109109587944</v>
       </c>
       <c r="EF3">
-        <v>0.83175864275458711</v>
+        <v>-0.046449381811648267</v>
       </c>
       <c r="EG3">
-        <v>0.8141853307289616</v>
+        <v>-0.040260015817940913</v>
       </c>
       <c r="EH3">
-        <v>0.82668341812371615</v>
+        <v>-0.029030866299614252</v>
       </c>
       <c r="EI3">
-        <v>0.80879533072747312</v>
+        <v>-0.034092836619979118</v>
       </c>
       <c r="EJ3">
-        <v>0.80425662074634019</v>
+        <v>-0.029113774067516758</v>
       </c>
       <c r="EK3">
-        <v>0.78999459167797714</v>
+        <v>-0.050519880073055017</v>
       </c>
       <c r="EL3">
-        <v>0.82771711444288265</v>
+        <v>-0.078012067432925034</v>
       </c>
       <c r="EM3">
-        <v>0.82631276137291998</v>
+        <v>-0.039904690690325081</v>
       </c>
       <c r="EN3">
-        <v>0.82487175300022686</v>
+        <v>-0.041835692736217484</v>
       </c>
       <c r="EO3">
-        <v>0.81514264510746315</v>
+        <v>-0.048177508102209797</v>
       </c>
       <c r="EP3">
-        <v>0.84378344684263862</v>
+        <v>-0.041476132824316808</v>
       </c>
       <c r="EQ3">
-        <v>0.84244374287020751</v>
+        <v>-0.038242549829147716</v>
       </c>
       <c r="ER3">
-        <v>0.80247152670176025</v>
+        <v>-0.027591354838519423</v>
       </c>
       <c r="ES3">
-        <v>0.8237968127303088</v>
+        <v>-0.0079235280352842642</v>
       </c>
       <c r="ET3">
-        <v>0.82174881000747235</v>
+        <v>-0.054064580165875058</v>
       </c>
       <c r="EU3">
-        <v>0.81831835751174453</v>
+        <v>-0.033519677631464205</v>
       </c>
       <c r="EV3">
-        <v>0.7893556305611843</v>
+        <v>-0.078755327399266162</v>
       </c>
       <c r="EW3">
-        <v>0.84407022975296986</v>
+        <v>-0.049128597255721856</v>
       </c>
       <c r="EX3">
-        <v>0.84389133482398704</v>
+        <v>-0.028445232333677569</v>
       </c>
       <c r="EY3">
-        <v>0.77231742260063552</v>
+        <v>-0.053187589057181961</v>
       </c>
       <c r="EZ3">
-        <v>0.79827725727864229</v>
+        <v>-0.077473922244949908</v>
       </c>
       <c r="FA3">
-        <v>0.79857907111027948</v>
+        <v>-0.046542586425783058</v>
       </c>
       <c r="FB3">
-        <v>0.80026933895583852</v>
+        <v>-0.064255741946693257</v>
       </c>
       <c r="FC3">
-        <v>0.80102495526751849</v>
+        <v>-0.04627256770583249</v>
       </c>
       <c r="FD3">
-        <v>0.78662664024862416</v>
+        <v>-0.04821486652114107</v>
       </c>
       <c r="FE3">
-        <v>0.81370075563360167</v>
+        <v>-0.031653105039334425</v>
       </c>
       <c r="FF3">
-        <v>0.80794776528518231</v>
+        <v>-0.092511156649913009</v>
       </c>
       <c r="FG3">
-        <v>0.83342704897309861</v>
+        <v>-0.11846017189620296</v>
       </c>
       <c r="FH3">
-        <v>0.77141595201303692</v>
+        <v>-0.016589219828002984</v>
       </c>
       <c r="FI3">
-        <v>0.77483682003719678</v>
+        <v>-0.026213659125262412</v>
       </c>
       <c r="FJ3">
-        <v>0.82118291418653022</v>
+        <v>-0.074957700857527343</v>
       </c>
       <c r="FK3">
-        <v>0.79705442549929095</v>
+        <v>-0.042989747410573868</v>
       </c>
       <c r="FL3">
-        <v>0.77947809226948261</v>
+        <v>-0.051825096511687679</v>
       </c>
       <c r="FM3">
-        <v>0.82281821103777708</v>
+        <v>-0.046315028816715197</v>
       </c>
       <c r="FN3">
-        <v>0.8130105230994884</v>
+        <v>-0.10020866594428764</v>
       </c>
       <c r="FO3">
-        <v>0.7433566221021044</v>
+        <v>-0.047060601944057513</v>
       </c>
       <c r="FP3">
-        <v>0</v>
+        <v>-0.099934706972493181</v>
       </c>
       <c r="FQ3">
-        <v>0.8013718734217532</v>
+        <v>-0.064684021388833515</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-6.31679547534437</v>
+        <v>-5.4556799826639626</v>
       </c>
     </row>
     <row r="4">
@@ -6410,526 +6419,526 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.28516683769147033</v>
+        <v>0.03140923364057896</v>
       </c>
       <c r="C4">
-        <v>0.13595297721798566</v>
+        <v>0.013697870149676406</v>
       </c>
       <c r="D4">
-        <v>0.16809367761884142</v>
+        <v>0.020052352851324035</v>
       </c>
       <c r="E4">
-        <v>0.20761414065144296</v>
+        <v>0.023715765845895333</v>
       </c>
       <c r="F4">
-        <v>0.19549039342258223</v>
+        <v>0.021702772170630734</v>
       </c>
       <c r="G4">
-        <v>0.15961723783375459</v>
+        <v>0.018156069246397833</v>
       </c>
       <c r="H4">
-        <v>0.12438420192432259</v>
+        <v>0.014715599714307449</v>
       </c>
       <c r="I4">
-        <v>0.13651154948433358</v>
+        <v>0.014630742944959746</v>
       </c>
       <c r="J4">
-        <v>0.13981612893970785</v>
+        <v>0.015441916527098004</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.29912768099589765</v>
+        <v>0.03350106471531223</v>
       </c>
       <c r="M4">
-        <v>0.29912768099589765</v>
+        <v>0.03350106471531223</v>
       </c>
       <c r="N4">
-        <v>0.29912768099589765</v>
+        <v>0.03350106471531223</v>
       </c>
       <c r="O4">
-        <v>0.29912768099589759</v>
+        <v>0.033501064715312237</v>
       </c>
       <c r="P4">
-        <v>0.29912768099589759</v>
+        <v>0.03350106471531223</v>
       </c>
       <c r="Q4">
-        <v>0.29912768099589754</v>
+        <v>0.033501064715312244</v>
       </c>
       <c r="R4">
-        <v>0.29912768099589754</v>
+        <v>0.033501064715312244</v>
       </c>
       <c r="S4">
-        <v>0.29912768099589759</v>
+        <v>0.033501064715312251</v>
       </c>
       <c r="T4">
-        <v>0.29912768099589754</v>
+        <v>0.033501064715312251</v>
       </c>
       <c r="U4">
-        <v>0.29912768099589754</v>
+        <v>0.033501064715312244</v>
       </c>
       <c r="V4">
-        <v>0.29912768099589748</v>
+        <v>0.033501064715312258</v>
       </c>
       <c r="W4">
-        <v>0.29912768099589748</v>
+        <v>0.033501064715312244</v>
       </c>
       <c r="X4">
-        <v>0.29912768099589748</v>
+        <v>0.033501064715312251</v>
       </c>
       <c r="Y4">
-        <v>0.29912768099589748</v>
+        <v>0.033501064715312251</v>
       </c>
       <c r="Z4">
-        <v>0.29912768099589748</v>
+        <v>0.033501064715312251</v>
       </c>
       <c r="AA4">
-        <v>0.29912768099589748</v>
+        <v>0.033501064715312251</v>
       </c>
       <c r="AB4">
-        <v>0.29912768099589743</v>
+        <v>0.033501064715312258</v>
       </c>
       <c r="AC4">
-        <v>0.29912768099589748</v>
+        <v>0.033501064715312258</v>
       </c>
       <c r="AD4">
-        <v>0.29912768099589748</v>
+        <v>0.033501064715312258</v>
       </c>
       <c r="AE4">
-        <v>0.29912768099589748</v>
+        <v>0.033501064715312258</v>
       </c>
       <c r="AF4">
-        <v>0.29912768099589748</v>
+        <v>0.033501064715312258</v>
       </c>
       <c r="AG4">
-        <v>0.29912768099589743</v>
+        <v>0.033501064715312258</v>
       </c>
       <c r="AH4">
-        <v>0.29912768099589748</v>
+        <v>0.033501064715312251</v>
       </c>
       <c r="AI4">
-        <v>0.29912768099589743</v>
+        <v>0.033501064715312258</v>
       </c>
       <c r="AJ4">
-        <v>0.29912768099589732</v>
+        <v>0.033501064715312258</v>
       </c>
       <c r="AK4">
-        <v>0.29912768099589743</v>
+        <v>0.033501064715312265</v>
       </c>
       <c r="AL4">
-        <v>0.29912768099589743</v>
+        <v>0.033501064715312265</v>
       </c>
       <c r="AM4">
-        <v>0.29912768099589743</v>
+        <v>0.033501064715312272</v>
       </c>
       <c r="AN4">
-        <v>0.29912768099589726</v>
+        <v>0.033501064715312272</v>
       </c>
       <c r="AO4">
-        <v>0.29912768099589743</v>
+        <v>0.033501064715312272</v>
       </c>
       <c r="AP4">
-        <v>0.29912768099589726</v>
+        <v>0.033501064715312272</v>
       </c>
       <c r="AQ4">
-        <v>0.29912768099589732</v>
+        <v>0.033501064715312279</v>
       </c>
       <c r="AR4">
-        <v>0.29912768099589726</v>
+        <v>0.033501064715312279</v>
       </c>
       <c r="AS4">
-        <v>0.29912768099589726</v>
+        <v>0.033501064715312279</v>
       </c>
       <c r="AT4">
-        <v>0.29912768099589726</v>
+        <v>0.033501064715312272</v>
       </c>
       <c r="AU4">
-        <v>0.29912768099589726</v>
+        <v>0.033501064715312272</v>
       </c>
       <c r="AV4">
-        <v>0.29912768099589726</v>
+        <v>0.033501064715312272</v>
       </c>
       <c r="AW4">
-        <v>0.29912768099589709</v>
+        <v>0.033501064715312272</v>
       </c>
       <c r="AX4">
-        <v>0.29912768099589726</v>
+        <v>0.033501064715312272</v>
       </c>
       <c r="AY4">
-        <v>0.29912768099589715</v>
+        <v>0.033501064715312272</v>
       </c>
       <c r="AZ4">
-        <v>0.29912768099589715</v>
+        <v>0.033501064715312272</v>
       </c>
       <c r="BA4">
-        <v>0.29912768099589715</v>
+        <v>0.033501064715312272</v>
       </c>
       <c r="BB4">
-        <v>0.29912768099589715</v>
+        <v>0.033501064715312272</v>
       </c>
       <c r="BC4">
-        <v>0.29912768099589715</v>
+        <v>0.033501064715312279</v>
       </c>
       <c r="BD4">
-        <v>0.29912768099589704</v>
+        <v>0.033501064715312272</v>
       </c>
       <c r="BE4">
-        <v>0.29912768099589715</v>
+        <v>0.033501064715312279</v>
       </c>
       <c r="BF4">
-        <v>0.29912768099589709</v>
+        <v>0.033501064715312272</v>
       </c>
       <c r="BG4">
-        <v>0.29912768099589715</v>
+        <v>0.033501064715312279</v>
       </c>
       <c r="BH4">
-        <v>0.29912768099589704</v>
+        <v>0.033501064715312272</v>
       </c>
       <c r="BI4">
-        <v>0.29912768099589704</v>
+        <v>0.033501064715312279</v>
       </c>
       <c r="BJ4">
-        <v>0.29912768099589704</v>
+        <v>0.033501064715312279</v>
       </c>
       <c r="BK4">
-        <v>0.29912768099589698</v>
+        <v>0.033501064715312279</v>
       </c>
       <c r="BL4">
-        <v>0.28476628772865148</v>
+        <v>0.033501064715312279</v>
       </c>
       <c r="BM4">
-        <v>0.28476628772865148</v>
+        <v>0.033501064715312286</v>
       </c>
       <c r="BN4">
-        <v>0.28476628772865153</v>
+        <v>0.033501064715312286</v>
       </c>
       <c r="BO4">
-        <v>0.28476628772865153</v>
+        <v>0.033501064715312293</v>
       </c>
       <c r="BP4">
-        <v>0.28476628772865153</v>
+        <v>0.033501064715312293</v>
       </c>
       <c r="BQ4">
-        <v>0.30687989403527299</v>
+        <v>0.033482096836590085</v>
       </c>
       <c r="BR4">
-        <v>0.30687989403527299</v>
+        <v>0.033482096836590078</v>
       </c>
       <c r="BS4">
-        <v>0.30687989403527299</v>
+        <v>0.033482096836590085</v>
       </c>
       <c r="BT4">
-        <v>0.31618812094101667</v>
+        <v>0.0303794649618516</v>
       </c>
       <c r="BU4">
-        <v>0.31618812094101667</v>
+        <v>0.030379464961851604</v>
       </c>
       <c r="BV4">
-        <v>0.33095173561161534</v>
+        <v>0.035227669487794579</v>
       </c>
       <c r="BW4">
-        <v>0.31469269616263978</v>
+        <v>0.034548119695403376</v>
       </c>
       <c r="BX4">
-        <v>0.31469269616263984</v>
+        <v>0.034548119695403376</v>
       </c>
       <c r="BY4">
-        <v>0.30959131963187236</v>
+        <v>0.034032788706412652</v>
       </c>
       <c r="BZ4">
-        <v>0.30959131963187236</v>
+        <v>0.034032788706412659</v>
       </c>
       <c r="CA4">
-        <v>0.30959131963187236</v>
+        <v>0.034032788706412659</v>
       </c>
       <c r="CB4">
-        <v>0.30338851917728887</v>
+        <v>0.033614836207443481</v>
       </c>
       <c r="CC4">
-        <v>0.30338851917728893</v>
+        <v>0.033614836207443495</v>
       </c>
       <c r="CD4">
-        <v>0.30338851917728887</v>
+        <v>0.033614836207443488</v>
       </c>
       <c r="CE4">
-        <v>0.30338851917728887</v>
+        <v>0.033614836207443488</v>
       </c>
       <c r="CF4">
-        <v>0.29083195020163055</v>
+        <v>0.033614836207443495</v>
       </c>
       <c r="CG4">
-        <v>0.27646516569196633</v>
+        <v>0.03352381200342984</v>
       </c>
       <c r="CH4">
-        <v>0.27646516569196627</v>
+        <v>0.03352381200342984</v>
       </c>
       <c r="CI4">
-        <v>0.27646516569196627</v>
+        <v>0.03352381200342984</v>
       </c>
       <c r="CJ4">
+        <v>0.033523812003429847</v>
+      </c>
+      <c r="CK4">
+        <v>0.033964339207263036</v>
+      </c>
+      <c r="CL4">
+        <v>0.032055263407008386</v>
+      </c>
+      <c r="CM4">
+        <v>0.032055263407008393</v>
+      </c>
+      <c r="CN4">
+        <v>0.029123956057882427</v>
+      </c>
+      <c r="CO4">
         <v>0</v>
       </c>
-      <c r="CK4">
-        <v>0.29569715404692093</v>
-      </c>
-      <c r="CL4">
-        <v>0.31910794781088586</v>
-      </c>
-      <c r="CM4">
-        <v>0.31910794781088586</v>
-      </c>
-      <c r="CN4">
-        <v>0.33044289015394412</v>
-      </c>
-      <c r="CO4">
-        <v>0.33044289015394401</v>
-      </c>
       <c r="CP4">
-        <v>0.3445963248983096</v>
+        <v>0.03415086562057297</v>
       </c>
       <c r="CQ4">
-        <v>0.3146926961626394</v>
+        <v>0.034559885889831977</v>
       </c>
       <c r="CR4">
-        <v>0.3146926961626394</v>
+        <v>0.034559885889831977</v>
       </c>
       <c r="CS4">
-        <v>0.30959131963187225</v>
+        <v>0.034044733004763246</v>
       </c>
       <c r="CT4">
-        <v>0.30959131963187225</v>
+        <v>0.034044733004763253</v>
       </c>
       <c r="CU4">
-        <v>0.3095913196318722</v>
+        <v>0.034044733004763246</v>
       </c>
       <c r="CV4">
-        <v>0.30338851917728865</v>
+        <v>0.033626928963013288</v>
       </c>
       <c r="CW4">
-        <v>0.3033885191772886</v>
+        <v>0.033626928963013288</v>
       </c>
       <c r="CX4">
-        <v>0.3033885191772886</v>
+        <v>0.033626928963013294</v>
       </c>
       <c r="CY4">
-        <v>0.3033885191772886</v>
+        <v>0.033626928963013281</v>
       </c>
       <c r="CZ4">
-        <v>0.3033885191772886</v>
+        <v>0.033626928963013294</v>
       </c>
       <c r="DA4">
-        <v>0.28469947461263778</v>
+        <v>0.033579099368758691</v>
       </c>
       <c r="DB4">
-        <v>0.28469947461263773</v>
+        <v>0.033579099368758691</v>
       </c>
       <c r="DC4">
-        <v>0.28469947461263778</v>
+        <v>0.033579099368758698</v>
       </c>
       <c r="DD4">
-        <v>0.28469947461263773</v>
+        <v>0.033579099368758691</v>
       </c>
       <c r="DE4">
-        <v>0.28469947461263778</v>
+        <v>0.033579099368758691</v>
       </c>
       <c r="DF4">
-        <v>0.3062806031878979</v>
+        <v>0.031445416261762324</v>
       </c>
       <c r="DG4">
-        <v>0.30628060318789796</v>
+        <v>0.031445416261762317</v>
       </c>
       <c r="DH4">
-        <v>0.3062806031878979</v>
+        <v>0.031445416261762324</v>
       </c>
       <c r="DI4">
-        <v>0.3062806031878979</v>
+        <v>0.031445416261762331</v>
       </c>
       <c r="DJ4">
-        <v>0.3062806031878979</v>
+        <v>0.031445416261762331</v>
       </c>
       <c r="DK4">
-        <v>0.29912768099589637</v>
+        <v>0.033525327940530585</v>
       </c>
       <c r="DL4">
-        <v>0.29912768099589643</v>
+        <v>0.033525327940530585</v>
       </c>
       <c r="DM4">
-        <v>0.29912768099589637</v>
+        <v>0.033525327940530585</v>
       </c>
       <c r="DN4">
-        <v>0.29912768099589637</v>
+        <v>0.033525327940530585</v>
       </c>
       <c r="DO4">
-        <v>0.29912768099589637</v>
+        <v>0.033525327940530592</v>
       </c>
       <c r="DP4">
-        <v>0.29912768099589637</v>
+        <v>0.033525327940530585</v>
       </c>
       <c r="DQ4">
-        <v>0.29912768099589637</v>
+        <v>0.033525327940530592</v>
       </c>
       <c r="DR4">
-        <v>0.29912768099589637</v>
+        <v>0.033525327940530592</v>
       </c>
       <c r="DS4">
-        <v>0.29912768099589637</v>
+        <v>0.033525327940530612</v>
       </c>
       <c r="DT4">
-        <v>0.29912768099589632</v>
+        <v>0.033525327940530592</v>
       </c>
       <c r="DU4">
-        <v>0.29912768099589637</v>
+        <v>0.033525327940530612</v>
       </c>
       <c r="DV4">
-        <v>0.29912768099589626</v>
+        <v>0.033525327940530612</v>
       </c>
       <c r="DW4">
-        <v>0.29912768099589626</v>
+        <v>0.033525327940530612</v>
       </c>
       <c r="DX4">
-        <v>0.29912768099589626</v>
+        <v>0.033525327940530612</v>
       </c>
       <c r="DY4">
-        <v>0.29912768099589626</v>
+        <v>0.033525327940530619</v>
       </c>
       <c r="DZ4">
-        <v>0.29912768099589626</v>
+        <v>0.033525327940530619</v>
       </c>
       <c r="EA4">
-        <v>0.29912768099589626</v>
+        <v>0.033525327940530626</v>
       </c>
       <c r="EB4">
-        <v>0.29912768099589626</v>
+        <v>0.033525327940530633</v>
       </c>
       <c r="EC4">
-        <v>0.29912768099589621</v>
+        <v>0.033525327940530626</v>
       </c>
       <c r="ED4">
-        <v>0.29912768099589621</v>
+        <v>0.033525327940530626</v>
       </c>
       <c r="EE4">
-        <v>0.29912768099589621</v>
+        <v>0.033525327940530626</v>
       </c>
       <c r="EF4">
-        <v>0.29912768099589615</v>
+        <v>0.033525327940530633</v>
       </c>
       <c r="EG4">
-        <v>0.29912768099589615</v>
+        <v>0.033525327940530633</v>
       </c>
       <c r="EH4">
-        <v>0.29912768099589615</v>
+        <v>0.03352532794053064</v>
       </c>
       <c r="EI4">
-        <v>0.29912768099589615</v>
+        <v>0.033525327940530633</v>
       </c>
       <c r="EJ4">
-        <v>0.29912768099589621</v>
+        <v>0.03352532794053064</v>
       </c>
       <c r="EK4">
-        <v>0.29912768099589615</v>
+        <v>0.033525327940530633</v>
       </c>
       <c r="EL4">
-        <v>0.29912768099589615</v>
+        <v>0.03352532794053064</v>
       </c>
       <c r="EM4">
-        <v>0.29912768099589615</v>
+        <v>0.033525327940530633</v>
       </c>
       <c r="EN4">
-        <v>0.29912768099589615</v>
+        <v>0.033525327940530647</v>
       </c>
       <c r="EO4">
-        <v>0.29912768099589615</v>
+        <v>0.033525327940530633</v>
       </c>
       <c r="EP4">
-        <v>0.29912768099589615</v>
+        <v>0.03352532794053064</v>
       </c>
       <c r="EQ4">
-        <v>0.29912768099589609</v>
+        <v>0.033525327940530654</v>
       </c>
       <c r="ER4">
-        <v>0.29912768099589615</v>
+        <v>0.033525327940530654</v>
       </c>
       <c r="ES4">
-        <v>0.29912768099589609</v>
+        <v>0.033525327940530654</v>
       </c>
       <c r="ET4">
-        <v>0.29912768099589609</v>
+        <v>0.033525327940530654</v>
       </c>
       <c r="EU4">
-        <v>0.29912768099589609</v>
+        <v>0.033525327940530654</v>
       </c>
       <c r="EV4">
-        <v>0.29912768099589609</v>
+        <v>0.033525327940530647</v>
       </c>
       <c r="EW4">
-        <v>0.29912768099589609</v>
+        <v>0.033525327940530633</v>
       </c>
       <c r="EX4">
-        <v>0.29912768099589609</v>
+        <v>0.033525327940530647</v>
       </c>
       <c r="EY4">
-        <v>0.29912768099589609</v>
+        <v>0.033525327940530654</v>
       </c>
       <c r="EZ4">
-        <v>0.29912768099589609</v>
+        <v>0.033525327940530654</v>
       </c>
       <c r="FA4">
-        <v>0.29912768099589609</v>
+        <v>0.033525327940530661</v>
       </c>
       <c r="FB4">
-        <v>0.29912768099589609</v>
+        <v>0.033525327940530661</v>
       </c>
       <c r="FC4">
-        <v>0.29912768099589604</v>
+        <v>0.033525327940530661</v>
       </c>
       <c r="FD4">
-        <v>0.29912768099589604</v>
+        <v>0.033525327940530661</v>
       </c>
       <c r="FE4">
-        <v>0.29912768099589604</v>
+        <v>0.033525327940530668</v>
       </c>
       <c r="FF4">
-        <v>0.29912768099589598</v>
+        <v>0.033525327940530661</v>
       </c>
       <c r="FG4">
-        <v>0.29912768099589598</v>
+        <v>0.033525327940530668</v>
       </c>
       <c r="FH4">
-        <v>0.29912768099589598</v>
+        <v>0.033525327940530661</v>
       </c>
       <c r="FI4">
-        <v>0.29912768099589598</v>
+        <v>0.033525327940530668</v>
       </c>
       <c r="FJ4">
-        <v>0.29912768099589598</v>
+        <v>0.033525327940530668</v>
       </c>
       <c r="FK4">
-        <v>0.29912768099589598</v>
+        <v>0.033525327940530682</v>
       </c>
       <c r="FL4">
-        <v>0.29912768099589598</v>
+        <v>0.033525327940530682</v>
       </c>
       <c r="FM4">
-        <v>0.29912768099589587</v>
+        <v>0.033525327940530682</v>
       </c>
       <c r="FN4">
-        <v>0.29912768099589593</v>
+        <v>0.033525327940530675</v>
       </c>
       <c r="FO4">
-        <v>0.29912768099589587</v>
+        <v>0.033525327940530682</v>
       </c>
       <c r="FP4">
-        <v>0</v>
+        <v>0.033525327940530682</v>
       </c>
       <c r="FQ4">
-        <v>0.29912768099589587</v>
+        <v>0.033525327940530682</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.22640864739993016</v>
+        <v>0.026454587603838647</v>
       </c>
     </row>
   </sheetData>
@@ -7473,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -7728,7 +7737,7 @@
         <v>86</v>
       </c>
       <c r="CJ2" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="CK2" t="s">
         <v>88</v>
@@ -7743,7 +7752,7 @@
         <v>91</v>
       </c>
       <c r="CO2" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="CP2" t="s">
         <v>93</v>
@@ -7980,7 +7989,7 @@
         <v>170</v>
       </c>
       <c r="FP2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="FQ2" t="s">
         <v>177</v>
@@ -7997,526 +8006,526 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>2.3008174638585506</v>
+        <v>1.1663950492109532</v>
       </c>
       <c r="C3">
-        <v>-0.53651615445862599</v>
+        <v>-1.7292955762748894</v>
       </c>
       <c r="D3">
-        <v>-0.56121062717202208</v>
+        <v>-1.7205609917887184</v>
       </c>
       <c r="E3">
-        <v>-0.55690196643844025</v>
+        <v>-1.6960607329628077</v>
       </c>
       <c r="F3">
-        <v>1.733633484012375</v>
+        <v>0.88763732745222534</v>
       </c>
       <c r="G3">
-        <v>1.6065414827795799</v>
+        <v>0.7655739047692165</v>
       </c>
       <c r="H3">
-        <v>1.4278501742972594</v>
+        <v>0.61517104165746173</v>
       </c>
       <c r="I3">
-        <v>1.0558708758500321</v>
+        <v>0.45946690165401777</v>
       </c>
       <c r="J3">
-        <v>0.9335562815609818</v>
+        <v>0.34136185707352129</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.48644625153270166</v>
+        <v>1.3331217382271012</v>
       </c>
       <c r="M3">
-        <v>0.5933524309571494</v>
+        <v>1.4021306580645714</v>
       </c>
       <c r="N3">
-        <v>-0.94686437274759139</v>
+        <v>-0.11573874408360293</v>
       </c>
       <c r="O3">
-        <v>-1.0043168642844249</v>
+        <v>-0.10590641373339492</v>
       </c>
       <c r="P3">
-        <v>-0.92218407506315248</v>
+        <v>-0.099299615352245629</v>
       </c>
       <c r="Q3">
-        <v>-0.98498472284815419</v>
+        <v>-0.090624988694836844</v>
       </c>
       <c r="R3">
-        <v>-0.98719692329588282</v>
+        <v>-0.08475471372361118</v>
       </c>
       <c r="S3">
-        <v>-0.88320180340236609</v>
+        <v>-0.10395451936131765</v>
       </c>
       <c r="T3">
-        <v>-0.88783452826800136</v>
+        <v>-0.11040035383546254</v>
       </c>
       <c r="U3">
-        <v>-0.8832561330917702</v>
+        <v>-0.014985941461508352</v>
       </c>
       <c r="V3">
-        <v>-0.86591330728707483</v>
+        <v>-0.054267238542575924</v>
       </c>
       <c r="W3">
-        <v>-0.87614071789621339</v>
+        <v>-0.026573853699873352</v>
       </c>
       <c r="X3">
-        <v>-0.86349523513827164</v>
+        <v>0.033452468539053225</v>
       </c>
       <c r="Y3">
-        <v>-0.83198028994283713</v>
+        <v>-0.013583111802644262</v>
       </c>
       <c r="Z3">
-        <v>-0.86078070822905683</v>
+        <v>0.0019680998452691468</v>
       </c>
       <c r="AA3">
-        <v>-0.78576133332183706</v>
+        <v>0.0072843240726538144</v>
       </c>
       <c r="AB3">
-        <v>-0.83466888434024922</v>
+        <v>-0.11853787723519851</v>
       </c>
       <c r="AC3">
-        <v>-0.79364623434287995</v>
+        <v>0.037054446733774546</v>
       </c>
       <c r="AD3">
-        <v>-0.82630747754843181</v>
+        <v>0.030986323191029019</v>
       </c>
       <c r="AE3">
-        <v>-0.78813173048473328</v>
+        <v>-0.027415076679536687</v>
       </c>
       <c r="AF3">
-        <v>-0.80458414188355543</v>
+        <v>0.022813128050400582</v>
       </c>
       <c r="AG3">
-        <v>-0.76680956681783163</v>
+        <v>0.048620438834002286</v>
       </c>
       <c r="AH3">
-        <v>-0.83502031377212738</v>
+        <v>0.030037695191330718</v>
       </c>
       <c r="AI3">
-        <v>-0.79383634936686631</v>
+        <v>0.046173074059877618</v>
       </c>
       <c r="AJ3">
-        <v>-0.78358428118627521</v>
+        <v>0.075763383335018877</v>
       </c>
       <c r="AK3">
-        <v>-0.77570921152059646</v>
+        <v>-0.0013942385050603732</v>
       </c>
       <c r="AL3">
-        <v>-0.80078161215036436</v>
+        <v>0.034515778985644771</v>
       </c>
       <c r="AM3">
-        <v>-0.75621372365306938</v>
+        <v>0.074546616659521739</v>
       </c>
       <c r="AN3">
-        <v>-0.78120361741545707</v>
+        <v>0.020305828752352772</v>
       </c>
       <c r="AO3">
-        <v>-0.75988931227755807</v>
+        <v>0.071583800372049644</v>
       </c>
       <c r="AP3">
-        <v>-0.73809256128053902</v>
+        <v>0.022423769714585175</v>
       </c>
       <c r="AQ3">
-        <v>-0.82078215025975443</v>
+        <v>0.077944948976150868</v>
       </c>
       <c r="AR3">
-        <v>-0.78973675307964408</v>
+        <v>-0.025863151559276321</v>
       </c>
       <c r="AS3">
-        <v>-0.76277315647885957</v>
+        <v>0.041366195803113771</v>
       </c>
       <c r="AT3">
-        <v>-0.7432468622706202</v>
+        <v>0.09046504531026088</v>
       </c>
       <c r="AU3">
-        <v>-0.76421704209227648</v>
+        <v>0.059348522618496588</v>
       </c>
       <c r="AV3">
-        <v>-0.73788298627182636</v>
+        <v>0.04427415365360745</v>
       </c>
       <c r="AW3">
-        <v>-0.77798593273819949</v>
+        <v>0.10692066357507551</v>
       </c>
       <c r="AX3">
-        <v>-0.71566053069969759</v>
+        <v>0.1216507300352002</v>
       </c>
       <c r="AY3">
-        <v>-0.77435574091448356</v>
+        <v>0.080624878130282657</v>
       </c>
       <c r="AZ3">
-        <v>-0.81672216168665468</v>
+        <v>0.11266099884576232</v>
       </c>
       <c r="BA3">
-        <v>-0.79496846882512462</v>
+        <v>0.14703806518932419</v>
       </c>
       <c r="BB3">
-        <v>-0.72793507753236797</v>
+        <v>0.10425396495953379</v>
       </c>
       <c r="BC3">
-        <v>-0.80044623767656642</v>
+        <v>0.10655289489412489</v>
       </c>
       <c r="BD3">
-        <v>-0.74287448548580326</v>
+        <v>0.0184264233021488</v>
       </c>
       <c r="BE3">
-        <v>-0.7065457421266137</v>
+        <v>0.088778069670060855</v>
       </c>
       <c r="BF3">
-        <v>-0.75704702517093414</v>
+        <v>0.080268982682985726</v>
       </c>
       <c r="BG3">
-        <v>-0.8015258077319678</v>
+        <v>0.040821499888315078</v>
       </c>
       <c r="BH3">
-        <v>-0.73970285850789685</v>
+        <v>0.033621581155208552</v>
       </c>
       <c r="BI3">
-        <v>-0.76345336117662221</v>
+        <v>0.10600352477809227</v>
       </c>
       <c r="BJ3">
-        <v>-0.78214073623439839</v>
+        <v>0.054924255902834174</v>
       </c>
       <c r="BK3">
-        <v>-0.74553595124266425</v>
+        <v>0.073670022286032366</v>
       </c>
       <c r="BL3">
-        <v>-0.55032268681034424</v>
+        <v>0.061102690835150707</v>
       </c>
       <c r="BM3">
-        <v>-0.50634715154956533</v>
+        <v>0.10178432325903763</v>
       </c>
       <c r="BN3">
-        <v>-0.48232408454248166</v>
+        <v>0.051651305633391431</v>
       </c>
       <c r="BO3">
-        <v>-0.52806901284285868</v>
+        <v>0.11752220763211693</v>
       </c>
       <c r="BP3">
-        <v>-0.54973770826913049</v>
+        <v>0.029361667699928169</v>
       </c>
       <c r="BQ3">
-        <v>-0.47013573568941563</v>
+        <v>0.085006853737597129</v>
       </c>
       <c r="BR3">
-        <v>-0.45544640409828213</v>
+        <v>0.082976401975388678</v>
       </c>
       <c r="BS3">
-        <v>-0.48623260329522139</v>
+        <v>0.046380416946221428</v>
       </c>
       <c r="BT3">
-        <v>-0.49898473473623828</v>
+        <v>0.074867549199553268</v>
       </c>
       <c r="BU3">
-        <v>-0.47757713349552694</v>
+        <v>-0.010434634007553822</v>
       </c>
       <c r="BV3">
-        <v>-0.58695223932732821</v>
+        <v>-0.065176099715770389</v>
       </c>
       <c r="BW3">
-        <v>-0.30553145457587938</v>
+        <v>0.071804970474493093</v>
       </c>
       <c r="BX3">
-        <v>-0.3113077596035001</v>
+        <v>0.063785760804816793</v>
       </c>
       <c r="BY3">
-        <v>-0.30898210856140279</v>
+        <v>0.077494288121115557</v>
       </c>
       <c r="BZ3">
-        <v>-0.28610214484060842</v>
+        <v>0.065823565599670161</v>
       </c>
       <c r="CA3">
-        <v>-0.35301870408044994</v>
+        <v>0.013736872505487602</v>
       </c>
       <c r="CB3">
-        <v>-0.28625453756590102</v>
+        <v>0.090168813596869485</v>
       </c>
       <c r="CC3">
-        <v>-0.29797911031913399</v>
+        <v>0.024256151980834032</v>
       </c>
       <c r="CD3">
-        <v>-0.35851393777804835</v>
+        <v>0.03412335166528415</v>
       </c>
       <c r="CE3">
-        <v>-0.39397431073183442</v>
+        <v>0.027766448140902511</v>
       </c>
       <c r="CF3">
-        <v>-0.10467896888526598</v>
+        <v>-0.0021949514566677398</v>
       </c>
       <c r="CG3">
-        <v>0.016499157106280287</v>
+        <v>0.033648621655006629</v>
       </c>
       <c r="CH3">
-        <v>0.037463478767695062</v>
+        <v>0.017883491626062641</v>
       </c>
       <c r="CI3">
-        <v>-0.012668280354818309</v>
+        <v>-0.021992565418901617</v>
       </c>
       <c r="CJ3">
+        <v>0.014763457955691926</v>
+      </c>
+      <c r="CK3">
+        <v>-0.010086161279590607</v>
+      </c>
+      <c r="CL3">
+        <v>0.051120983902717756</v>
+      </c>
+      <c r="CM3">
+        <v>-0.036772037456233898</v>
+      </c>
+      <c r="CN3">
+        <v>-0.011274188613687078</v>
+      </c>
+      <c r="CO3">
         <v>0</v>
       </c>
-      <c r="CK3">
-        <v>-0.039335921960897739</v>
-      </c>
-      <c r="CL3">
-        <v>0.0021198607011183252</v>
-      </c>
-      <c r="CM3">
-        <v>-0.025429346800111354</v>
-      </c>
-      <c r="CN3">
-        <v>0.01681829574670789</v>
-      </c>
-      <c r="CO3">
-        <v>-0.059826151644942129</v>
-      </c>
       <c r="CP3">
-        <v>-0.0048878721094211411</v>
+        <v>-0.058692153031748719</v>
       </c>
       <c r="CQ3">
-        <v>0.69783643037443988</v>
+        <v>0.22728348520805067</v>
       </c>
       <c r="CR3">
-        <v>0.6587699183178134</v>
+        <v>0.20501180758157234</v>
       </c>
       <c r="CS3">
-        <v>0.69618965041822867</v>
+        <v>0.23994353790377404</v>
       </c>
       <c r="CT3">
-        <v>0.67464593148410323</v>
+        <v>0.18356699955201403</v>
       </c>
       <c r="CU3">
-        <v>0.6544755040017407</v>
+        <v>0.14937205375401183</v>
       </c>
       <c r="CV3">
-        <v>0.67554755965924307</v>
+        <v>0.20080298060947899</v>
       </c>
       <c r="CW3">
-        <v>0.69742372452375856</v>
+        <v>0.15296944691343806</v>
       </c>
       <c r="CX3">
-        <v>0.63685020516403912</v>
+        <v>0.14134235847527868</v>
       </c>
       <c r="CY3">
-        <v>0.59538452263611663</v>
+        <v>0.11413373290722943</v>
       </c>
       <c r="CZ3">
-        <v>0.58281637125237074</v>
+        <v>0.11850178225650702</v>
       </c>
       <c r="DA3">
-        <v>0.74342542250596955</v>
+        <v>0.15706988312639059</v>
       </c>
       <c r="DB3">
-        <v>0.72325386176038986</v>
+        <v>0.13274234795593381</v>
       </c>
       <c r="DC3">
-        <v>0.71523899394473467</v>
+        <v>0.091134019212284881</v>
       </c>
       <c r="DD3">
-        <v>0.69172021714099763</v>
+        <v>0.10381545717736215</v>
       </c>
       <c r="DE3">
-        <v>0.64955506834882215</v>
+        <v>0.095477118448101764</v>
       </c>
       <c r="DF3">
-        <v>0.7335543345106077</v>
+        <v>0.13292728766475145</v>
       </c>
       <c r="DG3">
-        <v>0.68738612585200387</v>
+        <v>0.098677917758866807</v>
       </c>
       <c r="DH3">
-        <v>0.65067536071540144</v>
+        <v>0.072461725078291614</v>
       </c>
       <c r="DI3">
-        <v>0.67504459207243217</v>
+        <v>0.10177618420706346</v>
       </c>
       <c r="DJ3">
-        <v>0.6450991648013582</v>
+        <v>0.040552463259967253</v>
       </c>
       <c r="DK3">
-        <v>1.1174543508822739</v>
+        <v>0.23098418756956945</v>
       </c>
       <c r="DL3">
-        <v>1.0821481367790502</v>
+        <v>0.20622176210047136</v>
       </c>
       <c r="DM3">
-        <v>1.0771429939839172</v>
+        <v>0.16084978865091659</v>
       </c>
       <c r="DN3">
-        <v>1.0741646648253071</v>
+        <v>0.17240047540297082</v>
       </c>
       <c r="DO3">
-        <v>1.0374279018732728</v>
+        <v>0.17474883661870522</v>
       </c>
       <c r="DP3">
-        <v>1.0513305408262716</v>
+        <v>0.12047651137185568</v>
       </c>
       <c r="DQ3">
-        <v>1.0443845809554704</v>
+        <v>0.15631264514091184</v>
       </c>
       <c r="DR3">
-        <v>1.029315998800191</v>
+        <v>0.11688547499216224</v>
       </c>
       <c r="DS3">
-        <v>1.0086377875156824</v>
+        <v>0.14030678985594405</v>
       </c>
       <c r="DT3">
-        <v>0.98543047538408302</v>
+        <v>0.13481856200670145</v>
       </c>
       <c r="DU3">
-        <v>1.0011955344020556</v>
+        <v>0.12145944297905654</v>
       </c>
       <c r="DV3">
-        <v>1.0092015116871758</v>
+        <v>0.10380419091930318</v>
       </c>
       <c r="DW3">
-        <v>1.0120010215275692</v>
+        <v>0.098864717867461135</v>
       </c>
       <c r="DX3">
-        <v>0.9936526217330004</v>
+        <v>0.095331789473541997</v>
       </c>
       <c r="DY3">
-        <v>0.98507613370242042</v>
+        <v>0.10308247732304063</v>
       </c>
       <c r="DZ3">
-        <v>0.93624566402263742</v>
+        <v>0.082858467158795468</v>
       </c>
       <c r="EA3">
-        <v>0.93800650045806255</v>
+        <v>0.056239699185318646</v>
       </c>
       <c r="EB3">
-        <v>0.95359841373717857</v>
+        <v>0.057146979149183409</v>
       </c>
       <c r="EC3">
-        <v>0.9536854787571184</v>
+        <v>0.073651903982094064</v>
       </c>
       <c r="ED3">
-        <v>0.9563370962880241</v>
+        <v>0.044029096798550806</v>
       </c>
       <c r="EE3">
-        <v>0.96128315808892706</v>
+        <v>0.079659820468421363</v>
       </c>
       <c r="EF3">
-        <v>0.95558782080625282</v>
+        <v>0.040937991497964066</v>
       </c>
       <c r="EG3">
-        <v>0.93018334653631507</v>
+        <v>0.041784330376710074</v>
       </c>
       <c r="EH3">
-        <v>0.93889860896545541</v>
+        <v>0.050706783182182226</v>
       </c>
       <c r="EI3">
-        <v>0.92862793273908728</v>
+        <v>0.047093603695864447</v>
       </c>
       <c r="EJ3">
-        <v>0.90990228280005936</v>
+        <v>0.043263547405401892</v>
       </c>
       <c r="EK3">
-        <v>0.89436978016956892</v>
+        <v>0.02642314344583915</v>
       </c>
       <c r="EL3">
-        <v>0.9296148417305542</v>
+        <v>-0.001671831198196714</v>
       </c>
       <c r="EM3">
-        <v>0.92693000706987827</v>
+        <v>0.02764750919667306</v>
       </c>
       <c r="EN3">
-        <v>0.9230120893283732</v>
+        <v>0.025712570933294553</v>
       </c>
       <c r="EO3">
-        <v>0.91680742393798864</v>
+        <v>0.018214695621269889</v>
       </c>
       <c r="EP3">
-        <v>0.93359227639890785</v>
+        <v>0.024431818462905777</v>
       </c>
       <c r="EQ3">
-        <v>0.93551545870908881</v>
+        <v>0.025698389274414989</v>
       </c>
       <c r="ER3">
-        <v>0.8952961033446678</v>
+        <v>0.03047756781767632</v>
       </c>
       <c r="ES3">
-        <v>0.91634361908109507</v>
+        <v>0.052119203447494267</v>
       </c>
       <c r="ET3">
-        <v>0.90943223702871767</v>
+        <v>0.0014046444780070305</v>
       </c>
       <c r="EU3">
-        <v>0.90415071273378356</v>
+        <v>0.019691996579698601</v>
       </c>
       <c r="EV3">
-        <v>0.87628338336627809</v>
+        <v>-0.02413248167449434</v>
       </c>
       <c r="EW3">
-        <v>0.92737948745143883</v>
+        <v>0.0057156153663245959</v>
       </c>
       <c r="EX3">
-        <v>0.92696684945947927</v>
+        <v>0.021975296931391757</v>
       </c>
       <c r="EY3">
-        <v>0.85719417845142531</v>
+        <v>0.00075762441161722743</v>
       </c>
       <c r="EZ3">
-        <v>0.88298310919584866</v>
+        <v>-0.02941034599138356</v>
       </c>
       <c r="FA3">
-        <v>0.87804666129615805</v>
+        <v>-0.0022061897211019007</v>
       </c>
       <c r="FB3">
-        <v>0.88008364345259482</v>
+        <v>-0.014323235920575059</v>
       </c>
       <c r="FC3">
-        <v>0.87958674579227147</v>
+        <v>0.0011848116829267254</v>
       </c>
       <c r="FD3">
-        <v>0.86573180680408512</v>
+        <v>-0.0032857507823770729</v>
       </c>
       <c r="FE3">
-        <v>0.89251013291561476</v>
+        <v>0.016088764730797761</v>
       </c>
       <c r="FF3">
-        <v>0.88373277236801495</v>
+        <v>-0.045484758812773862</v>
       </c>
       <c r="FG3">
-        <v>0.9117128959358648</v>
+        <v>-0.071656014616651956</v>
       </c>
       <c r="FH3">
-        <v>0.84885245622495087</v>
+        <v>0.026784822498503082</v>
       </c>
       <c r="FI3">
-        <v>0.85014562555073336</v>
+        <v>0.014879072603192683</v>
       </c>
       <c r="FJ3">
-        <v>0.89512449789399517</v>
+        <v>-0.034484477649714768</v>
       </c>
       <c r="FK3">
-        <v>0.87180217788043202</v>
+        <v>-0.0027441743021916994</v>
       </c>
       <c r="FL3">
-        <v>0.85353261383153989</v>
+        <v>-0.0092769017897622753</v>
       </c>
       <c r="FM3">
-        <v>0.89582512927159552</v>
+        <v>-0.0049359642922195664</v>
       </c>
       <c r="FN3">
-        <v>0.88807156659505893</v>
+        <v>-0.058674547213297859</v>
       </c>
       <c r="FO3">
-        <v>0.81675390489188859</v>
+        <v>-0.0040926017942234339</v>
       </c>
       <c r="FP3">
-        <v>0</v>
+        <v>-0.061029283964005303</v>
       </c>
       <c r="FQ3">
-        <v>0.87511594194681119</v>
+        <v>-0.025261370848568651</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-6.381356480204496</v>
+        <v>-5.4875540524472592</v>
       </c>
     </row>
     <row r="4">
@@ -8524,526 +8533,526 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.30100451875992912</v>
+        <v>0.067504883222077983</v>
       </c>
       <c r="C4">
-        <v>0.14350357430324526</v>
+        <v>0.029439531553882556</v>
       </c>
       <c r="D4">
-        <v>0.17742931452986216</v>
+        <v>0.043096617798650004</v>
       </c>
       <c r="E4">
-        <v>0.21914467685108766</v>
+        <v>0.050970043467759067</v>
       </c>
       <c r="F4">
-        <v>0.20634759732482622</v>
+        <v>0.046643707316724813</v>
       </c>
       <c r="G4">
-        <v>0.16848210769837196</v>
+        <v>0.039021115518928513</v>
       </c>
       <c r="H4">
-        <v>0.13129228890940028</v>
+        <v>0.031626841062870899</v>
       </c>
       <c r="I4">
-        <v>0.14409316872307962</v>
+        <v>0.031444466466566873</v>
       </c>
       <c r="J4">
-        <v>0.14758127889998968</v>
+        <v>0.033187844817076297</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.31574072355271254</v>
+        <v>0.072000657109338631</v>
       </c>
       <c r="M4">
-        <v>0.31574072355271254</v>
+        <v>0.072000657109338631</v>
       </c>
       <c r="N4">
-        <v>0.31574072355271254</v>
+        <v>0.072000657109338631</v>
       </c>
       <c r="O4">
-        <v>0.31574072355271249</v>
+        <v>0.072000657109338645</v>
       </c>
       <c r="P4">
-        <v>0.31574072355271249</v>
+        <v>0.072000657109338631</v>
       </c>
       <c r="Q4">
-        <v>0.31574072355271243</v>
+        <v>0.072000657109338659</v>
       </c>
       <c r="R4">
-        <v>0.31574072355271243</v>
+        <v>0.072000657109338659</v>
       </c>
       <c r="S4">
-        <v>0.31574072355271249</v>
+        <v>0.072000657109338673</v>
       </c>
       <c r="T4">
-        <v>0.31574072355271243</v>
+        <v>0.072000657109338673</v>
       </c>
       <c r="U4">
-        <v>0.31574072355271243</v>
+        <v>0.072000657109338659</v>
       </c>
       <c r="V4">
-        <v>0.31574072355271238</v>
+        <v>0.072000657109338687</v>
       </c>
       <c r="W4">
-        <v>0.31574072355271238</v>
+        <v>0.072000657109338659</v>
       </c>
       <c r="X4">
-        <v>0.31574072355271238</v>
+        <v>0.072000657109338687</v>
       </c>
       <c r="Y4">
-        <v>0.31574072355271238</v>
+        <v>0.072000657109338673</v>
       </c>
       <c r="Z4">
-        <v>0.31574072355271238</v>
+        <v>0.072000657109338687</v>
       </c>
       <c r="AA4">
-        <v>0.31574072355271238</v>
+        <v>0.072000657109338687</v>
       </c>
       <c r="AB4">
-        <v>0.31574072355271232</v>
+        <v>0.072000657109338687</v>
       </c>
       <c r="AC4">
-        <v>0.31574072355271238</v>
+        <v>0.072000657109338687</v>
       </c>
       <c r="AD4">
-        <v>0.31574072355271238</v>
+        <v>0.072000657109338687</v>
       </c>
       <c r="AE4">
-        <v>0.31574072355271238</v>
+        <v>0.0720006571093387</v>
       </c>
       <c r="AF4">
-        <v>0.31574072355271238</v>
+        <v>0.0720006571093387</v>
       </c>
       <c r="AG4">
-        <v>0.31574072355271232</v>
+        <v>0.0720006571093387</v>
       </c>
       <c r="AH4">
-        <v>0.31574072355271238</v>
+        <v>0.072000657109338687</v>
       </c>
       <c r="AI4">
-        <v>0.31574072355271232</v>
+        <v>0.072000657109338687</v>
       </c>
       <c r="AJ4">
-        <v>0.31574072355271221</v>
+        <v>0.0720006571093387</v>
       </c>
       <c r="AK4">
-        <v>0.31574072355271232</v>
+        <v>0.0720006571093387</v>
       </c>
       <c r="AL4">
-        <v>0.31574072355271232</v>
+        <v>0.0720006571093387</v>
       </c>
       <c r="AM4">
-        <v>0.31574072355271232</v>
+        <v>0.072000657109338714</v>
       </c>
       <c r="AN4">
-        <v>0.3157407235527121</v>
+        <v>0.072000657109338714</v>
       </c>
       <c r="AO4">
-        <v>0.31574072355271232</v>
+        <v>0.072000657109338714</v>
       </c>
       <c r="AP4">
-        <v>0.3157407235527121</v>
+        <v>0.072000657109338714</v>
       </c>
       <c r="AQ4">
-        <v>0.31574072355271221</v>
+        <v>0.072000657109338728</v>
       </c>
       <c r="AR4">
-        <v>0.3157407235527121</v>
+        <v>0.072000657109338728</v>
       </c>
       <c r="AS4">
-        <v>0.3157407235527121</v>
+        <v>0.072000657109338728</v>
       </c>
       <c r="AT4">
-        <v>0.3157407235527121</v>
+        <v>0.072000657109338714</v>
       </c>
       <c r="AU4">
-        <v>0.3157407235527121</v>
+        <v>0.072000657109338714</v>
       </c>
       <c r="AV4">
-        <v>0.3157407235527121</v>
+        <v>0.072000657109338714</v>
       </c>
       <c r="AW4">
-        <v>0.31574072355271199</v>
+        <v>0.072000657109338714</v>
       </c>
       <c r="AX4">
-        <v>0.3157407235527121</v>
+        <v>0.072000657109338714</v>
       </c>
       <c r="AY4">
-        <v>0.31574072355271199</v>
+        <v>0.072000657109338714</v>
       </c>
       <c r="AZ4">
-        <v>0.31574072355271199</v>
+        <v>0.072000657109338714</v>
       </c>
       <c r="BA4">
-        <v>0.31574072355271199</v>
+        <v>0.072000657109338714</v>
       </c>
       <c r="BB4">
-        <v>0.31574072355271199</v>
+        <v>0.072000657109338714</v>
       </c>
       <c r="BC4">
-        <v>0.31574072355271199</v>
+        <v>0.072000657109338728</v>
       </c>
       <c r="BD4">
-        <v>0.31574072355271188</v>
+        <v>0.072000657109338714</v>
       </c>
       <c r="BE4">
-        <v>0.31574072355271199</v>
+        <v>0.072000657109338728</v>
       </c>
       <c r="BF4">
-        <v>0.31574072355271193</v>
+        <v>0.072000657109338714</v>
       </c>
       <c r="BG4">
-        <v>0.31574072355271199</v>
+        <v>0.072000657109338728</v>
       </c>
       <c r="BH4">
-        <v>0.31574072355271188</v>
+        <v>0.072000657109338714</v>
       </c>
       <c r="BI4">
-        <v>0.31574072355271188</v>
+        <v>0.072000657109338728</v>
       </c>
       <c r="BJ4">
-        <v>0.31574072355271188</v>
+        <v>0.072000657109338728</v>
       </c>
       <c r="BK4">
-        <v>0.31574072355271188</v>
+        <v>0.072000657109338728</v>
       </c>
       <c r="BL4">
-        <v>0.30058172293355034</v>
+        <v>0.072000657109338728</v>
       </c>
       <c r="BM4">
-        <v>0.30058172293355034</v>
+        <v>0.072000657109338742</v>
       </c>
       <c r="BN4">
-        <v>0.3005817229335504</v>
+        <v>0.072000657109338742</v>
       </c>
       <c r="BO4">
-        <v>0.30058172293355045</v>
+        <v>0.072000657109338756</v>
       </c>
       <c r="BP4">
-        <v>0.30058172293355045</v>
+        <v>0.072000657109338756</v>
       </c>
       <c r="BQ4">
-        <v>0.32392348131701559</v>
+        <v>0.071959891248803434</v>
       </c>
       <c r="BR4">
-        <v>0.32392348131701559</v>
+        <v>0.071959891248803434</v>
       </c>
       <c r="BS4">
-        <v>0.32392348131701559</v>
+        <v>0.071959891248803448</v>
       </c>
       <c r="BT4">
-        <v>0.33374867131089198</v>
+        <v>0.065291699188404689</v>
       </c>
       <c r="BU4">
-        <v>0.33374867131089198</v>
+        <v>0.065291699188404689</v>
       </c>
       <c r="BV4">
-        <v>0.34933223202593056</v>
+        <v>0.075711484787302788</v>
       </c>
       <c r="BW4">
-        <v>0.33217019318418911</v>
+        <v>0.074250992949014508</v>
       </c>
       <c r="BX4">
-        <v>0.33217019318418911</v>
+        <v>0.074250992949014508</v>
       </c>
       <c r="BY4">
-        <v>0.32678549487884762</v>
+        <v>0.073143440990548592</v>
       </c>
       <c r="BZ4">
-        <v>0.32678549487884762</v>
+        <v>0.073143440990548605</v>
       </c>
       <c r="CA4">
-        <v>0.32678549487884762</v>
+        <v>0.073143440990548605</v>
       </c>
       <c r="CB4">
-        <v>0.32023820143859211</v>
+        <v>0.072245175373560122</v>
       </c>
       <c r="CC4">
-        <v>0.32023820143859216</v>
+        <v>0.07224517537356015</v>
       </c>
       <c r="CD4">
-        <v>0.32023820143859211</v>
+        <v>0.072245175373560136</v>
       </c>
       <c r="CE4">
-        <v>0.32023820143859211</v>
+        <v>0.072245175373560136</v>
       </c>
       <c r="CF4">
-        <v>0.30698426198198836</v>
+        <v>0.07224517537356015</v>
       </c>
       <c r="CG4">
-        <v>0.29181957069997527</v>
+        <v>0.072049545695592285</v>
       </c>
       <c r="CH4">
-        <v>0.29181957069997522</v>
+        <v>0.072049545695592271</v>
       </c>
       <c r="CI4">
-        <v>0.29181957069997522</v>
+        <v>0.072049545695592271</v>
       </c>
       <c r="CJ4">
+        <v>0.072049545695592285</v>
+      </c>
+      <c r="CK4">
+        <v>0.072996328982036077</v>
+      </c>
+      <c r="CL4">
+        <v>0.068893333651650485</v>
+      </c>
+      <c r="CM4">
+        <v>0.068893333651650498</v>
+      </c>
+      <c r="CN4">
+        <v>0.062593353125060355</v>
+      </c>
+      <c r="CO4">
         <v>0</v>
       </c>
-      <c r="CK4">
-        <v>0.31211967097265447</v>
-      </c>
-      <c r="CL4">
-        <v>0.33683066039820009</v>
-      </c>
-      <c r="CM4">
-        <v>0.33683066039820014</v>
-      </c>
-      <c r="CN4">
-        <v>0.34879512615713659</v>
-      </c>
-      <c r="CO4">
-        <v>0.34879512615713648</v>
-      </c>
       <c r="CP4">
-        <v>0.36373461859081524</v>
+        <v>0.073397212489491437</v>
       </c>
       <c r="CQ4">
-        <v>0.33217019318418867</v>
+        <v>0.074276280913374293</v>
       </c>
       <c r="CR4">
-        <v>0.33217019318418867</v>
+        <v>0.074276280913374293</v>
       </c>
       <c r="CS4">
-        <v>0.32678549487884756</v>
+        <v>0.073169111736755041</v>
       </c>
       <c r="CT4">
-        <v>0.3267854948788475</v>
+        <v>0.073169111736755055</v>
       </c>
       <c r="CU4">
-        <v>0.32678549487884745</v>
+        <v>0.073169111736755041</v>
       </c>
       <c r="CV4">
-        <v>0.32023820143859189</v>
+        <v>0.072271165184770239</v>
       </c>
       <c r="CW4">
-        <v>0.32023820143859183</v>
+        <v>0.072271165184770225</v>
       </c>
       <c r="CX4">
-        <v>0.32023820143859183</v>
+        <v>0.072271165184770239</v>
       </c>
       <c r="CY4">
-        <v>0.32023820143859183</v>
+        <v>0.072271165184770211</v>
       </c>
       <c r="CZ4">
-        <v>0.32023820143859183</v>
+        <v>0.072271165184770239</v>
       </c>
       <c r="DA4">
-        <v>0.30051119913072899</v>
+        <v>0.072168369579768771</v>
       </c>
       <c r="DB4">
-        <v>0.30051119913072888</v>
+        <v>0.072168369579768757</v>
       </c>
       <c r="DC4">
-        <v>0.30051119913072893</v>
+        <v>0.072168369579768771</v>
       </c>
       <c r="DD4">
-        <v>0.30051119913072888</v>
+        <v>0.072168369579768757</v>
       </c>
       <c r="DE4">
-        <v>0.30051119913072893</v>
+        <v>0.072168369579768771</v>
       </c>
       <c r="DF4">
-        <v>0.32329090687543011</v>
+        <v>0.067582647093861734</v>
       </c>
       <c r="DG4">
-        <v>0.32329090687543016</v>
+        <v>0.06758264709386172</v>
       </c>
       <c r="DH4">
-        <v>0.32329090687543011</v>
+        <v>0.067582647093861734</v>
       </c>
       <c r="DI4">
-        <v>0.32329090687543011</v>
+        <v>0.067582647093861747</v>
       </c>
       <c r="DJ4">
-        <v>0.32329090687543016</v>
+        <v>0.067582647093861747</v>
       </c>
       <c r="DK4">
-        <v>0.31574072355271121</v>
+        <v>0.072052803755248515</v>
       </c>
       <c r="DL4">
-        <v>0.31574072355271127</v>
+        <v>0.072052803755248515</v>
       </c>
       <c r="DM4">
-        <v>0.31574072355271121</v>
+        <v>0.072052803755248515</v>
       </c>
       <c r="DN4">
-        <v>0.31574072355271121</v>
+        <v>0.072052803755248501</v>
       </c>
       <c r="DO4">
-        <v>0.31574072355271121</v>
+        <v>0.072052803755248529</v>
       </c>
       <c r="DP4">
-        <v>0.31574072355271121</v>
+        <v>0.072052803755248515</v>
       </c>
       <c r="DQ4">
-        <v>0.31574072355271121</v>
+        <v>0.072052803755248529</v>
       </c>
       <c r="DR4">
-        <v>0.31574072355271116</v>
+        <v>0.072052803755248529</v>
       </c>
       <c r="DS4">
-        <v>0.31574072355271121</v>
+        <v>0.072052803755248571</v>
       </c>
       <c r="DT4">
-        <v>0.31574072355271116</v>
+        <v>0.072052803755248529</v>
       </c>
       <c r="DU4">
-        <v>0.31574072355271116</v>
+        <v>0.072052803755248571</v>
       </c>
       <c r="DV4">
-        <v>0.3157407235527111</v>
+        <v>0.072052803755248571</v>
       </c>
       <c r="DW4">
-        <v>0.3157407235527111</v>
+        <v>0.072052803755248571</v>
       </c>
       <c r="DX4">
-        <v>0.3157407235527111</v>
+        <v>0.072052803755248571</v>
       </c>
       <c r="DY4">
-        <v>0.3157407235527111</v>
+        <v>0.072052803755248584</v>
       </c>
       <c r="DZ4">
-        <v>0.3157407235527111</v>
+        <v>0.072052803755248584</v>
       </c>
       <c r="EA4">
-        <v>0.3157407235527111</v>
+        <v>0.072052803755248598</v>
       </c>
       <c r="EB4">
-        <v>0.3157407235527111</v>
+        <v>0.072052803755248612</v>
       </c>
       <c r="EC4">
-        <v>0.31574072355271104</v>
+        <v>0.072052803755248598</v>
       </c>
       <c r="ED4">
-        <v>0.31574072355271104</v>
+        <v>0.072052803755248598</v>
       </c>
       <c r="EE4">
-        <v>0.31574072355271104</v>
+        <v>0.072052803755248598</v>
       </c>
       <c r="EF4">
-        <v>0.31574072355271099</v>
+        <v>0.072052803755248626</v>
       </c>
       <c r="EG4">
-        <v>0.31574072355271099</v>
+        <v>0.072052803755248612</v>
       </c>
       <c r="EH4">
-        <v>0.31574072355271099</v>
+        <v>0.072052803755248626</v>
       </c>
       <c r="EI4">
-        <v>0.31574072355271099</v>
+        <v>0.072052803755248626</v>
       </c>
       <c r="EJ4">
-        <v>0.31574072355271099</v>
+        <v>0.072052803755248626</v>
       </c>
       <c r="EK4">
-        <v>0.31574072355271099</v>
+        <v>0.072052803755248626</v>
       </c>
       <c r="EL4">
-        <v>0.31574072355271099</v>
+        <v>0.07205280375524864</v>
       </c>
       <c r="EM4">
-        <v>0.31574072355271099</v>
+        <v>0.072052803755248626</v>
       </c>
       <c r="EN4">
-        <v>0.31574072355271099</v>
+        <v>0.072052803755248654</v>
       </c>
       <c r="EO4">
-        <v>0.31574072355271099</v>
+        <v>0.072052803755248626</v>
       </c>
       <c r="EP4">
-        <v>0.31574072355271099</v>
+        <v>0.07205280375524864</v>
       </c>
       <c r="EQ4">
-        <v>0.31574072355271093</v>
+        <v>0.072052803755248654</v>
       </c>
       <c r="ER4">
-        <v>0.31574072355271099</v>
+        <v>0.072052803755248668</v>
       </c>
       <c r="ES4">
-        <v>0.31574072355271093</v>
+        <v>0.072052803755248654</v>
       </c>
       <c r="ET4">
-        <v>0.31574072355271093</v>
+        <v>0.072052803755248654</v>
       </c>
       <c r="EU4">
-        <v>0.31574072355271088</v>
+        <v>0.072052803755248654</v>
       </c>
       <c r="EV4">
-        <v>0.31574072355271088</v>
+        <v>0.07205280375524864</v>
       </c>
       <c r="EW4">
-        <v>0.31574072355271093</v>
+        <v>0.072052803755248626</v>
       </c>
       <c r="EX4">
-        <v>0.31574072355271093</v>
+        <v>0.072052803755248654</v>
       </c>
       <c r="EY4">
-        <v>0.31574072355271088</v>
+        <v>0.072052803755248668</v>
       </c>
       <c r="EZ4">
-        <v>0.31574072355271093</v>
+        <v>0.072052803755248668</v>
       </c>
       <c r="FA4">
-        <v>0.31574072355271088</v>
+        <v>0.072052803755248668</v>
       </c>
       <c r="FB4">
-        <v>0.31574072355271088</v>
+        <v>0.072052803755248668</v>
       </c>
       <c r="FC4">
-        <v>0.31574072355271082</v>
+        <v>0.072052803755248668</v>
       </c>
       <c r="FD4">
-        <v>0.31574072355271082</v>
+        <v>0.072052803755248668</v>
       </c>
       <c r="FE4">
-        <v>0.31574072355271082</v>
+        <v>0.072052803755248682</v>
       </c>
       <c r="FF4">
-        <v>0.31574072355271082</v>
+        <v>0.072052803755248668</v>
       </c>
       <c r="FG4">
-        <v>0.31574072355271082</v>
+        <v>0.072052803755248682</v>
       </c>
       <c r="FH4">
-        <v>0.31574072355271082</v>
+        <v>0.072052803755248682</v>
       </c>
       <c r="FI4">
-        <v>0.31574072355271082</v>
+        <v>0.072052803755248696</v>
       </c>
       <c r="FJ4">
-        <v>0.31574072355271082</v>
+        <v>0.072052803755248696</v>
       </c>
       <c r="FK4">
-        <v>0.31574072355271082</v>
+        <v>0.072052803755248709</v>
       </c>
       <c r="FL4">
-        <v>0.31574072355271082</v>
+        <v>0.072052803755248709</v>
       </c>
       <c r="FM4">
-        <v>0.31574072355271066</v>
+        <v>0.072052803755248709</v>
       </c>
       <c r="FN4">
-        <v>0.31574072355271077</v>
+        <v>0.072052803755248709</v>
       </c>
       <c r="FO4">
-        <v>0.31574072355271066</v>
+        <v>0.072052803755248709</v>
       </c>
       <c r="FP4">
-        <v>0</v>
+        <v>0.072052803755248709</v>
       </c>
       <c r="FQ4">
-        <v>0.31574072355271066</v>
+        <v>0.072052803755248723</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.23898299853307561</v>
+        <v>0.056856332991779494</v>
       </c>
     </row>
   </sheetData>

--- a/tables/ols_coefficients.xlsx
+++ b/tables/ols_coefficients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9840" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="10548" uniqueCount="182">
   <si>
     <t>y1</t>
   </si>
@@ -1664,526 +1664,526 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>-0.010874914394811154</v>
+        <v>-0.012018431116090435</v>
       </c>
       <c r="C3">
-        <v>-1.5590162837283594</v>
+        <v>-1.5671254785620896</v>
       </c>
       <c r="D3">
-        <v>-1.6234370101064852</v>
+        <v>-1.6113837870924665</v>
       </c>
       <c r="E3">
-        <v>-1.6123011789407171</v>
+        <v>-1.6250534147521731</v>
       </c>
       <c r="F3">
-        <v>-0.0088758978820310495</v>
+        <v>-0.0074728230472736797</v>
       </c>
       <c r="G3">
-        <v>0.00012811017715570104</v>
+        <v>0.0097002605590703235</v>
       </c>
       <c r="H3">
-        <v>0.0018932997800219613</v>
+        <v>-0.0035823254014740527</v>
       </c>
       <c r="I3">
-        <v>0.011714965908428247</v>
+        <v>0.01120707908223542</v>
       </c>
       <c r="J3">
-        <v>-0.010134772642417637</v>
+        <v>-0.010455780797783459</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.2036052280969363</v>
+        <v>1.2618906433421819</v>
       </c>
       <c r="M3">
-        <v>1.2808343995083882</v>
+        <v>1.3488173982800238</v>
       </c>
       <c r="N3">
-        <v>-0.27211367359849087</v>
+        <v>-0.14961177036466322</v>
       </c>
       <c r="O3">
-        <v>-0.22825792244544998</v>
+        <v>-0.10648292142405627</v>
       </c>
       <c r="P3">
-        <v>-0.22929635466154014</v>
+        <v>-0.17006982438826254</v>
       </c>
       <c r="Q3">
-        <v>-0.22488240322306852</v>
+        <v>-0.17361419548288329</v>
       </c>
       <c r="R3">
-        <v>-0.2172276432958832</v>
+        <v>-0.16254573971592287</v>
       </c>
       <c r="S3">
-        <v>-0.23258457021575149</v>
+        <v>-0.12275975962495247</v>
       </c>
       <c r="T3">
-        <v>-0.20181137154915921</v>
+        <v>-0.13403245019698135</v>
       </c>
       <c r="U3">
-        <v>-0.18775316081950882</v>
+        <v>-0.11984489813881102</v>
       </c>
       <c r="V3">
-        <v>-0.13158175748711221</v>
+        <v>-0.10191047721995909</v>
       </c>
       <c r="W3">
-        <v>-0.10329310378269062</v>
+        <v>-0.10106063827305235</v>
       </c>
       <c r="X3">
-        <v>-0.030140835335443962</v>
+        <v>-0.049336761911879204</v>
       </c>
       <c r="Y3">
-        <v>-0.11189454287664689</v>
+        <v>-0.088657152864627192</v>
       </c>
       <c r="Z3">
-        <v>-0.12085348861139208</v>
+        <v>-0.074792514897204801</v>
       </c>
       <c r="AA3">
-        <v>-0.10840269276947229</v>
+        <v>-0.041251753838975634</v>
       </c>
       <c r="AB3">
-        <v>-0.169121909732527</v>
+        <v>-0.098924136887874936</v>
       </c>
       <c r="AC3">
-        <v>-0.13607075102339988</v>
+        <v>-0.003075799496380417</v>
       </c>
       <c r="AD3">
-        <v>-0.12832462386014881</v>
+        <v>0.0026137147761114052</v>
       </c>
       <c r="AE3">
-        <v>-0.17365837958937577</v>
+        <v>-0.091101922114137548</v>
       </c>
       <c r="AF3">
-        <v>-0.033398464271532466</v>
+        <v>-0.017656372708673016</v>
       </c>
       <c r="AG3">
-        <v>-0.061039018803457162</v>
+        <v>-0.016941704656228036</v>
       </c>
       <c r="AH3">
-        <v>0.0065688636472515287</v>
+        <v>-0.0044423878117278992</v>
       </c>
       <c r="AI3">
-        <v>-0.096833710818961583</v>
+        <v>-0.025987735515947984</v>
       </c>
       <c r="AJ3">
-        <v>-0.044991580120840251</v>
+        <v>0.076914074683408731</v>
       </c>
       <c r="AK3">
-        <v>-0.097175561845209812</v>
+        <v>-0.014817910885264979</v>
       </c>
       <c r="AL3">
-        <v>0.012067330332713132</v>
+        <v>0.013783331081105426</v>
       </c>
       <c r="AM3">
-        <v>-0.0302787330327835</v>
+        <v>-0.059647845556946889</v>
       </c>
       <c r="AN3">
-        <v>-0.028783238105441949</v>
+        <v>0.021124508151223163</v>
       </c>
       <c r="AO3">
-        <v>-0.011089636365627481</v>
+        <v>0.036663773079883354</v>
       </c>
       <c r="AP3">
-        <v>-0.026834083599861957</v>
+        <v>0.0031279374611043994</v>
       </c>
       <c r="AQ3">
-        <v>-0.054538834369396438</v>
+        <v>-0.031068335742088879</v>
       </c>
       <c r="AR3">
-        <v>-0.046981871582888052</v>
+        <v>0.049557123677455711</v>
       </c>
       <c r="AS3">
-        <v>-0.019058368518577201</v>
+        <v>-0.045555179353352411</v>
       </c>
       <c r="AT3">
-        <v>-0.070951473966397977</v>
+        <v>-0.026043889221436165</v>
       </c>
       <c r="AU3">
-        <v>0.0040411189914112836</v>
+        <v>-0.022492336821177662</v>
       </c>
       <c r="AV3">
-        <v>-0.066267497979343462</v>
+        <v>0.014676999967455718</v>
       </c>
       <c r="AW3">
-        <v>-0.029752575266098126</v>
+        <v>-0.00054280476935390776</v>
       </c>
       <c r="AX3">
-        <v>-0.0019470028685743752</v>
+        <v>-0.0020291520928944332</v>
       </c>
       <c r="AY3">
-        <v>-0.039646500577354464</v>
+        <v>-0.0065337153359704874</v>
       </c>
       <c r="AZ3">
-        <v>-0.040312143696600015</v>
+        <v>0.060285670679482414</v>
       </c>
       <c r="BA3">
-        <v>-0.022421618978999133</v>
+        <v>0.052460208722005144</v>
       </c>
       <c r="BB3">
-        <v>-0.073972331223218349</v>
+        <v>0.0074625325199102624</v>
       </c>
       <c r="BC3">
-        <v>-0.0028312696690544156</v>
+        <v>0.013669084443798465</v>
       </c>
       <c r="BD3">
-        <v>-0.047150661872243239</v>
+        <v>-0.02404189796939861</v>
       </c>
       <c r="BE3">
-        <v>-0.049815036766197821</v>
+        <v>-0.0029441286437672065</v>
       </c>
       <c r="BF3">
-        <v>-0.056074342577743255</v>
+        <v>0.013352309813916432</v>
       </c>
       <c r="BG3">
-        <v>-0.0014702326294816024</v>
+        <v>-0.018347059212202563</v>
       </c>
       <c r="BH3">
-        <v>-0.044675657402244169</v>
+        <v>0.010591703444232192</v>
       </c>
       <c r="BI3">
-        <v>-0.024661627694110805</v>
+        <v>0.016901503100957772</v>
       </c>
       <c r="BJ3">
-        <v>0.025376669615533396</v>
+        <v>0.012405215753739216</v>
       </c>
       <c r="BK3">
-        <v>-0.06700973966070127</v>
+        <v>-0.025168395365280767</v>
       </c>
       <c r="BL3">
-        <v>-0.027285815933508834</v>
+        <v>0.0041406723754424044</v>
       </c>
       <c r="BM3">
-        <v>0.0038510578953095506</v>
+        <v>-0.037942575357752174</v>
       </c>
       <c r="BN3">
-        <v>-0.054377062373416121</v>
+        <v>0.027243386076453744</v>
       </c>
       <c r="BO3">
-        <v>-0.048488730547690262</v>
+        <v>0.015225416866979988</v>
       </c>
       <c r="BP3">
-        <v>-0.065006374960161678</v>
+        <v>-0.036724037822217483</v>
       </c>
       <c r="BQ3">
-        <v>0.0036467234866916168</v>
+        <v>0.0078503512459540872</v>
       </c>
       <c r="BR3">
-        <v>-0.01065852763578538</v>
+        <v>-0.0082832618158473689</v>
       </c>
       <c r="BS3">
-        <v>-0.010024153282520614</v>
+        <v>0.022970324381413249</v>
       </c>
       <c r="BT3">
-        <v>0.019822203998396907</v>
+        <v>0.022775404119614463</v>
       </c>
       <c r="BU3">
-        <v>-0.082441292055089876</v>
+        <v>-0.025590699641365545</v>
       </c>
       <c r="BV3">
-        <v>-0.073835357347700567</v>
+        <v>-0.038444975543525689</v>
       </c>
       <c r="BW3">
-        <v>-0.050944330316413197</v>
+        <v>0.011459513532562103</v>
       </c>
       <c r="BX3">
-        <v>-0.041522258244505915</v>
+        <v>-0.018506227180186154</v>
       </c>
       <c r="BY3">
-        <v>-0.063190873059067648</v>
+        <v>-0.041914308687434509</v>
       </c>
       <c r="BZ3">
-        <v>-0.028951250311432055</v>
+        <v>0.030066721039379296</v>
       </c>
       <c r="CA3">
-        <v>-0.050382274545821379</v>
+        <v>-0.064400987444181171</v>
       </c>
       <c r="CB3">
-        <v>-0.010999171574230956</v>
+        <v>0.036393803586693023</v>
       </c>
       <c r="CC3">
-        <v>-0.0515769669754228</v>
+        <v>-0.018329668798425191</v>
       </c>
       <c r="CD3">
-        <v>-0.073086949506776688</v>
+        <v>0.037433369346702994</v>
       </c>
       <c r="CE3">
-        <v>-0.042137903097534499</v>
+        <v>-0.012810715136562031</v>
       </c>
       <c r="CF3">
-        <v>-0.045484535454096364</v>
+        <v>0.0017956784212676375</v>
       </c>
       <c r="CG3">
-        <v>-0.062195516530823051</v>
+        <v>-0.040618899425954598</v>
       </c>
       <c r="CH3">
-        <v>-0.05884412136897637</v>
+        <v>-0.026450331558639059</v>
       </c>
       <c r="CI3">
-        <v>-0.11381026535514609</v>
+        <v>-0.079803698934508546</v>
       </c>
       <c r="CJ3">
-        <v>-0.042650849937484886</v>
+        <v>-0.038448727001804128</v>
       </c>
       <c r="CK3">
-        <v>-0.0093393448442846347</v>
+        <v>-0.022480158088698406</v>
       </c>
       <c r="CL3">
-        <v>0.025167929235381945</v>
+        <v>-0.012178001567089008</v>
       </c>
       <c r="CM3">
-        <v>-0.049344635753303327</v>
+        <v>0.027177239838563894</v>
       </c>
       <c r="CN3">
-        <v>-0.063265073621187093</v>
+        <v>0.031597542410313408</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>-0.043383822096932652</v>
+        <v>0.013822933595289142</v>
       </c>
       <c r="CQ3">
-        <v>-0.029642210018817561</v>
+        <v>0.031313331921547942</v>
       </c>
       <c r="CR3">
-        <v>-0.014776268296579104</v>
+        <v>-0.005716057652801961</v>
       </c>
       <c r="CS3">
-        <v>-0.0061575488044227434</v>
+        <v>0.027114659186821238</v>
       </c>
       <c r="CT3">
-        <v>-0.033925230785101693</v>
+        <v>-0.0086559629108066884</v>
       </c>
       <c r="CU3">
-        <v>-0.044562416179653924</v>
+        <v>-0.0076667862413742028</v>
       </c>
       <c r="CV3">
-        <v>-0.054184838509371412</v>
+        <v>-0.0014626934728966716</v>
       </c>
       <c r="CW3">
-        <v>-0.058030929539310772</v>
+        <v>-0.008369555658357359</v>
       </c>
       <c r="CX3">
-        <v>-0.057208325551044048</v>
+        <v>-0.019798238206482514</v>
       </c>
       <c r="CY3">
-        <v>-0.059688689285079359</v>
+        <v>0.046207388383553059</v>
       </c>
       <c r="CZ3">
-        <v>-0.014984793525507802</v>
+        <v>-0.02196962565250676</v>
       </c>
       <c r="DA3">
-        <v>-0.026597845571488147</v>
+        <v>-0.02934432758150856</v>
       </c>
       <c r="DB3">
-        <v>-0.0479577351586392</v>
+        <v>0.0010551037274095802</v>
       </c>
       <c r="DC3">
-        <v>-0.082150707073703894</v>
+        <v>-0.006343633865105806</v>
       </c>
       <c r="DD3">
-        <v>-0.036497576016770013</v>
+        <v>0.015202415862592524</v>
       </c>
       <c r="DE3">
-        <v>-0.017471059375057326</v>
+        <v>-0.03015361634198209</v>
       </c>
       <c r="DF3">
-        <v>-0.017442666506168138</v>
+        <v>-0.017503975579377003</v>
       </c>
       <c r="DG3">
-        <v>-0.035672024694707205</v>
+        <v>-0.018716507082033377</v>
       </c>
       <c r="DH3">
-        <v>-0.056782213113012209</v>
+        <v>0.021173765446045548</v>
       </c>
       <c r="DI3">
-        <v>0.013091587412297892</v>
+        <v>0.0031958384223635737</v>
       </c>
       <c r="DJ3">
-        <v>-0.050244694672393043</v>
+        <v>-0.024987204143178805</v>
       </c>
       <c r="DK3">
-        <v>-0.019560466702641496</v>
+        <v>0.0028247693624165898</v>
       </c>
       <c r="DL3">
-        <v>-0.029500299844347939</v>
+        <v>-0.013485486069636616</v>
       </c>
       <c r="DM3">
-        <v>-0.077004522989292321</v>
+        <v>-0.018607969912810815</v>
       </c>
       <c r="DN3">
-        <v>-0.052602395217382594</v>
+        <v>-0.022665915239314591</v>
       </c>
       <c r="DO3">
-        <v>-0.032318098981726009</v>
+        <v>-0.02562749588868124</v>
       </c>
       <c r="DP3">
-        <v>-0.083867669810407705</v>
+        <v>-0.010991679590546175</v>
       </c>
       <c r="DQ3">
-        <v>-0.024511775658608823</v>
+        <v>-0.014664364104818911</v>
       </c>
       <c r="DR3">
-        <v>-0.064406593739998394</v>
+        <v>0.020341961718802662</v>
       </c>
       <c r="DS3">
-        <v>-0.032387966744187653</v>
+        <v>-0.0023595909486450071</v>
       </c>
       <c r="DT3">
-        <v>-0.026636773354316266</v>
+        <v>0.0080431447009773182</v>
       </c>
       <c r="DU3">
-        <v>-0.037253625217036845</v>
+        <v>0.023069409988077914</v>
       </c>
       <c r="DV3">
-        <v>-0.04375423127275796</v>
+        <v>0.00992200320981073</v>
       </c>
       <c r="DW3">
-        <v>-0.045185067617320621</v>
+        <v>-0.044991879035893204</v>
       </c>
       <c r="DX3">
-        <v>-0.04223956906641807</v>
+        <v>-0.003175273560334676</v>
       </c>
       <c r="DY3">
-        <v>-0.028122179463850459</v>
+        <v>0.00059580775990156361</v>
       </c>
       <c r="DZ3">
-        <v>-0.045542251050276705</v>
+        <v>-0.011722011580174661</v>
       </c>
       <c r="EA3">
-        <v>-0.067661216787110026</v>
+        <v>-0.003941198812745835</v>
       </c>
       <c r="EB3">
-        <v>-0.064439622007090983</v>
+        <v>-0.010752615776954692</v>
       </c>
       <c r="EC3">
-        <v>-0.038149758738805495</v>
+        <v>0.0047689513642778991</v>
       </c>
       <c r="ED3">
-        <v>-0.060785971582920338</v>
+        <v>-0.018898982020581868</v>
       </c>
       <c r="EE3">
-        <v>-0.020977911035427566</v>
+        <v>-0.021047665476202015</v>
       </c>
       <c r="EF3">
-        <v>-0.059589183737487658</v>
+        <v>-0.01611535384578687</v>
       </c>
       <c r="EG3">
-        <v>-0.05339981774378031</v>
+        <v>-0.015766778165982029</v>
       </c>
       <c r="EH3">
-        <v>-0.042170668225453657</v>
+        <v>-0.011648824675235325</v>
       </c>
       <c r="EI3">
-        <v>-0.047232638545818606</v>
+        <v>-0.013825441622848607</v>
       </c>
       <c r="EJ3">
-        <v>-0.042253575993356246</v>
+        <v>-0.031460781561198428</v>
       </c>
       <c r="EK3">
-        <v>-0.063659681998894352</v>
+        <v>-0.010299516894345249</v>
       </c>
       <c r="EL3">
-        <v>-0.091151869358764612</v>
+        <v>-0.01982171148415305</v>
       </c>
       <c r="EM3">
-        <v>-0.053044492616164569</v>
+        <v>-0.0080122214292910367</v>
       </c>
       <c r="EN3">
-        <v>-0.054975494662056819</v>
+        <v>-0.017174583773054884</v>
       </c>
       <c r="EO3">
-        <v>-0.061317310028049056</v>
+        <v>-0.048255770275811287</v>
       </c>
       <c r="EP3">
-        <v>-0.054615934750156157</v>
+        <v>-0.046510822573270313</v>
       </c>
       <c r="EQ3">
-        <v>-0.051382351754987066</v>
+        <v>-0.03358316447128909</v>
       </c>
       <c r="ER3">
-        <v>-0.040731156764358699</v>
+        <v>-0.032210148495523144</v>
       </c>
       <c r="ES3">
-        <v>-0.021063329961123773</v>
+        <v>-0.030391681279538126</v>
       </c>
       <c r="ET3">
-        <v>-0.067204382091714504</v>
+        <v>0.0070718019847623445</v>
       </c>
       <c r="EU3">
-        <v>-0.046659479557303415</v>
+        <v>-0.0035223740976015193</v>
       </c>
       <c r="EV3">
-        <v>-0.091895129325105546</v>
+        <v>-0.042839957479018906</v>
       </c>
       <c r="EW3">
-        <v>-0.062268399181560991</v>
+        <v>-0.044806119668449058</v>
       </c>
       <c r="EX3">
-        <v>-0.04158503425951663</v>
+        <v>-0.044500289678685932</v>
       </c>
       <c r="EY3">
-        <v>-0.066327390983021414</v>
+        <v>-0.020801584504482298</v>
       </c>
       <c r="EZ3">
-        <v>-0.090613724170789306</v>
+        <v>-0.032247252898804382</v>
       </c>
       <c r="FA3">
-        <v>-0.059682388351622144</v>
+        <v>-0.021767511389487952</v>
       </c>
       <c r="FB3">
-        <v>-0.077395543872532724</v>
+        <v>-0.0049378640678261502</v>
       </c>
       <c r="FC3">
-        <v>-0.05941236963167159</v>
+        <v>0.029500179579008211</v>
       </c>
       <c r="FD3">
-        <v>-0.061354668446980475</v>
+        <v>-0.065695754807844453</v>
       </c>
       <c r="FE3">
-        <v>-0.044792906965173837</v>
+        <v>-0.017258726159132608</v>
       </c>
       <c r="FF3">
-        <v>-0.10565095857575219</v>
+        <v>0.001112857366771632</v>
       </c>
       <c r="FG3">
-        <v>-0.13159997382204247</v>
+        <v>-0.055903958565131674</v>
       </c>
       <c r="FH3">
-        <v>-0.029729021753842313</v>
+        <v>-0.034622227546997494</v>
       </c>
       <c r="FI3">
-        <v>-0.03935346105110183</v>
+        <v>-0.059626804092194591</v>
       </c>
       <c r="FJ3">
-        <v>-0.088097502783366616</v>
+        <v>-0.02093057352901757</v>
       </c>
       <c r="FK3">
-        <v>-0.056129549336413141</v>
+        <v>-0.06096535350819051</v>
       </c>
       <c r="FL3">
-        <v>-0.064964898437527022</v>
+        <v>-0.045691038484509769</v>
       </c>
       <c r="FM3">
-        <v>-0.059454830742554629</v>
+        <v>-0.034368261066124263</v>
       </c>
       <c r="FN3">
-        <v>-0.11334846787012696</v>
+        <v>-0.047010564348094988</v>
       </c>
       <c r="FO3">
-        <v>-0.060200403869896869</v>
+        <v>-0.057974846842937029</v>
       </c>
       <c r="FP3">
-        <v>-0.11307450889833237</v>
+        <v>-0.043038377958567985</v>
       </c>
       <c r="FQ3">
-        <v>-0.077823823314672969</v>
+        <v>-0.095220983007924476</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.4425401807381215</v>
+        <v>-5.4786918697152469</v>
       </c>
     </row>
     <row r="4">
@@ -2191,526 +2191,526 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.039834345329219464</v>
+        <v>0.034221500046418017</v>
       </c>
       <c r="C4">
-        <v>0.017372142729139166</v>
+        <v>0.014924326690905486</v>
       </c>
       <c r="D4">
-        <v>0.025431131408154811</v>
+        <v>0.021847766229667453</v>
       </c>
       <c r="E4">
-        <v>0.030077206507573031</v>
+        <v>0.025839187650462715</v>
       </c>
       <c r="F4">
-        <v>0.02752425389103964</v>
+        <v>0.023645957979856944</v>
       </c>
       <c r="G4">
-        <v>0.023026194795400981</v>
+        <v>0.019781696416675747</v>
       </c>
       <c r="H4">
-        <v>0.018662864794923444</v>
+        <v>0.016033179989964209</v>
       </c>
       <c r="I4">
-        <v>0.018555246319019236</v>
+        <v>0.015940725459891895</v>
       </c>
       <c r="J4">
-        <v>0.019584006490712486</v>
+        <v>0.016824528519095914</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.042487282435385083</v>
+        <v>0.036500625925140466</v>
       </c>
       <c r="M4">
-        <v>0.042487282435385083</v>
+        <v>0.036500625925140466</v>
       </c>
       <c r="N4">
-        <v>0.04248728243538509</v>
+        <v>0.036500625925140466</v>
       </c>
       <c r="O4">
-        <v>0.042487282435385097</v>
+        <v>0.036500625925140473</v>
       </c>
       <c r="P4">
-        <v>0.04248728243538509</v>
+        <v>0.036500625925140466</v>
       </c>
       <c r="Q4">
-        <v>0.042487282435385104</v>
+        <v>0.036500625925140487</v>
       </c>
       <c r="R4">
-        <v>0.042487282435385104</v>
+        <v>0.036500625925140487</v>
       </c>
       <c r="S4">
-        <v>0.042487282435385111</v>
+        <v>0.036500625925140487</v>
       </c>
       <c r="T4">
-        <v>0.042487282435385111</v>
+        <v>0.036500625925140487</v>
       </c>
       <c r="U4">
-        <v>0.042487282435385097</v>
+        <v>0.03650062592514048</v>
       </c>
       <c r="V4">
-        <v>0.042487282435385118</v>
+        <v>0.036500625925140494</v>
       </c>
       <c r="W4">
-        <v>0.042487282435385104</v>
+        <v>0.036500625925140487</v>
       </c>
       <c r="X4">
-        <v>0.042487282435385118</v>
+        <v>0.036500625925140494</v>
       </c>
       <c r="Y4">
-        <v>0.042487282435385111</v>
+        <v>0.036500625925140487</v>
       </c>
       <c r="Z4">
-        <v>0.042487282435385118</v>
+        <v>0.036500625925140494</v>
       </c>
       <c r="AA4">
-        <v>0.042487282435385118</v>
+        <v>0.036500625925140494</v>
       </c>
       <c r="AB4">
-        <v>0.042487282435385118</v>
+        <v>0.036500625925140494</v>
       </c>
       <c r="AC4">
-        <v>0.042487282435385118</v>
+        <v>0.036500625925140494</v>
       </c>
       <c r="AD4">
-        <v>0.042487282435385118</v>
+        <v>0.036500625925140494</v>
       </c>
       <c r="AE4">
-        <v>0.042487282435385125</v>
+        <v>0.036500625925140501</v>
       </c>
       <c r="AF4">
-        <v>0.042487282435385125</v>
+        <v>0.036500625925140501</v>
       </c>
       <c r="AG4">
-        <v>0.042487282435385125</v>
+        <v>0.036500625925140501</v>
       </c>
       <c r="AH4">
-        <v>0.042487282435385118</v>
+        <v>0.036500625925140494</v>
       </c>
       <c r="AI4">
-        <v>0.042487282435385118</v>
+        <v>0.036500625925140494</v>
       </c>
       <c r="AJ4">
-        <v>0.042487282435385125</v>
+        <v>0.036500625925140501</v>
       </c>
       <c r="AK4">
-        <v>0.042487282435385132</v>
+        <v>0.036500625925140508</v>
       </c>
       <c r="AL4">
-        <v>0.042487282435385132</v>
+        <v>0.036500625925140508</v>
       </c>
       <c r="AM4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140508</v>
       </c>
       <c r="AN4">
-        <v>0.042487282435385132</v>
+        <v>0.036500625925140508</v>
       </c>
       <c r="AO4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140508</v>
       </c>
       <c r="AP4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140508</v>
       </c>
       <c r="AQ4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140515</v>
       </c>
       <c r="AR4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140515</v>
       </c>
       <c r="AS4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140515</v>
       </c>
       <c r="AT4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140508</v>
       </c>
       <c r="AU4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140508</v>
       </c>
       <c r="AV4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140508</v>
       </c>
       <c r="AW4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140508</v>
       </c>
       <c r="AX4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140508</v>
       </c>
       <c r="AY4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140508</v>
       </c>
       <c r="AZ4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140508</v>
       </c>
       <c r="BA4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140508</v>
       </c>
       <c r="BB4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140508</v>
       </c>
       <c r="BC4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140515</v>
       </c>
       <c r="BD4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140508</v>
       </c>
       <c r="BE4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140515</v>
       </c>
       <c r="BF4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140508</v>
       </c>
       <c r="BG4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140515</v>
       </c>
       <c r="BH4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140508</v>
       </c>
       <c r="BI4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140515</v>
       </c>
       <c r="BJ4">
-        <v>0.042487282435385139</v>
+        <v>0.036500625925140515</v>
       </c>
       <c r="BK4">
-        <v>0.042487282435385146</v>
+        <v>0.036500625925140515</v>
       </c>
       <c r="BL4">
-        <v>0.042487282435385146</v>
+        <v>0.036500625925140515</v>
       </c>
       <c r="BM4">
-        <v>0.042487282435385153</v>
+        <v>0.036500625925140522</v>
       </c>
       <c r="BN4">
-        <v>0.042487282435385153</v>
+        <v>0.036500625925140522</v>
       </c>
       <c r="BO4">
-        <v>0.04248728243538516</v>
+        <v>0.036500625925140529</v>
       </c>
       <c r="BP4">
-        <v>0.04248728243538516</v>
+        <v>0.036500625925140529</v>
       </c>
       <c r="BQ4">
-        <v>0.042463226673954323</v>
+        <v>0.036479959732835417</v>
       </c>
       <c r="BR4">
-        <v>0.042463226673954323</v>
+        <v>0.03647995973283541</v>
       </c>
       <c r="BS4">
-        <v>0.042463226673954323</v>
+        <v>0.036479959732835417</v>
       </c>
       <c r="BT4">
-        <v>0.038528354816141683</v>
+        <v>0.033099529695592905</v>
       </c>
       <c r="BU4">
-        <v>0.038528354816141683</v>
+        <v>0.033099529695592912</v>
       </c>
       <c r="BV4">
-        <v>0.044677026112075205</v>
+        <v>0.038381824491708266</v>
       </c>
       <c r="BW4">
-        <v>0.043815196071639625</v>
+        <v>0.037641430328706003</v>
       </c>
       <c r="BX4">
-        <v>0.043815196071639625</v>
+        <v>0.037641430328706003</v>
       </c>
       <c r="BY4">
-        <v>0.043161634357616024</v>
+        <v>0.037079958512313681</v>
       </c>
       <c r="BZ4">
-        <v>0.043161634357616031</v>
+        <v>0.037079958512313688</v>
       </c>
       <c r="CA4">
-        <v>0.043161634357616031</v>
+        <v>0.037079958512313688</v>
       </c>
       <c r="CB4">
-        <v>0.042631571626201945</v>
+        <v>0.036624584095142444</v>
       </c>
       <c r="CC4">
-        <v>0.042631571626201958</v>
+        <v>0.036624584095142458</v>
       </c>
       <c r="CD4">
-        <v>0.042631571626201951</v>
+        <v>0.036624584095142451</v>
       </c>
       <c r="CE4">
-        <v>0.042631571626201951</v>
+        <v>0.036624584095142451</v>
       </c>
       <c r="CF4">
-        <v>0.042631571626201958</v>
+        <v>0.036624584095142458</v>
       </c>
       <c r="CG4">
-        <v>0.042516131382817207</v>
+        <v>0.036525409921155161</v>
       </c>
       <c r="CH4">
-        <v>0.0425161313828172</v>
+        <v>0.036525409921155154</v>
       </c>
       <c r="CI4">
-        <v>0.0425161313828172</v>
+        <v>0.036525409921155161</v>
       </c>
       <c r="CJ4">
-        <v>0.042516131382817207</v>
+        <v>0.036525409921155168</v>
       </c>
       <c r="CK4">
-        <v>0.043074824185233618</v>
+        <v>0.037005380298622423</v>
       </c>
       <c r="CL4">
-        <v>0.040653664039869496</v>
+        <v>0.034925372924528915</v>
       </c>
       <c r="CM4">
-        <v>0.040653664039869503</v>
+        <v>0.034925372924528922</v>
       </c>
       <c r="CN4">
-        <v>0.036936072246725384</v>
+        <v>0.031731607176147848</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.043311383843002836</v>
+        <v>0.037208607595881196</v>
       </c>
       <c r="CQ4">
-        <v>0.043830118392172594</v>
+        <v>0.037654250024588824</v>
       </c>
       <c r="CR4">
-        <v>0.043830118392172594</v>
+        <v>0.037654250024588824</v>
       </c>
       <c r="CS4">
-        <v>0.043176782556093495</v>
+        <v>0.037092972258883777</v>
       </c>
       <c r="CT4">
-        <v>0.043176782556093501</v>
+        <v>0.037092972258883777</v>
       </c>
       <c r="CU4">
-        <v>0.043176782556093495</v>
+        <v>0.037092972258883777</v>
       </c>
       <c r="CV4">
-        <v>0.042646908103585054</v>
+        <v>0.036637759591241104</v>
       </c>
       <c r="CW4">
-        <v>0.042646908103585048</v>
+        <v>0.036637759591241104</v>
       </c>
       <c r="CX4">
-        <v>0.042646908103585061</v>
+        <v>0.036637759591241111</v>
       </c>
       <c r="CY4">
-        <v>0.042646908103585041</v>
+        <v>0.036637759591241097</v>
       </c>
       <c r="CZ4">
-        <v>0.042646908103585061</v>
+        <v>0.036637759591241111</v>
       </c>
       <c r="DA4">
-        <v>0.042586248852987091</v>
+        <v>0.036585647512330365</v>
       </c>
       <c r="DB4">
-        <v>0.042586248852987077</v>
+        <v>0.036585647512330358</v>
       </c>
       <c r="DC4">
-        <v>0.042586248852987091</v>
+        <v>0.036585647512330365</v>
       </c>
       <c r="DD4">
-        <v>0.042586248852987084</v>
+        <v>0.036585647512330365</v>
       </c>
       <c r="DE4">
-        <v>0.042586248852987091</v>
+        <v>0.036585647512330365</v>
       </c>
       <c r="DF4">
-        <v>0.039880233460194821</v>
+        <v>0.034260922325441923</v>
       </c>
       <c r="DG4">
-        <v>0.039880233460194814</v>
+        <v>0.034260922325441916</v>
       </c>
       <c r="DH4">
-        <v>0.039880233460194821</v>
+        <v>0.034260922325441923</v>
       </c>
       <c r="DI4">
-        <v>0.039880233460194828</v>
+        <v>0.03426092232544193</v>
       </c>
       <c r="DJ4">
-        <v>0.039880233460194828</v>
+        <v>0.03426092232544193</v>
       </c>
       <c r="DK4">
-        <v>0.042518053950004277</v>
+        <v>0.036527061589647206</v>
       </c>
       <c r="DL4">
-        <v>0.042518053950004277</v>
+        <v>0.036527061589647206</v>
       </c>
       <c r="DM4">
-        <v>0.042518053950004277</v>
+        <v>0.036527061589647206</v>
       </c>
       <c r="DN4">
-        <v>0.04251805395000427</v>
+        <v>0.036527061589647199</v>
       </c>
       <c r="DO4">
-        <v>0.042518053950004277</v>
+        <v>0.036527061589647213</v>
       </c>
       <c r="DP4">
-        <v>0.042518053950004277</v>
+        <v>0.036527061589647206</v>
       </c>
       <c r="DQ4">
-        <v>0.042518053950004284</v>
+        <v>0.036527061589647213</v>
       </c>
       <c r="DR4">
-        <v>0.042518053950004277</v>
+        <v>0.036527061589647213</v>
       </c>
       <c r="DS4">
-        <v>0.042518053950004311</v>
+        <v>0.03652706158964724</v>
       </c>
       <c r="DT4">
-        <v>0.042518053950004284</v>
+        <v>0.036527061589647219</v>
       </c>
       <c r="DU4">
-        <v>0.042518053950004311</v>
+        <v>0.03652706158964724</v>
       </c>
       <c r="DV4">
-        <v>0.042518053950004311</v>
+        <v>0.03652706158964724</v>
       </c>
       <c r="DW4">
-        <v>0.042518053950004311</v>
+        <v>0.03652706158964724</v>
       </c>
       <c r="DX4">
-        <v>0.042518053950004304</v>
+        <v>0.036527061589647233</v>
       </c>
       <c r="DY4">
-        <v>0.042518053950004318</v>
+        <v>0.03652706158964724</v>
       </c>
       <c r="DZ4">
-        <v>0.042518053950004318</v>
+        <v>0.03652706158964724</v>
       </c>
       <c r="EA4">
-        <v>0.042518053950004325</v>
+        <v>0.036527061589647254</v>
       </c>
       <c r="EB4">
-        <v>0.042518053950004325</v>
+        <v>0.036527061589647254</v>
       </c>
       <c r="EC4">
-        <v>0.042518053950004325</v>
+        <v>0.036527061589647254</v>
       </c>
       <c r="ED4">
-        <v>0.042518053950004325</v>
+        <v>0.036527061589647254</v>
       </c>
       <c r="EE4">
-        <v>0.042518053950004325</v>
+        <v>0.036527061589647254</v>
       </c>
       <c r="EF4">
-        <v>0.042518053950004339</v>
+        <v>0.036527061589647261</v>
       </c>
       <c r="EG4">
-        <v>0.042518053950004325</v>
+        <v>0.036527061589647254</v>
       </c>
       <c r="EH4">
-        <v>0.042518053950004346</v>
+        <v>0.036527061589647268</v>
       </c>
       <c r="EI4">
-        <v>0.042518053950004339</v>
+        <v>0.036527061589647261</v>
       </c>
       <c r="EJ4">
-        <v>0.042518053950004346</v>
+        <v>0.036527061589647268</v>
       </c>
       <c r="EK4">
-        <v>0.042518053950004339</v>
+        <v>0.036527061589647261</v>
       </c>
       <c r="EL4">
-        <v>0.042518053950004346</v>
+        <v>0.036527061589647268</v>
       </c>
       <c r="EM4">
-        <v>0.042518053950004339</v>
+        <v>0.036527061589647261</v>
       </c>
       <c r="EN4">
-        <v>0.042518053950004353</v>
+        <v>0.036527061589647275</v>
       </c>
       <c r="EO4">
-        <v>0.042518053950004339</v>
+        <v>0.036527061589647261</v>
       </c>
       <c r="EP4">
-        <v>0.042518053950004346</v>
+        <v>0.036527061589647268</v>
       </c>
       <c r="EQ4">
-        <v>0.042518053950004353</v>
+        <v>0.036527061589647275</v>
       </c>
       <c r="ER4">
-        <v>0.04251805395000436</v>
+        <v>0.036527061589647282</v>
       </c>
       <c r="ES4">
-        <v>0.042518053950004353</v>
+        <v>0.036527061589647275</v>
       </c>
       <c r="ET4">
-        <v>0.042518053950004353</v>
+        <v>0.036527061589647275</v>
       </c>
       <c r="EU4">
-        <v>0.042518053950004353</v>
+        <v>0.036527061589647275</v>
       </c>
       <c r="EV4">
-        <v>0.042518053950004353</v>
+        <v>0.036527061589647275</v>
       </c>
       <c r="EW4">
-        <v>0.042518053950004339</v>
+        <v>0.036527061589647261</v>
       </c>
       <c r="EX4">
-        <v>0.042518053950004353</v>
+        <v>0.036527061589647275</v>
       </c>
       <c r="EY4">
-        <v>0.042518053950004367</v>
+        <v>0.036527061589647282</v>
       </c>
       <c r="EZ4">
-        <v>0.042518053950004367</v>
+        <v>0.036527061589647282</v>
       </c>
       <c r="FA4">
-        <v>0.042518053950004367</v>
+        <v>0.036527061589647289</v>
       </c>
       <c r="FB4">
-        <v>0.042518053950004367</v>
+        <v>0.036527061589647289</v>
       </c>
       <c r="FC4">
-        <v>0.042518053950004367</v>
+        <v>0.036527061589647289</v>
       </c>
       <c r="FD4">
-        <v>0.042518053950004367</v>
+        <v>0.036527061589647289</v>
       </c>
       <c r="FE4">
-        <v>0.042518053950004374</v>
+        <v>0.036527061589647296</v>
       </c>
       <c r="FF4">
-        <v>0.042518053950004367</v>
+        <v>0.036527061589647289</v>
       </c>
       <c r="FG4">
-        <v>0.042518053950004374</v>
+        <v>0.036527061589647296</v>
       </c>
       <c r="FH4">
-        <v>0.042518053950004374</v>
+        <v>0.036527061589647289</v>
       </c>
       <c r="FI4">
-        <v>0.042518053950004381</v>
+        <v>0.036527061589647296</v>
       </c>
       <c r="FJ4">
-        <v>0.042518053950004381</v>
+        <v>0.036527061589647296</v>
       </c>
       <c r="FK4">
-        <v>0.042518053950004388</v>
+        <v>0.036527061589647303</v>
       </c>
       <c r="FL4">
-        <v>0.042518053950004388</v>
+        <v>0.036527061589647303</v>
       </c>
       <c r="FM4">
-        <v>0.042518053950004388</v>
+        <v>0.036527061589647303</v>
       </c>
       <c r="FN4">
-        <v>0.042518053950004388</v>
+        <v>0.036527061589647303</v>
       </c>
       <c r="FO4">
-        <v>0.042518053950004388</v>
+        <v>0.036527061589647303</v>
       </c>
       <c r="FP4">
-        <v>0.042518053950004388</v>
+        <v>0.036527061589647303</v>
       </c>
       <c r="FQ4">
-        <v>0.042518053950004395</v>
+        <v>0.036527061589647317</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.033550680994392221</v>
+        <v>0.028823233361004928</v>
       </c>
     </row>
   </sheetData>
@@ -3778,526 +3778,526 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>-0.023749482575566375</v>
+        <v>-0.0067136122594126145</v>
       </c>
       <c r="C3">
-        <v>-0.67245297434045026</v>
+        <v>-0.66667638107178451</v>
       </c>
       <c r="D3">
-        <v>-0.68711179790630472</v>
+        <v>-0.68118831462344687</v>
       </c>
       <c r="E3">
-        <v>-0.71119750826564843</v>
+        <v>-0.70561257047711623</v>
       </c>
       <c r="F3">
-        <v>-0.010374339643374482</v>
+        <v>-0.0060702278162829146</v>
       </c>
       <c r="G3">
-        <v>0.0067373625985030832</v>
+        <v>-0.0069490404997362013</v>
       </c>
       <c r="H3">
-        <v>0.0082258663937716369</v>
+        <v>-0.0059561101351715707</v>
       </c>
       <c r="I3">
-        <v>0.0047285413021742866</v>
+        <v>0.0090225026168274103</v>
       </c>
       <c r="J3">
-        <v>-0.012847089397867368</v>
+        <v>0.0035311229445086673</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.1410169875132945</v>
+        <v>1.1791468696637719</v>
       </c>
       <c r="M3">
-        <v>1.2363403036997758</v>
+        <v>1.2861074097870526</v>
       </c>
       <c r="N3">
-        <v>-0.30909621582834612</v>
+        <v>-0.24359274950904805</v>
       </c>
       <c r="O3">
-        <v>-0.29356220956114559</v>
+        <v>-0.2195111352536423</v>
       </c>
       <c r="P3">
-        <v>-0.28186023682417438</v>
+        <v>-0.19774155558145659</v>
       </c>
       <c r="Q3">
-        <v>-0.24563891400372539</v>
+        <v>-0.20595722364232194</v>
       </c>
       <c r="R3">
-        <v>-0.25028215342367904</v>
+        <v>-0.23848450953812578</v>
       </c>
       <c r="S3">
-        <v>-0.24356688307713614</v>
+        <v>-0.20248715843445034</v>
       </c>
       <c r="T3">
-        <v>-0.21339924090862303</v>
+        <v>-0.1557757142795185</v>
       </c>
       <c r="U3">
-        <v>-0.22597151373922997</v>
+        <v>-0.19164330716564179</v>
       </c>
       <c r="V3">
-        <v>-0.18774165399559356</v>
+        <v>-0.1237824598945983</v>
       </c>
       <c r="W3">
-        <v>-0.21242980846140114</v>
+        <v>-0.11050632017516381</v>
       </c>
       <c r="X3">
-        <v>-0.1184888647452223</v>
+        <v>-0.12810605176595985</v>
       </c>
       <c r="Y3">
-        <v>-0.18418609006053319</v>
+        <v>-0.13726704448321464</v>
       </c>
       <c r="Z3">
-        <v>-0.17020970355753207</v>
+        <v>-0.10389641997326603</v>
       </c>
       <c r="AA3">
-        <v>-0.15051506911152324</v>
+        <v>-0.11324429920402036</v>
       </c>
       <c r="AB3">
-        <v>-0.18326270751912638</v>
+        <v>-0.10875513776646857</v>
       </c>
       <c r="AC3">
-        <v>-0.12405985076222842</v>
+        <v>-0.090602972248441299</v>
       </c>
       <c r="AD3">
-        <v>-0.12540192823556379</v>
+        <v>-0.075340334001294751</v>
       </c>
       <c r="AE3">
-        <v>-0.13220761609661852</v>
+        <v>-0.11595112222976264</v>
       </c>
       <c r="AF3">
-        <v>-0.11838117599191671</v>
+        <v>-0.053229718165376999</v>
       </c>
       <c r="AG3">
-        <v>-0.092833079977124769</v>
+        <v>-0.071063887907584486</v>
       </c>
       <c r="AH3">
-        <v>-0.079218254592938839</v>
+        <v>-0.0422199188880567</v>
       </c>
       <c r="AI3">
-        <v>-0.13641644424463664</v>
+        <v>-0.066406324563614505</v>
       </c>
       <c r="AJ3">
-        <v>-0.075955664117040467</v>
+        <v>-0.021132830256419884</v>
       </c>
       <c r="AK3">
-        <v>-0.13646925864738321</v>
+        <v>-0.010168005125253475</v>
       </c>
       <c r="AL3">
-        <v>-0.099795730752686176</v>
+        <v>-0.070634702322367626</v>
       </c>
       <c r="AM3">
-        <v>-0.07355169346163952</v>
+        <v>-0.05760917563293215</v>
       </c>
       <c r="AN3">
-        <v>-0.05779683299082735</v>
+        <v>-0.021812506495489856</v>
       </c>
       <c r="AO3">
-        <v>-0.023275816418905988</v>
+        <v>-0.012085219421994904</v>
       </c>
       <c r="AP3">
-        <v>-0.086462773456967137</v>
+        <v>-0.049939314960725921</v>
       </c>
       <c r="AQ3">
-        <v>-0.058709022660540858</v>
+        <v>0.0020502699196955475</v>
       </c>
       <c r="AR3">
-        <v>-0.11445015384362307</v>
+        <v>-0.00073125890280276325</v>
       </c>
       <c r="AS3">
-        <v>-0.069972705043731681</v>
+        <v>-0.042089032158433869</v>
       </c>
       <c r="AT3">
-        <v>-0.092311277608753753</v>
+        <v>-0.047897911598981421</v>
       </c>
       <c r="AU3">
-        <v>-0.072116823196472668</v>
+        <v>-0.039864765488184406</v>
       </c>
       <c r="AV3">
-        <v>-0.045488513964888233</v>
+        <v>0.015245648740525865</v>
       </c>
       <c r="AW3">
-        <v>-0.067796765820762786</v>
+        <v>-0.019839986628647468</v>
       </c>
       <c r="AX3">
-        <v>-0.063760521187063476</v>
+        <v>0.014723785670814197</v>
       </c>
       <c r="AY3">
-        <v>-0.033816453099585378</v>
+        <v>-0.020230731137006401</v>
       </c>
       <c r="AZ3">
-        <v>-0.033742177266358801</v>
+        <v>0.045717191831327553</v>
       </c>
       <c r="BA3">
-        <v>-0.0032449826066207514</v>
+        <v>0.021860080623155746</v>
       </c>
       <c r="BB3">
-        <v>-0.042799802401051086</v>
+        <v>-0.0017285391698803304</v>
       </c>
       <c r="BC3">
-        <v>-0.047289829061447908</v>
+        <v>0.0072223014989981167</v>
       </c>
       <c r="BD3">
-        <v>-0.040808762609766368</v>
+        <v>-0.030487739560610141</v>
       </c>
       <c r="BE3">
-        <v>-0.040206971792002187</v>
+        <v>0.0097329340648657885</v>
       </c>
       <c r="BF3">
-        <v>-0.031700738965863173</v>
+        <v>-0.0252741722280279</v>
       </c>
       <c r="BG3">
-        <v>-0.034556711701425082</v>
+        <v>0.01593761405884624</v>
       </c>
       <c r="BH3">
-        <v>-0.053216108830093575</v>
+        <v>0.031816655461644111</v>
       </c>
       <c r="BI3">
-        <v>-0.0072024064950188676</v>
+        <v>-0.00011777251043449993</v>
       </c>
       <c r="BJ3">
-        <v>-0.010181879415112862</v>
+        <v>-0.0076592750021860501</v>
       </c>
       <c r="BK3">
-        <v>-0.04890297543457308</v>
+        <v>0.0057880163938182645</v>
       </c>
       <c r="BL3">
-        <v>-0.027911319257558992</v>
+        <v>0.027760313821205085</v>
       </c>
       <c r="BM3">
-        <v>-0.04466666401163176</v>
+        <v>-0.01823867710710381</v>
       </c>
       <c r="BN3">
-        <v>-0.047488410171974541</v>
+        <v>-0.0047269601301080108</v>
       </c>
       <c r="BO3">
-        <v>-0.033167780951741728</v>
+        <v>-0.014679996283069806</v>
       </c>
       <c r="BP3">
-        <v>-0.075372424680873268</v>
+        <v>-0.061825276325408914</v>
       </c>
       <c r="BQ3">
-        <v>0.0088773920595205946</v>
+        <v>0.014395405360257454</v>
       </c>
       <c r="BR3">
-        <v>-0.05635894762741088</v>
+        <v>0.019195275359903362</v>
       </c>
       <c r="BS3">
-        <v>-0.055722702553090926</v>
+        <v>-0.0080640407948598201</v>
       </c>
       <c r="BT3">
-        <v>0.023131357847742669</v>
+        <v>0.031396346920283508</v>
       </c>
       <c r="BU3">
-        <v>-0.056301850254766986</v>
+        <v>-0.01623181168767393</v>
       </c>
       <c r="BV3">
-        <v>-0.061366284019403493</v>
+        <v>-0.02948364743085953</v>
       </c>
       <c r="BW3">
-        <v>-0.053946580234653693</v>
+        <v>0.0042681468221805055</v>
       </c>
       <c r="BX3">
-        <v>-0.04499792417245696</v>
+        <v>0.0043275628902970887</v>
       </c>
       <c r="BY3">
-        <v>-0.063863869540786988</v>
+        <v>0.01785470162867064</v>
       </c>
       <c r="BZ3">
-        <v>-0.031841357809091766</v>
+        <v>0.034017371498667466</v>
       </c>
       <c r="CA3">
-        <v>-0.093020668157818953</v>
+        <v>-0.023423479875316382</v>
       </c>
       <c r="CB3">
-        <v>-0.050692420669655715</v>
+        <v>0.055242231727066528</v>
       </c>
       <c r="CC3">
-        <v>-0.077575916568425884</v>
+        <v>0.0091435660763092477</v>
       </c>
       <c r="CD3">
-        <v>-0.084096861814203117</v>
+        <v>0.039511604091371583</v>
       </c>
       <c r="CE3">
-        <v>-0.032223418956612571</v>
+        <v>-0.014414531306664865</v>
       </c>
       <c r="CF3">
-        <v>-0.053624261027870886</v>
+        <v>0.022428504966997179</v>
       </c>
       <c r="CG3">
-        <v>-0.06217948896653084</v>
+        <v>-0.034216794495246845</v>
       </c>
       <c r="CH3">
-        <v>-0.060892233221912798</v>
+        <v>-0.020888952966466177</v>
       </c>
       <c r="CI3">
-        <v>-0.08439094736630004</v>
+        <v>-0.040383622332650679</v>
       </c>
       <c r="CJ3">
-        <v>-0.022382641627263212</v>
+        <v>-0.04284848532919535</v>
       </c>
       <c r="CK3">
-        <v>-0.032029705133384462</v>
+        <v>-0.0034541137628124963</v>
       </c>
       <c r="CL3">
-        <v>0.013776880393634654</v>
+        <v>-0.037386325968168384</v>
       </c>
       <c r="CM3">
-        <v>-0.075185035932892594</v>
+        <v>0.019771780390937261</v>
       </c>
       <c r="CN3">
-        <v>-0.035431173662547596</v>
+        <v>0.0086558275974463646</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>-0.041077000193938916</v>
+        <v>0.014102176822343123</v>
       </c>
       <c r="CQ3">
-        <v>-0.034379609703254405</v>
+        <v>0.040537138832591676</v>
       </c>
       <c r="CR3">
-        <v>-0.019513667981016211</v>
+        <v>0.0035077492582415853</v>
       </c>
       <c r="CS3">
-        <v>-0.01494879558020514</v>
+        <v>0.045364414242763641</v>
       </c>
       <c r="CT3">
-        <v>-0.042716477560884043</v>
+        <v>0.0095937921451355202</v>
       </c>
       <c r="CU3">
-        <v>-0.053353662955436088</v>
+        <v>0.010582968814568043</v>
       </c>
       <c r="CV3">
-        <v>-0.062837742381354852</v>
+        <v>0.0096493034204910462</v>
       </c>
       <c r="CW3">
-        <v>-0.066683833411294247</v>
+        <v>0.0027424412350303563</v>
       </c>
       <c r="CX3">
-        <v>-0.06586122942302744</v>
+        <v>-0.0086862413130947905</v>
       </c>
       <c r="CY3">
-        <v>-0.068341593157062661</v>
+        <v>0.057319385276940867</v>
       </c>
       <c r="CZ3">
-        <v>-0.023637697397491036</v>
+        <v>-0.010857628759119069</v>
       </c>
       <c r="DA3">
-        <v>-0.028591253833469842</v>
+        <v>-0.018326934822265436</v>
       </c>
       <c r="DB3">
-        <v>-0.049951143420620805</v>
+        <v>0.012072496486652909</v>
       </c>
       <c r="DC3">
-        <v>-0.084144115335685665</v>
+        <v>0.0046737588941376017</v>
       </c>
       <c r="DD3">
-        <v>-0.038490984278751944</v>
+        <v>0.026219808621835893</v>
       </c>
       <c r="DE3">
-        <v>-0.019464467637039028</v>
+        <v>-0.019136223582739115</v>
       </c>
       <c r="DF3">
-        <v>-0.021573128693551977</v>
+        <v>-0.014572322923983794</v>
       </c>
       <c r="DG3">
-        <v>-0.039802486882091002</v>
+        <v>-0.015784854426640564</v>
       </c>
       <c r="DH3">
-        <v>-0.060912675300396089</v>
+        <v>0.024105418101438587</v>
       </c>
       <c r="DI3">
-        <v>0.0089611252249142889</v>
+        <v>0.0061274910777564182</v>
       </c>
       <c r="DJ3">
-        <v>-0.054375156859776973</v>
+        <v>-0.022055551487786044</v>
       </c>
       <c r="DK3">
-        <v>-0.025047087267750068</v>
+        <v>0.012749873888955401</v>
       </c>
       <c r="DL3">
-        <v>-0.034986920409456827</v>
+        <v>-0.003560381543097835</v>
       </c>
       <c r="DM3">
-        <v>-0.082491143554401056</v>
+        <v>-0.0086828653862721858</v>
       </c>
       <c r="DN3">
-        <v>-0.058089015782491357</v>
+        <v>-0.012740810712775965</v>
       </c>
       <c r="DO3">
-        <v>-0.037804719546834849</v>
+        <v>-0.015702391362142656</v>
       </c>
       <c r="DP3">
-        <v>-0.089354290375516399</v>
+        <v>-0.0010665750640076375</v>
       </c>
       <c r="DQ3">
-        <v>-0.029998396223717673</v>
+        <v>-0.0047392595782804418</v>
       </c>
       <c r="DR3">
-        <v>-0.069893214305107171</v>
+        <v>0.030267066245341197</v>
       </c>
       <c r="DS3">
-        <v>-0.037874587309296499</v>
+        <v>0.0075655135778935389</v>
       </c>
       <c r="DT3">
-        <v>-0.032123393919425224</v>
+        <v>0.017968249227515741</v>
       </c>
       <c r="DU3">
-        <v>-0.042740245782145719</v>
+        <v>0.032994514514616456</v>
       </c>
       <c r="DV3">
-        <v>-0.049240851837866764</v>
+        <v>0.019847107736349189</v>
       </c>
       <c r="DW3">
-        <v>-0.050671688182429356</v>
+        <v>-0.035066774509354824</v>
       </c>
       <c r="DX3">
-        <v>-0.047726189631527111</v>
+        <v>0.006749830966203586</v>
       </c>
       <c r="DY3">
-        <v>-0.033608800028959274</v>
+        <v>0.010520912286439872</v>
       </c>
       <c r="DZ3">
-        <v>-0.051028871615385489</v>
+        <v>-0.0017969070536362416</v>
       </c>
       <c r="EA3">
-        <v>-0.073147837352218872</v>
+        <v>0.0059839057137925471</v>
       </c>
       <c r="EB3">
-        <v>-0.069926242572199954</v>
+        <v>-0.00082751125041631384</v>
       </c>
       <c r="EC3">
-        <v>-0.043636379303914417</v>
+        <v>0.014694055890816049</v>
       </c>
       <c r="ED3">
-        <v>-0.066272592148029441</v>
+        <v>-0.0089738774940436514</v>
       </c>
       <c r="EE3">
-        <v>-0.026464531600536391</v>
+        <v>-0.011122560949663761</v>
       </c>
       <c r="EF3">
-        <v>-0.065075804302596768</v>
+        <v>-0.0061902493192488193</v>
       </c>
       <c r="EG3">
-        <v>-0.058886438308889406</v>
+        <v>-0.0058416736394438229</v>
       </c>
       <c r="EH3">
-        <v>-0.047657288790562753</v>
+        <v>-0.0017237201486971544</v>
       </c>
       <c r="EI3">
-        <v>-0.05271925911092766</v>
+        <v>-0.0039003370963104369</v>
       </c>
       <c r="EJ3">
-        <v>-0.047740196558465314</v>
+        <v>-0.02153567703466017</v>
       </c>
       <c r="EK3">
-        <v>-0.069146302564003642</v>
+        <v>-0.00037441236780711475</v>
       </c>
       <c r="EL3">
-        <v>-0.096638489923873833</v>
+        <v>-0.0098966069576148872</v>
       </c>
       <c r="EM3">
-        <v>-0.058531113181273929</v>
+        <v>0.0019128830972471556</v>
       </c>
       <c r="EN3">
-        <v>-0.060462115227166192</v>
+        <v>-0.0072494792465166201</v>
       </c>
       <c r="EO3">
-        <v>-0.066803930593158548</v>
+        <v>-0.038330665749273261</v>
       </c>
       <c r="EP3">
-        <v>-0.060102555315265697</v>
+        <v>-0.036585718046732364</v>
       </c>
       <c r="EQ3">
-        <v>-0.056868972320096425</v>
+        <v>-0.023658059944751172</v>
       </c>
       <c r="ER3">
-        <v>-0.04621777732946819</v>
+        <v>-0.022285043968985476</v>
       </c>
       <c r="ES3">
-        <v>-0.026549950526233393</v>
+        <v>-0.020466576753000419</v>
       </c>
       <c r="ET3">
-        <v>-0.072691002656824197</v>
+        <v>0.01699690651130013</v>
       </c>
       <c r="EU3">
-        <v>-0.052146100122413275</v>
+        <v>0.0064027304289360938</v>
       </c>
       <c r="EV3">
-        <v>-0.097381749890215363</v>
+        <v>-0.03291485295248129</v>
       </c>
       <c r="EW3">
-        <v>-0.067755019746671058</v>
+        <v>-0.034881015141911498</v>
       </c>
       <c r="EX3">
-        <v>-0.047071654824626497</v>
+        <v>-0.034575185152148344</v>
       </c>
       <c r="EY3">
-        <v>-0.071814011548131315</v>
+        <v>-0.010876479977944418</v>
       </c>
       <c r="EZ3">
-        <v>-0.096100344735899318</v>
+        <v>-0.022322148372266624</v>
       </c>
       <c r="FA3">
-        <v>-0.065169008916732329</v>
+        <v>-0.011842406862950313</v>
       </c>
       <c r="FB3">
-        <v>-0.082882164437642722</v>
+        <v>0.0049872404587113211</v>
       </c>
       <c r="FC3">
-        <v>-0.064898990196781817</v>
+        <v>0.03942528410554573</v>
       </c>
       <c r="FD3">
-        <v>-0.066841289012090868</v>
+        <v>-0.05577065028130692</v>
       </c>
       <c r="FE3">
-        <v>-0.05027952753028405</v>
+        <v>-0.0073336216325951466</v>
       </c>
       <c r="FF3">
-        <v>-0.11113757914086252</v>
+        <v>0.011037961893308933</v>
       </c>
       <c r="FG3">
-        <v>-0.13708659438715273</v>
+        <v>-0.045978854038594301</v>
       </c>
       <c r="FH3">
-        <v>-0.035215642318952689</v>
+        <v>-0.024697123020460156</v>
       </c>
       <c r="FI3">
-        <v>-0.044840081616212092</v>
+        <v>-0.049701699565657426</v>
       </c>
       <c r="FJ3">
-        <v>-0.093584123348476989</v>
+        <v>-0.011005469002480277</v>
       </c>
       <c r="FK3">
-        <v>-0.061616169901523785</v>
+        <v>-0.051040248981653373</v>
       </c>
       <c r="FL3">
-        <v>-0.070451519002637478</v>
+        <v>-0.035765933957972638</v>
       </c>
       <c r="FM3">
-        <v>-0.064941451307665085</v>
+        <v>-0.024443156539587174</v>
       </c>
       <c r="FN3">
-        <v>-0.11883508843523743</v>
+        <v>-0.037085459821557747</v>
       </c>
       <c r="FO3">
-        <v>-0.065687024435007332</v>
+        <v>-0.048049742316399899</v>
       </c>
       <c r="FP3">
-        <v>-0.11856112946344305</v>
+        <v>-0.03311327343203075</v>
       </c>
       <c r="FQ3">
-        <v>-0.083310443879783438</v>
+        <v>-0.085295878481387283</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.4370535601730117</v>
+        <v>-5.4886169742417845</v>
       </c>
     </row>
     <row r="4">
@@ -4305,526 +4305,526 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.021892218450917419</v>
+        <v>0.021154241202392687</v>
       </c>
       <c r="C4">
-        <v>0.0095474079075139519</v>
+        <v>0.0092255689018450136</v>
       </c>
       <c r="D4">
-        <v>0.013976478831018394</v>
+        <v>0.013505337753429389</v>
       </c>
       <c r="E4">
-        <v>0.016529875659187742</v>
+        <v>0.015972660675024633</v>
       </c>
       <c r="F4">
-        <v>0.015126820182460889</v>
+        <v>0.014616901593707127</v>
       </c>
       <c r="G4">
-        <v>0.012654770208675437</v>
+        <v>0.012228183359094659</v>
       </c>
       <c r="H4">
-        <v>0.010256764850374057</v>
+        <v>0.0099110137278912176</v>
       </c>
       <c r="I4">
-        <v>0.010197619729138149</v>
+        <v>0.0098538623632008684</v>
       </c>
       <c r="J4">
-        <v>0.010763007266605512</v>
+        <v>0.010400190930459898</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.023350223551408436</v>
+        <v>0.022563097579340326</v>
       </c>
       <c r="M4">
-        <v>0.023350223551408436</v>
+        <v>0.022563097579340326</v>
       </c>
       <c r="N4">
-        <v>0.02335022355140844</v>
+        <v>0.022563097579340326</v>
       </c>
       <c r="O4">
-        <v>0.023350223551408443</v>
+        <v>0.02256309757934033</v>
       </c>
       <c r="P4">
-        <v>0.02335022355140844</v>
+        <v>0.022563097579340326</v>
       </c>
       <c r="Q4">
-        <v>0.02335022355140845</v>
+        <v>0.022563097579340337</v>
       </c>
       <c r="R4">
-        <v>0.02335022355140845</v>
+        <v>0.022563097579340337</v>
       </c>
       <c r="S4">
-        <v>0.02335022355140845</v>
+        <v>0.022563097579340337</v>
       </c>
       <c r="T4">
-        <v>0.023350223551408453</v>
+        <v>0.02256309757934034</v>
       </c>
       <c r="U4">
-        <v>0.023350223551408446</v>
+        <v>0.022563097579340333</v>
       </c>
       <c r="V4">
-        <v>0.023350223551408457</v>
+        <v>0.022563097579340347</v>
       </c>
       <c r="W4">
-        <v>0.02335022355140845</v>
+        <v>0.022563097579340337</v>
       </c>
       <c r="X4">
-        <v>0.023350223551408457</v>
+        <v>0.022563097579340344</v>
       </c>
       <c r="Y4">
-        <v>0.023350223551408453</v>
+        <v>0.02256309757934034</v>
       </c>
       <c r="Z4">
-        <v>0.023350223551408457</v>
+        <v>0.022563097579340344</v>
       </c>
       <c r="AA4">
-        <v>0.023350223551408457</v>
+        <v>0.022563097579340344</v>
       </c>
       <c r="AB4">
-        <v>0.023350223551408457</v>
+        <v>0.022563097579340347</v>
       </c>
       <c r="AC4">
-        <v>0.023350223551408457</v>
+        <v>0.022563097579340347</v>
       </c>
       <c r="AD4">
-        <v>0.023350223551408457</v>
+        <v>0.022563097579340347</v>
       </c>
       <c r="AE4">
-        <v>0.023350223551408457</v>
+        <v>0.022563097579340347</v>
       </c>
       <c r="AF4">
-        <v>0.023350223551408457</v>
+        <v>0.022563097579340347</v>
       </c>
       <c r="AG4">
-        <v>0.023350223551408457</v>
+        <v>0.022563097579340347</v>
       </c>
       <c r="AH4">
-        <v>0.023350223551408457</v>
+        <v>0.022563097579340344</v>
       </c>
       <c r="AI4">
-        <v>0.023350223551408457</v>
+        <v>0.022563097579340347</v>
       </c>
       <c r="AJ4">
-        <v>0.023350223551408457</v>
+        <v>0.022563097579340347</v>
       </c>
       <c r="AK4">
-        <v>0.023350223551408464</v>
+        <v>0.022563097579340351</v>
       </c>
       <c r="AL4">
-        <v>0.023350223551408464</v>
+        <v>0.022563097579340351</v>
       </c>
       <c r="AM4">
-        <v>0.023350223551408467</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="AN4">
-        <v>0.023350223551408464</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="AO4">
-        <v>0.023350223551408467</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="AP4">
-        <v>0.023350223551408467</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="AQ4">
-        <v>0.023350223551408471</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="AR4">
-        <v>0.023350223551408471</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="AS4">
-        <v>0.023350223551408471</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="AT4">
-        <v>0.023350223551408467</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="AU4">
-        <v>0.023350223551408467</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="AV4">
-        <v>0.023350223551408467</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="AW4">
-        <v>0.023350223551408467</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="AX4">
-        <v>0.023350223551408467</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="AY4">
-        <v>0.023350223551408467</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="AZ4">
-        <v>0.023350223551408467</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="BA4">
-        <v>0.023350223551408467</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="BB4">
-        <v>0.023350223551408467</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="BC4">
-        <v>0.023350223551408471</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="BD4">
-        <v>0.023350223551408467</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="BE4">
-        <v>0.023350223551408471</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="BF4">
-        <v>0.023350223551408467</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="BG4">
-        <v>0.023350223551408471</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="BH4">
-        <v>0.023350223551408467</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="BI4">
-        <v>0.023350223551408471</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="BJ4">
-        <v>0.023350223551408471</v>
+        <v>0.022563097579340354</v>
       </c>
       <c r="BK4">
-        <v>0.023350223551408471</v>
+        <v>0.022563097579340358</v>
       </c>
       <c r="BL4">
-        <v>0.023350223551408471</v>
+        <v>0.022563097579340358</v>
       </c>
       <c r="BM4">
-        <v>0.023350223551408474</v>
+        <v>0.022563097579340361</v>
       </c>
       <c r="BN4">
-        <v>0.023350223551408474</v>
+        <v>0.022563097579340361</v>
       </c>
       <c r="BO4">
-        <v>0.023350223551408478</v>
+        <v>0.022563097579340365</v>
       </c>
       <c r="BP4">
-        <v>0.023350223551408478</v>
+        <v>0.022563097579340365</v>
       </c>
       <c r="BQ4">
-        <v>0.023337002950444798</v>
+        <v>0.022550322639137147</v>
       </c>
       <c r="BR4">
-        <v>0.023337002950444798</v>
+        <v>0.022550322639137147</v>
       </c>
       <c r="BS4">
-        <v>0.023337002950444802</v>
+        <v>0.022550322639137147</v>
       </c>
       <c r="BT4">
-        <v>0.021174470252200261</v>
+        <v>0.020460687986107777</v>
       </c>
       <c r="BU4">
-        <v>0.021174470252200265</v>
+        <v>0.02046068798610778</v>
       </c>
       <c r="BV4">
-        <v>0.024553666121517687</v>
+        <v>0.023725972619089965</v>
       </c>
       <c r="BW4">
-        <v>0.024080020292601829</v>
+        <v>0.023268293186927465</v>
       </c>
       <c r="BX4">
-        <v>0.024080020292601829</v>
+        <v>0.023268293186927465</v>
       </c>
       <c r="BY4">
-        <v>0.023720834878700584</v>
+        <v>0.022921215758521404</v>
       </c>
       <c r="BZ4">
-        <v>0.023720834878700588</v>
+        <v>0.022921215758521411</v>
       </c>
       <c r="CA4">
-        <v>0.023720834878700588</v>
+        <v>0.022921215758521411</v>
       </c>
       <c r="CB4">
-        <v>0.023429522218409545</v>
+        <v>0.022639723122454221</v>
       </c>
       <c r="CC4">
-        <v>0.023429522218409552</v>
+        <v>0.022639723122454228</v>
       </c>
       <c r="CD4">
-        <v>0.023429522218409549</v>
+        <v>0.022639723122454228</v>
       </c>
       <c r="CE4">
-        <v>0.023429522218409549</v>
+        <v>0.022639723122454228</v>
       </c>
       <c r="CF4">
-        <v>0.023429522218409552</v>
+        <v>0.022639723122454228</v>
       </c>
       <c r="CG4">
-        <v>0.023366078398627421</v>
+        <v>0.022578417966492931</v>
       </c>
       <c r="CH4">
-        <v>0.023366078398627418</v>
+        <v>0.022578417966492927</v>
       </c>
       <c r="CI4">
-        <v>0.023366078398627421</v>
+        <v>0.022578417966492927</v>
       </c>
       <c r="CJ4">
-        <v>0.023366078398627425</v>
+        <v>0.022578417966492934</v>
       </c>
       <c r="CK4">
-        <v>0.023673125615705282</v>
+        <v>0.022875114754219179</v>
       </c>
       <c r="CL4">
-        <v>0.022342500840303585</v>
+        <v>0.021589344766502493</v>
       </c>
       <c r="CM4">
-        <v>0.022342500840303588</v>
+        <v>0.021589344766502497</v>
       </c>
       <c r="CN4">
-        <v>0.020299381241519823</v>
+        <v>0.019615097848817625</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.023803134422471318</v>
+        <v>0.023000741020142389</v>
       </c>
       <c r="CQ4">
-        <v>0.024088221323601649</v>
+        <v>0.023276217764706893</v>
       </c>
       <c r="CR4">
-        <v>0.024088221323601649</v>
+        <v>0.023276217764706893</v>
       </c>
       <c r="CS4">
-        <v>0.023729160048035387</v>
+        <v>0.022929260289986042</v>
       </c>
       <c r="CT4">
-        <v>0.023729160048035387</v>
+        <v>0.022929260289986046</v>
       </c>
       <c r="CU4">
-        <v>0.023729160048035387</v>
+        <v>0.022929260289986042</v>
       </c>
       <c r="CV4">
-        <v>0.023437950862343911</v>
+        <v>0.02264786764043427</v>
       </c>
       <c r="CW4">
-        <v>0.023437950862343907</v>
+        <v>0.02264786764043427</v>
       </c>
       <c r="CX4">
-        <v>0.023437950862343911</v>
+        <v>0.022647867640434274</v>
       </c>
       <c r="CY4">
-        <v>0.023437950862343904</v>
+        <v>0.022647867640434267</v>
       </c>
       <c r="CZ4">
-        <v>0.023437950862343911</v>
+        <v>0.022647867640434274</v>
       </c>
       <c r="DA4">
-        <v>0.023404613661639734</v>
+        <v>0.022615654222397637</v>
       </c>
       <c r="DB4">
-        <v>0.02340461366163973</v>
+        <v>0.022615654222397634</v>
       </c>
       <c r="DC4">
-        <v>0.023404613661639734</v>
+        <v>0.022615654222397637</v>
       </c>
       <c r="DD4">
-        <v>0.023404613661639734</v>
+        <v>0.022615654222397637</v>
       </c>
       <c r="DE4">
-        <v>0.023404613661639734</v>
+        <v>0.022615654222397637</v>
       </c>
       <c r="DF4">
-        <v>0.021917437717841833</v>
+        <v>0.021178610338698476</v>
       </c>
       <c r="DG4">
-        <v>0.021917437717841833</v>
+        <v>0.021178610338698476</v>
       </c>
       <c r="DH4">
-        <v>0.021917437717841833</v>
+        <v>0.021178610338698476</v>
       </c>
       <c r="DI4">
-        <v>0.021917437717841836</v>
+        <v>0.021178610338698483</v>
       </c>
       <c r="DJ4">
-        <v>0.021917437717841836</v>
+        <v>0.021178610338698483</v>
       </c>
       <c r="DK4">
-        <v>0.023367135005947011</v>
+        <v>0.022579438956035171</v>
       </c>
       <c r="DL4">
-        <v>0.023367135005947011</v>
+        <v>0.022579438956035171</v>
       </c>
       <c r="DM4">
-        <v>0.023367135005947011</v>
+        <v>0.022579438956035171</v>
       </c>
       <c r="DN4">
-        <v>0.023367135005947007</v>
+        <v>0.022579438956035168</v>
       </c>
       <c r="DO4">
-        <v>0.023367135005947014</v>
+        <v>0.022579438956035171</v>
       </c>
       <c r="DP4">
-        <v>0.023367135005947011</v>
+        <v>0.022579438956035171</v>
       </c>
       <c r="DQ4">
-        <v>0.023367135005947014</v>
+        <v>0.022579438956035175</v>
       </c>
       <c r="DR4">
-        <v>0.023367135005947014</v>
+        <v>0.022579438956035171</v>
       </c>
       <c r="DS4">
-        <v>0.023367135005947032</v>
+        <v>0.022579438956035189</v>
       </c>
       <c r="DT4">
-        <v>0.023367135005947018</v>
+        <v>0.022579438956035178</v>
       </c>
       <c r="DU4">
-        <v>0.023367135005947032</v>
+        <v>0.022579438956035189</v>
       </c>
       <c r="DV4">
-        <v>0.023367135005947032</v>
+        <v>0.022579438956035189</v>
       </c>
       <c r="DW4">
-        <v>0.023367135005947032</v>
+        <v>0.022579438956035189</v>
       </c>
       <c r="DX4">
-        <v>0.023367135005947028</v>
+        <v>0.022579438956035185</v>
       </c>
       <c r="DY4">
-        <v>0.023367135005947032</v>
+        <v>0.022579438956035192</v>
       </c>
       <c r="DZ4">
-        <v>0.023367135005947032</v>
+        <v>0.022579438956035192</v>
       </c>
       <c r="EA4">
-        <v>0.023367135005947039</v>
+        <v>0.022579438956035196</v>
       </c>
       <c r="EB4">
-        <v>0.023367135005947042</v>
+        <v>0.022579438956035199</v>
       </c>
       <c r="EC4">
-        <v>0.023367135005947039</v>
+        <v>0.022579438956035196</v>
       </c>
       <c r="ED4">
-        <v>0.023367135005947039</v>
+        <v>0.022579438956035196</v>
       </c>
       <c r="EE4">
-        <v>0.023367135005947039</v>
+        <v>0.022579438956035196</v>
       </c>
       <c r="EF4">
-        <v>0.023367135005947046</v>
+        <v>0.022579438956035203</v>
       </c>
       <c r="EG4">
-        <v>0.023367135005947042</v>
+        <v>0.022579438956035199</v>
       </c>
       <c r="EH4">
-        <v>0.023367135005947049</v>
+        <v>0.022579438956035206</v>
       </c>
       <c r="EI4">
-        <v>0.023367135005947042</v>
+        <v>0.022579438956035203</v>
       </c>
       <c r="EJ4">
-        <v>0.023367135005947049</v>
+        <v>0.022579438956035206</v>
       </c>
       <c r="EK4">
-        <v>0.023367135005947046</v>
+        <v>0.022579438956035203</v>
       </c>
       <c r="EL4">
-        <v>0.023367135005947049</v>
+        <v>0.02257943895603521</v>
       </c>
       <c r="EM4">
-        <v>0.023367135005947046</v>
+        <v>0.022579438956035203</v>
       </c>
       <c r="EN4">
-        <v>0.023367135005947056</v>
+        <v>0.022579438956035213</v>
       </c>
       <c r="EO4">
-        <v>0.023367135005947042</v>
+        <v>0.022579438956035203</v>
       </c>
       <c r="EP4">
-        <v>0.023367135005947049</v>
+        <v>0.02257943895603521</v>
       </c>
       <c r="EQ4">
-        <v>0.023367135005947056</v>
+        <v>0.022579438956035213</v>
       </c>
       <c r="ER4">
-        <v>0.023367135005947056</v>
+        <v>0.022579438956035217</v>
       </c>
       <c r="ES4">
-        <v>0.023367135005947056</v>
+        <v>0.022579438956035213</v>
       </c>
       <c r="ET4">
-        <v>0.023367135005947056</v>
+        <v>0.022579438956035213</v>
       </c>
       <c r="EU4">
-        <v>0.023367135005947056</v>
+        <v>0.022579438956035213</v>
       </c>
       <c r="EV4">
-        <v>0.023367135005947053</v>
+        <v>0.02257943895603521</v>
       </c>
       <c r="EW4">
-        <v>0.023367135005947046</v>
+        <v>0.022579438956035203</v>
       </c>
       <c r="EX4">
-        <v>0.023367135005947056</v>
+        <v>0.022579438956035213</v>
       </c>
       <c r="EY4">
-        <v>0.02336713500594706</v>
+        <v>0.02257943895603522</v>
       </c>
       <c r="EZ4">
-        <v>0.02336713500594706</v>
+        <v>0.02257943895603522</v>
       </c>
       <c r="FA4">
-        <v>0.023367135005947063</v>
+        <v>0.02257943895603522</v>
       </c>
       <c r="FB4">
-        <v>0.023367135005947063</v>
+        <v>0.02257943895603522</v>
       </c>
       <c r="FC4">
-        <v>0.023367135005947063</v>
+        <v>0.02257943895603522</v>
       </c>
       <c r="FD4">
-        <v>0.023367135005947063</v>
+        <v>0.02257943895603522</v>
       </c>
       <c r="FE4">
-        <v>0.023367135005947066</v>
+        <v>0.022579438956035223</v>
       </c>
       <c r="FF4">
-        <v>0.023367135005947063</v>
+        <v>0.02257943895603522</v>
       </c>
       <c r="FG4">
-        <v>0.023367135005947066</v>
+        <v>0.022579438956035223</v>
       </c>
       <c r="FH4">
-        <v>0.023367135005947063</v>
+        <v>0.02257943895603522</v>
       </c>
       <c r="FI4">
-        <v>0.02336713500594707</v>
+        <v>0.022579438956035227</v>
       </c>
       <c r="FJ4">
-        <v>0.02336713500594707</v>
+        <v>0.022579438956035227</v>
       </c>
       <c r="FK4">
-        <v>0.023367135005947073</v>
+        <v>0.02257943895603523</v>
       </c>
       <c r="FL4">
-        <v>0.023367135005947073</v>
+        <v>0.02257943895603523</v>
       </c>
       <c r="FM4">
-        <v>0.023367135005947073</v>
+        <v>0.02257943895603523</v>
       </c>
       <c r="FN4">
-        <v>0.02336713500594707</v>
+        <v>0.02257943895603523</v>
       </c>
       <c r="FO4">
-        <v>0.023367135005947073</v>
+        <v>0.02257943895603523</v>
       </c>
       <c r="FP4">
-        <v>0.023367135005947073</v>
+        <v>0.02257943895603523</v>
       </c>
       <c r="FQ4">
-        <v>0.023367135005947077</v>
+        <v>0.022579438956035234</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.018438832907528794</v>
+        <v>0.017817267797276791</v>
       </c>
     </row>
   </sheetData>
@@ -5892,526 +5892,526 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>3.2870390882603964</v>
+        <v>3.2932012216252864</v>
       </c>
       <c r="C3">
-        <v>-1.6955174841967169</v>
+        <v>-1.6512607207783949</v>
       </c>
       <c r="D3">
-        <v>-1.7428670455932227</v>
+        <v>-1.6878591595808505</v>
       </c>
       <c r="E3">
-        <v>-1.761763132358503</v>
+        <v>-1.6979604727788808</v>
       </c>
       <c r="F3">
-        <v>0.0078322285069910985</v>
+        <v>-0.013193517935735899</v>
       </c>
       <c r="G3">
-        <v>-0.011402611284238667</v>
+        <v>-0.0044152403953462357</v>
       </c>
       <c r="H3">
-        <v>0.001186067747344011</v>
+        <v>0.010246606333560846</v>
       </c>
       <c r="I3">
-        <v>0.015813185025541594</v>
+        <v>0.0076107027787991046</v>
       </c>
       <c r="J3">
-        <v>-0.013290577405686623</v>
+        <v>-0.0099307577012974838</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.2735286869148539</v>
+        <v>1.1939354197913838</v>
       </c>
       <c r="M3">
-        <v>1.3355388507250667</v>
+        <v>1.3279166015822921</v>
       </c>
       <c r="N3">
-        <v>-0.22521771701148671</v>
+        <v>-0.150021624032045</v>
       </c>
       <c r="O3">
-        <v>-0.21747603385995809</v>
+        <v>-0.1629384322139463</v>
       </c>
       <c r="P3">
-        <v>-0.17643004207404664</v>
+        <v>-0.189583919870628</v>
       </c>
       <c r="Q3">
-        <v>-0.1611814838725952</v>
+        <v>-0.21595347365585074</v>
       </c>
       <c r="R3">
-        <v>-0.16487281221737418</v>
+        <v>-0.18914656574253677</v>
       </c>
       <c r="S3">
-        <v>-0.14535825689165724</v>
+        <v>-0.16938064007880504</v>
       </c>
       <c r="T3">
-        <v>-0.11155505346270118</v>
+        <v>-0.11491979181628235</v>
       </c>
       <c r="U3">
-        <v>-0.085941486768118122</v>
+        <v>-0.14841630993188729</v>
       </c>
       <c r="V3">
-        <v>-0.071322578741518941</v>
+        <v>-0.12665941124691504</v>
       </c>
       <c r="W3">
-        <v>-0.021817507084678195</v>
+        <v>-0.081504987685564897</v>
       </c>
       <c r="X3">
-        <v>-0.017187649103504569</v>
+        <v>-0.08846993448279912</v>
       </c>
       <c r="Y3">
-        <v>-0.086932890531166804</v>
+        <v>-0.10072966871246804</v>
       </c>
       <c r="Z3">
-        <v>-0.12285761931213442</v>
+        <v>-0.092569974816932715</v>
       </c>
       <c r="AA3">
-        <v>-0.034403395188950081</v>
+        <v>-0.085616867981467989</v>
       </c>
       <c r="AB3">
-        <v>-0.086545218020761094</v>
+        <v>-0.14398268305270254</v>
       </c>
       <c r="AC3">
-        <v>-0.075345142456327729</v>
+        <v>-0.056064442456986899</v>
       </c>
       <c r="AD3">
-        <v>-0.10599249039456216</v>
+        <v>-0.032233511934753857</v>
       </c>
       <c r="AE3">
-        <v>-0.026701604398425064</v>
+        <v>-0.093435819844484791</v>
       </c>
       <c r="AF3">
-        <v>-0.035372002268563588</v>
+        <v>-0.12173387720047092</v>
       </c>
       <c r="AG3">
-        <v>-0.010695719744729236</v>
+        <v>-0.052871239561699049</v>
       </c>
       <c r="AH3">
-        <v>0.0089304494174483485</v>
+        <v>-0.050841638361466678</v>
       </c>
       <c r="AI3">
-        <v>-0.012795819302433358</v>
+        <v>-0.042849737459924347</v>
       </c>
       <c r="AJ3">
-        <v>-0.029505312418535792</v>
+        <v>-0.020997009445290819</v>
       </c>
       <c r="AK3">
-        <v>-0.023795003282665927</v>
+        <v>-0.031479915560575167</v>
       </c>
       <c r="AL3">
-        <v>0.031655525098768574</v>
+        <v>-0.070270397313201574</v>
       </c>
       <c r="AM3">
-        <v>0.0063271208736097517</v>
+        <v>-0.040530646518620365</v>
       </c>
       <c r="AN3">
-        <v>0.00029331230538477254</v>
+        <v>-0.030110939108892131</v>
       </c>
       <c r="AO3">
-        <v>0.024025705822058138</v>
+        <v>0.025736344361814351</v>
       </c>
       <c r="AP3">
-        <v>-0.044474891073427794</v>
+        <v>-0.11313162008950628</v>
       </c>
       <c r="AQ3">
-        <v>-0.010024715219276297</v>
+        <v>-0.05298977030427203</v>
       </c>
       <c r="AR3">
-        <v>-0.051475379549371758</v>
+        <v>-0.016824892559865717</v>
       </c>
       <c r="AS3">
-        <v>-0.0027440685332634123</v>
+        <v>-0.025911616349526753</v>
       </c>
       <c r="AT3">
-        <v>0.0041796335835492891</v>
+        <v>-0.082276676161997603</v>
       </c>
       <c r="AU3">
-        <v>-0.026468694474098768</v>
+        <v>-0.048352497846923539</v>
       </c>
       <c r="AV3">
-        <v>0.06997364631541203</v>
+        <v>-0.056850195137080201</v>
       </c>
       <c r="AW3">
-        <v>0.052250147157798139</v>
+        <v>-0.076018415830805292</v>
       </c>
       <c r="AX3">
-        <v>0.014212817694520527</v>
+        <v>0.0064640975924984819</v>
       </c>
       <c r="AY3">
-        <v>0.023014776389166727</v>
+        <v>-0.0046383403139266784</v>
       </c>
       <c r="AZ3">
-        <v>-0.0017417430005115351</v>
+        <v>0.014726417626804354</v>
       </c>
       <c r="BA3">
-        <v>0.064715308333866614</v>
+        <v>-0.0026262832657027581</v>
       </c>
       <c r="BB3">
-        <v>0.0075678736637892069</v>
+        <v>-0.002932629869846408</v>
       </c>
       <c r="BC3">
-        <v>-0.017450811478516539</v>
+        <v>-0.02579811046889853</v>
       </c>
       <c r="BD3">
-        <v>0.025071479583654518</v>
+        <v>-0.04585876432223536</v>
       </c>
       <c r="BE3">
-        <v>0.018307902651642106</v>
+        <v>-0.011543390744159422</v>
       </c>
       <c r="BF3">
-        <v>0.011650183469182214</v>
+        <v>-0.067984859834111677</v>
       </c>
       <c r="BG3">
-        <v>-0.008253845135688484</v>
+        <v>-0.051355214302985126</v>
       </c>
       <c r="BH3">
-        <v>0.011491474276306412</v>
+        <v>-0.063732428450188755</v>
       </c>
       <c r="BI3">
-        <v>0.019169871563446357</v>
+        <v>0.0034076117394543138</v>
       </c>
       <c r="BJ3">
-        <v>-0.022080213142587023</v>
+        <v>-0.015574519777442794</v>
       </c>
       <c r="BK3">
-        <v>0.003901462594962954</v>
+        <v>-0.027300384572460663</v>
       </c>
       <c r="BL3">
-        <v>0.0078968575887293623</v>
+        <v>-0.017719020588693978</v>
       </c>
       <c r="BM3">
-        <v>0.032095362685143888</v>
+        <v>-0.018830394973328394</v>
       </c>
       <c r="BN3">
-        <v>-0.043926114701536234</v>
+        <v>-0.023485529727659969</v>
       </c>
       <c r="BO3">
-        <v>-0.0032099593913637097</v>
+        <v>-0.014802199454273794</v>
       </c>
       <c r="BP3">
-        <v>0.0022797379563848437</v>
+        <v>-0.050535375102720409</v>
       </c>
       <c r="BQ3">
-        <v>0.012356364873367101</v>
+        <v>-0.0096421640944716457</v>
       </c>
       <c r="BR3">
-        <v>-0.038463827738849002</v>
+        <v>-0.0020383094711870398</v>
       </c>
       <c r="BS3">
-        <v>0.002994972251554014</v>
+        <v>-0.06729115004424964</v>
       </c>
       <c r="BT3">
-        <v>0.014046919816385324</v>
+        <v>-0.051565563231982865</v>
       </c>
       <c r="BU3">
-        <v>-0.01668973545774605</v>
+        <v>-0.068127281858585562</v>
       </c>
       <c r="BV3">
-        <v>-0.10662978742258274</v>
+        <v>-0.11571671185852114</v>
       </c>
       <c r="BW3">
-        <v>-0.078355823785408882</v>
+        <v>-0.013836981227403315</v>
       </c>
       <c r="BX3">
-        <v>-0.037955540090896099</v>
+        <v>0.001874525726650136</v>
       </c>
       <c r="BY3">
-        <v>-0.030014300136061021</v>
+        <v>-0.020682728116753139</v>
       </c>
       <c r="BZ3">
-        <v>0.016602468566441469</v>
+        <v>0.025573178765408603</v>
       </c>
       <c r="CA3">
-        <v>-0.037804913992908078</v>
+        <v>-0.050736011223802543</v>
       </c>
       <c r="CB3">
-        <v>-0.013610778526782072</v>
+        <v>-0.00272158407423195</v>
       </c>
       <c r="CC3">
-        <v>-0.04136423915414681</v>
+        <v>-0.044482094330393844</v>
       </c>
       <c r="CD3">
-        <v>-0.051377337599563276</v>
+        <v>0.015135727738811559</v>
       </c>
       <c r="CE3">
-        <v>-0.0018039472988213387</v>
+        <v>-0.069892211143562893</v>
       </c>
       <c r="CF3">
-        <v>-0.044125974154457494</v>
+        <v>-0.012468925080014175</v>
       </c>
       <c r="CG3">
-        <v>-0.069806240910438092</v>
+        <v>-0.053024857362621323</v>
       </c>
       <c r="CH3">
-        <v>-0.059349146133504109</v>
+        <v>-0.048932796330407362</v>
       </c>
       <c r="CI3">
-        <v>-0.085863960805188932</v>
+        <v>-0.079732240720947811</v>
       </c>
       <c r="CJ3">
-        <v>-0.0056319241548955417</v>
+        <v>-0.037871954672902851</v>
       </c>
       <c r="CK3">
-        <v>-0.031226459781833506</v>
+        <v>-0.016461709943256683</v>
       </c>
       <c r="CL3">
-        <v>0.02353086096125168</v>
+        <v>-0.031295269854621201</v>
       </c>
       <c r="CM3">
-        <v>-0.066497153495993319</v>
+        <v>-0.0029870085715113393</v>
       </c>
       <c r="CN3">
-        <v>-0.037970711588597494</v>
+        <v>-0.020584169109952661</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.039478947241020183</v>
+        <v>0.056153922293215752</v>
       </c>
       <c r="CQ3">
-        <v>-0.024856471287488469</v>
+        <v>0.023134766106520745</v>
       </c>
       <c r="CR3">
-        <v>-0.0099905295652503862</v>
+        <v>-0.013894623467829379</v>
       </c>
       <c r="CS3">
-        <v>0.012747613852114608</v>
+        <v>0.023133496404771102</v>
       </c>
       <c r="CT3">
-        <v>-0.01502006812856449</v>
+        <v>-0.012637125692856977</v>
       </c>
       <c r="CU3">
-        <v>-0.025657253523116721</v>
+        <v>-0.011647949023424576</v>
       </c>
       <c r="CV3">
-        <v>-0.040691420567192771</v>
+        <v>-0.019416072599672807</v>
       </c>
       <c r="CW3">
-        <v>-0.044537511597132214</v>
+        <v>-0.026322934785133648</v>
       </c>
       <c r="CX3">
-        <v>-0.04371490760886533</v>
+        <v>-0.037751617333258873</v>
       </c>
       <c r="CY3">
-        <v>-0.046195271342900794</v>
+        <v>0.028254009256776617</v>
       </c>
       <c r="CZ3">
-        <v>-0.0014913755833289928</v>
+        <v>-0.039923004779283199</v>
       </c>
       <c r="DA3">
-        <v>-0.015507153204205261</v>
+        <v>-0.038585052689049278</v>
       </c>
       <c r="DB3">
-        <v>-0.0368670427913564</v>
+        <v>-0.0081856213801306046</v>
       </c>
       <c r="DC3">
-        <v>-0.071060014706421329</v>
+        <v>-0.015584358972646215</v>
       </c>
       <c r="DD3">
-        <v>-0.025406883649487202</v>
+        <v>0.0059616907550520395</v>
       </c>
       <c r="DE3">
-        <v>-0.0063803670077744335</v>
+        <v>-0.039394341449522807</v>
       </c>
       <c r="DF3">
-        <v>-0.0027249621986939749</v>
+        <v>-0.02880540038687876</v>
       </c>
       <c r="DG3">
-        <v>-0.020954320387233279</v>
+        <v>-0.030017931889535689</v>
       </c>
       <c r="DH3">
-        <v>-0.042064508805538185</v>
+        <v>0.0098723406385436349</v>
       </c>
       <c r="DI3">
-        <v>0.027809291719772151</v>
+        <v>-0.008105586385138263</v>
       </c>
       <c r="DJ3">
-        <v>-0.03552699036491902</v>
+        <v>-0.036288628950681037</v>
       </c>
       <c r="DK3">
-        <v>-0.0064206647768017076</v>
+        <v>-0.0082141438968425066</v>
       </c>
       <c r="DL3">
-        <v>-0.016360497918508611</v>
+        <v>-0.024524399328895854</v>
       </c>
       <c r="DM3">
-        <v>-0.06386472106345277</v>
+        <v>-0.029646883172070208</v>
       </c>
       <c r="DN3">
-        <v>-0.039462593291543106</v>
+        <v>-0.033704828498573911</v>
       </c>
       <c r="DO3">
-        <v>-0.019178297055886355</v>
+        <v>-0.036666409147940643</v>
       </c>
       <c r="DP3">
-        <v>-0.07072786788456796</v>
+        <v>-0.022030592849805648</v>
       </c>
       <c r="DQ3">
-        <v>-0.01137197373276932</v>
+        <v>-0.025703277364078545</v>
       </c>
       <c r="DR3">
-        <v>-0.051266791814158816</v>
+        <v>0.0093030484595432606</v>
       </c>
       <c r="DS3">
-        <v>-0.019248164818347836</v>
+        <v>-0.013398504207904331</v>
       </c>
       <c r="DT3">
-        <v>-0.013496971428476823</v>
+        <v>-0.0029957685582819335</v>
       </c>
       <c r="DU3">
-        <v>-0.024113823291197312</v>
+        <v>0.012030496728818512</v>
       </c>
       <c r="DV3">
-        <v>-0.030614429346918437</v>
+        <v>-0.0011169100494485185</v>
       </c>
       <c r="DW3">
-        <v>-0.032045265691480938</v>
+        <v>-0.056030792295152683</v>
       </c>
       <c r="DX3">
-        <v>-0.029099767140578769</v>
+        <v>-0.01421418681959416</v>
       </c>
       <c r="DY3">
-        <v>-0.014982377538010856</v>
+        <v>-0.010443105499357999</v>
       </c>
       <c r="DZ3">
-        <v>-0.032402449124437023</v>
+        <v>-0.022760924839434222</v>
       </c>
       <c r="EA3">
-        <v>-0.054521414861270497</v>
+        <v>-0.014980112072005402</v>
       </c>
       <c r="EB3">
-        <v>-0.051299820081251515</v>
+        <v>-0.021791529036214247</v>
       </c>
       <c r="EC3">
-        <v>-0.025009956812965868</v>
+        <v>-0.0062699618949814996</v>
       </c>
       <c r="ED3">
-        <v>-0.047646169657081031</v>
+        <v>-0.029937895279841663</v>
       </c>
       <c r="EE3">
-        <v>-0.007838109109587944</v>
+        <v>-0.032086578735461495</v>
       </c>
       <c r="EF3">
-        <v>-0.046449381811648267</v>
+        <v>-0.027154267105046429</v>
       </c>
       <c r="EG3">
-        <v>-0.040260015817940913</v>
+        <v>-0.026805691425241664</v>
       </c>
       <c r="EH3">
-        <v>-0.029030866299614252</v>
+        <v>-0.022687737934494811</v>
       </c>
       <c r="EI3">
-        <v>-0.034092836619979118</v>
+        <v>-0.024864354882108235</v>
       </c>
       <c r="EJ3">
-        <v>-0.029113774067516758</v>
+        <v>-0.042499694820457984</v>
       </c>
       <c r="EK3">
-        <v>-0.050519880073055017</v>
+        <v>-0.021338430153605117</v>
       </c>
       <c r="EL3">
-        <v>-0.078012067432925034</v>
+        <v>-0.030860624743412678</v>
       </c>
       <c r="EM3">
-        <v>-0.039904690690325081</v>
+        <v>-0.019051134688550606</v>
       </c>
       <c r="EN3">
-        <v>-0.041835692736217484</v>
+        <v>-0.028213497032314457</v>
       </c>
       <c r="EO3">
-        <v>-0.048177508102209797</v>
+        <v>-0.059294683535070863</v>
       </c>
       <c r="EP3">
-        <v>-0.041476132824316808</v>
+        <v>-0.057549735832530043</v>
       </c>
       <c r="EQ3">
-        <v>-0.038242549829147716</v>
+        <v>-0.044622077730548652</v>
       </c>
       <c r="ER3">
-        <v>-0.027591354838519423</v>
+        <v>-0.043249061754782707</v>
       </c>
       <c r="ES3">
-        <v>-0.0079235280352842642</v>
+        <v>-0.041430594538797688</v>
       </c>
       <c r="ET3">
-        <v>-0.054064580165875058</v>
+        <v>-0.0039671112744972961</v>
       </c>
       <c r="EU3">
-        <v>-0.033519677631464205</v>
+        <v>-0.014561287356861326</v>
       </c>
       <c r="EV3">
-        <v>-0.078755327399266162</v>
+        <v>-0.053878870738278635</v>
       </c>
       <c r="EW3">
-        <v>-0.049128597255721856</v>
+        <v>-0.055845032927708552</v>
       </c>
       <c r="EX3">
-        <v>-0.028445232333677569</v>
+        <v>-0.055539202937945509</v>
       </c>
       <c r="EY3">
-        <v>-0.053187589057181961</v>
+        <v>-0.031840497763741718</v>
       </c>
       <c r="EZ3">
-        <v>-0.077473922244949908</v>
+        <v>-0.043286166158064035</v>
       </c>
       <c r="FA3">
-        <v>-0.046542586425783058</v>
+        <v>-0.032806424648747605</v>
       </c>
       <c r="FB3">
-        <v>-0.064255741946693257</v>
+        <v>-0.015976777327085957</v>
       </c>
       <c r="FC3">
-        <v>-0.04627256770583249</v>
+        <v>0.018461266319748555</v>
       </c>
       <c r="FD3">
-        <v>-0.04821486652114107</v>
+        <v>-0.076734668067104189</v>
       </c>
       <c r="FE3">
-        <v>-0.031653105039334425</v>
+        <v>-0.028297639418392185</v>
       </c>
       <c r="FF3">
-        <v>-0.092511156649913009</v>
+        <v>-0.0099260558924877101</v>
       </c>
       <c r="FG3">
-        <v>-0.11846017189620296</v>
+        <v>-0.066942871824391167</v>
       </c>
       <c r="FH3">
-        <v>-0.016589219828002984</v>
+        <v>-0.045661140806257244</v>
       </c>
       <c r="FI3">
-        <v>-0.026213659125262412</v>
+        <v>-0.07066571735145448</v>
       </c>
       <c r="FJ3">
-        <v>-0.074957700857527343</v>
+        <v>-0.031969486788277462</v>
       </c>
       <c r="FK3">
-        <v>-0.042989747410573868</v>
+        <v>-0.072004266767450406</v>
       </c>
       <c r="FL3">
-        <v>-0.051825096511687679</v>
+        <v>-0.056729951743769748</v>
       </c>
       <c r="FM3">
-        <v>-0.046315028816715197</v>
+        <v>-0.045407174325384075</v>
       </c>
       <c r="FN3">
-        <v>-0.10020866594428764</v>
+        <v>-0.058049477607354801</v>
       </c>
       <c r="FO3">
-        <v>-0.047060601944057513</v>
+        <v>-0.069013760102197078</v>
       </c>
       <c r="FP3">
-        <v>-0.099934706972493181</v>
+        <v>-0.054077291217827644</v>
       </c>
       <c r="FQ3">
-        <v>-0.064684021388833515</v>
+        <v>-0.10625989626718438</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.4556799826639626</v>
+        <v>-5.4676529564559866</v>
       </c>
     </row>
     <row r="4">
@@ -6419,526 +6419,526 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.03140923364057896</v>
+        <v>0.032142557682104049</v>
       </c>
       <c r="C4">
-        <v>0.013697870149676406</v>
+        <v>0.014017679846830843</v>
       </c>
       <c r="D4">
-        <v>0.020052352851324035</v>
+        <v>0.020520523218143245</v>
       </c>
       <c r="E4">
-        <v>0.023715765845895333</v>
+        <v>0.024269467392930406</v>
       </c>
       <c r="F4">
-        <v>0.021702772170630734</v>
+        <v>0.022209475542721409</v>
       </c>
       <c r="G4">
-        <v>0.018156069246397833</v>
+        <v>0.018579966315340531</v>
       </c>
       <c r="H4">
-        <v>0.014715599714307449</v>
+        <v>0.01505917075394019</v>
       </c>
       <c r="I4">
-        <v>0.014630742944959746</v>
+        <v>0.014972332799385585</v>
       </c>
       <c r="J4">
-        <v>0.015441916527098004</v>
+        <v>0.015802445178198704</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.03350106471531223</v>
+        <v>0.034283227580333135</v>
       </c>
       <c r="M4">
-        <v>0.03350106471531223</v>
+        <v>0.034283227580333135</v>
       </c>
       <c r="N4">
-        <v>0.03350106471531223</v>
+        <v>0.034283227580333142</v>
       </c>
       <c r="O4">
-        <v>0.033501064715312237</v>
+        <v>0.034283227580333149</v>
       </c>
       <c r="P4">
-        <v>0.03350106471531223</v>
+        <v>0.034283227580333142</v>
       </c>
       <c r="Q4">
-        <v>0.033501064715312244</v>
+        <v>0.034283227580333156</v>
       </c>
       <c r="R4">
-        <v>0.033501064715312244</v>
+        <v>0.034283227580333156</v>
       </c>
       <c r="S4">
-        <v>0.033501064715312251</v>
+        <v>0.034283227580333156</v>
       </c>
       <c r="T4">
-        <v>0.033501064715312251</v>
+        <v>0.034283227580333156</v>
       </c>
       <c r="U4">
-        <v>0.033501064715312244</v>
+        <v>0.034283227580333149</v>
       </c>
       <c r="V4">
-        <v>0.033501064715312258</v>
+        <v>0.034283227580333163</v>
       </c>
       <c r="W4">
-        <v>0.033501064715312244</v>
+        <v>0.034283227580333156</v>
       </c>
       <c r="X4">
-        <v>0.033501064715312251</v>
+        <v>0.034283227580333163</v>
       </c>
       <c r="Y4">
-        <v>0.033501064715312251</v>
+        <v>0.034283227580333156</v>
       </c>
       <c r="Z4">
-        <v>0.033501064715312251</v>
+        <v>0.034283227580333163</v>
       </c>
       <c r="AA4">
-        <v>0.033501064715312251</v>
+        <v>0.034283227580333163</v>
       </c>
       <c r="AB4">
-        <v>0.033501064715312258</v>
+        <v>0.034283227580333163</v>
       </c>
       <c r="AC4">
-        <v>0.033501064715312258</v>
+        <v>0.034283227580333163</v>
       </c>
       <c r="AD4">
-        <v>0.033501064715312258</v>
+        <v>0.034283227580333163</v>
       </c>
       <c r="AE4">
-        <v>0.033501064715312258</v>
+        <v>0.03428322758033317</v>
       </c>
       <c r="AF4">
-        <v>0.033501064715312258</v>
+        <v>0.03428322758033317</v>
       </c>
       <c r="AG4">
-        <v>0.033501064715312258</v>
+        <v>0.03428322758033317</v>
       </c>
       <c r="AH4">
-        <v>0.033501064715312251</v>
+        <v>0.034283227580333163</v>
       </c>
       <c r="AI4">
-        <v>0.033501064715312258</v>
+        <v>0.034283227580333163</v>
       </c>
       <c r="AJ4">
-        <v>0.033501064715312258</v>
+        <v>0.03428322758033317</v>
       </c>
       <c r="AK4">
-        <v>0.033501064715312265</v>
+        <v>0.034283227580333177</v>
       </c>
       <c r="AL4">
-        <v>0.033501064715312265</v>
+        <v>0.034283227580333177</v>
       </c>
       <c r="AM4">
-        <v>0.033501064715312272</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="AN4">
-        <v>0.033501064715312272</v>
+        <v>0.034283227580333177</v>
       </c>
       <c r="AO4">
-        <v>0.033501064715312272</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="AP4">
-        <v>0.033501064715312272</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="AQ4">
-        <v>0.033501064715312279</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="AR4">
-        <v>0.033501064715312279</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="AS4">
-        <v>0.033501064715312279</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="AT4">
-        <v>0.033501064715312272</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="AU4">
-        <v>0.033501064715312272</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="AV4">
-        <v>0.033501064715312272</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="AW4">
-        <v>0.033501064715312272</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="AX4">
-        <v>0.033501064715312272</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="AY4">
-        <v>0.033501064715312272</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="AZ4">
-        <v>0.033501064715312272</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="BA4">
-        <v>0.033501064715312272</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="BB4">
-        <v>0.033501064715312272</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="BC4">
-        <v>0.033501064715312279</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="BD4">
-        <v>0.033501064715312272</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="BE4">
-        <v>0.033501064715312279</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="BF4">
-        <v>0.033501064715312272</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="BG4">
-        <v>0.033501064715312279</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="BH4">
-        <v>0.033501064715312272</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="BI4">
-        <v>0.033501064715312279</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="BJ4">
-        <v>0.033501064715312279</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="BK4">
-        <v>0.033501064715312279</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="BL4">
-        <v>0.033501064715312279</v>
+        <v>0.034283227580333184</v>
       </c>
       <c r="BM4">
-        <v>0.033501064715312286</v>
+        <v>0.034283227580333191</v>
       </c>
       <c r="BN4">
-        <v>0.033501064715312286</v>
+        <v>0.034283227580333191</v>
       </c>
       <c r="BO4">
-        <v>0.033501064715312293</v>
+        <v>0.034283227580333198</v>
       </c>
       <c r="BP4">
-        <v>0.033501064715312293</v>
+        <v>0.034283227580333198</v>
       </c>
       <c r="BQ4">
-        <v>0.033482096836590085</v>
+        <v>0.034263816850898909</v>
       </c>
       <c r="BR4">
-        <v>0.033482096836590078</v>
+        <v>0.034263816850898902</v>
       </c>
       <c r="BS4">
-        <v>0.033482096836590085</v>
+        <v>0.034263816850898909</v>
       </c>
       <c r="BT4">
-        <v>0.0303794649618516</v>
+        <v>0.031088746578847595</v>
       </c>
       <c r="BU4">
-        <v>0.030379464961851604</v>
+        <v>0.031088746578847599</v>
       </c>
       <c r="BV4">
-        <v>0.035227669487794579</v>
+        <v>0.036050144090579044</v>
       </c>
       <c r="BW4">
-        <v>0.034548119695403376</v>
+        <v>0.035354728575200889</v>
       </c>
       <c r="BX4">
-        <v>0.034548119695403376</v>
+        <v>0.035354728575200889</v>
       </c>
       <c r="BY4">
-        <v>0.034032788706412652</v>
+        <v>0.034827365945836693</v>
       </c>
       <c r="BZ4">
-        <v>0.034032788706412659</v>
+        <v>0.0348273659458367</v>
       </c>
       <c r="CA4">
-        <v>0.034032788706412659</v>
+        <v>0.0348273659458367</v>
       </c>
       <c r="CB4">
-        <v>0.033614836207443481</v>
+        <v>0.034399655341362086</v>
       </c>
       <c r="CC4">
-        <v>0.033614836207443495</v>
+        <v>0.0343996553413621</v>
       </c>
       <c r="CD4">
-        <v>0.033614836207443488</v>
+        <v>0.034399655341362093</v>
       </c>
       <c r="CE4">
-        <v>0.033614836207443488</v>
+        <v>0.034399655341362093</v>
       </c>
       <c r="CF4">
-        <v>0.033614836207443495</v>
+        <v>0.0343996553413621</v>
       </c>
       <c r="CG4">
-        <v>0.03352381200342984</v>
+        <v>0.03430650595855779</v>
       </c>
       <c r="CH4">
-        <v>0.03352381200342984</v>
+        <v>0.034306505958557783</v>
       </c>
       <c r="CI4">
-        <v>0.03352381200342984</v>
+        <v>0.03430650595855779</v>
       </c>
       <c r="CJ4">
-        <v>0.033523812003429847</v>
+        <v>0.03430650595855779</v>
       </c>
       <c r="CK4">
-        <v>0.033964339207263036</v>
+        <v>0.034757318328632651</v>
       </c>
       <c r="CL4">
-        <v>0.032055263407008386</v>
+        <v>0.032803670565959536</v>
       </c>
       <c r="CM4">
-        <v>0.032055263407008393</v>
+        <v>0.032803670565959543</v>
       </c>
       <c r="CN4">
-        <v>0.029123956057882427</v>
+        <v>0.029803924802295632</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.03415086562057297</v>
+        <v>0.034948199649318709</v>
       </c>
       <c r="CQ4">
-        <v>0.034559885889831977</v>
+        <v>0.03536676947971476</v>
       </c>
       <c r="CR4">
-        <v>0.034559885889831977</v>
+        <v>0.03536676947971476</v>
       </c>
       <c r="CS4">
-        <v>0.034044733004763246</v>
+        <v>0.034839589112536637</v>
       </c>
       <c r="CT4">
-        <v>0.034044733004763253</v>
+        <v>0.034839589112536637</v>
       </c>
       <c r="CU4">
-        <v>0.034044733004763246</v>
+        <v>0.034839589112536637</v>
       </c>
       <c r="CV4">
-        <v>0.033626928963013288</v>
+        <v>0.034412030431371796</v>
       </c>
       <c r="CW4">
-        <v>0.033626928963013288</v>
+        <v>0.034412030431371789</v>
       </c>
       <c r="CX4">
-        <v>0.033626928963013294</v>
+        <v>0.034412030431371796</v>
       </c>
       <c r="CY4">
-        <v>0.033626928963013281</v>
+        <v>0.034412030431371789</v>
       </c>
       <c r="CZ4">
-        <v>0.033626928963013294</v>
+        <v>0.034412030431371796</v>
       </c>
       <c r="DA4">
-        <v>0.033579099368758691</v>
+        <v>0.034363084140295985</v>
       </c>
       <c r="DB4">
-        <v>0.033579099368758691</v>
+        <v>0.034363084140295978</v>
       </c>
       <c r="DC4">
-        <v>0.033579099368758698</v>
+        <v>0.034363084140295985</v>
       </c>
       <c r="DD4">
-        <v>0.033579099368758691</v>
+        <v>0.034363084140295978</v>
       </c>
       <c r="DE4">
-        <v>0.033579099368758691</v>
+        <v>0.034363084140295985</v>
       </c>
       <c r="DF4">
-        <v>0.031445416261762324</v>
+        <v>0.032179585073532455</v>
       </c>
       <c r="DG4">
-        <v>0.031445416261762317</v>
+        <v>0.032179585073532448</v>
       </c>
       <c r="DH4">
-        <v>0.031445416261762324</v>
+        <v>0.032179585073532455</v>
       </c>
       <c r="DI4">
-        <v>0.031445416261762331</v>
+        <v>0.032179585073532462</v>
       </c>
       <c r="DJ4">
-        <v>0.031445416261762331</v>
+        <v>0.032179585073532462</v>
       </c>
       <c r="DK4">
-        <v>0.033525327940530585</v>
+        <v>0.034308057288853222</v>
       </c>
       <c r="DL4">
-        <v>0.033525327940530585</v>
+        <v>0.034308057288853222</v>
       </c>
       <c r="DM4">
-        <v>0.033525327940530585</v>
+        <v>0.034308057288853222</v>
       </c>
       <c r="DN4">
-        <v>0.033525327940530585</v>
+        <v>0.034308057288853222</v>
       </c>
       <c r="DO4">
-        <v>0.033525327940530592</v>
+        <v>0.034308057288853229</v>
       </c>
       <c r="DP4">
-        <v>0.033525327940530585</v>
+        <v>0.034308057288853222</v>
       </c>
       <c r="DQ4">
-        <v>0.033525327940530592</v>
+        <v>0.034308057288853229</v>
       </c>
       <c r="DR4">
-        <v>0.033525327940530592</v>
+        <v>0.034308057288853229</v>
       </c>
       <c r="DS4">
-        <v>0.033525327940530612</v>
+        <v>0.034308057288853257</v>
       </c>
       <c r="DT4">
-        <v>0.033525327940530592</v>
+        <v>0.034308057288853236</v>
       </c>
       <c r="DU4">
-        <v>0.033525327940530612</v>
+        <v>0.034308057288853257</v>
       </c>
       <c r="DV4">
-        <v>0.033525327940530612</v>
+        <v>0.034308057288853257</v>
       </c>
       <c r="DW4">
-        <v>0.033525327940530612</v>
+        <v>0.034308057288853257</v>
       </c>
       <c r="DX4">
-        <v>0.033525327940530612</v>
+        <v>0.03430805728885325</v>
       </c>
       <c r="DY4">
-        <v>0.033525327940530619</v>
+        <v>0.034308057288853257</v>
       </c>
       <c r="DZ4">
-        <v>0.033525327940530619</v>
+        <v>0.034308057288853257</v>
       </c>
       <c r="EA4">
-        <v>0.033525327940530626</v>
+        <v>0.034308057288853264</v>
       </c>
       <c r="EB4">
-        <v>0.033525327940530633</v>
+        <v>0.034308057288853271</v>
       </c>
       <c r="EC4">
-        <v>0.033525327940530626</v>
+        <v>0.034308057288853264</v>
       </c>
       <c r="ED4">
-        <v>0.033525327940530626</v>
+        <v>0.034308057288853264</v>
       </c>
       <c r="EE4">
-        <v>0.033525327940530626</v>
+        <v>0.034308057288853264</v>
       </c>
       <c r="EF4">
-        <v>0.033525327940530633</v>
+        <v>0.034308057288853278</v>
       </c>
       <c r="EG4">
-        <v>0.033525327940530633</v>
+        <v>0.034308057288853271</v>
       </c>
       <c r="EH4">
-        <v>0.03352532794053064</v>
+        <v>0.034308057288853278</v>
       </c>
       <c r="EI4">
-        <v>0.033525327940530633</v>
+        <v>0.034308057288853271</v>
       </c>
       <c r="EJ4">
-        <v>0.03352532794053064</v>
+        <v>0.034308057288853278</v>
       </c>
       <c r="EK4">
-        <v>0.033525327940530633</v>
+        <v>0.034308057288853278</v>
       </c>
       <c r="EL4">
-        <v>0.03352532794053064</v>
+        <v>0.034308057288853284</v>
       </c>
       <c r="EM4">
-        <v>0.033525327940530633</v>
+        <v>0.034308057288853278</v>
       </c>
       <c r="EN4">
-        <v>0.033525327940530647</v>
+        <v>0.034308057288853291</v>
       </c>
       <c r="EO4">
-        <v>0.033525327940530633</v>
+        <v>0.034308057288853271</v>
       </c>
       <c r="EP4">
-        <v>0.03352532794053064</v>
+        <v>0.034308057288853284</v>
       </c>
       <c r="EQ4">
-        <v>0.033525327940530654</v>
+        <v>0.034308057288853291</v>
       </c>
       <c r="ER4">
-        <v>0.033525327940530654</v>
+        <v>0.034308057288853298</v>
       </c>
       <c r="ES4">
-        <v>0.033525327940530654</v>
+        <v>0.034308057288853291</v>
       </c>
       <c r="ET4">
-        <v>0.033525327940530654</v>
+        <v>0.034308057288853291</v>
       </c>
       <c r="EU4">
-        <v>0.033525327940530654</v>
+        <v>0.034308057288853291</v>
       </c>
       <c r="EV4">
-        <v>0.033525327940530647</v>
+        <v>0.034308057288853284</v>
       </c>
       <c r="EW4">
-        <v>0.033525327940530633</v>
+        <v>0.034308057288853278</v>
       </c>
       <c r="EX4">
-        <v>0.033525327940530647</v>
+        <v>0.034308057288853291</v>
       </c>
       <c r="EY4">
-        <v>0.033525327940530654</v>
+        <v>0.034308057288853298</v>
       </c>
       <c r="EZ4">
-        <v>0.033525327940530654</v>
+        <v>0.034308057288853298</v>
       </c>
       <c r="FA4">
-        <v>0.033525327940530661</v>
+        <v>0.034308057288853298</v>
       </c>
       <c r="FB4">
-        <v>0.033525327940530661</v>
+        <v>0.034308057288853298</v>
       </c>
       <c r="FC4">
-        <v>0.033525327940530661</v>
+        <v>0.034308057288853298</v>
       </c>
       <c r="FD4">
-        <v>0.033525327940530661</v>
+        <v>0.034308057288853298</v>
       </c>
       <c r="FE4">
-        <v>0.033525327940530668</v>
+        <v>0.034308057288853305</v>
       </c>
       <c r="FF4">
-        <v>0.033525327940530661</v>
+        <v>0.034308057288853298</v>
       </c>
       <c r="FG4">
-        <v>0.033525327940530668</v>
+        <v>0.034308057288853305</v>
       </c>
       <c r="FH4">
-        <v>0.033525327940530661</v>
+        <v>0.034308057288853305</v>
       </c>
       <c r="FI4">
-        <v>0.033525327940530668</v>
+        <v>0.034308057288853305</v>
       </c>
       <c r="FJ4">
-        <v>0.033525327940530668</v>
+        <v>0.034308057288853305</v>
       </c>
       <c r="FK4">
-        <v>0.033525327940530682</v>
+        <v>0.034308057288853319</v>
       </c>
       <c r="FL4">
-        <v>0.033525327940530682</v>
+        <v>0.034308057288853319</v>
       </c>
       <c r="FM4">
-        <v>0.033525327940530682</v>
+        <v>0.034308057288853319</v>
       </c>
       <c r="FN4">
-        <v>0.033525327940530675</v>
+        <v>0.034308057288853312</v>
       </c>
       <c r="FO4">
-        <v>0.033525327940530682</v>
+        <v>0.034308057288853319</v>
       </c>
       <c r="FP4">
-        <v>0.033525327940530682</v>
+        <v>0.034308057288853319</v>
       </c>
       <c r="FQ4">
-        <v>0.033525327940530682</v>
+        <v>0.034308057288853326</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.026454587603838647</v>
+        <v>0.027072233526707106</v>
       </c>
     </row>
   </sheetData>
@@ -8006,526 +8006,526 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>1.1663950492109532</v>
+        <v>1.1301445303975992</v>
       </c>
       <c r="C3">
-        <v>-1.7292955762748894</v>
+        <v>-1.7108542879491442</v>
       </c>
       <c r="D3">
-        <v>-1.7205609917887184</v>
+        <v>-1.7130460332194495</v>
       </c>
       <c r="E3">
-        <v>-1.6960607329628077</v>
+        <v>-1.7115666806660428</v>
       </c>
       <c r="F3">
-        <v>0.88763732745222534</v>
+        <v>0.89324294347577293</v>
       </c>
       <c r="G3">
-        <v>0.7655739047692165</v>
+        <v>0.77120506022658619</v>
       </c>
       <c r="H3">
-        <v>0.61517104165746173</v>
+        <v>0.60670065005723872</v>
       </c>
       <c r="I3">
-        <v>0.45946690165401777</v>
+        <v>0.45344770187014405</v>
       </c>
       <c r="J3">
-        <v>0.34136185707352129</v>
+        <v>0.33870784529720099</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.3331217382271012</v>
+        <v>1.2958816790726455</v>
       </c>
       <c r="M3">
-        <v>1.4021306580645714</v>
+        <v>1.4413985908443694</v>
       </c>
       <c r="N3">
-        <v>-0.11573874408360293</v>
+        <v>-0.11543206455683884</v>
       </c>
       <c r="O3">
-        <v>-0.10590641373339492</v>
+        <v>-0.1112496624765219</v>
       </c>
       <c r="P3">
-        <v>-0.099299615352245629</v>
+        <v>-0.12121302881282783</v>
       </c>
       <c r="Q3">
-        <v>-0.090624988694836844</v>
+        <v>-0.073037071238313836</v>
       </c>
       <c r="R3">
-        <v>-0.08475471372361118</v>
+        <v>-0.11290434222445911</v>
       </c>
       <c r="S3">
-        <v>-0.10395451936131765</v>
+        <v>-0.069641924769167571</v>
       </c>
       <c r="T3">
-        <v>-0.11040035383546254</v>
+        <v>-0.072922905937919447</v>
       </c>
       <c r="U3">
-        <v>-0.014985941461508352</v>
+        <v>-0.14058379905199403</v>
       </c>
       <c r="V3">
-        <v>-0.054267238542575924</v>
+        <v>-0.015286163259845978</v>
       </c>
       <c r="W3">
-        <v>-0.026573853699873352</v>
+        <v>0.030460851460609679</v>
       </c>
       <c r="X3">
-        <v>0.033452468539053225</v>
+        <v>-0.045221041827704894</v>
       </c>
       <c r="Y3">
-        <v>-0.013583111802644262</v>
+        <v>-0.016112811999819555</v>
       </c>
       <c r="Z3">
-        <v>0.0019680998452691468</v>
+        <v>-0.022174031856954705</v>
       </c>
       <c r="AA3">
-        <v>0.0072843240726538144</v>
+        <v>-0.013034389197456262</v>
       </c>
       <c r="AB3">
-        <v>-0.11853787723519851</v>
+        <v>0.012392131612536845</v>
       </c>
       <c r="AC3">
-        <v>0.037054446733774546</v>
+        <v>0.031206212939990603</v>
       </c>
       <c r="AD3">
-        <v>0.030986323191029019</v>
+        <v>0.054354710817677732</v>
       </c>
       <c r="AE3">
-        <v>-0.027415076679536687</v>
+        <v>-0.030345490721808085</v>
       </c>
       <c r="AF3">
-        <v>0.022813128050400582</v>
+        <v>-0.014538206713384183</v>
       </c>
       <c r="AG3">
-        <v>0.048620438834002286</v>
+        <v>0.015049177398511172</v>
       </c>
       <c r="AH3">
-        <v>0.030037695191330718</v>
+        <v>0.047153456502821468</v>
       </c>
       <c r="AI3">
-        <v>0.046173074059877618</v>
+        <v>0.044745230006581975</v>
       </c>
       <c r="AJ3">
-        <v>0.075763383335018877</v>
+        <v>0.087208561629472894</v>
       </c>
       <c r="AK3">
-        <v>-0.0013942385050603732</v>
+        <v>0.068514679851249413</v>
       </c>
       <c r="AL3">
-        <v>0.034515778985644771</v>
+        <v>0.023128658266141532</v>
       </c>
       <c r="AM3">
-        <v>0.074546616659521739</v>
+        <v>0.0015124980162555949</v>
       </c>
       <c r="AN3">
-        <v>0.020305828752352772</v>
+        <v>0.044681509283372577</v>
       </c>
       <c r="AO3">
-        <v>0.071583800372049644</v>
+        <v>0.094345757932435076</v>
       </c>
       <c r="AP3">
-        <v>0.022423769714585175</v>
+        <v>0.054359756866554788</v>
       </c>
       <c r="AQ3">
-        <v>0.077944948976150868</v>
+        <v>0.057455201822433459</v>
       </c>
       <c r="AR3">
-        <v>-0.025863151559276321</v>
+        <v>0.10687735425126875</v>
       </c>
       <c r="AS3">
-        <v>0.041366195803113771</v>
+        <v>0.0735619777139217</v>
       </c>
       <c r="AT3">
-        <v>0.09046504531026088</v>
+        <v>0.013471381974146152</v>
       </c>
       <c r="AU3">
-        <v>0.059348522618496588</v>
+        <v>-0.020468607640566617</v>
       </c>
       <c r="AV3">
-        <v>0.04427415365360745</v>
+        <v>0.074353577176306404</v>
       </c>
       <c r="AW3">
-        <v>0.10692066357507551</v>
+        <v>0.029843582648874861</v>
       </c>
       <c r="AX3">
-        <v>0.1216507300352002</v>
+        <v>0.11459180610207002</v>
       </c>
       <c r="AY3">
-        <v>0.080624878130282657</v>
+        <v>0.032339342990928735</v>
       </c>
       <c r="AZ3">
-        <v>0.11266099884576232</v>
+        <v>0.14822206437689955</v>
       </c>
       <c r="BA3">
-        <v>0.14703806518932419</v>
+        <v>0.10234864560214814</v>
       </c>
       <c r="BB3">
-        <v>0.10425396495953379</v>
+        <v>0.12774645722883696</v>
       </c>
       <c r="BC3">
-        <v>0.10655289489412489</v>
+        <v>0.07923677443409731</v>
       </c>
       <c r="BD3">
-        <v>0.0184264233021488</v>
+        <v>0.021954153703768492</v>
       </c>
       <c r="BE3">
-        <v>0.088778069670060855</v>
+        <v>0.03255411771532675</v>
       </c>
       <c r="BF3">
-        <v>0.080268982682985726</v>
+        <v>0.031711905734806624</v>
       </c>
       <c r="BG3">
-        <v>0.040821499888315078</v>
+        <v>0.06003589577170166</v>
       </c>
       <c r="BH3">
-        <v>0.033621581155208552</v>
+        <v>0.10612488210218099</v>
       </c>
       <c r="BI3">
-        <v>0.10600352477809227</v>
+        <v>0.022396599747643284</v>
       </c>
       <c r="BJ3">
-        <v>0.054924255902834174</v>
+        <v>0.091965057599293604</v>
       </c>
       <c r="BK3">
-        <v>0.073670022286032366</v>
+        <v>0.076889419765159409</v>
       </c>
       <c r="BL3">
-        <v>0.061102690835150707</v>
+        <v>0.1019646617461249</v>
       </c>
       <c r="BM3">
-        <v>0.10178432325903763</v>
+        <v>0.051359413210594763</v>
       </c>
       <c r="BN3">
-        <v>0.051651305633391431</v>
+        <v>0.037199163972378935</v>
       </c>
       <c r="BO3">
-        <v>0.11752220763211693</v>
+        <v>0.061445426978981685</v>
       </c>
       <c r="BP3">
-        <v>0.029361667699928169</v>
+        <v>-0.006346127878770781</v>
       </c>
       <c r="BQ3">
-        <v>0.085006853737597129</v>
+        <v>0.044578568269835549</v>
       </c>
       <c r="BR3">
-        <v>0.082976401975388678</v>
+        <v>0.070897959854119702</v>
       </c>
       <c r="BS3">
-        <v>0.046380416946221428</v>
+        <v>0.035648498928420695</v>
       </c>
       <c r="BT3">
-        <v>0.074867549199553268</v>
+        <v>0.069909833435787952</v>
       </c>
       <c r="BU3">
-        <v>-0.010434634007553822</v>
+        <v>0.049615356224954103</v>
       </c>
       <c r="BV3">
-        <v>-0.065176099715770389</v>
+        <v>-0.0037472077249208402</v>
       </c>
       <c r="BW3">
-        <v>0.071804970474493093</v>
+        <v>0.08142689462776187</v>
       </c>
       <c r="BX3">
-        <v>0.063785760804816793</v>
+        <v>0.07201491239939245</v>
       </c>
       <c r="BY3">
-        <v>0.077494288121115557</v>
+        <v>0.10019820426022323</v>
       </c>
       <c r="BZ3">
-        <v>0.065823565599670161</v>
+        <v>0.091947341117280937</v>
       </c>
       <c r="CA3">
-        <v>0.013736872505487602</v>
+        <v>0.0024735548221053124</v>
       </c>
       <c r="CB3">
-        <v>0.090168813596869485</v>
+        <v>0.11686991335962475</v>
       </c>
       <c r="CC3">
-        <v>0.024256151980834032</v>
+        <v>0.059471169965710668</v>
       </c>
       <c r="CD3">
-        <v>0.03412335166528415</v>
+        <v>0.067059243895878598</v>
       </c>
       <c r="CE3">
-        <v>0.027766448140902511</v>
+        <v>0.032741334742708073</v>
       </c>
       <c r="CF3">
-        <v>-0.0021949514566677398</v>
+        <v>0.019175646174424452</v>
       </c>
       <c r="CG3">
-        <v>0.033648621655006629</v>
+        <v>0.057205987766984309</v>
       </c>
       <c r="CH3">
-        <v>0.017883491626062641</v>
+        <v>0.041340855553610355</v>
       </c>
       <c r="CI3">
-        <v>-0.021992565418901617</v>
+        <v>-0.013702750070950473</v>
       </c>
       <c r="CJ3">
-        <v>0.014763457955691926</v>
+        <v>0.0069260555639742288</v>
       </c>
       <c r="CK3">
-        <v>-0.010086161279590607</v>
+        <v>-0.0091531716695876213</v>
       </c>
       <c r="CL3">
-        <v>0.051120983902717756</v>
+        <v>-0.0061081282252553049</v>
       </c>
       <c r="CM3">
-        <v>-0.036772037456233898</v>
+        <v>0.049738915128514589</v>
       </c>
       <c r="CN3">
-        <v>-0.011274188613687078</v>
+        <v>-0.0032477373639304848</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>-0.058692153031748719</v>
+        <v>-0.014414745608443896</v>
       </c>
       <c r="CQ3">
-        <v>0.22728348520805067</v>
+        <v>0.26538715005211611</v>
       </c>
       <c r="CR3">
-        <v>0.20501180758157234</v>
+        <v>0.19921928538953027</v>
       </c>
       <c r="CS3">
-        <v>0.23994353790377404</v>
+        <v>0.25836924009824541</v>
       </c>
       <c r="CT3">
-        <v>0.18356699955201403</v>
+        <v>0.19962169645914316</v>
       </c>
       <c r="CU3">
-        <v>0.14937205375401183</v>
+        <v>0.15956968621726991</v>
       </c>
       <c r="CV3">
-        <v>0.20080298060947899</v>
+        <v>0.23160615941165694</v>
       </c>
       <c r="CW3">
-        <v>0.15296944691343806</v>
+        <v>0.19057263340789041</v>
       </c>
       <c r="CX3">
-        <v>0.14134235847527868</v>
+        <v>0.15741252948590892</v>
       </c>
       <c r="CY3">
-        <v>0.11413373290722943</v>
+        <v>0.17350676750877958</v>
       </c>
       <c r="CZ3">
-        <v>0.11850178225650702</v>
+        <v>0.11157832590557608</v>
       </c>
       <c r="DA3">
-        <v>0.15706988312639059</v>
+        <v>0.1607653622402225</v>
       </c>
       <c r="DB3">
-        <v>0.13274234795593381</v>
+        <v>0.15553851375291841</v>
       </c>
       <c r="DC3">
-        <v>0.091134019212284881</v>
+        <v>0.14049610955613329</v>
       </c>
       <c r="DD3">
-        <v>0.10381545717736215</v>
+        <v>0.12940287406456144</v>
       </c>
       <c r="DE3">
-        <v>0.095477118448101764</v>
+        <v>0.078394113399793741</v>
       </c>
       <c r="DF3">
-        <v>0.13292728766475145</v>
+        <v>0.11598663944266754</v>
       </c>
       <c r="DG3">
-        <v>0.098677917758866807</v>
+        <v>0.096607380012023347</v>
       </c>
       <c r="DH3">
-        <v>0.072461725078291614</v>
+        <v>0.11958706968208856</v>
       </c>
       <c r="DI3">
-        <v>0.10177618420706346</v>
+        <v>0.084574356773663636</v>
       </c>
       <c r="DJ3">
-        <v>0.040552463259967253</v>
+        <v>0.043831025108178059</v>
       </c>
       <c r="DK3">
-        <v>0.23098418756956945</v>
+        <v>0.2370656375323732</v>
       </c>
       <c r="DL3">
-        <v>0.20622176210047136</v>
+        <v>0.21153556261456052</v>
       </c>
       <c r="DM3">
-        <v>0.16084978865091659</v>
+        <v>0.18305655618225647</v>
       </c>
       <c r="DN3">
-        <v>0.17240047540297082</v>
+        <v>0.17008094703039597</v>
       </c>
       <c r="DO3">
-        <v>0.17474883661870522</v>
+        <v>0.16969561535643538</v>
       </c>
       <c r="DP3">
-        <v>0.12047651137185568</v>
+        <v>0.16453076999035338</v>
       </c>
       <c r="DQ3">
-        <v>0.15631264514091184</v>
+        <v>0.15308619469742074</v>
       </c>
       <c r="DR3">
-        <v>0.11688547499216224</v>
+        <v>0.17034164862800633</v>
       </c>
       <c r="DS3">
-        <v>0.14030678985594405</v>
+        <v>0.14789345298247969</v>
       </c>
       <c r="DT3">
-        <v>0.13481856200670145</v>
+        <v>0.14966620423134</v>
       </c>
       <c r="DU3">
-        <v>0.12145944297905654</v>
+        <v>0.15640342833527632</v>
       </c>
       <c r="DV3">
-        <v>0.10380419091930318</v>
+        <v>0.13267408632627423</v>
       </c>
       <c r="DW3">
-        <v>0.098864717867461135</v>
+        <v>0.084402456014858934</v>
       </c>
       <c r="DX3">
-        <v>0.095331789473541997</v>
+        <v>0.11898599410501863</v>
       </c>
       <c r="DY3">
-        <v>0.10308247732304063</v>
+        <v>0.11414431215934737</v>
       </c>
       <c r="DZ3">
-        <v>0.082858467158795468</v>
+        <v>0.094493601537820465</v>
       </c>
       <c r="EA3">
-        <v>0.056239699185318646</v>
+        <v>0.092303289321465865</v>
       </c>
       <c r="EB3">
-        <v>0.057146979149183409</v>
+        <v>0.091470521571265131</v>
       </c>
       <c r="EC3">
-        <v>0.073651903982094064</v>
+        <v>0.098286677870142711</v>
       </c>
       <c r="ED3">
-        <v>0.044029096798550806</v>
+        <v>0.06898308215073963</v>
       </c>
       <c r="EE3">
-        <v>0.079659820468421363</v>
+        <v>0.062452822669053727</v>
       </c>
       <c r="EF3">
-        <v>0.040937991497964066</v>
+        <v>0.062415777101501931</v>
       </c>
       <c r="EG3">
-        <v>0.041784330376710074</v>
+        <v>0.063671943689239605</v>
       </c>
       <c r="EH3">
-        <v>0.050706783182182226</v>
+        <v>0.064424322621059057</v>
       </c>
       <c r="EI3">
-        <v>0.047093603695864447</v>
+        <v>0.061153967453616391</v>
       </c>
       <c r="EJ3">
-        <v>0.043263547405401892</v>
+        <v>0.040059190091662887</v>
       </c>
       <c r="EK3">
-        <v>0.02642314344583915</v>
+        <v>0.055387000789794458</v>
       </c>
       <c r="EL3">
-        <v>-0.001671831198196714</v>
+        <v>0.042443046815285053</v>
       </c>
       <c r="EM3">
-        <v>0.02764750919667306</v>
+        <v>0.053251347092704619</v>
       </c>
       <c r="EN3">
-        <v>0.025712570933294553</v>
+        <v>0.039931491925435887</v>
       </c>
       <c r="EO3">
-        <v>0.018214695621269889</v>
+        <v>0.016751188436043399</v>
       </c>
       <c r="EP3">
-        <v>0.024431818462905777</v>
+        <v>0.0040878574540117564</v>
       </c>
       <c r="EQ3">
-        <v>0.025698389274414989</v>
+        <v>0.018111522743270204</v>
       </c>
       <c r="ER3">
-        <v>0.03047756781767632</v>
+        <v>0.021161505106817923</v>
       </c>
       <c r="ES3">
-        <v>0.052119203447494267</v>
+        <v>0.02428792227233649</v>
       </c>
       <c r="ET3">
-        <v>0.0014046444780070305</v>
+        <v>0.057148667899358407</v>
       </c>
       <c r="EU3">
-        <v>0.019691996579698601</v>
+        <v>0.041985857389139195</v>
       </c>
       <c r="EV3">
-        <v>-0.02413248167449434</v>
+        <v>0.0076801043798946705</v>
       </c>
       <c r="EW3">
-        <v>0.0057156153663245959</v>
+        <v>0.00087437160782210654</v>
       </c>
       <c r="EX3">
-        <v>0.021975296931391757</v>
+        <v>-0.0024070798130482376</v>
       </c>
       <c r="EY3">
-        <v>0.00075762441161722743</v>
+        <v>0.02141535150408666</v>
       </c>
       <c r="EZ3">
-        <v>-0.02941034599138356</v>
+        <v>0.0083445650545214932</v>
       </c>
       <c r="FA3">
-        <v>-0.0022061897211019007</v>
+        <v>0.018546143571000498</v>
       </c>
       <c r="FB3">
-        <v>-0.014323235920575059</v>
+        <v>0.03455192856112229</v>
       </c>
       <c r="FC3">
-        <v>0.0011848116829267254</v>
+        <v>0.069030107358047557</v>
       </c>
       <c r="FD3">
-        <v>-0.0032857507823770729</v>
+        <v>-0.026590470491840587</v>
       </c>
       <c r="FE3">
-        <v>0.016088764730797761</v>
+        <v>0.022817002405804122</v>
       </c>
       <c r="FF3">
-        <v>-0.045484758812773862</v>
+        <v>0.039267014839046391</v>
       </c>
       <c r="FG3">
-        <v>-0.071656014616651956</v>
+        <v>-0.020829494263292177</v>
       </c>
       <c r="FH3">
-        <v>0.026784822498503082</v>
+        <v>-0.00019196958739930834</v>
       </c>
       <c r="FI3">
-        <v>0.014879072603192683</v>
+        <v>-0.024835682223453049</v>
       </c>
       <c r="FJ3">
-        <v>-0.034484477649714768</v>
+        <v>0.014717222232288186</v>
       </c>
       <c r="FK3">
-        <v>-0.0027441743021916994</v>
+        <v>-0.02693368378752517</v>
       </c>
       <c r="FL3">
-        <v>-0.0092769017897622753</v>
+        <v>-0.010312424470366533</v>
       </c>
       <c r="FM3">
-        <v>-0.0049359642922195664</v>
+        <v>0.002196796235690857</v>
       </c>
       <c r="FN3">
-        <v>-0.058674547213297859</v>
+        <v>-0.015790430955149259</v>
       </c>
       <c r="FO3">
-        <v>-0.0040926017942234339</v>
+        <v>-0.024634369694622568</v>
       </c>
       <c r="FP3">
-        <v>-0.061029283964005303</v>
+        <v>-0.013214073362998194</v>
       </c>
       <c r="FQ3">
-        <v>-0.025261370848568651</v>
+        <v>-0.065298180891068133</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.4875540524472592</v>
+        <v>-5.5032454603170455</v>
       </c>
     </row>
     <row r="4">
@@ -8533,526 +8533,526 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.067504883222077983</v>
+        <v>0.067443804908878136</v>
       </c>
       <c r="C4">
-        <v>0.029439531553882556</v>
+        <v>0.029412894711584942</v>
       </c>
       <c r="D4">
-        <v>0.043096617798650004</v>
+        <v>0.043057624045989167</v>
       </c>
       <c r="E4">
-        <v>0.050970043467759067</v>
+        <v>0.050923925851815759</v>
       </c>
       <c r="F4">
-        <v>0.046643707316724813</v>
+        <v>0.046601504162992642</v>
       </c>
       <c r="G4">
-        <v>0.039021115518928513</v>
+        <v>0.038985809274382735</v>
       </c>
       <c r="H4">
-        <v>0.031626841062870899</v>
+        <v>0.031598225146336305</v>
       </c>
       <c r="I4">
-        <v>0.031444466466566873</v>
+        <v>0.031416015562282962</v>
       </c>
       <c r="J4">
-        <v>0.033187844817076297</v>
+        <v>0.033157816506776183</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.072000657109338631</v>
+        <v>0.071935511026927787</v>
       </c>
       <c r="M4">
-        <v>0.072000657109338631</v>
+        <v>0.071935511026927787</v>
       </c>
       <c r="N4">
-        <v>0.072000657109338631</v>
+        <v>0.071935511026927801</v>
       </c>
       <c r="O4">
-        <v>0.072000657109338645</v>
+        <v>0.071935511026927801</v>
       </c>
       <c r="P4">
-        <v>0.072000657109338631</v>
+        <v>0.071935511026927801</v>
       </c>
       <c r="Q4">
-        <v>0.072000657109338659</v>
+        <v>0.071935511026927829</v>
       </c>
       <c r="R4">
-        <v>0.072000657109338659</v>
+        <v>0.071935511026927829</v>
       </c>
       <c r="S4">
-        <v>0.072000657109338673</v>
+        <v>0.071935511026927829</v>
       </c>
       <c r="T4">
-        <v>0.072000657109338673</v>
+        <v>0.071935511026927842</v>
       </c>
       <c r="U4">
-        <v>0.072000657109338659</v>
+        <v>0.071935511026927815</v>
       </c>
       <c r="V4">
-        <v>0.072000657109338687</v>
+        <v>0.071935511026927842</v>
       </c>
       <c r="W4">
-        <v>0.072000657109338659</v>
+        <v>0.071935511026927829</v>
       </c>
       <c r="X4">
-        <v>0.072000657109338687</v>
+        <v>0.071935511026927842</v>
       </c>
       <c r="Y4">
-        <v>0.072000657109338673</v>
+        <v>0.071935511026927842</v>
       </c>
       <c r="Z4">
-        <v>0.072000657109338687</v>
+        <v>0.071935511026927842</v>
       </c>
       <c r="AA4">
-        <v>0.072000657109338687</v>
+        <v>0.071935511026927842</v>
       </c>
       <c r="AB4">
-        <v>0.072000657109338687</v>
+        <v>0.071935511026927842</v>
       </c>
       <c r="AC4">
-        <v>0.072000657109338687</v>
+        <v>0.071935511026927842</v>
       </c>
       <c r="AD4">
-        <v>0.072000657109338687</v>
+        <v>0.071935511026927842</v>
       </c>
       <c r="AE4">
-        <v>0.0720006571093387</v>
+        <v>0.071935511026927856</v>
       </c>
       <c r="AF4">
-        <v>0.0720006571093387</v>
+        <v>0.071935511026927856</v>
       </c>
       <c r="AG4">
-        <v>0.0720006571093387</v>
+        <v>0.071935511026927856</v>
       </c>
       <c r="AH4">
-        <v>0.072000657109338687</v>
+        <v>0.071935511026927842</v>
       </c>
       <c r="AI4">
-        <v>0.072000657109338687</v>
+        <v>0.071935511026927842</v>
       </c>
       <c r="AJ4">
-        <v>0.0720006571093387</v>
+        <v>0.071935511026927856</v>
       </c>
       <c r="AK4">
-        <v>0.0720006571093387</v>
+        <v>0.07193551102692787</v>
       </c>
       <c r="AL4">
-        <v>0.0720006571093387</v>
+        <v>0.07193551102692787</v>
       </c>
       <c r="AM4">
-        <v>0.072000657109338714</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="AN4">
-        <v>0.072000657109338714</v>
+        <v>0.07193551102692787</v>
       </c>
       <c r="AO4">
-        <v>0.072000657109338714</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="AP4">
-        <v>0.072000657109338714</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="AQ4">
-        <v>0.072000657109338728</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="AR4">
-        <v>0.072000657109338728</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="AS4">
-        <v>0.072000657109338728</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="AT4">
-        <v>0.072000657109338714</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="AU4">
-        <v>0.072000657109338714</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="AV4">
-        <v>0.072000657109338714</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="AW4">
-        <v>0.072000657109338714</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="AX4">
-        <v>0.072000657109338714</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="AY4">
-        <v>0.072000657109338714</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="AZ4">
-        <v>0.072000657109338714</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="BA4">
-        <v>0.072000657109338714</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="BB4">
-        <v>0.072000657109338714</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="BC4">
-        <v>0.072000657109338728</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="BD4">
-        <v>0.072000657109338714</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="BE4">
-        <v>0.072000657109338728</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="BF4">
-        <v>0.072000657109338714</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="BG4">
-        <v>0.072000657109338728</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="BH4">
-        <v>0.072000657109338714</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="BI4">
-        <v>0.072000657109338728</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="BJ4">
-        <v>0.072000657109338728</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="BK4">
-        <v>0.072000657109338728</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="BL4">
-        <v>0.072000657109338728</v>
+        <v>0.071935511026927884</v>
       </c>
       <c r="BM4">
-        <v>0.072000657109338742</v>
+        <v>0.071935511026927898</v>
       </c>
       <c r="BN4">
-        <v>0.072000657109338742</v>
+        <v>0.071935511026927898</v>
       </c>
       <c r="BO4">
-        <v>0.072000657109338756</v>
+        <v>0.071935511026927912</v>
       </c>
       <c r="BP4">
-        <v>0.072000657109338756</v>
+        <v>0.071935511026927912</v>
       </c>
       <c r="BQ4">
-        <v>0.071959891248803434</v>
+        <v>0.071894782051279707</v>
       </c>
       <c r="BR4">
-        <v>0.071959891248803434</v>
+        <v>0.071894782051279707</v>
       </c>
       <c r="BS4">
-        <v>0.071959891248803448</v>
+        <v>0.071894782051279721</v>
       </c>
       <c r="BT4">
-        <v>0.065291699188404689</v>
+        <v>0.065232623360671441</v>
       </c>
       <c r="BU4">
-        <v>0.065291699188404689</v>
+        <v>0.065232623360671441</v>
       </c>
       <c r="BV4">
-        <v>0.075711484787302788</v>
+        <v>0.075642981153788577</v>
       </c>
       <c r="BW4">
-        <v>0.074250992949014508</v>
+        <v>0.074183810766240837</v>
       </c>
       <c r="BX4">
-        <v>0.074250992949014508</v>
+        <v>0.074183810766240837</v>
       </c>
       <c r="BY4">
-        <v>0.073143440990548592</v>
+        <v>0.073077260919061929</v>
       </c>
       <c r="BZ4">
-        <v>0.073143440990548605</v>
+        <v>0.073077260919061943</v>
       </c>
       <c r="CA4">
-        <v>0.073143440990548605</v>
+        <v>0.073077260919061943</v>
       </c>
       <c r="CB4">
-        <v>0.072245175373560122</v>
+        <v>0.072179808051404656</v>
       </c>
       <c r="CC4">
-        <v>0.07224517537356015</v>
+        <v>0.07217980805140467</v>
       </c>
       <c r="CD4">
-        <v>0.072245175373560136</v>
+        <v>0.07217980805140467</v>
       </c>
       <c r="CE4">
-        <v>0.072245175373560136</v>
+        <v>0.07217980805140467</v>
       </c>
       <c r="CF4">
-        <v>0.07224517537356015</v>
+        <v>0.07217980805140467</v>
       </c>
       <c r="CG4">
-        <v>0.072049545695592285</v>
+        <v>0.071984355378864731</v>
       </c>
       <c r="CH4">
-        <v>0.072049545695592271</v>
+        <v>0.071984355378864731</v>
       </c>
       <c r="CI4">
-        <v>0.072049545695592271</v>
+        <v>0.071984355378864731</v>
       </c>
       <c r="CJ4">
-        <v>0.072049545695592285</v>
+        <v>0.071984355378864745</v>
       </c>
       <c r="CK4">
-        <v>0.072996328982036077</v>
+        <v>0.072930282017265577</v>
       </c>
       <c r="CL4">
-        <v>0.068893333651650485</v>
+        <v>0.068830999070664478</v>
       </c>
       <c r="CM4">
-        <v>0.068893333651650498</v>
+        <v>0.068830999070664492</v>
       </c>
       <c r="CN4">
-        <v>0.062593353125060355</v>
+        <v>0.062536718756642531</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.073397212489491437</v>
+        <v>0.073330802805947781</v>
       </c>
       <c r="CQ4">
-        <v>0.074276280913374293</v>
+        <v>0.074209075850089859</v>
       </c>
       <c r="CR4">
-        <v>0.074276280913374293</v>
+        <v>0.074209075850089859</v>
       </c>
       <c r="CS4">
-        <v>0.073169111736755041</v>
+        <v>0.0731029084384172</v>
       </c>
       <c r="CT4">
-        <v>0.073169111736755055</v>
+        <v>0.0731029084384172</v>
       </c>
       <c r="CU4">
-        <v>0.073169111736755041</v>
+        <v>0.0731029084384172</v>
       </c>
       <c r="CV4">
-        <v>0.072271165184770239</v>
+        <v>0.072205774347074064</v>
       </c>
       <c r="CW4">
-        <v>0.072271165184770225</v>
+        <v>0.07220577434707405</v>
       </c>
       <c r="CX4">
-        <v>0.072271165184770239</v>
+        <v>0.072205774347074064</v>
       </c>
       <c r="CY4">
-        <v>0.072271165184770211</v>
+        <v>0.072205774347074037</v>
       </c>
       <c r="CZ4">
-        <v>0.072271165184770239</v>
+        <v>0.072205774347074064</v>
       </c>
       <c r="DA4">
-        <v>0.072168369579768771</v>
+        <v>0.072103071751375897</v>
       </c>
       <c r="DB4">
-        <v>0.072168369579768757</v>
+        <v>0.072103071751375883</v>
       </c>
       <c r="DC4">
-        <v>0.072168369579768771</v>
+        <v>0.072103071751375897</v>
       </c>
       <c r="DD4">
-        <v>0.072168369579768757</v>
+        <v>0.072103071751375883</v>
       </c>
       <c r="DE4">
-        <v>0.072168369579768771</v>
+        <v>0.072103071751375897</v>
       </c>
       <c r="DF4">
-        <v>0.067582647093861734</v>
+        <v>0.0675214984200318</v>
       </c>
       <c r="DG4">
-        <v>0.06758264709386172</v>
+        <v>0.0675214984200318</v>
       </c>
       <c r="DH4">
-        <v>0.067582647093861734</v>
+        <v>0.0675214984200318</v>
       </c>
       <c r="DI4">
-        <v>0.067582647093861747</v>
+        <v>0.067521498420031814</v>
       </c>
       <c r="DJ4">
-        <v>0.067582647093861747</v>
+        <v>0.067521498420031814</v>
       </c>
       <c r="DK4">
-        <v>0.072052803755248515</v>
+        <v>0.071987610490633666</v>
       </c>
       <c r="DL4">
-        <v>0.072052803755248515</v>
+        <v>0.071987610490633666</v>
       </c>
       <c r="DM4">
-        <v>0.072052803755248515</v>
+        <v>0.071987610490633666</v>
       </c>
       <c r="DN4">
-        <v>0.072052803755248501</v>
+        <v>0.071987610490633666</v>
       </c>
       <c r="DO4">
-        <v>0.072052803755248529</v>
+        <v>0.07198761049063368</v>
       </c>
       <c r="DP4">
-        <v>0.072052803755248515</v>
+        <v>0.071987610490633666</v>
       </c>
       <c r="DQ4">
-        <v>0.072052803755248529</v>
+        <v>0.07198761049063368</v>
       </c>
       <c r="DR4">
-        <v>0.072052803755248529</v>
+        <v>0.07198761049063368</v>
       </c>
       <c r="DS4">
-        <v>0.072052803755248571</v>
+        <v>0.071987610490633736</v>
       </c>
       <c r="DT4">
-        <v>0.072052803755248529</v>
+        <v>0.071987610490633694</v>
       </c>
       <c r="DU4">
-        <v>0.072052803755248571</v>
+        <v>0.071987610490633736</v>
       </c>
       <c r="DV4">
-        <v>0.072052803755248571</v>
+        <v>0.071987610490633736</v>
       </c>
       <c r="DW4">
-        <v>0.072052803755248571</v>
+        <v>0.071987610490633736</v>
       </c>
       <c r="DX4">
-        <v>0.072052803755248571</v>
+        <v>0.071987610490633722</v>
       </c>
       <c r="DY4">
-        <v>0.072052803755248584</v>
+        <v>0.071987610490633736</v>
       </c>
       <c r="DZ4">
-        <v>0.072052803755248584</v>
+        <v>0.071987610490633736</v>
       </c>
       <c r="EA4">
-        <v>0.072052803755248598</v>
+        <v>0.071987610490633763</v>
       </c>
       <c r="EB4">
-        <v>0.072052803755248612</v>
+        <v>0.071987610490633763</v>
       </c>
       <c r="EC4">
-        <v>0.072052803755248598</v>
+        <v>0.071987610490633763</v>
       </c>
       <c r="ED4">
-        <v>0.072052803755248598</v>
+        <v>0.071987610490633763</v>
       </c>
       <c r="EE4">
-        <v>0.072052803755248598</v>
+        <v>0.071987610490633763</v>
       </c>
       <c r="EF4">
-        <v>0.072052803755248626</v>
+        <v>0.071987610490633777</v>
       </c>
       <c r="EG4">
-        <v>0.072052803755248612</v>
+        <v>0.071987610490633763</v>
       </c>
       <c r="EH4">
-        <v>0.072052803755248626</v>
+        <v>0.071987610490633791</v>
       </c>
       <c r="EI4">
-        <v>0.072052803755248626</v>
+        <v>0.071987610490633777</v>
       </c>
       <c r="EJ4">
-        <v>0.072052803755248626</v>
+        <v>0.071987610490633791</v>
       </c>
       <c r="EK4">
-        <v>0.072052803755248626</v>
+        <v>0.071987610490633777</v>
       </c>
       <c r="EL4">
-        <v>0.07205280375524864</v>
+        <v>0.071987610490633791</v>
       </c>
       <c r="EM4">
-        <v>0.072052803755248626</v>
+        <v>0.071987610490633777</v>
       </c>
       <c r="EN4">
-        <v>0.072052803755248654</v>
+        <v>0.071987610490633805</v>
       </c>
       <c r="EO4">
-        <v>0.072052803755248626</v>
+        <v>0.071987610490633777</v>
       </c>
       <c r="EP4">
-        <v>0.07205280375524864</v>
+        <v>0.071987610490633791</v>
       </c>
       <c r="EQ4">
-        <v>0.072052803755248654</v>
+        <v>0.071987610490633805</v>
       </c>
       <c r="ER4">
-        <v>0.072052803755248668</v>
+        <v>0.071987610490633819</v>
       </c>
       <c r="ES4">
-        <v>0.072052803755248654</v>
+        <v>0.071987610490633805</v>
       </c>
       <c r="ET4">
-        <v>0.072052803755248654</v>
+        <v>0.071987610490633805</v>
       </c>
       <c r="EU4">
-        <v>0.072052803755248654</v>
+        <v>0.071987610490633805</v>
       </c>
       <c r="EV4">
-        <v>0.07205280375524864</v>
+        <v>0.071987610490633805</v>
       </c>
       <c r="EW4">
-        <v>0.072052803755248626</v>
+        <v>0.071987610490633777</v>
       </c>
       <c r="EX4">
-        <v>0.072052803755248654</v>
+        <v>0.071987610490633805</v>
       </c>
       <c r="EY4">
-        <v>0.072052803755248668</v>
+        <v>0.071987610490633819</v>
       </c>
       <c r="EZ4">
-        <v>0.072052803755248668</v>
+        <v>0.071987610490633819</v>
       </c>
       <c r="FA4">
-        <v>0.072052803755248668</v>
+        <v>0.071987610490633833</v>
       </c>
       <c r="FB4">
-        <v>0.072052803755248668</v>
+        <v>0.071987610490633833</v>
       </c>
       <c r="FC4">
-        <v>0.072052803755248668</v>
+        <v>0.071987610490633833</v>
       </c>
       <c r="FD4">
-        <v>0.072052803755248668</v>
+        <v>0.071987610490633833</v>
       </c>
       <c r="FE4">
-        <v>0.072052803755248682</v>
+        <v>0.071987610490633847</v>
       </c>
       <c r="FF4">
-        <v>0.072052803755248668</v>
+        <v>0.071987610490633833</v>
       </c>
       <c r="FG4">
-        <v>0.072052803755248682</v>
+        <v>0.071987610490633847</v>
       </c>
       <c r="FH4">
-        <v>0.072052803755248682</v>
+        <v>0.071987610490633833</v>
       </c>
       <c r="FI4">
-        <v>0.072052803755248696</v>
+        <v>0.071987610490633847</v>
       </c>
       <c r="FJ4">
-        <v>0.072052803755248696</v>
+        <v>0.071987610490633847</v>
       </c>
       <c r="FK4">
-        <v>0.072052803755248709</v>
+        <v>0.07198761049063386</v>
       </c>
       <c r="FL4">
-        <v>0.072052803755248709</v>
+        <v>0.07198761049063386</v>
       </c>
       <c r="FM4">
-        <v>0.072052803755248709</v>
+        <v>0.07198761049063386</v>
       </c>
       <c r="FN4">
-        <v>0.072052803755248709</v>
+        <v>0.07198761049063386</v>
       </c>
       <c r="FO4">
-        <v>0.072052803755248709</v>
+        <v>0.07198761049063386</v>
       </c>
       <c r="FP4">
-        <v>0.072052803755248709</v>
+        <v>0.07198761049063386</v>
       </c>
       <c r="FQ4">
-        <v>0.072052803755248723</v>
+        <v>0.071987610490633874</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.056856332991779494</v>
+        <v>0.056804889470242793</v>
       </c>
     </row>
   </sheetData>

--- a/tables/ols_coefficients.xlsx
+++ b/tables/ols_coefficients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="10548" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="12672" uniqueCount="182">
   <si>
     <t>y1</t>
   </si>
@@ -1664,526 +1664,526 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>-0.012018431116090435</v>
+        <v>0.010873971935316796</v>
       </c>
       <c r="C3">
-        <v>-1.5671254785620896</v>
+        <v>-1.5695591196545267</v>
       </c>
       <c r="D3">
-        <v>-1.6113837870924665</v>
+        <v>-1.5910077702644723</v>
       </c>
       <c r="E3">
-        <v>-1.6250534147521731</v>
+        <v>-1.6259337127535212</v>
       </c>
       <c r="F3">
-        <v>-0.0074728230472736797</v>
+        <v>-0.024076663400509658</v>
       </c>
       <c r="G3">
-        <v>0.0097002605590703235</v>
+        <v>0.0097417268711300197</v>
       </c>
       <c r="H3">
-        <v>-0.0035823254014740527</v>
+        <v>-0.0030274407523102429</v>
       </c>
       <c r="I3">
-        <v>0.01120707908223542</v>
+        <v>0.0032529220973327813</v>
       </c>
       <c r="J3">
-        <v>-0.010455780797783459</v>
+        <v>0.0035601478920074289</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.2618906433421819</v>
+        <v>1.232157948546492</v>
       </c>
       <c r="M3">
-        <v>1.3488173982800238</v>
+        <v>1.3145166446322116</v>
       </c>
       <c r="N3">
-        <v>-0.14961177036466322</v>
+        <v>-0.24092636015617244</v>
       </c>
       <c r="O3">
-        <v>-0.10648292142405627</v>
+        <v>-0.18595595595222758</v>
       </c>
       <c r="P3">
-        <v>-0.17006982438826254</v>
+        <v>-0.17663846128835511</v>
       </c>
       <c r="Q3">
-        <v>-0.17361419548288329</v>
+        <v>-0.16871953726064001</v>
       </c>
       <c r="R3">
-        <v>-0.16254573971592287</v>
+        <v>-0.16725537525125514</v>
       </c>
       <c r="S3">
-        <v>-0.12275975962495247</v>
+        <v>-0.12476917658699414</v>
       </c>
       <c r="T3">
-        <v>-0.13403245019698135</v>
+        <v>-0.1585627445036947</v>
       </c>
       <c r="U3">
-        <v>-0.11984489813881102</v>
+        <v>-0.15177721330374494</v>
       </c>
       <c r="V3">
-        <v>-0.10191047721995909</v>
+        <v>-0.074720987111189241</v>
       </c>
       <c r="W3">
-        <v>-0.10106063827305235</v>
+        <v>-0.10726040055870795</v>
       </c>
       <c r="X3">
-        <v>-0.049336761911879204</v>
+        <v>-0.059832989429566941</v>
       </c>
       <c r="Y3">
-        <v>-0.088657152864627192</v>
+        <v>-0.15582909527994124</v>
       </c>
       <c r="Z3">
-        <v>-0.074792514897204801</v>
+        <v>-0.057509799316288031</v>
       </c>
       <c r="AA3">
-        <v>-0.041251753838975634</v>
+        <v>-0.09832825506108997</v>
       </c>
       <c r="AB3">
-        <v>-0.098924136887874936</v>
+        <v>-0.10266178754344694</v>
       </c>
       <c r="AC3">
-        <v>-0.003075799496380417</v>
+        <v>-0.089198098073001539</v>
       </c>
       <c r="AD3">
-        <v>0.0026137147761114052</v>
+        <v>-0.082681141056823462</v>
       </c>
       <c r="AE3">
-        <v>-0.091101922114137548</v>
+        <v>-0.030092117047275962</v>
       </c>
       <c r="AF3">
-        <v>-0.017656372708673016</v>
+        <v>-0.074224383357106433</v>
       </c>
       <c r="AG3">
-        <v>-0.016941704656228036</v>
+        <v>-0.043233764381941486</v>
       </c>
       <c r="AH3">
-        <v>-0.0044423878117278992</v>
+        <v>-0.11832113934887306</v>
       </c>
       <c r="AI3">
-        <v>-0.025987735515947984</v>
+        <v>-0.043261009066988272</v>
       </c>
       <c r="AJ3">
-        <v>0.076914074683408731</v>
+        <v>-0.041732918778926952</v>
       </c>
       <c r="AK3">
-        <v>-0.014817910885264979</v>
+        <v>-0.041779236369992069</v>
       </c>
       <c r="AL3">
-        <v>0.013783331081105426</v>
+        <v>-0.0091585267387975806</v>
       </c>
       <c r="AM3">
-        <v>-0.059647845556946889</v>
+        <v>-0.034449456350762644</v>
       </c>
       <c r="AN3">
-        <v>0.021124508151223163</v>
+        <v>-0.052183272098302383</v>
       </c>
       <c r="AO3">
-        <v>0.036663773079883354</v>
+        <v>-0.059263378104592063</v>
       </c>
       <c r="AP3">
-        <v>0.0031279374611043994</v>
+        <v>0.0060080656448171033</v>
       </c>
       <c r="AQ3">
-        <v>-0.031068335742088879</v>
+        <v>0.017770536024349515</v>
       </c>
       <c r="AR3">
-        <v>0.049557123677455711</v>
+        <v>-0.037581341624739292</v>
       </c>
       <c r="AS3">
-        <v>-0.045555179353352411</v>
+        <v>0.0075583906034017772</v>
       </c>
       <c r="AT3">
-        <v>-0.026043889221436165</v>
+        <v>-0.01518771027042602</v>
       </c>
       <c r="AU3">
-        <v>-0.022492336821177662</v>
+        <v>0.014514671626748448</v>
       </c>
       <c r="AV3">
-        <v>0.014676999967455718</v>
+        <v>0.010280603625318296</v>
       </c>
       <c r="AW3">
-        <v>-0.00054280476935390776</v>
+        <v>-0.0063021283288647121</v>
       </c>
       <c r="AX3">
-        <v>-0.0020291520928944332</v>
+        <v>0.003623442307405229</v>
       </c>
       <c r="AY3">
-        <v>-0.0065337153359704874</v>
+        <v>-0.045722900250981593</v>
       </c>
       <c r="AZ3">
-        <v>0.060285670679482414</v>
+        <v>-0.031204796865035259</v>
       </c>
       <c r="BA3">
-        <v>0.052460208722005144</v>
+        <v>-0.05999546794836403</v>
       </c>
       <c r="BB3">
-        <v>0.0074625325199102624</v>
+        <v>0.0056575568597054642</v>
       </c>
       <c r="BC3">
-        <v>0.013669084443798465</v>
+        <v>-0.016607428353379621</v>
       </c>
       <c r="BD3">
-        <v>-0.02404189796939861</v>
+        <v>-0.03863621697992832</v>
       </c>
       <c r="BE3">
-        <v>-0.0029441286437672065</v>
+        <v>-0.0027472139645119951</v>
       </c>
       <c r="BF3">
-        <v>0.013352309813916432</v>
+        <v>-0.053982069811353894</v>
       </c>
       <c r="BG3">
-        <v>-0.018347059212202563</v>
+        <v>-0.032674132760151596</v>
       </c>
       <c r="BH3">
-        <v>0.010591703444232192</v>
+        <v>-0.013602328147320422</v>
       </c>
       <c r="BI3">
-        <v>0.016901503100957772</v>
+        <v>-0.016170148728883001</v>
       </c>
       <c r="BJ3">
-        <v>0.012405215753739216</v>
+        <v>0.0050320250177336842</v>
       </c>
       <c r="BK3">
-        <v>-0.025168395365280767</v>
+        <v>0.020814683484856298</v>
       </c>
       <c r="BL3">
-        <v>0.0041406723754424044</v>
+        <v>-0.011782532386813614</v>
       </c>
       <c r="BM3">
-        <v>-0.037942575357752174</v>
+        <v>-0.049485189829811739</v>
       </c>
       <c r="BN3">
-        <v>0.027243386076453744</v>
+        <v>-0.036777838294513046</v>
       </c>
       <c r="BO3">
-        <v>0.015225416866979988</v>
+        <v>-0.083296906018414302</v>
       </c>
       <c r="BP3">
-        <v>-0.036724037822217483</v>
+        <v>0.026075497339771159</v>
       </c>
       <c r="BQ3">
-        <v>0.0078503512459540872</v>
+        <v>-0.037948299700908412</v>
       </c>
       <c r="BR3">
-        <v>-0.0082832618158473689</v>
+        <v>0.0011065369088539437</v>
       </c>
       <c r="BS3">
-        <v>0.022970324381413249</v>
+        <v>-0.071889618404464534</v>
       </c>
       <c r="BT3">
-        <v>0.022775404119614463</v>
+        <v>-0.001578930436228356</v>
       </c>
       <c r="BU3">
-        <v>-0.025590699641365545</v>
+        <v>0.058713899910443401</v>
       </c>
       <c r="BV3">
-        <v>-0.038444975543525689</v>
+        <v>-0.052145865121227895</v>
       </c>
       <c r="BW3">
-        <v>0.011459513532562103</v>
+        <v>0.026222619737877498</v>
       </c>
       <c r="BX3">
-        <v>-0.018506227180186154</v>
+        <v>-0.0091414399434309405</v>
       </c>
       <c r="BY3">
-        <v>-0.041914308687434509</v>
+        <v>-0.05255436901198348</v>
       </c>
       <c r="BZ3">
-        <v>0.030066721039379296</v>
+        <v>0.0026512751647467057</v>
       </c>
       <c r="CA3">
-        <v>-0.064400987444181171</v>
+        <v>-0.057672417602280375</v>
       </c>
       <c r="CB3">
-        <v>0.036393803586693023</v>
+        <v>-0.026830705579085203</v>
       </c>
       <c r="CC3">
-        <v>-0.018329668798425191</v>
+        <v>-0.025879761149771748</v>
       </c>
       <c r="CD3">
-        <v>0.037433369346702994</v>
+        <v>-0.027119002955012038</v>
       </c>
       <c r="CE3">
-        <v>-0.012810715136562031</v>
+        <v>-0.04203458063410434</v>
       </c>
       <c r="CF3">
-        <v>0.0017956784212676375</v>
+        <v>-0.01734524747513105</v>
       </c>
       <c r="CG3">
-        <v>-0.040618899425954598</v>
+        <v>-0.052370395164096112</v>
       </c>
       <c r="CH3">
-        <v>-0.026450331558639059</v>
+        <v>0.0027753468571003088</v>
       </c>
       <c r="CI3">
-        <v>-0.079803698934508546</v>
+        <v>-0.0036436190849620928</v>
       </c>
       <c r="CJ3">
-        <v>-0.038448727001804128</v>
+        <v>-0.048360626446827218</v>
       </c>
       <c r="CK3">
-        <v>-0.022480158088698406</v>
+        <v>0.059732614204079833</v>
       </c>
       <c r="CL3">
-        <v>-0.012178001567089008</v>
+        <v>-0.058843931048853992</v>
       </c>
       <c r="CM3">
-        <v>0.027177239838563894</v>
+        <v>0.0077541054866804493</v>
       </c>
       <c r="CN3">
-        <v>0.031597542410313408</v>
+        <v>-0.037674585335257672</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.013822933595289142</v>
+        <v>-0.014481608563882954</v>
       </c>
       <c r="CQ3">
-        <v>0.031313331921547942</v>
+        <v>0.0028175972026430896</v>
       </c>
       <c r="CR3">
-        <v>-0.005716057652801961</v>
+        <v>0.0035812151800031591</v>
       </c>
       <c r="CS3">
-        <v>0.027114659186821238</v>
+        <v>-0.026881410030326767</v>
       </c>
       <c r="CT3">
-        <v>-0.0086559629108066884</v>
+        <v>-0.024835317218392813</v>
       </c>
       <c r="CU3">
-        <v>-0.0076667862413742028</v>
+        <v>-0.040590658696388296</v>
       </c>
       <c r="CV3">
-        <v>-0.0014626934728966716</v>
+        <v>-0.0066681493472026772</v>
       </c>
       <c r="CW3">
-        <v>-0.008369555658357359</v>
+        <v>0.011489987520346474</v>
       </c>
       <c r="CX3">
-        <v>-0.019798238206482514</v>
+        <v>-0.028809980360088361</v>
       </c>
       <c r="CY3">
-        <v>0.046207388383553059</v>
+        <v>-0.012457816225445176</v>
       </c>
       <c r="CZ3">
-        <v>-0.02196962565250676</v>
+        <v>-0.017966450344251202</v>
       </c>
       <c r="DA3">
-        <v>-0.02934432758150856</v>
+        <v>-0.020917546118073893</v>
       </c>
       <c r="DB3">
-        <v>0.0010551037274095802</v>
+        <v>-0.020743532222189266</v>
       </c>
       <c r="DC3">
-        <v>-0.006343633865105806</v>
+        <v>-0.048364829345011531</v>
       </c>
       <c r="DD3">
-        <v>0.015202415862592524</v>
+        <v>-0.0023814416600182412</v>
       </c>
       <c r="DE3">
-        <v>-0.03015361634198209</v>
+        <v>-0.0071808267992881933</v>
       </c>
       <c r="DF3">
-        <v>-0.017503975579377003</v>
+        <v>-0.049222713213121307</v>
       </c>
       <c r="DG3">
-        <v>-0.018716507082033377</v>
+        <v>-0.023336314548942475</v>
       </c>
       <c r="DH3">
-        <v>0.021173765446045548</v>
+        <v>-0.014347829090806136</v>
       </c>
       <c r="DI3">
-        <v>0.0031958384223635737</v>
+        <v>-0.036434144203301877</v>
       </c>
       <c r="DJ3">
-        <v>-0.024987204143178805</v>
+        <v>-0.025126930144496892</v>
       </c>
       <c r="DK3">
-        <v>0.0028247693624165898</v>
+        <v>-0.03595380961557898</v>
       </c>
       <c r="DL3">
-        <v>-0.013485486069636616</v>
+        <v>-0.026109575922622013</v>
       </c>
       <c r="DM3">
-        <v>-0.018607969912810815</v>
+        <v>-0.04008053723170462</v>
       </c>
       <c r="DN3">
-        <v>-0.022665915239314591</v>
+        <v>0.013320504517849548</v>
       </c>
       <c r="DO3">
-        <v>-0.02562749588868124</v>
+        <v>-0.014343928793767008</v>
       </c>
       <c r="DP3">
-        <v>-0.010991679590546175</v>
+        <v>-0.035309437621812795</v>
       </c>
       <c r="DQ3">
-        <v>-0.014664364104818911</v>
+        <v>-0.051795061244836432</v>
       </c>
       <c r="DR3">
-        <v>0.020341961718802662</v>
+        <v>-0.017034263606175111</v>
       </c>
       <c r="DS3">
-        <v>-0.0023595909486450071</v>
+        <v>-0.0039726251658615411</v>
       </c>
       <c r="DT3">
-        <v>0.0080431447009773182</v>
+        <v>0.0090662417736400575</v>
       </c>
       <c r="DU3">
-        <v>0.023069409988077914</v>
+        <v>-0.030670728967292626</v>
       </c>
       <c r="DV3">
-        <v>0.00992200320981073</v>
+        <v>-0.017825313906565911</v>
       </c>
       <c r="DW3">
-        <v>-0.044991879035893204</v>
+        <v>-0.021976601494431567</v>
       </c>
       <c r="DX3">
-        <v>-0.003175273560334676</v>
+        <v>-0.039144826585709835</v>
       </c>
       <c r="DY3">
-        <v>0.00059580775990156361</v>
+        <v>-0.051045341588164449</v>
       </c>
       <c r="DZ3">
-        <v>-0.011722011580174661</v>
+        <v>-0.017688688383096157</v>
       </c>
       <c r="EA3">
-        <v>-0.003941198812745835</v>
+        <v>-0.022786453440002064</v>
       </c>
       <c r="EB3">
-        <v>-0.010752615776954692</v>
+        <v>-0.03208874223532579</v>
       </c>
       <c r="EC3">
-        <v>0.0047689513642778991</v>
+        <v>-0.052911265069018262</v>
       </c>
       <c r="ED3">
-        <v>-0.018898982020581868</v>
+        <v>-0.015765646295234265</v>
       </c>
       <c r="EE3">
-        <v>-0.021047665476202015</v>
+        <v>-0.018118618776424122</v>
       </c>
       <c r="EF3">
-        <v>-0.01611535384578687</v>
+        <v>-0.050250975866753547</v>
       </c>
       <c r="EG3">
-        <v>-0.015766778165982029</v>
+        <v>-0.044087249986706094</v>
       </c>
       <c r="EH3">
-        <v>-0.011648824675235325</v>
+        <v>-0.013241798403286157</v>
       </c>
       <c r="EI3">
-        <v>-0.013825441622848607</v>
+        <v>-0.031595650227881376</v>
       </c>
       <c r="EJ3">
-        <v>-0.031460781561198428</v>
+        <v>0.0081964937583764875</v>
       </c>
       <c r="EK3">
-        <v>-0.010299516894345249</v>
+        <v>-0.027425216327186135</v>
       </c>
       <c r="EL3">
-        <v>-0.01982171148415305</v>
+        <v>-0.035235175312336157</v>
       </c>
       <c r="EM3">
-        <v>-0.0080122214292910367</v>
+        <v>-0.047574141727252807</v>
       </c>
       <c r="EN3">
-        <v>-0.017174583773054884</v>
+        <v>-0.030950260170512896</v>
       </c>
       <c r="EO3">
-        <v>-0.048255770275811287</v>
+        <v>-0.026830110543240065</v>
       </c>
       <c r="EP3">
-        <v>-0.046510822573270313</v>
+        <v>-0.042708575597157239</v>
       </c>
       <c r="EQ3">
-        <v>-0.03358316447128909</v>
+        <v>-0.04304125796596521</v>
       </c>
       <c r="ER3">
-        <v>-0.032210148495523144</v>
+        <v>-0.033248494647154271</v>
       </c>
       <c r="ES3">
-        <v>-0.030391681279538126</v>
+        <v>-0.080464933768329014</v>
       </c>
       <c r="ET3">
-        <v>0.0070718019847623445</v>
+        <v>-0.084893918049465264</v>
       </c>
       <c r="EU3">
-        <v>-0.0035223740976015193</v>
+        <v>-0.013443039050351928</v>
       </c>
       <c r="EV3">
-        <v>-0.042839957479018906</v>
+        <v>-0.056508644898757537</v>
       </c>
       <c r="EW3">
-        <v>-0.044806119668449058</v>
+        <v>-0.052492674665746225</v>
       </c>
       <c r="EX3">
-        <v>-0.044500289678685932</v>
+        <v>-0.055791247014005695</v>
       </c>
       <c r="EY3">
-        <v>-0.020801584504482298</v>
+        <v>-0.029039124898179506</v>
       </c>
       <c r="EZ3">
-        <v>-0.032247252898804382</v>
+        <v>-0.054103234773550245</v>
       </c>
       <c r="FA3">
-        <v>-0.021767511389487952</v>
+        <v>-0.021784707620778648</v>
       </c>
       <c r="FB3">
-        <v>-0.0049378640678261502</v>
+        <v>-0.059901464995143275</v>
       </c>
       <c r="FC3">
-        <v>0.029500179579008211</v>
+        <v>-0.027670877269234319</v>
       </c>
       <c r="FD3">
-        <v>-0.065695754807844453</v>
+        <v>-0.045216458953238427</v>
       </c>
       <c r="FE3">
-        <v>-0.017258726159132608</v>
+        <v>-0.079167861472780585</v>
       </c>
       <c r="FF3">
-        <v>0.001112857366771632</v>
+        <v>-0.054631146461794587</v>
       </c>
       <c r="FG3">
-        <v>-0.055903958565131674</v>
+        <v>-0.059184070456528862</v>
       </c>
       <c r="FH3">
-        <v>-0.034622227546997494</v>
+        <v>-0.057574279471347523</v>
       </c>
       <c r="FI3">
-        <v>-0.059626804092194591</v>
+        <v>-0.045917195796096183</v>
       </c>
       <c r="FJ3">
-        <v>-0.02093057352901757</v>
+        <v>-0.067410185199203485</v>
       </c>
       <c r="FK3">
-        <v>-0.06096535350819051</v>
+        <v>-0.066861779862784465</v>
       </c>
       <c r="FL3">
-        <v>-0.045691038484509769</v>
+        <v>-0.071745727076868063</v>
       </c>
       <c r="FM3">
-        <v>-0.034368261066124263</v>
+        <v>-0.060403070146059681</v>
       </c>
       <c r="FN3">
-        <v>-0.047010564348094988</v>
+        <v>-0.067752724757717459</v>
       </c>
       <c r="FO3">
-        <v>-0.057974846842937029</v>
+        <v>-0.057350729731094736</v>
       </c>
       <c r="FP3">
-        <v>-0.043038377958567985</v>
+        <v>-0.054818587500624148</v>
       </c>
       <c r="FQ3">
-        <v>-0.095220983007924476</v>
+        <v>-0.045869433264324383</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.4786918697152469</v>
+        <v>-5.4629763209372104</v>
       </c>
     </row>
     <row r="4">
@@ -2191,526 +2191,526 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.034221500046418017</v>
+        <v>0.042488511613451088</v>
       </c>
       <c r="C4">
-        <v>0.014924326690905486</v>
+        <v>0.018529650280360774</v>
       </c>
       <c r="D4">
-        <v>0.021847766229667453</v>
+        <v>0.0271256101549632</v>
       </c>
       <c r="E4">
-        <v>0.025839187650462715</v>
+        <v>0.032081253687876891</v>
       </c>
       <c r="F4">
-        <v>0.023645957979856944</v>
+        <v>0.029358197591443366</v>
       </c>
       <c r="G4">
-        <v>0.019781696416675747</v>
+        <v>0.024560432382965233</v>
       </c>
       <c r="H4">
-        <v>0.016033179989964209</v>
+        <v>0.019906373282297142</v>
       </c>
       <c r="I4">
-        <v>0.015940725459891895</v>
+        <v>0.019791584176928719</v>
       </c>
       <c r="J4">
-        <v>0.016824528519095914</v>
+        <v>0.020888890738419562</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.036500625925140466</v>
+        <v>0.045318214175736976</v>
       </c>
       <c r="M4">
-        <v>0.036500625925140466</v>
+        <v>0.045318214175736976</v>
       </c>
       <c r="N4">
-        <v>0.036500625925140466</v>
+        <v>0.045318214175736983</v>
       </c>
       <c r="O4">
-        <v>0.036500625925140473</v>
+        <v>0.045318214175736997</v>
       </c>
       <c r="P4">
-        <v>0.036500625925140466</v>
+        <v>0.045318214175736983</v>
       </c>
       <c r="Q4">
-        <v>0.036500625925140487</v>
+        <v>0.045318214175737004</v>
       </c>
       <c r="R4">
-        <v>0.036500625925140487</v>
+        <v>0.045318214175737004</v>
       </c>
       <c r="S4">
-        <v>0.036500625925140487</v>
+        <v>0.045318214175737011</v>
       </c>
       <c r="T4">
-        <v>0.036500625925140487</v>
+        <v>0.045318214175737011</v>
       </c>
       <c r="U4">
-        <v>0.03650062592514048</v>
+        <v>0.045318214175736997</v>
       </c>
       <c r="V4">
-        <v>0.036500625925140494</v>
+        <v>0.045318214175737018</v>
       </c>
       <c r="W4">
-        <v>0.036500625925140487</v>
+        <v>0.045318214175737004</v>
       </c>
       <c r="X4">
-        <v>0.036500625925140494</v>
+        <v>0.045318214175737011</v>
       </c>
       <c r="Y4">
-        <v>0.036500625925140487</v>
+        <v>0.045318214175737011</v>
       </c>
       <c r="Z4">
-        <v>0.036500625925140494</v>
+        <v>0.045318214175737011</v>
       </c>
       <c r="AA4">
-        <v>0.036500625925140494</v>
+        <v>0.045318214175737011</v>
       </c>
       <c r="AB4">
-        <v>0.036500625925140494</v>
+        <v>0.045318214175737018</v>
       </c>
       <c r="AC4">
-        <v>0.036500625925140494</v>
+        <v>0.045318214175737018</v>
       </c>
       <c r="AD4">
-        <v>0.036500625925140494</v>
+        <v>0.045318214175737018</v>
       </c>
       <c r="AE4">
-        <v>0.036500625925140501</v>
+        <v>0.045318214175737025</v>
       </c>
       <c r="AF4">
-        <v>0.036500625925140501</v>
+        <v>0.045318214175737025</v>
       </c>
       <c r="AG4">
-        <v>0.036500625925140501</v>
+        <v>0.045318214175737025</v>
       </c>
       <c r="AH4">
-        <v>0.036500625925140494</v>
+        <v>0.045318214175737011</v>
       </c>
       <c r="AI4">
-        <v>0.036500625925140494</v>
+        <v>0.045318214175737018</v>
       </c>
       <c r="AJ4">
-        <v>0.036500625925140501</v>
+        <v>0.045318214175737025</v>
       </c>
       <c r="AK4">
-        <v>0.036500625925140508</v>
+        <v>0.045318214175737025</v>
       </c>
       <c r="AL4">
-        <v>0.036500625925140508</v>
+        <v>0.045318214175737025</v>
       </c>
       <c r="AM4">
-        <v>0.036500625925140508</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="AN4">
-        <v>0.036500625925140508</v>
+        <v>0.045318214175737032</v>
       </c>
       <c r="AO4">
-        <v>0.036500625925140508</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="AP4">
-        <v>0.036500625925140508</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="AQ4">
-        <v>0.036500625925140515</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="AR4">
-        <v>0.036500625925140515</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="AS4">
-        <v>0.036500625925140515</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="AT4">
-        <v>0.036500625925140508</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="AU4">
-        <v>0.036500625925140508</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="AV4">
-        <v>0.036500625925140508</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="AW4">
-        <v>0.036500625925140508</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="AX4">
-        <v>0.036500625925140508</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="AY4">
-        <v>0.036500625925140508</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="AZ4">
-        <v>0.036500625925140508</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="BA4">
-        <v>0.036500625925140508</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="BB4">
-        <v>0.036500625925140508</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="BC4">
-        <v>0.036500625925140515</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="BD4">
-        <v>0.036500625925140508</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="BE4">
-        <v>0.036500625925140515</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="BF4">
-        <v>0.036500625925140508</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="BG4">
-        <v>0.036500625925140515</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="BH4">
-        <v>0.036500625925140508</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="BI4">
-        <v>0.036500625925140515</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="BJ4">
-        <v>0.036500625925140515</v>
+        <v>0.045318214175737039</v>
       </c>
       <c r="BK4">
-        <v>0.036500625925140515</v>
+        <v>0.045318214175737045</v>
       </c>
       <c r="BL4">
-        <v>0.036500625925140515</v>
+        <v>0.045318214175737045</v>
       </c>
       <c r="BM4">
-        <v>0.036500625925140522</v>
+        <v>0.045318214175737052</v>
       </c>
       <c r="BN4">
-        <v>0.036500625925140522</v>
+        <v>0.045318214175737052</v>
       </c>
       <c r="BO4">
-        <v>0.036500625925140529</v>
+        <v>0.045318214175737059</v>
       </c>
       <c r="BP4">
-        <v>0.036500625925140529</v>
+        <v>0.045318214175737059</v>
       </c>
       <c r="BQ4">
-        <v>0.036479959732835417</v>
+        <v>0.045292555576594111</v>
       </c>
       <c r="BR4">
-        <v>0.03647995973283541</v>
+        <v>0.045292555576594104</v>
       </c>
       <c r="BS4">
-        <v>0.036479959732835417</v>
+        <v>0.045292555576594111</v>
       </c>
       <c r="BT4">
-        <v>0.033099529695592905</v>
+        <v>0.041095502826100458</v>
       </c>
       <c r="BU4">
-        <v>0.033099529695592912</v>
+        <v>0.041095502826100465</v>
       </c>
       <c r="BV4">
-        <v>0.038381824491708266</v>
+        <v>0.047653860685516143</v>
       </c>
       <c r="BW4">
-        <v>0.037641430328706003</v>
+        <v>0.046734606826083241</v>
       </c>
       <c r="BX4">
-        <v>0.037641430328706003</v>
+        <v>0.046734606826083241</v>
       </c>
       <c r="BY4">
-        <v>0.037079958512313681</v>
+        <v>0.046037498231806182</v>
       </c>
       <c r="BZ4">
-        <v>0.037079958512313688</v>
+        <v>0.046037498231806188</v>
       </c>
       <c r="CA4">
-        <v>0.037079958512313688</v>
+        <v>0.046037498231806188</v>
       </c>
       <c r="CB4">
-        <v>0.036624584095142444</v>
+        <v>0.045472117369301478</v>
       </c>
       <c r="CC4">
-        <v>0.036624584095142458</v>
+        <v>0.045472117369301492</v>
       </c>
       <c r="CD4">
-        <v>0.036624584095142451</v>
+        <v>0.045472117369301478</v>
       </c>
       <c r="CE4">
-        <v>0.036624584095142451</v>
+        <v>0.045472117369301478</v>
       </c>
       <c r="CF4">
-        <v>0.036624584095142458</v>
+        <v>0.045472117369301492</v>
       </c>
       <c r="CG4">
-        <v>0.036525409921155161</v>
+        <v>0.045348985331328341</v>
       </c>
       <c r="CH4">
-        <v>0.036525409921155154</v>
+        <v>0.045348985331328334</v>
       </c>
       <c r="CI4">
-        <v>0.036525409921155161</v>
+        <v>0.045348985331328341</v>
       </c>
       <c r="CJ4">
-        <v>0.036525409921155168</v>
+        <v>0.045348985331328348</v>
       </c>
       <c r="CK4">
-        <v>0.037005380298622423</v>
+        <v>0.045944903889236936</v>
       </c>
       <c r="CL4">
-        <v>0.034925372924528915</v>
+        <v>0.043362421609080833</v>
       </c>
       <c r="CM4">
-        <v>0.034925372924528922</v>
+        <v>0.04336242160908084</v>
       </c>
       <c r="CN4">
-        <v>0.031731607176147848</v>
+        <v>0.039397126314991732</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.037208607595881196</v>
+        <v>0.04619722553989624</v>
       </c>
       <c r="CQ4">
-        <v>0.037654250024588824</v>
+        <v>0.046750523422277417</v>
       </c>
       <c r="CR4">
-        <v>0.037654250024588824</v>
+        <v>0.046750523422277417</v>
       </c>
       <c r="CS4">
-        <v>0.037092972258883777</v>
+        <v>0.046053655756214167</v>
       </c>
       <c r="CT4">
-        <v>0.037092972258883777</v>
+        <v>0.046053655756214174</v>
       </c>
       <c r="CU4">
-        <v>0.037092972258883777</v>
+        <v>0.046053655756214167</v>
       </c>
       <c r="CV4">
-        <v>0.036637759591241104</v>
+        <v>0.045488475717656796</v>
       </c>
       <c r="CW4">
-        <v>0.036637759591241104</v>
+        <v>0.045488475717656789</v>
       </c>
       <c r="CX4">
-        <v>0.036637759591241111</v>
+        <v>0.045488475717656802</v>
       </c>
       <c r="CY4">
-        <v>0.036637759591241097</v>
+        <v>0.045488475717656789</v>
       </c>
       <c r="CZ4">
-        <v>0.036637759591241111</v>
+        <v>0.045488475717656802</v>
       </c>
       <c r="DA4">
-        <v>0.036585647512330365</v>
+        <v>0.045423774735321221</v>
       </c>
       <c r="DB4">
-        <v>0.036585647512330358</v>
+        <v>0.045423774735321214</v>
       </c>
       <c r="DC4">
-        <v>0.036585647512330365</v>
+        <v>0.045423774735321228</v>
       </c>
       <c r="DD4">
-        <v>0.036585647512330365</v>
+        <v>0.045423774735321221</v>
       </c>
       <c r="DE4">
-        <v>0.036585647512330365</v>
+        <v>0.045423774735321221</v>
       </c>
       <c r="DF4">
-        <v>0.034260922325441923</v>
+        <v>0.042537457275034128</v>
       </c>
       <c r="DG4">
-        <v>0.034260922325441916</v>
+        <v>0.042537457275034128</v>
       </c>
       <c r="DH4">
-        <v>0.034260922325441923</v>
+        <v>0.042537457275034128</v>
       </c>
       <c r="DI4">
-        <v>0.03426092232544193</v>
+        <v>0.042537457275034142</v>
       </c>
       <c r="DJ4">
-        <v>0.03426092232544193</v>
+        <v>0.042537457275034142</v>
       </c>
       <c r="DK4">
-        <v>0.036527061589647206</v>
+        <v>0.04535103599935314</v>
       </c>
       <c r="DL4">
-        <v>0.036527061589647206</v>
+        <v>0.04535103599935314</v>
       </c>
       <c r="DM4">
-        <v>0.036527061589647206</v>
+        <v>0.04535103599935314</v>
       </c>
       <c r="DN4">
-        <v>0.036527061589647199</v>
+        <v>0.04535103599935314</v>
       </c>
       <c r="DO4">
-        <v>0.036527061589647213</v>
+        <v>0.045351035999353147</v>
       </c>
       <c r="DP4">
-        <v>0.036527061589647206</v>
+        <v>0.04535103599935314</v>
       </c>
       <c r="DQ4">
-        <v>0.036527061589647213</v>
+        <v>0.045351035999353154</v>
       </c>
       <c r="DR4">
-        <v>0.036527061589647213</v>
+        <v>0.045351035999353147</v>
       </c>
       <c r="DS4">
-        <v>0.03652706158964724</v>
+        <v>0.045351035999353181</v>
       </c>
       <c r="DT4">
-        <v>0.036527061589647219</v>
+        <v>0.045351035999353161</v>
       </c>
       <c r="DU4">
-        <v>0.03652706158964724</v>
+        <v>0.045351035999353181</v>
       </c>
       <c r="DV4">
-        <v>0.03652706158964724</v>
+        <v>0.045351035999353181</v>
       </c>
       <c r="DW4">
-        <v>0.03652706158964724</v>
+        <v>0.045351035999353181</v>
       </c>
       <c r="DX4">
-        <v>0.036527061589647233</v>
+        <v>0.045351035999353174</v>
       </c>
       <c r="DY4">
-        <v>0.03652706158964724</v>
+        <v>0.045351035999353188</v>
       </c>
       <c r="DZ4">
-        <v>0.03652706158964724</v>
+        <v>0.045351035999353188</v>
       </c>
       <c r="EA4">
-        <v>0.036527061589647254</v>
+        <v>0.045351035999353195</v>
       </c>
       <c r="EB4">
-        <v>0.036527061589647254</v>
+        <v>0.045351035999353202</v>
       </c>
       <c r="EC4">
-        <v>0.036527061589647254</v>
+        <v>0.045351035999353195</v>
       </c>
       <c r="ED4">
-        <v>0.036527061589647254</v>
+        <v>0.045351035999353195</v>
       </c>
       <c r="EE4">
-        <v>0.036527061589647254</v>
+        <v>0.045351035999353195</v>
       </c>
       <c r="EF4">
-        <v>0.036527061589647261</v>
+        <v>0.045351035999353209</v>
       </c>
       <c r="EG4">
-        <v>0.036527061589647254</v>
+        <v>0.045351035999353202</v>
       </c>
       <c r="EH4">
-        <v>0.036527061589647268</v>
+        <v>0.045351035999353216</v>
       </c>
       <c r="EI4">
-        <v>0.036527061589647261</v>
+        <v>0.045351035999353209</v>
       </c>
       <c r="EJ4">
-        <v>0.036527061589647268</v>
+        <v>0.045351035999353216</v>
       </c>
       <c r="EK4">
-        <v>0.036527061589647261</v>
+        <v>0.045351035999353209</v>
       </c>
       <c r="EL4">
-        <v>0.036527061589647268</v>
+        <v>0.045351035999353216</v>
       </c>
       <c r="EM4">
-        <v>0.036527061589647261</v>
+        <v>0.045351035999353209</v>
       </c>
       <c r="EN4">
-        <v>0.036527061589647275</v>
+        <v>0.04535103599935323</v>
       </c>
       <c r="EO4">
-        <v>0.036527061589647261</v>
+        <v>0.045351035999353209</v>
       </c>
       <c r="EP4">
-        <v>0.036527061589647268</v>
+        <v>0.045351035999353216</v>
       </c>
       <c r="EQ4">
-        <v>0.036527061589647275</v>
+        <v>0.04535103599935323</v>
       </c>
       <c r="ER4">
-        <v>0.036527061589647282</v>
+        <v>0.045351035999353237</v>
       </c>
       <c r="ES4">
-        <v>0.036527061589647275</v>
+        <v>0.04535103599935323</v>
       </c>
       <c r="ET4">
-        <v>0.036527061589647275</v>
+        <v>0.04535103599935323</v>
       </c>
       <c r="EU4">
-        <v>0.036527061589647275</v>
+        <v>0.04535103599935323</v>
       </c>
       <c r="EV4">
-        <v>0.036527061589647275</v>
+        <v>0.045351035999353223</v>
       </c>
       <c r="EW4">
-        <v>0.036527061589647261</v>
+        <v>0.045351035999353209</v>
       </c>
       <c r="EX4">
-        <v>0.036527061589647275</v>
+        <v>0.04535103599935323</v>
       </c>
       <c r="EY4">
-        <v>0.036527061589647282</v>
+        <v>0.045351035999353237</v>
       </c>
       <c r="EZ4">
-        <v>0.036527061589647282</v>
+        <v>0.045351035999353237</v>
       </c>
       <c r="FA4">
-        <v>0.036527061589647289</v>
+        <v>0.045351035999353244</v>
       </c>
       <c r="FB4">
-        <v>0.036527061589647289</v>
+        <v>0.045351035999353244</v>
       </c>
       <c r="FC4">
-        <v>0.036527061589647289</v>
+        <v>0.045351035999353244</v>
       </c>
       <c r="FD4">
-        <v>0.036527061589647289</v>
+        <v>0.045351035999353244</v>
       </c>
       <c r="FE4">
-        <v>0.036527061589647296</v>
+        <v>0.045351035999353251</v>
       </c>
       <c r="FF4">
-        <v>0.036527061589647289</v>
+        <v>0.045351035999353244</v>
       </c>
       <c r="FG4">
-        <v>0.036527061589647296</v>
+        <v>0.045351035999353251</v>
       </c>
       <c r="FH4">
-        <v>0.036527061589647289</v>
+        <v>0.045351035999353251</v>
       </c>
       <c r="FI4">
-        <v>0.036527061589647296</v>
+        <v>0.045351035999353251</v>
       </c>
       <c r="FJ4">
-        <v>0.036527061589647296</v>
+        <v>0.045351035999353251</v>
       </c>
       <c r="FK4">
-        <v>0.036527061589647303</v>
+        <v>0.045351035999353265</v>
       </c>
       <c r="FL4">
-        <v>0.036527061589647303</v>
+        <v>0.045351035999353265</v>
       </c>
       <c r="FM4">
-        <v>0.036527061589647303</v>
+        <v>0.045351035999353265</v>
       </c>
       <c r="FN4">
-        <v>0.036527061589647303</v>
+        <v>0.045351035999353265</v>
       </c>
       <c r="FO4">
-        <v>0.036527061589647303</v>
+        <v>0.045351035999353265</v>
       </c>
       <c r="FP4">
-        <v>0.036527061589647303</v>
+        <v>0.045351035999353265</v>
       </c>
       <c r="FQ4">
-        <v>0.036527061589647317</v>
+        <v>0.045351035999353272</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.028823233361004928</v>
+        <v>0.035786166115896322</v>
       </c>
     </row>
   </sheetData>
@@ -3778,526 +3778,526 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>-0.0067136122594126145</v>
+        <v>-0.0083955799045781349</v>
       </c>
       <c r="C3">
-        <v>-0.66667638107178451</v>
+        <v>-0.66389667832522736</v>
       </c>
       <c r="D3">
-        <v>-0.68118831462344687</v>
+        <v>-0.67556354670114749</v>
       </c>
       <c r="E3">
-        <v>-0.70561257047711623</v>
+        <v>-0.6917242454314545</v>
       </c>
       <c r="F3">
-        <v>-0.0060702278162829146</v>
+        <v>-0.0022025262913440229</v>
       </c>
       <c r="G3">
-        <v>-0.0069490404997362013</v>
+        <v>-0.0002494448022216682</v>
       </c>
       <c r="H3">
-        <v>-0.0059561101351715707</v>
+        <v>-0.00022370985250929015</v>
       </c>
       <c r="I3">
-        <v>0.0090225026168274103</v>
+        <v>0.0067838308792395581</v>
       </c>
       <c r="J3">
-        <v>0.0035311229445086673</v>
+        <v>-0.0055294436290444339</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.1791468696637719</v>
+        <v>1.1444675699337998</v>
       </c>
       <c r="M3">
-        <v>1.2861074097870526</v>
+        <v>1.2577685509035337</v>
       </c>
       <c r="N3">
-        <v>-0.24359274950904805</v>
+        <v>-0.28500102062679211</v>
       </c>
       <c r="O3">
-        <v>-0.2195111352536423</v>
+        <v>-0.24725378749807339</v>
       </c>
       <c r="P3">
-        <v>-0.19774155558145659</v>
+        <v>-0.23622470769475279</v>
       </c>
       <c r="Q3">
-        <v>-0.20595722364232194</v>
+        <v>-0.24193897471477535</v>
       </c>
       <c r="R3">
-        <v>-0.23848450953812578</v>
+        <v>-0.18658261369567597</v>
       </c>
       <c r="S3">
-        <v>-0.20248715843445034</v>
+        <v>-0.17408156884029899</v>
       </c>
       <c r="T3">
-        <v>-0.1557757142795185</v>
+        <v>-0.17760179623048092</v>
       </c>
       <c r="U3">
-        <v>-0.19164330716564179</v>
+        <v>-0.19857129823462211</v>
       </c>
       <c r="V3">
-        <v>-0.1237824598945983</v>
+        <v>-0.18993801268375168</v>
       </c>
       <c r="W3">
-        <v>-0.11050632017516381</v>
+        <v>-0.15266757038029005</v>
       </c>
       <c r="X3">
-        <v>-0.12810605176595985</v>
+        <v>-0.17546744238321046</v>
       </c>
       <c r="Y3">
-        <v>-0.13726704448321464</v>
+        <v>-0.15552633322159112</v>
       </c>
       <c r="Z3">
-        <v>-0.10389641997326603</v>
+        <v>-0.11905981517737851</v>
       </c>
       <c r="AA3">
-        <v>-0.11324429920402036</v>
+        <v>-0.096528938969473913</v>
       </c>
       <c r="AB3">
-        <v>-0.10875513776646857</v>
+        <v>-0.14394099628845272</v>
       </c>
       <c r="AC3">
-        <v>-0.090602972248441299</v>
+        <v>-0.1397822760055312</v>
       </c>
       <c r="AD3">
-        <v>-0.075340334001294751</v>
+        <v>-0.12683729139115049</v>
       </c>
       <c r="AE3">
-        <v>-0.11595112222976264</v>
+        <v>-0.10859492053603471</v>
       </c>
       <c r="AF3">
-        <v>-0.053229718165376999</v>
+        <v>-0.10146300217797295</v>
       </c>
       <c r="AG3">
-        <v>-0.071063887907584486</v>
+        <v>-0.086575997986390069</v>
       </c>
       <c r="AH3">
-        <v>-0.0422199188880567</v>
+        <v>-0.12036971056053528</v>
       </c>
       <c r="AI3">
-        <v>-0.066406324563614505</v>
+        <v>-0.048511721964818476</v>
       </c>
       <c r="AJ3">
-        <v>-0.021132830256419884</v>
+        <v>-0.11836007931547757</v>
       </c>
       <c r="AK3">
-        <v>-0.010168005125253475</v>
+        <v>-0.073247387980689027</v>
       </c>
       <c r="AL3">
-        <v>-0.070634702322367626</v>
+        <v>-0.077352205690018563</v>
       </c>
       <c r="AM3">
-        <v>-0.05760917563293215</v>
+        <v>-0.047466940496237418</v>
       </c>
       <c r="AN3">
-        <v>-0.021812506495489856</v>
+        <v>-0.075161771852866974</v>
       </c>
       <c r="AO3">
-        <v>-0.012085219421994904</v>
+        <v>-0.015754066240960166</v>
       </c>
       <c r="AP3">
-        <v>-0.049939314960725921</v>
+        <v>-0.035886428584889898</v>
       </c>
       <c r="AQ3">
-        <v>0.0020502699196955475</v>
+        <v>-0.043188876302956751</v>
       </c>
       <c r="AR3">
-        <v>-0.00073125890280276325</v>
+        <v>-0.074237544866221625</v>
       </c>
       <c r="AS3">
-        <v>-0.042089032158433869</v>
+        <v>-0.036977201963439191</v>
       </c>
       <c r="AT3">
-        <v>-0.047897911598981421</v>
+        <v>-0.047160826501623974</v>
       </c>
       <c r="AU3">
-        <v>-0.039864765488184406</v>
+        <v>-0.016195198761844672</v>
       </c>
       <c r="AV3">
-        <v>0.015245648740525865</v>
+        <v>-0.016184283099333001</v>
       </c>
       <c r="AW3">
-        <v>-0.019839986628647468</v>
+        <v>-0.0088402159838222531</v>
       </c>
       <c r="AX3">
-        <v>0.014723785670814197</v>
+        <v>0.001274957708479</v>
       </c>
       <c r="AY3">
-        <v>-0.020230731137006401</v>
+        <v>-0.0070353074251217245</v>
       </c>
       <c r="AZ3">
-        <v>0.045717191831327553</v>
+        <v>-0.013379928447101692</v>
       </c>
       <c r="BA3">
-        <v>0.021860080623155746</v>
+        <v>-0.02894722985757198</v>
       </c>
       <c r="BB3">
-        <v>-0.0017285391698803304</v>
+        <v>-0.0065241859482408245</v>
       </c>
       <c r="BC3">
-        <v>0.0072223014989981167</v>
+        <v>-0.042147383003445671</v>
       </c>
       <c r="BD3">
-        <v>-0.030487739560610141</v>
+        <v>-0.020792331494629133</v>
       </c>
       <c r="BE3">
-        <v>0.0097329340648657885</v>
+        <v>0.01309573308049778</v>
       </c>
       <c r="BF3">
-        <v>-0.0252741722280279</v>
+        <v>-0.047147901846608505</v>
       </c>
       <c r="BG3">
-        <v>0.01593761405884624</v>
+        <v>-0.0095846100325171681</v>
       </c>
       <c r="BH3">
-        <v>0.031816655461644111</v>
+        <v>-0.011222195963941552</v>
       </c>
       <c r="BI3">
-        <v>-0.00011777251043449993</v>
+        <v>-0.028531670933072673</v>
       </c>
       <c r="BJ3">
-        <v>-0.0076592750021860501</v>
+        <v>-0.0014154286095062435</v>
       </c>
       <c r="BK3">
-        <v>0.0057880163938182645</v>
+        <v>-0.018360617002627193</v>
       </c>
       <c r="BL3">
-        <v>0.027760313821205085</v>
+        <v>-0.01589789305621234</v>
       </c>
       <c r="BM3">
-        <v>-0.01823867710710381</v>
+        <v>-0.02199351721948304</v>
       </c>
       <c r="BN3">
-        <v>-0.0047269601301080108</v>
+        <v>0.035191733576335572</v>
       </c>
       <c r="BO3">
-        <v>-0.014679996283069806</v>
+        <v>-0.042695250597191176</v>
       </c>
       <c r="BP3">
-        <v>-0.061825276325408914</v>
+        <v>-0.025398524454952047</v>
       </c>
       <c r="BQ3">
-        <v>0.014395405360257454</v>
+        <v>-0.03045550446697896</v>
       </c>
       <c r="BR3">
-        <v>0.019195275359903362</v>
+        <v>-0.0073771121454095185</v>
       </c>
       <c r="BS3">
-        <v>-0.0080640407948598201</v>
+        <v>-0.046980640047772693</v>
       </c>
       <c r="BT3">
-        <v>0.031396346920283508</v>
+        <v>-0.024529027707056957</v>
       </c>
       <c r="BU3">
-        <v>-0.01623181168767393</v>
+        <v>0.0015843755694833551</v>
       </c>
       <c r="BV3">
-        <v>-0.02948364743085953</v>
+        <v>-0.013762322760085679</v>
       </c>
       <c r="BW3">
-        <v>0.0042681468221805055</v>
+        <v>-0.011655746590516231</v>
       </c>
       <c r="BX3">
-        <v>0.0043275628902970887</v>
+        <v>-0.008837464218882627</v>
       </c>
       <c r="BY3">
-        <v>0.01785470162867064</v>
+        <v>3.5744787406933644e-05</v>
       </c>
       <c r="BZ3">
-        <v>0.034017371498667466</v>
+        <v>0.0046284052199082222</v>
       </c>
       <c r="CA3">
-        <v>-0.023423479875316382</v>
+        <v>-0.025207357841249823</v>
       </c>
       <c r="CB3">
-        <v>0.055242231727066528</v>
+        <v>-0.021141757359806782</v>
       </c>
       <c r="CC3">
-        <v>0.0091435660763092477</v>
+        <v>-0.0091223532402000714</v>
       </c>
       <c r="CD3">
-        <v>0.039511604091371583</v>
+        <v>-0.0030763701484406566</v>
       </c>
       <c r="CE3">
-        <v>-0.014414531306664865</v>
+        <v>-0.021804534810904583</v>
       </c>
       <c r="CF3">
-        <v>0.022428504966997179</v>
+        <v>-0.034972212173150524</v>
       </c>
       <c r="CG3">
-        <v>-0.034216794495246845</v>
+        <v>-0.028629394333468242</v>
       </c>
       <c r="CH3">
-        <v>-0.020888952966466177</v>
+        <v>0.0042480365352081445</v>
       </c>
       <c r="CI3">
-        <v>-0.040383622332650679</v>
+        <v>-0.0039522977978979851</v>
       </c>
       <c r="CJ3">
-        <v>-0.04284848532919535</v>
+        <v>-0.022693257338923477</v>
       </c>
       <c r="CK3">
-        <v>-0.0034541137628124963</v>
+        <v>0.05279846924518964</v>
       </c>
       <c r="CL3">
-        <v>-0.037386325968168384</v>
+        <v>0.00057817545000158471</v>
       </c>
       <c r="CM3">
-        <v>0.019771780390937261</v>
+        <v>0.014677599361662434</v>
       </c>
       <c r="CN3">
-        <v>0.0086558275974463646</v>
+        <v>0.0060682204656075352</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.014102176822343123</v>
+        <v>0.013721973478418194</v>
       </c>
       <c r="CQ3">
-        <v>0.040537138832591676</v>
+        <v>0.0059045390098881696</v>
       </c>
       <c r="CR3">
-        <v>0.0035077492582415853</v>
+        <v>0.0066681569872481953</v>
       </c>
       <c r="CS3">
-        <v>0.045364414242763641</v>
+        <v>-0.0078618138318231525</v>
       </c>
       <c r="CT3">
-        <v>0.0095937921451355202</v>
+        <v>-0.0058157210198890377</v>
       </c>
       <c r="CU3">
-        <v>0.010582968814568043</v>
+        <v>-0.021571062497884649</v>
       </c>
       <c r="CV3">
-        <v>0.0096493034204910462</v>
+        <v>0.0059539955647249744</v>
       </c>
       <c r="CW3">
-        <v>0.0027424412350303563</v>
+        <v>0.024112132432274166</v>
       </c>
       <c r="CX3">
-        <v>-0.0086862413130947905</v>
+        <v>-0.016187835448160628</v>
       </c>
       <c r="CY3">
-        <v>0.057319385276940867</v>
+        <v>0.00016432868648248166</v>
       </c>
       <c r="CZ3">
-        <v>-0.010857628759119069</v>
+        <v>-0.0053443054323237095</v>
       </c>
       <c r="DA3">
-        <v>-0.018326934822265436</v>
+        <v>-0.0086589901471991072</v>
       </c>
       <c r="DB3">
-        <v>0.012072496486652909</v>
+        <v>-0.008484976251314431</v>
       </c>
       <c r="DC3">
-        <v>0.0046737588941376017</v>
+        <v>-0.03610627337413666</v>
       </c>
       <c r="DD3">
-        <v>0.026219808621835893</v>
+        <v>0.0098771143108565603</v>
       </c>
       <c r="DE3">
-        <v>-0.019136223582739115</v>
+        <v>0.0050777291715866325</v>
       </c>
       <c r="DF3">
-        <v>-0.014572322923983794</v>
+        <v>-0.030653907090767398</v>
       </c>
       <c r="DG3">
-        <v>-0.015784854426640564</v>
+        <v>-0.0047675084265885737</v>
       </c>
       <c r="DH3">
-        <v>0.024105418101438587</v>
+        <v>0.0042209770315477964</v>
       </c>
       <c r="DI3">
-        <v>0.0061274910777564182</v>
+        <v>-0.0178653380809481</v>
       </c>
       <c r="DJ3">
-        <v>-0.022055551487786044</v>
+        <v>-0.0065581240221432371</v>
       </c>
       <c r="DK3">
-        <v>0.012749873888955401</v>
+        <v>-0.021929799253751037</v>
       </c>
       <c r="DL3">
-        <v>-0.003560381543097835</v>
+        <v>-0.012085565560794258</v>
       </c>
       <c r="DM3">
-        <v>-0.0086828653862721858</v>
+        <v>-0.026056526869876862</v>
       </c>
       <c r="DN3">
-        <v>-0.012740810712775965</v>
+        <v>0.027344514879677262</v>
       </c>
       <c r="DO3">
-        <v>-0.015702391362142656</v>
+        <v>-0.00031991843193925008</v>
       </c>
       <c r="DP3">
-        <v>-0.0010665750640076375</v>
+        <v>-0.021285427259985008</v>
       </c>
       <c r="DQ3">
-        <v>-0.0047392595782804418</v>
+        <v>-0.037771050883008861</v>
       </c>
       <c r="DR3">
-        <v>0.030267066245341197</v>
+        <v>-0.0030102532443475154</v>
       </c>
       <c r="DS3">
-        <v>0.0075655135778935389</v>
+        <v>0.010051385195966057</v>
       </c>
       <c r="DT3">
-        <v>0.017968249227515741</v>
+        <v>0.02309025213546749</v>
       </c>
       <c r="DU3">
-        <v>0.032994514514616456</v>
+        <v>-0.016646718605465113</v>
       </c>
       <c r="DV3">
-        <v>0.019847107736349189</v>
+        <v>-0.0038013035447384777</v>
       </c>
       <c r="DW3">
-        <v>-0.035066774509354824</v>
+        <v>-0.0079525911326042108</v>
       </c>
       <c r="DX3">
-        <v>0.006749830966203586</v>
+        <v>-0.025120816223882125</v>
       </c>
       <c r="DY3">
-        <v>0.010520912286439872</v>
+        <v>-0.037021331226336884</v>
       </c>
       <c r="DZ3">
-        <v>-0.0017969070536362416</v>
+        <v>-0.0036646780212686359</v>
       </c>
       <c r="EA3">
-        <v>0.0059839057137925471</v>
+        <v>-0.0087624430781746681</v>
       </c>
       <c r="EB3">
-        <v>-0.00082751125041631384</v>
+        <v>-0.018064731873498153</v>
       </c>
       <c r="EC3">
-        <v>0.014694055890816049</v>
+        <v>-0.03888725470719083</v>
       </c>
       <c r="ED3">
-        <v>-0.0089738774940436514</v>
+        <v>-0.0017416359334068683</v>
       </c>
       <c r="EE3">
-        <v>-0.011122560949663761</v>
+        <v>-0.0040946084145967307</v>
       </c>
       <c r="EF3">
-        <v>-0.0061902493192488193</v>
+        <v>-0.036226965504926309</v>
       </c>
       <c r="EG3">
-        <v>-0.0058416736394438229</v>
+        <v>-0.03006323962487871</v>
       </c>
       <c r="EH3">
-        <v>-0.0017237201486971544</v>
+        <v>0.00078221195854103582</v>
       </c>
       <c r="EI3">
-        <v>-0.0039003370963104369</v>
+        <v>-0.017571639866054149</v>
       </c>
       <c r="EJ3">
-        <v>-0.02153567703466017</v>
+        <v>0.022220504120203842</v>
       </c>
       <c r="EK3">
-        <v>-0.00037441236780711475</v>
+        <v>-0.013401205965358978</v>
       </c>
       <c r="EL3">
-        <v>-0.0098966069576148872</v>
+        <v>-0.021211164950508853</v>
       </c>
       <c r="EM3">
-        <v>0.0019128830972471556</v>
+        <v>-0.033550131365425513</v>
       </c>
       <c r="EN3">
-        <v>-0.0072494792465166201</v>
+        <v>-0.016926249808685876</v>
       </c>
       <c r="EO3">
-        <v>-0.038330665749273261</v>
+        <v>-0.012806100181413094</v>
       </c>
       <c r="EP3">
-        <v>-0.036585718046732364</v>
+        <v>-0.028684565235330098</v>
       </c>
       <c r="EQ3">
-        <v>-0.023658059944751172</v>
+        <v>-0.029017247604137993</v>
       </c>
       <c r="ER3">
-        <v>-0.022285043968985476</v>
+        <v>-0.019224484285327147</v>
       </c>
       <c r="ES3">
-        <v>-0.020466576753000419</v>
+        <v>-0.066440923406501817</v>
       </c>
       <c r="ET3">
-        <v>0.01699690651130013</v>
+        <v>-0.070869907687638067</v>
       </c>
       <c r="EU3">
-        <v>0.0064027304289360938</v>
+        <v>0.00058097131147490978</v>
       </c>
       <c r="EV3">
-        <v>-0.03291485295248129</v>
+        <v>-0.042484634536930702</v>
       </c>
       <c r="EW3">
-        <v>-0.034881015141911498</v>
+        <v>-0.038468664303919396</v>
       </c>
       <c r="EX3">
-        <v>-0.034575185152148344</v>
+        <v>-0.041767236652178921</v>
       </c>
       <c r="EY3">
-        <v>-0.010876479977944418</v>
+        <v>-0.015015114536352984</v>
       </c>
       <c r="EZ3">
-        <v>-0.022322148372266624</v>
+        <v>-0.040079224411723499</v>
       </c>
       <c r="FA3">
-        <v>-0.011842406862950313</v>
+        <v>-0.0077606972589522143</v>
       </c>
       <c r="FB3">
-        <v>0.0049872404587113211</v>
+        <v>-0.045877454633316661</v>
       </c>
       <c r="FC3">
-        <v>0.03942528410554573</v>
+        <v>-0.013646866907407657</v>
       </c>
       <c r="FD3">
-        <v>-0.05577065028130692</v>
+        <v>-0.031192448591411768</v>
       </c>
       <c r="FE3">
-        <v>-0.0073336216325951466</v>
+        <v>-0.065143851110953929</v>
       </c>
       <c r="FF3">
-        <v>0.011037961893308933</v>
+        <v>-0.040607136099968147</v>
       </c>
       <c r="FG3">
-        <v>-0.045978854038594301</v>
+        <v>-0.045160060094702616</v>
       </c>
       <c r="FH3">
-        <v>-0.024697123020460156</v>
+        <v>-0.043550269109520999</v>
       </c>
       <c r="FI3">
-        <v>-0.049701699565657426</v>
+        <v>-0.031893185434269701</v>
       </c>
       <c r="FJ3">
-        <v>-0.011005469002480277</v>
+        <v>-0.053386174837377003</v>
       </c>
       <c r="FK3">
-        <v>-0.051040248981653373</v>
+        <v>-0.052837769500958053</v>
       </c>
       <c r="FL3">
-        <v>-0.035765933957972638</v>
+        <v>-0.057721716715041574</v>
       </c>
       <c r="FM3">
-        <v>-0.024443156539587174</v>
+        <v>-0.046379059784233206</v>
       </c>
       <c r="FN3">
-        <v>-0.037085459821557747</v>
+        <v>-0.053728714395891067</v>
       </c>
       <c r="FO3">
-        <v>-0.048049742316399899</v>
+        <v>-0.043326719369268345</v>
       </c>
       <c r="FP3">
-        <v>-0.03311327343203075</v>
+        <v>-0.04079457713879784</v>
       </c>
       <c r="FQ3">
-        <v>-0.085295878481387283</v>
+        <v>-0.031845422902498151</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.4886169742417845</v>
+        <v>-5.4770003312990365</v>
       </c>
     </row>
     <row r="4">
@@ -4305,526 +4305,526 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.021154241202392687</v>
+        <v>0.021602842985438932</v>
       </c>
       <c r="C4">
-        <v>0.0092255689018450136</v>
+        <v>0.0094212084721509229</v>
       </c>
       <c r="D4">
-        <v>0.013505337753429389</v>
+        <v>0.01379173510225724</v>
       </c>
       <c r="E4">
-        <v>0.015972660675024633</v>
+        <v>0.016311380650383438</v>
       </c>
       <c r="F4">
-        <v>0.014616901593707127</v>
+        <v>0.014926871025123406</v>
       </c>
       <c r="G4">
-        <v>0.012228183359094659</v>
+        <v>0.012487497073343403</v>
       </c>
       <c r="H4">
-        <v>0.0099110137278912176</v>
+        <v>0.010121189001378452</v>
       </c>
       <c r="I4">
-        <v>0.0098538623632008684</v>
+        <v>0.010062825671491226</v>
       </c>
       <c r="J4">
-        <v>0.010400190930459898</v>
+        <v>0.010620739810033889</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.022563097579340326</v>
+        <v>0.023041575899989977</v>
       </c>
       <c r="M4">
-        <v>0.022563097579340326</v>
+        <v>0.023041575899989977</v>
       </c>
       <c r="N4">
-        <v>0.022563097579340326</v>
+        <v>0.023041575899989977</v>
       </c>
       <c r="O4">
-        <v>0.02256309757934033</v>
+        <v>0.02304157589998998</v>
       </c>
       <c r="P4">
-        <v>0.022563097579340326</v>
+        <v>0.023041575899989977</v>
       </c>
       <c r="Q4">
-        <v>0.022563097579340337</v>
+        <v>0.023041575899989987</v>
       </c>
       <c r="R4">
-        <v>0.022563097579340337</v>
+        <v>0.023041575899989987</v>
       </c>
       <c r="S4">
-        <v>0.022563097579340337</v>
+        <v>0.02304157589998999</v>
       </c>
       <c r="T4">
-        <v>0.02256309757934034</v>
+        <v>0.02304157589998999</v>
       </c>
       <c r="U4">
-        <v>0.022563097579340333</v>
+        <v>0.023041575899989983</v>
       </c>
       <c r="V4">
-        <v>0.022563097579340347</v>
+        <v>0.023041575899989994</v>
       </c>
       <c r="W4">
-        <v>0.022563097579340337</v>
+        <v>0.023041575899989987</v>
       </c>
       <c r="X4">
-        <v>0.022563097579340344</v>
+        <v>0.02304157589998999</v>
       </c>
       <c r="Y4">
-        <v>0.02256309757934034</v>
+        <v>0.02304157589998999</v>
       </c>
       <c r="Z4">
-        <v>0.022563097579340344</v>
+        <v>0.02304157589998999</v>
       </c>
       <c r="AA4">
-        <v>0.022563097579340344</v>
+        <v>0.02304157589998999</v>
       </c>
       <c r="AB4">
-        <v>0.022563097579340347</v>
+        <v>0.023041575899989994</v>
       </c>
       <c r="AC4">
-        <v>0.022563097579340347</v>
+        <v>0.023041575899989994</v>
       </c>
       <c r="AD4">
-        <v>0.022563097579340347</v>
+        <v>0.023041575899989994</v>
       </c>
       <c r="AE4">
-        <v>0.022563097579340347</v>
+        <v>0.023041575899989997</v>
       </c>
       <c r="AF4">
-        <v>0.022563097579340347</v>
+        <v>0.023041575899989997</v>
       </c>
       <c r="AG4">
-        <v>0.022563097579340347</v>
+        <v>0.023041575899989997</v>
       </c>
       <c r="AH4">
-        <v>0.022563097579340344</v>
+        <v>0.02304157589998999</v>
       </c>
       <c r="AI4">
-        <v>0.022563097579340347</v>
+        <v>0.023041575899989994</v>
       </c>
       <c r="AJ4">
-        <v>0.022563097579340347</v>
+        <v>0.023041575899989997</v>
       </c>
       <c r="AK4">
-        <v>0.022563097579340351</v>
+        <v>0.023041575899989997</v>
       </c>
       <c r="AL4">
-        <v>0.022563097579340351</v>
+        <v>0.023041575899989997</v>
       </c>
       <c r="AM4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="AN4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990001</v>
       </c>
       <c r="AO4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="AP4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="AQ4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="AR4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="AS4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="AT4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="AU4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="AV4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="AW4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="AX4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="AY4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="AZ4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="BA4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="BB4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="BC4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="BD4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="BE4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="BF4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="BG4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="BH4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="BI4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="BJ4">
-        <v>0.022563097579340354</v>
+        <v>0.023041575899990004</v>
       </c>
       <c r="BK4">
-        <v>0.022563097579340358</v>
+        <v>0.023041575899990008</v>
       </c>
       <c r="BL4">
-        <v>0.022563097579340358</v>
+        <v>0.023041575899990008</v>
       </c>
       <c r="BM4">
-        <v>0.022563097579340361</v>
+        <v>0.023041575899990011</v>
       </c>
       <c r="BN4">
-        <v>0.022563097579340361</v>
+        <v>0.023041575899990011</v>
       </c>
       <c r="BO4">
-        <v>0.022563097579340365</v>
+        <v>0.023041575899990015</v>
       </c>
       <c r="BP4">
-        <v>0.022563097579340365</v>
+        <v>0.023041575899990015</v>
       </c>
       <c r="BQ4">
-        <v>0.022550322639137147</v>
+        <v>0.023028530051419128</v>
       </c>
       <c r="BR4">
-        <v>0.022550322639137147</v>
+        <v>0.023028530051419124</v>
       </c>
       <c r="BS4">
-        <v>0.022550322639137147</v>
+        <v>0.023028530051419128</v>
       </c>
       <c r="BT4">
-        <v>0.020460687986107777</v>
+        <v>0.020894582117554225</v>
       </c>
       <c r="BU4">
-        <v>0.02046068798610778</v>
+        <v>0.020894582117554225</v>
       </c>
       <c r="BV4">
-        <v>0.023725972619089965</v>
+        <v>0.024229111139616351</v>
       </c>
       <c r="BW4">
-        <v>0.023268293186927465</v>
+        <v>0.023761726050447893</v>
       </c>
       <c r="BX4">
-        <v>0.023268293186927465</v>
+        <v>0.023761726050447893</v>
       </c>
       <c r="BY4">
-        <v>0.022921215758521404</v>
+        <v>0.023407288416977118</v>
       </c>
       <c r="BZ4">
-        <v>0.022921215758521411</v>
+        <v>0.023407288416977121</v>
       </c>
       <c r="CA4">
-        <v>0.022921215758521411</v>
+        <v>0.023407288416977121</v>
       </c>
       <c r="CB4">
-        <v>0.022639723122454221</v>
+        <v>0.023119826382279846</v>
       </c>
       <c r="CC4">
-        <v>0.022639723122454228</v>
+        <v>0.023119826382279853</v>
       </c>
       <c r="CD4">
-        <v>0.022639723122454228</v>
+        <v>0.02311982638227985</v>
       </c>
       <c r="CE4">
-        <v>0.022639723122454228</v>
+        <v>0.02311982638227985</v>
       </c>
       <c r="CF4">
-        <v>0.022639723122454228</v>
+        <v>0.023119826382279853</v>
       </c>
       <c r="CG4">
-        <v>0.022578417966492931</v>
+        <v>0.023057221174853176</v>
       </c>
       <c r="CH4">
-        <v>0.022578417966492927</v>
+        <v>0.023057221174853173</v>
       </c>
       <c r="CI4">
-        <v>0.022578417966492927</v>
+        <v>0.023057221174853173</v>
       </c>
       <c r="CJ4">
-        <v>0.022578417966492934</v>
+        <v>0.02305722117485318</v>
       </c>
       <c r="CK4">
-        <v>0.022875114754219179</v>
+        <v>0.023360209784003067</v>
       </c>
       <c r="CL4">
-        <v>0.021589344766502493</v>
+        <v>0.022047173457420403</v>
       </c>
       <c r="CM4">
-        <v>0.021589344766502497</v>
+        <v>0.022047173457420407</v>
       </c>
       <c r="CN4">
-        <v>0.019615097848817625</v>
+        <v>0.020031060198183809</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.023000741020142389</v>
+        <v>0.023488500109882453</v>
       </c>
       <c r="CQ4">
-        <v>0.023276217764706893</v>
+        <v>0.023769818678675822</v>
       </c>
       <c r="CR4">
-        <v>0.023276217764706893</v>
+        <v>0.023769818678675822</v>
       </c>
       <c r="CS4">
-        <v>0.022929260289986042</v>
+        <v>0.023415503542656139</v>
       </c>
       <c r="CT4">
-        <v>0.022929260289986046</v>
+        <v>0.023415503542656143</v>
       </c>
       <c r="CU4">
-        <v>0.022929260289986042</v>
+        <v>0.023415503542656139</v>
       </c>
       <c r="CV4">
-        <v>0.02264786764043427</v>
+        <v>0.023128143614811691</v>
       </c>
       <c r="CW4">
-        <v>0.02264786764043427</v>
+        <v>0.023128143614811691</v>
       </c>
       <c r="CX4">
-        <v>0.022647867640434274</v>
+        <v>0.023128143614811695</v>
       </c>
       <c r="CY4">
-        <v>0.022647867640434267</v>
+        <v>0.023128143614811688</v>
       </c>
       <c r="CZ4">
-        <v>0.022647867640434274</v>
+        <v>0.023128143614811695</v>
       </c>
       <c r="DA4">
-        <v>0.022615654222397637</v>
+        <v>0.023095247071503348</v>
       </c>
       <c r="DB4">
-        <v>0.022615654222397634</v>
+        <v>0.023095247071503344</v>
       </c>
       <c r="DC4">
-        <v>0.022615654222397637</v>
+        <v>0.023095247071503348</v>
       </c>
       <c r="DD4">
-        <v>0.022615654222397637</v>
+        <v>0.023095247071503348</v>
       </c>
       <c r="DE4">
-        <v>0.022615654222397637</v>
+        <v>0.023095247071503348</v>
       </c>
       <c r="DF4">
-        <v>0.021178610338698476</v>
+        <v>0.021627728899344709</v>
       </c>
       <c r="DG4">
-        <v>0.021178610338698476</v>
+        <v>0.021627728899344705</v>
       </c>
       <c r="DH4">
-        <v>0.021178610338698476</v>
+        <v>0.021627728899344709</v>
       </c>
       <c r="DI4">
-        <v>0.021178610338698483</v>
+        <v>0.021627728899344712</v>
       </c>
       <c r="DJ4">
-        <v>0.021178610338698483</v>
+        <v>0.021627728899344712</v>
       </c>
       <c r="DK4">
-        <v>0.022579438956035171</v>
+        <v>0.023058263815738271</v>
       </c>
       <c r="DL4">
-        <v>0.022579438956035171</v>
+        <v>0.023058263815738271</v>
       </c>
       <c r="DM4">
-        <v>0.022579438956035171</v>
+        <v>0.023058263815738271</v>
       </c>
       <c r="DN4">
-        <v>0.022579438956035168</v>
+        <v>0.023058263815738268</v>
       </c>
       <c r="DO4">
-        <v>0.022579438956035171</v>
+        <v>0.023058263815738275</v>
       </c>
       <c r="DP4">
-        <v>0.022579438956035171</v>
+        <v>0.023058263815738271</v>
       </c>
       <c r="DQ4">
-        <v>0.022579438956035175</v>
+        <v>0.023058263815738275</v>
       </c>
       <c r="DR4">
-        <v>0.022579438956035171</v>
+        <v>0.023058263815738275</v>
       </c>
       <c r="DS4">
-        <v>0.022579438956035189</v>
+        <v>0.023058263815738288</v>
       </c>
       <c r="DT4">
-        <v>0.022579438956035178</v>
+        <v>0.023058263815738275</v>
       </c>
       <c r="DU4">
-        <v>0.022579438956035189</v>
+        <v>0.023058263815738288</v>
       </c>
       <c r="DV4">
-        <v>0.022579438956035189</v>
+        <v>0.023058263815738288</v>
       </c>
       <c r="DW4">
-        <v>0.022579438956035189</v>
+        <v>0.023058263815738288</v>
       </c>
       <c r="DX4">
-        <v>0.022579438956035185</v>
+        <v>0.023058263815738285</v>
       </c>
       <c r="DY4">
-        <v>0.022579438956035192</v>
+        <v>0.023058263815738292</v>
       </c>
       <c r="DZ4">
-        <v>0.022579438956035192</v>
+        <v>0.023058263815738292</v>
       </c>
       <c r="EA4">
-        <v>0.022579438956035196</v>
+        <v>0.023058263815738295</v>
       </c>
       <c r="EB4">
-        <v>0.022579438956035199</v>
+        <v>0.023058263815738299</v>
       </c>
       <c r="EC4">
-        <v>0.022579438956035196</v>
+        <v>0.023058263815738295</v>
       </c>
       <c r="ED4">
-        <v>0.022579438956035196</v>
+        <v>0.023058263815738295</v>
       </c>
       <c r="EE4">
-        <v>0.022579438956035196</v>
+        <v>0.023058263815738295</v>
       </c>
       <c r="EF4">
-        <v>0.022579438956035203</v>
+        <v>0.023058263815738306</v>
       </c>
       <c r="EG4">
-        <v>0.022579438956035199</v>
+        <v>0.023058263815738299</v>
       </c>
       <c r="EH4">
-        <v>0.022579438956035206</v>
+        <v>0.023058263815738306</v>
       </c>
       <c r="EI4">
-        <v>0.022579438956035203</v>
+        <v>0.023058263815738302</v>
       </c>
       <c r="EJ4">
-        <v>0.022579438956035206</v>
+        <v>0.023058263815738306</v>
       </c>
       <c r="EK4">
-        <v>0.022579438956035203</v>
+        <v>0.023058263815738306</v>
       </c>
       <c r="EL4">
-        <v>0.02257943895603521</v>
+        <v>0.023058263815738309</v>
       </c>
       <c r="EM4">
-        <v>0.022579438956035203</v>
+        <v>0.023058263815738306</v>
       </c>
       <c r="EN4">
-        <v>0.022579438956035213</v>
+        <v>0.023058263815738313</v>
       </c>
       <c r="EO4">
-        <v>0.022579438956035203</v>
+        <v>0.023058263815738302</v>
       </c>
       <c r="EP4">
-        <v>0.02257943895603521</v>
+        <v>0.023058263815738309</v>
       </c>
       <c r="EQ4">
-        <v>0.022579438956035213</v>
+        <v>0.023058263815738316</v>
       </c>
       <c r="ER4">
-        <v>0.022579438956035217</v>
+        <v>0.023058263815738316</v>
       </c>
       <c r="ES4">
-        <v>0.022579438956035213</v>
+        <v>0.023058263815738316</v>
       </c>
       <c r="ET4">
-        <v>0.022579438956035213</v>
+        <v>0.023058263815738316</v>
       </c>
       <c r="EU4">
-        <v>0.022579438956035213</v>
+        <v>0.023058263815738316</v>
       </c>
       <c r="EV4">
-        <v>0.02257943895603521</v>
+        <v>0.023058263815738309</v>
       </c>
       <c r="EW4">
-        <v>0.022579438956035203</v>
+        <v>0.023058263815738306</v>
       </c>
       <c r="EX4">
-        <v>0.022579438956035213</v>
+        <v>0.023058263815738313</v>
       </c>
       <c r="EY4">
-        <v>0.02257943895603522</v>
+        <v>0.023058263815738316</v>
       </c>
       <c r="EZ4">
-        <v>0.02257943895603522</v>
+        <v>0.023058263815738316</v>
       </c>
       <c r="FA4">
-        <v>0.02257943895603522</v>
+        <v>0.02305826381573832</v>
       </c>
       <c r="FB4">
-        <v>0.02257943895603522</v>
+        <v>0.02305826381573832</v>
       </c>
       <c r="FC4">
-        <v>0.02257943895603522</v>
+        <v>0.02305826381573832</v>
       </c>
       <c r="FD4">
-        <v>0.02257943895603522</v>
+        <v>0.02305826381573832</v>
       </c>
       <c r="FE4">
-        <v>0.022579438956035223</v>
+        <v>0.023058263815738323</v>
       </c>
       <c r="FF4">
-        <v>0.02257943895603522</v>
+        <v>0.02305826381573832</v>
       </c>
       <c r="FG4">
-        <v>0.022579438956035223</v>
+        <v>0.023058263815738323</v>
       </c>
       <c r="FH4">
-        <v>0.02257943895603522</v>
+        <v>0.023058263815738323</v>
       </c>
       <c r="FI4">
-        <v>0.022579438956035227</v>
+        <v>0.023058263815738327</v>
       </c>
       <c r="FJ4">
-        <v>0.022579438956035227</v>
+        <v>0.023058263815738327</v>
       </c>
       <c r="FK4">
-        <v>0.02257943895603523</v>
+        <v>0.023058263815738334</v>
       </c>
       <c r="FL4">
-        <v>0.02257943895603523</v>
+        <v>0.023058263815738334</v>
       </c>
       <c r="FM4">
-        <v>0.02257943895603523</v>
+        <v>0.023058263815738334</v>
       </c>
       <c r="FN4">
-        <v>0.02257943895603523</v>
+        <v>0.02305826381573833</v>
       </c>
       <c r="FO4">
-        <v>0.02257943895603523</v>
+        <v>0.023058263815738334</v>
       </c>
       <c r="FP4">
-        <v>0.02257943895603523</v>
+        <v>0.023058263815738334</v>
       </c>
       <c r="FQ4">
-        <v>0.022579438956035234</v>
+        <v>0.023058263815738337</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.017817267797276791</v>
+        <v>0.018195104942386339</v>
       </c>
     </row>
   </sheetData>
@@ -5892,526 +5892,526 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>3.2932012216252864</v>
+        <v>3.2594189858254894</v>
       </c>
       <c r="C3">
-        <v>-1.6512607207783949</v>
+        <v>-1.6619365383701905</v>
       </c>
       <c r="D3">
-        <v>-1.6878591595808505</v>
+        <v>-1.6964340121958188</v>
       </c>
       <c r="E3">
-        <v>-1.6979604727788808</v>
+        <v>-1.7320747523035405</v>
       </c>
       <c r="F3">
-        <v>-0.013193517935735899</v>
+        <v>-0.0082793001349200715</v>
       </c>
       <c r="G3">
-        <v>-0.0044152403953462357</v>
+        <v>-0.010810447730255792</v>
       </c>
       <c r="H3">
-        <v>0.010246606333560846</v>
+        <v>0.01082954261970066</v>
       </c>
       <c r="I3">
-        <v>0.0076107027787991046</v>
+        <v>0.010420226200974311</v>
       </c>
       <c r="J3">
-        <v>-0.0099307577012974838</v>
+        <v>-0.011451780129075608</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.1939354197913838</v>
+        <v>1.2347823589472149</v>
       </c>
       <c r="M3">
-        <v>1.3279166015822921</v>
+        <v>1.3203696499452826</v>
       </c>
       <c r="N3">
-        <v>-0.150021624032045</v>
+        <v>-0.25591943395578176</v>
       </c>
       <c r="O3">
-        <v>-0.1629384322139463</v>
+        <v>-0.16776050587256883</v>
       </c>
       <c r="P3">
-        <v>-0.189583919870628</v>
+        <v>-0.18213130003321232</v>
       </c>
       <c r="Q3">
-        <v>-0.21595347365585074</v>
+        <v>-0.15533646244853511</v>
       </c>
       <c r="R3">
-        <v>-0.18914656574253677</v>
+        <v>-0.093462402522707058</v>
       </c>
       <c r="S3">
-        <v>-0.16938064007880504</v>
+        <v>-0.10386586503406474</v>
       </c>
       <c r="T3">
-        <v>-0.11491979181628235</v>
+        <v>-0.15052587935698911</v>
       </c>
       <c r="U3">
-        <v>-0.14841630993188729</v>
+        <v>-0.14896945366026568</v>
       </c>
       <c r="V3">
-        <v>-0.12665941124691504</v>
+        <v>-0.11243265452491817</v>
       </c>
       <c r="W3">
-        <v>-0.081504987685564897</v>
+        <v>-0.10710928299453874</v>
       </c>
       <c r="X3">
-        <v>-0.08846993448279912</v>
+        <v>-0.073817379507149505</v>
       </c>
       <c r="Y3">
-        <v>-0.10072966871246804</v>
+        <v>-0.086778953063618186</v>
       </c>
       <c r="Z3">
-        <v>-0.092569974816932715</v>
+        <v>-0.043260266824637954</v>
       </c>
       <c r="AA3">
-        <v>-0.085616867981467989</v>
+        <v>-0.040094325204519582</v>
       </c>
       <c r="AB3">
-        <v>-0.14398268305270254</v>
+        <v>-0.065791018676293569</v>
       </c>
       <c r="AC3">
-        <v>-0.056064442456986899</v>
+        <v>-0.11411291988781735</v>
       </c>
       <c r="AD3">
-        <v>-0.032233511934753857</v>
+        <v>-0.087227719885947269</v>
       </c>
       <c r="AE3">
-        <v>-0.093435819844484791</v>
+        <v>-0.080803420252532371</v>
       </c>
       <c r="AF3">
-        <v>-0.12173387720047092</v>
+        <v>-0.071914139338692326</v>
       </c>
       <c r="AG3">
-        <v>-0.052871239561699049</v>
+        <v>-0.080922576114488581</v>
       </c>
       <c r="AH3">
-        <v>-0.050841638361466678</v>
+        <v>-0.080974369211240696</v>
       </c>
       <c r="AI3">
-        <v>-0.042849737459924347</v>
+        <v>-0.062508771150852127</v>
       </c>
       <c r="AJ3">
-        <v>-0.020997009445290819</v>
+        <v>-0.051481528654601975</v>
       </c>
       <c r="AK3">
-        <v>-0.031479915560575167</v>
+        <v>-0.014770417817952896</v>
       </c>
       <c r="AL3">
-        <v>-0.070270397313201574</v>
+        <v>-0.041344435727935266</v>
       </c>
       <c r="AM3">
-        <v>-0.040530646518620365</v>
+        <v>-0.032889808195244584</v>
       </c>
       <c r="AN3">
-        <v>-0.030110939108892131</v>
+        <v>-0.0058441309767329492</v>
       </c>
       <c r="AO3">
-        <v>0.025736344361814351</v>
+        <v>-0.014974596518106736</v>
       </c>
       <c r="AP3">
-        <v>-0.11313162008950628</v>
+        <v>-0.033327424226423513</v>
       </c>
       <c r="AQ3">
-        <v>-0.05298977030427203</v>
+        <v>-0.054760260143904636</v>
       </c>
       <c r="AR3">
-        <v>-0.016824892559865717</v>
+        <v>-0.06039474596568304</v>
       </c>
       <c r="AS3">
-        <v>-0.025911616349526753</v>
+        <v>0.0059190957040645533</v>
       </c>
       <c r="AT3">
-        <v>-0.082276676161997603</v>
+        <v>-0.0019824228123279104</v>
       </c>
       <c r="AU3">
-        <v>-0.048352497846923539</v>
+        <v>0.062553760633669103</v>
       </c>
       <c r="AV3">
-        <v>-0.056850195137080201</v>
+        <v>0.0011025586385199247</v>
       </c>
       <c r="AW3">
-        <v>-0.076018415830805292</v>
+        <v>-0.0053678511482980361</v>
       </c>
       <c r="AX3">
-        <v>0.0064640975924984819</v>
+        <v>0.073461301241398255</v>
       </c>
       <c r="AY3">
-        <v>-0.0046383403139266784</v>
+        <v>-0.00071309738422703235</v>
       </c>
       <c r="AZ3">
-        <v>0.014726417626804354</v>
+        <v>-0.051244668324489574</v>
       </c>
       <c r="BA3">
-        <v>-0.0026262832657027581</v>
+        <v>-0.037482269458260345</v>
       </c>
       <c r="BB3">
-        <v>-0.002932629869846408</v>
+        <v>0.0027815282361444713</v>
       </c>
       <c r="BC3">
-        <v>-0.02579811046889853</v>
+        <v>-0.020690220127032886</v>
       </c>
       <c r="BD3">
-        <v>-0.04585876432223536</v>
+        <v>-0.02477896304507806</v>
       </c>
       <c r="BE3">
-        <v>-0.011543390744159422</v>
+        <v>-0.011868216044130145</v>
       </c>
       <c r="BF3">
-        <v>-0.067984859834111677</v>
+        <v>-0.014926130313775697</v>
       </c>
       <c r="BG3">
-        <v>-0.051355214302985126</v>
+        <v>-0.07940666692493141</v>
       </c>
       <c r="BH3">
-        <v>-0.063732428450188755</v>
+        <v>-0.018942735342612524</v>
       </c>
       <c r="BI3">
-        <v>0.0034076117394543138</v>
+        <v>0.030014025405676655</v>
       </c>
       <c r="BJ3">
-        <v>-0.015574519777442794</v>
+        <v>0.034487388894800221</v>
       </c>
       <c r="BK3">
-        <v>-0.027300384572460663</v>
+        <v>-0.027227311025090989</v>
       </c>
       <c r="BL3">
-        <v>-0.017719020588693978</v>
+        <v>0.019043634225109629</v>
       </c>
       <c r="BM3">
-        <v>-0.018830394973328394</v>
+        <v>-0.057433647854778801</v>
       </c>
       <c r="BN3">
-        <v>-0.023485529727659969</v>
+        <v>0.018842397920507573</v>
       </c>
       <c r="BO3">
-        <v>-0.014802199454273794</v>
+        <v>-0.0077989368153690061</v>
       </c>
       <c r="BP3">
-        <v>-0.050535375102720409</v>
+        <v>0.043258609680021022</v>
       </c>
       <c r="BQ3">
-        <v>-0.0096421640944716457</v>
+        <v>0.0074413366340307027</v>
       </c>
       <c r="BR3">
-        <v>-0.0020383094711870398</v>
+        <v>-0.015187375924812629</v>
       </c>
       <c r="BS3">
-        <v>-0.06729115004424964</v>
+        <v>-0.037102327550301774</v>
       </c>
       <c r="BT3">
-        <v>-0.051565563231982865</v>
+        <v>0.05740624710819648</v>
       </c>
       <c r="BU3">
-        <v>-0.068127281858585562</v>
+        <v>-0.022642112535391834</v>
       </c>
       <c r="BV3">
-        <v>-0.11571671185852114</v>
+        <v>-0.066439556982306539</v>
       </c>
       <c r="BW3">
-        <v>-0.013836981227403315</v>
+        <v>0.0035007067011752408</v>
       </c>
       <c r="BX3">
-        <v>0.001874525726650136</v>
+        <v>-0.0092374381764663768</v>
       </c>
       <c r="BY3">
-        <v>-0.020682728116753139</v>
+        <v>0.0025072115623363885</v>
       </c>
       <c r="BZ3">
-        <v>0.025573178765408603</v>
+        <v>0.013410115793936868</v>
       </c>
       <c r="CA3">
-        <v>-0.050736011223802543</v>
+        <v>0.005853214690995626</v>
       </c>
       <c r="CB3">
-        <v>-0.00272158407423195</v>
+        <v>-0.048234160311806967</v>
       </c>
       <c r="CC3">
-        <v>-0.044482094330393844</v>
+        <v>-0.01676292868935176</v>
       </c>
       <c r="CD3">
-        <v>0.015135727738811559</v>
+        <v>-0.0031220141732226274</v>
       </c>
       <c r="CE3">
-        <v>-0.069892211143562893</v>
+        <v>-0.08396964412148436</v>
       </c>
       <c r="CF3">
-        <v>-0.012468925080014175</v>
+        <v>-0.02961247946974321</v>
       </c>
       <c r="CG3">
-        <v>-0.053024857362621323</v>
+        <v>-0.040282145684391833</v>
       </c>
       <c r="CH3">
-        <v>-0.048932796330407362</v>
+        <v>0.0025219132119304807</v>
       </c>
       <c r="CI3">
-        <v>-0.079732240720947811</v>
+        <v>-0.0022210139889152197</v>
       </c>
       <c r="CJ3">
-        <v>-0.037871954672902851</v>
+        <v>-0.027204107885425082</v>
       </c>
       <c r="CK3">
-        <v>-0.016461709943256683</v>
+        <v>0.032999340252364368</v>
       </c>
       <c r="CL3">
-        <v>-0.031295269854621201</v>
+        <v>-0.025063962456237255</v>
       </c>
       <c r="CM3">
-        <v>-0.0029870085715113393</v>
+        <v>0.012008957863336236</v>
       </c>
       <c r="CN3">
-        <v>-0.020584169109952661</v>
+        <v>0.0023588902372375523</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.056153922293215752</v>
+        <v>0.081475001370052202</v>
       </c>
       <c r="CQ3">
-        <v>0.023134766106520745</v>
+        <v>0.0072060048333631469</v>
       </c>
       <c r="CR3">
-        <v>-0.013894623467829379</v>
+        <v>0.0079696228107233764</v>
       </c>
       <c r="CS3">
-        <v>0.023133496404771102</v>
+        <v>-0.0043182334661185937</v>
       </c>
       <c r="CT3">
-        <v>-0.012637125692856977</v>
+        <v>-0.002272140654184714</v>
       </c>
       <c r="CU3">
-        <v>-0.011647949023424576</v>
+        <v>-0.018027482132180285</v>
       </c>
       <c r="CV3">
-        <v>-0.019416072599672807</v>
+        <v>-0.0013095517696928279</v>
       </c>
       <c r="CW3">
-        <v>-0.026322934785133648</v>
+        <v>0.016848585097856007</v>
       </c>
       <c r="CX3">
-        <v>-0.037751617333258873</v>
+        <v>-0.023451382782578425</v>
       </c>
       <c r="CY3">
-        <v>0.028254009256776617</v>
+        <v>-0.0070992186479356349</v>
       </c>
       <c r="CZ3">
-        <v>-0.039923004779283199</v>
+        <v>-0.012607852766741739</v>
       </c>
       <c r="DA3">
-        <v>-0.038585052689049278</v>
+        <v>-0.012214108906379787</v>
       </c>
       <c r="DB3">
-        <v>-0.0081856213801306046</v>
+        <v>-0.012040095010494847</v>
       </c>
       <c r="DC3">
-        <v>-0.015584358972646215</v>
+        <v>-0.039661392133316799</v>
       </c>
       <c r="DD3">
-        <v>0.0059616907550520395</v>
+        <v>0.0063219955516758764</v>
       </c>
       <c r="DE3">
-        <v>-0.039394341449522807</v>
+        <v>0.0015226104124058417</v>
       </c>
       <c r="DF3">
-        <v>-0.02880540038687876</v>
+        <v>-0.029429659939064576</v>
       </c>
       <c r="DG3">
-        <v>-0.030017931889535689</v>
+        <v>-0.0035432612748861475</v>
       </c>
       <c r="DH3">
-        <v>0.0098723406385436349</v>
+        <v>0.0054452241832502052</v>
       </c>
       <c r="DI3">
-        <v>-0.008105586385138263</v>
+        <v>-0.016641090929245303</v>
       </c>
       <c r="DJ3">
-        <v>-0.036288628950681037</v>
+        <v>-0.0053338768704404805</v>
       </c>
       <c r="DK3">
-        <v>-0.0082141438968425066</v>
+        <v>-0.023666720352063828</v>
       </c>
       <c r="DL3">
-        <v>-0.024524399328895854</v>
+        <v>-0.013822486659106927</v>
       </c>
       <c r="DM3">
-        <v>-0.029646883172070208</v>
+        <v>-0.027793447968189298</v>
       </c>
       <c r="DN3">
-        <v>-0.033704828498573911</v>
+        <v>0.025607593781364166</v>
       </c>
       <c r="DO3">
-        <v>-0.036666409147940643</v>
+        <v>-0.0020568395302519179</v>
       </c>
       <c r="DP3">
-        <v>-0.022030592849805648</v>
+        <v>-0.023022348358297778</v>
       </c>
       <c r="DQ3">
-        <v>-0.025703277364078545</v>
+        <v>-0.039507971981321569</v>
       </c>
       <c r="DR3">
-        <v>0.0093030484595432606</v>
+        <v>-0.0047471743426606402</v>
       </c>
       <c r="DS3">
-        <v>-0.013398504207904331</v>
+        <v>0.0083144640976532385</v>
       </c>
       <c r="DT3">
-        <v>-0.0029957685582819335</v>
+        <v>0.021353331037154203</v>
       </c>
       <c r="DU3">
-        <v>0.012030496728818512</v>
+        <v>-0.018383639703777842</v>
       </c>
       <c r="DV3">
-        <v>-0.0011169100494485185</v>
+        <v>-0.0055382246430512013</v>
       </c>
       <c r="DW3">
-        <v>-0.056030792295152683</v>
+        <v>-0.0096895122309168594</v>
       </c>
       <c r="DX3">
-        <v>-0.01421418681959416</v>
+        <v>-0.026857737322194652</v>
       </c>
       <c r="DY3">
-        <v>-0.010443105499357999</v>
+        <v>-0.038758252324649412</v>
       </c>
       <c r="DZ3">
-        <v>-0.022760924839434222</v>
+        <v>-0.0054015991195812754</v>
       </c>
       <c r="EA3">
-        <v>-0.014980112072005402</v>
+        <v>-0.01049936417648719</v>
       </c>
       <c r="EB3">
-        <v>-0.021791529036214247</v>
+        <v>-0.01980165297181059</v>
       </c>
       <c r="EC3">
-        <v>-0.0062699618949814996</v>
+        <v>-0.040624175805503072</v>
       </c>
       <c r="ED3">
-        <v>-0.029937895279841663</v>
+        <v>-0.0034785570317191431</v>
       </c>
       <c r="EE3">
-        <v>-0.032086578735461495</v>
+        <v>-0.0058315295129091581</v>
       </c>
       <c r="EF3">
-        <v>-0.027154267105046429</v>
+        <v>-0.037963886603238496</v>
       </c>
       <c r="EG3">
-        <v>-0.026805691425241664</v>
+        <v>-0.031800160723190814</v>
       </c>
       <c r="EH3">
-        <v>-0.022687737934494811</v>
+        <v>-0.00095470913977134357</v>
       </c>
       <c r="EI3">
-        <v>-0.024864354882108235</v>
+        <v>-0.019308560964366329</v>
       </c>
       <c r="EJ3">
-        <v>-0.042499694820457984</v>
+        <v>0.020483583021891134</v>
       </c>
       <c r="EK3">
-        <v>-0.021338430153605117</v>
+        <v>-0.015138127063671311</v>
       </c>
       <c r="EL3">
-        <v>-0.030860624743412678</v>
+        <v>-0.022948086048821027</v>
       </c>
       <c r="EM3">
-        <v>-0.019051134688550606</v>
+        <v>-0.035287052463737596</v>
       </c>
       <c r="EN3">
-        <v>-0.028213497032314457</v>
+        <v>-0.018663170906997911</v>
       </c>
       <c r="EO3">
-        <v>-0.059294683535070863</v>
+        <v>-0.014543021279725319</v>
       </c>
       <c r="EP3">
-        <v>-0.057549735832530043</v>
+        <v>-0.030421486333642025</v>
       </c>
       <c r="EQ3">
-        <v>-0.044622077730548652</v>
+        <v>-0.030754168702449756</v>
       </c>
       <c r="ER3">
-        <v>-0.043249061754782707</v>
+        <v>-0.02096140538363897</v>
       </c>
       <c r="ES3">
-        <v>-0.041430594538797688</v>
+        <v>-0.068177844504813637</v>
       </c>
       <c r="ET3">
-        <v>-0.0039671112744972961</v>
+        <v>-0.072606828785949901</v>
       </c>
       <c r="EU3">
-        <v>-0.014561287356861326</v>
+        <v>-0.0011559497868370101</v>
       </c>
       <c r="EV3">
-        <v>-0.053878870738278635</v>
+        <v>-0.044221555635242535</v>
       </c>
       <c r="EW3">
-        <v>-0.055845032927708552</v>
+        <v>-0.040205585402231077</v>
       </c>
       <c r="EX3">
-        <v>-0.055539202937945509</v>
+        <v>-0.043504157750490637</v>
       </c>
       <c r="EY3">
-        <v>-0.031840497763741718</v>
+        <v>-0.0167520356346645</v>
       </c>
       <c r="EZ3">
-        <v>-0.043286166158064035</v>
+        <v>-0.041816145510035083</v>
       </c>
       <c r="FA3">
-        <v>-0.032806424648747605</v>
+        <v>-0.0094976183572637232</v>
       </c>
       <c r="FB3">
-        <v>-0.015976777327085957</v>
+        <v>-0.047614375731628189</v>
       </c>
       <c r="FC3">
-        <v>0.018461266319748555</v>
+        <v>-0.015383788005719304</v>
       </c>
       <c r="FD3">
-        <v>-0.076734668067104189</v>
+        <v>-0.032929369689723181</v>
       </c>
       <c r="FE3">
-        <v>-0.028297639418392185</v>
+        <v>-0.066880772209265194</v>
       </c>
       <c r="FF3">
-        <v>-0.0099260558924877101</v>
+        <v>-0.042344057198279349</v>
       </c>
       <c r="FG3">
-        <v>-0.066942871824391167</v>
+        <v>-0.046896981193013845</v>
       </c>
       <c r="FH3">
-        <v>-0.045661140806257244</v>
+        <v>-0.045287190207832201</v>
       </c>
       <c r="FI3">
-        <v>-0.07066571735145448</v>
+        <v>-0.033630106532580771</v>
       </c>
       <c r="FJ3">
-        <v>-0.031969486788277462</v>
+        <v>-0.055123095935688385</v>
       </c>
       <c r="FK3">
-        <v>-0.072004266767450406</v>
+        <v>-0.054574690599269352</v>
       </c>
       <c r="FL3">
-        <v>-0.056729951743769748</v>
+        <v>-0.05945863781335279</v>
       </c>
       <c r="FM3">
-        <v>-0.045407174325384075</v>
+        <v>-0.048115980882544492</v>
       </c>
       <c r="FN3">
-        <v>-0.058049477607354801</v>
+        <v>-0.055465635494202435</v>
       </c>
       <c r="FO3">
-        <v>-0.069013760102197078</v>
+        <v>-0.045063640467579484</v>
       </c>
       <c r="FP3">
-        <v>-0.054077291217827644</v>
+        <v>-0.042531498237108965</v>
       </c>
       <c r="FQ3">
-        <v>-0.10625989626718438</v>
+        <v>-0.0335823440008092</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.4676529564559866</v>
+        <v>-5.4752634102007249</v>
       </c>
     </row>
     <row r="4">
@@ -6419,526 +6419,526 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.032142557682104049</v>
+        <v>0.035373096829967893</v>
       </c>
       <c r="C4">
-        <v>0.014017679846830843</v>
+        <v>0.015426549170650155</v>
       </c>
       <c r="D4">
-        <v>0.020520523218143245</v>
+        <v>0.02258297121143938</v>
       </c>
       <c r="E4">
-        <v>0.024269467392930406</v>
+        <v>0.026708709014150837</v>
       </c>
       <c r="F4">
-        <v>0.022209475542721409</v>
+        <v>0.024441674389617574</v>
       </c>
       <c r="G4">
-        <v>0.018579966315340531</v>
+        <v>0.020447375534648492</v>
       </c>
       <c r="H4">
-        <v>0.01505917075394019</v>
+        <v>0.016572716786465675</v>
       </c>
       <c r="I4">
-        <v>0.014972332799385585</v>
+        <v>0.016477151044456084</v>
       </c>
       <c r="J4">
-        <v>0.015802445178198704</v>
+        <v>0.017390695195046813</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.034283227580333135</v>
+        <v>0.037728918178721815</v>
       </c>
       <c r="M4">
-        <v>0.034283227580333135</v>
+        <v>0.037728918178721815</v>
       </c>
       <c r="N4">
-        <v>0.034283227580333142</v>
+        <v>0.037728918178721815</v>
       </c>
       <c r="O4">
-        <v>0.034283227580333149</v>
+        <v>0.037728918178721822</v>
       </c>
       <c r="P4">
-        <v>0.034283227580333142</v>
+        <v>0.037728918178721815</v>
       </c>
       <c r="Q4">
-        <v>0.034283227580333156</v>
+        <v>0.037728918178721836</v>
       </c>
       <c r="R4">
-        <v>0.034283227580333156</v>
+        <v>0.037728918178721836</v>
       </c>
       <c r="S4">
-        <v>0.034283227580333156</v>
+        <v>0.037728918178721836</v>
       </c>
       <c r="T4">
-        <v>0.034283227580333156</v>
+        <v>0.037728918178721843</v>
       </c>
       <c r="U4">
-        <v>0.034283227580333149</v>
+        <v>0.037728918178721829</v>
       </c>
       <c r="V4">
-        <v>0.034283227580333163</v>
+        <v>0.037728918178721843</v>
       </c>
       <c r="W4">
-        <v>0.034283227580333156</v>
+        <v>0.037728918178721836</v>
       </c>
       <c r="X4">
-        <v>0.034283227580333163</v>
+        <v>0.037728918178721843</v>
       </c>
       <c r="Y4">
-        <v>0.034283227580333156</v>
+        <v>0.037728918178721843</v>
       </c>
       <c r="Z4">
-        <v>0.034283227580333163</v>
+        <v>0.037728918178721843</v>
       </c>
       <c r="AA4">
-        <v>0.034283227580333163</v>
+        <v>0.037728918178721843</v>
       </c>
       <c r="AB4">
-        <v>0.034283227580333163</v>
+        <v>0.037728918178721843</v>
       </c>
       <c r="AC4">
-        <v>0.034283227580333163</v>
+        <v>0.037728918178721843</v>
       </c>
       <c r="AD4">
-        <v>0.034283227580333163</v>
+        <v>0.037728918178721843</v>
       </c>
       <c r="AE4">
-        <v>0.03428322758033317</v>
+        <v>0.03772891817872185</v>
       </c>
       <c r="AF4">
-        <v>0.03428322758033317</v>
+        <v>0.03772891817872185</v>
       </c>
       <c r="AG4">
-        <v>0.03428322758033317</v>
+        <v>0.03772891817872185</v>
       </c>
       <c r="AH4">
-        <v>0.034283227580333163</v>
+        <v>0.037728918178721843</v>
       </c>
       <c r="AI4">
-        <v>0.034283227580333163</v>
+        <v>0.037728918178721843</v>
       </c>
       <c r="AJ4">
-        <v>0.03428322758033317</v>
+        <v>0.03772891817872185</v>
       </c>
       <c r="AK4">
-        <v>0.034283227580333177</v>
+        <v>0.037728918178721857</v>
       </c>
       <c r="AL4">
-        <v>0.034283227580333177</v>
+        <v>0.037728918178721857</v>
       </c>
       <c r="AM4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="AN4">
-        <v>0.034283227580333177</v>
+        <v>0.037728918178721857</v>
       </c>
       <c r="AO4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="AP4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="AQ4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="AR4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="AS4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="AT4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="AU4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="AV4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="AW4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="AX4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="AY4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="AZ4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="BA4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="BB4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="BC4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="BD4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="BE4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="BF4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="BG4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="BH4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="BI4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="BJ4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721864</v>
       </c>
       <c r="BK4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721871</v>
       </c>
       <c r="BL4">
-        <v>0.034283227580333184</v>
+        <v>0.037728918178721871</v>
       </c>
       <c r="BM4">
-        <v>0.034283227580333191</v>
+        <v>0.037728918178721878</v>
       </c>
       <c r="BN4">
-        <v>0.034283227580333191</v>
+        <v>0.037728918178721878</v>
       </c>
       <c r="BO4">
-        <v>0.034283227580333198</v>
+        <v>0.037728918178721878</v>
       </c>
       <c r="BP4">
-        <v>0.034283227580333198</v>
+        <v>0.037728918178721878</v>
       </c>
       <c r="BQ4">
-        <v>0.034263816850898909</v>
+        <v>0.037707556542892831</v>
       </c>
       <c r="BR4">
-        <v>0.034263816850898902</v>
+        <v>0.037707556542892824</v>
       </c>
       <c r="BS4">
-        <v>0.034263816850898909</v>
+        <v>0.037707556542892831</v>
       </c>
       <c r="BT4">
-        <v>0.031088746578847595</v>
+        <v>0.03421337075699455</v>
       </c>
       <c r="BU4">
-        <v>0.031088746578847599</v>
+        <v>0.03421337075699455</v>
       </c>
       <c r="BV4">
-        <v>0.036050144090579044</v>
+        <v>0.039673421457693793</v>
       </c>
       <c r="BW4">
-        <v>0.035354728575200889</v>
+        <v>0.038908112094144624</v>
       </c>
       <c r="BX4">
-        <v>0.035354728575200889</v>
+        <v>0.038908112094144624</v>
       </c>
       <c r="BY4">
-        <v>0.034827365945836693</v>
+        <v>0.038327746040593379</v>
       </c>
       <c r="BZ4">
-        <v>0.0348273659458367</v>
+        <v>0.038327746040593386</v>
       </c>
       <c r="CA4">
-        <v>0.0348273659458367</v>
+        <v>0.038327746040593386</v>
       </c>
       <c r="CB4">
-        <v>0.034399655341362086</v>
+        <v>0.037857047698012264</v>
       </c>
       <c r="CC4">
-        <v>0.0343996553413621</v>
+        <v>0.037857047698012278</v>
       </c>
       <c r="CD4">
-        <v>0.034399655341362093</v>
+        <v>0.037857047698012264</v>
       </c>
       <c r="CE4">
-        <v>0.034399655341362093</v>
+        <v>0.037857047698012264</v>
       </c>
       <c r="CF4">
-        <v>0.0343996553413621</v>
+        <v>0.037857047698012278</v>
       </c>
       <c r="CG4">
-        <v>0.03430650595855779</v>
+        <v>0.037754536187566322</v>
       </c>
       <c r="CH4">
-        <v>0.034306505958557783</v>
+        <v>0.037754536187566315</v>
       </c>
       <c r="CI4">
-        <v>0.03430650595855779</v>
+        <v>0.037754536187566322</v>
       </c>
       <c r="CJ4">
-        <v>0.03430650595855779</v>
+        <v>0.037754536187566322</v>
       </c>
       <c r="CK4">
-        <v>0.034757318328632651</v>
+        <v>0.038250658175633376</v>
       </c>
       <c r="CL4">
-        <v>0.032803670565959536</v>
+        <v>0.036100655921171766</v>
       </c>
       <c r="CM4">
-        <v>0.032803670565959543</v>
+        <v>0.036100655921171773</v>
       </c>
       <c r="CN4">
-        <v>0.029803924802295632</v>
+        <v>0.032799415913677021</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.034948199649318709</v>
+        <v>0.038460724328627148</v>
       </c>
       <c r="CQ4">
-        <v>0.03536676947971476</v>
+        <v>0.038921363189017108</v>
       </c>
       <c r="CR4">
-        <v>0.03536676947971476</v>
+        <v>0.038921363189017108</v>
       </c>
       <c r="CS4">
-        <v>0.034839589112536637</v>
+        <v>0.038341197716204325</v>
       </c>
       <c r="CT4">
-        <v>0.034839589112536637</v>
+        <v>0.038341197716204332</v>
       </c>
       <c r="CU4">
-        <v>0.034839589112536637</v>
+        <v>0.038341197716204325</v>
       </c>
       <c r="CV4">
-        <v>0.034412030431371796</v>
+        <v>0.03787066656622811</v>
       </c>
       <c r="CW4">
-        <v>0.034412030431371789</v>
+        <v>0.03787066656622811</v>
       </c>
       <c r="CX4">
-        <v>0.034412030431371796</v>
+        <v>0.037870666566228117</v>
       </c>
       <c r="CY4">
-        <v>0.034412030431371789</v>
+        <v>0.037870666566228103</v>
       </c>
       <c r="CZ4">
-        <v>0.034412030431371796</v>
+        <v>0.037870666566228117</v>
       </c>
       <c r="DA4">
-        <v>0.034363084140295985</v>
+        <v>0.037816800849914678</v>
       </c>
       <c r="DB4">
-        <v>0.034363084140295978</v>
+        <v>0.037816800849914671</v>
       </c>
       <c r="DC4">
-        <v>0.034363084140295985</v>
+        <v>0.037816800849914678</v>
       </c>
       <c r="DD4">
-        <v>0.034363084140295978</v>
+        <v>0.037816800849914671</v>
       </c>
       <c r="DE4">
-        <v>0.034363084140295985</v>
+        <v>0.037816800849914678</v>
       </c>
       <c r="DF4">
-        <v>0.032179585073532455</v>
+        <v>0.035413845718569481</v>
       </c>
       <c r="DG4">
-        <v>0.032179585073532448</v>
+        <v>0.035413845718569474</v>
       </c>
       <c r="DH4">
-        <v>0.032179585073532455</v>
+        <v>0.035413845718569481</v>
       </c>
       <c r="DI4">
-        <v>0.032179585073532462</v>
+        <v>0.035413845718569488</v>
       </c>
       <c r="DJ4">
-        <v>0.032179585073532462</v>
+        <v>0.035413845718569488</v>
       </c>
       <c r="DK4">
-        <v>0.034308057288853222</v>
+        <v>0.037756243436793298</v>
       </c>
       <c r="DL4">
-        <v>0.034308057288853222</v>
+        <v>0.037756243436793298</v>
       </c>
       <c r="DM4">
-        <v>0.034308057288853222</v>
+        <v>0.037756243436793298</v>
       </c>
       <c r="DN4">
-        <v>0.034308057288853222</v>
+        <v>0.037756243436793291</v>
       </c>
       <c r="DO4">
-        <v>0.034308057288853229</v>
+        <v>0.037756243436793298</v>
       </c>
       <c r="DP4">
-        <v>0.034308057288853222</v>
+        <v>0.037756243436793298</v>
       </c>
       <c r="DQ4">
-        <v>0.034308057288853229</v>
+        <v>0.037756243436793305</v>
       </c>
       <c r="DR4">
-        <v>0.034308057288853229</v>
+        <v>0.037756243436793298</v>
       </c>
       <c r="DS4">
-        <v>0.034308057288853257</v>
+        <v>0.037756243436793326</v>
       </c>
       <c r="DT4">
-        <v>0.034308057288853236</v>
+        <v>0.037756243436793305</v>
       </c>
       <c r="DU4">
-        <v>0.034308057288853257</v>
+        <v>0.037756243436793326</v>
       </c>
       <c r="DV4">
-        <v>0.034308057288853257</v>
+        <v>0.037756243436793326</v>
       </c>
       <c r="DW4">
-        <v>0.034308057288853257</v>
+        <v>0.037756243436793326</v>
       </c>
       <c r="DX4">
-        <v>0.03430805728885325</v>
+        <v>0.037756243436793326</v>
       </c>
       <c r="DY4">
-        <v>0.034308057288853257</v>
+        <v>0.037756243436793333</v>
       </c>
       <c r="DZ4">
-        <v>0.034308057288853257</v>
+        <v>0.037756243436793333</v>
       </c>
       <c r="EA4">
-        <v>0.034308057288853264</v>
+        <v>0.037756243436793339</v>
       </c>
       <c r="EB4">
-        <v>0.034308057288853271</v>
+        <v>0.037756243436793339</v>
       </c>
       <c r="EC4">
-        <v>0.034308057288853264</v>
+        <v>0.037756243436793339</v>
       </c>
       <c r="ED4">
-        <v>0.034308057288853264</v>
+        <v>0.037756243436793339</v>
       </c>
       <c r="EE4">
-        <v>0.034308057288853264</v>
+        <v>0.037756243436793339</v>
       </c>
       <c r="EF4">
-        <v>0.034308057288853278</v>
+        <v>0.037756243436793353</v>
       </c>
       <c r="EG4">
-        <v>0.034308057288853271</v>
+        <v>0.037756243436793339</v>
       </c>
       <c r="EH4">
-        <v>0.034308057288853278</v>
+        <v>0.03775624343679336</v>
       </c>
       <c r="EI4">
-        <v>0.034308057288853271</v>
+        <v>0.037756243436793346</v>
       </c>
       <c r="EJ4">
-        <v>0.034308057288853278</v>
+        <v>0.03775624343679336</v>
       </c>
       <c r="EK4">
-        <v>0.034308057288853278</v>
+        <v>0.037756243436793353</v>
       </c>
       <c r="EL4">
-        <v>0.034308057288853284</v>
+        <v>0.03775624343679336</v>
       </c>
       <c r="EM4">
-        <v>0.034308057288853278</v>
+        <v>0.037756243436793353</v>
       </c>
       <c r="EN4">
-        <v>0.034308057288853291</v>
+        <v>0.037756243436793367</v>
       </c>
       <c r="EO4">
-        <v>0.034308057288853271</v>
+        <v>0.037756243436793346</v>
       </c>
       <c r="EP4">
-        <v>0.034308057288853284</v>
+        <v>0.03775624343679336</v>
       </c>
       <c r="EQ4">
-        <v>0.034308057288853291</v>
+        <v>0.037756243436793367</v>
       </c>
       <c r="ER4">
-        <v>0.034308057288853298</v>
+        <v>0.037756243436793374</v>
       </c>
       <c r="ES4">
-        <v>0.034308057288853291</v>
+        <v>0.037756243436793367</v>
       </c>
       <c r="ET4">
-        <v>0.034308057288853291</v>
+        <v>0.037756243436793367</v>
       </c>
       <c r="EU4">
-        <v>0.034308057288853291</v>
+        <v>0.037756243436793367</v>
       </c>
       <c r="EV4">
-        <v>0.034308057288853284</v>
+        <v>0.03775624343679336</v>
       </c>
       <c r="EW4">
-        <v>0.034308057288853278</v>
+        <v>0.037756243436793353</v>
       </c>
       <c r="EX4">
-        <v>0.034308057288853291</v>
+        <v>0.037756243436793367</v>
       </c>
       <c r="EY4">
-        <v>0.034308057288853298</v>
+        <v>0.037756243436793374</v>
       </c>
       <c r="EZ4">
-        <v>0.034308057288853298</v>
+        <v>0.037756243436793374</v>
       </c>
       <c r="FA4">
-        <v>0.034308057288853298</v>
+        <v>0.037756243436793374</v>
       </c>
       <c r="FB4">
-        <v>0.034308057288853298</v>
+        <v>0.037756243436793374</v>
       </c>
       <c r="FC4">
-        <v>0.034308057288853298</v>
+        <v>0.037756243436793374</v>
       </c>
       <c r="FD4">
-        <v>0.034308057288853298</v>
+        <v>0.037756243436793374</v>
       </c>
       <c r="FE4">
-        <v>0.034308057288853305</v>
+        <v>0.037756243436793388</v>
       </c>
       <c r="FF4">
-        <v>0.034308057288853298</v>
+        <v>0.037756243436793374</v>
       </c>
       <c r="FG4">
-        <v>0.034308057288853305</v>
+        <v>0.037756243436793388</v>
       </c>
       <c r="FH4">
-        <v>0.034308057288853305</v>
+        <v>0.037756243436793381</v>
       </c>
       <c r="FI4">
-        <v>0.034308057288853305</v>
+        <v>0.037756243436793388</v>
       </c>
       <c r="FJ4">
-        <v>0.034308057288853305</v>
+        <v>0.037756243436793388</v>
       </c>
       <c r="FK4">
-        <v>0.034308057288853319</v>
+        <v>0.037756243436793395</v>
       </c>
       <c r="FL4">
-        <v>0.034308057288853319</v>
+        <v>0.037756243436793395</v>
       </c>
       <c r="FM4">
-        <v>0.034308057288853319</v>
+        <v>0.037756243436793395</v>
       </c>
       <c r="FN4">
-        <v>0.034308057288853312</v>
+        <v>0.037756243436793395</v>
       </c>
       <c r="FO4">
-        <v>0.034308057288853319</v>
+        <v>0.037756243436793395</v>
       </c>
       <c r="FP4">
-        <v>0.034308057288853319</v>
+        <v>0.037756243436793395</v>
       </c>
       <c r="FQ4">
-        <v>0.034308057288853326</v>
+        <v>0.037756243436793402</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.027072233526707106</v>
+        <v>0.029793171639134707</v>
       </c>
     </row>
   </sheetData>
@@ -8006,526 +8006,526 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>1.1301445303975992</v>
+        <v>1.1053028971063112</v>
       </c>
       <c r="C3">
-        <v>-1.7108542879491442</v>
+        <v>-1.7068696024413168</v>
       </c>
       <c r="D3">
-        <v>-1.7130460332194495</v>
+        <v>-1.7336186845309753</v>
       </c>
       <c r="E3">
-        <v>-1.7115666806660428</v>
+        <v>-1.6925684781200565</v>
       </c>
       <c r="F3">
-        <v>0.89324294347577293</v>
+        <v>0.86774996879464239</v>
       </c>
       <c r="G3">
-        <v>0.77120506022658619</v>
+        <v>0.77412587784204612</v>
       </c>
       <c r="H3">
-        <v>0.60670065005723872</v>
+        <v>0.62204586799583306</v>
       </c>
       <c r="I3">
-        <v>0.45344770187014405</v>
+        <v>0.44458706789333369</v>
       </c>
       <c r="J3">
-        <v>0.33870784529720099</v>
+        <v>0.33070089022420851</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.2958816790726455</v>
+        <v>1.298574775819483</v>
       </c>
       <c r="M3">
-        <v>1.4413985908443694</v>
+        <v>1.3867924644912979</v>
       </c>
       <c r="N3">
-        <v>-0.11543206455683884</v>
+        <v>-0.18326858580569635</v>
       </c>
       <c r="O3">
-        <v>-0.1112496624765219</v>
+        <v>-0.15466949681105865</v>
       </c>
       <c r="P3">
-        <v>-0.12121302881282783</v>
+        <v>-0.11984470449802467</v>
       </c>
       <c r="Q3">
-        <v>-0.073037071238313836</v>
+        <v>-0.048325606746324148</v>
       </c>
       <c r="R3">
-        <v>-0.11290434222445911</v>
+        <v>-0.044583709050376709</v>
       </c>
       <c r="S3">
-        <v>-0.069641924769167571</v>
+        <v>-0.039392995051827855</v>
       </c>
       <c r="T3">
-        <v>-0.072922905937919447</v>
+        <v>-0.13126031471204958</v>
       </c>
       <c r="U3">
-        <v>-0.14058379905199403</v>
+        <v>0.012951062891265427</v>
       </c>
       <c r="V3">
-        <v>-0.015286163259845978</v>
+        <v>-0.071097471550992469</v>
       </c>
       <c r="W3">
-        <v>0.030460851460609679</v>
+        <v>-0.046625822334450034</v>
       </c>
       <c r="X3">
-        <v>-0.045221041827704894</v>
+        <v>-0.03188369398098459</v>
       </c>
       <c r="Y3">
-        <v>-0.016112811999819555</v>
+        <v>-0.030821085689708743</v>
       </c>
       <c r="Z3">
-        <v>-0.022174031856954705</v>
+        <v>-0.017236142313471058</v>
       </c>
       <c r="AA3">
-        <v>-0.013034389197456262</v>
+        <v>-0.012568602804895126</v>
       </c>
       <c r="AB3">
-        <v>0.012392131612536845</v>
+        <v>0.0035785688816837064</v>
       </c>
       <c r="AC3">
-        <v>0.031206212939990603</v>
+        <v>-0.0068101385619192545</v>
       </c>
       <c r="AD3">
-        <v>0.054354710817677732</v>
+        <v>-0.0078786773545597866</v>
       </c>
       <c r="AE3">
-        <v>-0.030345490721808085</v>
+        <v>-0.0070118869659363311</v>
       </c>
       <c r="AF3">
-        <v>-0.014538206713384183</v>
+        <v>0.0026306277955782833</v>
       </c>
       <c r="AG3">
-        <v>0.015049177398511172</v>
+        <v>0.027941785458682897</v>
       </c>
       <c r="AH3">
-        <v>0.047153456502821468</v>
+        <v>0.02047017877163344</v>
       </c>
       <c r="AI3">
-        <v>0.044745230006581975</v>
+        <v>-0.0023736867071300046</v>
       </c>
       <c r="AJ3">
-        <v>0.087208561629472894</v>
+        <v>0.0044689192767644603</v>
       </c>
       <c r="AK3">
-        <v>0.068514679851249413</v>
+        <v>0.037971160451508112</v>
       </c>
       <c r="AL3">
-        <v>0.023128658266141532</v>
+        <v>0.011136496612178809</v>
       </c>
       <c r="AM3">
-        <v>0.0015124980162555949</v>
+        <v>0.036314116648878167</v>
       </c>
       <c r="AN3">
-        <v>0.044681509283372577</v>
+        <v>0.069347331354050912</v>
       </c>
       <c r="AO3">
-        <v>0.094345757932435076</v>
+        <v>0.034593295029758171</v>
       </c>
       <c r="AP3">
-        <v>0.054359756866554788</v>
+        <v>0.033211228296935062</v>
       </c>
       <c r="AQ3">
-        <v>0.057455201822433459</v>
+        <v>0.02685098255098552</v>
       </c>
       <c r="AR3">
-        <v>0.10687735425126875</v>
+        <v>0.0046493120231323659</v>
       </c>
       <c r="AS3">
-        <v>0.0735619777139217</v>
+        <v>0.066637369854876144</v>
       </c>
       <c r="AT3">
-        <v>0.013471381974146152</v>
+        <v>0.054015225403574764</v>
       </c>
       <c r="AU3">
-        <v>-0.020468607640566617</v>
+        <v>0.043200903607293617</v>
       </c>
       <c r="AV3">
-        <v>0.074353577176306404</v>
+        <v>0.064538234255901147</v>
       </c>
       <c r="AW3">
-        <v>0.029843582648874861</v>
+        <v>0.093468472337232308</v>
       </c>
       <c r="AX3">
-        <v>0.11459180610207002</v>
+        <v>0.060121566629338936</v>
       </c>
       <c r="AY3">
-        <v>0.032339342990928735</v>
+        <v>0.086740506785810106</v>
       </c>
       <c r="AZ3">
-        <v>0.14822206437689955</v>
+        <v>0.045146187490295461</v>
       </c>
       <c r="BA3">
-        <v>0.10234864560214814</v>
+        <v>0.063302877529958487</v>
       </c>
       <c r="BB3">
-        <v>0.12774645722883696</v>
+        <v>0.03733217742576992</v>
       </c>
       <c r="BC3">
-        <v>0.07923677443409731</v>
+        <v>0.027508292239804458</v>
       </c>
       <c r="BD3">
-        <v>0.021954153703768492</v>
+        <v>0.055596994642321707</v>
       </c>
       <c r="BE3">
-        <v>0.03255411771532675</v>
+        <v>0.063500361781035283</v>
       </c>
       <c r="BF3">
-        <v>0.031711905734806624</v>
+        <v>0.071714358794193647</v>
       </c>
       <c r="BG3">
-        <v>0.06003589577170166</v>
+        <v>0.0096269749890042344</v>
       </c>
       <c r="BH3">
-        <v>0.10612488210218099</v>
+        <v>0.0039138001853245563</v>
       </c>
       <c r="BI3">
-        <v>0.022396599747643284</v>
+        <v>0.050294210500288115</v>
       </c>
       <c r="BJ3">
-        <v>0.091965057599293604</v>
+        <v>0.094604474828760859</v>
       </c>
       <c r="BK3">
-        <v>0.076889419765159409</v>
+        <v>0.040074205794850187</v>
       </c>
       <c r="BL3">
-        <v>0.1019646617461249</v>
+        <v>0.050547945373955849</v>
       </c>
       <c r="BM3">
-        <v>0.051359413210594763</v>
+        <v>0.063370898556433103</v>
       </c>
       <c r="BN3">
-        <v>0.037199163972378935</v>
+        <v>0.1263565432528575</v>
       </c>
       <c r="BO3">
-        <v>0.061445426978981685</v>
+        <v>0.00043519323522668926</v>
       </c>
       <c r="BP3">
-        <v>-0.006346127878770781</v>
+        <v>0.060848611587063152</v>
       </c>
       <c r="BQ3">
-        <v>0.044578568269835549</v>
+        <v>0.047829675865537047</v>
       </c>
       <c r="BR3">
-        <v>0.070897959854119702</v>
+        <v>0.041333629243105963</v>
       </c>
       <c r="BS3">
-        <v>0.035648498928420695</v>
+        <v>0.072265876602807699</v>
       </c>
       <c r="BT3">
-        <v>0.069909833435787952</v>
+        <v>0.022343725125510257</v>
       </c>
       <c r="BU3">
-        <v>0.049615356224954103</v>
+        <v>0.038312604643184006</v>
       </c>
       <c r="BV3">
-        <v>-0.0037472077249208402</v>
+        <v>0.036116700612596989</v>
       </c>
       <c r="BW3">
-        <v>0.08142689462776187</v>
+        <v>0.1015560919421358</v>
       </c>
       <c r="BX3">
-        <v>0.07201491239939245</v>
+        <v>0.093068703757955284</v>
       </c>
       <c r="BY3">
-        <v>0.10019820426022323</v>
+        <v>0.11542674137944904</v>
       </c>
       <c r="BZ3">
-        <v>0.091947341117280937</v>
+        <v>0.038691352320110957</v>
       </c>
       <c r="CA3">
-        <v>0.0024735548221053124</v>
+        <v>0.031916712728866176</v>
       </c>
       <c r="CB3">
-        <v>0.11686991335962475</v>
+        <v>0.082101426196313929</v>
       </c>
       <c r="CC3">
-        <v>0.059471169965710668</v>
+        <v>0.04187356804163337</v>
       </c>
       <c r="CD3">
-        <v>0.067059243895878598</v>
+        <v>0.043419000206085724</v>
       </c>
       <c r="CE3">
-        <v>0.032741334742708073</v>
+        <v>-0.024820668543807659</v>
       </c>
       <c r="CF3">
-        <v>0.019175646174424452</v>
+        <v>-0.045141599217855377</v>
       </c>
       <c r="CG3">
-        <v>0.057205987766984309</v>
+        <v>0.068590672711492356</v>
       </c>
       <c r="CH3">
-        <v>0.041340855553610355</v>
+        <v>0.039862260578555152</v>
       </c>
       <c r="CI3">
-        <v>-0.013702750070950473</v>
+        <v>0.038693590601060486</v>
       </c>
       <c r="CJ3">
-        <v>0.0069260555639742288</v>
+        <v>0.012227813091819513</v>
       </c>
       <c r="CK3">
-        <v>-0.0091531716695876213</v>
+        <v>0.064790232631465841</v>
       </c>
       <c r="CL3">
-        <v>-0.0061081282252553049</v>
+        <v>0.040600852632348847</v>
       </c>
       <c r="CM3">
-        <v>0.049738915128514589</v>
+        <v>0.018437356497872339</v>
       </c>
       <c r="CN3">
-        <v>-0.0032477373639304848</v>
+        <v>-0.0027137653290246798</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>-0.014414745608443896</v>
+        <v>0.015872480236315146</v>
       </c>
       <c r="CQ3">
-        <v>0.26538715005211611</v>
+        <v>0.25983653621570557</v>
       </c>
       <c r="CR3">
-        <v>0.19921928538953027</v>
+        <v>0.21784225785735231</v>
       </c>
       <c r="CS3">
-        <v>0.25836924009824541</v>
+        <v>0.23017907099293081</v>
       </c>
       <c r="CT3">
-        <v>0.19962169645914316</v>
+        <v>0.20777077382120721</v>
       </c>
       <c r="CU3">
-        <v>0.15956968621726991</v>
+        <v>0.15734938253603195</v>
       </c>
       <c r="CV3">
-        <v>0.23160615941165694</v>
+        <v>0.22866109612346985</v>
       </c>
       <c r="CW3">
-        <v>0.19057263340789041</v>
+        <v>0.20968815142263186</v>
       </c>
       <c r="CX3">
-        <v>0.15741252948590892</v>
+        <v>0.1484789630790351</v>
       </c>
       <c r="CY3">
-        <v>0.17350676750877958</v>
+        <v>0.13525351057805013</v>
       </c>
       <c r="CZ3">
-        <v>0.11157832590557608</v>
+        <v>0.10878337284540342</v>
       </c>
       <c r="DA3">
-        <v>0.1607653622402225</v>
+        <v>0.17496039089407006</v>
       </c>
       <c r="DB3">
-        <v>0.15553851375291841</v>
+        <v>0.16003264713581869</v>
       </c>
       <c r="DC3">
-        <v>0.14049610955613329</v>
+        <v>0.11907232561415172</v>
       </c>
       <c r="DD3">
-        <v>0.12940287406456144</v>
+        <v>0.12302038677607996</v>
       </c>
       <c r="DE3">
-        <v>0.078394113399793741</v>
+        <v>0.10840583474244836</v>
       </c>
       <c r="DF3">
-        <v>0.11598663944266754</v>
+        <v>0.11432024717688791</v>
       </c>
       <c r="DG3">
-        <v>0.096607380012023347</v>
+        <v>0.11963337157192623</v>
       </c>
       <c r="DH3">
-        <v>0.11958706968208856</v>
+        <v>0.11883397929702738</v>
       </c>
       <c r="DI3">
-        <v>0.084574356773663636</v>
+        <v>0.073389582786852148</v>
       </c>
       <c r="DJ3">
-        <v>0.043831025108178059</v>
+        <v>0.072967880047757103</v>
       </c>
       <c r="DK3">
-        <v>0.2370656375323732</v>
+        <v>0.21320415429046591</v>
       </c>
       <c r="DL3">
-        <v>0.21153556261456052</v>
+        <v>0.20376490485050516</v>
       </c>
       <c r="DM3">
-        <v>0.18305655618225647</v>
+        <v>0.18924100966139712</v>
       </c>
       <c r="DN3">
-        <v>0.17008094703039597</v>
+        <v>0.21808557218911775</v>
       </c>
       <c r="DO3">
-        <v>0.16969561535643538</v>
+        <v>0.18736668568865328</v>
       </c>
       <c r="DP3">
-        <v>0.16453076999035338</v>
+        <v>0.15190195429278222</v>
       </c>
       <c r="DQ3">
-        <v>0.15308619469742074</v>
+        <v>0.1283722278803465</v>
       </c>
       <c r="DR3">
-        <v>0.17034164862800633</v>
+        <v>0.16126818570972429</v>
       </c>
       <c r="DS3">
-        <v>0.14789345298247969</v>
+        <v>0.15937760443969121</v>
       </c>
       <c r="DT3">
-        <v>0.14966620423134</v>
+        <v>0.16537458831012197</v>
       </c>
       <c r="DU3">
-        <v>0.15640342833527632</v>
+        <v>0.11876189527204828</v>
       </c>
       <c r="DV3">
-        <v>0.13267408632627423</v>
+        <v>0.12877409682466648</v>
       </c>
       <c r="DW3">
-        <v>0.084402456014858934</v>
+        <v>0.11303070725507988</v>
       </c>
       <c r="DX3">
-        <v>0.11898599410501863</v>
+        <v>0.098185199573242912</v>
       </c>
       <c r="DY3">
-        <v>0.11414431215934737</v>
+        <v>0.080555553552043399</v>
       </c>
       <c r="DZ3">
-        <v>0.094493601537820465</v>
+        <v>0.10240161257080832</v>
       </c>
       <c r="EA3">
-        <v>0.092303289321465865</v>
+        <v>0.093635226247302208</v>
       </c>
       <c r="EB3">
-        <v>0.091470521571265131</v>
+        <v>0.07806822716074234</v>
       </c>
       <c r="EC3">
-        <v>0.098286677870142711</v>
+        <v>0.061380022787301362</v>
       </c>
       <c r="ED3">
-        <v>0.06898308215073963</v>
+        <v>0.086843358534024875</v>
       </c>
       <c r="EE3">
-        <v>0.062452822669053727</v>
+        <v>0.080366586904729934</v>
       </c>
       <c r="EF3">
-        <v>0.062415777101501931</v>
+        <v>0.052423774325589062</v>
       </c>
       <c r="EG3">
-        <v>0.063671943689239605</v>
+        <v>0.045422503566091871</v>
       </c>
       <c r="EH3">
-        <v>0.064424322621059057</v>
+        <v>0.076191047929753813</v>
       </c>
       <c r="EI3">
-        <v>0.061153967453616391</v>
+        <v>0.054465754856048626</v>
       </c>
       <c r="EJ3">
-        <v>0.040059190091662887</v>
+        <v>0.091575820487042728</v>
       </c>
       <c r="EK3">
-        <v>0.055387000789794458</v>
+        <v>0.05084331259140884</v>
       </c>
       <c r="EL3">
-        <v>0.042443046815285053</v>
+        <v>0.044732820978854691</v>
       </c>
       <c r="EM3">
-        <v>0.053251347092704619</v>
+        <v>0.031588648299523445</v>
       </c>
       <c r="EN3">
-        <v>0.039931491925435887</v>
+        <v>0.046724268146890575</v>
       </c>
       <c r="EO3">
-        <v>0.016751188436043399</v>
+        <v>0.04957574807631835</v>
       </c>
       <c r="EP3">
-        <v>0.0040878574540117564</v>
+        <v>0.030086265860986266</v>
       </c>
       <c r="EQ3">
-        <v>0.018111522743270204</v>
+        <v>0.029555900269085632</v>
       </c>
       <c r="ER3">
-        <v>0.021161505106817923</v>
+        <v>0.035691476708030405</v>
       </c>
       <c r="ES3">
-        <v>0.02428792227233649</v>
+        <v>-0.0098333786915003798</v>
       </c>
       <c r="ET3">
-        <v>0.057148667899358407</v>
+        <v>-0.020138421179232743</v>
       </c>
       <c r="EU3">
-        <v>0.041985857389139195</v>
+        <v>0.049336176767282199</v>
       </c>
       <c r="EV3">
-        <v>0.0076801043798946705</v>
+        <v>0.0057401638737005836</v>
       </c>
       <c r="EW3">
-        <v>0.00087437160782210654</v>
+        <v>0.0058420007623155119</v>
       </c>
       <c r="EX3">
-        <v>-0.0024070798130482376</v>
+        <v>0.0071796587877637442</v>
       </c>
       <c r="EY3">
-        <v>0.02141535150408666</v>
+        <v>0.030471043110661854</v>
       </c>
       <c r="EZ3">
-        <v>0.0083445650545214932</v>
+        <v>0.0051469885366908731</v>
       </c>
       <c r="FA3">
-        <v>0.018546143571000498</v>
+        <v>0.037219457608238228</v>
       </c>
       <c r="FB3">
-        <v>0.03455192856112229</v>
+        <v>-0.0027607278166195495</v>
       </c>
       <c r="FC3">
-        <v>0.069030107358047557</v>
+        <v>0.025302971869529838</v>
       </c>
       <c r="FD3">
-        <v>-0.026590470491840587</v>
+        <v>0.013527134924381965</v>
       </c>
       <c r="FE3">
-        <v>0.022817002405804122</v>
+        <v>-0.022466370273295441</v>
       </c>
       <c r="FF3">
-        <v>0.039267014839046391</v>
+        <v>0.002987757739396192</v>
       </c>
       <c r="FG3">
-        <v>-0.020829494263292177</v>
+        <v>-0.0060606206495258715</v>
       </c>
       <c r="FH3">
-        <v>-0.00019196958739930834</v>
+        <v>-0.0038800166658587341</v>
       </c>
       <c r="FI3">
-        <v>-0.024835682223453049</v>
+        <v>0.0086570134681740601</v>
       </c>
       <c r="FJ3">
-        <v>0.014717222232288186</v>
+        <v>-0.014821516447790149</v>
       </c>
       <c r="FK3">
-        <v>-0.02693368378752517</v>
+        <v>-0.014898811733218732</v>
       </c>
       <c r="FL3">
-        <v>-0.010312424470366533</v>
+        <v>-0.020367750583426929</v>
       </c>
       <c r="FM3">
-        <v>0.002196796235690857</v>
+        <v>-0.0095654043750280152</v>
       </c>
       <c r="FN3">
-        <v>-0.015790430955149259</v>
+        <v>-0.016996907872998582</v>
       </c>
       <c r="FO3">
-        <v>-0.024634369694622568</v>
+        <v>-0.006387793752894823</v>
       </c>
       <c r="FP3">
-        <v>-0.013214073362998194</v>
+        <v>-0.0074424391196467</v>
       </c>
       <c r="FQ3">
-        <v>-0.065298180891068133</v>
+        <v>0.0036838079771845181</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.5032454603170455</v>
+        <v>-5.5043878464721914</v>
       </c>
     </row>
     <row r="4">
@@ -8533,526 +8533,526 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.067443804908878136</v>
+        <v>0.066251488797813993</v>
       </c>
       <c r="C4">
-        <v>0.029412894711584942</v>
+        <v>0.028892914139832842</v>
       </c>
       <c r="D4">
-        <v>0.043057624045989167</v>
+        <v>0.04229642294051273</v>
       </c>
       <c r="E4">
-        <v>0.050923925851815759</v>
+        <v>0.050023659069510257</v>
       </c>
       <c r="F4">
-        <v>0.046601504162992642</v>
+        <v>0.045777652005060135</v>
       </c>
       <c r="G4">
-        <v>0.038985809274382735</v>
+        <v>0.038296592398740517</v>
       </c>
       <c r="H4">
-        <v>0.031598225146336305</v>
+        <v>0.0310396108603554</v>
       </c>
       <c r="I4">
-        <v>0.031416015562282962</v>
+        <v>0.030860622497627735</v>
       </c>
       <c r="J4">
-        <v>0.033157816506776183</v>
+        <v>0.032571630735048866</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.071935511026927787</v>
+        <v>0.070663787569585496</v>
       </c>
       <c r="M4">
-        <v>0.071935511026927787</v>
+        <v>0.070663787569585496</v>
       </c>
       <c r="N4">
-        <v>0.071935511026927801</v>
+        <v>0.070663787569585509</v>
       </c>
       <c r="O4">
-        <v>0.071935511026927801</v>
+        <v>0.070663787569585509</v>
       </c>
       <c r="P4">
-        <v>0.071935511026927801</v>
+        <v>0.070663787569585509</v>
       </c>
       <c r="Q4">
-        <v>0.071935511026927829</v>
+        <v>0.070663787569585523</v>
       </c>
       <c r="R4">
-        <v>0.071935511026927829</v>
+        <v>0.070663787569585523</v>
       </c>
       <c r="S4">
-        <v>0.071935511026927829</v>
+        <v>0.070663787569585537</v>
       </c>
       <c r="T4">
-        <v>0.071935511026927842</v>
+        <v>0.070663787569585537</v>
       </c>
       <c r="U4">
-        <v>0.071935511026927815</v>
+        <v>0.070663787569585523</v>
       </c>
       <c r="V4">
-        <v>0.071935511026927842</v>
+        <v>0.070663787569585551</v>
       </c>
       <c r="W4">
-        <v>0.071935511026927829</v>
+        <v>0.070663787569585523</v>
       </c>
       <c r="X4">
-        <v>0.071935511026927842</v>
+        <v>0.070663787569585551</v>
       </c>
       <c r="Y4">
-        <v>0.071935511026927842</v>
+        <v>0.070663787569585537</v>
       </c>
       <c r="Z4">
-        <v>0.071935511026927842</v>
+        <v>0.070663787569585551</v>
       </c>
       <c r="AA4">
-        <v>0.071935511026927842</v>
+        <v>0.070663787569585551</v>
       </c>
       <c r="AB4">
-        <v>0.071935511026927842</v>
+        <v>0.070663787569585551</v>
       </c>
       <c r="AC4">
-        <v>0.071935511026927842</v>
+        <v>0.070663787569585551</v>
       </c>
       <c r="AD4">
-        <v>0.071935511026927842</v>
+        <v>0.070663787569585551</v>
       </c>
       <c r="AE4">
-        <v>0.071935511026927856</v>
+        <v>0.070663787569585565</v>
       </c>
       <c r="AF4">
-        <v>0.071935511026927856</v>
+        <v>0.070663787569585565</v>
       </c>
       <c r="AG4">
-        <v>0.071935511026927856</v>
+        <v>0.070663787569585565</v>
       </c>
       <c r="AH4">
-        <v>0.071935511026927842</v>
+        <v>0.070663787569585551</v>
       </c>
       <c r="AI4">
-        <v>0.071935511026927842</v>
+        <v>0.070663787569585551</v>
       </c>
       <c r="AJ4">
-        <v>0.071935511026927856</v>
+        <v>0.070663787569585565</v>
       </c>
       <c r="AK4">
-        <v>0.07193551102692787</v>
+        <v>0.070663787569585565</v>
       </c>
       <c r="AL4">
-        <v>0.07193551102692787</v>
+        <v>0.070663787569585565</v>
       </c>
       <c r="AM4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585579</v>
       </c>
       <c r="AN4">
-        <v>0.07193551102692787</v>
+        <v>0.070663787569585579</v>
       </c>
       <c r="AO4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585579</v>
       </c>
       <c r="AP4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585579</v>
       </c>
       <c r="AQ4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585593</v>
       </c>
       <c r="AR4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585593</v>
       </c>
       <c r="AS4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585593</v>
       </c>
       <c r="AT4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585579</v>
       </c>
       <c r="AU4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585579</v>
       </c>
       <c r="AV4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585579</v>
       </c>
       <c r="AW4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585579</v>
       </c>
       <c r="AX4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585579</v>
       </c>
       <c r="AY4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585579</v>
       </c>
       <c r="AZ4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585579</v>
       </c>
       <c r="BA4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585579</v>
       </c>
       <c r="BB4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585579</v>
       </c>
       <c r="BC4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585593</v>
       </c>
       <c r="BD4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585579</v>
       </c>
       <c r="BE4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585593</v>
       </c>
       <c r="BF4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585579</v>
       </c>
       <c r="BG4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585593</v>
       </c>
       <c r="BH4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585579</v>
       </c>
       <c r="BI4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585593</v>
       </c>
       <c r="BJ4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585593</v>
       </c>
       <c r="BK4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585593</v>
       </c>
       <c r="BL4">
-        <v>0.071935511026927884</v>
+        <v>0.070663787569585593</v>
       </c>
       <c r="BM4">
-        <v>0.071935511026927898</v>
+        <v>0.070663787569585607</v>
       </c>
       <c r="BN4">
-        <v>0.071935511026927898</v>
+        <v>0.070663787569585607</v>
       </c>
       <c r="BO4">
-        <v>0.071935511026927912</v>
+        <v>0.07066378756958562</v>
       </c>
       <c r="BP4">
-        <v>0.071935511026927912</v>
+        <v>0.07066378756958562</v>
       </c>
       <c r="BQ4">
-        <v>0.071894782051279707</v>
+        <v>0.070623778627659103</v>
       </c>
       <c r="BR4">
-        <v>0.071894782051279707</v>
+        <v>0.07062377862765909</v>
       </c>
       <c r="BS4">
-        <v>0.071894782051279721</v>
+        <v>0.070623778627659103</v>
       </c>
       <c r="BT4">
-        <v>0.065232623360671441</v>
+        <v>0.064079397976887248</v>
       </c>
       <c r="BU4">
-        <v>0.065232623360671441</v>
+        <v>0.064079397976887248</v>
       </c>
       <c r="BV4">
-        <v>0.075642981153788577</v>
+        <v>0.074305714591790237</v>
       </c>
       <c r="BW4">
-        <v>0.074183810766240837</v>
+        <v>0.072872340381729989</v>
       </c>
       <c r="BX4">
-        <v>0.074183810766240837</v>
+        <v>0.072872340381729989</v>
       </c>
       <c r="BY4">
-        <v>0.073077260919061929</v>
+        <v>0.071785352853318066</v>
       </c>
       <c r="BZ4">
-        <v>0.073077260919061943</v>
+        <v>0.07178535285331808</v>
       </c>
       <c r="CA4">
-        <v>0.073077260919061943</v>
+        <v>0.07178535285331808</v>
       </c>
       <c r="CB4">
-        <v>0.072179808051404656</v>
+        <v>0.070903765749973383</v>
       </c>
       <c r="CC4">
-        <v>0.07217980805140467</v>
+        <v>0.07090376574997341</v>
       </c>
       <c r="CD4">
-        <v>0.07217980805140467</v>
+        <v>0.070903765749973396</v>
       </c>
       <c r="CE4">
-        <v>0.07217980805140467</v>
+        <v>0.070903765749973396</v>
       </c>
       <c r="CF4">
-        <v>0.07217980805140467</v>
+        <v>0.07090376574997341</v>
       </c>
       <c r="CG4">
-        <v>0.071984355378864731</v>
+        <v>0.070711768418820792</v>
       </c>
       <c r="CH4">
-        <v>0.071984355378864731</v>
+        <v>0.070711768418820778</v>
       </c>
       <c r="CI4">
-        <v>0.071984355378864731</v>
+        <v>0.070711768418820792</v>
       </c>
       <c r="CJ4">
-        <v>0.071984355378864745</v>
+        <v>0.070711768418820806</v>
       </c>
       <c r="CK4">
-        <v>0.072930282017265577</v>
+        <v>0.071640972341586381</v>
       </c>
       <c r="CL4">
-        <v>0.068830999070664478</v>
+        <v>0.067614159225352161</v>
       </c>
       <c r="CM4">
-        <v>0.068830999070664492</v>
+        <v>0.067614159225352174</v>
       </c>
       <c r="CN4">
-        <v>0.062536718756642531</v>
+        <v>0.061431153354343945</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.073330802805947781</v>
+        <v>0.072034412459333619</v>
       </c>
       <c r="CQ4">
-        <v>0.074209075850089859</v>
+        <v>0.072897158812746152</v>
       </c>
       <c r="CR4">
-        <v>0.074209075850089859</v>
+        <v>0.072897158812746152</v>
       </c>
       <c r="CS4">
-        <v>0.0731029084384172</v>
+        <v>0.071810546958893121</v>
       </c>
       <c r="CT4">
-        <v>0.0731029084384172</v>
+        <v>0.071810546958893134</v>
       </c>
       <c r="CU4">
-        <v>0.0731029084384172</v>
+        <v>0.071810546958893121</v>
       </c>
       <c r="CV4">
-        <v>0.072205774347074064</v>
+        <v>0.070929272996324427</v>
       </c>
       <c r="CW4">
-        <v>0.07220577434707405</v>
+        <v>0.070929272996324427</v>
       </c>
       <c r="CX4">
-        <v>0.072205774347074064</v>
+        <v>0.070929272996324441</v>
       </c>
       <c r="CY4">
-        <v>0.072205774347074037</v>
+        <v>0.070929272996324413</v>
       </c>
       <c r="CZ4">
-        <v>0.072205774347074064</v>
+        <v>0.070929272996324441</v>
       </c>
       <c r="DA4">
-        <v>0.072103071751375897</v>
+        <v>0.070828386044919533</v>
       </c>
       <c r="DB4">
-        <v>0.072103071751375883</v>
+        <v>0.07082838604491952</v>
       </c>
       <c r="DC4">
-        <v>0.072103071751375897</v>
+        <v>0.070828386044919533</v>
       </c>
       <c r="DD4">
-        <v>0.072103071751375883</v>
+        <v>0.07082838604491952</v>
       </c>
       <c r="DE4">
-        <v>0.072103071751375897</v>
+        <v>0.070828386044919533</v>
       </c>
       <c r="DF4">
-        <v>0.0675214984200318</v>
+        <v>0.06632780879178253</v>
       </c>
       <c r="DG4">
-        <v>0.0675214984200318</v>
+        <v>0.06632780879178253</v>
       </c>
       <c r="DH4">
-        <v>0.0675214984200318</v>
+        <v>0.06632780879178253</v>
       </c>
       <c r="DI4">
-        <v>0.067521498420031814</v>
+        <v>0.066327808791782544</v>
       </c>
       <c r="DJ4">
-        <v>0.067521498420031814</v>
+        <v>0.066327808791782544</v>
       </c>
       <c r="DK4">
-        <v>0.071987610490633666</v>
+        <v>0.070714965984574774</v>
       </c>
       <c r="DL4">
-        <v>0.071987610490633666</v>
+        <v>0.070714965984574774</v>
       </c>
       <c r="DM4">
-        <v>0.071987610490633666</v>
+        <v>0.070714965984574774</v>
       </c>
       <c r="DN4">
-        <v>0.071987610490633666</v>
+        <v>0.070714965984574774</v>
       </c>
       <c r="DO4">
-        <v>0.07198761049063368</v>
+        <v>0.070714965984574774</v>
       </c>
       <c r="DP4">
-        <v>0.071987610490633666</v>
+        <v>0.070714965984574774</v>
       </c>
       <c r="DQ4">
-        <v>0.07198761049063368</v>
+        <v>0.070714965984574787</v>
       </c>
       <c r="DR4">
-        <v>0.07198761049063368</v>
+        <v>0.070714965984574774</v>
       </c>
       <c r="DS4">
-        <v>0.071987610490633736</v>
+        <v>0.070714965984574829</v>
       </c>
       <c r="DT4">
-        <v>0.071987610490633694</v>
+        <v>0.070714965984574787</v>
       </c>
       <c r="DU4">
-        <v>0.071987610490633736</v>
+        <v>0.070714965984574829</v>
       </c>
       <c r="DV4">
-        <v>0.071987610490633736</v>
+        <v>0.070714965984574829</v>
       </c>
       <c r="DW4">
-        <v>0.071987610490633736</v>
+        <v>0.070714965984574829</v>
       </c>
       <c r="DX4">
-        <v>0.071987610490633722</v>
+        <v>0.070714965984574829</v>
       </c>
       <c r="DY4">
-        <v>0.071987610490633736</v>
+        <v>0.070714965984574843</v>
       </c>
       <c r="DZ4">
-        <v>0.071987610490633736</v>
+        <v>0.070714965984574843</v>
       </c>
       <c r="EA4">
-        <v>0.071987610490633763</v>
+        <v>0.070714965984574857</v>
       </c>
       <c r="EB4">
-        <v>0.071987610490633763</v>
+        <v>0.070714965984574871</v>
       </c>
       <c r="EC4">
-        <v>0.071987610490633763</v>
+        <v>0.070714965984574857</v>
       </c>
       <c r="ED4">
-        <v>0.071987610490633763</v>
+        <v>0.070714965984574857</v>
       </c>
       <c r="EE4">
-        <v>0.071987610490633763</v>
+        <v>0.070714965984574857</v>
       </c>
       <c r="EF4">
-        <v>0.071987610490633777</v>
+        <v>0.070714965984574885</v>
       </c>
       <c r="EG4">
-        <v>0.071987610490633763</v>
+        <v>0.070714965984574871</v>
       </c>
       <c r="EH4">
-        <v>0.071987610490633791</v>
+        <v>0.070714965984574885</v>
       </c>
       <c r="EI4">
-        <v>0.071987610490633777</v>
+        <v>0.070714965984574885</v>
       </c>
       <c r="EJ4">
-        <v>0.071987610490633791</v>
+        <v>0.070714965984574885</v>
       </c>
       <c r="EK4">
-        <v>0.071987610490633777</v>
+        <v>0.070714965984574885</v>
       </c>
       <c r="EL4">
-        <v>0.071987610490633791</v>
+        <v>0.070714965984574898</v>
       </c>
       <c r="EM4">
-        <v>0.071987610490633777</v>
+        <v>0.070714965984574885</v>
       </c>
       <c r="EN4">
-        <v>0.071987610490633805</v>
+        <v>0.070714965984574912</v>
       </c>
       <c r="EO4">
-        <v>0.071987610490633777</v>
+        <v>0.070714965984574885</v>
       </c>
       <c r="EP4">
-        <v>0.071987610490633791</v>
+        <v>0.070714965984574898</v>
       </c>
       <c r="EQ4">
-        <v>0.071987610490633805</v>
+        <v>0.070714965984574912</v>
       </c>
       <c r="ER4">
-        <v>0.071987610490633819</v>
+        <v>0.070714965984574926</v>
       </c>
       <c r="ES4">
-        <v>0.071987610490633805</v>
+        <v>0.070714965984574912</v>
       </c>
       <c r="ET4">
-        <v>0.071987610490633805</v>
+        <v>0.070714965984574912</v>
       </c>
       <c r="EU4">
-        <v>0.071987610490633805</v>
+        <v>0.070714965984574912</v>
       </c>
       <c r="EV4">
-        <v>0.071987610490633805</v>
+        <v>0.070714965984574898</v>
       </c>
       <c r="EW4">
-        <v>0.071987610490633777</v>
+        <v>0.070714965984574885</v>
       </c>
       <c r="EX4">
-        <v>0.071987610490633805</v>
+        <v>0.070714965984574912</v>
       </c>
       <c r="EY4">
-        <v>0.071987610490633819</v>
+        <v>0.070714965984574926</v>
       </c>
       <c r="EZ4">
-        <v>0.071987610490633819</v>
+        <v>0.070714965984574926</v>
       </c>
       <c r="FA4">
-        <v>0.071987610490633833</v>
+        <v>0.07071496598457494</v>
       </c>
       <c r="FB4">
-        <v>0.071987610490633833</v>
+        <v>0.07071496598457494</v>
       </c>
       <c r="FC4">
-        <v>0.071987610490633833</v>
+        <v>0.07071496598457494</v>
       </c>
       <c r="FD4">
-        <v>0.071987610490633833</v>
+        <v>0.07071496598457494</v>
       </c>
       <c r="FE4">
-        <v>0.071987610490633847</v>
+        <v>0.07071496598457494</v>
       </c>
       <c r="FF4">
-        <v>0.071987610490633833</v>
+        <v>0.07071496598457494</v>
       </c>
       <c r="FG4">
-        <v>0.071987610490633847</v>
+        <v>0.07071496598457494</v>
       </c>
       <c r="FH4">
-        <v>0.071987610490633833</v>
+        <v>0.07071496598457494</v>
       </c>
       <c r="FI4">
-        <v>0.071987610490633847</v>
+        <v>0.070714965984574954</v>
       </c>
       <c r="FJ4">
-        <v>0.071987610490633847</v>
+        <v>0.070714965984574954</v>
       </c>
       <c r="FK4">
-        <v>0.07198761049063386</v>
+        <v>0.070714965984574968</v>
       </c>
       <c r="FL4">
-        <v>0.07198761049063386</v>
+        <v>0.070714965984574968</v>
       </c>
       <c r="FM4">
-        <v>0.07198761049063386</v>
+        <v>0.070714965984574968</v>
       </c>
       <c r="FN4">
-        <v>0.07198761049063386</v>
+        <v>0.070714965984574954</v>
       </c>
       <c r="FO4">
-        <v>0.07198761049063386</v>
+        <v>0.070714965984574968</v>
       </c>
       <c r="FP4">
-        <v>0.07198761049063386</v>
+        <v>0.070714965984574968</v>
       </c>
       <c r="FQ4">
-        <v>0.071987610490633874</v>
+        <v>0.070714965984574982</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.056804889470242793</v>
+        <v>0.055800655130349083</v>
       </c>
     </row>
   </sheetData>

--- a/tables/ols_coefficients.xlsx
+++ b/tables/ols_coefficients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="12672" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="17724" uniqueCount="192">
   <si>
     <t>y1</t>
   </si>
@@ -562,6 +562,36 @@
   </si>
   <si>
     <t>min6b</t>
+  </si>
+  <si>
+    <t>o.bin_57</t>
+  </si>
+  <si>
+    <t>min21b</t>
+  </si>
+  <si>
+    <t>min1620b</t>
+  </si>
+  <si>
+    <t>min1115b</t>
+  </si>
+  <si>
+    <t>o.min12a</t>
+  </si>
+  <si>
+    <t>min_bin</t>
+  </si>
+  <si>
+    <t>min_sum</t>
+  </si>
+  <si>
+    <t>o.bin_162</t>
+  </si>
+  <si>
+    <t>o.bin_83</t>
+  </si>
+  <si>
+    <t>o.bin_103</t>
   </si>
 </sst>
 </file>
@@ -605,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FS4"/>
+  <dimension ref="A1:FX4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1140,522 +1170,537 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AO2" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AP2" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AU2" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AV2" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AW2" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AX2" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AY2" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AZ2" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BA2" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BB2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BC2" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BD2" t="s">
         <v>52</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BE2" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BF2" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BG2" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BH2" t="s">
         <v>56</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BI2" t="s">
         <v>57</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BJ2" t="s">
         <v>58</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BK2" t="s">
         <v>59</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BL2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BM2" t="s">
         <v>61</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BN2" t="s">
         <v>62</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BO2" t="s">
         <v>63</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
         <v>64</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BQ2" t="s">
         <v>65</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BR2" t="s">
         <v>66</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BS2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BT2" t="s">
         <v>68</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BU2" t="s">
         <v>69</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BV2" t="s">
         <v>70</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BW2" t="s">
         <v>71</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BX2" t="s">
         <v>72</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BY2" t="s">
         <v>73</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BZ2" t="s">
         <v>74</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CA2" t="s">
         <v>75</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CB2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CC2" t="s">
         <v>77</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CD2" t="s">
         <v>78</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CE2" t="s">
         <v>79</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CF2" t="s">
         <v>80</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CG2" t="s">
         <v>81</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CH2" t="s">
         <v>82</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CI2" t="s">
         <v>83</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CJ2" t="s">
         <v>84</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CK2" t="s">
         <v>175</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CL2" t="s">
         <v>86</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CM2" t="s">
         <v>87</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CN2" t="s">
         <v>88</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CO2" t="s">
         <v>89</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CP2" t="s">
         <v>90</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CQ2" t="s">
         <v>91</v>
       </c>
-      <c r="CO2" t="s">
-        <v>179</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ2" t="s">
+      <c r="CR2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>190</v>
+      </c>
+      <c r="CT2" t="s">
         <v>94</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CU2" t="s">
         <v>95</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CV2" t="s">
         <v>96</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CW2" t="s">
         <v>97</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CX2" t="s">
         <v>98</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CY2" t="s">
         <v>99</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CZ2" t="s">
         <v>100</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DA2" t="s">
         <v>101</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DB2" t="s">
         <v>102</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DC2" t="s">
         <v>103</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DD2" t="s">
         <v>104</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DE2" t="s">
         <v>105</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DF2" t="s">
         <v>106</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DG2" t="s">
         <v>107</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DH2" t="s">
         <v>108</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DI2" t="s">
         <v>109</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DJ2" t="s">
         <v>110</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DK2" t="s">
         <v>111</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DL2" t="s">
         <v>112</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DM2" t="s">
         <v>113</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DN2" t="s">
         <v>114</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DO2" t="s">
         <v>115</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DP2" t="s">
         <v>116</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DQ2" t="s">
         <v>117</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="DR2" t="s">
         <v>118</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="DS2" t="s">
         <v>119</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="DT2" t="s">
         <v>120</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="DU2" t="s">
         <v>121</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="DV2" t="s">
         <v>122</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="DW2" t="s">
         <v>123</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="DX2" t="s">
         <v>124</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="DY2" t="s">
         <v>125</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>126</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EA2" t="s">
         <v>127</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EB2" t="s">
         <v>128</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="EC2" t="s">
         <v>129</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="ED2" t="s">
         <v>130</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>131</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="EF2" t="s">
         <v>132</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="EG2" t="s">
         <v>133</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EH2" t="s">
         <v>134</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EI2" t="s">
         <v>135</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EJ2" t="s">
         <v>136</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EK2" t="s">
         <v>137</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EL2" t="s">
         <v>138</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EM2" t="s">
         <v>139</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="EN2" t="s">
         <v>140</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="EO2" t="s">
         <v>141</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="EP2" t="s">
         <v>142</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="EQ2" t="s">
         <v>143</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="ER2" t="s">
         <v>144</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="ES2" t="s">
         <v>145</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="ET2" t="s">
         <v>146</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="EU2" t="s">
         <v>147</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="EV2" t="s">
         <v>148</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="EW2" t="s">
         <v>149</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="EX2" t="s">
         <v>150</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="EY2" t="s">
         <v>151</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="EZ2" t="s">
         <v>152</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="FA2" t="s">
         <v>153</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="FB2" t="s">
         <v>154</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="FC2" t="s">
         <v>155</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="FD2" t="s">
         <v>156</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="FE2" t="s">
         <v>157</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="FF2" t="s">
         <v>158</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="FG2" t="s">
         <v>159</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FH2" t="s">
         <v>160</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="FI2" t="s">
         <v>161</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="FJ2" t="s">
         <v>162</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="FK2" t="s">
         <v>163</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="FL2" t="s">
         <v>164</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="FM2" t="s">
         <v>165</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="FN2" t="s">
         <v>166</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="FO2" t="s">
         <v>167</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="FP2" t="s">
         <v>168</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="FQ2" t="s">
         <v>169</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="FR2" t="s">
         <v>170</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="FS2" t="s">
         <v>180</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="FT2" t="s">
         <v>177</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="FU2" t="s">
         <v>178</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="FV2" t="s">
+        <v>172</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX2" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1664,526 +1709,541 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>0.010873971935316796</v>
+        <v>-0.014765397327281261</v>
       </c>
       <c r="C3">
-        <v>-1.5695591196545267</v>
+        <v>-0.64117207224915396</v>
       </c>
       <c r="D3">
-        <v>-1.5910077702644723</v>
+        <v>-0.67406649182841349</v>
       </c>
       <c r="E3">
-        <v>-1.6259337127535212</v>
+        <v>-0.6863166416365476</v>
       </c>
       <c r="F3">
-        <v>-0.024076663400509658</v>
+        <v>-0.68498864063603526</v>
       </c>
       <c r="G3">
-        <v>0.0097417268711300197</v>
+        <v>-0.6808253341922893</v>
       </c>
       <c r="H3">
-        <v>-0.0030274407523102429</v>
+        <v>-0.66436072333599538</v>
       </c>
       <c r="I3">
-        <v>0.0032529220973327813</v>
+        <v>-0.011668077174438978</v>
       </c>
       <c r="J3">
-        <v>0.0035601478920074289</v>
+        <v>-0.0085725740710350419</v>
       </c>
       <c r="K3">
+        <v>-0.0021494449314470605</v>
+      </c>
+      <c r="L3">
+        <v>0.0019675453598638716</v>
+      </c>
+      <c r="M3">
+        <v>0.0099926748839167523</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>1.232157948546492</v>
-      </c>
-      <c r="M3">
-        <v>1.3145166446322116</v>
-      </c>
-      <c r="N3">
-        <v>-0.24092636015617244</v>
-      </c>
       <c r="O3">
-        <v>-0.18595595595222758</v>
+        <v>1.1067324451429241</v>
       </c>
       <c r="P3">
-        <v>-0.17663846128835511</v>
+        <v>1.2361778856236112</v>
       </c>
       <c r="Q3">
-        <v>-0.16871953726064001</v>
+        <v>-0.30908062150815835</v>
       </c>
       <c r="R3">
-        <v>-0.16725537525125514</v>
+        <v>-0.28165929690389285</v>
       </c>
       <c r="S3">
-        <v>-0.12476917658699414</v>
+        <v>-0.29142364199178888</v>
       </c>
       <c r="T3">
-        <v>-0.1585627445036947</v>
+        <v>-0.32244108426785589</v>
       </c>
       <c r="U3">
-        <v>-0.15177721330374494</v>
+        <v>-0.30772008999346501</v>
       </c>
       <c r="V3">
-        <v>-0.074720987111189241</v>
+        <v>-0.25819297954761267</v>
       </c>
       <c r="W3">
-        <v>-0.10726040055870795</v>
+        <v>-0.26267109914973913</v>
       </c>
       <c r="X3">
-        <v>-0.059832989429566941</v>
+        <v>-0.25810607214840964</v>
       </c>
       <c r="Y3">
-        <v>-0.15582909527994124</v>
+        <v>-0.29754789420862965</v>
       </c>
       <c r="Z3">
-        <v>-0.057509799316288031</v>
+        <v>-0.17928340625173847</v>
       </c>
       <c r="AA3">
-        <v>-0.09832825506108997</v>
+        <v>-0.16860850152636764</v>
       </c>
       <c r="AB3">
-        <v>-0.10266178754344694</v>
+        <v>-0.16340374112918338</v>
       </c>
       <c r="AC3">
-        <v>-0.089198098073001539</v>
+        <v>-0.20932822329101231</v>
       </c>
       <c r="AD3">
-        <v>-0.082681141056823462</v>
+        <v>-0.1598078556726906</v>
       </c>
       <c r="AE3">
-        <v>-0.030092117047275962</v>
+        <v>-0.20172015393382015</v>
       </c>
       <c r="AF3">
-        <v>-0.074224383357106433</v>
+        <v>-0.15359653134702889</v>
       </c>
       <c r="AG3">
-        <v>-0.043233764381941486</v>
+        <v>-0.16355297476717567</v>
       </c>
       <c r="AH3">
-        <v>-0.11832113934887306</v>
+        <v>-0.15452122246837618</v>
       </c>
       <c r="AI3">
-        <v>-0.043261009066988272</v>
+        <v>-0.118253401269172</v>
       </c>
       <c r="AJ3">
-        <v>-0.041732918778926952</v>
+        <v>-0.14798450222358558</v>
       </c>
       <c r="AK3">
-        <v>-0.041779236369992069</v>
+        <v>-0.1406122677923318</v>
       </c>
       <c r="AL3">
-        <v>-0.0091585267387975806</v>
+        <v>-0.13203313944888545</v>
       </c>
       <c r="AM3">
-        <v>-0.034449456350762644</v>
+        <v>-0.098721444964011584</v>
       </c>
       <c r="AN3">
-        <v>-0.052183272098302383</v>
+        <v>-0.10818978668688377</v>
       </c>
       <c r="AO3">
-        <v>-0.059263378104592063</v>
+        <v>-0.10835792447065982</v>
       </c>
       <c r="AP3">
-        <v>0.0060080656448171033</v>
+        <v>-0.10871533844609928</v>
       </c>
       <c r="AQ3">
-        <v>0.017770536024349515</v>
+        <v>-0.10059292568008255</v>
       </c>
       <c r="AR3">
-        <v>-0.037581341624739292</v>
+        <v>-0.11360925571208165</v>
       </c>
       <c r="AS3">
-        <v>0.0075583906034017772</v>
+        <v>-0.11941619403716969</v>
       </c>
       <c r="AT3">
-        <v>-0.01518771027042602</v>
+        <v>-0.096260647827702744</v>
       </c>
       <c r="AU3">
-        <v>0.014514671626748448</v>
+        <v>-0.054877514831075946</v>
       </c>
       <c r="AV3">
-        <v>0.010280603625318296</v>
+        <v>-0.11313310828134533</v>
       </c>
       <c r="AW3">
-        <v>-0.0063021283288647121</v>
+        <v>-0.060881175825293531</v>
       </c>
       <c r="AX3">
-        <v>0.003623442307405229</v>
+        <v>-0.12090050176918817</v>
       </c>
       <c r="AY3">
-        <v>-0.045722900250981593</v>
+        <v>-0.13783467612585007</v>
       </c>
       <c r="AZ3">
-        <v>-0.031204796865035259</v>
+        <v>-0.085809526912554265</v>
       </c>
       <c r="BA3">
-        <v>-0.05999546794836403</v>
+        <v>-0.089476365092635943</v>
       </c>
       <c r="BB3">
-        <v>0.0056575568597054642</v>
+        <v>-0.087105158738003882</v>
       </c>
       <c r="BC3">
-        <v>-0.016607428353379621</v>
+        <v>-0.046012024021030828</v>
       </c>
       <c r="BD3">
-        <v>-0.03863621697992832</v>
+        <v>-0.087927896000280337</v>
       </c>
       <c r="BE3">
-        <v>-0.0027472139645119951</v>
+        <v>-0.062763460122313569</v>
       </c>
       <c r="BF3">
-        <v>-0.053982069811353894</v>
+        <v>-0.041816926209093414</v>
       </c>
       <c r="BG3">
-        <v>-0.032674132760151596</v>
+        <v>-0.04720095385453206</v>
       </c>
       <c r="BH3">
-        <v>-0.013602328147320422</v>
+        <v>-0.050892342349909532</v>
       </c>
       <c r="BI3">
-        <v>-0.016170148728883001</v>
+        <v>-0.098739449350629033</v>
       </c>
       <c r="BJ3">
-        <v>0.0050320250177336842</v>
+        <v>-0.026869450390652319</v>
       </c>
       <c r="BK3">
-        <v>0.020814683484856298</v>
+        <v>-0.037807288223949902</v>
       </c>
       <c r="BL3">
-        <v>-0.011782532386813614</v>
+        <v>-0.019591321437675068</v>
       </c>
       <c r="BM3">
-        <v>-0.049485189829811739</v>
+        <v>-0.049840382153736651</v>
       </c>
       <c r="BN3">
-        <v>-0.036777838294513046</v>
+        <v>-0.036755439787056046</v>
       </c>
       <c r="BO3">
-        <v>-0.083296906018414302</v>
+        <v>-0.085034766104198745</v>
       </c>
       <c r="BP3">
-        <v>0.026075497339771159</v>
+        <v>-0.019900713420001916</v>
       </c>
       <c r="BQ3">
-        <v>-0.037948299700908412</v>
+        <v>-0.050141831971559275</v>
       </c>
       <c r="BR3">
-        <v>0.0011065369088539437</v>
+        <v>-0.044311245919695964</v>
       </c>
       <c r="BS3">
-        <v>-0.071889618404464534</v>
+        <v>-0.045631977143324363</v>
       </c>
       <c r="BT3">
-        <v>-0.001578930436228356</v>
+        <v>-0.059808470143677968</v>
       </c>
       <c r="BU3">
-        <v>0.058713899910443401</v>
+        <v>-0.062504922197393148</v>
       </c>
       <c r="BV3">
-        <v>-0.052145865121227895</v>
+        <v>-0.044193709590424471</v>
       </c>
       <c r="BW3">
-        <v>0.026222619737877498</v>
+        <v>-0.065878046482981442</v>
       </c>
       <c r="BX3">
-        <v>-0.0091414399434309405</v>
+        <v>-0.034255159729799929</v>
       </c>
       <c r="BY3">
-        <v>-0.05255436901198348</v>
+        <v>-0.020128174696877311</v>
       </c>
       <c r="BZ3">
-        <v>0.0026512751647467057</v>
+        <v>-0.035687340091942459</v>
       </c>
       <c r="CA3">
-        <v>-0.057672417602280375</v>
+        <v>-0.018267848831125335</v>
       </c>
       <c r="CB3">
-        <v>-0.026830705579085203</v>
+        <v>-0.051628188602312892</v>
       </c>
       <c r="CC3">
-        <v>-0.025879761149771748</v>
+        <v>-0.021721446780745512</v>
       </c>
       <c r="CD3">
-        <v>-0.027119002955012038</v>
+        <v>-0.022069118658763182</v>
       </c>
       <c r="CE3">
-        <v>-0.04203458063410434</v>
+        <v>-0.037794627107039888</v>
       </c>
       <c r="CF3">
-        <v>-0.01734524747513105</v>
+        <v>-0.023836512320335568</v>
       </c>
       <c r="CG3">
-        <v>-0.052370395164096112</v>
+        <v>-0.02411003157263716</v>
       </c>
       <c r="CH3">
-        <v>0.0027753468571003088</v>
+        <v>-0.042729107389823336</v>
       </c>
       <c r="CI3">
-        <v>-0.0036436190849620928</v>
+        <v>-0.042075159765579691</v>
       </c>
       <c r="CJ3">
-        <v>-0.048360626446827218</v>
+        <v>-0.043577899430569729</v>
       </c>
       <c r="CK3">
-        <v>0.059732614204079833</v>
+        <v>-0.034611902555729927</v>
       </c>
       <c r="CL3">
-        <v>-0.058843931048853992</v>
+        <v>-0.053930282560631891</v>
       </c>
       <c r="CM3">
-        <v>0.0077541054866804493</v>
+        <v>-0.041374421389199528</v>
       </c>
       <c r="CN3">
-        <v>-0.037674585335257672</v>
+        <v>-0.052849167216473543</v>
       </c>
       <c r="CO3">
+        <v>-0.078571738571784649</v>
+      </c>
+      <c r="CP3">
+        <v>-0.036620435324975664</v>
+      </c>
+      <c r="CQ3">
+        <v>-0.030237591609805509</v>
+      </c>
+      <c r="CR3">
+        <v>-0.084834847101543667</v>
+      </c>
+      <c r="CS3">
         <v>0</v>
       </c>
-      <c r="CP3">
-        <v>-0.014481608563882954</v>
-      </c>
-      <c r="CQ3">
-        <v>0.0028175972026430896</v>
-      </c>
-      <c r="CR3">
-        <v>0.0035812151800031591</v>
-      </c>
-      <c r="CS3">
-        <v>-0.026881410030326767</v>
-      </c>
       <c r="CT3">
-        <v>-0.024835317218392813</v>
+        <v>-0.02731084464104282</v>
       </c>
       <c r="CU3">
-        <v>-0.040590658696388296</v>
+        <v>0.0089246696734181681</v>
       </c>
       <c r="CV3">
-        <v>-0.0066681493472026772</v>
+        <v>-0.026250434030998988</v>
       </c>
       <c r="CW3">
-        <v>0.011489987520346474</v>
+        <v>-0.036452088154018208</v>
       </c>
       <c r="CX3">
-        <v>-0.028809980360088361</v>
+        <v>-0.054107033216652833</v>
       </c>
       <c r="CY3">
-        <v>-0.012457816225445176</v>
+        <v>-0.012522843669592809</v>
       </c>
       <c r="CZ3">
-        <v>-0.017966450344251202</v>
+        <v>-0.02012709476603039</v>
       </c>
       <c r="DA3">
-        <v>-0.020917546118073893</v>
+        <v>-0.036112330861536139</v>
       </c>
       <c r="DB3">
-        <v>-0.020743532222189266</v>
+        <v>-0.033741265195102739</v>
       </c>
       <c r="DC3">
-        <v>-0.048364829345011531</v>
+        <v>0.012260417135855652</v>
       </c>
       <c r="DD3">
-        <v>-0.0023814416600182412</v>
+        <v>-0.040987769860586228</v>
       </c>
       <c r="DE3">
-        <v>-0.0071808267992881933</v>
+        <v>-0.060024662740317994</v>
       </c>
       <c r="DF3">
-        <v>-0.049222713213121307</v>
+        <v>-0.058560798882196827</v>
       </c>
       <c r="DG3">
-        <v>-0.023336314548942475</v>
+        <v>-0.027590399292823801</v>
       </c>
       <c r="DH3">
-        <v>-0.014347829090806136</v>
+        <v>-0.020115990530114487</v>
       </c>
       <c r="DI3">
-        <v>-0.036434144203301877</v>
+        <v>-0.0378000917253336</v>
       </c>
       <c r="DJ3">
-        <v>-0.025126930144496892</v>
+        <v>-0.046236749799824998</v>
       </c>
       <c r="DK3">
-        <v>-0.03595380961557898</v>
+        <v>-0.049211152920148875</v>
       </c>
       <c r="DL3">
-        <v>-0.026109575922622013</v>
+        <v>-0.012872861919711846</v>
       </c>
       <c r="DM3">
-        <v>-0.04008053723170462</v>
+        <v>-0.056330600458992443</v>
       </c>
       <c r="DN3">
-        <v>0.013320504517849548</v>
+        <v>-0.056439639551316458</v>
       </c>
       <c r="DO3">
-        <v>-0.014343928793767008</v>
+        <v>-0.036291180123205112</v>
       </c>
       <c r="DP3">
-        <v>-0.035309437621812795</v>
+        <v>-0.0062777722342136346</v>
       </c>
       <c r="DQ3">
-        <v>-0.051795061244836432</v>
+        <v>-0.045436312976811576</v>
       </c>
       <c r="DR3">
-        <v>-0.017034263606175111</v>
+        <v>-0.096470044631764534</v>
       </c>
       <c r="DS3">
-        <v>-0.0039726251658615411</v>
+        <v>-0.003589199797871776</v>
       </c>
       <c r="DT3">
-        <v>0.0090662417736400575</v>
+        <v>-0.036169995126968987</v>
       </c>
       <c r="DU3">
-        <v>-0.030670728967292626</v>
+        <v>-0.035493993730818733</v>
       </c>
       <c r="DV3">
-        <v>-0.017825313906565911</v>
+        <v>-0.056513640488458958</v>
       </c>
       <c r="DW3">
-        <v>-0.021976601494431567</v>
+        <v>-0.06163909757129421</v>
       </c>
       <c r="DX3">
-        <v>-0.039144826585709835</v>
+        <v>-0.041612876693335001</v>
       </c>
       <c r="DY3">
-        <v>-0.051045341588164449</v>
+        <v>-0.074980146855983837</v>
       </c>
       <c r="DZ3">
-        <v>-0.017688688383096157</v>
+        <v>-0.058716036825696406</v>
       </c>
       <c r="EA3">
-        <v>-0.022786453440002064</v>
+        <v>-0.055046974355677521</v>
       </c>
       <c r="EB3">
-        <v>-0.03208874223532579</v>
+        <v>-0.06239481329473108</v>
       </c>
       <c r="EC3">
-        <v>-0.052911265069018262</v>
+        <v>-0.097715866165020232</v>
       </c>
       <c r="ED3">
-        <v>-0.015765646295234265</v>
+        <v>-0.043789869585681679</v>
       </c>
       <c r="EE3">
-        <v>-0.018118618776424122</v>
+        <v>-0.040466672655827075</v>
       </c>
       <c r="EF3">
-        <v>-0.050250975866753547</v>
+        <v>-0.02942349119127537</v>
       </c>
       <c r="EG3">
-        <v>-0.044087249986706094</v>
+        <v>-0.022805412387931455</v>
       </c>
       <c r="EH3">
-        <v>-0.013241798403286157</v>
+        <v>-0.022215452950926317</v>
       </c>
       <c r="EI3">
-        <v>-0.031595650227881376</v>
+        <v>-0.041732058604133454</v>
       </c>
       <c r="EJ3">
-        <v>0.0081964937583764875</v>
+        <v>-0.024826504932810758</v>
       </c>
       <c r="EK3">
-        <v>-0.027425216327186135</v>
+        <v>-0.047975835191445604</v>
       </c>
       <c r="EL3">
-        <v>-0.035235175312336157</v>
+        <v>-0.091191287472151869</v>
       </c>
       <c r="EM3">
-        <v>-0.047574141727252807</v>
+        <v>-0.070640977483462791</v>
       </c>
       <c r="EN3">
-        <v>-0.030950260170512896</v>
+        <v>-0.026679416579589801</v>
       </c>
       <c r="EO3">
-        <v>-0.026830110543240065</v>
+        <v>-0.069364974004588062</v>
       </c>
       <c r="EP3">
-        <v>-0.042708575597157239</v>
+        <v>-0.031856529211885094</v>
       </c>
       <c r="EQ3">
-        <v>-0.04304125796596521</v>
+        <v>-0.053321949324839399</v>
       </c>
       <c r="ER3">
-        <v>-0.033248494647154271</v>
+        <v>-0.058797076747180134</v>
       </c>
       <c r="ES3">
-        <v>-0.080464933768329014</v>
+        <v>-0.068367503655651404</v>
       </c>
       <c r="ET3">
-        <v>-0.084893918049465264</v>
+        <v>-0.033348905014256372</v>
       </c>
       <c r="EU3">
-        <v>-0.013443039050351928</v>
+        <v>-0.056612549272157697</v>
       </c>
       <c r="EV3">
-        <v>-0.056508644898757537</v>
+        <v>-0.078475465305445552</v>
       </c>
       <c r="EW3">
-        <v>-0.052492674665746225</v>
+        <v>-0.050301387362357217</v>
       </c>
       <c r="EX3">
-        <v>-0.055791247014005695</v>
+        <v>-0.087280525467817283</v>
       </c>
       <c r="EY3">
-        <v>-0.029039124898179506</v>
+        <v>-0.062339907758397761</v>
       </c>
       <c r="EZ3">
-        <v>-0.054103234773550245</v>
+        <v>-0.085269774055438466</v>
       </c>
       <c r="FA3">
-        <v>-0.021784707620778648</v>
+        <v>-0.094838898435827934</v>
       </c>
       <c r="FB3">
-        <v>-0.059901464995143275</v>
+        <v>-0.10225167290200937</v>
       </c>
       <c r="FC3">
-        <v>-0.027670877269234319</v>
+        <v>-0.059654973286345725</v>
       </c>
       <c r="FD3">
-        <v>-0.045216458953238427</v>
+        <v>-0.081527264593701798</v>
       </c>
       <c r="FE3">
-        <v>-0.079167861472780585</v>
+        <v>-0.078953143983407525</v>
       </c>
       <c r="FF3">
-        <v>-0.054631146461794587</v>
+        <v>-0.043499034819131158</v>
       </c>
       <c r="FG3">
-        <v>-0.059184070456528862</v>
+        <v>-0.072233230037839088</v>
       </c>
       <c r="FH3">
-        <v>-0.057574279471347523</v>
+        <v>-0.072457718397588411</v>
       </c>
       <c r="FI3">
-        <v>-0.045917195796096183</v>
+        <v>-0.038635440981910608</v>
       </c>
       <c r="FJ3">
-        <v>-0.067410185199203485</v>
+        <v>-0.066646602979616845</v>
       </c>
       <c r="FK3">
-        <v>-0.066861779862784465</v>
+        <v>-0.039653158176138292</v>
       </c>
       <c r="FL3">
-        <v>-0.071745727076868063</v>
+        <v>-0.057976478582543352</v>
       </c>
       <c r="FM3">
-        <v>-0.060403070146059681</v>
+        <v>-0.076890266602652399</v>
       </c>
       <c r="FN3">
-        <v>-0.067752724757717459</v>
+        <v>-0.10238964498299984</v>
       </c>
       <c r="FO3">
-        <v>-0.057350729731094736</v>
+        <v>-0.041270898658966673</v>
       </c>
       <c r="FP3">
-        <v>-0.054818587500624148</v>
+        <v>-0.049931537866856772</v>
       </c>
       <c r="FQ3">
-        <v>-0.045869433264324383</v>
+        <v>-0.042484096745233117</v>
       </c>
       <c r="FR3">
+        <v>-0.068285029983175455</v>
+      </c>
+      <c r="FS3">
+        <v>-0.069163039722591121</v>
+      </c>
+      <c r="FT3">
+        <v>-0.055813578176795914</v>
+      </c>
+      <c r="FU3">
         <v>0</v>
       </c>
-      <c r="FS3">
-        <v>-5.4629763209372104</v>
+      <c r="FV3">
+        <v>-5.4461676573137776</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>-5.607845586143247</v>
       </c>
     </row>
     <row r="4">
@@ -2191,526 +2251,541 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.042488511613451088</v>
+        <v>0.02083473677880757</v>
       </c>
       <c r="C4">
-        <v>0.018529650280360774</v>
+        <v>0.010412985737813558</v>
       </c>
       <c r="D4">
-        <v>0.0271256101549632</v>
+        <v>0.011961812276359991</v>
       </c>
       <c r="E4">
-        <v>0.032081253687876891</v>
+        <v>0.011646518289554634</v>
       </c>
       <c r="F4">
-        <v>0.029358197591443366</v>
+        <v>0.011616416119761001</v>
       </c>
       <c r="G4">
-        <v>0.024560432382965233</v>
+        <v>0.013402364035990171</v>
       </c>
       <c r="H4">
-        <v>0.019906373282297142</v>
+        <v>0.015772531158428069</v>
       </c>
       <c r="I4">
-        <v>0.019791584176928719</v>
+        <v>0.0146561037467946</v>
       </c>
       <c r="J4">
-        <v>0.020888890738419562</v>
+        <v>0.012039799945679859</v>
       </c>
       <c r="K4">
+        <v>0.0099428639708242714</v>
+      </c>
+      <c r="L4">
+        <v>0.0099661999775817467</v>
+      </c>
+      <c r="M4">
+        <v>0.010129037721940851</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>0.045318214175736976</v>
-      </c>
-      <c r="M4">
-        <v>0.045318214175736976</v>
-      </c>
-      <c r="N4">
-        <v>0.045318214175736983</v>
-      </c>
       <c r="O4">
-        <v>0.045318214175736997</v>
+        <v>0.023354378882519036</v>
       </c>
       <c r="P4">
-        <v>0.045318214175736983</v>
+        <v>0.023354378882519036</v>
       </c>
       <c r="Q4">
-        <v>0.045318214175737004</v>
+        <v>0.023354378882519036</v>
       </c>
       <c r="R4">
-        <v>0.045318214175737004</v>
+        <v>0.023354378882519036</v>
       </c>
       <c r="S4">
-        <v>0.045318214175737011</v>
+        <v>0.023354378882519036</v>
       </c>
       <c r="T4">
-        <v>0.045318214175737011</v>
+        <v>0.023354378882519036</v>
       </c>
       <c r="U4">
-        <v>0.045318214175736997</v>
+        <v>0.023354378882519049</v>
       </c>
       <c r="V4">
-        <v>0.045318214175737018</v>
+        <v>0.023354378882519043</v>
       </c>
       <c r="W4">
-        <v>0.045318214175737004</v>
+        <v>0.023354378882519043</v>
       </c>
       <c r="X4">
-        <v>0.045318214175737011</v>
+        <v>0.023354378882519043</v>
       </c>
       <c r="Y4">
-        <v>0.045318214175737011</v>
+        <v>0.023354378882519049</v>
       </c>
       <c r="Z4">
-        <v>0.045318214175737011</v>
+        <v>0.023354378882519049</v>
       </c>
       <c r="AA4">
-        <v>0.045318214175737011</v>
+        <v>0.023354378882519043</v>
       </c>
       <c r="AB4">
-        <v>0.045318214175737018</v>
+        <v>0.023354378882519049</v>
       </c>
       <c r="AC4">
-        <v>0.045318214175737018</v>
+        <v>0.023354378882519049</v>
       </c>
       <c r="AD4">
-        <v>0.045318214175737018</v>
+        <v>0.023354378882519049</v>
       </c>
       <c r="AE4">
-        <v>0.045318214175737025</v>
+        <v>0.023354378882519049</v>
       </c>
       <c r="AF4">
-        <v>0.045318214175737025</v>
+        <v>0.023354378882519053</v>
       </c>
       <c r="AG4">
-        <v>0.045318214175737025</v>
+        <v>0.023354378882519053</v>
       </c>
       <c r="AH4">
-        <v>0.045318214175737011</v>
+        <v>0.023354378882519053</v>
       </c>
       <c r="AI4">
-        <v>0.045318214175737018</v>
+        <v>0.02335437888251906</v>
       </c>
       <c r="AJ4">
-        <v>0.045318214175737025</v>
+        <v>0.023354378882519056</v>
       </c>
       <c r="AK4">
-        <v>0.045318214175737025</v>
+        <v>0.023354378882519056</v>
       </c>
       <c r="AL4">
-        <v>0.045318214175737025</v>
+        <v>0.023354378882519056</v>
       </c>
       <c r="AM4">
-        <v>0.045318214175737039</v>
+        <v>0.023354378882519056</v>
       </c>
       <c r="AN4">
-        <v>0.045318214175737032</v>
+        <v>0.023354378882519053</v>
       </c>
       <c r="AO4">
-        <v>0.045318214175737039</v>
+        <v>0.023354378882519056</v>
       </c>
       <c r="AP4">
-        <v>0.045318214175737039</v>
+        <v>0.023354378882519053</v>
       </c>
       <c r="AQ4">
-        <v>0.045318214175737039</v>
+        <v>0.023354378882519056</v>
       </c>
       <c r="AR4">
-        <v>0.045318214175737039</v>
+        <v>0.023354378882519056</v>
       </c>
       <c r="AS4">
-        <v>0.045318214175737039</v>
+        <v>0.02335437888251906</v>
       </c>
       <c r="AT4">
-        <v>0.045318214175737039</v>
+        <v>0.023354378882519056</v>
       </c>
       <c r="AU4">
-        <v>0.045318214175737039</v>
+        <v>0.023354378882519063</v>
       </c>
       <c r="AV4">
-        <v>0.045318214175737039</v>
+        <v>0.02335437888251906</v>
       </c>
       <c r="AW4">
-        <v>0.045318214175737039</v>
+        <v>0.023354378882519067</v>
       </c>
       <c r="AX4">
-        <v>0.045318214175737039</v>
+        <v>0.02335437888251906</v>
       </c>
       <c r="AY4">
-        <v>0.045318214175737039</v>
+        <v>0.02335437888251906</v>
       </c>
       <c r="AZ4">
-        <v>0.045318214175737039</v>
+        <v>0.02335437888251906</v>
       </c>
       <c r="BA4">
-        <v>0.045318214175737039</v>
+        <v>0.02335437888251906</v>
       </c>
       <c r="BB4">
-        <v>0.045318214175737039</v>
+        <v>0.023354378882519063</v>
       </c>
       <c r="BC4">
-        <v>0.045318214175737039</v>
+        <v>0.023354378882519056</v>
       </c>
       <c r="BD4">
-        <v>0.045318214175737039</v>
+        <v>0.023354378882519053</v>
       </c>
       <c r="BE4">
-        <v>0.045318214175737039</v>
+        <v>0.022880536023532391</v>
       </c>
       <c r="BF4">
-        <v>0.045318214175737039</v>
+        <v>0.022880536023532391</v>
       </c>
       <c r="BG4">
-        <v>0.045318214175737039</v>
+        <v>0.022880536023532395</v>
       </c>
       <c r="BH4">
-        <v>0.045318214175737039</v>
+        <v>0.022880536023532391</v>
       </c>
       <c r="BI4">
-        <v>0.045318214175737039</v>
+        <v>0.022880536023532391</v>
       </c>
       <c r="BJ4">
-        <v>0.045318214175737039</v>
+        <v>0.023402900056508975</v>
       </c>
       <c r="BK4">
-        <v>0.045318214175737045</v>
+        <v>0.023402900056508982</v>
       </c>
       <c r="BL4">
-        <v>0.045318214175737045</v>
+        <v>0.023402900056508979</v>
       </c>
       <c r="BM4">
-        <v>0.045318214175737052</v>
+        <v>0.023402900056508986</v>
       </c>
       <c r="BN4">
-        <v>0.045318214175737052</v>
+        <v>0.023402900056508979</v>
       </c>
       <c r="BO4">
-        <v>0.045318214175737059</v>
+        <v>0.023398010434109405</v>
       </c>
       <c r="BP4">
-        <v>0.045318214175737059</v>
+        <v>0.023398010434109405</v>
       </c>
       <c r="BQ4">
-        <v>0.045292555576594111</v>
+        <v>0.023398010434109412</v>
       </c>
       <c r="BR4">
-        <v>0.045292555576594104</v>
+        <v>0.023398010434109419</v>
       </c>
       <c r="BS4">
-        <v>0.045292555576594111</v>
+        <v>0.023398010434109419</v>
       </c>
       <c r="BT4">
-        <v>0.041095502826100458</v>
+        <v>0.023147863678947975</v>
       </c>
       <c r="BU4">
-        <v>0.041095502826100465</v>
+        <v>0.023147863678947975</v>
       </c>
       <c r="BV4">
-        <v>0.047653860685516143</v>
+        <v>0.023147863678947975</v>
       </c>
       <c r="BW4">
-        <v>0.046734606826083241</v>
+        <v>0.023277009097381968</v>
       </c>
       <c r="BX4">
-        <v>0.046734606826083241</v>
+        <v>0.023277009097381968</v>
       </c>
       <c r="BY4">
-        <v>0.046037498231806182</v>
+        <v>0.020121517776334252</v>
       </c>
       <c r="BZ4">
-        <v>0.046037498231806188</v>
+        <v>0.023746727692190068</v>
       </c>
       <c r="CA4">
-        <v>0.046037498231806188</v>
+        <v>0.023746727692190071</v>
       </c>
       <c r="CB4">
-        <v>0.045472117369301478</v>
+        <v>0.023312840036304846</v>
       </c>
       <c r="CC4">
-        <v>0.045472117369301492</v>
+        <v>0.023312840036304839</v>
       </c>
       <c r="CD4">
-        <v>0.045472117369301478</v>
+        <v>0.023677352141683948</v>
       </c>
       <c r="CE4">
-        <v>0.045472117369301478</v>
+        <v>0.023825660393696088</v>
       </c>
       <c r="CF4">
-        <v>0.045472117369301492</v>
+        <v>0.023825660393696088</v>
       </c>
       <c r="CG4">
-        <v>0.045348985331328341</v>
+        <v>0.023825660393696081</v>
       </c>
       <c r="CH4">
-        <v>0.045348985331328334</v>
+        <v>0.023825660393696088</v>
       </c>
       <c r="CI4">
-        <v>0.045348985331328341</v>
+        <v>0.023557998702491048</v>
       </c>
       <c r="CJ4">
-        <v>0.045348985331328348</v>
+        <v>0.023776152457645579</v>
       </c>
       <c r="CK4">
-        <v>0.045944903889236936</v>
+        <v>0.023776152457645579</v>
       </c>
       <c r="CL4">
-        <v>0.043362421609080833</v>
+        <v>0.023776152457645579</v>
       </c>
       <c r="CM4">
-        <v>0.04336242160908084</v>
+        <v>0.023776152457645583</v>
       </c>
       <c r="CN4">
-        <v>0.039397126314991732</v>
+        <v>0.023326387030476074</v>
       </c>
       <c r="CO4">
+        <v>0.022029044989443167</v>
+      </c>
+      <c r="CP4">
+        <v>0.022029044989443164</v>
+      </c>
+      <c r="CQ4">
+        <v>0.022332604405472262</v>
+      </c>
+      <c r="CR4">
+        <v>0.022332604405472266</v>
+      </c>
+      <c r="CS4">
         <v>0</v>
       </c>
-      <c r="CP4">
-        <v>0.04619722553989624</v>
-      </c>
-      <c r="CQ4">
-        <v>0.046750523422277417</v>
-      </c>
-      <c r="CR4">
-        <v>0.046750523422277417</v>
-      </c>
-      <c r="CS4">
-        <v>0.046053655756214167</v>
-      </c>
       <c r="CT4">
-        <v>0.046053655756214174</v>
+        <v>0.023453015203113145</v>
       </c>
       <c r="CU4">
-        <v>0.046053655756214167</v>
+        <v>0.023453015203113145</v>
       </c>
       <c r="CV4">
-        <v>0.045488475717656796</v>
+        <v>0.023175335884356302</v>
       </c>
       <c r="CW4">
-        <v>0.045488475717656789</v>
+        <v>0.023175335884356302</v>
       </c>
       <c r="CX4">
-        <v>0.045488475717656802</v>
+        <v>0.023175335884356302</v>
       </c>
       <c r="CY4">
-        <v>0.045488475717656789</v>
+        <v>0.023121407562885478</v>
       </c>
       <c r="CZ4">
-        <v>0.045488475717656802</v>
+        <v>0.023121407562885478</v>
       </c>
       <c r="DA4">
-        <v>0.045423774735321221</v>
+        <v>0.023121407562885485</v>
       </c>
       <c r="DB4">
-        <v>0.045423774735321214</v>
+        <v>0.023121407562885485</v>
       </c>
       <c r="DC4">
-        <v>0.045423774735321228</v>
+        <v>0.023121407562885485</v>
       </c>
       <c r="DD4">
-        <v>0.045423774735321221</v>
+        <v>0.023075347428863992</v>
       </c>
       <c r="DE4">
-        <v>0.045423774735321221</v>
+        <v>0.023075347428863996</v>
       </c>
       <c r="DF4">
-        <v>0.042537457275034128</v>
+        <v>0.023075347428863996</v>
       </c>
       <c r="DG4">
-        <v>0.042537457275034128</v>
+        <v>0.023075347428863996</v>
       </c>
       <c r="DH4">
-        <v>0.042537457275034128</v>
+        <v>0.023075347428863996</v>
       </c>
       <c r="DI4">
-        <v>0.042537457275034142</v>
+        <v>0.021600505590525197</v>
       </c>
       <c r="DJ4">
-        <v>0.042537457275034142</v>
+        <v>0.021600505590525197</v>
       </c>
       <c r="DK4">
-        <v>0.04535103599935314</v>
+        <v>0.021600505590525197</v>
       </c>
       <c r="DL4">
-        <v>0.04535103599935314</v>
+        <v>0.021600505590525197</v>
       </c>
       <c r="DM4">
-        <v>0.04535103599935314</v>
+        <v>0.021600505590525201</v>
       </c>
       <c r="DN4">
-        <v>0.04535103599935314</v>
+        <v>0.022916876731072788</v>
       </c>
       <c r="DO4">
-        <v>0.045351035999353147</v>
+        <v>0.022916876731072795</v>
       </c>
       <c r="DP4">
-        <v>0.04535103599935314</v>
+        <v>0.022916876731072802</v>
       </c>
       <c r="DQ4">
-        <v>0.045351035999353154</v>
+        <v>0.022916876731072795</v>
       </c>
       <c r="DR4">
-        <v>0.045351035999353147</v>
+        <v>0.022916876731072802</v>
       </c>
       <c r="DS4">
-        <v>0.045351035999353181</v>
+        <v>0.022916876731072802</v>
       </c>
       <c r="DT4">
-        <v>0.045351035999353161</v>
+        <v>0.022916876731072809</v>
       </c>
       <c r="DU4">
-        <v>0.045351035999353181</v>
+        <v>0.022916876731072802</v>
       </c>
       <c r="DV4">
-        <v>0.045351035999353181</v>
+        <v>0.022916876731072813</v>
       </c>
       <c r="DW4">
-        <v>0.045351035999353181</v>
+        <v>0.022916876731072809</v>
       </c>
       <c r="DX4">
-        <v>0.045351035999353174</v>
+        <v>0.022916876731072813</v>
       </c>
       <c r="DY4">
-        <v>0.045351035999353188</v>
+        <v>0.022916876731072813</v>
       </c>
       <c r="DZ4">
-        <v>0.045351035999353188</v>
+        <v>0.022916876731072813</v>
       </c>
       <c r="EA4">
-        <v>0.045351035999353195</v>
+        <v>0.022916876731072813</v>
       </c>
       <c r="EB4">
-        <v>0.045351035999353202</v>
+        <v>0.022916876731072813</v>
       </c>
       <c r="EC4">
-        <v>0.045351035999353195</v>
+        <v>0.022916876731072813</v>
       </c>
       <c r="ED4">
-        <v>0.045351035999353195</v>
+        <v>0.022916876731072813</v>
       </c>
       <c r="EE4">
-        <v>0.045351035999353195</v>
+        <v>0.022916876731072813</v>
       </c>
       <c r="EF4">
-        <v>0.045351035999353209</v>
+        <v>0.022916876731072813</v>
       </c>
       <c r="EG4">
-        <v>0.045351035999353202</v>
+        <v>0.022916876731072816</v>
       </c>
       <c r="EH4">
-        <v>0.045351035999353216</v>
+        <v>0.022916876731072816</v>
       </c>
       <c r="EI4">
-        <v>0.045351035999353209</v>
+        <v>0.022916876731072816</v>
       </c>
       <c r="EJ4">
-        <v>0.045351035999353216</v>
+        <v>0.02291687673107282</v>
       </c>
       <c r="EK4">
-        <v>0.045351035999353209</v>
+        <v>0.022916876731072816</v>
       </c>
       <c r="EL4">
-        <v>0.045351035999353216</v>
+        <v>0.02291687673107282</v>
       </c>
       <c r="EM4">
-        <v>0.045351035999353209</v>
+        <v>0.02291687673107282</v>
       </c>
       <c r="EN4">
-        <v>0.04535103599935323</v>
+        <v>0.02291687673107282</v>
       </c>
       <c r="EO4">
-        <v>0.045351035999353209</v>
+        <v>0.02291687673107282</v>
       </c>
       <c r="EP4">
-        <v>0.045351035999353216</v>
+        <v>0.02291687673107282</v>
       </c>
       <c r="EQ4">
-        <v>0.04535103599935323</v>
+        <v>0.02291687673107282</v>
       </c>
       <c r="ER4">
-        <v>0.045351035999353237</v>
+        <v>0.02291687673107282</v>
       </c>
       <c r="ES4">
-        <v>0.04535103599935323</v>
+        <v>0.02291687673107282</v>
       </c>
       <c r="ET4">
-        <v>0.04535103599935323</v>
+        <v>0.02291687673107282</v>
       </c>
       <c r="EU4">
-        <v>0.04535103599935323</v>
+        <v>0.02291687673107282</v>
       </c>
       <c r="EV4">
-        <v>0.045351035999353223</v>
+        <v>0.02291687673107282</v>
       </c>
       <c r="EW4">
-        <v>0.045351035999353209</v>
+        <v>0.02291687673107282</v>
       </c>
       <c r="EX4">
-        <v>0.04535103599935323</v>
+        <v>0.02291687673107282</v>
       </c>
       <c r="EY4">
-        <v>0.045351035999353237</v>
+        <v>0.022916876731072823</v>
       </c>
       <c r="EZ4">
-        <v>0.045351035999353237</v>
+        <v>0.022916876731072823</v>
       </c>
       <c r="FA4">
-        <v>0.045351035999353244</v>
+        <v>0.022916876731072823</v>
       </c>
       <c r="FB4">
-        <v>0.045351035999353244</v>
+        <v>0.022916876731072823</v>
       </c>
       <c r="FC4">
-        <v>0.045351035999353244</v>
+        <v>0.022916876731072823</v>
       </c>
       <c r="FD4">
-        <v>0.045351035999353244</v>
+        <v>0.022916876731072826</v>
       </c>
       <c r="FE4">
-        <v>0.045351035999353251</v>
+        <v>0.022916876731072823</v>
       </c>
       <c r="FF4">
-        <v>0.045351035999353244</v>
+        <v>0.022916876731072826</v>
       </c>
       <c r="FG4">
-        <v>0.045351035999353251</v>
+        <v>0.022916876731072823</v>
       </c>
       <c r="FH4">
-        <v>0.045351035999353251</v>
+        <v>0.02291687673107283</v>
       </c>
       <c r="FI4">
-        <v>0.045351035999353251</v>
+        <v>0.022916876731072823</v>
       </c>
       <c r="FJ4">
-        <v>0.045351035999353251</v>
+        <v>0.02291687673107283</v>
       </c>
       <c r="FK4">
-        <v>0.045351035999353265</v>
+        <v>0.022916876731072826</v>
       </c>
       <c r="FL4">
-        <v>0.045351035999353265</v>
+        <v>0.02291687673107283</v>
       </c>
       <c r="FM4">
-        <v>0.045351035999353265</v>
+        <v>0.022916876731072833</v>
       </c>
       <c r="FN4">
-        <v>0.045351035999353265</v>
+        <v>0.022916876731072833</v>
       </c>
       <c r="FO4">
-        <v>0.045351035999353265</v>
+        <v>0.022916876731072833</v>
       </c>
       <c r="FP4">
-        <v>0.045351035999353265</v>
+        <v>0.022916876731072833</v>
       </c>
       <c r="FQ4">
-        <v>0.045351035999353272</v>
+        <v>0.022916876731072837</v>
       </c>
       <c r="FR4">
+        <v>0.022916876731072837</v>
+      </c>
+      <c r="FS4">
+        <v>0.022916876731072833</v>
+      </c>
+      <c r="FT4">
+        <v>0.022916876731072837</v>
+      </c>
+      <c r="FU4">
         <v>0</v>
       </c>
-      <c r="FS4">
-        <v>0.035786166115896322</v>
+      <c r="FV4">
+        <v>0.018605190144260843</v>
+      </c>
+      <c r="FW4">
+        <v>0</v>
+      </c>
+      <c r="FX4">
+        <v>0.01446159473556069</v>
       </c>
     </row>
   </sheetData>
@@ -2719,7 +2794,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FS4"/>
+  <dimension ref="A1:FX4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3254,522 +3329,537 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AO2" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AP2" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AU2" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AV2" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AW2" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AX2" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AY2" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AZ2" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BA2" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BB2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BC2" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BD2" t="s">
         <v>52</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BE2" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BF2" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BG2" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BH2" t="s">
         <v>56</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BI2" t="s">
         <v>57</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BJ2" t="s">
         <v>58</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BK2" t="s">
         <v>59</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BL2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BM2" t="s">
         <v>61</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BN2" t="s">
         <v>62</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BO2" t="s">
         <v>63</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
         <v>64</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BQ2" t="s">
         <v>65</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BR2" t="s">
         <v>66</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BS2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BT2" t="s">
         <v>68</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BU2" t="s">
         <v>69</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BV2" t="s">
         <v>70</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BW2" t="s">
         <v>71</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BX2" t="s">
         <v>72</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BY2" t="s">
         <v>73</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BZ2" t="s">
         <v>74</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CA2" t="s">
         <v>75</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CB2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CC2" t="s">
         <v>77</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CD2" t="s">
         <v>78</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CE2" t="s">
         <v>79</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CF2" t="s">
         <v>80</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CG2" t="s">
         <v>81</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CH2" t="s">
         <v>82</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CI2" t="s">
         <v>83</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CJ2" t="s">
         <v>84</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CK2" t="s">
         <v>175</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CL2" t="s">
         <v>86</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CM2" t="s">
         <v>87</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CN2" t="s">
         <v>88</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CO2" t="s">
         <v>89</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CP2" t="s">
         <v>90</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CQ2" t="s">
         <v>91</v>
       </c>
-      <c r="CO2" t="s">
-        <v>179</v>
-      </c>
-      <c r="CP2" t="s">
+      <c r="CR2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CS2" t="s">
         <v>93</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CT2" t="s">
         <v>94</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CU2" t="s">
         <v>95</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CV2" t="s">
         <v>96</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CW2" t="s">
         <v>97</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CX2" t="s">
         <v>98</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CY2" t="s">
         <v>99</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CZ2" t="s">
         <v>100</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DA2" t="s">
         <v>101</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DB2" t="s">
         <v>102</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DC2" t="s">
         <v>103</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DD2" t="s">
         <v>104</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DE2" t="s">
         <v>105</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DF2" t="s">
         <v>106</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DG2" t="s">
         <v>107</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DH2" t="s">
         <v>108</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DI2" t="s">
         <v>109</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DJ2" t="s">
         <v>110</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DK2" t="s">
         <v>111</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DL2" t="s">
         <v>112</v>
       </c>
-      <c r="DJ2" t="s">
-        <v>113</v>
-      </c>
-      <c r="DK2" t="s">
+      <c r="DM2" t="s">
+        <v>191</v>
+      </c>
+      <c r="DN2" t="s">
         <v>114</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DO2" t="s">
         <v>115</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DP2" t="s">
         <v>116</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DQ2" t="s">
         <v>117</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="DR2" t="s">
         <v>118</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="DS2" t="s">
         <v>119</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="DT2" t="s">
         <v>120</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="DU2" t="s">
         <v>121</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="DV2" t="s">
         <v>122</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="DW2" t="s">
         <v>123</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="DX2" t="s">
         <v>124</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="DY2" t="s">
         <v>125</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>126</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EA2" t="s">
         <v>127</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EB2" t="s">
         <v>128</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="EC2" t="s">
         <v>129</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="ED2" t="s">
         <v>130</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>131</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="EF2" t="s">
         <v>132</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="EG2" t="s">
         <v>133</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EH2" t="s">
         <v>134</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EI2" t="s">
         <v>135</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EJ2" t="s">
         <v>136</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EK2" t="s">
         <v>137</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EL2" t="s">
         <v>138</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EM2" t="s">
         <v>139</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="EN2" t="s">
         <v>140</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="EO2" t="s">
         <v>141</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="EP2" t="s">
         <v>142</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="EQ2" t="s">
         <v>143</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="ER2" t="s">
         <v>144</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="ES2" t="s">
         <v>145</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="ET2" t="s">
         <v>146</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="EU2" t="s">
         <v>147</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="EV2" t="s">
         <v>148</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="EW2" t="s">
         <v>149</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="EX2" t="s">
         <v>150</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="EY2" t="s">
         <v>151</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="EZ2" t="s">
         <v>152</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="FA2" t="s">
         <v>153</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="FB2" t="s">
         <v>154</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="FC2" t="s">
         <v>155</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="FD2" t="s">
         <v>156</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="FE2" t="s">
         <v>157</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="FF2" t="s">
         <v>158</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="FG2" t="s">
         <v>159</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FH2" t="s">
         <v>160</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="FI2" t="s">
         <v>161</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="FJ2" t="s">
         <v>162</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="FK2" t="s">
         <v>163</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="FL2" t="s">
         <v>164</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="FM2" t="s">
         <v>165</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="FN2" t="s">
         <v>166</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="FO2" t="s">
         <v>167</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="FP2" t="s">
         <v>168</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="FQ2" t="s">
         <v>169</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="FR2" t="s">
         <v>170</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="FS2" t="s">
         <v>180</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="FT2" t="s">
         <v>177</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="FU2" t="s">
         <v>178</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="FV2" t="s">
+        <v>172</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX2" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3778,526 +3868,541 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>-0.0083955799045781349</v>
+        <v>0.002491121455111951</v>
       </c>
       <c r="C3">
-        <v>-0.66389667832522736</v>
+        <v>-0.64323727040929957</v>
       </c>
       <c r="D3">
-        <v>-0.67556354670114749</v>
+        <v>-0.65382432002003288</v>
       </c>
       <c r="E3">
-        <v>-0.6917242454314545</v>
+        <v>-0.67764956192659154</v>
       </c>
       <c r="F3">
-        <v>-0.0022025262913440229</v>
+        <v>-0.69010427065172208</v>
       </c>
       <c r="G3">
-        <v>-0.0002494448022216682</v>
+        <v>-0.68080983660080585</v>
       </c>
       <c r="H3">
-        <v>-0.00022370985250929015</v>
+        <v>-0.70570724676434815</v>
       </c>
       <c r="I3">
-        <v>0.0067838308792395581</v>
+        <v>-0.00066394566948257928</v>
       </c>
       <c r="J3">
-        <v>-0.0055294436290444339</v>
+        <v>-0.0019556533561285836</v>
       </c>
       <c r="K3">
+        <v>-0.0014623964628313947</v>
+      </c>
+      <c r="L3">
+        <v>0.00071502899933822831</v>
+      </c>
+      <c r="M3">
+        <v>0.0021863377449190795</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>1.1444675699337998</v>
-      </c>
-      <c r="M3">
-        <v>1.2577685509035337</v>
-      </c>
-      <c r="N3">
-        <v>-0.28500102062679211</v>
-      </c>
       <c r="O3">
-        <v>-0.24725378749807339</v>
+        <v>1.1872604386832155</v>
       </c>
       <c r="P3">
-        <v>-0.23622470769475279</v>
+        <v>1.3118842335114087</v>
       </c>
       <c r="Q3">
-        <v>-0.24193897471477535</v>
+        <v>-0.21671525556566729</v>
       </c>
       <c r="R3">
-        <v>-0.18658261369567597</v>
+        <v>-0.23160601269676576</v>
       </c>
       <c r="S3">
-        <v>-0.17408156884029899</v>
+        <v>-0.18575010199429109</v>
       </c>
       <c r="T3">
-        <v>-0.17760179623048092</v>
+        <v>-0.23503272458687527</v>
       </c>
       <c r="U3">
-        <v>-0.19857129823462211</v>
+        <v>-0.21603113144006819</v>
       </c>
       <c r="V3">
-        <v>-0.18993801268375168</v>
+        <v>-0.18294156471934811</v>
       </c>
       <c r="W3">
-        <v>-0.15266757038029005</v>
+        <v>-0.15399081975657633</v>
       </c>
       <c r="X3">
-        <v>-0.17546744238321046</v>
+        <v>-0.15550005785812773</v>
       </c>
       <c r="Y3">
-        <v>-0.15552633322159112</v>
+        <v>-0.15530368988776577</v>
       </c>
       <c r="Z3">
-        <v>-0.11905981517737851</v>
+        <v>-0.098972515305881983</v>
       </c>
       <c r="AA3">
-        <v>-0.096528938969473913</v>
+        <v>-0.083872296793282702</v>
       </c>
       <c r="AB3">
-        <v>-0.14394099628845272</v>
+        <v>-0.087271480610047511</v>
       </c>
       <c r="AC3">
-        <v>-0.1397822760055312</v>
+        <v>-0.1220441850250914</v>
       </c>
       <c r="AD3">
-        <v>-0.12683729139115049</v>
+        <v>-0.075757231763143987</v>
       </c>
       <c r="AE3">
-        <v>-0.10859492053603471</v>
+        <v>-0.095954220198296789</v>
       </c>
       <c r="AF3">
-        <v>-0.10146300217797295</v>
+        <v>-0.068251320528831094</v>
       </c>
       <c r="AG3">
-        <v>-0.086575997986390069</v>
+        <v>-0.090738018051653005</v>
       </c>
       <c r="AH3">
-        <v>-0.12036971056053528</v>
+        <v>-0.081766736646934082</v>
       </c>
       <c r="AI3">
-        <v>-0.048511721964818476</v>
+        <v>-0.036907261033990682</v>
       </c>
       <c r="AJ3">
-        <v>-0.11836007931547757</v>
+        <v>-0.050518870198668089</v>
       </c>
       <c r="AK3">
-        <v>-0.073247387980689027</v>
+        <v>-0.067282514124415521</v>
       </c>
       <c r="AL3">
-        <v>-0.077352205690018563</v>
+        <v>-0.042944458737614745</v>
       </c>
       <c r="AM3">
-        <v>-0.047466940496237418</v>
+        <v>-0.0024274580957798246</v>
       </c>
       <c r="AN3">
-        <v>-0.075161771852866974</v>
+        <v>-0.021294073308944079</v>
       </c>
       <c r="AO3">
-        <v>-0.015754066240960166</v>
+        <v>-0.027386416854403902</v>
       </c>
       <c r="AP3">
-        <v>-0.035886428584889898</v>
+        <v>-0.0075878917412188981</v>
       </c>
       <c r="AQ3">
-        <v>-0.043188876302956751</v>
+        <v>0.0013612442584026627</v>
       </c>
       <c r="AR3">
-        <v>-0.074237544866221625</v>
+        <v>0.0012702300404546902</v>
       </c>
       <c r="AS3">
-        <v>-0.036977201963439191</v>
+        <v>-0.055721683723939312</v>
       </c>
       <c r="AT3">
-        <v>-0.047160826501623974</v>
+        <v>-0.013229266892916678</v>
       </c>
       <c r="AU3">
-        <v>-0.016195198761844672</v>
+        <v>0.0099455199616947099</v>
       </c>
       <c r="AV3">
-        <v>-0.016184283099333001</v>
+        <v>-0.033395264522318835</v>
       </c>
       <c r="AW3">
-        <v>-0.0088402159838222531</v>
+        <v>0.020302394319327437</v>
       </c>
       <c r="AX3">
-        <v>0.001274957708479</v>
+        <v>-0.021924161031691494</v>
       </c>
       <c r="AY3">
-        <v>-0.0070353074251217245</v>
+        <v>-0.021019026493120551</v>
       </c>
       <c r="AZ3">
-        <v>-0.013379928447101692</v>
+        <v>0.024170453578209003</v>
       </c>
       <c r="BA3">
-        <v>-0.02894722985757198</v>
+        <v>-0.0057468910297517216</v>
       </c>
       <c r="BB3">
-        <v>-0.0065241859482408245</v>
+        <v>0.011224275313902346</v>
       </c>
       <c r="BC3">
-        <v>-0.042147383003445671</v>
+        <v>0.014655480799868264</v>
       </c>
       <c r="BD3">
-        <v>-0.020792331494629133</v>
+        <v>0.03677643795447285</v>
       </c>
       <c r="BE3">
-        <v>0.01309573308049778</v>
+        <v>0.011961183350890916</v>
       </c>
       <c r="BF3">
-        <v>-0.047147901846608505</v>
+        <v>0.040097264936632009</v>
       </c>
       <c r="BG3">
-        <v>-0.0095846100325171681</v>
+        <v>0.056096523541726562</v>
       </c>
       <c r="BH3">
-        <v>-0.011222195963941552</v>
+        <v>0.053815776266503669</v>
       </c>
       <c r="BI3">
-        <v>-0.028531670933072673</v>
+        <v>-0.0045459465359456398</v>
       </c>
       <c r="BJ3">
-        <v>-0.0014154286095062435</v>
+        <v>0.03519616977299888</v>
       </c>
       <c r="BK3">
-        <v>-0.018360617002627193</v>
+        <v>0.039756094605809131</v>
       </c>
       <c r="BL3">
-        <v>-0.01589789305621234</v>
+        <v>0.040176375741399581</v>
       </c>
       <c r="BM3">
-        <v>-0.02199351721948304</v>
+        <v>0.025793909359092225</v>
       </c>
       <c r="BN3">
-        <v>0.035191733576335572</v>
+        <v>0.040341051580858912</v>
       </c>
       <c r="BO3">
-        <v>-0.042695250597191176</v>
+        <v>-0.0012955940953067735</v>
       </c>
       <c r="BP3">
-        <v>-0.025398524454952047</v>
+        <v>0.074298120201432075</v>
       </c>
       <c r="BQ3">
-        <v>-0.03045550446697896</v>
+        <v>0.039007619562712516</v>
       </c>
       <c r="BR3">
-        <v>-0.0073771121454095185</v>
+        <v>0.025695796114509714</v>
       </c>
       <c r="BS3">
-        <v>-0.046980640047772693</v>
+        <v>0.023804588255877019</v>
       </c>
       <c r="BT3">
-        <v>-0.024529027707056957</v>
+        <v>0.0171404288699262</v>
       </c>
       <c r="BU3">
-        <v>0.0015843755694833551</v>
+        <v>0.018081805437296952</v>
       </c>
       <c r="BV3">
-        <v>-0.013762322760085679</v>
+        <v>0.013701468310827239</v>
       </c>
       <c r="BW3">
-        <v>-0.011655746590516231</v>
+        <v>0.022451745912475521</v>
       </c>
       <c r="BX3">
-        <v>-0.008837464218882627</v>
+        <v>0.037539826317615023</v>
       </c>
       <c r="BY3">
-        <v>3.5744787406933644e-05</v>
+        <v>0.033068213497722043</v>
       </c>
       <c r="BZ3">
-        <v>0.0046284052199082222</v>
+        <v>0.019234379292331474</v>
       </c>
       <c r="CA3">
-        <v>-0.025207357841249823</v>
+        <v>0.026879128618317615</v>
       </c>
       <c r="CB3">
-        <v>-0.021141757359806782</v>
+        <v>-0.0094804251789262182</v>
       </c>
       <c r="CC3">
-        <v>-0.0091223532402000714</v>
+        <v>0.039590310122721475</v>
       </c>
       <c r="CD3">
-        <v>-0.0030763701484406566</v>
+        <v>0.0046709376049801164</v>
       </c>
       <c r="CE3">
-        <v>-0.021804534810904583</v>
+        <v>0.034581776180333958</v>
       </c>
       <c r="CF3">
-        <v>-0.034972212173150524</v>
+        <v>0.039619626980708207</v>
       </c>
       <c r="CG3">
-        <v>-0.028629394333468242</v>
+        <v>0.0025269292295069363</v>
       </c>
       <c r="CH3">
-        <v>0.0042480365352081445</v>
+        <v>0.0051570814888222379</v>
       </c>
       <c r="CI3">
-        <v>-0.0039522977978979851</v>
+        <v>0.019068752108764853</v>
       </c>
       <c r="CJ3">
-        <v>-0.022693257338923477</v>
+        <v>0.036205617200875478</v>
       </c>
       <c r="CK3">
-        <v>0.05279846924518964</v>
+        <v>0.030687271162517637</v>
       </c>
       <c r="CL3">
-        <v>0.00057817545000158471</v>
+        <v>-0.0044129207753715967</v>
       </c>
       <c r="CM3">
-        <v>0.014677599361662434</v>
+        <v>0.023253040139595577</v>
       </c>
       <c r="CN3">
-        <v>0.0060682204656075352</v>
+        <v>0.011642151666752896</v>
       </c>
       <c r="CO3">
+        <v>-0.016608472831698751</v>
+      </c>
+      <c r="CP3">
+        <v>0.011425038797938505</v>
+      </c>
+      <c r="CQ3">
+        <v>0.027022344223301298</v>
+      </c>
+      <c r="CR3">
+        <v>-0.012527321486898354</v>
+      </c>
+      <c r="CS3">
+        <v>0.048643118085179057</v>
+      </c>
+      <c r="CT3">
+        <v>0.025790964138026035</v>
+      </c>
+      <c r="CU3">
+        <v>0.053492605962436893</v>
+      </c>
+      <c r="CV3">
+        <v>0.025139494633323309</v>
+      </c>
+      <c r="CW3">
+        <v>0.021820692100446234</v>
+      </c>
+      <c r="CX3">
+        <v>-0.0068091852882828331</v>
+      </c>
+      <c r="CY3">
+        <v>0.029824448494918995</v>
+      </c>
+      <c r="CZ3">
+        <v>0.049189764633453412</v>
+      </c>
+      <c r="DA3">
+        <v>0.022343891336081091</v>
+      </c>
+      <c r="DB3">
+        <v>0.013396912536280857</v>
+      </c>
+      <c r="DC3">
+        <v>0.068961189870652889</v>
+      </c>
+      <c r="DD3">
+        <v>0.0077538254353259929</v>
+      </c>
+      <c r="DE3">
+        <v>-0.013579918034367294</v>
+      </c>
+      <c r="DF3">
+        <v>0.00025410550893187778</v>
+      </c>
+      <c r="DG3">
+        <v>0.023817691891422264</v>
+      </c>
+      <c r="DH3">
+        <v>0.042395782882446754</v>
+      </c>
+      <c r="DI3">
+        <v>0.013034887445376843</v>
+      </c>
+      <c r="DJ3">
+        <v>0.015035201930528819</v>
+      </c>
+      <c r="DK3">
+        <v>0.0094629018301171063</v>
+      </c>
+      <c r="DL3">
+        <v>0.036964669178042753</v>
+      </c>
+      <c r="DM3">
         <v>0</v>
       </c>
-      <c r="CP3">
-        <v>0.013721973478418194</v>
-      </c>
-      <c r="CQ3">
-        <v>0.0059045390098881696</v>
-      </c>
-      <c r="CR3">
-        <v>0.0066681569872481953</v>
-      </c>
-      <c r="CS3">
-        <v>-0.0078618138318231525</v>
-      </c>
-      <c r="CT3">
-        <v>-0.0058157210198890377</v>
-      </c>
-      <c r="CU3">
-        <v>-0.021571062497884649</v>
-      </c>
-      <c r="CV3">
-        <v>0.0059539955647249744</v>
-      </c>
-      <c r="CW3">
-        <v>0.024112132432274166</v>
-      </c>
-      <c r="CX3">
-        <v>-0.016187835448160628</v>
-      </c>
-      <c r="CY3">
-        <v>0.00016432868648248166</v>
-      </c>
-      <c r="CZ3">
-        <v>-0.0053443054323237095</v>
-      </c>
-      <c r="DA3">
-        <v>-0.0086589901471991072</v>
-      </c>
-      <c r="DB3">
-        <v>-0.008484976251314431</v>
-      </c>
-      <c r="DC3">
-        <v>-0.03610627337413666</v>
-      </c>
-      <c r="DD3">
-        <v>0.0098771143108565603</v>
-      </c>
-      <c r="DE3">
-        <v>0.0050777291715866325</v>
-      </c>
-      <c r="DF3">
-        <v>-0.030653907090767398</v>
-      </c>
-      <c r="DG3">
-        <v>-0.0047675084265885737</v>
-      </c>
-      <c r="DH3">
-        <v>0.0042209770315477964</v>
-      </c>
-      <c r="DI3">
-        <v>-0.0178653380809481</v>
-      </c>
-      <c r="DJ3">
-        <v>-0.0065581240221432371</v>
-      </c>
-      <c r="DK3">
-        <v>-0.021929799253751037</v>
-      </c>
-      <c r="DL3">
-        <v>-0.012085565560794258</v>
-      </c>
-      <c r="DM3">
-        <v>-0.026056526869876862</v>
-      </c>
       <c r="DN3">
-        <v>0.027344514879677262</v>
+        <v>-0.0024346740995341864</v>
       </c>
       <c r="DO3">
-        <v>-0.00031991843193925008</v>
+        <v>0.017713785328577415</v>
       </c>
       <c r="DP3">
-        <v>-0.021285427259985008</v>
+        <v>0.048373047060891822</v>
       </c>
       <c r="DQ3">
-        <v>-0.037771050883008861</v>
+        <v>0.0092145063182938816</v>
       </c>
       <c r="DR3">
-        <v>-0.0030102532443475154</v>
+        <v>-0.041819225336658952</v>
       </c>
       <c r="DS3">
-        <v>0.010051385195966057</v>
+        <v>0.050814991050585248</v>
       </c>
       <c r="DT3">
-        <v>0.02309025213546749</v>
+        <v>0.018234195721488076</v>
       </c>
       <c r="DU3">
-        <v>-0.016646718605465113</v>
+        <v>0.018910197117638184</v>
       </c>
       <c r="DV3">
-        <v>-0.0038013035447384777</v>
+        <v>-0.002109449640002052</v>
       </c>
       <c r="DW3">
-        <v>-0.0079525911326042108</v>
+        <v>-0.0072349067228371297</v>
       </c>
       <c r="DX3">
-        <v>-0.025120816223882125</v>
+        <v>0.011702601424037359</v>
       </c>
       <c r="DY3">
-        <v>-0.037021331226336884</v>
+        <v>-0.021664668738611583</v>
       </c>
       <c r="DZ3">
-        <v>-0.0036646780212686359</v>
+        <v>-0.0054005587083241014</v>
       </c>
       <c r="EA3">
-        <v>-0.0087624430781746681</v>
+        <v>-0.0017314962383051281</v>
       </c>
       <c r="EB3">
-        <v>-0.018064731873498153</v>
+        <v>-0.0090793351773586807</v>
       </c>
       <c r="EC3">
-        <v>-0.03888725470719083</v>
+        <v>-0.045136042420438109</v>
       </c>
       <c r="ED3">
-        <v>-0.0017416359334068683</v>
+        <v>0.0087899541589004336</v>
       </c>
       <c r="EE3">
-        <v>-0.0040946084145967307</v>
+        <v>0.012113151088755119</v>
       </c>
       <c r="EF3">
-        <v>-0.036226965504926309</v>
+        <v>0.023156332553306947</v>
       </c>
       <c r="EG3">
-        <v>-0.03006323962487871</v>
+        <v>0.029774411356650675</v>
       </c>
       <c r="EH3">
-        <v>0.00078221195854103582</v>
+        <v>0.031457539666115308</v>
       </c>
       <c r="EI3">
-        <v>-0.017571639866054149</v>
+        <v>0.011940934012908237</v>
       </c>
       <c r="EJ3">
-        <v>0.022220504120203842</v>
+        <v>0.028846487684230756</v>
       </c>
       <c r="EK3">
-        <v>-0.013401205965358978</v>
+        <v>0.0056971574255959678</v>
       </c>
       <c r="EL3">
-        <v>-0.021211164950508853</v>
+        <v>-0.037518294855110219</v>
       </c>
       <c r="EM3">
-        <v>-0.033550131365425513</v>
+        <v>-0.016967984866421287</v>
       </c>
       <c r="EN3">
-        <v>-0.016926249808685876</v>
+        <v>0.026993576037451845</v>
       </c>
       <c r="EO3">
-        <v>-0.012806100181413094</v>
+        <v>-0.015691981387546513</v>
       </c>
       <c r="EP3">
-        <v>-0.028684565235330098</v>
+        <v>0.021816463405156541</v>
       </c>
       <c r="EQ3">
-        <v>-0.029017247604137993</v>
+        <v>0.00035104329220209877</v>
       </c>
       <c r="ER3">
-        <v>-0.019224484285327147</v>
+        <v>-0.005124084130138741</v>
       </c>
       <c r="ES3">
-        <v>-0.066440923406501817</v>
+        <v>-0.014694511038609985</v>
       </c>
       <c r="ET3">
-        <v>-0.070869907687638067</v>
+        <v>0.020324087602785222</v>
       </c>
       <c r="EU3">
-        <v>0.00058097131147490978</v>
+        <v>-0.0029395566551162727</v>
       </c>
       <c r="EV3">
-        <v>-0.042484634536930702</v>
+        <v>-0.024802472688404017</v>
       </c>
       <c r="EW3">
-        <v>-0.038468664303919396</v>
+        <v>0.0033716052546842782</v>
       </c>
       <c r="EX3">
-        <v>-0.041767236652178921</v>
+        <v>-0.033607532850775841</v>
       </c>
       <c r="EY3">
-        <v>-0.015015114536352984</v>
+        <v>-0.0086669151413562538</v>
       </c>
       <c r="EZ3">
-        <v>-0.040079224411723499</v>
+        <v>-0.031596781438396962</v>
       </c>
       <c r="FA3">
-        <v>-0.0077606972589522143</v>
+        <v>-0.041165905818786472</v>
       </c>
       <c r="FB3">
-        <v>-0.045877454633316661</v>
+        <v>-0.048578680284967819</v>
       </c>
       <c r="FC3">
-        <v>-0.013646866907407657</v>
+        <v>-0.0059819806693042895</v>
       </c>
       <c r="FD3">
-        <v>-0.031192448591411768</v>
+        <v>-0.027854271976660339</v>
       </c>
       <c r="FE3">
-        <v>-0.065143851110953929</v>
+        <v>-0.025280151366366039</v>
       </c>
       <c r="FF3">
-        <v>-0.040607136099968147</v>
+        <v>0.010173957797910348</v>
       </c>
       <c r="FG3">
-        <v>-0.045160060094702616</v>
+        <v>-0.018560237420797664</v>
       </c>
       <c r="FH3">
-        <v>-0.043550269109520999</v>
+        <v>-0.018784725780546935</v>
       </c>
       <c r="FI3">
-        <v>-0.031893185434269701</v>
+        <v>0.015037551635130902</v>
       </c>
       <c r="FJ3">
-        <v>-0.053386174837377003</v>
+        <v>-0.012973610362575393</v>
       </c>
       <c r="FK3">
-        <v>-0.052837769500958053</v>
+        <v>0.014019834440903262</v>
       </c>
       <c r="FL3">
-        <v>-0.057721716715041574</v>
+        <v>-0.004303485965501991</v>
       </c>
       <c r="FM3">
-        <v>-0.046379059784233206</v>
+        <v>-0.023217273985611013</v>
       </c>
       <c r="FN3">
-        <v>-0.053728714395891067</v>
+        <v>-0.048716652365958429</v>
       </c>
       <c r="FO3">
-        <v>-0.043326719369268345</v>
+        <v>0.01240209395807468</v>
       </c>
       <c r="FP3">
-        <v>-0.04079457713879784</v>
+        <v>0.0037414547501847173</v>
       </c>
       <c r="FQ3">
-        <v>-0.031845422902498151</v>
+        <v>0.011188895871808413</v>
       </c>
       <c r="FR3">
+        <v>-0.014612037366133996</v>
+      </c>
+      <c r="FS3">
+        <v>-0.015490047105549649</v>
+      </c>
+      <c r="FT3">
+        <v>-0.0021405855597545196</v>
+      </c>
+      <c r="FU3">
         <v>0</v>
       </c>
-      <c r="FS3">
-        <v>-5.4770003312990365</v>
+      <c r="FV3">
+        <v>-5.4998406499308201</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>-5.6464274470562312</v>
       </c>
     </row>
     <row r="4">
@@ -4305,526 +4410,541 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.021602842985438932</v>
+        <v>0.023327177134116625</v>
       </c>
       <c r="C4">
-        <v>0.0094212084721509229</v>
+        <v>0.011658681622898025</v>
       </c>
       <c r="D4">
-        <v>0.01379173510225724</v>
+        <v>0.013392792852536762</v>
       </c>
       <c r="E4">
-        <v>0.016311380650383438</v>
+        <v>0.013039780536729021</v>
       </c>
       <c r="F4">
-        <v>0.014926871025123406</v>
+        <v>0.013006077272111271</v>
       </c>
       <c r="G4">
-        <v>0.012487497073343403</v>
+        <v>0.015005676491265283</v>
       </c>
       <c r="H4">
-        <v>0.010121189001378452</v>
+        <v>0.017659384521731467</v>
       </c>
       <c r="I4">
-        <v>0.010062825671491226</v>
+        <v>0.016409399927971312</v>
       </c>
       <c r="J4">
-        <v>0.010620739810033889</v>
+        <v>0.013480110114847964</v>
       </c>
       <c r="K4">
+        <v>0.011132319622284049</v>
+      </c>
+      <c r="L4">
+        <v>0.011158447294018688</v>
+      </c>
+      <c r="M4">
+        <v>0.011340765167631066</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>0.023041575899989977</v>
-      </c>
-      <c r="M4">
-        <v>0.023041575899989977</v>
-      </c>
-      <c r="N4">
-        <v>0.023041575899989977</v>
-      </c>
       <c r="O4">
-        <v>0.02304157589998998</v>
+        <v>0.026148241700078397</v>
       </c>
       <c r="P4">
-        <v>0.023041575899989977</v>
+        <v>0.026148241700078394</v>
       </c>
       <c r="Q4">
-        <v>0.023041575899989987</v>
+        <v>0.026148241700078394</v>
       </c>
       <c r="R4">
-        <v>0.023041575899989987</v>
+        <v>0.026148241700078397</v>
       </c>
       <c r="S4">
-        <v>0.02304157589998999</v>
+        <v>0.026148241700078394</v>
       </c>
       <c r="T4">
-        <v>0.02304157589998999</v>
+        <v>0.026148241700078394</v>
       </c>
       <c r="U4">
-        <v>0.023041575899989983</v>
+        <v>0.026148241700078397</v>
       </c>
       <c r="V4">
-        <v>0.023041575899989994</v>
+        <v>0.026148241700078397</v>
       </c>
       <c r="W4">
-        <v>0.023041575899989987</v>
+        <v>0.026148241700078401</v>
       </c>
       <c r="X4">
-        <v>0.02304157589998999</v>
+        <v>0.026148241700078397</v>
       </c>
       <c r="Y4">
-        <v>0.02304157589998999</v>
+        <v>0.026148241700078404</v>
       </c>
       <c r="Z4">
-        <v>0.02304157589998999</v>
+        <v>0.026148241700078397</v>
       </c>
       <c r="AA4">
-        <v>0.02304157589998999</v>
+        <v>0.026148241700078404</v>
       </c>
       <c r="AB4">
-        <v>0.023041575899989994</v>
+        <v>0.026148241700078397</v>
       </c>
       <c r="AC4">
-        <v>0.023041575899989994</v>
+        <v>0.026148241700078408</v>
       </c>
       <c r="AD4">
-        <v>0.023041575899989994</v>
+        <v>0.026148241700078415</v>
       </c>
       <c r="AE4">
-        <v>0.023041575899989997</v>
+        <v>0.026148241700078415</v>
       </c>
       <c r="AF4">
-        <v>0.023041575899989997</v>
+        <v>0.026148241700078421</v>
       </c>
       <c r="AG4">
-        <v>0.023041575899989997</v>
+        <v>0.026148241700078415</v>
       </c>
       <c r="AH4">
-        <v>0.02304157589998999</v>
+        <v>0.026148241700078425</v>
       </c>
       <c r="AI4">
-        <v>0.023041575899989994</v>
+        <v>0.026148241700078421</v>
       </c>
       <c r="AJ4">
-        <v>0.023041575899989997</v>
+        <v>0.026148241700078432</v>
       </c>
       <c r="AK4">
-        <v>0.023041575899989997</v>
+        <v>0.026148241700078432</v>
       </c>
       <c r="AL4">
-        <v>0.023041575899989997</v>
+        <v>0.026148241700078432</v>
       </c>
       <c r="AM4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078432</v>
       </c>
       <c r="AN4">
-        <v>0.023041575899990001</v>
+        <v>0.026148241700078432</v>
       </c>
       <c r="AO4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078432</v>
       </c>
       <c r="AP4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078435</v>
       </c>
       <c r="AQ4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078435</v>
       </c>
       <c r="AR4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078439</v>
       </c>
       <c r="AS4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078432</v>
       </c>
       <c r="AT4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078439</v>
       </c>
       <c r="AU4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078435</v>
       </c>
       <c r="AV4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078439</v>
       </c>
       <c r="AW4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078439</v>
       </c>
       <c r="AX4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078439</v>
       </c>
       <c r="AY4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078439</v>
       </c>
       <c r="AZ4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078439</v>
       </c>
       <c r="BA4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078439</v>
       </c>
       <c r="BB4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078439</v>
       </c>
       <c r="BC4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078439</v>
       </c>
       <c r="BD4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078442</v>
       </c>
       <c r="BE4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078442</v>
       </c>
       <c r="BF4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078449</v>
       </c>
       <c r="BG4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078449</v>
       </c>
       <c r="BH4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078449</v>
       </c>
       <c r="BI4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078449</v>
       </c>
       <c r="BJ4">
-        <v>0.023041575899990004</v>
+        <v>0.026148241700078449</v>
       </c>
       <c r="BK4">
-        <v>0.023041575899990008</v>
+        <v>0.026148241700078449</v>
       </c>
       <c r="BL4">
-        <v>0.023041575899990008</v>
+        <v>0.026148241700078453</v>
       </c>
       <c r="BM4">
-        <v>0.023041575899990011</v>
+        <v>0.026148241700078449</v>
       </c>
       <c r="BN4">
-        <v>0.023041575899990011</v>
+        <v>0.026148241700078453</v>
       </c>
       <c r="BO4">
-        <v>0.023041575899990015</v>
+        <v>0.026148241700078453</v>
       </c>
       <c r="BP4">
-        <v>0.023041575899990015</v>
+        <v>0.026148241700078453</v>
       </c>
       <c r="BQ4">
-        <v>0.023028530051419128</v>
+        <v>0.026148241700078453</v>
       </c>
       <c r="BR4">
-        <v>0.023028530051419124</v>
+        <v>0.026148241700078453</v>
       </c>
       <c r="BS4">
-        <v>0.023028530051419128</v>
+        <v>0.026148241700078453</v>
       </c>
       <c r="BT4">
-        <v>0.020894582117554225</v>
+        <v>0.026148241700078453</v>
       </c>
       <c r="BU4">
-        <v>0.020894582117554225</v>
+        <v>0.02614824170007846</v>
       </c>
       <c r="BV4">
-        <v>0.024229111139616351</v>
+        <v>0.026148241700078453</v>
       </c>
       <c r="BW4">
-        <v>0.023761726050447893</v>
+        <v>0.026148241700078453</v>
       </c>
       <c r="BX4">
-        <v>0.023761726050447893</v>
+        <v>0.026148241700078453</v>
       </c>
       <c r="BY4">
-        <v>0.023407288416977118</v>
+        <v>0.025617713456661601</v>
       </c>
       <c r="BZ4">
-        <v>0.023407288416977121</v>
+        <v>0.025617713456661601</v>
       </c>
       <c r="CA4">
-        <v>0.023407288416977121</v>
+        <v>0.025617713456661605</v>
       </c>
       <c r="CB4">
-        <v>0.023119826382279846</v>
+        <v>0.025617713456661605</v>
       </c>
       <c r="CC4">
-        <v>0.023119826382279853</v>
+        <v>0.025617713456661601</v>
       </c>
       <c r="CD4">
-        <v>0.02311982638227985</v>
+        <v>0.026202567417386021</v>
       </c>
       <c r="CE4">
-        <v>0.02311982638227985</v>
+        <v>0.026202567417386021</v>
       </c>
       <c r="CF4">
-        <v>0.023119826382279853</v>
+        <v>0.026202567417386025</v>
       </c>
       <c r="CG4">
-        <v>0.023057221174853176</v>
+        <v>0.026202567417386021</v>
       </c>
       <c r="CH4">
-        <v>0.023057221174853173</v>
+        <v>0.026202567417386021</v>
       </c>
       <c r="CI4">
-        <v>0.023057221174853173</v>
+        <v>0.026197092853966073</v>
       </c>
       <c r="CJ4">
-        <v>0.02305722117485318</v>
+        <v>0.026197092853966073</v>
       </c>
       <c r="CK4">
-        <v>0.023360209784003067</v>
+        <v>0.026197092853966073</v>
       </c>
       <c r="CL4">
-        <v>0.022047173457420403</v>
+        <v>0.026197092853966073</v>
       </c>
       <c r="CM4">
-        <v>0.022047173457420407</v>
+        <v>0.026197092853966073</v>
       </c>
       <c r="CN4">
-        <v>0.020031060198183809</v>
+        <v>0.025917021273070891</v>
       </c>
       <c r="CO4">
+        <v>0.025917021273070894</v>
+      </c>
+      <c r="CP4">
+        <v>0.025917021273070894</v>
+      </c>
+      <c r="CQ4">
+        <v>0.026061616238865406</v>
+      </c>
+      <c r="CR4">
+        <v>0.026061616238865402</v>
+      </c>
+      <c r="CS4">
+        <v>0.022528636399825108</v>
+      </c>
+      <c r="CT4">
+        <v>0.026587526836182356</v>
+      </c>
+      <c r="CU4">
+        <v>0.026587526836182363</v>
+      </c>
+      <c r="CV4">
+        <v>0.026101733599982881</v>
+      </c>
+      <c r="CW4">
+        <v>0.026101733599982885</v>
+      </c>
+      <c r="CX4">
+        <v>0.026509851952519835</v>
+      </c>
+      <c r="CY4">
+        <v>0.026675902184009132</v>
+      </c>
+      <c r="CZ4">
+        <v>0.026675902184009136</v>
+      </c>
+      <c r="DA4">
+        <v>0.026675902184009136</v>
+      </c>
+      <c r="DB4">
+        <v>0.026675902184009139</v>
+      </c>
+      <c r="DC4">
+        <v>0.026376220371416802</v>
+      </c>
+      <c r="DD4">
+        <v>0.026620471659205506</v>
+      </c>
+      <c r="DE4">
+        <v>0.026620471659205502</v>
+      </c>
+      <c r="DF4">
+        <v>0.026620471659205502</v>
+      </c>
+      <c r="DG4">
+        <v>0.026620471659205506</v>
+      </c>
+      <c r="DH4">
+        <v>0.026116901208579176</v>
+      </c>
+      <c r="DI4">
+        <v>0.024664359335072352</v>
+      </c>
+      <c r="DJ4">
+        <v>0.024664359335072356</v>
+      </c>
+      <c r="DK4">
+        <v>0.02500423328421876</v>
+      </c>
+      <c r="DL4">
+        <v>0.02500423328421876</v>
+      </c>
+      <c r="DM4">
         <v>0</v>
       </c>
-      <c r="CP4">
-        <v>0.023488500109882453</v>
-      </c>
-      <c r="CQ4">
-        <v>0.023769818678675822</v>
-      </c>
-      <c r="CR4">
-        <v>0.023769818678675822</v>
-      </c>
-      <c r="CS4">
-        <v>0.023415503542656139</v>
-      </c>
-      <c r="CT4">
-        <v>0.023415503542656143</v>
-      </c>
-      <c r="CU4">
-        <v>0.023415503542656139</v>
-      </c>
-      <c r="CV4">
-        <v>0.023128143614811691</v>
-      </c>
-      <c r="CW4">
-        <v>0.023128143614811691</v>
-      </c>
-      <c r="CX4">
-        <v>0.023128143614811695</v>
-      </c>
-      <c r="CY4">
-        <v>0.023128143614811688</v>
-      </c>
-      <c r="CZ4">
-        <v>0.023128143614811695</v>
-      </c>
-      <c r="DA4">
-        <v>0.023095247071503348</v>
-      </c>
-      <c r="DB4">
-        <v>0.023095247071503344</v>
-      </c>
-      <c r="DC4">
-        <v>0.023095247071503348</v>
-      </c>
-      <c r="DD4">
-        <v>0.023095247071503348</v>
-      </c>
-      <c r="DE4">
-        <v>0.023095247071503348</v>
-      </c>
-      <c r="DF4">
-        <v>0.021627728899344709</v>
-      </c>
-      <c r="DG4">
-        <v>0.021627728899344705</v>
-      </c>
-      <c r="DH4">
-        <v>0.021627728899344709</v>
-      </c>
-      <c r="DI4">
-        <v>0.021627728899344712</v>
-      </c>
-      <c r="DJ4">
-        <v>0.021627728899344712</v>
-      </c>
-      <c r="DK4">
-        <v>0.023058263815738271</v>
-      </c>
-      <c r="DL4">
-        <v>0.023058263815738271</v>
-      </c>
-      <c r="DM4">
-        <v>0.023058263815738271</v>
-      </c>
       <c r="DN4">
-        <v>0.023058263815738268</v>
+        <v>0.026258677792782622</v>
       </c>
       <c r="DO4">
-        <v>0.023058263815738275</v>
+        <v>0.026258677792782618</v>
       </c>
       <c r="DP4">
-        <v>0.023058263815738271</v>
+        <v>0.025947779953088796</v>
       </c>
       <c r="DQ4">
-        <v>0.023058263815738275</v>
+        <v>0.025947779953088793</v>
       </c>
       <c r="DR4">
-        <v>0.023058263815738275</v>
+        <v>0.0259477799530888</v>
       </c>
       <c r="DS4">
-        <v>0.023058263815738288</v>
+        <v>0.025887400236231789</v>
       </c>
       <c r="DT4">
-        <v>0.023058263815738275</v>
+        <v>0.025887400236231789</v>
       </c>
       <c r="DU4">
-        <v>0.023058263815738288</v>
+        <v>0.025887400236231789</v>
       </c>
       <c r="DV4">
-        <v>0.023058263815738288</v>
+        <v>0.025887400236231789</v>
       </c>
       <c r="DW4">
-        <v>0.023058263815738288</v>
+        <v>0.025887400236231789</v>
       </c>
       <c r="DX4">
-        <v>0.023058263815738285</v>
+        <v>0.025835829970835708</v>
       </c>
       <c r="DY4">
-        <v>0.023058263815738292</v>
+        <v>0.025835829970835708</v>
       </c>
       <c r="DZ4">
-        <v>0.023058263815738292</v>
+        <v>0.025835829970835708</v>
       </c>
       <c r="EA4">
-        <v>0.023058263815738295</v>
+        <v>0.025835829970835712</v>
       </c>
       <c r="EB4">
-        <v>0.023058263815738299</v>
+        <v>0.025835829970835712</v>
       </c>
       <c r="EC4">
-        <v>0.023058263815738295</v>
+        <v>0.024184554162891274</v>
       </c>
       <c r="ED4">
-        <v>0.023058263815738295</v>
+        <v>0.024184554162891281</v>
       </c>
       <c r="EE4">
-        <v>0.023058263815738295</v>
+        <v>0.024184554162891274</v>
       </c>
       <c r="EF4">
-        <v>0.023058263815738306</v>
+        <v>0.024184554162891274</v>
       </c>
       <c r="EG4">
-        <v>0.023058263815738299</v>
+        <v>0.024184554162891274</v>
       </c>
       <c r="EH4">
-        <v>0.023058263815738306</v>
+        <v>0.025658401569546699</v>
       </c>
       <c r="EI4">
-        <v>0.023058263815738302</v>
+        <v>0.025658401569546702</v>
       </c>
       <c r="EJ4">
-        <v>0.023058263815738306</v>
+        <v>0.025658401569546702</v>
       </c>
       <c r="EK4">
-        <v>0.023058263815738306</v>
+        <v>0.025658401569546699</v>
       </c>
       <c r="EL4">
-        <v>0.023058263815738309</v>
+        <v>0.025658401569546706</v>
       </c>
       <c r="EM4">
-        <v>0.023058263815738306</v>
+        <v>0.025658401569546702</v>
       </c>
       <c r="EN4">
-        <v>0.023058263815738313</v>
+        <v>0.025658401569546706</v>
       </c>
       <c r="EO4">
-        <v>0.023058263815738302</v>
+        <v>0.025658401569546706</v>
       </c>
       <c r="EP4">
-        <v>0.023058263815738309</v>
+        <v>0.025658401569546706</v>
       </c>
       <c r="EQ4">
-        <v>0.023058263815738316</v>
+        <v>0.025658401569546709</v>
       </c>
       <c r="ER4">
-        <v>0.023058263815738316</v>
+        <v>0.025658401569546709</v>
       </c>
       <c r="ES4">
-        <v>0.023058263815738316</v>
+        <v>0.025658401569546706</v>
       </c>
       <c r="ET4">
-        <v>0.023058263815738316</v>
+        <v>0.025658401569546706</v>
       </c>
       <c r="EU4">
-        <v>0.023058263815738316</v>
+        <v>0.025658401569546706</v>
       </c>
       <c r="EV4">
-        <v>0.023058263815738309</v>
+        <v>0.025658401569546709</v>
       </c>
       <c r="EW4">
-        <v>0.023058263815738306</v>
+        <v>0.025658401569546709</v>
       </c>
       <c r="EX4">
-        <v>0.023058263815738313</v>
+        <v>0.025658401569546709</v>
       </c>
       <c r="EY4">
-        <v>0.023058263815738316</v>
+        <v>0.025658401569546709</v>
       </c>
       <c r="EZ4">
-        <v>0.023058263815738316</v>
+        <v>0.025658401569546709</v>
       </c>
       <c r="FA4">
-        <v>0.02305826381573832</v>
+        <v>0.025658401569546709</v>
       </c>
       <c r="FB4">
-        <v>0.02305826381573832</v>
+        <v>0.025658401569546713</v>
       </c>
       <c r="FC4">
-        <v>0.02305826381573832</v>
+        <v>0.025658401569546713</v>
       </c>
       <c r="FD4">
-        <v>0.02305826381573832</v>
+        <v>0.025658401569546713</v>
       </c>
       <c r="FE4">
-        <v>0.023058263815738323</v>
+        <v>0.025658401569546709</v>
       </c>
       <c r="FF4">
-        <v>0.02305826381573832</v>
+        <v>0.025658401569546716</v>
       </c>
       <c r="FG4">
-        <v>0.023058263815738323</v>
+        <v>0.025658401569546716</v>
       </c>
       <c r="FH4">
-        <v>0.023058263815738323</v>
+        <v>0.02565840156954672</v>
       </c>
       <c r="FI4">
-        <v>0.023058263815738327</v>
+        <v>0.025658401569546716</v>
       </c>
       <c r="FJ4">
-        <v>0.023058263815738327</v>
+        <v>0.02565840156954672</v>
       </c>
       <c r="FK4">
-        <v>0.023058263815738334</v>
+        <v>0.025658401569546716</v>
       </c>
       <c r="FL4">
-        <v>0.023058263815738334</v>
+        <v>0.02565840156954672</v>
       </c>
       <c r="FM4">
-        <v>0.023058263815738334</v>
+        <v>0.02565840156954672</v>
       </c>
       <c r="FN4">
-        <v>0.02305826381573833</v>
+        <v>0.02565840156954672</v>
       </c>
       <c r="FO4">
-        <v>0.023058263815738334</v>
+        <v>0.025658401569546723</v>
       </c>
       <c r="FP4">
-        <v>0.023058263815738334</v>
+        <v>0.025658401569546723</v>
       </c>
       <c r="FQ4">
-        <v>0.023058263815738337</v>
+        <v>0.025658401569546727</v>
       </c>
       <c r="FR4">
+        <v>0.02565840156954672</v>
+      </c>
+      <c r="FS4">
+        <v>0.02565840156954672</v>
+      </c>
+      <c r="FT4">
+        <v>0.025658401569546723</v>
+      </c>
+      <c r="FU4">
         <v>0</v>
       </c>
-      <c r="FS4">
-        <v>0.018195104942386339</v>
+      <c r="FV4">
+        <v>0.020830911890883545</v>
+      </c>
+      <c r="FW4">
+        <v>0</v>
+      </c>
+      <c r="FX4">
+        <v>0.016935633047355732</v>
       </c>
     </row>
   </sheetData>
@@ -4833,7 +4953,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FS4"/>
+  <dimension ref="A1:FX4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5368,522 +5488,537 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AO2" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AP2" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AU2" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AV2" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AW2" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AX2" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AY2" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AZ2" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BA2" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BB2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BC2" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BD2" t="s">
         <v>52</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BE2" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BF2" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BG2" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BH2" t="s">
         <v>56</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BI2" t="s">
         <v>57</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BJ2" t="s">
         <v>58</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BK2" t="s">
         <v>59</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BL2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BM2" t="s">
         <v>61</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BN2" t="s">
         <v>62</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BO2" t="s">
         <v>63</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
         <v>64</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BQ2" t="s">
         <v>65</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BR2" t="s">
         <v>66</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BS2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BT2" t="s">
         <v>68</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BU2" t="s">
         <v>69</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BV2" t="s">
         <v>70</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BW2" t="s">
         <v>71</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BX2" t="s">
         <v>72</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BY2" t="s">
         <v>73</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BZ2" t="s">
         <v>74</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CA2" t="s">
         <v>75</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CB2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CC2" t="s">
         <v>77</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CD2" t="s">
         <v>78</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CE2" t="s">
         <v>79</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CF2" t="s">
         <v>80</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CG2" t="s">
         <v>81</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CH2" t="s">
         <v>82</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CI2" t="s">
         <v>83</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CJ2" t="s">
         <v>84</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CK2" t="s">
         <v>175</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CL2" t="s">
         <v>86</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CM2" t="s">
         <v>87</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CN2" t="s">
         <v>88</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CO2" t="s">
         <v>89</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CP2" t="s">
         <v>90</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CQ2" t="s">
         <v>91</v>
       </c>
-      <c r="CO2" t="s">
-        <v>179</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ2" t="s">
+      <c r="CR2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>190</v>
+      </c>
+      <c r="CT2" t="s">
         <v>94</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CU2" t="s">
         <v>95</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CV2" t="s">
         <v>96</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CW2" t="s">
         <v>97</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CX2" t="s">
         <v>98</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CY2" t="s">
         <v>99</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CZ2" t="s">
         <v>100</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DA2" t="s">
         <v>101</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DB2" t="s">
         <v>102</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DC2" t="s">
         <v>103</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DD2" t="s">
         <v>104</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DE2" t="s">
         <v>105</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DF2" t="s">
         <v>106</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DG2" t="s">
         <v>107</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DH2" t="s">
         <v>108</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DI2" t="s">
         <v>109</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DJ2" t="s">
         <v>110</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DK2" t="s">
         <v>111</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DL2" t="s">
         <v>112</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DM2" t="s">
         <v>113</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DN2" t="s">
         <v>114</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DO2" t="s">
         <v>115</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DP2" t="s">
         <v>116</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DQ2" t="s">
         <v>117</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="DR2" t="s">
         <v>118</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="DS2" t="s">
         <v>119</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="DT2" t="s">
         <v>120</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="DU2" t="s">
         <v>121</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="DV2" t="s">
         <v>122</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="DW2" t="s">
         <v>123</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="DX2" t="s">
         <v>124</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="DY2" t="s">
         <v>125</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>126</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EA2" t="s">
         <v>127</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EB2" t="s">
         <v>128</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="EC2" t="s">
         <v>129</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="ED2" t="s">
         <v>130</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>131</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="EF2" t="s">
         <v>132</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="EG2" t="s">
         <v>133</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EH2" t="s">
         <v>134</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EI2" t="s">
         <v>135</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EJ2" t="s">
         <v>136</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EK2" t="s">
         <v>137</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EL2" t="s">
         <v>138</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EM2" t="s">
         <v>139</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="EN2" t="s">
         <v>140</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="EO2" t="s">
         <v>141</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="EP2" t="s">
         <v>142</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="EQ2" t="s">
         <v>143</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="ER2" t="s">
         <v>144</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="ES2" t="s">
         <v>145</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="ET2" t="s">
         <v>146</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="EU2" t="s">
         <v>147</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="EV2" t="s">
         <v>148</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="EW2" t="s">
         <v>149</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="EX2" t="s">
         <v>150</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="EY2" t="s">
         <v>151</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="EZ2" t="s">
         <v>152</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="FA2" t="s">
         <v>153</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="FB2" t="s">
         <v>154</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="FC2" t="s">
         <v>155</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="FD2" t="s">
         <v>156</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="FE2" t="s">
         <v>157</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="FF2" t="s">
         <v>158</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="FG2" t="s">
         <v>159</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FH2" t="s">
         <v>160</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="FI2" t="s">
         <v>161</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="FJ2" t="s">
         <v>162</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="FK2" t="s">
         <v>163</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="FL2" t="s">
         <v>164</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="FM2" t="s">
         <v>165</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="FN2" t="s">
         <v>166</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="FO2" t="s">
         <v>167</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="FP2" t="s">
         <v>168</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="FQ2" t="s">
         <v>169</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="FR2" t="s">
         <v>170</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="FS2" t="s">
         <v>180</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="FT2" t="s">
         <v>177</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="FU2" t="s">
         <v>178</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="FV2" t="s">
+        <v>172</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX2" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5892,526 +6027,541 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>3.2594189858254894</v>
+        <v>2.278513249292649</v>
       </c>
       <c r="C3">
-        <v>-1.6619365383701905</v>
+        <v>-0.89771824478030016</v>
       </c>
       <c r="D3">
-        <v>-1.6964340121958188</v>
+        <v>-0.9111770744256541</v>
       </c>
       <c r="E3">
-        <v>-1.7320747523035405</v>
+        <v>-0.92933545721923538</v>
       </c>
       <c r="F3">
-        <v>-0.0082793001349200715</v>
+        <v>-0.95562270813733152</v>
       </c>
       <c r="G3">
-        <v>-0.010810447730255792</v>
+        <v>-0.92448276508002392</v>
       </c>
       <c r="H3">
-        <v>0.01082954261970066</v>
+        <v>-0.94251682052590935</v>
       </c>
       <c r="I3">
-        <v>0.010420226200974311</v>
+        <v>-0.0036190493056063593</v>
       </c>
       <c r="J3">
-        <v>-0.011451780129075608</v>
+        <v>-0.00056405056874940702</v>
       </c>
       <c r="K3">
+        <v>0.0044861549863027461</v>
+      </c>
+      <c r="L3">
+        <v>-0.003358870520816144</v>
+      </c>
+      <c r="M3">
+        <v>0.00065876559791976672</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>1.2347823589472149</v>
-      </c>
-      <c r="M3">
-        <v>1.3203696499452826</v>
-      </c>
-      <c r="N3">
-        <v>-0.25591943395578176</v>
-      </c>
       <c r="O3">
-        <v>-0.16776050587256883</v>
+        <v>1.0768977451511432</v>
       </c>
       <c r="P3">
-        <v>-0.18213130003321232</v>
+        <v>1.2183376342007926</v>
       </c>
       <c r="Q3">
-        <v>-0.15533646244853511</v>
+        <v>-0.31792262783680703</v>
       </c>
       <c r="R3">
-        <v>-0.093462402522707058</v>
+        <v>-0.30721859827081294</v>
       </c>
       <c r="S3">
-        <v>-0.10386586503406474</v>
+        <v>-0.34572686798281244</v>
       </c>
       <c r="T3">
-        <v>-0.15052587935698911</v>
+        <v>-0.36217008721273281</v>
       </c>
       <c r="U3">
-        <v>-0.14896945366026568</v>
+        <v>-0.31513939616729353</v>
       </c>
       <c r="V3">
-        <v>-0.11243265452491817</v>
+        <v>-0.29239555174188409</v>
       </c>
       <c r="W3">
-        <v>-0.10710928299453874</v>
+        <v>-0.29440636142086235</v>
       </c>
       <c r="X3">
-        <v>-0.073817379507149505</v>
+        <v>-0.29619861201386732</v>
       </c>
       <c r="Y3">
-        <v>-0.086778953063618186</v>
+        <v>-0.30213181065848943</v>
       </c>
       <c r="Z3">
-        <v>-0.043260266824637954</v>
+        <v>-0.25483175731143543</v>
       </c>
       <c r="AA3">
-        <v>-0.040094325204519582</v>
+        <v>-0.20987940078465897</v>
       </c>
       <c r="AB3">
-        <v>-0.065791018676293569</v>
+        <v>-0.20048183953670606</v>
       </c>
       <c r="AC3">
-        <v>-0.11411291988781735</v>
+        <v>-0.24997947346163568</v>
       </c>
       <c r="AD3">
-        <v>-0.087227719885947269</v>
+        <v>-0.17807818206613799</v>
       </c>
       <c r="AE3">
-        <v>-0.080803420252532371</v>
+        <v>-0.25198787029466613</v>
       </c>
       <c r="AF3">
-        <v>-0.071914139338692326</v>
+        <v>-0.18254163215063618</v>
       </c>
       <c r="AG3">
-        <v>-0.080922576114488581</v>
+        <v>-0.20128862703056399</v>
       </c>
       <c r="AH3">
-        <v>-0.080974369211240696</v>
+        <v>-0.18342965057860183</v>
       </c>
       <c r="AI3">
-        <v>-0.062508771150852127</v>
+        <v>-0.17991528260423045</v>
       </c>
       <c r="AJ3">
-        <v>-0.051481528654601975</v>
+        <v>-0.17172006597582617</v>
       </c>
       <c r="AK3">
-        <v>-0.014770417817952896</v>
+        <v>-0.17923790168269366</v>
       </c>
       <c r="AL3">
-        <v>-0.041344435727935266</v>
+        <v>-0.19084478403497143</v>
       </c>
       <c r="AM3">
-        <v>-0.032889808195244584</v>
+        <v>-0.13509563734732355</v>
       </c>
       <c r="AN3">
-        <v>-0.0058441309767329492</v>
+        <v>-0.1062277640231032</v>
       </c>
       <c r="AO3">
-        <v>-0.014974596518106736</v>
+        <v>-0.13489535614008</v>
       </c>
       <c r="AP3">
-        <v>-0.033327424226423513</v>
+        <v>-0.11804366941828039</v>
       </c>
       <c r="AQ3">
-        <v>-0.054760260143904636</v>
+        <v>-0.15941600375949694</v>
       </c>
       <c r="AR3">
-        <v>-0.06039474596568304</v>
+        <v>-0.12510638800076185</v>
       </c>
       <c r="AS3">
-        <v>0.0059190957040645533</v>
+        <v>-0.15688712285043702</v>
       </c>
       <c r="AT3">
-        <v>-0.0019824228123279104</v>
+        <v>-0.13284501361128384</v>
       </c>
       <c r="AU3">
-        <v>0.062553760633669103</v>
+        <v>-0.093696133986497523</v>
       </c>
       <c r="AV3">
-        <v>0.0011025586385199247</v>
+        <v>-0.16418440859499159</v>
       </c>
       <c r="AW3">
-        <v>-0.0053678511482980361</v>
+        <v>-0.12263529079479631</v>
       </c>
       <c r="AX3">
-        <v>0.073461301241398255</v>
+        <v>-0.13906961836139942</v>
       </c>
       <c r="AY3">
-        <v>-0.00071309738422703235</v>
+        <v>-0.13280593309687111</v>
       </c>
       <c r="AZ3">
-        <v>-0.051244668324489574</v>
+        <v>-0.13697582299342442</v>
       </c>
       <c r="BA3">
-        <v>-0.037482269458260345</v>
+        <v>-0.14316504923779835</v>
       </c>
       <c r="BB3">
-        <v>0.0027815282361444713</v>
+        <v>-0.094586593242456718</v>
       </c>
       <c r="BC3">
-        <v>-0.020690220127032886</v>
+        <v>-0.09255324197207429</v>
       </c>
       <c r="BD3">
-        <v>-0.02477896304507806</v>
+        <v>-0.10658753029125408</v>
       </c>
       <c r="BE3">
-        <v>-0.011868216044130145</v>
+        <v>-0.12920622595173389</v>
       </c>
       <c r="BF3">
-        <v>-0.014926130313775697</v>
+        <v>-0.094302087067567167</v>
       </c>
       <c r="BG3">
-        <v>-0.07940666692493141</v>
+        <v>-0.115976755286347</v>
       </c>
       <c r="BH3">
-        <v>-0.018942735342612524</v>
+        <v>-0.078804999546641719</v>
       </c>
       <c r="BI3">
-        <v>0.030014025405676655</v>
+        <v>-0.12123148677965306</v>
       </c>
       <c r="BJ3">
-        <v>0.034487388894800221</v>
+        <v>-0.11296581312448199</v>
       </c>
       <c r="BK3">
-        <v>-0.027227311025090989</v>
+        <v>-0.12541074666559218</v>
       </c>
       <c r="BL3">
-        <v>0.019043634225109629</v>
+        <v>-0.071263247984522243</v>
       </c>
       <c r="BM3">
-        <v>-0.057433647854778801</v>
+        <v>-0.098547575196518453</v>
       </c>
       <c r="BN3">
-        <v>0.018842397920507573</v>
+        <v>-0.096118728202188267</v>
       </c>
       <c r="BO3">
-        <v>-0.0077989368153690061</v>
+        <v>-0.089107860685692777</v>
       </c>
       <c r="BP3">
-        <v>0.043258609680021022</v>
+        <v>-0.043976187435178143</v>
       </c>
       <c r="BQ3">
-        <v>0.0074413366340307027</v>
+        <v>-0.072553193851450856</v>
       </c>
       <c r="BR3">
-        <v>-0.015187375924812629</v>
+        <v>-0.076021847300940734</v>
       </c>
       <c r="BS3">
-        <v>-0.037102327550301774</v>
+        <v>-0.088784452205263306</v>
       </c>
       <c r="BT3">
-        <v>0.05740624710819648</v>
+        <v>-0.11827758041551678</v>
       </c>
       <c r="BU3">
-        <v>-0.022642112535391834</v>
+        <v>-0.13110841931491368</v>
       </c>
       <c r="BV3">
-        <v>-0.066439556982306539</v>
+        <v>-0.1306369579447364</v>
       </c>
       <c r="BW3">
-        <v>0.0035007067011752408</v>
+        <v>-0.11912134933464008</v>
       </c>
       <c r="BX3">
-        <v>-0.0092374381764663768</v>
+        <v>-0.062427373694125113</v>
       </c>
       <c r="BY3">
-        <v>0.0025072115623363885</v>
+        <v>-0.16717238404849646</v>
       </c>
       <c r="BZ3">
-        <v>0.013410115793936868</v>
+        <v>-0.086170629286572556</v>
       </c>
       <c r="CA3">
-        <v>0.005853214690995626</v>
+        <v>-0.094601553041047462</v>
       </c>
       <c r="CB3">
-        <v>-0.048234160311806967</v>
+        <v>-0.11530956318601568</v>
       </c>
       <c r="CC3">
-        <v>-0.01676292868935176</v>
+        <v>-0.077941636553036792</v>
       </c>
       <c r="CD3">
-        <v>-0.0031220141732226274</v>
+        <v>-0.092210774760142306</v>
       </c>
       <c r="CE3">
-        <v>-0.08396964412148436</v>
+        <v>-0.10362484234022239</v>
       </c>
       <c r="CF3">
-        <v>-0.02961247946974321</v>
+        <v>-0.071237326036298967</v>
       </c>
       <c r="CG3">
-        <v>-0.040282145684391833</v>
+        <v>-0.081241562654979463</v>
       </c>
       <c r="CH3">
-        <v>0.0025219132119304807</v>
+        <v>-0.11748651912248646</v>
       </c>
       <c r="CI3">
-        <v>-0.0022210139889152197</v>
+        <v>-0.10339696187970784</v>
       </c>
       <c r="CJ3">
-        <v>-0.027204107885425082</v>
+        <v>-0.075757982127376527</v>
       </c>
       <c r="CK3">
-        <v>0.032999340252364368</v>
+        <v>-0.070030272158304444</v>
       </c>
       <c r="CL3">
-        <v>-0.025063962456237255</v>
+        <v>-0.10309595070891496</v>
       </c>
       <c r="CM3">
-        <v>0.012008957863336236</v>
+        <v>-0.10694895003352269</v>
       </c>
       <c r="CN3">
-        <v>0.0023588902372375523</v>
+        <v>-0.087237173514542868</v>
       </c>
       <c r="CO3">
+        <v>-0.11654121228974978</v>
+      </c>
+      <c r="CP3">
+        <v>-0.097576501478526242</v>
+      </c>
+      <c r="CQ3">
+        <v>-0.072288726138676582</v>
+      </c>
+      <c r="CR3">
+        <v>-0.13052862755133635</v>
+      </c>
+      <c r="CS3">
         <v>0</v>
       </c>
-      <c r="CP3">
-        <v>0.081475001370052202</v>
-      </c>
-      <c r="CQ3">
-        <v>0.0072060048333631469</v>
-      </c>
-      <c r="CR3">
-        <v>0.0079696228107233764</v>
-      </c>
-      <c r="CS3">
-        <v>-0.0043182334661185937</v>
-      </c>
       <c r="CT3">
-        <v>-0.002272140654184714</v>
+        <v>-0.082670313474485488</v>
       </c>
       <c r="CU3">
-        <v>-0.018027482132180285</v>
+        <v>-0.046434799160024881</v>
       </c>
       <c r="CV3">
-        <v>-0.0013095517696928279</v>
+        <v>-0.08158965068116833</v>
       </c>
       <c r="CW3">
-        <v>0.016848585097856007</v>
+        <v>-0.091791304804187429</v>
       </c>
       <c r="CX3">
-        <v>-0.023451382782578425</v>
+        <v>-0.10944624986682215</v>
       </c>
       <c r="CY3">
-        <v>-0.0070992186479356349</v>
+        <v>-0.067175598527494565</v>
       </c>
       <c r="CZ3">
-        <v>-0.012607852766741739</v>
+        <v>-0.07477984962393211</v>
       </c>
       <c r="DA3">
-        <v>-0.012214108906379787</v>
+        <v>-0.09076508571943738</v>
       </c>
       <c r="DB3">
-        <v>-0.012040095010494847</v>
+        <v>-0.088394020053004174</v>
       </c>
       <c r="DC3">
-        <v>-0.039661392133316799</v>
+        <v>-0.042392337722045863</v>
       </c>
       <c r="DD3">
-        <v>0.0063219955516758764</v>
+        <v>-0.089659516819272686</v>
       </c>
       <c r="DE3">
-        <v>0.0015226104124058417</v>
+        <v>-0.10869640969900456</v>
       </c>
       <c r="DF3">
-        <v>-0.029429659939064576</v>
+        <v>-0.10723254584088326</v>
       </c>
       <c r="DG3">
-        <v>-0.0035432612748861475</v>
+        <v>-0.076262146251510413</v>
       </c>
       <c r="DH3">
-        <v>0.0054452241832502052</v>
+        <v>-0.068787737488801057</v>
       </c>
       <c r="DI3">
-        <v>-0.016641090929245303</v>
+        <v>-0.084468091981361682</v>
       </c>
       <c r="DJ3">
-        <v>-0.0053338768704404805</v>
+        <v>-0.092904750055853136</v>
       </c>
       <c r="DK3">
-        <v>-0.023666720352063828</v>
+        <v>-0.095879153176176873</v>
       </c>
       <c r="DL3">
-        <v>-0.013822486659106927</v>
+        <v>-0.059540862175740138</v>
       </c>
       <c r="DM3">
-        <v>-0.027793447968189298</v>
+        <v>-0.10299860071502048</v>
       </c>
       <c r="DN3">
-        <v>0.025607593781364166</v>
+        <v>-0.107774594450343</v>
       </c>
       <c r="DO3">
-        <v>-0.0020568395302519179</v>
+        <v>-0.087626135022231724</v>
       </c>
       <c r="DP3">
-        <v>-0.023022348358297778</v>
+        <v>-0.057612727133240477</v>
       </c>
       <c r="DQ3">
-        <v>-0.039507971981321569</v>
+        <v>-0.096771267875838063</v>
       </c>
       <c r="DR3">
-        <v>-0.0047471743426606402</v>
+        <v>-0.14780499953079099</v>
       </c>
       <c r="DS3">
-        <v>0.0083144640976532385</v>
+        <v>-0.054924154696898597</v>
       </c>
       <c r="DT3">
-        <v>0.021353331037154203</v>
+        <v>-0.08750495002599544</v>
       </c>
       <c r="DU3">
-        <v>-0.018383639703777842</v>
+        <v>-0.086828948629845276</v>
       </c>
       <c r="DV3">
-        <v>-0.0055382246430512013</v>
+        <v>-0.10784859538748558</v>
       </c>
       <c r="DW3">
-        <v>-0.0096895122309168594</v>
+        <v>-0.11297405247032082</v>
       </c>
       <c r="DX3">
-        <v>-0.026857737322194652</v>
+        <v>-0.092947831592361654</v>
       </c>
       <c r="DY3">
-        <v>-0.038758252324649412</v>
+        <v>-0.12631510175501046</v>
       </c>
       <c r="DZ3">
-        <v>-0.0054015991195812754</v>
+        <v>-0.11005099172472307</v>
       </c>
       <c r="EA3">
-        <v>-0.01049936417648719</v>
+        <v>-0.10638192925470417</v>
       </c>
       <c r="EB3">
-        <v>-0.01980165297181059</v>
+        <v>-0.11372976819375787</v>
       </c>
       <c r="EC3">
-        <v>-0.040624175805503072</v>
+        <v>-0.14905082106404691</v>
       </c>
       <c r="ED3">
-        <v>-0.0034785570317191431</v>
+        <v>-0.095124824484708395</v>
       </c>
       <c r="EE3">
-        <v>-0.0058315295129091581</v>
+        <v>-0.091801627554853785</v>
       </c>
       <c r="EF3">
-        <v>-0.037963886603238496</v>
+        <v>-0.080758446090302013</v>
       </c>
       <c r="EG3">
-        <v>-0.031800160723190814</v>
+        <v>-0.074140367286958261</v>
       </c>
       <c r="EH3">
-        <v>-0.00095470913977134357</v>
+        <v>-0.073550407849953037</v>
       </c>
       <c r="EI3">
-        <v>-0.019308560964366329</v>
+        <v>-0.093067013503160073</v>
       </c>
       <c r="EJ3">
-        <v>0.020483583021891134</v>
+        <v>-0.07616145983183753</v>
       </c>
       <c r="EK3">
-        <v>-0.015138127063671311</v>
+        <v>-0.099310790090472348</v>
       </c>
       <c r="EL3">
-        <v>-0.022948086048821027</v>
+        <v>-0.14252624237117853</v>
       </c>
       <c r="EM3">
-        <v>-0.035287052463737596</v>
+        <v>-0.12197593238248962</v>
       </c>
       <c r="EN3">
-        <v>-0.018663170906997911</v>
+        <v>-0.078014371478616618</v>
       </c>
       <c r="EO3">
-        <v>-0.014543021279725319</v>
+        <v>-0.12069992890361483</v>
       </c>
       <c r="EP3">
-        <v>-0.030421486333642025</v>
+        <v>-0.083191484110911831</v>
       </c>
       <c r="EQ3">
-        <v>-0.030754168702449756</v>
+        <v>-0.10465690422386609</v>
       </c>
       <c r="ER3">
-        <v>-0.02096140538363897</v>
+        <v>-0.11013203164620693</v>
       </c>
       <c r="ES3">
-        <v>-0.068177844504813637</v>
+        <v>-0.11970245855467822</v>
       </c>
       <c r="ET3">
-        <v>-0.072606828785949901</v>
+        <v>-0.084683859913283185</v>
       </c>
       <c r="EU3">
-        <v>-0.0011559497868370101</v>
+        <v>-0.1079475041711845</v>
       </c>
       <c r="EV3">
-        <v>-0.044221555635242535</v>
+        <v>-0.12981042020447234</v>
       </c>
       <c r="EW3">
-        <v>-0.040205585402231077</v>
+        <v>-0.10163634226138404</v>
       </c>
       <c r="EX3">
-        <v>-0.043504157750490637</v>
+        <v>-0.13861548036684415</v>
       </c>
       <c r="EY3">
-        <v>-0.0167520356346645</v>
+        <v>-0.11367486265742466</v>
       </c>
       <c r="EZ3">
-        <v>-0.041816145510035083</v>
+        <v>-0.13660472895446532</v>
       </c>
       <c r="FA3">
-        <v>-0.0094976183572637232</v>
+        <v>-0.14617385333485475</v>
       </c>
       <c r="FB3">
-        <v>-0.047614375731628189</v>
+        <v>-0.15358662780103621</v>
       </c>
       <c r="FC3">
-        <v>-0.015383788005719304</v>
+        <v>-0.11098992818537264</v>
       </c>
       <c r="FD3">
-        <v>-0.032929369689723181</v>
+        <v>-0.13286221949272878</v>
       </c>
       <c r="FE3">
-        <v>-0.066880772209265194</v>
+        <v>-0.13028809888243451</v>
       </c>
       <c r="FF3">
-        <v>-0.042344057198279349</v>
+        <v>-0.094833989718158096</v>
       </c>
       <c r="FG3">
-        <v>-0.046896981193013845</v>
+        <v>-0.12356818493686601</v>
       </c>
       <c r="FH3">
-        <v>-0.045287190207832201</v>
+        <v>-0.12379267329661531</v>
       </c>
       <c r="FI3">
-        <v>-0.033630106532580771</v>
+        <v>-0.089970395880937568</v>
       </c>
       <c r="FJ3">
-        <v>-0.055123095935688385</v>
+        <v>-0.11798155787864378</v>
       </c>
       <c r="FK3">
-        <v>-0.054574690599269352</v>
+        <v>-0.090988113075165189</v>
       </c>
       <c r="FL3">
-        <v>-0.05945863781335279</v>
+        <v>-0.10931143348157031</v>
       </c>
       <c r="FM3">
-        <v>-0.048115980882544492</v>
+        <v>-0.12822522150167942</v>
       </c>
       <c r="FN3">
-        <v>-0.055465635494202435</v>
+        <v>-0.1537245998820268</v>
       </c>
       <c r="FO3">
-        <v>-0.045063640467579484</v>
+        <v>-0.092605853557993625</v>
       </c>
       <c r="FP3">
-        <v>-0.042531498237108965</v>
+        <v>-0.10126649276588374</v>
       </c>
       <c r="FQ3">
-        <v>-0.0335823440008092</v>
+        <v>-0.093819051644260076</v>
       </c>
       <c r="FR3">
+        <v>-0.11961998488220246</v>
+      </c>
+      <c r="FS3">
+        <v>-0.12049799462161813</v>
+      </c>
+      <c r="FT3">
+        <v>-0.10714853307582291</v>
+      </c>
+      <c r="FU3">
         <v>0</v>
       </c>
-      <c r="FS3">
-        <v>-5.4752634102007249</v>
+      <c r="FV3">
+        <v>-5.3948327024147504</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>-5.6188487201173993</v>
       </c>
     </row>
     <row r="4">
@@ -6419,526 +6569,541 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.035373096829967893</v>
+        <v>0.024581934288551977</v>
       </c>
       <c r="C4">
-        <v>0.015426549170650155</v>
+        <v>0.01228579625805149</v>
       </c>
       <c r="D4">
-        <v>0.02258297121143938</v>
+        <v>0.014113184460701625</v>
       </c>
       <c r="E4">
-        <v>0.026708709014150837</v>
+        <v>0.013741183789538432</v>
       </c>
       <c r="F4">
-        <v>0.024441674389617574</v>
+        <v>0.013705667643226345</v>
       </c>
       <c r="G4">
-        <v>0.020447375534648492</v>
+        <v>0.015812824301148588</v>
       </c>
       <c r="H4">
-        <v>0.016572716786465675</v>
+        <v>0.018609273955166695</v>
       </c>
       <c r="I4">
-        <v>0.016477151044456084</v>
+        <v>0.017292053317244972</v>
       </c>
       <c r="J4">
-        <v>0.017390695195046813</v>
+        <v>0.014205198474744187</v>
       </c>
       <c r="K4">
+        <v>0.011731121509508302</v>
+      </c>
+      <c r="L4">
+        <v>0.0117586545755969</v>
+      </c>
+      <c r="M4">
+        <v>0.011950779236159116</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>0.037728918178721815</v>
-      </c>
-      <c r="M4">
-        <v>0.037728918178721815</v>
-      </c>
-      <c r="N4">
-        <v>0.037728918178721815</v>
-      </c>
       <c r="O4">
-        <v>0.037728918178721822</v>
+        <v>0.02755474250214578</v>
       </c>
       <c r="P4">
-        <v>0.037728918178721815</v>
+        <v>0.027554742502145783</v>
       </c>
       <c r="Q4">
-        <v>0.037728918178721836</v>
+        <v>0.027554742502145783</v>
       </c>
       <c r="R4">
-        <v>0.037728918178721836</v>
+        <v>0.027554742502145783</v>
       </c>
       <c r="S4">
-        <v>0.037728918178721836</v>
+        <v>0.027554742502145783</v>
       </c>
       <c r="T4">
-        <v>0.037728918178721843</v>
+        <v>0.027554742502145783</v>
       </c>
       <c r="U4">
-        <v>0.037728918178721829</v>
+        <v>0.027554742502145794</v>
       </c>
       <c r="V4">
-        <v>0.037728918178721843</v>
+        <v>0.027554742502145787</v>
       </c>
       <c r="W4">
-        <v>0.037728918178721836</v>
+        <v>0.02755474250214579</v>
       </c>
       <c r="X4">
-        <v>0.037728918178721843</v>
+        <v>0.02755474250214579</v>
       </c>
       <c r="Y4">
-        <v>0.037728918178721843</v>
+        <v>0.027554742502145797</v>
       </c>
       <c r="Z4">
-        <v>0.037728918178721843</v>
+        <v>0.027554742502145797</v>
       </c>
       <c r="AA4">
-        <v>0.037728918178721843</v>
+        <v>0.02755474250214579</v>
       </c>
       <c r="AB4">
-        <v>0.037728918178721843</v>
+        <v>0.027554742502145797</v>
       </c>
       <c r="AC4">
-        <v>0.037728918178721843</v>
+        <v>0.027554742502145797</v>
       </c>
       <c r="AD4">
-        <v>0.037728918178721843</v>
+        <v>0.027554742502145797</v>
       </c>
       <c r="AE4">
-        <v>0.03772891817872185</v>
+        <v>0.027554742502145794</v>
       </c>
       <c r="AF4">
-        <v>0.03772891817872185</v>
+        <v>0.027554742502145801</v>
       </c>
       <c r="AG4">
-        <v>0.03772891817872185</v>
+        <v>0.027554742502145804</v>
       </c>
       <c r="AH4">
-        <v>0.037728918178721843</v>
+        <v>0.027554742502145801</v>
       </c>
       <c r="AI4">
-        <v>0.037728918178721843</v>
+        <v>0.027554742502145808</v>
       </c>
       <c r="AJ4">
-        <v>0.03772891817872185</v>
+        <v>0.027554742502145808</v>
       </c>
       <c r="AK4">
-        <v>0.037728918178721857</v>
+        <v>0.027554742502145808</v>
       </c>
       <c r="AL4">
-        <v>0.037728918178721857</v>
+        <v>0.027554742502145808</v>
       </c>
       <c r="AM4">
-        <v>0.037728918178721864</v>
+        <v>0.027554742502145808</v>
       </c>
       <c r="AN4">
-        <v>0.037728918178721857</v>
+        <v>0.027554742502145804</v>
       </c>
       <c r="AO4">
-        <v>0.037728918178721864</v>
+        <v>0.027554742502145808</v>
       </c>
       <c r="AP4">
-        <v>0.037728918178721864</v>
+        <v>0.027554742502145804</v>
       </c>
       <c r="AQ4">
-        <v>0.037728918178721864</v>
+        <v>0.027554742502145808</v>
       </c>
       <c r="AR4">
-        <v>0.037728918178721864</v>
+        <v>0.027554742502145808</v>
       </c>
       <c r="AS4">
-        <v>0.037728918178721864</v>
+        <v>0.027554742502145811</v>
       </c>
       <c r="AT4">
-        <v>0.037728918178721864</v>
+        <v>0.027554742502145808</v>
       </c>
       <c r="AU4">
-        <v>0.037728918178721864</v>
+        <v>0.027554742502145815</v>
       </c>
       <c r="AV4">
-        <v>0.037728918178721864</v>
+        <v>0.027554742502145811</v>
       </c>
       <c r="AW4">
-        <v>0.037728918178721864</v>
+        <v>0.027554742502145815</v>
       </c>
       <c r="AX4">
-        <v>0.037728918178721864</v>
+        <v>0.027554742502145811</v>
       </c>
       <c r="AY4">
-        <v>0.037728918178721864</v>
+        <v>0.027554742502145811</v>
       </c>
       <c r="AZ4">
-        <v>0.037728918178721864</v>
+        <v>0.027554742502145811</v>
       </c>
       <c r="BA4">
-        <v>0.037728918178721864</v>
+        <v>0.027554742502145811</v>
       </c>
       <c r="BB4">
-        <v>0.037728918178721864</v>
+        <v>0.027554742502145815</v>
       </c>
       <c r="BC4">
-        <v>0.037728918178721864</v>
+        <v>0.027554742502145808</v>
       </c>
       <c r="BD4">
-        <v>0.037728918178721864</v>
+        <v>0.027554742502145804</v>
       </c>
       <c r="BE4">
-        <v>0.037728918178721864</v>
+        <v>0.02699567741068961</v>
       </c>
       <c r="BF4">
-        <v>0.037728918178721864</v>
+        <v>0.026995677410689613</v>
       </c>
       <c r="BG4">
-        <v>0.037728918178721864</v>
+        <v>0.026995677410689613</v>
       </c>
       <c r="BH4">
-        <v>0.037728918178721864</v>
+        <v>0.026995677410689613</v>
       </c>
       <c r="BI4">
-        <v>0.037728918178721864</v>
+        <v>0.026995677410689613</v>
       </c>
       <c r="BJ4">
-        <v>0.037728918178721864</v>
+        <v>0.02761199037253104</v>
       </c>
       <c r="BK4">
-        <v>0.037728918178721871</v>
+        <v>0.027611990372531044</v>
       </c>
       <c r="BL4">
-        <v>0.037728918178721871</v>
+        <v>0.02761199037253104</v>
       </c>
       <c r="BM4">
-        <v>0.037728918178721878</v>
+        <v>0.027611990372531051</v>
       </c>
       <c r="BN4">
-        <v>0.037728918178721878</v>
+        <v>0.02761199037253104</v>
       </c>
       <c r="BO4">
-        <v>0.037728918178721878</v>
+        <v>0.027606221335091396</v>
       </c>
       <c r="BP4">
-        <v>0.037728918178721878</v>
+        <v>0.027606221335091396</v>
       </c>
       <c r="BQ4">
-        <v>0.037707556542892831</v>
+        <v>0.027606221335091403</v>
       </c>
       <c r="BR4">
-        <v>0.037707556542892824</v>
+        <v>0.02760622133509141</v>
       </c>
       <c r="BS4">
-        <v>0.037707556542892831</v>
+        <v>0.027606221335091406</v>
       </c>
       <c r="BT4">
-        <v>0.03421337075699455</v>
+        <v>0.027311084844376169</v>
       </c>
       <c r="BU4">
-        <v>0.03421337075699455</v>
+        <v>0.027311084844376169</v>
       </c>
       <c r="BV4">
-        <v>0.039673421457693793</v>
+        <v>0.027311084844376169</v>
       </c>
       <c r="BW4">
-        <v>0.038908112094144624</v>
+        <v>0.027463457500835214</v>
       </c>
       <c r="BX4">
-        <v>0.038908112094144624</v>
+        <v>0.027463457500835214</v>
       </c>
       <c r="BY4">
-        <v>0.038327746040593379</v>
+        <v>0.02374044044880359</v>
       </c>
       <c r="BZ4">
-        <v>0.038327746040593386</v>
+        <v>0.028017656565323925</v>
       </c>
       <c r="CA4">
-        <v>0.038327746040593386</v>
+        <v>0.028017656565323928</v>
       </c>
       <c r="CB4">
-        <v>0.037857047698012264</v>
+        <v>0.027505732754679324</v>
       </c>
       <c r="CC4">
-        <v>0.037857047698012278</v>
+        <v>0.027505732754679314</v>
       </c>
       <c r="CD4">
-        <v>0.037857047698012264</v>
+        <v>0.027935803588639896</v>
       </c>
       <c r="CE4">
-        <v>0.037857047698012264</v>
+        <v>0.028110785578770951</v>
       </c>
       <c r="CF4">
-        <v>0.037857047698012278</v>
+        <v>0.028110785578770951</v>
       </c>
       <c r="CG4">
-        <v>0.037754536187566322</v>
+        <v>0.028110785578770947</v>
       </c>
       <c r="CH4">
-        <v>0.037754536187566315</v>
+        <v>0.028110785578770951</v>
       </c>
       <c r="CI4">
-        <v>0.037754536187566322</v>
+        <v>0.027794984031834322</v>
       </c>
       <c r="CJ4">
-        <v>0.037754536187566322</v>
+        <v>0.028052373473848497</v>
       </c>
       <c r="CK4">
-        <v>0.038250658175633376</v>
+        <v>0.028052373473848497</v>
       </c>
       <c r="CL4">
-        <v>0.036100655921171766</v>
+        <v>0.028052373473848497</v>
       </c>
       <c r="CM4">
-        <v>0.036100655921171773</v>
+        <v>0.028052373473848501</v>
       </c>
       <c r="CN4">
-        <v>0.032799415913677021</v>
+        <v>0.027521716221332152</v>
       </c>
       <c r="CO4">
+        <v>0.025991042849212304</v>
+      </c>
+      <c r="CP4">
+        <v>0.0259910428492123</v>
+      </c>
+      <c r="CQ4">
+        <v>0.026349198447563258</v>
+      </c>
+      <c r="CR4">
+        <v>0.026349198447563262</v>
+      </c>
+      <c r="CS4">
         <v>0</v>
       </c>
-      <c r="CP4">
-        <v>0.038460724328627148</v>
-      </c>
-      <c r="CQ4">
-        <v>0.038921363189017108</v>
-      </c>
-      <c r="CR4">
-        <v>0.038921363189017108</v>
-      </c>
-      <c r="CS4">
-        <v>0.038341197716204325</v>
-      </c>
       <c r="CT4">
-        <v>0.038341197716204332</v>
+        <v>0.027671118896868234</v>
       </c>
       <c r="CU4">
-        <v>0.038341197716204325</v>
+        <v>0.027671118896868234</v>
       </c>
       <c r="CV4">
-        <v>0.03787066656622811</v>
+        <v>0.02734349801835953</v>
       </c>
       <c r="CW4">
-        <v>0.03787066656622811</v>
+        <v>0.02734349801835953</v>
       </c>
       <c r="CX4">
-        <v>0.037870666566228117</v>
+        <v>0.02734349801835953</v>
       </c>
       <c r="CY4">
-        <v>0.037870666566228103</v>
+        <v>0.02727987050682619</v>
       </c>
       <c r="CZ4">
-        <v>0.037870666566228117</v>
+        <v>0.02727987050682619</v>
       </c>
       <c r="DA4">
-        <v>0.037816800849914678</v>
+        <v>0.0272798705068262</v>
       </c>
       <c r="DB4">
-        <v>0.037816800849914671</v>
+        <v>0.027279870506826193</v>
       </c>
       <c r="DC4">
-        <v>0.037816800849914678</v>
+        <v>0.0272798705068262</v>
       </c>
       <c r="DD4">
-        <v>0.037816800849914671</v>
+        <v>0.027225526302728072</v>
       </c>
       <c r="DE4">
-        <v>0.037816800849914678</v>
+        <v>0.027225526302728075</v>
       </c>
       <c r="DF4">
-        <v>0.035413845718569481</v>
+        <v>0.027225526302728075</v>
       </c>
       <c r="DG4">
-        <v>0.035413845718569474</v>
+        <v>0.027225526302728075</v>
       </c>
       <c r="DH4">
-        <v>0.035413845718569481</v>
+        <v>0.027225526302728075</v>
       </c>
       <c r="DI4">
-        <v>0.035413845718569488</v>
+        <v>0.025485429197545137</v>
       </c>
       <c r="DJ4">
-        <v>0.035413845718569488</v>
+        <v>0.025485429197545137</v>
       </c>
       <c r="DK4">
-        <v>0.037756243436793298</v>
+        <v>0.025485429197545137</v>
       </c>
       <c r="DL4">
-        <v>0.037756243436793298</v>
+        <v>0.025485429197545137</v>
       </c>
       <c r="DM4">
-        <v>0.037756243436793298</v>
+        <v>0.02548542919754514</v>
       </c>
       <c r="DN4">
-        <v>0.037756243436793291</v>
+        <v>0.02703855411675226</v>
       </c>
       <c r="DO4">
-        <v>0.037756243436793298</v>
+        <v>0.027038554116752263</v>
       </c>
       <c r="DP4">
-        <v>0.037756243436793298</v>
+        <v>0.02703855411675227</v>
       </c>
       <c r="DQ4">
-        <v>0.037756243436793305</v>
+        <v>0.027038554116752263</v>
       </c>
       <c r="DR4">
-        <v>0.037756243436793298</v>
+        <v>0.027038554116752274</v>
       </c>
       <c r="DS4">
-        <v>0.037756243436793326</v>
+        <v>0.02703855411675227</v>
       </c>
       <c r="DT4">
-        <v>0.037756243436793305</v>
+        <v>0.027038554116752281</v>
       </c>
       <c r="DU4">
-        <v>0.037756243436793326</v>
+        <v>0.02703855411675227</v>
       </c>
       <c r="DV4">
-        <v>0.037756243436793326</v>
+        <v>0.027038554116752284</v>
       </c>
       <c r="DW4">
-        <v>0.037756243436793326</v>
+        <v>0.027038554116752281</v>
       </c>
       <c r="DX4">
-        <v>0.037756243436793326</v>
+        <v>0.027038554116752284</v>
       </c>
       <c r="DY4">
-        <v>0.037756243436793333</v>
+        <v>0.027038554116752284</v>
       </c>
       <c r="DZ4">
-        <v>0.037756243436793333</v>
+        <v>0.027038554116752284</v>
       </c>
       <c r="EA4">
-        <v>0.037756243436793339</v>
+        <v>0.027038554116752284</v>
       </c>
       <c r="EB4">
-        <v>0.037756243436793339</v>
+        <v>0.027038554116752284</v>
       </c>
       <c r="EC4">
-        <v>0.037756243436793339</v>
+        <v>0.027038554116752284</v>
       </c>
       <c r="ED4">
-        <v>0.037756243436793339</v>
+        <v>0.027038554116752288</v>
       </c>
       <c r="EE4">
-        <v>0.037756243436793339</v>
+        <v>0.027038554116752288</v>
       </c>
       <c r="EF4">
-        <v>0.037756243436793353</v>
+        <v>0.027038554116752284</v>
       </c>
       <c r="EG4">
-        <v>0.037756243436793339</v>
+        <v>0.027038554116752288</v>
       </c>
       <c r="EH4">
-        <v>0.03775624343679336</v>
+        <v>0.027038554116752288</v>
       </c>
       <c r="EI4">
-        <v>0.037756243436793346</v>
+        <v>0.027038554116752288</v>
       </c>
       <c r="EJ4">
-        <v>0.03775624343679336</v>
+        <v>0.027038554116752295</v>
       </c>
       <c r="EK4">
-        <v>0.037756243436793353</v>
+        <v>0.027038554116752288</v>
       </c>
       <c r="EL4">
-        <v>0.03775624343679336</v>
+        <v>0.027038554116752295</v>
       </c>
       <c r="EM4">
-        <v>0.037756243436793353</v>
+        <v>0.027038554116752295</v>
       </c>
       <c r="EN4">
-        <v>0.037756243436793367</v>
+        <v>0.027038554116752295</v>
       </c>
       <c r="EO4">
-        <v>0.037756243436793346</v>
+        <v>0.027038554116752295</v>
       </c>
       <c r="EP4">
-        <v>0.03775624343679336</v>
+        <v>0.027038554116752295</v>
       </c>
       <c r="EQ4">
-        <v>0.037756243436793367</v>
+        <v>0.027038554116752295</v>
       </c>
       <c r="ER4">
-        <v>0.037756243436793374</v>
+        <v>0.027038554116752295</v>
       </c>
       <c r="ES4">
-        <v>0.037756243436793367</v>
+        <v>0.027038554116752295</v>
       </c>
       <c r="ET4">
-        <v>0.037756243436793367</v>
+        <v>0.027038554116752295</v>
       </c>
       <c r="EU4">
-        <v>0.037756243436793367</v>
+        <v>0.027038554116752295</v>
       </c>
       <c r="EV4">
-        <v>0.03775624343679336</v>
+        <v>0.027038554116752295</v>
       </c>
       <c r="EW4">
-        <v>0.037756243436793353</v>
+        <v>0.027038554116752295</v>
       </c>
       <c r="EX4">
-        <v>0.037756243436793367</v>
+        <v>0.027038554116752295</v>
       </c>
       <c r="EY4">
-        <v>0.037756243436793374</v>
+        <v>0.027038554116752298</v>
       </c>
       <c r="EZ4">
-        <v>0.037756243436793374</v>
+        <v>0.027038554116752298</v>
       </c>
       <c r="FA4">
-        <v>0.037756243436793374</v>
+        <v>0.027038554116752298</v>
       </c>
       <c r="FB4">
-        <v>0.037756243436793374</v>
+        <v>0.027038554116752298</v>
       </c>
       <c r="FC4">
-        <v>0.037756243436793374</v>
+        <v>0.027038554116752298</v>
       </c>
       <c r="FD4">
-        <v>0.037756243436793374</v>
+        <v>0.027038554116752302</v>
       </c>
       <c r="FE4">
-        <v>0.037756243436793388</v>
+        <v>0.027038554116752298</v>
       </c>
       <c r="FF4">
-        <v>0.037756243436793374</v>
+        <v>0.027038554116752302</v>
       </c>
       <c r="FG4">
-        <v>0.037756243436793388</v>
+        <v>0.027038554116752298</v>
       </c>
       <c r="FH4">
-        <v>0.037756243436793381</v>
+        <v>0.027038554116752305</v>
       </c>
       <c r="FI4">
-        <v>0.037756243436793388</v>
+        <v>0.027038554116752298</v>
       </c>
       <c r="FJ4">
-        <v>0.037756243436793388</v>
+        <v>0.027038554116752305</v>
       </c>
       <c r="FK4">
-        <v>0.037756243436793395</v>
+        <v>0.027038554116752302</v>
       </c>
       <c r="FL4">
-        <v>0.037756243436793395</v>
+        <v>0.027038554116752305</v>
       </c>
       <c r="FM4">
-        <v>0.037756243436793395</v>
+        <v>0.027038554116752309</v>
       </c>
       <c r="FN4">
-        <v>0.037756243436793395</v>
+        <v>0.027038554116752312</v>
       </c>
       <c r="FO4">
-        <v>0.037756243436793395</v>
+        <v>0.027038554116752312</v>
       </c>
       <c r="FP4">
-        <v>0.037756243436793395</v>
+        <v>0.027038554116752309</v>
       </c>
       <c r="FQ4">
-        <v>0.037756243436793402</v>
+        <v>0.027038554116752316</v>
       </c>
       <c r="FR4">
+        <v>0.027038554116752316</v>
+      </c>
+      <c r="FS4">
+        <v>0.027038554116752312</v>
+      </c>
+      <c r="FT4">
+        <v>0.027038554116752316</v>
+      </c>
+      <c r="FU4">
         <v>0</v>
       </c>
-      <c r="FS4">
-        <v>0.029793171639134707</v>
+      <c r="FV4">
+        <v>0.021951396190300725</v>
+      </c>
+      <c r="FW4">
+        <v>0</v>
+      </c>
+      <c r="FX4">
+        <v>0.018897121617745805</v>
       </c>
     </row>
   </sheetData>
@@ -6947,7 +7112,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FS4"/>
+  <dimension ref="A1:FX4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7482,522 +7647,537 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AO2" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AP2" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AU2" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AV2" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AW2" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AX2" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AY2" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AZ2" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BA2" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BB2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BC2" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BD2" t="s">
         <v>52</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BE2" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BF2" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BG2" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BH2" t="s">
         <v>56</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BI2" t="s">
         <v>57</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BJ2" t="s">
         <v>58</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BK2" t="s">
         <v>59</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BL2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BM2" t="s">
         <v>61</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BN2" t="s">
         <v>62</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BO2" t="s">
         <v>63</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
         <v>64</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BQ2" t="s">
         <v>65</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BR2" t="s">
         <v>66</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BS2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BT2" t="s">
         <v>68</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BU2" t="s">
         <v>69</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BV2" t="s">
         <v>70</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BW2" t="s">
         <v>71</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BX2" t="s">
         <v>72</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BY2" t="s">
         <v>73</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BZ2" t="s">
         <v>74</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CA2" t="s">
         <v>75</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CB2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CC2" t="s">
         <v>77</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CD2" t="s">
         <v>78</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CE2" t="s">
         <v>79</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CF2" t="s">
         <v>80</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CG2" t="s">
         <v>81</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CH2" t="s">
         <v>82</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CI2" t="s">
         <v>83</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CJ2" t="s">
         <v>84</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CK2" t="s">
         <v>175</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CL2" t="s">
         <v>86</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CM2" t="s">
         <v>87</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CN2" t="s">
         <v>88</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CO2" t="s">
         <v>89</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CP2" t="s">
         <v>90</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CQ2" t="s">
         <v>91</v>
       </c>
-      <c r="CO2" t="s">
-        <v>179</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ2" t="s">
+      <c r="CR2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>190</v>
+      </c>
+      <c r="CT2" t="s">
         <v>94</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CU2" t="s">
         <v>95</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CV2" t="s">
         <v>96</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CW2" t="s">
         <v>97</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CX2" t="s">
         <v>98</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CY2" t="s">
         <v>99</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CZ2" t="s">
         <v>100</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DA2" t="s">
         <v>101</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DB2" t="s">
         <v>102</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DC2" t="s">
         <v>103</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DD2" t="s">
         <v>104</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DE2" t="s">
         <v>105</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DF2" t="s">
         <v>106</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DG2" t="s">
         <v>107</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DH2" t="s">
         <v>108</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DI2" t="s">
         <v>109</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DJ2" t="s">
         <v>110</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DK2" t="s">
         <v>111</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DL2" t="s">
         <v>112</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DM2" t="s">
         <v>113</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DN2" t="s">
         <v>114</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DO2" t="s">
         <v>115</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DP2" t="s">
         <v>116</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DQ2" t="s">
         <v>117</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="DR2" t="s">
         <v>118</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="DS2" t="s">
         <v>119</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="DT2" t="s">
         <v>120</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="DU2" t="s">
         <v>121</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="DV2" t="s">
         <v>122</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="DW2" t="s">
         <v>123</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="DX2" t="s">
         <v>124</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="DY2" t="s">
         <v>125</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>126</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EA2" t="s">
         <v>127</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EB2" t="s">
         <v>128</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="EC2" t="s">
         <v>129</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="ED2" t="s">
         <v>130</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>131</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="EF2" t="s">
         <v>132</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="EG2" t="s">
         <v>133</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EH2" t="s">
         <v>134</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EI2" t="s">
         <v>135</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EJ2" t="s">
         <v>136</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EK2" t="s">
         <v>137</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EL2" t="s">
         <v>138</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EM2" t="s">
         <v>139</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="EN2" t="s">
         <v>140</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="EO2" t="s">
         <v>141</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="EP2" t="s">
         <v>142</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="EQ2" t="s">
         <v>143</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="ER2" t="s">
         <v>144</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="ES2" t="s">
         <v>145</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="ET2" t="s">
         <v>146</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="EU2" t="s">
         <v>147</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="EV2" t="s">
         <v>148</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="EW2" t="s">
         <v>149</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="EX2" t="s">
         <v>150</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="EY2" t="s">
         <v>151</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="EZ2" t="s">
         <v>152</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="FA2" t="s">
         <v>153</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="FB2" t="s">
         <v>154</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="FC2" t="s">
         <v>155</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="FD2" t="s">
         <v>156</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="FE2" t="s">
         <v>157</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="FF2" t="s">
         <v>158</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="FG2" t="s">
         <v>159</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FH2" t="s">
         <v>160</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="FI2" t="s">
         <v>161</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="FJ2" t="s">
         <v>162</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="FK2" t="s">
         <v>163</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="FL2" t="s">
         <v>164</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="FM2" t="s">
         <v>165</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="FN2" t="s">
         <v>166</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="FO2" t="s">
         <v>167</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="FP2" t="s">
         <v>168</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="FQ2" t="s">
         <v>169</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="FR2" t="s">
         <v>170</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="FS2" t="s">
         <v>180</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="FT2" t="s">
         <v>177</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="FU2" t="s">
         <v>178</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="FV2" t="s">
+        <v>172</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX2" t="s">
         <v>172</v>
       </c>
     </row>
@@ -8006,526 +8186,541 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>1.1053028971063112</v>
+        <v>1.0658605342964831</v>
       </c>
       <c r="C3">
-        <v>-1.7068696024413168</v>
+        <v>-1.7008704131518992</v>
       </c>
       <c r="D3">
-        <v>-1.7336186845309753</v>
+        <v>-1.7564632643625491</v>
       </c>
       <c r="E3">
-        <v>-1.6925684781200565</v>
+        <v>-1.7247000815865037</v>
       </c>
       <c r="F3">
-        <v>0.86774996879464239</v>
+        <v>-1.7359566561944038</v>
       </c>
       <c r="G3">
-        <v>0.77412587784204612</v>
+        <v>-1.7548689905395585</v>
       </c>
       <c r="H3">
-        <v>0.62204586799583306</v>
+        <v>-1.703931036316336</v>
       </c>
       <c r="I3">
-        <v>0.44458706789333369</v>
+        <v>0.86503293240380796</v>
       </c>
       <c r="J3">
-        <v>0.33070089022420851</v>
+        <v>0.78699911848821158</v>
       </c>
       <c r="K3">
+        <v>0.61547845680585</v>
+      </c>
+      <c r="L3">
+        <v>0.46051876924542751</v>
+      </c>
+      <c r="M3">
+        <v>0.32648990362366076</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>1.298574775819483</v>
-      </c>
-      <c r="M3">
-        <v>1.3867924644912979</v>
-      </c>
-      <c r="N3">
-        <v>-0.18326858580569635</v>
-      </c>
       <c r="O3">
-        <v>-0.15466949681105865</v>
+        <v>1.2314691097914015</v>
       </c>
       <c r="P3">
-        <v>-0.11984470449802467</v>
+        <v>1.3665302231233203</v>
       </c>
       <c r="Q3">
-        <v>-0.048325606746324148</v>
+        <v>-0.224445614348012</v>
       </c>
       <c r="R3">
-        <v>-0.044583709050376709</v>
+        <v>-0.15059544483193463</v>
       </c>
       <c r="S3">
-        <v>-0.039392995051827855</v>
+        <v>-0.1774698670710381</v>
       </c>
       <c r="T3">
-        <v>-0.13126031471204958</v>
+        <v>-0.1933107214088253</v>
       </c>
       <c r="U3">
-        <v>0.012951062891265427</v>
+        <v>-0.20772295989928044</v>
       </c>
       <c r="V3">
-        <v>-0.071097471550992469</v>
+        <v>-0.16849072611334781</v>
       </c>
       <c r="W3">
-        <v>-0.046625822334450034</v>
+        <v>-0.10111497238811151</v>
       </c>
       <c r="X3">
-        <v>-0.03188369398098459</v>
+        <v>-0.11746688373223425</v>
       </c>
       <c r="Y3">
-        <v>-0.030821085689708743</v>
+        <v>-0.14116086110194484</v>
       </c>
       <c r="Z3">
-        <v>-0.017236142313471058</v>
+        <v>-0.06781287464125979</v>
       </c>
       <c r="AA3">
-        <v>-0.012568602804895126</v>
+        <v>-0.066161226361154013</v>
       </c>
       <c r="AB3">
-        <v>0.0035785688816837064</v>
+        <v>-0.078617679404221735</v>
       </c>
       <c r="AC3">
-        <v>-0.0068101385619192545</v>
+        <v>-0.096948954432321266</v>
       </c>
       <c r="AD3">
-        <v>-0.0078786773545597866</v>
+        <v>-0.054470180224438614</v>
       </c>
       <c r="AE3">
-        <v>-0.0070118869659363311</v>
+        <v>-0.073985023706922254</v>
       </c>
       <c r="AF3">
-        <v>0.0026306277955782833</v>
+        <v>-0.032542841172555043</v>
       </c>
       <c r="AG3">
-        <v>0.027941785458682897</v>
+        <v>-0.11344712536406105</v>
       </c>
       <c r="AH3">
-        <v>0.02047017877163344</v>
+        <v>-0.031672193878516483</v>
       </c>
       <c r="AI3">
-        <v>-0.0023736867071300046</v>
+        <v>-0.032866606629692791</v>
       </c>
       <c r="AJ3">
-        <v>0.0044689192767644603</v>
+        <v>-0.045284803009704201</v>
       </c>
       <c r="AK3">
-        <v>0.037971160451508112</v>
+        <v>-0.028806780138189981</v>
       </c>
       <c r="AL3">
-        <v>0.011136496612178809</v>
+        <v>-0.012433979731891873</v>
       </c>
       <c r="AM3">
-        <v>0.036314116648878167</v>
+        <v>0.033469533961706835</v>
       </c>
       <c r="AN3">
-        <v>0.069347331354050912</v>
+        <v>0.031230580783794176</v>
       </c>
       <c r="AO3">
-        <v>0.034593295029758171</v>
+        <v>0.024132068503629558</v>
       </c>
       <c r="AP3">
-        <v>0.033211228296935062</v>
+        <v>-0.007076755675205406</v>
       </c>
       <c r="AQ3">
-        <v>0.02685098255098552</v>
+        <v>-0.018897726344814274</v>
       </c>
       <c r="AR3">
-        <v>0.0046493120231323659</v>
+        <v>0.054224883754534249</v>
       </c>
       <c r="AS3">
-        <v>0.066637369854876144</v>
+        <v>-0.054819153630446378</v>
       </c>
       <c r="AT3">
-        <v>0.054015225403574764</v>
+        <v>-0.0025110426541174614</v>
       </c>
       <c r="AU3">
-        <v>0.043200903607293617</v>
+        <v>0.0070467585012081915</v>
       </c>
       <c r="AV3">
-        <v>0.064538234255901147</v>
+        <v>-0.032917048162584124</v>
       </c>
       <c r="AW3">
-        <v>0.093468472337232308</v>
+        <v>0.040147655599624327</v>
       </c>
       <c r="AX3">
-        <v>0.060121566629338936</v>
+        <v>-0.038427465062631838</v>
       </c>
       <c r="AY3">
-        <v>0.086740506785810106</v>
+        <v>-0.056354105544526988</v>
       </c>
       <c r="AZ3">
-        <v>0.045146187490295461</v>
+        <v>0.031265294614807836</v>
       </c>
       <c r="BA3">
-        <v>0.063302877529958487</v>
+        <v>-0.011469601593852763</v>
       </c>
       <c r="BB3">
-        <v>0.03733217742576992</v>
+        <v>0.023094615024697843</v>
       </c>
       <c r="BC3">
-        <v>0.027508292239804458</v>
+        <v>0.049934494478400204</v>
       </c>
       <c r="BD3">
-        <v>0.055596994642321707</v>
+        <v>0.015006795878993628</v>
       </c>
       <c r="BE3">
-        <v>0.063500361781035283</v>
+        <v>0.03578008205111493</v>
       </c>
       <c r="BF3">
-        <v>0.071714358794193647</v>
+        <v>0.054825350661120799</v>
       </c>
       <c r="BG3">
-        <v>0.0096269749890042344</v>
+        <v>0.024156786177267194</v>
       </c>
       <c r="BH3">
-        <v>0.0039138001853245563</v>
+        <v>0.035783468642451466</v>
       </c>
       <c r="BI3">
-        <v>0.050294210500288115</v>
+        <v>0.023387092439372901</v>
       </c>
       <c r="BJ3">
-        <v>0.094604474828760859</v>
+        <v>0.051794700171886081</v>
       </c>
       <c r="BK3">
-        <v>0.040074205794850187</v>
+        <v>-0.0095140682932720513</v>
       </c>
       <c r="BL3">
-        <v>0.050547945373955849</v>
+        <v>0.06460633683984468</v>
       </c>
       <c r="BM3">
-        <v>0.063370898556433103</v>
+        <v>-0.011394768511369266</v>
       </c>
       <c r="BN3">
-        <v>0.1263565432528575</v>
+        <v>0.035370447435531999</v>
       </c>
       <c r="BO3">
-        <v>0.00043519323522668926</v>
+        <v>-0.0034251690745578682</v>
       </c>
       <c r="BP3">
-        <v>0.060848611587063152</v>
+        <v>0.065352057353720391</v>
       </c>
       <c r="BQ3">
-        <v>0.047829675865537047</v>
+        <v>0.057627694348012355</v>
       </c>
       <c r="BR3">
-        <v>0.041333629243105963</v>
+        <v>0.022552723798759597</v>
       </c>
       <c r="BS3">
-        <v>0.072265876602807699</v>
+        <v>-0.022270029291822941</v>
       </c>
       <c r="BT3">
-        <v>0.022343725125510257</v>
+        <v>-0.0073575389250164326</v>
       </c>
       <c r="BU3">
-        <v>0.038312604643184006</v>
+        <v>-0.0029131235098644784</v>
       </c>
       <c r="BV3">
-        <v>0.036116700612596989</v>
+        <v>-0.047663939895935474</v>
       </c>
       <c r="BW3">
-        <v>0.1015560919421358</v>
+        <v>0.028016266523928347</v>
       </c>
       <c r="BX3">
-        <v>0.093068703757955284</v>
+        <v>0.024316450808083784</v>
       </c>
       <c r="BY3">
-        <v>0.11542674137944904</v>
+        <v>0.03856756932125955</v>
       </c>
       <c r="BZ3">
-        <v>0.038691352320110957</v>
+        <v>0.073026953391756563</v>
       </c>
       <c r="CA3">
-        <v>0.031916712728866176</v>
+        <v>0.040782483315602414</v>
       </c>
       <c r="CB3">
-        <v>0.082101426196313929</v>
+        <v>0.084433728817610521</v>
       </c>
       <c r="CC3">
-        <v>0.04187356804163337</v>
+        <v>-0.01413404456013528</v>
       </c>
       <c r="CD3">
-        <v>0.043419000206085724</v>
+        <v>-0.05850319068267372</v>
       </c>
       <c r="CE3">
-        <v>-0.024820668543807659</v>
+        <v>0.040794428987147469</v>
       </c>
       <c r="CF3">
-        <v>-0.045141599217855377</v>
+        <v>0.0294808872432029</v>
       </c>
       <c r="CG3">
-        <v>0.068590672711492356</v>
+        <v>-0.01832272739179908</v>
       </c>
       <c r="CH3">
-        <v>0.039862260578555152</v>
+        <v>-0.030880971399542542</v>
       </c>
       <c r="CI3">
-        <v>0.038693590601060486</v>
+        <v>-0.038212388147118061</v>
       </c>
       <c r="CJ3">
-        <v>0.012227813091819513</v>
+        <v>0.011191126921712797</v>
       </c>
       <c r="CK3">
-        <v>0.064790232631465841</v>
+        <v>0.01810760608046779</v>
       </c>
       <c r="CL3">
-        <v>0.040600852632348847</v>
+        <v>-0.054753232620537808</v>
       </c>
       <c r="CM3">
-        <v>0.018437356497872339</v>
+        <v>-0.082444998256568203</v>
       </c>
       <c r="CN3">
-        <v>-0.0027137653290246798</v>
+        <v>-0.055977965976163876</v>
       </c>
       <c r="CO3">
+        <v>0.014307159435060906</v>
+      </c>
+      <c r="CP3">
+        <v>-0.020776631503498639</v>
+      </c>
+      <c r="CQ3">
+        <v>-0.015554084950063156</v>
+      </c>
+      <c r="CR3">
+        <v>-0.1107789228053281</v>
+      </c>
+      <c r="CS3">
         <v>0</v>
       </c>
-      <c r="CP3">
-        <v>0.015872480236315146</v>
-      </c>
-      <c r="CQ3">
-        <v>0.25983653621570557</v>
-      </c>
-      <c r="CR3">
-        <v>0.21784225785735231</v>
-      </c>
-      <c r="CS3">
-        <v>0.23017907099293081</v>
-      </c>
       <c r="CT3">
-        <v>0.20777077382120721</v>
+        <v>0.21326315478649926</v>
       </c>
       <c r="CU3">
-        <v>0.15734938253603195</v>
+        <v>0.19375476539139339</v>
       </c>
       <c r="CV3">
-        <v>0.22866109612346985</v>
+        <v>0.18803639639560241</v>
       </c>
       <c r="CW3">
-        <v>0.20968815142263186</v>
+        <v>0.14825280532711063</v>
       </c>
       <c r="CX3">
-        <v>0.1484789630790351</v>
+        <v>0.10079903184192238</v>
       </c>
       <c r="CY3">
-        <v>0.13525351057805013</v>
+        <v>0.19468076065431469</v>
       </c>
       <c r="CZ3">
-        <v>0.10878337284540342</v>
+        <v>0.15554492275762474</v>
       </c>
       <c r="DA3">
-        <v>0.17496039089407006</v>
+        <v>0.11097123824323835</v>
       </c>
       <c r="DB3">
-        <v>0.16003264713581869</v>
+        <v>0.09679879842291006</v>
       </c>
       <c r="DC3">
-        <v>0.11907232561415172</v>
+        <v>0.098272395602204812</v>
       </c>
       <c r="DD3">
-        <v>0.12302038677607996</v>
+        <v>0.11973923617766015</v>
       </c>
       <c r="DE3">
-        <v>0.10840583474244836</v>
+        <v>0.087030032085937264</v>
       </c>
       <c r="DF3">
-        <v>0.11432024717688791</v>
+        <v>0.064594292402836206</v>
       </c>
       <c r="DG3">
-        <v>0.11963337157192623</v>
+        <v>0.068224036038121785</v>
       </c>
       <c r="DH3">
-        <v>0.11883397929702738</v>
+        <v>0.060767833732396186</v>
       </c>
       <c r="DI3">
-        <v>0.073389582786852148</v>
+        <v>0.093249422823356021</v>
       </c>
       <c r="DJ3">
-        <v>0.072967880047757103</v>
+        <v>0.076130169501276629</v>
       </c>
       <c r="DK3">
-        <v>0.21320415429046591</v>
+        <v>0.054884317892766453</v>
       </c>
       <c r="DL3">
-        <v>0.20376490485050516</v>
+        <v>0.066465382552387278</v>
       </c>
       <c r="DM3">
-        <v>0.18924100966139712</v>
+        <v>0.014252277352940396</v>
       </c>
       <c r="DN3">
-        <v>0.21808557218911775</v>
+        <v>0.16311802948037926</v>
       </c>
       <c r="DO3">
-        <v>0.18736668568865328</v>
+        <v>0.16542916961448123</v>
       </c>
       <c r="DP3">
-        <v>0.15190195429278222</v>
+        <v>0.17483484562878293</v>
       </c>
       <c r="DQ3">
-        <v>0.1283722278803465</v>
+        <v>0.13774454122633858</v>
       </c>
       <c r="DR3">
-        <v>0.16126818570972429</v>
+        <v>0.074699794295172511</v>
       </c>
       <c r="DS3">
-        <v>0.15937760443969121</v>
+        <v>0.14881275080672107</v>
       </c>
       <c r="DT3">
-        <v>0.16537458831012197</v>
+        <v>0.11063064948189379</v>
       </c>
       <c r="DU3">
-        <v>0.11876189527204828</v>
+        <v>0.11099745400511594</v>
       </c>
       <c r="DV3">
-        <v>0.12877409682466648</v>
+        <v>0.081306487933916177</v>
       </c>
       <c r="DW3">
-        <v>0.11303070725507988</v>
+        <v>0.076641892787367383</v>
       </c>
       <c r="DX3">
-        <v>0.098185199573242912</v>
+        <v>0.085320538477355962</v>
       </c>
       <c r="DY3">
-        <v>0.080555553552043399</v>
+        <v>0.041179767841910374</v>
       </c>
       <c r="DZ3">
-        <v>0.10240161257080832</v>
+        <v>0.048555787478473431</v>
       </c>
       <c r="EA3">
-        <v>0.093635226247302208</v>
+        <v>0.04042466766982291</v>
       </c>
       <c r="EB3">
-        <v>0.07806822716074234</v>
+        <v>0.041708102590157774</v>
       </c>
       <c r="EC3">
-        <v>0.061380022787301362</v>
+        <v>-0.00072575848070888704</v>
       </c>
       <c r="ED3">
-        <v>0.086843358534024875</v>
+        <v>0.044564200049650379</v>
       </c>
       <c r="EE3">
-        <v>0.080366586904729934</v>
+        <v>0.033702167494784149</v>
       </c>
       <c r="EF3">
-        <v>0.052423774325589062</v>
+        <v>0.048861984972598076</v>
       </c>
       <c r="EG3">
-        <v>0.045422503566091871</v>
+        <v>0.044695418523495158</v>
       </c>
       <c r="EH3">
-        <v>0.076191047929753813</v>
+        <v>0.052019579182291484</v>
       </c>
       <c r="EI3">
-        <v>0.054465754856048626</v>
+        <v>0.019925219200574325</v>
       </c>
       <c r="EJ3">
-        <v>0.091575820487042728</v>
+        <v>0.032850055858718287</v>
       </c>
       <c r="EK3">
-        <v>0.05084331259140884</v>
+        <v>0.01291885912606148</v>
       </c>
       <c r="EL3">
-        <v>0.044732820978854691</v>
+        <v>-0.029884699924424354</v>
       </c>
       <c r="EM3">
-        <v>0.031588648299523445</v>
+        <v>-0.013286571447901378</v>
       </c>
       <c r="EN3">
-        <v>0.046724268146890575</v>
+        <v>0.025603922980241518</v>
       </c>
       <c r="EO3">
-        <v>0.04957574807631835</v>
+        <v>-0.019833697967611138</v>
       </c>
       <c r="EP3">
-        <v>0.030086265860986266</v>
+        <v>0.012372839519502611</v>
       </c>
       <c r="EQ3">
-        <v>0.029555900269085632</v>
+        <v>-0.0090337380465727087</v>
       </c>
       <c r="ER3">
-        <v>0.035691476708030405</v>
+        <v>-0.01385528695637003</v>
       </c>
       <c r="ES3">
-        <v>-0.0098333786915003798</v>
+        <v>-0.025449642890421256</v>
       </c>
       <c r="ET3">
-        <v>-0.020138421179232743</v>
+        <v>0.0043670478794473376</v>
       </c>
       <c r="EU3">
-        <v>0.049336176767282199</v>
+        <v>-0.013181891891278002</v>
       </c>
       <c r="EV3">
-        <v>0.0057401638737005836</v>
+        <v>-0.041984541319285154</v>
       </c>
       <c r="EW3">
-        <v>0.0058420007623155119</v>
+        <v>-0.015194706946406771</v>
       </c>
       <c r="EX3">
-        <v>0.0071796587877637442</v>
+        <v>-0.055181168120195606</v>
       </c>
       <c r="EY3">
-        <v>0.030471043110661854</v>
+        <v>-0.028672151523157632</v>
       </c>
       <c r="EZ3">
-        <v>0.0051469885366908731</v>
+        <v>-0.051294380343234899</v>
       </c>
       <c r="FA3">
-        <v>0.037219457608238228</v>
+        <v>-0.063787639872748395</v>
       </c>
       <c r="FB3">
-        <v>-0.0027607278166195495</v>
+        <v>-0.073149314919502467</v>
       </c>
       <c r="FC3">
-        <v>0.025302971869529838</v>
+        <v>-0.032583170389280242</v>
       </c>
       <c r="FD3">
-        <v>0.013527134924381965</v>
+        <v>-0.052748356329912996</v>
       </c>
       <c r="FE3">
-        <v>-0.022466370273295441</v>
+        <v>-0.053031328157836087</v>
       </c>
       <c r="FF3">
-        <v>0.002987757739396192</v>
+        <v>-0.018493675895354528</v>
       </c>
       <c r="FG3">
-        <v>-0.0060606206495258715</v>
+        <v>-0.04621970347022808</v>
       </c>
       <c r="FH3">
-        <v>-0.0038800166658587341</v>
+        <v>-0.048363340266942854</v>
       </c>
       <c r="FI3">
-        <v>0.0086570134681740601</v>
+        <v>-0.016717923698964816</v>
       </c>
       <c r="FJ3">
-        <v>-0.014821516447790149</v>
+        <v>-0.042412451249697496</v>
       </c>
       <c r="FK3">
-        <v>-0.014898811733218732</v>
+        <v>-0.015451546844822309</v>
       </c>
       <c r="FL3">
-        <v>-0.020367750583426929</v>
+        <v>-0.037798181438087504</v>
       </c>
       <c r="FM3">
-        <v>-0.0095654043750280152</v>
+        <v>-0.057861667265334218</v>
       </c>
       <c r="FN3">
-        <v>-0.016996907872998582</v>
+        <v>-0.084279061905311869</v>
       </c>
       <c r="FO3">
-        <v>-0.006387793752894823</v>
+        <v>-0.020593651778431012</v>
       </c>
       <c r="FP3">
-        <v>-0.0074424391196467</v>
+        <v>-0.029302212816587313</v>
       </c>
       <c r="FQ3">
-        <v>0.0036838079771845181</v>
+        <v>-0.024187858336712702</v>
       </c>
       <c r="FR3">
+        <v>-0.048718115697850665</v>
+      </c>
+      <c r="FS3">
+        <v>-0.050970658845625058</v>
+      </c>
+      <c r="FT3">
+        <v>-0.039589345744983483</v>
+      </c>
+      <c r="FU3">
         <v>0</v>
       </c>
-      <c r="FS3">
-        <v>-5.5043878464721914</v>
+      <c r="FV3">
+        <v>-5.4564849969222049</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>-5.7700465333931659</v>
       </c>
     </row>
     <row r="4">
@@ -8533,526 +8728,541 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.066251488797813993</v>
+        <v>0.067616469055126138</v>
       </c>
       <c r="C4">
-        <v>0.028892914139832842</v>
+        <v>0.033794011193293186</v>
       </c>
       <c r="D4">
-        <v>0.04229642294051273</v>
+        <v>0.038820529302315193</v>
       </c>
       <c r="E4">
-        <v>0.050023659069510257</v>
+        <v>0.037797283060789506</v>
       </c>
       <c r="F4">
-        <v>0.045777652005060135</v>
+        <v>0.037699590325145554</v>
       </c>
       <c r="G4">
-        <v>0.038296592398740517</v>
+        <v>0.043495655487562651</v>
       </c>
       <c r="H4">
-        <v>0.0310396108603554</v>
+        <v>0.051187729238780531</v>
       </c>
       <c r="I4">
-        <v>0.030860622497627735</v>
+        <v>0.047564507101038246</v>
       </c>
       <c r="J4">
-        <v>0.032571630735048866</v>
+        <v>0.039073628292008784</v>
       </c>
       <c r="K4">
+        <v>0.032268291226333679</v>
+      </c>
+      <c r="L4">
+        <v>0.032344025246664188</v>
+      </c>
+      <c r="M4">
+        <v>0.032872494284663434</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>0.070663787569585496</v>
-      </c>
-      <c r="M4">
-        <v>0.070663787569585496</v>
-      </c>
-      <c r="N4">
-        <v>0.070663787569585509</v>
-      </c>
       <c r="O4">
-        <v>0.070663787569585509</v>
+        <v>0.075793644708667077</v>
       </c>
       <c r="P4">
-        <v>0.070663787569585509</v>
+        <v>0.075793644708667077</v>
       </c>
       <c r="Q4">
-        <v>0.070663787569585523</v>
+        <v>0.075793644708667077</v>
       </c>
       <c r="R4">
-        <v>0.070663787569585523</v>
+        <v>0.075793644708667077</v>
       </c>
       <c r="S4">
-        <v>0.070663787569585537</v>
+        <v>0.075793644708667077</v>
       </c>
       <c r="T4">
-        <v>0.070663787569585537</v>
+        <v>0.075793644708667077</v>
       </c>
       <c r="U4">
-        <v>0.070663787569585523</v>
+        <v>0.075793644708667118</v>
       </c>
       <c r="V4">
-        <v>0.070663787569585551</v>
+        <v>0.075793644708667091</v>
       </c>
       <c r="W4">
-        <v>0.070663787569585523</v>
+        <v>0.075793644708667104</v>
       </c>
       <c r="X4">
-        <v>0.070663787569585551</v>
+        <v>0.075793644708667104</v>
       </c>
       <c r="Y4">
-        <v>0.070663787569585537</v>
+        <v>0.075793644708667118</v>
       </c>
       <c r="Z4">
-        <v>0.070663787569585551</v>
+        <v>0.075793644708667118</v>
       </c>
       <c r="AA4">
-        <v>0.070663787569585551</v>
+        <v>0.075793644708667104</v>
       </c>
       <c r="AB4">
-        <v>0.070663787569585551</v>
+        <v>0.075793644708667118</v>
       </c>
       <c r="AC4">
-        <v>0.070663787569585551</v>
+        <v>0.075793644708667118</v>
       </c>
       <c r="AD4">
-        <v>0.070663787569585551</v>
+        <v>0.075793644708667118</v>
       </c>
       <c r="AE4">
-        <v>0.070663787569585565</v>
+        <v>0.075793644708667118</v>
       </c>
       <c r="AF4">
-        <v>0.070663787569585565</v>
+        <v>0.075793644708667118</v>
       </c>
       <c r="AG4">
-        <v>0.070663787569585565</v>
+        <v>0.075793644708667132</v>
       </c>
       <c r="AH4">
-        <v>0.070663787569585551</v>
+        <v>0.075793644708667118</v>
       </c>
       <c r="AI4">
-        <v>0.070663787569585551</v>
+        <v>0.075793644708667146</v>
       </c>
       <c r="AJ4">
-        <v>0.070663787569585565</v>
+        <v>0.075793644708667146</v>
       </c>
       <c r="AK4">
-        <v>0.070663787569585565</v>
+        <v>0.075793644708667146</v>
       </c>
       <c r="AL4">
-        <v>0.070663787569585565</v>
+        <v>0.075793644708667146</v>
       </c>
       <c r="AM4">
-        <v>0.070663787569585579</v>
+        <v>0.075793644708667146</v>
       </c>
       <c r="AN4">
-        <v>0.070663787569585579</v>
+        <v>0.075793644708667132</v>
       </c>
       <c r="AO4">
-        <v>0.070663787569585579</v>
+        <v>0.075793644708667146</v>
       </c>
       <c r="AP4">
-        <v>0.070663787569585579</v>
+        <v>0.075793644708667132</v>
       </c>
       <c r="AQ4">
-        <v>0.070663787569585593</v>
+        <v>0.075793644708667146</v>
       </c>
       <c r="AR4">
-        <v>0.070663787569585593</v>
+        <v>0.075793644708667146</v>
       </c>
       <c r="AS4">
-        <v>0.070663787569585593</v>
+        <v>0.07579364470866716</v>
       </c>
       <c r="AT4">
-        <v>0.070663787569585579</v>
+        <v>0.075793644708667146</v>
       </c>
       <c r="AU4">
-        <v>0.070663787569585579</v>
+        <v>0.07579364470866716</v>
       </c>
       <c r="AV4">
-        <v>0.070663787569585579</v>
+        <v>0.07579364470866716</v>
       </c>
       <c r="AW4">
-        <v>0.070663787569585579</v>
+        <v>0.075793644708667174</v>
       </c>
       <c r="AX4">
-        <v>0.070663787569585579</v>
+        <v>0.07579364470866716</v>
       </c>
       <c r="AY4">
-        <v>0.070663787569585579</v>
+        <v>0.07579364470866716</v>
       </c>
       <c r="AZ4">
-        <v>0.070663787569585579</v>
+        <v>0.07579364470866716</v>
       </c>
       <c r="BA4">
-        <v>0.070663787569585579</v>
+        <v>0.07579364470866716</v>
       </c>
       <c r="BB4">
-        <v>0.070663787569585579</v>
+        <v>0.07579364470866716</v>
       </c>
       <c r="BC4">
-        <v>0.070663787569585593</v>
+        <v>0.075793644708667146</v>
       </c>
       <c r="BD4">
-        <v>0.070663787569585579</v>
+        <v>0.075793644708667132</v>
       </c>
       <c r="BE4">
-        <v>0.070663787569585593</v>
+        <v>0.074255848414343226</v>
       </c>
       <c r="BF4">
-        <v>0.070663787569585579</v>
+        <v>0.07425584841434324</v>
       </c>
       <c r="BG4">
-        <v>0.070663787569585593</v>
+        <v>0.07425584841434324</v>
       </c>
       <c r="BH4">
-        <v>0.070663787569585579</v>
+        <v>0.07425584841434324</v>
       </c>
       <c r="BI4">
-        <v>0.070663787569585593</v>
+        <v>0.07425584841434324</v>
       </c>
       <c r="BJ4">
-        <v>0.070663787569585593</v>
+        <v>0.07595111396275174</v>
       </c>
       <c r="BK4">
-        <v>0.070663787569585593</v>
+        <v>0.075951113962751754</v>
       </c>
       <c r="BL4">
-        <v>0.070663787569585593</v>
+        <v>0.075951113962751754</v>
       </c>
       <c r="BM4">
-        <v>0.070663787569585607</v>
+        <v>0.075951113962751768</v>
       </c>
       <c r="BN4">
-        <v>0.070663787569585607</v>
+        <v>0.075951113962751754</v>
       </c>
       <c r="BO4">
-        <v>0.07066378756958562</v>
+        <v>0.075935245319668707</v>
       </c>
       <c r="BP4">
-        <v>0.07066378756958562</v>
+        <v>0.075935245319668707</v>
       </c>
       <c r="BQ4">
-        <v>0.070623778627659103</v>
+        <v>0.075935245319668734</v>
       </c>
       <c r="BR4">
-        <v>0.07062377862765909</v>
+        <v>0.075935245319668762</v>
       </c>
       <c r="BS4">
-        <v>0.070623778627659103</v>
+        <v>0.075935245319668748</v>
       </c>
       <c r="BT4">
-        <v>0.064079397976887248</v>
+        <v>0.075123426072361624</v>
       </c>
       <c r="BU4">
-        <v>0.064079397976887248</v>
+        <v>0.075123426072361624</v>
       </c>
       <c r="BV4">
-        <v>0.074305714591790237</v>
+        <v>0.075123426072361624</v>
       </c>
       <c r="BW4">
-        <v>0.072872340381729989</v>
+        <v>0.075542550982930945</v>
       </c>
       <c r="BX4">
-        <v>0.072872340381729989</v>
+        <v>0.075542550982930945</v>
       </c>
       <c r="BY4">
-        <v>0.071785352853318066</v>
+        <v>0.06530180815385099</v>
       </c>
       <c r="BZ4">
-        <v>0.07178535285331808</v>
+        <v>0.077066962506227243</v>
       </c>
       <c r="CA4">
-        <v>0.07178535285331808</v>
+        <v>0.077066962506227243</v>
       </c>
       <c r="CB4">
-        <v>0.070903765749973383</v>
+        <v>0.075658835704865104</v>
       </c>
       <c r="CC4">
-        <v>0.07090376574997341</v>
+        <v>0.075658835704865077</v>
       </c>
       <c r="CD4">
-        <v>0.070903765749973396</v>
+        <v>0.076841813044835866</v>
       </c>
       <c r="CE4">
-        <v>0.070903765749973396</v>
+        <v>0.0773231284768119</v>
       </c>
       <c r="CF4">
-        <v>0.07090376574997341</v>
+        <v>0.0773231284768119</v>
       </c>
       <c r="CG4">
-        <v>0.070711768418820792</v>
+        <v>0.077323128476811887</v>
       </c>
       <c r="CH4">
-        <v>0.070711768418820778</v>
+        <v>0.0773231284768119</v>
       </c>
       <c r="CI4">
-        <v>0.070711768418820792</v>
+        <v>0.076454466748432537</v>
       </c>
       <c r="CJ4">
-        <v>0.070711768418820806</v>
+        <v>0.077162456812874813</v>
       </c>
       <c r="CK4">
-        <v>0.071640972341586381</v>
+        <v>0.077162456812874813</v>
       </c>
       <c r="CL4">
-        <v>0.067614159225352161</v>
+        <v>0.077162456812874813</v>
       </c>
       <c r="CM4">
-        <v>0.067614159225352174</v>
+        <v>0.077162456812874813</v>
       </c>
       <c r="CN4">
-        <v>0.061431153354343945</v>
+        <v>0.07570280073892785</v>
       </c>
       <c r="CO4">
+        <v>0.071492443348637066</v>
+      </c>
+      <c r="CP4">
+        <v>0.071492443348637053</v>
+      </c>
+      <c r="CQ4">
+        <v>0.072477606544036857</v>
+      </c>
+      <c r="CR4">
+        <v>0.072477606544036871</v>
+      </c>
+      <c r="CS4">
         <v>0</v>
       </c>
-      <c r="CP4">
-        <v>0.072034412459333619</v>
-      </c>
-      <c r="CQ4">
-        <v>0.072897158812746152</v>
-      </c>
-      <c r="CR4">
-        <v>0.072897158812746152</v>
-      </c>
-      <c r="CS4">
-        <v>0.071810546958893121</v>
-      </c>
       <c r="CT4">
-        <v>0.071810546958893134</v>
+        <v>0.076113756250750342</v>
       </c>
       <c r="CU4">
-        <v>0.071810546958893121</v>
+        <v>0.076113756250750342</v>
       </c>
       <c r="CV4">
-        <v>0.070929272996324427</v>
+        <v>0.075212583595520605</v>
       </c>
       <c r="CW4">
-        <v>0.070929272996324427</v>
+        <v>0.075212583595520618</v>
       </c>
       <c r="CX4">
-        <v>0.070929272996324441</v>
+        <v>0.075212583595520605</v>
       </c>
       <c r="CY4">
-        <v>0.070929272996324413</v>
+        <v>0.075037566137002215</v>
       </c>
       <c r="CZ4">
-        <v>0.070929272996324441</v>
+        <v>0.075037566137002215</v>
       </c>
       <c r="DA4">
-        <v>0.070828386044919533</v>
+        <v>0.075037566137002229</v>
       </c>
       <c r="DB4">
-        <v>0.07082838604491952</v>
+        <v>0.075037566137002229</v>
       </c>
       <c r="DC4">
-        <v>0.070828386044919533</v>
+        <v>0.075037566137002229</v>
       </c>
       <c r="DD4">
-        <v>0.07082838604491952</v>
+        <v>0.07488808387284869</v>
       </c>
       <c r="DE4">
-        <v>0.070828386044919533</v>
+        <v>0.074888083872848704</v>
       </c>
       <c r="DF4">
-        <v>0.06632780879178253</v>
+        <v>0.074888083872848704</v>
       </c>
       <c r="DG4">
-        <v>0.06632780879178253</v>
+        <v>0.074888083872848704</v>
       </c>
       <c r="DH4">
-        <v>0.06632780879178253</v>
+        <v>0.074888083872848704</v>
       </c>
       <c r="DI4">
-        <v>0.066327808791782544</v>
+        <v>0.070101673630091205</v>
       </c>
       <c r="DJ4">
-        <v>0.066327808791782544</v>
+        <v>0.070101673630091205</v>
       </c>
       <c r="DK4">
-        <v>0.070714965984574774</v>
+        <v>0.070101673630091205</v>
       </c>
       <c r="DL4">
-        <v>0.070714965984574774</v>
+        <v>0.070101673630091205</v>
       </c>
       <c r="DM4">
-        <v>0.070714965984574774</v>
+        <v>0.070101673630091219</v>
       </c>
       <c r="DN4">
-        <v>0.070714965984574774</v>
+        <v>0.074373787525018553</v>
       </c>
       <c r="DO4">
-        <v>0.070714965984574774</v>
+        <v>0.074373787525018553</v>
       </c>
       <c r="DP4">
-        <v>0.070714965984574774</v>
+        <v>0.074373787525018581</v>
       </c>
       <c r="DQ4">
-        <v>0.070714965984574787</v>
+        <v>0.074373787525018567</v>
       </c>
       <c r="DR4">
-        <v>0.070714965984574774</v>
+        <v>0.074373787525018595</v>
       </c>
       <c r="DS4">
-        <v>0.070714965984574829</v>
+        <v>0.074373787525018581</v>
       </c>
       <c r="DT4">
-        <v>0.070714965984574787</v>
+        <v>0.074373787525018595</v>
       </c>
       <c r="DU4">
-        <v>0.070714965984574829</v>
+        <v>0.074373787525018581</v>
       </c>
       <c r="DV4">
-        <v>0.070714965984574829</v>
+        <v>0.074373787525018609</v>
       </c>
       <c r="DW4">
-        <v>0.070714965984574829</v>
+        <v>0.074373787525018595</v>
       </c>
       <c r="DX4">
-        <v>0.070714965984574829</v>
+        <v>0.074373787525018609</v>
       </c>
       <c r="DY4">
-        <v>0.070714965984574843</v>
+        <v>0.074373787525018609</v>
       </c>
       <c r="DZ4">
-        <v>0.070714965984574843</v>
+        <v>0.074373787525018609</v>
       </c>
       <c r="EA4">
-        <v>0.070714965984574857</v>
+        <v>0.074373787525018609</v>
       </c>
       <c r="EB4">
-        <v>0.070714965984574871</v>
+        <v>0.074373787525018609</v>
       </c>
       <c r="EC4">
-        <v>0.070714965984574857</v>
+        <v>0.074373787525018609</v>
       </c>
       <c r="ED4">
-        <v>0.070714965984574857</v>
+        <v>0.074373787525018623</v>
       </c>
       <c r="EE4">
-        <v>0.070714965984574857</v>
+        <v>0.074373787525018623</v>
       </c>
       <c r="EF4">
-        <v>0.070714965984574885</v>
+        <v>0.074373787525018609</v>
       </c>
       <c r="EG4">
-        <v>0.070714965984574871</v>
+        <v>0.074373787525018623</v>
       </c>
       <c r="EH4">
-        <v>0.070714965984574885</v>
+        <v>0.074373787525018623</v>
       </c>
       <c r="EI4">
-        <v>0.070714965984574885</v>
+        <v>0.074373787525018623</v>
       </c>
       <c r="EJ4">
-        <v>0.070714965984574885</v>
+        <v>0.074373787525018636</v>
       </c>
       <c r="EK4">
-        <v>0.070714965984574885</v>
+        <v>0.074373787525018623</v>
       </c>
       <c r="EL4">
-        <v>0.070714965984574898</v>
+        <v>0.074373787525018636</v>
       </c>
       <c r="EM4">
-        <v>0.070714965984574885</v>
+        <v>0.074373787525018636</v>
       </c>
       <c r="EN4">
-        <v>0.070714965984574912</v>
+        <v>0.074373787525018636</v>
       </c>
       <c r="EO4">
-        <v>0.070714965984574885</v>
+        <v>0.074373787525018636</v>
       </c>
       <c r="EP4">
-        <v>0.070714965984574898</v>
+        <v>0.074373787525018636</v>
       </c>
       <c r="EQ4">
-        <v>0.070714965984574912</v>
+        <v>0.074373787525018636</v>
       </c>
       <c r="ER4">
-        <v>0.070714965984574926</v>
+        <v>0.074373787525018636</v>
       </c>
       <c r="ES4">
-        <v>0.070714965984574912</v>
+        <v>0.074373787525018636</v>
       </c>
       <c r="ET4">
-        <v>0.070714965984574912</v>
+        <v>0.074373787525018636</v>
       </c>
       <c r="EU4">
-        <v>0.070714965984574912</v>
+        <v>0.074373787525018636</v>
       </c>
       <c r="EV4">
-        <v>0.070714965984574898</v>
+        <v>0.074373787525018636</v>
       </c>
       <c r="EW4">
-        <v>0.070714965984574885</v>
+        <v>0.074373787525018636</v>
       </c>
       <c r="EX4">
-        <v>0.070714965984574912</v>
+        <v>0.074373787525018636</v>
       </c>
       <c r="EY4">
-        <v>0.070714965984574926</v>
+        <v>0.07437378752501865</v>
       </c>
       <c r="EZ4">
-        <v>0.070714965984574926</v>
+        <v>0.07437378752501865</v>
       </c>
       <c r="FA4">
-        <v>0.07071496598457494</v>
+        <v>0.07437378752501865</v>
       </c>
       <c r="FB4">
-        <v>0.07071496598457494</v>
+        <v>0.07437378752501865</v>
       </c>
       <c r="FC4">
-        <v>0.07071496598457494</v>
+        <v>0.07437378752501865</v>
       </c>
       <c r="FD4">
-        <v>0.07071496598457494</v>
+        <v>0.074373787525018664</v>
       </c>
       <c r="FE4">
-        <v>0.07071496598457494</v>
+        <v>0.07437378752501865</v>
       </c>
       <c r="FF4">
-        <v>0.07071496598457494</v>
+        <v>0.074373787525018664</v>
       </c>
       <c r="FG4">
-        <v>0.07071496598457494</v>
+        <v>0.07437378752501865</v>
       </c>
       <c r="FH4">
-        <v>0.07071496598457494</v>
+        <v>0.074373787525018664</v>
       </c>
       <c r="FI4">
-        <v>0.070714965984574954</v>
+        <v>0.07437378752501865</v>
       </c>
       <c r="FJ4">
-        <v>0.070714965984574954</v>
+        <v>0.074373787525018664</v>
       </c>
       <c r="FK4">
-        <v>0.070714965984574968</v>
+        <v>0.074373787525018664</v>
       </c>
       <c r="FL4">
-        <v>0.070714965984574968</v>
+        <v>0.074373787525018664</v>
       </c>
       <c r="FM4">
-        <v>0.070714965984574968</v>
+        <v>0.074373787525018678</v>
       </c>
       <c r="FN4">
-        <v>0.070714965984574954</v>
+        <v>0.074373787525018692</v>
       </c>
       <c r="FO4">
-        <v>0.070714965984574968</v>
+        <v>0.074373787525018692</v>
       </c>
       <c r="FP4">
-        <v>0.070714965984574968</v>
+        <v>0.074373787525018678</v>
       </c>
       <c r="FQ4">
-        <v>0.070714965984574982</v>
+        <v>0.074373787525018706</v>
       </c>
       <c r="FR4">
+        <v>0.074373787525018706</v>
+      </c>
+      <c r="FS4">
+        <v>0.074373787525018692</v>
+      </c>
+      <c r="FT4">
+        <v>0.074373787525018706</v>
+      </c>
+      <c r="FU4">
         <v>0</v>
       </c>
-      <c r="FS4">
-        <v>0.055800655130349083</v>
+      <c r="FV4">
+        <v>0.060380761082317394</v>
+      </c>
+      <c r="FW4">
+        <v>0</v>
+      </c>
+      <c r="FX4">
+        <v>0.042895706218693617</v>
       </c>
     </row>
   </sheetData>

--- a/tables/ols_coefficients.xlsx
+++ b/tables/ols_coefficients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="17724" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="19164" uniqueCount="192">
   <si>
     <t>y1</t>
   </si>
@@ -1709,535 +1709,535 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>-0.014765397327281261</v>
+        <v>0.0025696232289331854</v>
       </c>
       <c r="C3">
-        <v>-0.64117207224915396</v>
+        <v>-0.6368668867860483</v>
       </c>
       <c r="D3">
-        <v>-0.67406649182841349</v>
+        <v>-0.67167419527852079</v>
       </c>
       <c r="E3">
-        <v>-0.6863166416365476</v>
+        <v>-0.67111607403944629</v>
       </c>
       <c r="F3">
-        <v>-0.68498864063603526</v>
+        <v>-0.68195414124321585</v>
       </c>
       <c r="G3">
-        <v>-0.6808253341922893</v>
+        <v>-0.67940592307055492</v>
       </c>
       <c r="H3">
-        <v>-0.66436072333599538</v>
+        <v>-0.6760564292099176</v>
       </c>
       <c r="I3">
-        <v>-0.011668077174438978</v>
+        <v>-0.01078619810740045</v>
       </c>
       <c r="J3">
-        <v>-0.0085725740710350419</v>
+        <v>-0.0039839747906249149</v>
       </c>
       <c r="K3">
-        <v>-0.0021494449314470605</v>
+        <v>0.0040795654511313071</v>
       </c>
       <c r="L3">
-        <v>0.0019675453598638716</v>
+        <v>-0.0038413629913106131</v>
       </c>
       <c r="M3">
-        <v>0.0099926748839167523</v>
+        <v>0.0064666616574198098</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.1067324451429241</v>
+        <v>1.1675301279102746</v>
       </c>
       <c r="P3">
-        <v>1.2361778856236112</v>
+        <v>1.2676461874657574</v>
       </c>
       <c r="Q3">
-        <v>-0.30908062150815835</v>
+        <v>-0.23567880448788756</v>
       </c>
       <c r="R3">
-        <v>-0.28165929690389285</v>
+        <v>-0.27758763108833734</v>
       </c>
       <c r="S3">
-        <v>-0.29142364199178888</v>
+        <v>-0.26093148925640131</v>
       </c>
       <c r="T3">
-        <v>-0.32244108426785589</v>
+        <v>-0.21382710097683</v>
       </c>
       <c r="U3">
-        <v>-0.30772008999346501</v>
+        <v>-0.2340214275970427</v>
       </c>
       <c r="V3">
-        <v>-0.25819297954761267</v>
+        <v>-0.20938206510404728</v>
       </c>
       <c r="W3">
-        <v>-0.26267109914973913</v>
+        <v>-0.22645262731282337</v>
       </c>
       <c r="X3">
-        <v>-0.25810607214840964</v>
+        <v>-0.20902246288494977</v>
       </c>
       <c r="Y3">
-        <v>-0.29754789420862965</v>
+        <v>-0.13886917184326097</v>
       </c>
       <c r="Z3">
-        <v>-0.17928340625173847</v>
+        <v>-0.15924509564596678</v>
       </c>
       <c r="AA3">
-        <v>-0.16860850152636764</v>
+        <v>-0.16055230483354399</v>
       </c>
       <c r="AB3">
-        <v>-0.16340374112918338</v>
+        <v>-0.14993368868573009</v>
       </c>
       <c r="AC3">
-        <v>-0.20932822329101231</v>
+        <v>-0.13080310571522297</v>
       </c>
       <c r="AD3">
-        <v>-0.1598078556726906</v>
+        <v>-0.14821628387840624</v>
       </c>
       <c r="AE3">
-        <v>-0.20172015393382015</v>
+        <v>-0.12641040481495702</v>
       </c>
       <c r="AF3">
-        <v>-0.15359653134702889</v>
+        <v>-0.072537891757703629</v>
       </c>
       <c r="AG3">
-        <v>-0.16355297476717567</v>
+        <v>-0.12513117002756391</v>
       </c>
       <c r="AH3">
-        <v>-0.15452122246837618</v>
+        <v>-0.092279297671980121</v>
       </c>
       <c r="AI3">
-        <v>-0.118253401269172</v>
+        <v>-0.087451637677291902</v>
       </c>
       <c r="AJ3">
-        <v>-0.14798450222358558</v>
+        <v>-0.080451372074280741</v>
       </c>
       <c r="AK3">
-        <v>-0.1406122677923318</v>
+        <v>-0.09841207110094273</v>
       </c>
       <c r="AL3">
-        <v>-0.13203313944888545</v>
+        <v>-0.09666127567439152</v>
       </c>
       <c r="AM3">
-        <v>-0.098721444964011584</v>
+        <v>-0.056324205543395865</v>
       </c>
       <c r="AN3">
-        <v>-0.10818978668688377</v>
+        <v>-0.034074156308345115</v>
       </c>
       <c r="AO3">
-        <v>-0.10835792447065982</v>
+        <v>-0.059078892300181041</v>
       </c>
       <c r="AP3">
-        <v>-0.10871533844609928</v>
+        <v>-0.044578272780163963</v>
       </c>
       <c r="AQ3">
-        <v>-0.10059292568008255</v>
+        <v>-0.020116788857957788</v>
       </c>
       <c r="AR3">
-        <v>-0.11360925571208165</v>
+        <v>-0.029601657592535448</v>
       </c>
       <c r="AS3">
-        <v>-0.11941619403716969</v>
+        <v>-0.036004897712394866</v>
       </c>
       <c r="AT3">
-        <v>-0.096260647827702744</v>
+        <v>-0.065402018943688203</v>
       </c>
       <c r="AU3">
-        <v>-0.054877514831075946</v>
+        <v>-0.032296022314947333</v>
       </c>
       <c r="AV3">
-        <v>-0.11313310828134533</v>
+        <v>-0.081559762879048314</v>
       </c>
       <c r="AW3">
-        <v>-0.060881175825293531</v>
+        <v>-0.055544331679759765</v>
       </c>
       <c r="AX3">
-        <v>-0.12090050176918817</v>
+        <v>-0.033450610060050026</v>
       </c>
       <c r="AY3">
-        <v>-0.13783467612585007</v>
+        <v>-0.032873634886434543</v>
       </c>
       <c r="AZ3">
-        <v>-0.085809526912554265</v>
+        <v>0.00033657315390667886</v>
       </c>
       <c r="BA3">
-        <v>-0.089476365092635943</v>
+        <v>-0.0055843052198912384</v>
       </c>
       <c r="BB3">
-        <v>-0.087105158738003882</v>
+        <v>-0.039793492032741969</v>
       </c>
       <c r="BC3">
-        <v>-0.046012024021030828</v>
+        <v>-0.006155892842416427</v>
       </c>
       <c r="BD3">
-        <v>-0.087927896000280337</v>
+        <v>-0.040853483649573009</v>
       </c>
       <c r="BE3">
-        <v>-0.062763460122313569</v>
+        <v>-0.0080305802527098416</v>
       </c>
       <c r="BF3">
-        <v>-0.041816926209093414</v>
+        <v>-0.019984920217940082</v>
       </c>
       <c r="BG3">
-        <v>-0.04720095385453206</v>
+        <v>-0.028478985349920657</v>
       </c>
       <c r="BH3">
-        <v>-0.050892342349909532</v>
+        <v>0.0013293420530752238</v>
       </c>
       <c r="BI3">
-        <v>-0.098739449350629033</v>
+        <v>0.0031568359812345578</v>
       </c>
       <c r="BJ3">
-        <v>-0.026869450390652319</v>
+        <v>-0.0047122112699269801</v>
       </c>
       <c r="BK3">
-        <v>-0.037807288223949902</v>
+        <v>-0.015930763547959081</v>
       </c>
       <c r="BL3">
-        <v>-0.019591321437675068</v>
+        <v>-0.0044898362021154672</v>
       </c>
       <c r="BM3">
-        <v>-0.049840382153736651</v>
+        <v>-0.011690623312025748</v>
       </c>
       <c r="BN3">
-        <v>-0.036755439787056046</v>
+        <v>-0.0096145919795216882</v>
       </c>
       <c r="BO3">
-        <v>-0.085034766104198745</v>
+        <v>-0.026582944518147279</v>
       </c>
       <c r="BP3">
-        <v>-0.019900713420001916</v>
+        <v>-0.0072834873586613037</v>
       </c>
       <c r="BQ3">
-        <v>-0.050141831971559275</v>
+        <v>0.015347896950427415</v>
       </c>
       <c r="BR3">
-        <v>-0.044311245919695964</v>
+        <v>0.0082768692315742017</v>
       </c>
       <c r="BS3">
-        <v>-0.045631977143324363</v>
+        <v>0.0053880407198331924</v>
       </c>
       <c r="BT3">
-        <v>-0.059808470143677968</v>
+        <v>0.00070679535893051462</v>
       </c>
       <c r="BU3">
-        <v>-0.062504922197393148</v>
+        <v>-0.059038082893208207</v>
       </c>
       <c r="BV3">
-        <v>-0.044193709590424471</v>
+        <v>-0.01779257687717558</v>
       </c>
       <c r="BW3">
-        <v>-0.065878046482981442</v>
+        <v>-0.0009968261963405878</v>
       </c>
       <c r="BX3">
-        <v>-0.034255159729799929</v>
+        <v>0.044716645727922694</v>
       </c>
       <c r="BY3">
-        <v>-0.020128174696877311</v>
+        <v>-0.00058659670337540739</v>
       </c>
       <c r="BZ3">
-        <v>-0.035687340091942459</v>
+        <v>0.028846476733219197</v>
       </c>
       <c r="CA3">
-        <v>-0.018267848831125335</v>
+        <v>0.052002669003406561</v>
       </c>
       <c r="CB3">
-        <v>-0.051628188602312892</v>
+        <v>0.057504041364077441</v>
       </c>
       <c r="CC3">
-        <v>-0.021721446780745512</v>
+        <v>-0.0078013880199251521</v>
       </c>
       <c r="CD3">
-        <v>-0.022069118658763182</v>
+        <v>0.013411347147026855</v>
       </c>
       <c r="CE3">
-        <v>-0.037794627107039888</v>
+        <v>0.02473449812344174</v>
       </c>
       <c r="CF3">
-        <v>-0.023836512320335568</v>
+        <v>0.0055494128704790509</v>
       </c>
       <c r="CG3">
-        <v>-0.02411003157263716</v>
+        <v>-0.017382312192398976</v>
       </c>
       <c r="CH3">
-        <v>-0.042729107389823336</v>
+        <v>-0.01860133819691211</v>
       </c>
       <c r="CI3">
-        <v>-0.042075159765579691</v>
+        <v>0.010185498979522856</v>
       </c>
       <c r="CJ3">
-        <v>-0.043577899430569729</v>
+        <v>0.056580014997424176</v>
       </c>
       <c r="CK3">
-        <v>-0.034611902555729927</v>
+        <v>0.048906742474744566</v>
       </c>
       <c r="CL3">
-        <v>-0.053930282560631891</v>
+        <v>0.027672526583980759</v>
       </c>
       <c r="CM3">
-        <v>-0.041374421389199528</v>
+        <v>0.07427173608100994</v>
       </c>
       <c r="CN3">
-        <v>-0.052849167216473543</v>
+        <v>-0.028367227035600403</v>
       </c>
       <c r="CO3">
-        <v>-0.078571738571784649</v>
+        <v>0.010035594926792922</v>
       </c>
       <c r="CP3">
-        <v>-0.036620435324975664</v>
+        <v>0.045944720198839641</v>
       </c>
       <c r="CQ3">
-        <v>-0.030237591609805509</v>
+        <v>-0.0016588656169869505</v>
       </c>
       <c r="CR3">
-        <v>-0.084834847101543667</v>
+        <v>0.033375411719405064</v>
       </c>
       <c r="CS3">
         <v>0</v>
       </c>
       <c r="CT3">
-        <v>-0.02731084464104282</v>
+        <v>0.023816299191906413</v>
       </c>
       <c r="CU3">
-        <v>0.0089246696734181681</v>
+        <v>0.03145124784606905</v>
       </c>
       <c r="CV3">
-        <v>-0.026250434030998988</v>
+        <v>0.042260449787566247</v>
       </c>
       <c r="CW3">
-        <v>-0.036452088154018208</v>
+        <v>-0.017018283334498931</v>
       </c>
       <c r="CX3">
-        <v>-0.054107033216652833</v>
+        <v>0.066207244716438657</v>
       </c>
       <c r="CY3">
-        <v>-0.012522843669592809</v>
+        <v>0.028574680519620598</v>
       </c>
       <c r="CZ3">
-        <v>-0.02012709476603039</v>
+        <v>-0.0066613032167767488</v>
       </c>
       <c r="DA3">
-        <v>-0.036112330861536139</v>
+        <v>0.02196443422863098</v>
       </c>
       <c r="DB3">
-        <v>-0.033741265195102739</v>
+        <v>0.035732822213244066</v>
       </c>
       <c r="DC3">
-        <v>0.012260417135855652</v>
+        <v>0.033230907958748418</v>
       </c>
       <c r="DD3">
-        <v>-0.040987769860586228</v>
+        <v>0.042129076287316707</v>
       </c>
       <c r="DE3">
-        <v>-0.060024662740317994</v>
+        <v>0.020804564998627303</v>
       </c>
       <c r="DF3">
-        <v>-0.058560798882196827</v>
+        <v>0.0032051706926787865</v>
       </c>
       <c r="DG3">
-        <v>-0.027590399292823801</v>
+        <v>0.0072898844026247972</v>
       </c>
       <c r="DH3">
-        <v>-0.020115990530114487</v>
+        <v>0.011018492938853016</v>
       </c>
       <c r="DI3">
-        <v>-0.0378000917253336</v>
+        <v>0.024788823553328836</v>
       </c>
       <c r="DJ3">
-        <v>-0.046236749799824998</v>
+        <v>0.023826581291252286</v>
       </c>
       <c r="DK3">
-        <v>-0.049211152920148875</v>
+        <v>0.021719153996374075</v>
       </c>
       <c r="DL3">
-        <v>-0.012872861919711846</v>
+        <v>0.010167952153289804</v>
       </c>
       <c r="DM3">
-        <v>-0.056330600458992443</v>
+        <v>0.024819298780810857</v>
       </c>
       <c r="DN3">
-        <v>-0.056439639551316458</v>
+        <v>0.058796527694868171</v>
       </c>
       <c r="DO3">
-        <v>-0.036291180123205112</v>
+        <v>4.901093601629354e-05</v>
       </c>
       <c r="DP3">
-        <v>-0.0062777722342136346</v>
+        <v>0.016452386084182587</v>
       </c>
       <c r="DQ3">
-        <v>-0.045436312976811576</v>
+        <v>0.012915013090813252</v>
       </c>
       <c r="DR3">
-        <v>-0.096470044631764534</v>
+        <v>0.0069687487120893045</v>
       </c>
       <c r="DS3">
-        <v>-0.003589199797871776</v>
+        <v>0.012634002343815086</v>
       </c>
       <c r="DT3">
-        <v>-0.036169995126968987</v>
+        <v>0.0026627413534309938</v>
       </c>
       <c r="DU3">
-        <v>-0.035493993730818733</v>
+        <v>-0.0095534535435133922</v>
       </c>
       <c r="DV3">
-        <v>-0.056513640488458958</v>
+        <v>0.035345481974526374</v>
       </c>
       <c r="DW3">
-        <v>-0.06163909757129421</v>
+        <v>0.045330284067792929</v>
       </c>
       <c r="DX3">
-        <v>-0.041612876693335001</v>
+        <v>0.025973445678895053</v>
       </c>
       <c r="DY3">
-        <v>-0.074980146855983837</v>
+        <v>-0.01431137375292663</v>
       </c>
       <c r="DZ3">
-        <v>-0.058716036825696406</v>
+        <v>0.02235560512374302</v>
       </c>
       <c r="EA3">
-        <v>-0.055046974355677521</v>
+        <v>-0.018484003321593723</v>
       </c>
       <c r="EB3">
-        <v>-0.06239481329473108</v>
+        <v>-0.008277517398742296</v>
       </c>
       <c r="EC3">
-        <v>-0.097715866165020232</v>
+        <v>0.032196346950904169</v>
       </c>
       <c r="ED3">
-        <v>-0.043789869585681679</v>
+        <v>-0.0041492515739733355</v>
       </c>
       <c r="EE3">
-        <v>-0.040466672655827075</v>
+        <v>0.019586225359250437</v>
       </c>
       <c r="EF3">
-        <v>-0.02942349119127537</v>
+        <v>0.031831264115303966</v>
       </c>
       <c r="EG3">
-        <v>-0.022805412387931455</v>
+        <v>0.0091123301913371407</v>
       </c>
       <c r="EH3">
-        <v>-0.022215452950926317</v>
+        <v>0.0065902878238179637</v>
       </c>
       <c r="EI3">
-        <v>-0.041732058604133454</v>
+        <v>0.017335755038001697</v>
       </c>
       <c r="EJ3">
-        <v>-0.024826504932810758</v>
+        <v>-0.026369337506403381</v>
       </c>
       <c r="EK3">
-        <v>-0.047975835191445604</v>
+        <v>0.0079380508011507572</v>
       </c>
       <c r="EL3">
-        <v>-0.091191287472151869</v>
+        <v>-0.00065570245741524823</v>
       </c>
       <c r="EM3">
-        <v>-0.070640977483462791</v>
+        <v>0.04679755446270531</v>
       </c>
       <c r="EN3">
-        <v>-0.026679416579589801</v>
+        <v>-0.0099330520775268161</v>
       </c>
       <c r="EO3">
-        <v>-0.069364974004588062</v>
+        <v>-0.0071961719925214091</v>
       </c>
       <c r="EP3">
-        <v>-0.031856529211885094</v>
+        <v>0.033529557429319831</v>
       </c>
       <c r="EQ3">
-        <v>-0.053321949324839399</v>
+        <v>0.0075666832979873226</v>
       </c>
       <c r="ER3">
-        <v>-0.058797076747180134</v>
+        <v>-0.030630696101430561</v>
       </c>
       <c r="ES3">
-        <v>-0.068367503655651404</v>
+        <v>0.041619393661189372</v>
       </c>
       <c r="ET3">
-        <v>-0.033348905014256372</v>
+        <v>-0.007676411350179194</v>
       </c>
       <c r="EU3">
-        <v>-0.056612549272157697</v>
+        <v>0.018309036074998904</v>
       </c>
       <c r="EV3">
-        <v>-0.078475465305445552</v>
+        <v>-0.036521882490307404</v>
       </c>
       <c r="EW3">
-        <v>-0.050301387362357217</v>
+        <v>0.022483806097887915</v>
       </c>
       <c r="EX3">
-        <v>-0.087280525467817283</v>
+        <v>0.028832324982290845</v>
       </c>
       <c r="EY3">
-        <v>-0.062339907758397761</v>
+        <v>-0.0082372253241111502</v>
       </c>
       <c r="EZ3">
-        <v>-0.085269774055438466</v>
+        <v>-0.035010308455402636</v>
       </c>
       <c r="FA3">
-        <v>-0.094838898435827934</v>
+        <v>0.011904902877435879</v>
       </c>
       <c r="FB3">
-        <v>-0.10225167290200937</v>
+        <v>0.0065904436489954317</v>
       </c>
       <c r="FC3">
-        <v>-0.059654973286345725</v>
+        <v>-0.011688238189726502</v>
       </c>
       <c r="FD3">
-        <v>-0.081527264593701798</v>
+        <v>0.017886632075454448</v>
       </c>
       <c r="FE3">
-        <v>-0.078953143983407525</v>
+        <v>0.031007206112623083</v>
       </c>
       <c r="FF3">
-        <v>-0.043499034819131158</v>
+        <v>-0.0016079277304484642</v>
       </c>
       <c r="FG3">
-        <v>-0.072233230037839088</v>
+        <v>-0.015286997539506297</v>
       </c>
       <c r="FH3">
-        <v>-0.072457718397588411</v>
+        <v>-0.016467446464439772</v>
       </c>
       <c r="FI3">
-        <v>-0.038635440981910608</v>
+        <v>-0.049122403052367591</v>
       </c>
       <c r="FJ3">
-        <v>-0.066646602979616845</v>
+        <v>-0.0033729607864063068</v>
       </c>
       <c r="FK3">
-        <v>-0.039653158176138292</v>
+        <v>-0.062529081060487296</v>
       </c>
       <c r="FL3">
-        <v>-0.057976478582543352</v>
+        <v>-0.020288325539177456</v>
       </c>
       <c r="FM3">
-        <v>-0.076890266602652399</v>
+        <v>0.0042714989751362316</v>
       </c>
       <c r="FN3">
-        <v>-0.10238964498299984</v>
+        <v>-0.0078553839825310917</v>
       </c>
       <c r="FO3">
-        <v>-0.041270898658966673</v>
+        <v>-0.017856229657338334</v>
       </c>
       <c r="FP3">
-        <v>-0.049931537866856772</v>
+        <v>-0.041044994863834838</v>
       </c>
       <c r="FQ3">
-        <v>-0.042484096745233117</v>
+        <v>-0.0045818918993744562</v>
       </c>
       <c r="FR3">
-        <v>-0.068285029983175455</v>
+        <v>0.01632053020692335</v>
       </c>
       <c r="FS3">
-        <v>-0.069163039722591121</v>
+        <v>0.029019990516464478</v>
       </c>
       <c r="FT3">
-        <v>-0.055813578176795914</v>
+        <v>-0.047537018205643052</v>
       </c>
       <c r="FU3">
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.4461676573137776</v>
+        <v>-5.5038311776244822</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -2251,535 +2251,535 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.02083473677880757</v>
+        <v>0.022502666178911675</v>
       </c>
       <c r="C4">
-        <v>0.010412985737813558</v>
+        <v>0.011246599583736021</v>
       </c>
       <c r="D4">
-        <v>0.011961812276359991</v>
+        <v>0.01291941776886427</v>
       </c>
       <c r="E4">
-        <v>0.011646518289554634</v>
+        <v>0.012578882853130852</v>
       </c>
       <c r="F4">
-        <v>0.011616416119761001</v>
+        <v>0.012546370847564454</v>
       </c>
       <c r="G4">
-        <v>0.013402364035990171</v>
+        <v>0.014475293214018657</v>
       </c>
       <c r="H4">
-        <v>0.015772531158428069</v>
+        <v>0.017035204582743144</v>
       </c>
       <c r="I4">
-        <v>0.0146561037467946</v>
+        <v>0.015829401331005966</v>
       </c>
       <c r="J4">
-        <v>0.012039799945679859</v>
+        <v>0.013003648758072703</v>
       </c>
       <c r="K4">
-        <v>0.0099428639708242714</v>
+        <v>0.010738842116084179</v>
       </c>
       <c r="L4">
-        <v>0.0099661999775817467</v>
+        <v>0.010764046291955815</v>
       </c>
       <c r="M4">
-        <v>0.010129037721940851</v>
+        <v>0.010939920047479668</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.023354378882519036</v>
+        <v>0.02522401878115918</v>
       </c>
       <c r="P4">
-        <v>0.023354378882519036</v>
+        <v>0.025224018781159183</v>
       </c>
       <c r="Q4">
-        <v>0.023354378882519036</v>
+        <v>0.025224018781159183</v>
       </c>
       <c r="R4">
-        <v>0.023354378882519036</v>
+        <v>0.025224018781159183</v>
       </c>
       <c r="S4">
-        <v>0.023354378882519036</v>
+        <v>0.025224018781159183</v>
       </c>
       <c r="T4">
-        <v>0.023354378882519036</v>
+        <v>0.025224018781159183</v>
       </c>
       <c r="U4">
-        <v>0.023354378882519049</v>
+        <v>0.025224018781159194</v>
       </c>
       <c r="V4">
-        <v>0.023354378882519043</v>
+        <v>0.025224018781159187</v>
       </c>
       <c r="W4">
-        <v>0.023354378882519043</v>
+        <v>0.02522401878115919</v>
       </c>
       <c r="X4">
-        <v>0.023354378882519043</v>
+        <v>0.02522401878115919</v>
       </c>
       <c r="Y4">
-        <v>0.023354378882519049</v>
+        <v>0.025224018781159197</v>
       </c>
       <c r="Z4">
-        <v>0.023354378882519049</v>
+        <v>0.025224018781159197</v>
       </c>
       <c r="AA4">
-        <v>0.023354378882519043</v>
+        <v>0.02522401878115919</v>
       </c>
       <c r="AB4">
-        <v>0.023354378882519049</v>
+        <v>0.025224018781159197</v>
       </c>
       <c r="AC4">
-        <v>0.023354378882519049</v>
+        <v>0.025224018781159194</v>
       </c>
       <c r="AD4">
-        <v>0.023354378882519049</v>
+        <v>0.025224018781159194</v>
       </c>
       <c r="AE4">
-        <v>0.023354378882519049</v>
+        <v>0.025224018781159194</v>
       </c>
       <c r="AF4">
-        <v>0.023354378882519053</v>
+        <v>0.025224018781159201</v>
       </c>
       <c r="AG4">
-        <v>0.023354378882519053</v>
+        <v>0.025224018781159201</v>
       </c>
       <c r="AH4">
-        <v>0.023354378882519053</v>
+        <v>0.025224018781159201</v>
       </c>
       <c r="AI4">
-        <v>0.02335437888251906</v>
+        <v>0.025224018781159204</v>
       </c>
       <c r="AJ4">
-        <v>0.023354378882519056</v>
+        <v>0.025224018781159204</v>
       </c>
       <c r="AK4">
-        <v>0.023354378882519056</v>
+        <v>0.025224018781159204</v>
       </c>
       <c r="AL4">
-        <v>0.023354378882519056</v>
+        <v>0.025224018781159204</v>
       </c>
       <c r="AM4">
-        <v>0.023354378882519056</v>
+        <v>0.025224018781159204</v>
       </c>
       <c r="AN4">
-        <v>0.023354378882519053</v>
+        <v>0.025224018781159201</v>
       </c>
       <c r="AO4">
-        <v>0.023354378882519056</v>
+        <v>0.025224018781159204</v>
       </c>
       <c r="AP4">
-        <v>0.023354378882519053</v>
+        <v>0.025224018781159201</v>
       </c>
       <c r="AQ4">
-        <v>0.023354378882519056</v>
+        <v>0.025224018781159204</v>
       </c>
       <c r="AR4">
-        <v>0.023354378882519056</v>
+        <v>0.025224018781159204</v>
       </c>
       <c r="AS4">
-        <v>0.02335437888251906</v>
+        <v>0.025224018781159208</v>
       </c>
       <c r="AT4">
-        <v>0.023354378882519056</v>
+        <v>0.025224018781159204</v>
       </c>
       <c r="AU4">
-        <v>0.023354378882519063</v>
+        <v>0.025224018781159211</v>
       </c>
       <c r="AV4">
-        <v>0.02335437888251906</v>
+        <v>0.025224018781159208</v>
       </c>
       <c r="AW4">
-        <v>0.023354378882519067</v>
+        <v>0.025224018781159215</v>
       </c>
       <c r="AX4">
-        <v>0.02335437888251906</v>
+        <v>0.025224018781159208</v>
       </c>
       <c r="AY4">
-        <v>0.02335437888251906</v>
+        <v>0.025224018781159208</v>
       </c>
       <c r="AZ4">
-        <v>0.02335437888251906</v>
+        <v>0.025224018781159208</v>
       </c>
       <c r="BA4">
-        <v>0.02335437888251906</v>
+        <v>0.025224018781159208</v>
       </c>
       <c r="BB4">
-        <v>0.023354378882519063</v>
+        <v>0.025224018781159211</v>
       </c>
       <c r="BC4">
-        <v>0.023354378882519056</v>
+        <v>0.025224018781159204</v>
       </c>
       <c r="BD4">
-        <v>0.023354378882519053</v>
+        <v>0.025224018781159201</v>
       </c>
       <c r="BE4">
-        <v>0.022880536023532391</v>
+        <v>0.02471224232867799</v>
       </c>
       <c r="BF4">
-        <v>0.022880536023532391</v>
+        <v>0.02471224232867799</v>
       </c>
       <c r="BG4">
-        <v>0.022880536023532395</v>
+        <v>0.02471224232867799</v>
       </c>
       <c r="BH4">
-        <v>0.022880536023532391</v>
+        <v>0.02471224232867799</v>
       </c>
       <c r="BI4">
-        <v>0.022880536023532391</v>
+        <v>0.02471224232867799</v>
       </c>
       <c r="BJ4">
-        <v>0.023402900056508975</v>
+        <v>0.025276424328322857</v>
       </c>
       <c r="BK4">
-        <v>0.023402900056508982</v>
+        <v>0.025276424328322857</v>
       </c>
       <c r="BL4">
-        <v>0.023402900056508979</v>
+        <v>0.025276424328322857</v>
       </c>
       <c r="BM4">
-        <v>0.023402900056508986</v>
+        <v>0.025276424328322864</v>
       </c>
       <c r="BN4">
-        <v>0.023402900056508979</v>
+        <v>0.025276424328322857</v>
       </c>
       <c r="BO4">
-        <v>0.023398010434109405</v>
+        <v>0.025271143266134905</v>
       </c>
       <c r="BP4">
-        <v>0.023398010434109405</v>
+        <v>0.025271143266134905</v>
       </c>
       <c r="BQ4">
-        <v>0.023398010434109412</v>
+        <v>0.025271143266134912</v>
       </c>
       <c r="BR4">
-        <v>0.023398010434109419</v>
+        <v>0.025271143266134919</v>
       </c>
       <c r="BS4">
-        <v>0.023398010434109419</v>
+        <v>0.025271143266134916</v>
       </c>
       <c r="BT4">
-        <v>0.023147863678947975</v>
+        <v>0.025000970957893352</v>
       </c>
       <c r="BU4">
-        <v>0.023147863678947975</v>
+        <v>0.025000970957893352</v>
       </c>
       <c r="BV4">
-        <v>0.023147863678947975</v>
+        <v>0.025000970957893352</v>
       </c>
       <c r="BW4">
-        <v>0.023277009097381968</v>
+        <v>0.025140455140986655</v>
       </c>
       <c r="BX4">
-        <v>0.023277009097381968</v>
+        <v>0.025140455140986655</v>
       </c>
       <c r="BY4">
-        <v>0.020121517776334252</v>
+        <v>0.021732350273532042</v>
       </c>
       <c r="BZ4">
-        <v>0.023746727692190068</v>
+        <v>0.025647777160420351</v>
       </c>
       <c r="CA4">
-        <v>0.023746727692190071</v>
+        <v>0.025647777160420354</v>
       </c>
       <c r="CB4">
-        <v>0.023312840036304846</v>
+        <v>0.025179154533545269</v>
       </c>
       <c r="CC4">
-        <v>0.023312840036304839</v>
+        <v>0.025179154533545262</v>
       </c>
       <c r="CD4">
-        <v>0.023677352141683948</v>
+        <v>0.025572847735076933</v>
       </c>
       <c r="CE4">
-        <v>0.023825660393696088</v>
+        <v>0.025733028836572858</v>
       </c>
       <c r="CF4">
-        <v>0.023825660393696088</v>
+        <v>0.025733028836572858</v>
       </c>
       <c r="CG4">
-        <v>0.023825660393696081</v>
+        <v>0.025733028836572854</v>
       </c>
       <c r="CH4">
-        <v>0.023825660393696088</v>
+        <v>0.025733028836572858</v>
       </c>
       <c r="CI4">
-        <v>0.023557998702491048</v>
+        <v>0.02544393943026001</v>
       </c>
       <c r="CJ4">
-        <v>0.023776152457645579</v>
+        <v>0.025679557531896494</v>
       </c>
       <c r="CK4">
-        <v>0.023776152457645579</v>
+        <v>0.025679557531896494</v>
       </c>
       <c r="CL4">
-        <v>0.023776152457645579</v>
+        <v>0.025679557531896494</v>
       </c>
       <c r="CM4">
-        <v>0.023776152457645583</v>
+        <v>0.025679557531896498</v>
       </c>
       <c r="CN4">
-        <v>0.023326387030476074</v>
+        <v>0.025193786035291571</v>
       </c>
       <c r="CO4">
-        <v>0.022029044989443167</v>
+        <v>0.023792584994012933</v>
       </c>
       <c r="CP4">
-        <v>0.022029044989443164</v>
+        <v>0.023792584994012933</v>
       </c>
       <c r="CQ4">
-        <v>0.022332604405472262</v>
+        <v>0.024120445925345471</v>
       </c>
       <c r="CR4">
-        <v>0.022332604405472266</v>
+        <v>0.024120445925345478</v>
       </c>
       <c r="CS4">
         <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.023453015203113145</v>
+        <v>0.025330551453926278</v>
       </c>
       <c r="CU4">
-        <v>0.023453015203113145</v>
+        <v>0.025330551453926278</v>
       </c>
       <c r="CV4">
-        <v>0.023175335884356302</v>
+        <v>0.025030642456701578</v>
       </c>
       <c r="CW4">
-        <v>0.023175335884356302</v>
+        <v>0.025030642456701578</v>
       </c>
       <c r="CX4">
-        <v>0.023175335884356302</v>
+        <v>0.025030642456701578</v>
       </c>
       <c r="CY4">
-        <v>0.023121407562885478</v>
+        <v>0.024972396891685306</v>
       </c>
       <c r="CZ4">
-        <v>0.023121407562885478</v>
+        <v>0.024972396891685306</v>
       </c>
       <c r="DA4">
-        <v>0.023121407562885485</v>
+        <v>0.024972396891685313</v>
       </c>
       <c r="DB4">
-        <v>0.023121407562885485</v>
+        <v>0.024972396891685306</v>
       </c>
       <c r="DC4">
-        <v>0.023121407562885485</v>
+        <v>0.024972396891685313</v>
       </c>
       <c r="DD4">
-        <v>0.023075347428863992</v>
+        <v>0.024922649403581892</v>
       </c>
       <c r="DE4">
-        <v>0.023075347428863996</v>
+        <v>0.024922649403581895</v>
       </c>
       <c r="DF4">
-        <v>0.023075347428863996</v>
+        <v>0.024922649403581895</v>
       </c>
       <c r="DG4">
-        <v>0.023075347428863996</v>
+        <v>0.024922649403581895</v>
       </c>
       <c r="DH4">
-        <v>0.023075347428863996</v>
+        <v>0.024922649403581895</v>
       </c>
       <c r="DI4">
-        <v>0.021600505590525197</v>
+        <v>0.0233297387799839</v>
       </c>
       <c r="DJ4">
-        <v>0.021600505590525197</v>
+        <v>0.023329738779983903</v>
       </c>
       <c r="DK4">
-        <v>0.021600505590525197</v>
+        <v>0.0233297387799839</v>
       </c>
       <c r="DL4">
-        <v>0.021600505590525197</v>
+        <v>0.0233297387799839</v>
       </c>
       <c r="DM4">
-        <v>0.021600505590525201</v>
+        <v>0.023329738779983903</v>
       </c>
       <c r="DN4">
-        <v>0.022916876731072788</v>
+        <v>0.02475149229949206</v>
       </c>
       <c r="DO4">
-        <v>0.022916876731072795</v>
+        <v>0.024751492299492063</v>
       </c>
       <c r="DP4">
-        <v>0.022916876731072802</v>
+        <v>0.02475149229949207</v>
       </c>
       <c r="DQ4">
-        <v>0.022916876731072795</v>
+        <v>0.024751492299492067</v>
       </c>
       <c r="DR4">
-        <v>0.022916876731072802</v>
+        <v>0.024751492299492077</v>
       </c>
       <c r="DS4">
-        <v>0.022916876731072802</v>
+        <v>0.02475149229949207</v>
       </c>
       <c r="DT4">
-        <v>0.022916876731072809</v>
+        <v>0.024751492299492077</v>
       </c>
       <c r="DU4">
-        <v>0.022916876731072802</v>
+        <v>0.02475149229949207</v>
       </c>
       <c r="DV4">
-        <v>0.022916876731072813</v>
+        <v>0.02475149229949208</v>
       </c>
       <c r="DW4">
-        <v>0.022916876731072809</v>
+        <v>0.024751492299492077</v>
       </c>
       <c r="DX4">
-        <v>0.022916876731072813</v>
+        <v>0.024751492299492084</v>
       </c>
       <c r="DY4">
-        <v>0.022916876731072813</v>
+        <v>0.024751492299492084</v>
       </c>
       <c r="DZ4">
-        <v>0.022916876731072813</v>
+        <v>0.024751492299492084</v>
       </c>
       <c r="EA4">
-        <v>0.022916876731072813</v>
+        <v>0.024751492299492084</v>
       </c>
       <c r="EB4">
-        <v>0.022916876731072813</v>
+        <v>0.024751492299492084</v>
       </c>
       <c r="EC4">
-        <v>0.022916876731072813</v>
+        <v>0.024751492299492084</v>
       </c>
       <c r="ED4">
-        <v>0.022916876731072813</v>
+        <v>0.024751492299492084</v>
       </c>
       <c r="EE4">
-        <v>0.022916876731072813</v>
+        <v>0.024751492299492084</v>
       </c>
       <c r="EF4">
-        <v>0.022916876731072813</v>
+        <v>0.024751492299492084</v>
       </c>
       <c r="EG4">
-        <v>0.022916876731072816</v>
+        <v>0.024751492299492087</v>
       </c>
       <c r="EH4">
-        <v>0.022916876731072816</v>
+        <v>0.024751492299492087</v>
       </c>
       <c r="EI4">
-        <v>0.022916876731072816</v>
+        <v>0.024751492299492087</v>
       </c>
       <c r="EJ4">
-        <v>0.02291687673107282</v>
+        <v>0.024751492299492087</v>
       </c>
       <c r="EK4">
-        <v>0.022916876731072816</v>
+        <v>0.024751492299492087</v>
       </c>
       <c r="EL4">
-        <v>0.02291687673107282</v>
+        <v>0.024751492299492087</v>
       </c>
       <c r="EM4">
-        <v>0.02291687673107282</v>
+        <v>0.024751492299492087</v>
       </c>
       <c r="EN4">
-        <v>0.02291687673107282</v>
+        <v>0.024751492299492087</v>
       </c>
       <c r="EO4">
-        <v>0.02291687673107282</v>
+        <v>0.024751492299492087</v>
       </c>
       <c r="EP4">
-        <v>0.02291687673107282</v>
+        <v>0.024751492299492087</v>
       </c>
       <c r="EQ4">
-        <v>0.02291687673107282</v>
+        <v>0.024751492299492087</v>
       </c>
       <c r="ER4">
-        <v>0.02291687673107282</v>
+        <v>0.024751492299492087</v>
       </c>
       <c r="ES4">
-        <v>0.02291687673107282</v>
+        <v>0.024751492299492087</v>
       </c>
       <c r="ET4">
-        <v>0.02291687673107282</v>
+        <v>0.024751492299492087</v>
       </c>
       <c r="EU4">
-        <v>0.02291687673107282</v>
+        <v>0.024751492299492087</v>
       </c>
       <c r="EV4">
-        <v>0.02291687673107282</v>
+        <v>0.024751492299492087</v>
       </c>
       <c r="EW4">
-        <v>0.02291687673107282</v>
+        <v>0.024751492299492087</v>
       </c>
       <c r="EX4">
-        <v>0.02291687673107282</v>
+        <v>0.024751492299492087</v>
       </c>
       <c r="EY4">
-        <v>0.022916876731072823</v>
+        <v>0.024751492299492094</v>
       </c>
       <c r="EZ4">
-        <v>0.022916876731072823</v>
+        <v>0.024751492299492094</v>
       </c>
       <c r="FA4">
-        <v>0.022916876731072823</v>
+        <v>0.024751492299492094</v>
       </c>
       <c r="FB4">
-        <v>0.022916876731072823</v>
+        <v>0.024751492299492094</v>
       </c>
       <c r="FC4">
-        <v>0.022916876731072823</v>
+        <v>0.024751492299492094</v>
       </c>
       <c r="FD4">
-        <v>0.022916876731072826</v>
+        <v>0.024751492299492098</v>
       </c>
       <c r="FE4">
-        <v>0.022916876731072823</v>
+        <v>0.024751492299492094</v>
       </c>
       <c r="FF4">
-        <v>0.022916876731072826</v>
+        <v>0.024751492299492098</v>
       </c>
       <c r="FG4">
-        <v>0.022916876731072823</v>
+        <v>0.024751492299492094</v>
       </c>
       <c r="FH4">
-        <v>0.02291687673107283</v>
+        <v>0.024751492299492101</v>
       </c>
       <c r="FI4">
-        <v>0.022916876731072823</v>
+        <v>0.024751492299492094</v>
       </c>
       <c r="FJ4">
-        <v>0.02291687673107283</v>
+        <v>0.024751492299492101</v>
       </c>
       <c r="FK4">
-        <v>0.022916876731072826</v>
+        <v>0.024751492299492098</v>
       </c>
       <c r="FL4">
-        <v>0.02291687673107283</v>
+        <v>0.024751492299492101</v>
       </c>
       <c r="FM4">
-        <v>0.022916876731072833</v>
+        <v>0.024751492299492105</v>
       </c>
       <c r="FN4">
-        <v>0.022916876731072833</v>
+        <v>0.024751492299492108</v>
       </c>
       <c r="FO4">
-        <v>0.022916876731072833</v>
+        <v>0.024751492299492108</v>
       </c>
       <c r="FP4">
-        <v>0.022916876731072833</v>
+        <v>0.024751492299492105</v>
       </c>
       <c r="FQ4">
-        <v>0.022916876731072837</v>
+        <v>0.024751492299492112</v>
       </c>
       <c r="FR4">
-        <v>0.022916876731072837</v>
+        <v>0.024751492299492112</v>
       </c>
       <c r="FS4">
-        <v>0.022916876731072833</v>
+        <v>0.024751492299492108</v>
       </c>
       <c r="FT4">
-        <v>0.022916876731072837</v>
+        <v>0.024751492299492112</v>
       </c>
       <c r="FU4">
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.018605190144260843</v>
+        <v>0.020094632701927548</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -3868,535 +3868,535 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>0.002491121455111951</v>
+        <v>0.0060833953612195058</v>
       </c>
       <c r="C3">
-        <v>-0.64323727040929957</v>
+        <v>-0.62962742407599359</v>
       </c>
       <c r="D3">
-        <v>-0.65382432002003288</v>
+        <v>-0.66735443369297809</v>
       </c>
       <c r="E3">
-        <v>-0.67764956192659154</v>
+        <v>-0.66463125421171754</v>
       </c>
       <c r="F3">
-        <v>-0.69010427065172208</v>
+        <v>-0.67458017385450519</v>
       </c>
       <c r="G3">
-        <v>-0.68080983660080585</v>
+        <v>-0.68371386585965499</v>
       </c>
       <c r="H3">
-        <v>-0.70570724676434815</v>
+        <v>-0.662161215893174</v>
       </c>
       <c r="I3">
-        <v>-0.00066394566948257928</v>
+        <v>0.00090815192876333214</v>
       </c>
       <c r="J3">
-        <v>-0.0019556533561285836</v>
+        <v>-0.010043139580673948</v>
       </c>
       <c r="K3">
-        <v>-0.0014623964628313947</v>
+        <v>-0.002182008641028443</v>
       </c>
       <c r="L3">
-        <v>0.00071502899933822831</v>
+        <v>0.0056637034784884155</v>
       </c>
       <c r="M3">
-        <v>0.0021863377449190795</v>
+        <v>0.0021809281393991077</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.1872604386832155</v>
+        <v>1.1688297790797972</v>
       </c>
       <c r="P3">
-        <v>1.3118842335114087</v>
+        <v>1.2663816981057627</v>
       </c>
       <c r="Q3">
-        <v>-0.21671525556566729</v>
+        <v>-0.21386448304023128</v>
       </c>
       <c r="R3">
-        <v>-0.23160601269676576</v>
+        <v>-0.30746438673452031</v>
       </c>
       <c r="S3">
-        <v>-0.18575010199429109</v>
+        <v>-0.22457325327702488</v>
       </c>
       <c r="T3">
-        <v>-0.23503272458687527</v>
+        <v>-0.24175742994022484</v>
       </c>
       <c r="U3">
-        <v>-0.21603113144006819</v>
+        <v>-0.23077250118174414</v>
       </c>
       <c r="V3">
-        <v>-0.18294156471934811</v>
+        <v>-0.17680333753607033</v>
       </c>
       <c r="W3">
-        <v>-0.15399081975657633</v>
+        <v>-0.20220543212388101</v>
       </c>
       <c r="X3">
-        <v>-0.15550005785812773</v>
+        <v>-0.2082732668367023</v>
       </c>
       <c r="Y3">
-        <v>-0.15530368988776577</v>
+        <v>-0.17599271818297585</v>
       </c>
       <c r="Z3">
-        <v>-0.098972515305881983</v>
+        <v>-0.15858095894509566</v>
       </c>
       <c r="AA3">
-        <v>-0.083872296793282702</v>
+        <v>-0.14382324512722933</v>
       </c>
       <c r="AB3">
-        <v>-0.087271480610047511</v>
+        <v>-0.14325859091077692</v>
       </c>
       <c r="AC3">
-        <v>-0.1220441850250914</v>
+        <v>-0.15219972913437271</v>
       </c>
       <c r="AD3">
-        <v>-0.075757231763143987</v>
+        <v>-0.14068720095143439</v>
       </c>
       <c r="AE3">
-        <v>-0.095954220198296789</v>
+        <v>-0.12340671023152601</v>
       </c>
       <c r="AF3">
-        <v>-0.068251320528831094</v>
+        <v>-0.053222945606661652</v>
       </c>
       <c r="AG3">
-        <v>-0.090738018051653005</v>
+        <v>-0.084951311504372157</v>
       </c>
       <c r="AH3">
-        <v>-0.081766736646934082</v>
+        <v>-0.11276332108532863</v>
       </c>
       <c r="AI3">
-        <v>-0.036907261033990682</v>
+        <v>-0.086410228069465841</v>
       </c>
       <c r="AJ3">
-        <v>-0.050518870198668089</v>
+        <v>-0.083598832514678728</v>
       </c>
       <c r="AK3">
-        <v>-0.067282514124415521</v>
+        <v>-0.077469831893749994</v>
       </c>
       <c r="AL3">
-        <v>-0.042944458737614745</v>
+        <v>-0.090230569454564299</v>
       </c>
       <c r="AM3">
-        <v>-0.0024274580957798246</v>
+        <v>-0.044569517421196199</v>
       </c>
       <c r="AN3">
-        <v>-0.021294073308944079</v>
+        <v>-0.02300804208247877</v>
       </c>
       <c r="AO3">
-        <v>-0.027386416854403902</v>
+        <v>-0.045486593979475201</v>
       </c>
       <c r="AP3">
-        <v>-0.0075878917412188981</v>
+        <v>-0.042820500559869315</v>
       </c>
       <c r="AQ3">
-        <v>0.0013612442584026627</v>
+        <v>-0.025879616155881649</v>
       </c>
       <c r="AR3">
-        <v>0.0012702300404546902</v>
+        <v>-0.042496669782698032</v>
       </c>
       <c r="AS3">
-        <v>-0.055721683723939312</v>
+        <v>-0.01193761568022903</v>
       </c>
       <c r="AT3">
-        <v>-0.013229266892916678</v>
+        <v>-0.05745337477058006</v>
       </c>
       <c r="AU3">
-        <v>0.0099455199616947099</v>
+        <v>-0.041627097513012003</v>
       </c>
       <c r="AV3">
-        <v>-0.033395264522318835</v>
+        <v>-0.12648628846582879</v>
       </c>
       <c r="AW3">
-        <v>0.020302394319327437</v>
+        <v>-0.030902670813422784</v>
       </c>
       <c r="AX3">
-        <v>-0.021924161031691494</v>
+        <v>-0.0091755501552444069</v>
       </c>
       <c r="AY3">
-        <v>-0.021019026493120551</v>
+        <v>-0.010650902246544185</v>
       </c>
       <c r="AZ3">
-        <v>0.024170453578209003</v>
+        <v>0.0086160113504454017</v>
       </c>
       <c r="BA3">
-        <v>-0.0057468910297517216</v>
+        <v>0.012979821380969456</v>
       </c>
       <c r="BB3">
-        <v>0.011224275313902346</v>
+        <v>-0.03845907630767266</v>
       </c>
       <c r="BC3">
-        <v>0.014655480799868264</v>
+        <v>0.0041823623418321115</v>
       </c>
       <c r="BD3">
-        <v>0.03677643795447285</v>
+        <v>-0.02594745302639322</v>
       </c>
       <c r="BE3">
-        <v>0.011961183350890916</v>
+        <v>0.0050643079011795369</v>
       </c>
       <c r="BF3">
-        <v>0.040097264936632009</v>
+        <v>-0.038985491349418852</v>
       </c>
       <c r="BG3">
-        <v>0.056096523541726562</v>
+        <v>-0.048898247222036548</v>
       </c>
       <c r="BH3">
-        <v>0.053815776266503669</v>
+        <v>-0.0075696866982718353</v>
       </c>
       <c r="BI3">
-        <v>-0.0045459465359456398</v>
+        <v>0.014980523000082235</v>
       </c>
       <c r="BJ3">
-        <v>0.03519616977299888</v>
+        <v>-0.01441781246690433</v>
       </c>
       <c r="BK3">
-        <v>0.039756094605809131</v>
+        <v>-0.00061632816849336908</v>
       </c>
       <c r="BL3">
-        <v>0.040176375741399581</v>
+        <v>-0.0033402282318550059</v>
       </c>
       <c r="BM3">
-        <v>0.025793909359092225</v>
+        <v>-0.014425027005677476</v>
       </c>
       <c r="BN3">
-        <v>0.040341051580858912</v>
+        <v>-0.048974332192966361</v>
       </c>
       <c r="BO3">
-        <v>-0.0012955940953067735</v>
+        <v>-0.019117203729561348</v>
       </c>
       <c r="BP3">
-        <v>0.074298120201432075</v>
+        <v>-0.017685771042934648</v>
       </c>
       <c r="BQ3">
-        <v>0.039007619562712516</v>
+        <v>-0.032011618270475557</v>
       </c>
       <c r="BR3">
-        <v>0.025695796114509714</v>
+        <v>-0.017762903694090202</v>
       </c>
       <c r="BS3">
-        <v>0.023804588255877019</v>
+        <v>-0.012802323983727637</v>
       </c>
       <c r="BT3">
-        <v>0.0171404288699262</v>
+        <v>0.0029759571434120717</v>
       </c>
       <c r="BU3">
-        <v>0.018081805437296952</v>
+        <v>-0.027793553601499849</v>
       </c>
       <c r="BV3">
-        <v>0.013701468310827239</v>
+        <v>-0.038544721296250313</v>
       </c>
       <c r="BW3">
-        <v>0.022451745912475521</v>
+        <v>0.012934019487658434</v>
       </c>
       <c r="BX3">
-        <v>0.037539826317615023</v>
+        <v>0.0058731243834707018</v>
       </c>
       <c r="BY3">
-        <v>0.033068213497722043</v>
+        <v>-0.017819821071623075</v>
       </c>
       <c r="BZ3">
-        <v>0.019234379292331474</v>
+        <v>0.0098822394802055031</v>
       </c>
       <c r="CA3">
-        <v>0.026879128618317615</v>
+        <v>0.026833585626030981</v>
       </c>
       <c r="CB3">
-        <v>-0.0094804251789262182</v>
+        <v>0.031306188066858621</v>
       </c>
       <c r="CC3">
-        <v>0.039590310122721475</v>
+        <v>-0.036740814749110534</v>
       </c>
       <c r="CD3">
-        <v>0.0046709376049801164</v>
+        <v>-0.02162372956719558</v>
       </c>
       <c r="CE3">
-        <v>0.034581776180333958</v>
+        <v>0.021241812226369065</v>
       </c>
       <c r="CF3">
-        <v>0.039619626980708207</v>
+        <v>-0.0060944304171691235</v>
       </c>
       <c r="CG3">
-        <v>0.0025269292295069363</v>
+        <v>-0.036201744469612794</v>
       </c>
       <c r="CH3">
-        <v>0.0051570814888222379</v>
+        <v>-0.034882344528453881</v>
       </c>
       <c r="CI3">
-        <v>0.019068752108764853</v>
+        <v>-0.022312099276761255</v>
       </c>
       <c r="CJ3">
-        <v>0.036205617200875478</v>
+        <v>0.022484956577334254</v>
       </c>
       <c r="CK3">
-        <v>0.030687271162517637</v>
+        <v>0.01497260211304865</v>
       </c>
       <c r="CL3">
-        <v>-0.0044129207753715967</v>
+        <v>-0.035493636327811842</v>
       </c>
       <c r="CM3">
-        <v>0.023253040139595577</v>
+        <v>0.023542498937471363</v>
       </c>
       <c r="CN3">
-        <v>0.011642151666752896</v>
+        <v>-0.05032183847452934</v>
       </c>
       <c r="CO3">
-        <v>-0.016608472831698751</v>
+        <v>-0.050317992969152465</v>
       </c>
       <c r="CP3">
-        <v>0.011425038797938505</v>
+        <v>0.014935524072289819</v>
       </c>
       <c r="CQ3">
-        <v>0.027022344223301298</v>
+        <v>-0.061471956034723427</v>
       </c>
       <c r="CR3">
-        <v>-0.012527321486898354</v>
+        <v>-0.0088709324722038262</v>
       </c>
       <c r="CS3">
-        <v>0.048643118085179057</v>
+        <v>-0.027436954388151618</v>
       </c>
       <c r="CT3">
-        <v>0.025790964138026035</v>
+        <v>-0.00056094200553957231</v>
       </c>
       <c r="CU3">
-        <v>0.053492605962436893</v>
+        <v>-0.0055231005685755404</v>
       </c>
       <c r="CV3">
-        <v>0.025139494633323309</v>
+        <v>0.037120663014592215</v>
       </c>
       <c r="CW3">
-        <v>0.021820692100446234</v>
+        <v>-0.030454592664352496</v>
       </c>
       <c r="CX3">
-        <v>-0.0068091852882828331</v>
+        <v>0.052240103168772985</v>
       </c>
       <c r="CY3">
-        <v>0.029824448494918995</v>
+        <v>0.015315895493703742</v>
       </c>
       <c r="CZ3">
-        <v>0.049189764633453412</v>
+        <v>-0.031117476745596846</v>
       </c>
       <c r="DA3">
-        <v>0.022343891336081091</v>
+        <v>0.021351357248783134</v>
       </c>
       <c r="DB3">
-        <v>0.013396912536280857</v>
+        <v>0.0074130696535331482</v>
       </c>
       <c r="DC3">
-        <v>0.068961189870652889</v>
+        <v>0.0068403351925671188</v>
       </c>
       <c r="DD3">
-        <v>0.0077538254353259929</v>
+        <v>0.026551594659179847</v>
       </c>
       <c r="DE3">
-        <v>-0.013579918034367294</v>
+        <v>-0.0067148067081909393</v>
       </c>
       <c r="DF3">
-        <v>0.00025410550893187778</v>
+        <v>-0.05246704676815088</v>
       </c>
       <c r="DG3">
-        <v>0.023817691891422264</v>
+        <v>-0.02651221926454168</v>
       </c>
       <c r="DH3">
-        <v>0.042395782882446754</v>
+        <v>-0.02809385546115312</v>
       </c>
       <c r="DI3">
-        <v>0.013034887445376843</v>
+        <v>-0.0086992845190432301</v>
       </c>
       <c r="DJ3">
-        <v>0.015035201930528819</v>
+        <v>-0.0010738608804008371</v>
       </c>
       <c r="DK3">
-        <v>0.0094629018301171063</v>
+        <v>0.0048686461722160599</v>
       </c>
       <c r="DL3">
-        <v>0.036964669178042753</v>
+        <v>-0.0095663371956786983</v>
       </c>
       <c r="DM3">
         <v>0</v>
       </c>
       <c r="DN3">
-        <v>-0.0024346740995341864</v>
+        <v>0.034421983871288357</v>
       </c>
       <c r="DO3">
-        <v>0.017713785328577415</v>
+        <v>-0.024325532887563731</v>
       </c>
       <c r="DP3">
-        <v>0.048373047060891822</v>
+        <v>-0.0024465119846787294</v>
       </c>
       <c r="DQ3">
-        <v>0.0092145063182938816</v>
+        <v>-0.0059838849780478771</v>
       </c>
       <c r="DR3">
-        <v>-0.041819225336658952</v>
+        <v>-0.011930149356771782</v>
       </c>
       <c r="DS3">
-        <v>0.050814991050585248</v>
+        <v>-0.010195461194868834</v>
       </c>
       <c r="DT3">
-        <v>0.018234195721488076</v>
+        <v>-0.020166722185253051</v>
       </c>
       <c r="DU3">
-        <v>0.018910197117638184</v>
+        <v>-0.032382917082197357</v>
       </c>
       <c r="DV3">
-        <v>-0.002109449640002052</v>
+        <v>0.012516018435842588</v>
       </c>
       <c r="DW3">
-        <v>-0.0072349067228371297</v>
+        <v>0.022500820529109306</v>
       </c>
       <c r="DX3">
-        <v>0.011702601424037359</v>
+        <v>-0.00077887391954714234</v>
       </c>
       <c r="DY3">
-        <v>-0.021664668738611583</v>
+        <v>-0.04106369335136871</v>
       </c>
       <c r="DZ3">
-        <v>-0.0054005587083241014</v>
+        <v>-0.0043967144746991735</v>
       </c>
       <c r="EA3">
-        <v>-0.0017314962383051281</v>
+        <v>-0.045236322920035779</v>
       </c>
       <c r="EB3">
-        <v>-0.0090793351773586807</v>
+        <v>-0.035029836997184358</v>
       </c>
       <c r="EC3">
-        <v>-0.045136042420438109</v>
+        <v>0.0071854150220068422</v>
       </c>
       <c r="ED3">
-        <v>0.0087899541589004336</v>
+        <v>-0.029160183502870717</v>
       </c>
       <c r="EE3">
-        <v>0.012113151088755119</v>
+        <v>-0.0054247065696468172</v>
       </c>
       <c r="EF3">
-        <v>0.023156332553306947</v>
+        <v>0.006820332186406668</v>
       </c>
       <c r="EG3">
-        <v>0.029774411356650675</v>
+        <v>-0.015898601737560074</v>
       </c>
       <c r="EH3">
-        <v>0.031457539666115308</v>
+        <v>-0.017330180035379672</v>
       </c>
       <c r="EI3">
-        <v>0.011940934012908237</v>
+        <v>-0.006584712821195945</v>
       </c>
       <c r="EJ3">
-        <v>0.028846487684230756</v>
+        <v>-0.05028980536560098</v>
       </c>
       <c r="EK3">
-        <v>0.0056971574255959678</v>
+        <v>-0.015982417058046806</v>
       </c>
       <c r="EL3">
-        <v>-0.037518294855110219</v>
+        <v>-0.02457617031661288</v>
       </c>
       <c r="EM3">
-        <v>-0.016967984866421287</v>
+        <v>0.022877086603507749</v>
       </c>
       <c r="EN3">
-        <v>0.026993576037451845</v>
+        <v>-0.033853519936724412</v>
       </c>
       <c r="EO3">
-        <v>-0.015691981387546513</v>
+        <v>-0.031116639851719096</v>
       </c>
       <c r="EP3">
-        <v>0.021816463405156541</v>
+        <v>0.0096090895701220723</v>
       </c>
       <c r="EQ3">
-        <v>0.00035104329220209877</v>
+        <v>-0.016353784561210248</v>
       </c>
       <c r="ER3">
-        <v>-0.005124084130138741</v>
+        <v>-0.054551163960628098</v>
       </c>
       <c r="ES3">
-        <v>-0.014694511038609985</v>
+        <v>0.017698925801991634</v>
       </c>
       <c r="ET3">
-        <v>0.020324087602785222</v>
+        <v>-0.031596879209376885</v>
       </c>
       <c r="EU3">
-        <v>-0.0029395566551162727</v>
+        <v>-0.005611431784198713</v>
       </c>
       <c r="EV3">
-        <v>-0.024802472688404017</v>
+        <v>-0.060442350349504979</v>
       </c>
       <c r="EW3">
-        <v>0.0033716052546842782</v>
+        <v>-0.0014366617613098655</v>
       </c>
       <c r="EX3">
-        <v>-0.033607532850775841</v>
+        <v>0.0049118571230931454</v>
       </c>
       <c r="EY3">
-        <v>-0.0086669151413562538</v>
+        <v>-0.032157693183308821</v>
       </c>
       <c r="EZ3">
-        <v>-0.031596781438396962</v>
+        <v>-0.058930776314600343</v>
       </c>
       <c r="FA3">
-        <v>-0.041165905818786472</v>
+        <v>-0.012015564981761793</v>
       </c>
       <c r="FB3">
-        <v>-0.048578680284967819</v>
+        <v>-0.017330024210202237</v>
       </c>
       <c r="FC3">
-        <v>-0.0059819806693042895</v>
+        <v>-0.035608706048924091</v>
       </c>
       <c r="FD3">
-        <v>-0.027854271976660339</v>
+        <v>-0.0060338357837431897</v>
       </c>
       <c r="FE3">
-        <v>-0.025280151366366039</v>
+        <v>0.0070867382534256212</v>
       </c>
       <c r="FF3">
-        <v>0.010173957797910348</v>
+        <v>-0.025528395589646039</v>
       </c>
       <c r="FG3">
-        <v>-0.018560237420797664</v>
+        <v>-0.039207465398703838</v>
       </c>
       <c r="FH3">
-        <v>-0.018784725780546935</v>
+        <v>-0.040387914323637281</v>
       </c>
       <c r="FI3">
-        <v>0.015037551635130902</v>
+        <v>-0.073042870911565222</v>
       </c>
       <c r="FJ3">
-        <v>-0.012973610362575393</v>
+        <v>-0.027293428645603853</v>
       </c>
       <c r="FK3">
-        <v>0.014019834440903262</v>
+        <v>-0.086449548919684857</v>
       </c>
       <c r="FL3">
-        <v>-0.004303485965501991</v>
+        <v>-0.04420879339837485</v>
       </c>
       <c r="FM3">
-        <v>-0.023217273985611013</v>
+        <v>-0.01964896888406123</v>
       </c>
       <c r="FN3">
-        <v>-0.048716652365958429</v>
+        <v>-0.03177585184172859</v>
       </c>
       <c r="FO3">
-        <v>0.01240209395807468</v>
+        <v>-0.041776697516535878</v>
       </c>
       <c r="FP3">
-        <v>0.0037414547501847173</v>
+        <v>-0.064965462723032427</v>
       </c>
       <c r="FQ3">
-        <v>0.011188895871808413</v>
+        <v>-0.028502359758572102</v>
       </c>
       <c r="FR3">
-        <v>-0.014612037366133996</v>
+        <v>-0.0075999376522741767</v>
       </c>
       <c r="FS3">
-        <v>-0.015490047105549649</v>
+        <v>0.0050995226572669097</v>
       </c>
       <c r="FT3">
-        <v>-0.0021405855597545196</v>
+        <v>-0.071457486064840661</v>
       </c>
       <c r="FU3">
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.4998406499308201</v>
+        <v>-5.479910709765285</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -4410,535 +4410,535 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.023327177134116625</v>
+        <v>0.025147036225323886</v>
       </c>
       <c r="C4">
-        <v>0.011658681622898025</v>
+        <v>0.012568228355489656</v>
       </c>
       <c r="D4">
-        <v>0.013392792852536762</v>
+        <v>0.014437625482272251</v>
       </c>
       <c r="E4">
-        <v>0.013039780536729021</v>
+        <v>0.014057073071555588</v>
       </c>
       <c r="F4">
-        <v>0.013006077272111271</v>
+        <v>0.014020740462111186</v>
       </c>
       <c r="G4">
-        <v>0.015005676491265283</v>
+        <v>0.016176337502897299</v>
       </c>
       <c r="H4">
-        <v>0.017659384521731467</v>
+        <v>0.019037073355756554</v>
       </c>
       <c r="I4">
-        <v>0.016409399927971312</v>
+        <v>0.017689571783677728</v>
       </c>
       <c r="J4">
-        <v>0.013480110114847964</v>
+        <v>0.014531754761002019</v>
       </c>
       <c r="K4">
-        <v>0.011132319622284049</v>
+        <v>0.012000802463322234</v>
       </c>
       <c r="L4">
-        <v>0.011158447294018688</v>
+        <v>0.012028968473457829</v>
       </c>
       <c r="M4">
-        <v>0.011340765167631066</v>
+        <v>0.012225509792876593</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.026148241700078397</v>
+        <v>0.028188184857511556</v>
       </c>
       <c r="P4">
-        <v>0.026148241700078394</v>
+        <v>0.028188184857511553</v>
       </c>
       <c r="Q4">
-        <v>0.026148241700078394</v>
+        <v>0.028188184857511553</v>
       </c>
       <c r="R4">
-        <v>0.026148241700078397</v>
+        <v>0.028188184857511556</v>
       </c>
       <c r="S4">
-        <v>0.026148241700078394</v>
+        <v>0.028188184857511553</v>
       </c>
       <c r="T4">
-        <v>0.026148241700078394</v>
+        <v>0.028188184857511553</v>
       </c>
       <c r="U4">
-        <v>0.026148241700078397</v>
+        <v>0.028188184857511556</v>
       </c>
       <c r="V4">
-        <v>0.026148241700078397</v>
+        <v>0.028188184857511556</v>
       </c>
       <c r="W4">
-        <v>0.026148241700078401</v>
+        <v>0.02818818485751156</v>
       </c>
       <c r="X4">
-        <v>0.026148241700078397</v>
+        <v>0.028188184857511556</v>
       </c>
       <c r="Y4">
-        <v>0.026148241700078404</v>
+        <v>0.028188184857511567</v>
       </c>
       <c r="Z4">
-        <v>0.026148241700078397</v>
+        <v>0.028188184857511556</v>
       </c>
       <c r="AA4">
-        <v>0.026148241700078404</v>
+        <v>0.028188184857511567</v>
       </c>
       <c r="AB4">
-        <v>0.026148241700078397</v>
+        <v>0.028188184857511556</v>
       </c>
       <c r="AC4">
-        <v>0.026148241700078408</v>
+        <v>0.02818818485751157</v>
       </c>
       <c r="AD4">
-        <v>0.026148241700078415</v>
+        <v>0.028188184857511574</v>
       </c>
       <c r="AE4">
-        <v>0.026148241700078415</v>
+        <v>0.028188184857511574</v>
       </c>
       <c r="AF4">
-        <v>0.026148241700078421</v>
+        <v>0.028188184857511584</v>
       </c>
       <c r="AG4">
-        <v>0.026148241700078415</v>
+        <v>0.028188184857511574</v>
       </c>
       <c r="AH4">
-        <v>0.026148241700078425</v>
+        <v>0.028188184857511584</v>
       </c>
       <c r="AI4">
-        <v>0.026148241700078421</v>
+        <v>0.028188184857511584</v>
       </c>
       <c r="AJ4">
-        <v>0.026148241700078432</v>
+        <v>0.028188184857511595</v>
       </c>
       <c r="AK4">
-        <v>0.026148241700078432</v>
+        <v>0.028188184857511595</v>
       </c>
       <c r="AL4">
-        <v>0.026148241700078432</v>
+        <v>0.028188184857511595</v>
       </c>
       <c r="AM4">
-        <v>0.026148241700078432</v>
+        <v>0.028188184857511595</v>
       </c>
       <c r="AN4">
-        <v>0.026148241700078432</v>
+        <v>0.028188184857511595</v>
       </c>
       <c r="AO4">
-        <v>0.026148241700078432</v>
+        <v>0.028188184857511595</v>
       </c>
       <c r="AP4">
-        <v>0.026148241700078435</v>
+        <v>0.028188184857511595</v>
       </c>
       <c r="AQ4">
-        <v>0.026148241700078435</v>
+        <v>0.028188184857511598</v>
       </c>
       <c r="AR4">
-        <v>0.026148241700078439</v>
+        <v>0.028188184857511601</v>
       </c>
       <c r="AS4">
-        <v>0.026148241700078432</v>
+        <v>0.028188184857511595</v>
       </c>
       <c r="AT4">
-        <v>0.026148241700078439</v>
+        <v>0.028188184857511601</v>
       </c>
       <c r="AU4">
-        <v>0.026148241700078435</v>
+        <v>0.028188184857511598</v>
       </c>
       <c r="AV4">
-        <v>0.026148241700078439</v>
+        <v>0.028188184857511601</v>
       </c>
       <c r="AW4">
-        <v>0.026148241700078439</v>
+        <v>0.028188184857511601</v>
       </c>
       <c r="AX4">
-        <v>0.026148241700078439</v>
+        <v>0.028188184857511601</v>
       </c>
       <c r="AY4">
-        <v>0.026148241700078439</v>
+        <v>0.028188184857511601</v>
       </c>
       <c r="AZ4">
-        <v>0.026148241700078439</v>
+        <v>0.028188184857511601</v>
       </c>
       <c r="BA4">
-        <v>0.026148241700078439</v>
+        <v>0.028188184857511601</v>
       </c>
       <c r="BB4">
-        <v>0.026148241700078439</v>
+        <v>0.028188184857511601</v>
       </c>
       <c r="BC4">
-        <v>0.026148241700078439</v>
+        <v>0.028188184857511601</v>
       </c>
       <c r="BD4">
-        <v>0.026148241700078442</v>
+        <v>0.028188184857511605</v>
       </c>
       <c r="BE4">
-        <v>0.026148241700078442</v>
+        <v>0.028188184857511608</v>
       </c>
       <c r="BF4">
-        <v>0.026148241700078449</v>
+        <v>0.028188184857511612</v>
       </c>
       <c r="BG4">
-        <v>0.026148241700078449</v>
+        <v>0.028188184857511612</v>
       </c>
       <c r="BH4">
-        <v>0.026148241700078449</v>
+        <v>0.028188184857511612</v>
       </c>
       <c r="BI4">
-        <v>0.026148241700078449</v>
+        <v>0.028188184857511612</v>
       </c>
       <c r="BJ4">
-        <v>0.026148241700078449</v>
+        <v>0.028188184857511612</v>
       </c>
       <c r="BK4">
-        <v>0.026148241700078449</v>
+        <v>0.028188184857511612</v>
       </c>
       <c r="BL4">
-        <v>0.026148241700078453</v>
+        <v>0.028188184857511619</v>
       </c>
       <c r="BM4">
-        <v>0.026148241700078449</v>
+        <v>0.028188184857511612</v>
       </c>
       <c r="BN4">
-        <v>0.026148241700078453</v>
+        <v>0.028188184857511615</v>
       </c>
       <c r="BO4">
-        <v>0.026148241700078453</v>
+        <v>0.028188184857511615</v>
       </c>
       <c r="BP4">
-        <v>0.026148241700078453</v>
+        <v>0.028188184857511615</v>
       </c>
       <c r="BQ4">
-        <v>0.026148241700078453</v>
+        <v>0.028188184857511619</v>
       </c>
       <c r="BR4">
-        <v>0.026148241700078453</v>
+        <v>0.028188184857511615</v>
       </c>
       <c r="BS4">
-        <v>0.026148241700078453</v>
+        <v>0.028188184857511615</v>
       </c>
       <c r="BT4">
-        <v>0.026148241700078453</v>
+        <v>0.028188184857511619</v>
       </c>
       <c r="BU4">
-        <v>0.02614824170007846</v>
+        <v>0.028188184857511622</v>
       </c>
       <c r="BV4">
-        <v>0.026148241700078453</v>
+        <v>0.028188184857511619</v>
       </c>
       <c r="BW4">
-        <v>0.026148241700078453</v>
+        <v>0.028188184857511619</v>
       </c>
       <c r="BX4">
-        <v>0.026148241700078453</v>
+        <v>0.028188184857511615</v>
       </c>
       <c r="BY4">
-        <v>0.025617713456661601</v>
+        <v>0.027616267695008096</v>
       </c>
       <c r="BZ4">
-        <v>0.025617713456661601</v>
+        <v>0.027616267695008096</v>
       </c>
       <c r="CA4">
-        <v>0.025617713456661605</v>
+        <v>0.0276162676950081</v>
       </c>
       <c r="CB4">
-        <v>0.025617713456661605</v>
+        <v>0.0276162676950081</v>
       </c>
       <c r="CC4">
-        <v>0.025617713456661601</v>
+        <v>0.027616267695008096</v>
       </c>
       <c r="CD4">
-        <v>0.026202567417386021</v>
+        <v>0.028246748770892383</v>
       </c>
       <c r="CE4">
-        <v>0.026202567417386021</v>
+        <v>0.02824674877089238</v>
       </c>
       <c r="CF4">
-        <v>0.026202567417386025</v>
+        <v>0.028246748770892387</v>
       </c>
       <c r="CG4">
-        <v>0.026202567417386021</v>
+        <v>0.028246748770892376</v>
       </c>
       <c r="CH4">
-        <v>0.026202567417386021</v>
+        <v>0.02824674877089238</v>
       </c>
       <c r="CI4">
-        <v>0.026197092853966073</v>
+        <v>0.028240847111902622</v>
       </c>
       <c r="CJ4">
-        <v>0.026197092853966073</v>
+        <v>0.028240847111902622</v>
       </c>
       <c r="CK4">
-        <v>0.026197092853966073</v>
+        <v>0.028240847111902622</v>
       </c>
       <c r="CL4">
-        <v>0.026197092853966073</v>
+        <v>0.028240847111902622</v>
       </c>
       <c r="CM4">
-        <v>0.026197092853966073</v>
+        <v>0.028240847111902622</v>
       </c>
       <c r="CN4">
-        <v>0.025917021273070891</v>
+        <v>0.02793892587428513</v>
       </c>
       <c r="CO4">
-        <v>0.025917021273070894</v>
+        <v>0.027938925874285134</v>
       </c>
       <c r="CP4">
-        <v>0.025917021273070894</v>
+        <v>0.027938925874285134</v>
       </c>
       <c r="CQ4">
-        <v>0.026061616238865406</v>
+        <v>0.028094801350427343</v>
       </c>
       <c r="CR4">
-        <v>0.026061616238865402</v>
+        <v>0.028094801350427339</v>
       </c>
       <c r="CS4">
-        <v>0.022528636399825108</v>
+        <v>0.02428619769963461</v>
       </c>
       <c r="CT4">
-        <v>0.026587526836182356</v>
+        <v>0.02866174062327528</v>
       </c>
       <c r="CU4">
-        <v>0.026587526836182363</v>
+        <v>0.028661740623275284</v>
       </c>
       <c r="CV4">
-        <v>0.026101733599982881</v>
+        <v>0.028138048449186243</v>
       </c>
       <c r="CW4">
-        <v>0.026101733599982885</v>
+        <v>0.028138048449186253</v>
       </c>
       <c r="CX4">
-        <v>0.026509851952519835</v>
+        <v>0.028578005968969315</v>
       </c>
       <c r="CY4">
-        <v>0.026675902184009132</v>
+        <v>0.028757010533579826</v>
       </c>
       <c r="CZ4">
-        <v>0.026675902184009136</v>
+        <v>0.028757010533579826</v>
       </c>
       <c r="DA4">
-        <v>0.026675902184009136</v>
+        <v>0.028757010533579826</v>
       </c>
       <c r="DB4">
-        <v>0.026675902184009139</v>
+        <v>0.028757010533579829</v>
       </c>
       <c r="DC4">
-        <v>0.026376220371416802</v>
+        <v>0.028433949180978003</v>
       </c>
       <c r="DD4">
-        <v>0.026620471659205506</v>
+        <v>0.028697255621649789</v>
       </c>
       <c r="DE4">
-        <v>0.026620471659205502</v>
+        <v>0.028697255621649785</v>
       </c>
       <c r="DF4">
-        <v>0.026620471659205502</v>
+        <v>0.028697255621649785</v>
       </c>
       <c r="DG4">
-        <v>0.026620471659205506</v>
+        <v>0.028697255621649789</v>
       </c>
       <c r="DH4">
-        <v>0.026116901208579176</v>
+        <v>0.028154399351853533</v>
       </c>
       <c r="DI4">
-        <v>0.024664359335072352</v>
+        <v>0.026588538086177543</v>
       </c>
       <c r="DJ4">
-        <v>0.024664359335072356</v>
+        <v>0.026588538086177546</v>
       </c>
       <c r="DK4">
-        <v>0.02500423328421876</v>
+        <v>0.026954927146546473</v>
       </c>
       <c r="DL4">
-        <v>0.02500423328421876</v>
+        <v>0.026954927146546476</v>
       </c>
       <c r="DM4">
         <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.026258677792782622</v>
+        <v>0.028307236571649512</v>
       </c>
       <c r="DO4">
-        <v>0.026258677792782618</v>
+        <v>0.028307236571649512</v>
       </c>
       <c r="DP4">
-        <v>0.025947779953088796</v>
+        <v>0.027972084178704323</v>
       </c>
       <c r="DQ4">
-        <v>0.025947779953088793</v>
+        <v>0.027972084178704316</v>
       </c>
       <c r="DR4">
-        <v>0.0259477799530888</v>
+        <v>0.027972084178704327</v>
       </c>
       <c r="DS4">
-        <v>0.025887400236231789</v>
+        <v>0.027906993965758783</v>
       </c>
       <c r="DT4">
-        <v>0.025887400236231789</v>
+        <v>0.027906993965758787</v>
       </c>
       <c r="DU4">
-        <v>0.025887400236231789</v>
+        <v>0.027906993965758783</v>
       </c>
       <c r="DV4">
-        <v>0.025887400236231789</v>
+        <v>0.027906993965758783</v>
       </c>
       <c r="DW4">
-        <v>0.025887400236231789</v>
+        <v>0.027906993965758783</v>
       </c>
       <c r="DX4">
-        <v>0.025835829970835708</v>
+        <v>0.027851400469614405</v>
       </c>
       <c r="DY4">
-        <v>0.025835829970835708</v>
+        <v>0.027851400469614405</v>
       </c>
       <c r="DZ4">
-        <v>0.025835829970835708</v>
+        <v>0.027851400469614405</v>
       </c>
       <c r="EA4">
-        <v>0.025835829970835712</v>
+        <v>0.027851400469614408</v>
       </c>
       <c r="EB4">
-        <v>0.025835829970835712</v>
+        <v>0.027851400469614405</v>
       </c>
       <c r="EC4">
-        <v>0.024184554162891274</v>
+        <v>0.026071301132191842</v>
       </c>
       <c r="ED4">
-        <v>0.024184554162891281</v>
+        <v>0.026071301132191849</v>
       </c>
       <c r="EE4">
-        <v>0.024184554162891274</v>
+        <v>0.026071301132191846</v>
       </c>
       <c r="EF4">
-        <v>0.024184554162891274</v>
+        <v>0.026071301132191846</v>
       </c>
       <c r="EG4">
-        <v>0.024184554162891274</v>
+        <v>0.026071301132191842</v>
       </c>
       <c r="EH4">
-        <v>0.025658401569546699</v>
+        <v>0.027660130072473615</v>
       </c>
       <c r="EI4">
-        <v>0.025658401569546702</v>
+        <v>0.027660130072473619</v>
       </c>
       <c r="EJ4">
-        <v>0.025658401569546702</v>
+        <v>0.027660130072473619</v>
       </c>
       <c r="EK4">
-        <v>0.025658401569546699</v>
+        <v>0.027660130072473615</v>
       </c>
       <c r="EL4">
-        <v>0.025658401569546706</v>
+        <v>0.027660130072473619</v>
       </c>
       <c r="EM4">
-        <v>0.025658401569546702</v>
+        <v>0.027660130072473619</v>
       </c>
       <c r="EN4">
-        <v>0.025658401569546706</v>
+        <v>0.027660130072473619</v>
       </c>
       <c r="EO4">
-        <v>0.025658401569546706</v>
+        <v>0.027660130072473619</v>
       </c>
       <c r="EP4">
-        <v>0.025658401569546706</v>
+        <v>0.027660130072473619</v>
       </c>
       <c r="EQ4">
-        <v>0.025658401569546709</v>
+        <v>0.027660130072473622</v>
       </c>
       <c r="ER4">
-        <v>0.025658401569546709</v>
+        <v>0.027660130072473622</v>
       </c>
       <c r="ES4">
-        <v>0.025658401569546706</v>
+        <v>0.027660130072473622</v>
       </c>
       <c r="ET4">
-        <v>0.025658401569546706</v>
+        <v>0.027660130072473619</v>
       </c>
       <c r="EU4">
-        <v>0.025658401569546706</v>
+        <v>0.027660130072473622</v>
       </c>
       <c r="EV4">
-        <v>0.025658401569546709</v>
+        <v>0.027660130072473622</v>
       </c>
       <c r="EW4">
-        <v>0.025658401569546709</v>
+        <v>0.027660130072473622</v>
       </c>
       <c r="EX4">
-        <v>0.025658401569546709</v>
+        <v>0.027660130072473622</v>
       </c>
       <c r="EY4">
-        <v>0.025658401569546709</v>
+        <v>0.027660130072473622</v>
       </c>
       <c r="EZ4">
-        <v>0.025658401569546709</v>
+        <v>0.027660130072473622</v>
       </c>
       <c r="FA4">
-        <v>0.025658401569546709</v>
+        <v>0.027660130072473622</v>
       </c>
       <c r="FB4">
-        <v>0.025658401569546713</v>
+        <v>0.027660130072473629</v>
       </c>
       <c r="FC4">
-        <v>0.025658401569546713</v>
+        <v>0.027660130072473629</v>
       </c>
       <c r="FD4">
-        <v>0.025658401569546713</v>
+        <v>0.027660130072473629</v>
       </c>
       <c r="FE4">
-        <v>0.025658401569546709</v>
+        <v>0.027660130072473622</v>
       </c>
       <c r="FF4">
-        <v>0.025658401569546716</v>
+        <v>0.027660130072473633</v>
       </c>
       <c r="FG4">
-        <v>0.025658401569546716</v>
+        <v>0.027660130072473633</v>
       </c>
       <c r="FH4">
-        <v>0.02565840156954672</v>
+        <v>0.027660130072473636</v>
       </c>
       <c r="FI4">
-        <v>0.025658401569546716</v>
+        <v>0.027660130072473633</v>
       </c>
       <c r="FJ4">
-        <v>0.02565840156954672</v>
+        <v>0.027660130072473636</v>
       </c>
       <c r="FK4">
-        <v>0.025658401569546716</v>
+        <v>0.027660130072473633</v>
       </c>
       <c r="FL4">
-        <v>0.02565840156954672</v>
+        <v>0.027660130072473636</v>
       </c>
       <c r="FM4">
-        <v>0.02565840156954672</v>
+        <v>0.027660130072473636</v>
       </c>
       <c r="FN4">
-        <v>0.02565840156954672</v>
+        <v>0.027660130072473636</v>
       </c>
       <c r="FO4">
-        <v>0.025658401569546723</v>
+        <v>0.02766013007247364</v>
       </c>
       <c r="FP4">
-        <v>0.025658401569546723</v>
+        <v>0.027660130072473636</v>
       </c>
       <c r="FQ4">
-        <v>0.025658401569546727</v>
+        <v>0.027660130072473643</v>
       </c>
       <c r="FR4">
-        <v>0.02565840156954672</v>
+        <v>0.027660130072473636</v>
       </c>
       <c r="FS4">
-        <v>0.02565840156954672</v>
+        <v>0.027660130072473636</v>
       </c>
       <c r="FT4">
-        <v>0.025658401569546723</v>
+        <v>0.02766013007247364</v>
       </c>
       <c r="FU4">
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.020830911890883545</v>
+        <v>0.022456025986978715</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -6027,535 +6027,535 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>2.278513249292649</v>
+        <v>2.2965586756037344</v>
       </c>
       <c r="C3">
-        <v>-0.89771824478030016</v>
+        <v>-0.88561645341060757</v>
       </c>
       <c r="D3">
-        <v>-0.9111770744256541</v>
+        <v>-0.92293197134636196</v>
       </c>
       <c r="E3">
-        <v>-0.92933545721923538</v>
+        <v>-0.93233153981870787</v>
       </c>
       <c r="F3">
-        <v>-0.95562270813733152</v>
+        <v>-0.93436527838504302</v>
       </c>
       <c r="G3">
-        <v>-0.92448276508002392</v>
+        <v>-0.92303863682635157</v>
       </c>
       <c r="H3">
-        <v>-0.94251682052590935</v>
+        <v>-0.93008796038375841</v>
       </c>
       <c r="I3">
-        <v>-0.0036190493056063593</v>
+        <v>-0.0055962880091655169</v>
       </c>
       <c r="J3">
-        <v>-0.00056405056874940702</v>
+        <v>0.01014988100768523</v>
       </c>
       <c r="K3">
-        <v>0.0044861549863027461</v>
+        <v>0.002844498318329666</v>
       </c>
       <c r="L3">
-        <v>-0.003358870520816144</v>
+        <v>0.0034958143185221647</v>
       </c>
       <c r="M3">
-        <v>0.00065876559791976672</v>
+        <v>-0.010191726037901217</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.0768977451511432</v>
+        <v>1.1143843999487686</v>
       </c>
       <c r="P3">
-        <v>1.2183376342007926</v>
+        <v>1.2274411607068878</v>
       </c>
       <c r="Q3">
-        <v>-0.31792262783680703</v>
+        <v>-0.28560855771797294</v>
       </c>
       <c r="R3">
-        <v>-0.30721859827081294</v>
+        <v>-0.33949668857146453</v>
       </c>
       <c r="S3">
-        <v>-0.34572686798281244</v>
+        <v>-0.30152477845706321</v>
       </c>
       <c r="T3">
-        <v>-0.36217008721273281</v>
+        <v>-0.29974476380939302</v>
       </c>
       <c r="U3">
-        <v>-0.31513939616729353</v>
+        <v>-0.30467359802383964</v>
       </c>
       <c r="V3">
-        <v>-0.29239555174188409</v>
+        <v>-0.24123550072722005</v>
       </c>
       <c r="W3">
-        <v>-0.29440636142086235</v>
+        <v>-0.27580407747357494</v>
       </c>
       <c r="X3">
-        <v>-0.29619861201386732</v>
+        <v>-0.28714300580241447</v>
       </c>
       <c r="Y3">
-        <v>-0.30213181065848943</v>
+        <v>-0.23872740494807165</v>
       </c>
       <c r="Z3">
-        <v>-0.25483175731143543</v>
+        <v>-0.22403485716242133</v>
       </c>
       <c r="AA3">
-        <v>-0.20987940078465897</v>
+        <v>-0.19132760044722935</v>
       </c>
       <c r="AB3">
-        <v>-0.20048183953670606</v>
+        <v>-0.18020642230951092</v>
       </c>
       <c r="AC3">
-        <v>-0.24997947346163568</v>
+        <v>-0.1799550631714377</v>
       </c>
       <c r="AD3">
-        <v>-0.17807818206613799</v>
+        <v>-0.22169891189845534</v>
       </c>
       <c r="AE3">
-        <v>-0.25198787029466613</v>
+        <v>-0.17692809350560679</v>
       </c>
       <c r="AF3">
-        <v>-0.18254163215063618</v>
+        <v>-0.10935990475784155</v>
       </c>
       <c r="AG3">
-        <v>-0.20128862703056399</v>
+        <v>-0.16186012267571986</v>
       </c>
       <c r="AH3">
-        <v>-0.18342965057860183</v>
+        <v>-0.15755995871496634</v>
       </c>
       <c r="AI3">
-        <v>-0.17991528260423045</v>
+        <v>-0.14141895640298452</v>
       </c>
       <c r="AJ3">
-        <v>-0.17172006597582617</v>
+        <v>-0.16634094134764643</v>
       </c>
       <c r="AK3">
-        <v>-0.17923790168269366</v>
+        <v>-0.16363142280781956</v>
       </c>
       <c r="AL3">
-        <v>-0.19084478403497143</v>
+        <v>-0.13639370052330921</v>
       </c>
       <c r="AM3">
-        <v>-0.13509563734732355</v>
+        <v>-0.11381040048783322</v>
       </c>
       <c r="AN3">
-        <v>-0.1062277640231032</v>
+        <v>-0.11916628654317997</v>
       </c>
       <c r="AO3">
-        <v>-0.13489535614008</v>
+        <v>-0.087710664466452162</v>
       </c>
       <c r="AP3">
-        <v>-0.11804366941828039</v>
+        <v>-0.099830584942376038</v>
       </c>
       <c r="AQ3">
-        <v>-0.15941600375949694</v>
+        <v>-0.11338939401848419</v>
       </c>
       <c r="AR3">
-        <v>-0.12510638800076185</v>
+        <v>-0.096821618806575457</v>
       </c>
       <c r="AS3">
-        <v>-0.15688712285043702</v>
+        <v>-0.098200150026244493</v>
       </c>
       <c r="AT3">
-        <v>-0.13284501361128384</v>
+        <v>-0.14054734074739764</v>
       </c>
       <c r="AU3">
-        <v>-0.093696133986497523</v>
+        <v>-0.10438821928082018</v>
       </c>
       <c r="AV3">
-        <v>-0.16418440859499159</v>
+        <v>-0.17166802288448571</v>
       </c>
       <c r="AW3">
-        <v>-0.12263529079479631</v>
+        <v>-0.098019975747398028</v>
       </c>
       <c r="AX3">
-        <v>-0.13906961836139942</v>
+        <v>-0.070783148272873853</v>
       </c>
       <c r="AY3">
-        <v>-0.13280593309687111</v>
+        <v>-0.11364608994691909</v>
       </c>
       <c r="AZ3">
-        <v>-0.13697582299342442</v>
+        <v>-0.046269186642065814</v>
       </c>
       <c r="BA3">
-        <v>-0.14316504923779835</v>
+        <v>-0.086801561775589092</v>
       </c>
       <c r="BB3">
-        <v>-0.094586593242456718</v>
+        <v>-0.13680923142134968</v>
       </c>
       <c r="BC3">
-        <v>-0.09255324197207429</v>
+        <v>-0.071200229085979727</v>
       </c>
       <c r="BD3">
-        <v>-0.10658753029125408</v>
+        <v>-0.090997410671975421</v>
       </c>
       <c r="BE3">
-        <v>-0.12920622595173389</v>
+        <v>-0.045389313953889524</v>
       </c>
       <c r="BF3">
-        <v>-0.094302087067567167</v>
+        <v>-0.075014524474057681</v>
       </c>
       <c r="BG3">
-        <v>-0.115976755286347</v>
+        <v>-0.10118050555861285</v>
       </c>
       <c r="BH3">
-        <v>-0.078804999546641719</v>
+        <v>-0.062741930086651423</v>
       </c>
       <c r="BI3">
-        <v>-0.12123148677965306</v>
+        <v>-0.08071415841018921</v>
       </c>
       <c r="BJ3">
-        <v>-0.11296581312448199</v>
+        <v>-0.089195208903728659</v>
       </c>
       <c r="BK3">
-        <v>-0.12541074666559218</v>
+        <v>-0.068797659788248436</v>
       </c>
       <c r="BL3">
-        <v>-0.071263247984522243</v>
+        <v>-0.078079932342330224</v>
       </c>
       <c r="BM3">
-        <v>-0.098547575196518453</v>
+        <v>-0.068546837858414228</v>
       </c>
       <c r="BN3">
-        <v>-0.096118728202188267</v>
+        <v>-0.11264267038088829</v>
       </c>
       <c r="BO3">
-        <v>-0.089107860685692777</v>
+        <v>-0.097494943631953213</v>
       </c>
       <c r="BP3">
-        <v>-0.043976187435178143</v>
+        <v>-0.082485507544159078</v>
       </c>
       <c r="BQ3">
-        <v>-0.072553193851450856</v>
+        <v>-0.089983322790944217</v>
       </c>
       <c r="BR3">
-        <v>-0.076021847300940734</v>
+        <v>-0.074879588090293797</v>
       </c>
       <c r="BS3">
-        <v>-0.088784452205263306</v>
+        <v>-0.084608678039935603</v>
       </c>
       <c r="BT3">
-        <v>-0.11827758041551678</v>
+        <v>-0.077957252767305515</v>
       </c>
       <c r="BU3">
-        <v>-0.13110841931491368</v>
+        <v>-0.10711636054944182</v>
       </c>
       <c r="BV3">
-        <v>-0.1306369579447364</v>
+        <v>-0.061159202354702319</v>
       </c>
       <c r="BW3">
-        <v>-0.11912134933464008</v>
+        <v>-0.067125671725273034</v>
       </c>
       <c r="BX3">
-        <v>-0.062427373694125113</v>
+        <v>-0.068722239686408948</v>
       </c>
       <c r="BY3">
-        <v>-0.16717238404849646</v>
+        <v>-0.14710737817119748</v>
       </c>
       <c r="BZ3">
-        <v>-0.086170629286572556</v>
+        <v>-0.051257928572041409</v>
       </c>
       <c r="CA3">
-        <v>-0.094601553041047462</v>
+        <v>-0.032724842567052083</v>
       </c>
       <c r="CB3">
-        <v>-0.11530956318601568</v>
+        <v>-0.047291751012298648</v>
       </c>
       <c r="CC3">
-        <v>-0.077941636553036792</v>
+        <v>-0.10325661229014184</v>
       </c>
       <c r="CD3">
-        <v>-0.092210774760142306</v>
+        <v>-0.073833267170306818</v>
       </c>
       <c r="CE3">
-        <v>-0.10362484234022239</v>
+        <v>-0.047077902043065736</v>
       </c>
       <c r="CF3">
-        <v>-0.071237326036298967</v>
+        <v>-0.077376881539096012</v>
       </c>
       <c r="CG3">
-        <v>-0.081241562654979463</v>
+        <v>-0.10518707557851296</v>
       </c>
       <c r="CH3">
-        <v>-0.11748651912248646</v>
+        <v>-0.073679322716152879</v>
       </c>
       <c r="CI3">
-        <v>-0.10339696187970784</v>
+        <v>-0.056085521495585516</v>
       </c>
       <c r="CJ3">
-        <v>-0.075757982127376527</v>
+        <v>-0.042241443983885109</v>
       </c>
       <c r="CK3">
-        <v>-0.070030272158304444</v>
+        <v>-0.039001177067826846</v>
       </c>
       <c r="CL3">
-        <v>-0.10309595070891496</v>
+        <v>-0.055107495125063105</v>
       </c>
       <c r="CM3">
-        <v>-0.10694895003352269</v>
+        <v>-0.012743815211087962</v>
       </c>
       <c r="CN3">
-        <v>-0.087237173514542868</v>
+        <v>-0.10002657178688214</v>
       </c>
       <c r="CO3">
-        <v>-0.11654121228974978</v>
+        <v>-0.059459215197330974</v>
       </c>
       <c r="CP3">
-        <v>-0.097576501478526242</v>
+        <v>-0.012565305188471815</v>
       </c>
       <c r="CQ3">
-        <v>-0.072288726138676582</v>
+        <v>-0.072859187000182873</v>
       </c>
       <c r="CR3">
-        <v>-0.13052862755133635</v>
+        <v>-0.015636990123612457</v>
       </c>
       <c r="CS3">
         <v>0</v>
       </c>
       <c r="CT3">
-        <v>-0.082670313474485488</v>
+        <v>-0.053409749147719149</v>
       </c>
       <c r="CU3">
-        <v>-0.046434799160024881</v>
+        <v>-0.045774800493556395</v>
       </c>
       <c r="CV3">
-        <v>-0.08158965068116833</v>
+        <v>-0.039437571402096812</v>
       </c>
       <c r="CW3">
-        <v>-0.091791304804187429</v>
+        <v>-0.098716304524161955</v>
       </c>
       <c r="CX3">
-        <v>-0.10944624986682215</v>
+        <v>-0.015490776473224423</v>
       </c>
       <c r="CY3">
-        <v>-0.067175598527494565</v>
+        <v>-0.045438879204486436</v>
       </c>
       <c r="CZ3">
-        <v>-0.07477984962393211</v>
+        <v>-0.080674862940883885</v>
       </c>
       <c r="DA3">
-        <v>-0.09076508571943738</v>
+        <v>-0.052049125495476259</v>
       </c>
       <c r="DB3">
-        <v>-0.088394020053004174</v>
+        <v>-0.038280737510862972</v>
       </c>
       <c r="DC3">
-        <v>-0.042392337722045863</v>
+        <v>-0.040782651765358773</v>
       </c>
       <c r="DD3">
-        <v>-0.089659516819272686</v>
+        <v>-0.03617060565810757</v>
       </c>
       <c r="DE3">
-        <v>-0.10869640969900456</v>
+        <v>-0.05749511694679707</v>
       </c>
       <c r="DF3">
-        <v>-0.10723254584088326</v>
+        <v>-0.075094511252745508</v>
       </c>
       <c r="DG3">
-        <v>-0.076262146251510413</v>
+        <v>-0.071009797542799694</v>
       </c>
       <c r="DH3">
-        <v>-0.068787737488801057</v>
+        <v>-0.06728118900657129</v>
       </c>
       <c r="DI3">
-        <v>-0.084468091981361682</v>
+        <v>-0.041513075889518809</v>
       </c>
       <c r="DJ3">
-        <v>-0.092904750055853136</v>
+        <v>-0.042475318151595325</v>
       </c>
       <c r="DK3">
-        <v>-0.095879153176176873</v>
+        <v>-0.044582745446473622</v>
       </c>
       <c r="DL3">
-        <v>-0.059540862175740138</v>
+        <v>-0.056133947289557985</v>
       </c>
       <c r="DM3">
-        <v>-0.10299860071502048</v>
+        <v>-0.041482600662036843</v>
       </c>
       <c r="DN3">
-        <v>-0.107774594450343</v>
+        <v>-0.01583456559563981</v>
       </c>
       <c r="DO3">
-        <v>-0.087626135022231724</v>
+        <v>-0.074582082354491847</v>
       </c>
       <c r="DP3">
-        <v>-0.057612727133240477</v>
+        <v>-0.058178707206325543</v>
       </c>
       <c r="DQ3">
-        <v>-0.096771267875838063</v>
+        <v>-0.061716080199694844</v>
       </c>
       <c r="DR3">
-        <v>-0.14780499953079099</v>
+        <v>-0.067662344578418923</v>
       </c>
       <c r="DS3">
-        <v>-0.054924154696898597</v>
+        <v>-0.061997090946693062</v>
       </c>
       <c r="DT3">
-        <v>-0.08750495002599544</v>
+        <v>-0.071968351937077332</v>
       </c>
       <c r="DU3">
-        <v>-0.086828948629845276</v>
+        <v>-0.084184546834021615</v>
       </c>
       <c r="DV3">
-        <v>-0.10784859538748558</v>
+        <v>-0.039285611315981711</v>
       </c>
       <c r="DW3">
-        <v>-0.11297405247032082</v>
+        <v>-0.029300809222715118</v>
       </c>
       <c r="DX3">
-        <v>-0.092947831592361654</v>
+        <v>-0.048657647611613265</v>
       </c>
       <c r="DY3">
-        <v>-0.12631510175501046</v>
+        <v>-0.088942467043434947</v>
       </c>
       <c r="DZ3">
-        <v>-0.11005099172472307</v>
+        <v>-0.052275488166765124</v>
       </c>
       <c r="EA3">
-        <v>-0.10638192925470417</v>
+        <v>-0.093115096612102016</v>
       </c>
       <c r="EB3">
-        <v>-0.11372976819375787</v>
+        <v>-0.082908610689250428</v>
       </c>
       <c r="EC3">
-        <v>-0.14905082106404691</v>
+        <v>-0.042434746339604007</v>
       </c>
       <c r="ED3">
-        <v>-0.095124824484708395</v>
+        <v>-0.0787803448644816</v>
       </c>
       <c r="EE3">
-        <v>-0.091801627554853785</v>
+        <v>-0.055044867931257693</v>
       </c>
       <c r="EF3">
-        <v>-0.080758446090302013</v>
+        <v>-0.042799829175204029</v>
       </c>
       <c r="EG3">
-        <v>-0.074140367286958261</v>
+        <v>-0.065518763099170971</v>
       </c>
       <c r="EH3">
-        <v>-0.073550407849953037</v>
+        <v>-0.068040805466690057</v>
       </c>
       <c r="EI3">
-        <v>-0.093067013503160073</v>
+        <v>-0.057295338252506448</v>
       </c>
       <c r="EJ3">
-        <v>-0.07616145983183753</v>
+        <v>-0.10100043079691134</v>
       </c>
       <c r="EK3">
-        <v>-0.099310790090472348</v>
+        <v>-0.066693042489357313</v>
       </c>
       <c r="EL3">
-        <v>-0.14252624237117853</v>
+        <v>-0.075286795747923255</v>
       </c>
       <c r="EM3">
-        <v>-0.12197593238248962</v>
+        <v>-0.027833538827802647</v>
       </c>
       <c r="EN3">
-        <v>-0.078014371478616618</v>
+        <v>-0.08456414536803479</v>
       </c>
       <c r="EO3">
-        <v>-0.12069992890361483</v>
+        <v>-0.081827265283029443</v>
       </c>
       <c r="EP3">
-        <v>-0.083191484110911831</v>
+        <v>-0.041101535861188303</v>
       </c>
       <c r="EQ3">
-        <v>-0.10465690422386609</v>
+        <v>-0.067064409992520627</v>
       </c>
       <c r="ER3">
-        <v>-0.11013203164620693</v>
+        <v>-0.10526178939193852</v>
       </c>
       <c r="ES3">
-        <v>-0.11970245855467822</v>
+        <v>-0.033011699629318707</v>
       </c>
       <c r="ET3">
-        <v>-0.084683859913283185</v>
+        <v>-0.082307504640687298</v>
       </c>
       <c r="EU3">
-        <v>-0.1079475041711845</v>
+        <v>-0.056322057215509119</v>
       </c>
       <c r="EV3">
-        <v>-0.12981042020447234</v>
+        <v>-0.11115297578081543</v>
       </c>
       <c r="EW3">
-        <v>-0.10163634226138404</v>
+        <v>-0.052147287192620184</v>
       </c>
       <c r="EX3">
-        <v>-0.13861548036684415</v>
+        <v>-0.045798768308217344</v>
       </c>
       <c r="EY3">
-        <v>-0.11367486265742466</v>
+        <v>-0.082868318614619255</v>
       </c>
       <c r="EZ3">
-        <v>-0.13660472895446532</v>
+        <v>-0.10964140174591072</v>
       </c>
       <c r="FA3">
-        <v>-0.14617385333485475</v>
+        <v>-0.062726190413072078</v>
       </c>
       <c r="FB3">
-        <v>-0.15358662780103621</v>
+        <v>-0.068040649641512616</v>
       </c>
       <c r="FC3">
-        <v>-0.11098992818537264</v>
+        <v>-0.086319331480234629</v>
       </c>
       <c r="FD3">
-        <v>-0.13286221949272878</v>
+        <v>-0.056744461215053568</v>
       </c>
       <c r="FE3">
-        <v>-0.13028809888243451</v>
+        <v>-0.043623887177884922</v>
       </c>
       <c r="FF3">
-        <v>-0.094833989718158096</v>
+        <v>-0.076239021020956574</v>
       </c>
       <c r="FG3">
-        <v>-0.12356818493686601</v>
+        <v>-0.089918090830014438</v>
       </c>
       <c r="FH3">
-        <v>-0.12379267329661531</v>
+        <v>-0.091098539754947971</v>
       </c>
       <c r="FI3">
-        <v>-0.089970395880937568</v>
+        <v>-0.12375349634287572</v>
       </c>
       <c r="FJ3">
-        <v>-0.11798155787864378</v>
+        <v>-0.078004054076914506</v>
       </c>
       <c r="FK3">
-        <v>-0.090988113075165189</v>
+        <v>-0.13716017435099553</v>
       </c>
       <c r="FL3">
-        <v>-0.10931143348157031</v>
+        <v>-0.094919418829685659</v>
       </c>
       <c r="FM3">
-        <v>-0.12822522150167942</v>
+        <v>-0.070359594315371948</v>
       </c>
       <c r="FN3">
-        <v>-0.1537245998820268</v>
+        <v>-0.082486477273039191</v>
       </c>
       <c r="FO3">
-        <v>-0.092605853557993625</v>
+        <v>-0.092487322947846701</v>
       </c>
       <c r="FP3">
-        <v>-0.10126649276588374</v>
+        <v>-0.11567608815434315</v>
       </c>
       <c r="FQ3">
-        <v>-0.093819051644260076</v>
+        <v>-0.07921298518988279</v>
       </c>
       <c r="FR3">
-        <v>-0.11961998488220246</v>
+        <v>-0.058310563083584885</v>
       </c>
       <c r="FS3">
-        <v>-0.12049799462161813</v>
+        <v>-0.045611102774043802</v>
       </c>
       <c r="FT3">
-        <v>-0.10714853307582291</v>
+        <v>-0.12216811149615135</v>
       </c>
       <c r="FU3">
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.3948327024147504</v>
+        <v>-5.4292000843339743</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -6569,535 +6569,535 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.024581934288551977</v>
+        <v>0.025352450157959873</v>
       </c>
       <c r="C4">
-        <v>0.01228579625805149</v>
+        <v>0.01267089211234923</v>
       </c>
       <c r="D4">
-        <v>0.014113184460701625</v>
+        <v>0.014555559436861085</v>
       </c>
       <c r="E4">
-        <v>0.013741183789538432</v>
+        <v>0.014171898478220224</v>
       </c>
       <c r="F4">
-        <v>0.013705667643226345</v>
+        <v>0.014135269085324998</v>
       </c>
       <c r="G4">
-        <v>0.015812824301148588</v>
+        <v>0.016308474152017648</v>
       </c>
       <c r="H4">
-        <v>0.018609273955166695</v>
+        <v>0.019192577967467008</v>
       </c>
       <c r="I4">
-        <v>0.017292053317244972</v>
+        <v>0.017834069309118718</v>
       </c>
       <c r="J4">
-        <v>0.014205198474744187</v>
+        <v>0.014650457611978827</v>
       </c>
       <c r="K4">
-        <v>0.011731121509508302</v>
+        <v>0.012098831193495132</v>
       </c>
       <c r="L4">
-        <v>0.0117586545755969</v>
+        <v>0.012127227278095851</v>
       </c>
       <c r="M4">
-        <v>0.011950779236159116</v>
+        <v>0.012325374048152385</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02755474250214578</v>
+        <v>0.02841844045716144</v>
       </c>
       <c r="P4">
-        <v>0.027554742502145783</v>
+        <v>0.02841844045716144</v>
       </c>
       <c r="Q4">
-        <v>0.027554742502145783</v>
+        <v>0.02841844045716144</v>
       </c>
       <c r="R4">
-        <v>0.027554742502145783</v>
+        <v>0.02841844045716144</v>
       </c>
       <c r="S4">
-        <v>0.027554742502145783</v>
+        <v>0.02841844045716144</v>
       </c>
       <c r="T4">
-        <v>0.027554742502145783</v>
+        <v>0.02841844045716144</v>
       </c>
       <c r="U4">
-        <v>0.027554742502145794</v>
+        <v>0.028418440457161451</v>
       </c>
       <c r="V4">
-        <v>0.027554742502145787</v>
+        <v>0.028418440457161444</v>
       </c>
       <c r="W4">
-        <v>0.02755474250214579</v>
+        <v>0.028418440457161447</v>
       </c>
       <c r="X4">
-        <v>0.02755474250214579</v>
+        <v>0.028418440457161447</v>
       </c>
       <c r="Y4">
-        <v>0.027554742502145797</v>
+        <v>0.028418440457161458</v>
       </c>
       <c r="Z4">
-        <v>0.027554742502145797</v>
+        <v>0.028418440457161458</v>
       </c>
       <c r="AA4">
-        <v>0.02755474250214579</v>
+        <v>0.028418440457161447</v>
       </c>
       <c r="AB4">
-        <v>0.027554742502145797</v>
+        <v>0.028418440457161458</v>
       </c>
       <c r="AC4">
-        <v>0.027554742502145797</v>
+        <v>0.028418440457161454</v>
       </c>
       <c r="AD4">
-        <v>0.027554742502145797</v>
+        <v>0.028418440457161454</v>
       </c>
       <c r="AE4">
-        <v>0.027554742502145794</v>
+        <v>0.028418440457161451</v>
       </c>
       <c r="AF4">
-        <v>0.027554742502145801</v>
+        <v>0.028418440457161461</v>
       </c>
       <c r="AG4">
-        <v>0.027554742502145804</v>
+        <v>0.028418440457161461</v>
       </c>
       <c r="AH4">
-        <v>0.027554742502145801</v>
+        <v>0.028418440457161461</v>
       </c>
       <c r="AI4">
-        <v>0.027554742502145808</v>
+        <v>0.028418440457161468</v>
       </c>
       <c r="AJ4">
-        <v>0.027554742502145808</v>
+        <v>0.028418440457161465</v>
       </c>
       <c r="AK4">
-        <v>0.027554742502145808</v>
+        <v>0.028418440457161465</v>
       </c>
       <c r="AL4">
-        <v>0.027554742502145808</v>
+        <v>0.028418440457161465</v>
       </c>
       <c r="AM4">
-        <v>0.027554742502145808</v>
+        <v>0.028418440457161465</v>
       </c>
       <c r="AN4">
-        <v>0.027554742502145804</v>
+        <v>0.028418440457161461</v>
       </c>
       <c r="AO4">
-        <v>0.027554742502145808</v>
+        <v>0.028418440457161465</v>
       </c>
       <c r="AP4">
-        <v>0.027554742502145804</v>
+        <v>0.028418440457161461</v>
       </c>
       <c r="AQ4">
-        <v>0.027554742502145808</v>
+        <v>0.028418440457161465</v>
       </c>
       <c r="AR4">
-        <v>0.027554742502145808</v>
+        <v>0.028418440457161465</v>
       </c>
       <c r="AS4">
-        <v>0.027554742502145811</v>
+        <v>0.028418440457161468</v>
       </c>
       <c r="AT4">
-        <v>0.027554742502145808</v>
+        <v>0.028418440457161465</v>
       </c>
       <c r="AU4">
-        <v>0.027554742502145815</v>
+        <v>0.028418440457161472</v>
       </c>
       <c r="AV4">
-        <v>0.027554742502145811</v>
+        <v>0.028418440457161468</v>
       </c>
       <c r="AW4">
-        <v>0.027554742502145815</v>
+        <v>0.028418440457161475</v>
       </c>
       <c r="AX4">
-        <v>0.027554742502145811</v>
+        <v>0.028418440457161468</v>
       </c>
       <c r="AY4">
-        <v>0.027554742502145811</v>
+        <v>0.028418440457161468</v>
       </c>
       <c r="AZ4">
-        <v>0.027554742502145811</v>
+        <v>0.028418440457161468</v>
       </c>
       <c r="BA4">
-        <v>0.027554742502145811</v>
+        <v>0.028418440457161468</v>
       </c>
       <c r="BB4">
-        <v>0.027554742502145815</v>
+        <v>0.028418440457161472</v>
       </c>
       <c r="BC4">
-        <v>0.027554742502145808</v>
+        <v>0.028418440457161465</v>
       </c>
       <c r="BD4">
-        <v>0.027554742502145804</v>
+        <v>0.028418440457161461</v>
       </c>
       <c r="BE4">
-        <v>0.02699567741068961</v>
+        <v>0.027841851580963903</v>
       </c>
       <c r="BF4">
-        <v>0.026995677410689613</v>
+        <v>0.027841851580963906</v>
       </c>
       <c r="BG4">
-        <v>0.026995677410689613</v>
+        <v>0.02784185158096391</v>
       </c>
       <c r="BH4">
-        <v>0.026995677410689613</v>
+        <v>0.027841851580963906</v>
       </c>
       <c r="BI4">
-        <v>0.026995677410689613</v>
+        <v>0.027841851580963906</v>
       </c>
       <c r="BJ4">
-        <v>0.02761199037253104</v>
+        <v>0.028477482750723648</v>
       </c>
       <c r="BK4">
-        <v>0.027611990372531044</v>
+        <v>0.028477482750723652</v>
       </c>
       <c r="BL4">
-        <v>0.02761199037253104</v>
+        <v>0.028477482750723648</v>
       </c>
       <c r="BM4">
-        <v>0.027611990372531051</v>
+        <v>0.028477482750723655</v>
       </c>
       <c r="BN4">
-        <v>0.02761199037253104</v>
+        <v>0.028477482750723648</v>
       </c>
       <c r="BO4">
-        <v>0.027606221335091396</v>
+        <v>0.028471532883946236</v>
       </c>
       <c r="BP4">
-        <v>0.027606221335091396</v>
+        <v>0.028471532883946236</v>
       </c>
       <c r="BQ4">
-        <v>0.027606221335091403</v>
+        <v>0.02847153288394624</v>
       </c>
       <c r="BR4">
-        <v>0.02760622133509141</v>
+        <v>0.02847153288394625</v>
       </c>
       <c r="BS4">
-        <v>0.027606221335091406</v>
+        <v>0.028471532883946247</v>
       </c>
       <c r="BT4">
-        <v>0.027311084844376169</v>
+        <v>0.028167145398290249</v>
       </c>
       <c r="BU4">
-        <v>0.027311084844376169</v>
+        <v>0.028167145398290249</v>
       </c>
       <c r="BV4">
-        <v>0.027311084844376169</v>
+        <v>0.028167145398290249</v>
       </c>
       <c r="BW4">
-        <v>0.027463457500835214</v>
+        <v>0.028324294145535615</v>
       </c>
       <c r="BX4">
-        <v>0.027463457500835214</v>
+        <v>0.028324294145535615</v>
       </c>
       <c r="BY4">
-        <v>0.02374044044880359</v>
+        <v>0.024484579860202766</v>
       </c>
       <c r="BZ4">
-        <v>0.028017656565323925</v>
+        <v>0.028895864470112612</v>
       </c>
       <c r="CA4">
-        <v>0.028017656565323928</v>
+        <v>0.028895864470112619</v>
       </c>
       <c r="CB4">
-        <v>0.027505732754679324</v>
+        <v>0.028367894508851903</v>
       </c>
       <c r="CC4">
-        <v>0.027505732754679314</v>
+        <v>0.028367894508851896</v>
       </c>
       <c r="CD4">
-        <v>0.027935803588639896</v>
+        <v>0.02881144582806015</v>
       </c>
       <c r="CE4">
-        <v>0.028110785578770951</v>
+        <v>0.028991912594070673</v>
       </c>
       <c r="CF4">
-        <v>0.028110785578770951</v>
+        <v>0.028991912594070673</v>
       </c>
       <c r="CG4">
-        <v>0.028110785578770947</v>
+        <v>0.028991912594070669</v>
       </c>
       <c r="CH4">
-        <v>0.028110785578770951</v>
+        <v>0.028991912594070673</v>
       </c>
       <c r="CI4">
-        <v>0.027794984031834322</v>
+        <v>0.028666212310092361</v>
       </c>
       <c r="CJ4">
-        <v>0.028052373473848497</v>
+        <v>0.028931669573269921</v>
       </c>
       <c r="CK4">
-        <v>0.028052373473848497</v>
+        <v>0.028931669573269921</v>
       </c>
       <c r="CL4">
-        <v>0.028052373473848497</v>
+        <v>0.028931669573269921</v>
       </c>
       <c r="CM4">
-        <v>0.028052373473848501</v>
+        <v>0.028931669573269925</v>
       </c>
       <c r="CN4">
-        <v>0.027521716221332152</v>
+        <v>0.02838437897410637</v>
       </c>
       <c r="CO4">
-        <v>0.025991042849212304</v>
+        <v>0.02680572694781496</v>
       </c>
       <c r="CP4">
-        <v>0.0259910428492123</v>
+        <v>0.026805726947814957</v>
       </c>
       <c r="CQ4">
-        <v>0.026349198447563258</v>
+        <v>0.027175108862574026</v>
       </c>
       <c r="CR4">
-        <v>0.026349198447563262</v>
+        <v>0.027175108862574029</v>
       </c>
       <c r="CS4">
         <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.027671118896868234</v>
+        <v>0.028538464646964034</v>
       </c>
       <c r="CU4">
-        <v>0.027671118896868234</v>
+        <v>0.028538464646964034</v>
       </c>
       <c r="CV4">
-        <v>0.02734349801835953</v>
+        <v>0.028200574556802693</v>
       </c>
       <c r="CW4">
-        <v>0.02734349801835953</v>
+        <v>0.028200574556802693</v>
       </c>
       <c r="CX4">
-        <v>0.02734349801835953</v>
+        <v>0.028200574556802693</v>
       </c>
       <c r="CY4">
-        <v>0.02727987050682619</v>
+        <v>0.028134952653502136</v>
       </c>
       <c r="CZ4">
-        <v>0.02727987050682619</v>
+        <v>0.028134952653502136</v>
       </c>
       <c r="DA4">
-        <v>0.0272798705068262</v>
+        <v>0.028134952653502143</v>
       </c>
       <c r="DB4">
-        <v>0.027279870506826193</v>
+        <v>0.028134952653502139</v>
       </c>
       <c r="DC4">
-        <v>0.0272798705068262</v>
+        <v>0.028134952653502143</v>
       </c>
       <c r="DD4">
-        <v>0.027225526302728072</v>
+        <v>0.028078905041072664</v>
       </c>
       <c r="DE4">
-        <v>0.027225526302728075</v>
+        <v>0.028078905041072667</v>
       </c>
       <c r="DF4">
-        <v>0.027225526302728075</v>
+        <v>0.028078905041072667</v>
       </c>
       <c r="DG4">
-        <v>0.027225526302728075</v>
+        <v>0.028078905041072667</v>
       </c>
       <c r="DH4">
-        <v>0.027225526302728075</v>
+        <v>0.028078905041072667</v>
       </c>
       <c r="DI4">
-        <v>0.025485429197545137</v>
+        <v>0.026284264936217053</v>
       </c>
       <c r="DJ4">
-        <v>0.025485429197545137</v>
+        <v>0.026284264936217053</v>
       </c>
       <c r="DK4">
-        <v>0.025485429197545137</v>
+        <v>0.026284264936217053</v>
       </c>
       <c r="DL4">
-        <v>0.025485429197545137</v>
+        <v>0.026284264936217053</v>
       </c>
       <c r="DM4">
-        <v>0.02548542919754514</v>
+        <v>0.026284264936217057</v>
       </c>
       <c r="DN4">
-        <v>0.02703855411675226</v>
+        <v>0.027886072248899586</v>
       </c>
       <c r="DO4">
-        <v>0.027038554116752263</v>
+        <v>0.02788607224889959</v>
       </c>
       <c r="DP4">
-        <v>0.02703855411675227</v>
+        <v>0.0278860722488996</v>
       </c>
       <c r="DQ4">
-        <v>0.027038554116752263</v>
+        <v>0.02788607224889959</v>
       </c>
       <c r="DR4">
-        <v>0.027038554116752274</v>
+        <v>0.027886072248899604</v>
       </c>
       <c r="DS4">
-        <v>0.02703855411675227</v>
+        <v>0.0278860722488996</v>
       </c>
       <c r="DT4">
-        <v>0.027038554116752281</v>
+        <v>0.027886072248899607</v>
       </c>
       <c r="DU4">
-        <v>0.02703855411675227</v>
+        <v>0.0278860722488996</v>
       </c>
       <c r="DV4">
-        <v>0.027038554116752284</v>
+        <v>0.027886072248899607</v>
       </c>
       <c r="DW4">
-        <v>0.027038554116752281</v>
+        <v>0.027886072248899607</v>
       </c>
       <c r="DX4">
-        <v>0.027038554116752284</v>
+        <v>0.027886072248899611</v>
       </c>
       <c r="DY4">
-        <v>0.027038554116752284</v>
+        <v>0.027886072248899611</v>
       </c>
       <c r="DZ4">
-        <v>0.027038554116752284</v>
+        <v>0.027886072248899611</v>
       </c>
       <c r="EA4">
-        <v>0.027038554116752284</v>
+        <v>0.027886072248899611</v>
       </c>
       <c r="EB4">
-        <v>0.027038554116752284</v>
+        <v>0.027886072248899611</v>
       </c>
       <c r="EC4">
-        <v>0.027038554116752284</v>
+        <v>0.027886072248899611</v>
       </c>
       <c r="ED4">
-        <v>0.027038554116752288</v>
+        <v>0.027886072248899611</v>
       </c>
       <c r="EE4">
-        <v>0.027038554116752288</v>
+        <v>0.027886072248899611</v>
       </c>
       <c r="EF4">
-        <v>0.027038554116752284</v>
+        <v>0.027886072248899611</v>
       </c>
       <c r="EG4">
-        <v>0.027038554116752288</v>
+        <v>0.027886072248899614</v>
       </c>
       <c r="EH4">
-        <v>0.027038554116752288</v>
+        <v>0.027886072248899614</v>
       </c>
       <c r="EI4">
-        <v>0.027038554116752288</v>
+        <v>0.027886072248899614</v>
       </c>
       <c r="EJ4">
-        <v>0.027038554116752295</v>
+        <v>0.027886072248899618</v>
       </c>
       <c r="EK4">
-        <v>0.027038554116752288</v>
+        <v>0.027886072248899614</v>
       </c>
       <c r="EL4">
-        <v>0.027038554116752295</v>
+        <v>0.027886072248899618</v>
       </c>
       <c r="EM4">
-        <v>0.027038554116752295</v>
+        <v>0.027886072248899618</v>
       </c>
       <c r="EN4">
-        <v>0.027038554116752295</v>
+        <v>0.027886072248899618</v>
       </c>
       <c r="EO4">
-        <v>0.027038554116752295</v>
+        <v>0.027886072248899618</v>
       </c>
       <c r="EP4">
-        <v>0.027038554116752295</v>
+        <v>0.027886072248899618</v>
       </c>
       <c r="EQ4">
-        <v>0.027038554116752295</v>
+        <v>0.027886072248899618</v>
       </c>
       <c r="ER4">
-        <v>0.027038554116752295</v>
+        <v>0.027886072248899618</v>
       </c>
       <c r="ES4">
-        <v>0.027038554116752295</v>
+        <v>0.027886072248899618</v>
       </c>
       <c r="ET4">
-        <v>0.027038554116752295</v>
+        <v>0.027886072248899618</v>
       </c>
       <c r="EU4">
-        <v>0.027038554116752295</v>
+        <v>0.027886072248899618</v>
       </c>
       <c r="EV4">
-        <v>0.027038554116752295</v>
+        <v>0.027886072248899618</v>
       </c>
       <c r="EW4">
-        <v>0.027038554116752295</v>
+        <v>0.027886072248899618</v>
       </c>
       <c r="EX4">
-        <v>0.027038554116752295</v>
+        <v>0.027886072248899618</v>
       </c>
       <c r="EY4">
-        <v>0.027038554116752298</v>
+        <v>0.027886072248899624</v>
       </c>
       <c r="EZ4">
-        <v>0.027038554116752298</v>
+        <v>0.027886072248899624</v>
       </c>
       <c r="FA4">
-        <v>0.027038554116752298</v>
+        <v>0.027886072248899624</v>
       </c>
       <c r="FB4">
-        <v>0.027038554116752298</v>
+        <v>0.027886072248899624</v>
       </c>
       <c r="FC4">
-        <v>0.027038554116752298</v>
+        <v>0.027886072248899624</v>
       </c>
       <c r="FD4">
-        <v>0.027038554116752302</v>
+        <v>0.027886072248899628</v>
       </c>
       <c r="FE4">
-        <v>0.027038554116752298</v>
+        <v>0.027886072248899624</v>
       </c>
       <c r="FF4">
-        <v>0.027038554116752302</v>
+        <v>0.027886072248899628</v>
       </c>
       <c r="FG4">
-        <v>0.027038554116752298</v>
+        <v>0.027886072248899624</v>
       </c>
       <c r="FH4">
-        <v>0.027038554116752305</v>
+        <v>0.027886072248899631</v>
       </c>
       <c r="FI4">
-        <v>0.027038554116752298</v>
+        <v>0.027886072248899624</v>
       </c>
       <c r="FJ4">
-        <v>0.027038554116752305</v>
+        <v>0.027886072248899631</v>
       </c>
       <c r="FK4">
-        <v>0.027038554116752302</v>
+        <v>0.027886072248899628</v>
       </c>
       <c r="FL4">
-        <v>0.027038554116752305</v>
+        <v>0.027886072248899631</v>
       </c>
       <c r="FM4">
-        <v>0.027038554116752309</v>
+        <v>0.027886072248899635</v>
       </c>
       <c r="FN4">
-        <v>0.027038554116752312</v>
+        <v>0.027886072248899638</v>
       </c>
       <c r="FO4">
-        <v>0.027038554116752312</v>
+        <v>0.027886072248899638</v>
       </c>
       <c r="FP4">
-        <v>0.027038554116752309</v>
+        <v>0.027886072248899635</v>
       </c>
       <c r="FQ4">
-        <v>0.027038554116752316</v>
+        <v>0.027886072248899642</v>
       </c>
       <c r="FR4">
-        <v>0.027038554116752316</v>
+        <v>0.027886072248899642</v>
       </c>
       <c r="FS4">
-        <v>0.027038554116752312</v>
+        <v>0.027886072248899638</v>
       </c>
       <c r="FT4">
-        <v>0.027038554116752316</v>
+        <v>0.027886072248899642</v>
       </c>
       <c r="FU4">
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.021951396190300725</v>
+        <v>0.022639458363185296</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -8186,535 +8186,535 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>1.0658605342964831</v>
+        <v>1.1425173126011556</v>
       </c>
       <c r="C3">
-        <v>-1.7008704131518992</v>
+        <v>-1.7007410229144317</v>
       </c>
       <c r="D3">
-        <v>-1.7564632643625491</v>
+        <v>-1.7393839619636409</v>
       </c>
       <c r="E3">
-        <v>-1.7247000815865037</v>
+        <v>-1.7274057028949517</v>
       </c>
       <c r="F3">
-        <v>-1.7359566561944038</v>
+        <v>-1.7216953959328791</v>
       </c>
       <c r="G3">
-        <v>-1.7548689905395585</v>
+        <v>-1.709085238508961</v>
       </c>
       <c r="H3">
-        <v>-1.703931036316336</v>
+        <v>-1.7123239107341985</v>
       </c>
       <c r="I3">
-        <v>0.86503293240380796</v>
+        <v>0.8786669788486301</v>
       </c>
       <c r="J3">
-        <v>0.78699911848821158</v>
+        <v>0.76579898691590731</v>
       </c>
       <c r="K3">
-        <v>0.61547845680585</v>
+        <v>0.60756338032699897</v>
       </c>
       <c r="L3">
-        <v>0.46051876924542751</v>
+        <v>0.45824194914174421</v>
       </c>
       <c r="M3">
-        <v>0.32648990362366076</v>
+        <v>0.33867558129520042</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.2314691097914015</v>
+        <v>1.3316893930135802</v>
       </c>
       <c r="P3">
-        <v>1.3665302231233203</v>
+        <v>1.4461864931610233</v>
       </c>
       <c r="Q3">
-        <v>-0.224445614348012</v>
+        <v>-0.087332565938863266</v>
       </c>
       <c r="R3">
-        <v>-0.15059544483193463</v>
+        <v>-0.16179435150615701</v>
       </c>
       <c r="S3">
-        <v>-0.1774698670710381</v>
+        <v>-0.094019432936810171</v>
       </c>
       <c r="T3">
-        <v>-0.1933107214088253</v>
+        <v>-0.089228212639420143</v>
       </c>
       <c r="U3">
-        <v>-0.20772295989928044</v>
+        <v>-0.15788471589630498</v>
       </c>
       <c r="V3">
-        <v>-0.16849072611334781</v>
+        <v>-0.08262961570223952</v>
       </c>
       <c r="W3">
-        <v>-0.10111497238811151</v>
+        <v>-0.073108393222385812</v>
       </c>
       <c r="X3">
-        <v>-0.11746688373223425</v>
+        <v>-0.076738822998736023</v>
       </c>
       <c r="Y3">
-        <v>-0.14116086110194484</v>
+        <v>0.020342625431857917</v>
       </c>
       <c r="Z3">
-        <v>-0.06781287464125979</v>
+        <v>-0.001001799355093268</v>
       </c>
       <c r="AA3">
-        <v>-0.066161226361154013</v>
+        <v>0.022225190413084135</v>
       </c>
       <c r="AB3">
-        <v>-0.078617679404221735</v>
+        <v>-0.00050538075508520675</v>
       </c>
       <c r="AC3">
-        <v>-0.096948954432321266</v>
+        <v>0.025826228683652086</v>
       </c>
       <c r="AD3">
-        <v>-0.054470180224438614</v>
+        <v>-0.0028847237736972634</v>
       </c>
       <c r="AE3">
-        <v>-0.073985023706922254</v>
+        <v>0.036537524708487652</v>
       </c>
       <c r="AF3">
-        <v>-0.032542841172555043</v>
+        <v>0.070162988792869724</v>
       </c>
       <c r="AG3">
-        <v>-0.11344712536406105</v>
+        <v>0.090752818210842467</v>
       </c>
       <c r="AH3">
-        <v>-0.031672193878516483</v>
+        <v>0.049133184770002454</v>
       </c>
       <c r="AI3">
-        <v>-0.032866606629692791</v>
+        <v>0.053704253561239618</v>
       </c>
       <c r="AJ3">
-        <v>-0.045284803009704201</v>
+        <v>0.056284437043896809</v>
       </c>
       <c r="AK3">
-        <v>-0.028806780138189981</v>
+        <v>0.040835431516024201</v>
       </c>
       <c r="AL3">
-        <v>-0.012433979731891873</v>
+        <v>0.0067469328239032995</v>
       </c>
       <c r="AM3">
-        <v>0.033469533961706835</v>
+        <v>0.096026515679549562</v>
       </c>
       <c r="AN3">
-        <v>0.031230580783794176</v>
+        <v>0.046552922274684931</v>
       </c>
       <c r="AO3">
-        <v>0.024132068503629558</v>
+        <v>0.042076249604140414</v>
       </c>
       <c r="AP3">
-        <v>-0.007076755675205406</v>
+        <v>0.068490955868301895</v>
       </c>
       <c r="AQ3">
-        <v>-0.018897726344814274</v>
+        <v>0.093029143806733383</v>
       </c>
       <c r="AR3">
-        <v>0.054224883754534249</v>
+        <v>0.11634885295285657</v>
       </c>
       <c r="AS3">
-        <v>-0.054819153630446378</v>
+        <v>0.090744489453943741</v>
       </c>
       <c r="AT3">
-        <v>-0.0025110426541174614</v>
+        <v>0.063855558116584318</v>
       </c>
       <c r="AU3">
-        <v>0.0070467585012081915</v>
+        <v>0.071591896717214512</v>
       </c>
       <c r="AV3">
-        <v>-0.032917048162584124</v>
+        <v>0.063040672505276438</v>
       </c>
       <c r="AW3">
-        <v>0.040147655599624327</v>
+        <v>0.097742473635162128</v>
       </c>
       <c r="AX3">
-        <v>-0.038427465062631838</v>
+        <v>0.12694265143432948</v>
       </c>
       <c r="AY3">
-        <v>-0.056354105544526988</v>
+        <v>0.090464414092294929</v>
       </c>
       <c r="AZ3">
-        <v>0.031265294614807836</v>
+        <v>0.11369155887353316</v>
       </c>
       <c r="BA3">
-        <v>-0.011469601593852763</v>
+        <v>0.054323127849089978</v>
       </c>
       <c r="BB3">
-        <v>0.023094615024697843</v>
+        <v>0.057335143213045406</v>
       </c>
       <c r="BC3">
-        <v>0.049934494478400204</v>
+        <v>0.13456250463487912</v>
       </c>
       <c r="BD3">
-        <v>0.015006795878993628</v>
+        <v>0.13166050247298294</v>
       </c>
       <c r="BE3">
-        <v>0.03578008205111493</v>
+        <v>0.10563403228806209</v>
       </c>
       <c r="BF3">
-        <v>0.054825350661120799</v>
+        <v>0.080012215471358047</v>
       </c>
       <c r="BG3">
-        <v>0.024156786177267194</v>
+        <v>0.059120460029680695</v>
       </c>
       <c r="BH3">
-        <v>0.035783468642451466</v>
+        <v>0.13849965296920488</v>
       </c>
       <c r="BI3">
-        <v>0.023387092439372901</v>
+        <v>0.064459238912838848</v>
       </c>
       <c r="BJ3">
-        <v>0.051794700171886081</v>
+        <v>0.094884719706445589</v>
       </c>
       <c r="BK3">
-        <v>-0.0095140682932720513</v>
+        <v>0.12536242877172596</v>
       </c>
       <c r="BL3">
-        <v>0.06460633683984468</v>
+        <v>0.098594981365826354</v>
       </c>
       <c r="BM3">
-        <v>-0.011394768511369266</v>
+        <v>0.096808213587705791</v>
       </c>
       <c r="BN3">
-        <v>0.035370447435531999</v>
+        <v>0.091194971520500503</v>
       </c>
       <c r="BO3">
-        <v>-0.0034251690745578682</v>
+        <v>0.10927722761916296</v>
       </c>
       <c r="BP3">
-        <v>0.065352057353720391</v>
+        <v>0.072609402564135408</v>
       </c>
       <c r="BQ3">
-        <v>0.057627694348012355</v>
+        <v>0.048293757550065881</v>
       </c>
       <c r="BR3">
-        <v>0.022552723798759597</v>
+        <v>0.12291636101853722</v>
       </c>
       <c r="BS3">
-        <v>-0.022270029291822941</v>
+        <v>0.080064381569676379</v>
       </c>
       <c r="BT3">
-        <v>-0.0073575389250164326</v>
+        <v>0.054350596374053532</v>
       </c>
       <c r="BU3">
-        <v>-0.0029131235098644784</v>
+        <v>0.031081608675272404</v>
       </c>
       <c r="BV3">
-        <v>-0.047663939895935474</v>
+        <v>0.032264076850164032</v>
       </c>
       <c r="BW3">
-        <v>0.028016266523928347</v>
+        <v>0.07765558216658773</v>
       </c>
       <c r="BX3">
-        <v>0.024316450808083784</v>
+        <v>0.1015414798246195</v>
       </c>
       <c r="BY3">
-        <v>0.03856756932125955</v>
+        <v>0.018152841867043273</v>
       </c>
       <c r="BZ3">
-        <v>0.073026953391756563</v>
+        <v>0.14396151018643069</v>
       </c>
       <c r="CA3">
-        <v>0.040782483315602414</v>
+        <v>0.11629012028356982</v>
       </c>
       <c r="CB3">
-        <v>0.084433728817610521</v>
+        <v>0.17449737963285081</v>
       </c>
       <c r="CC3">
-        <v>-0.01413404456013528</v>
+        <v>0.082997205018013789</v>
       </c>
       <c r="CD3">
-        <v>-0.05850319068267372</v>
+        <v>0.059401330754422686</v>
       </c>
       <c r="CE3">
-        <v>0.040794428987147469</v>
+        <v>0.12802798013815522</v>
       </c>
       <c r="CF3">
-        <v>0.0294808872432029</v>
+        <v>0.11728075809450632</v>
       </c>
       <c r="CG3">
-        <v>-0.01832272739179908</v>
+        <v>0.061902145128739601</v>
       </c>
       <c r="CH3">
-        <v>-0.030880971399542542</v>
+        <v>0.040363209904543548</v>
       </c>
       <c r="CI3">
-        <v>-0.038212388147118061</v>
+        <v>0.013471008610727822</v>
       </c>
       <c r="CJ3">
-        <v>0.011191126921712797</v>
+        <v>0.084293914513231621</v>
       </c>
       <c r="CK3">
-        <v>0.01810760608046779</v>
+        <v>0.10529151725655005</v>
       </c>
       <c r="CL3">
-        <v>-0.054753232620537808</v>
+        <v>0.045991372922132623</v>
       </c>
       <c r="CM3">
-        <v>-0.082444998256568203</v>
+        <v>0.088118342192513341</v>
       </c>
       <c r="CN3">
-        <v>-0.055977965976163876</v>
+        <v>-0.044434263286517575</v>
       </c>
       <c r="CO3">
-        <v>0.014307159435060906</v>
+        <v>0.091662544978680885</v>
       </c>
       <c r="CP3">
-        <v>-0.020776631503498639</v>
+        <v>0.040199873602301761</v>
       </c>
       <c r="CQ3">
-        <v>-0.015554084950063156</v>
+        <v>0.032907078757286656</v>
       </c>
       <c r="CR3">
-        <v>-0.1107789228053281</v>
+        <v>0.041468772698804918</v>
       </c>
       <c r="CS3">
         <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.21326315478649926</v>
+        <v>0.27858680981464817</v>
       </c>
       <c r="CU3">
-        <v>0.19375476539139339</v>
+        <v>0.2545740112725049</v>
       </c>
       <c r="CV3">
-        <v>0.18803639639560241</v>
+        <v>0.27612055469209995</v>
       </c>
       <c r="CW3">
-        <v>0.14825280532711063</v>
+        <v>0.21061647913649401</v>
       </c>
       <c r="CX3">
-        <v>0.10079903184192238</v>
+        <v>0.23514254559848927</v>
       </c>
       <c r="CY3">
-        <v>0.19468076065431469</v>
+        <v>0.23841436067933933</v>
       </c>
       <c r="CZ3">
-        <v>0.15554492275762474</v>
+        <v>0.21295390825092914</v>
       </c>
       <c r="DA3">
-        <v>0.11097123824323835</v>
+        <v>0.20160676096690705</v>
       </c>
       <c r="DB3">
-        <v>0.09679879842291006</v>
+        <v>0.18949025319282095</v>
       </c>
       <c r="DC3">
-        <v>0.098272395602204812</v>
+        <v>0.15402970261732171</v>
       </c>
       <c r="DD3">
-        <v>0.11973923617766015</v>
+        <v>0.22394760408844205</v>
       </c>
       <c r="DE3">
-        <v>0.087030032085937264</v>
+        <v>0.1779424142700099</v>
       </c>
       <c r="DF3">
-        <v>0.064594292402836206</v>
+        <v>0.14255072688143758</v>
       </c>
       <c r="DG3">
-        <v>0.068224036038121785</v>
+        <v>0.1326386877841623</v>
       </c>
       <c r="DH3">
-        <v>0.060767833732396186</v>
+        <v>0.11435149567169253</v>
       </c>
       <c r="DI3">
-        <v>0.093249422823356021</v>
+        <v>0.17060096604836303</v>
       </c>
       <c r="DJ3">
-        <v>0.076130169501276629</v>
+        <v>0.1569086211781783</v>
       </c>
       <c r="DK3">
-        <v>0.054884317892766453</v>
+        <v>0.1427514664756348</v>
       </c>
       <c r="DL3">
-        <v>0.066465382552387278</v>
+        <v>0.11842311939947402</v>
       </c>
       <c r="DM3">
-        <v>0.014252277352940396</v>
+        <v>0.10642931528560619</v>
       </c>
       <c r="DN3">
-        <v>0.16311802948037926</v>
+        <v>0.29376712055991611</v>
       </c>
       <c r="DO3">
-        <v>0.16542916961448123</v>
+        <v>0.23623758327626609</v>
       </c>
       <c r="DP3">
-        <v>0.17483484562878293</v>
+        <v>0.23587114791690722</v>
       </c>
       <c r="DQ3">
-        <v>0.13774454122633858</v>
+        <v>0.21776414133102584</v>
       </c>
       <c r="DR3">
-        <v>0.074699794295172511</v>
+        <v>0.20255092141291639</v>
       </c>
       <c r="DS3">
-        <v>0.14881275080672107</v>
+        <v>0.19496376281949415</v>
       </c>
       <c r="DT3">
-        <v>0.11063064948189379</v>
+        <v>0.17903664188339655</v>
       </c>
       <c r="DU3">
-        <v>0.11099745400511594</v>
+        <v>0.16454056515326626</v>
       </c>
       <c r="DV3">
-        <v>0.081306487933916177</v>
+        <v>0.18437657818046002</v>
       </c>
       <c r="DW3">
-        <v>0.076641892787367383</v>
+        <v>0.19068744882461333</v>
       </c>
       <c r="DX3">
-        <v>0.085320538477355962</v>
+        <v>0.16827065247675355</v>
       </c>
       <c r="DY3">
-        <v>0.041179767841910374</v>
+        <v>0.12659650278366752</v>
       </c>
       <c r="DZ3">
-        <v>0.048555787478473431</v>
+        <v>0.15673903761680513</v>
       </c>
       <c r="EA3">
-        <v>0.04042466766982291</v>
+        <v>0.10469499691543296</v>
       </c>
       <c r="EB3">
-        <v>0.041708102590157774</v>
+        <v>0.11254434442562725</v>
       </c>
       <c r="EC3">
-        <v>-0.00072575848070888704</v>
+        <v>0.14125140520196677</v>
       </c>
       <c r="ED3">
-        <v>0.044564200049650379</v>
+        <v>0.10311013437172772</v>
       </c>
       <c r="EE3">
-        <v>0.033702167494784149</v>
+        <v>0.12758100537026318</v>
       </c>
       <c r="EF3">
-        <v>0.048861984972598076</v>
+        <v>0.13225359844287132</v>
       </c>
       <c r="EG3">
-        <v>0.044695418523495158</v>
+        <v>0.10474704218281644</v>
       </c>
       <c r="EH3">
-        <v>0.052019579182291484</v>
+        <v>0.10586146364870894</v>
       </c>
       <c r="EI3">
-        <v>0.019925219200574325</v>
+        <v>0.1027427336206732</v>
       </c>
       <c r="EJ3">
-        <v>0.032850055858718287</v>
+        <v>0.062251555428109492</v>
       </c>
       <c r="EK3">
-        <v>0.01291885912606148</v>
+        <v>0.09025582145445693</v>
       </c>
       <c r="EL3">
-        <v>-0.029884699924424354</v>
+        <v>0.082742490521325748</v>
       </c>
       <c r="EM3">
-        <v>-0.013286571447901378</v>
+        <v>0.12362791758779704</v>
       </c>
       <c r="EN3">
-        <v>0.025603922980241518</v>
+        <v>0.063514357281187747</v>
       </c>
       <c r="EO3">
-        <v>-0.019833697967611138</v>
+        <v>0.068190715175354841</v>
       </c>
       <c r="EP3">
-        <v>0.012372839519502611</v>
+        <v>0.10168261580003324</v>
       </c>
       <c r="EQ3">
-        <v>-0.0090337380465727087</v>
+        <v>0.081914541398328891</v>
       </c>
       <c r="ER3">
-        <v>-0.01385528695637003</v>
+        <v>0.039961733625174058</v>
       </c>
       <c r="ES3">
-        <v>-0.025449642890421256</v>
+        <v>0.10364705620363983</v>
       </c>
       <c r="ET3">
-        <v>0.0043670478794473376</v>
+        <v>0.056473167820754726</v>
       </c>
       <c r="EU3">
-        <v>-0.013181891891278002</v>
+        <v>0.079600348909891885</v>
       </c>
       <c r="EV3">
-        <v>-0.041984541319285154</v>
+        <v>0.024473734926915305</v>
       </c>
       <c r="EW3">
-        <v>-0.015194706946406771</v>
+        <v>0.083488354843270857</v>
       </c>
       <c r="EX3">
-        <v>-0.055181168120195606</v>
+        <v>0.08424876575306052</v>
       </c>
       <c r="EY3">
-        <v>-0.028672151523157632</v>
+        <v>0.044320074477044745</v>
       </c>
       <c r="EZ3">
-        <v>-0.051294380343234899</v>
+        <v>0.017051254629342667</v>
       </c>
       <c r="FA3">
-        <v>-0.063787639872748395</v>
+        <v>0.06626673051188256</v>
       </c>
       <c r="FB3">
-        <v>-0.073149314919502467</v>
+        <v>0.058427662225228064</v>
       </c>
       <c r="FC3">
-        <v>-0.032583170389280242</v>
+        <v>0.038392062155691388</v>
       </c>
       <c r="FD3">
-        <v>-0.052748356329912996</v>
+        <v>0.072347992402937975</v>
       </c>
       <c r="FE3">
-        <v>-0.053031328157836087</v>
+        <v>0.080004576722086329</v>
       </c>
       <c r="FF3">
-        <v>-0.018493675895354528</v>
+        <v>0.046007800347444762</v>
       </c>
       <c r="FG3">
-        <v>-0.04621970347022808</v>
+        <v>0.035358256158266807</v>
       </c>
       <c r="FH3">
-        <v>-0.048363340266942854</v>
+        <v>0.032986458553745865</v>
       </c>
       <c r="FI3">
-        <v>-0.016717923698964816</v>
+        <v>-0.003563177192709269</v>
       </c>
       <c r="FJ3">
-        <v>-0.042412451249697496</v>
+        <v>0.039653507097571296</v>
       </c>
       <c r="FK3">
-        <v>-0.015451546844822309</v>
+        <v>-0.015615566617297721</v>
       </c>
       <c r="FL3">
-        <v>-0.037798181438087504</v>
+        <v>0.025671062089179894</v>
       </c>
       <c r="FM3">
-        <v>-0.057861667265334218</v>
+        <v>0.049812724086808813</v>
       </c>
       <c r="FN3">
-        <v>-0.084279061905311869</v>
+        <v>0.037913555393453847</v>
       </c>
       <c r="FO3">
-        <v>-0.020593651778431012</v>
+        <v>0.026220422343322312</v>
       </c>
       <c r="FP3">
-        <v>-0.029302212816587313</v>
+        <v>0.00013906045511574225</v>
       </c>
       <c r="FQ3">
-        <v>-0.024187858336712702</v>
+        <v>0.036157108593471765</v>
       </c>
       <c r="FR3">
-        <v>-0.048718115697850665</v>
+        <v>0.056254154712008606</v>
       </c>
       <c r="FS3">
-        <v>-0.050970658845625058</v>
+        <v>0.070791199512888314</v>
       </c>
       <c r="FT3">
-        <v>-0.039589345744983483</v>
+        <v>-0.007328426881213458</v>
       </c>
       <c r="FU3">
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.4564849969222049</v>
+        <v>-5.5380677762618795</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -8728,535 +8728,535 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.067616469055126138</v>
+        <v>0.066996593730657056</v>
       </c>
       <c r="C4">
-        <v>0.033794011193293186</v>
+        <v>0.033484203923758366</v>
       </c>
       <c r="D4">
-        <v>0.038820529302315193</v>
+        <v>0.038464641328074547</v>
       </c>
       <c r="E4">
-        <v>0.037797283060789506</v>
+        <v>0.037450775716813073</v>
       </c>
       <c r="F4">
-        <v>0.037699590325145554</v>
+        <v>0.037353978581265539</v>
       </c>
       <c r="G4">
-        <v>0.043495655487562651</v>
+        <v>0.043096908201064044</v>
       </c>
       <c r="H4">
-        <v>0.051187729238780531</v>
+        <v>0.050718464713227503</v>
       </c>
       <c r="I4">
-        <v>0.047564507101038246</v>
+        <v>0.04712845853647285</v>
       </c>
       <c r="J4">
-        <v>0.039073628292008784</v>
+        <v>0.038715420027747804</v>
       </c>
       <c r="K4">
-        <v>0.032268291226333679</v>
+        <v>0.031972471024931573</v>
       </c>
       <c r="L4">
-        <v>0.032344025246664188</v>
+        <v>0.032047510752124905</v>
       </c>
       <c r="M4">
-        <v>0.032872494284663434</v>
+        <v>0.032571135039710833</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.075793644708667077</v>
+        <v>0.07509880496380883</v>
       </c>
       <c r="P4">
-        <v>0.075793644708667077</v>
+        <v>0.07509880496380883</v>
       </c>
       <c r="Q4">
-        <v>0.075793644708667077</v>
+        <v>0.07509880496380883</v>
       </c>
       <c r="R4">
-        <v>0.075793644708667077</v>
+        <v>0.07509880496380883</v>
       </c>
       <c r="S4">
-        <v>0.075793644708667077</v>
+        <v>0.07509880496380883</v>
       </c>
       <c r="T4">
-        <v>0.075793644708667077</v>
+        <v>0.07509880496380883</v>
       </c>
       <c r="U4">
-        <v>0.075793644708667118</v>
+        <v>0.075098804963808871</v>
       </c>
       <c r="V4">
-        <v>0.075793644708667091</v>
+        <v>0.075098804963808843</v>
       </c>
       <c r="W4">
-        <v>0.075793644708667104</v>
+        <v>0.075098804963808857</v>
       </c>
       <c r="X4">
-        <v>0.075793644708667104</v>
+        <v>0.075098804963808857</v>
       </c>
       <c r="Y4">
-        <v>0.075793644708667118</v>
+        <v>0.075098804963808885</v>
       </c>
       <c r="Z4">
-        <v>0.075793644708667118</v>
+        <v>0.075098804963808885</v>
       </c>
       <c r="AA4">
-        <v>0.075793644708667104</v>
+        <v>0.075098804963808857</v>
       </c>
       <c r="AB4">
-        <v>0.075793644708667118</v>
+        <v>0.075098804963808885</v>
       </c>
       <c r="AC4">
-        <v>0.075793644708667118</v>
+        <v>0.075098804963808871</v>
       </c>
       <c r="AD4">
-        <v>0.075793644708667118</v>
+        <v>0.075098804963808871</v>
       </c>
       <c r="AE4">
-        <v>0.075793644708667118</v>
+        <v>0.075098804963808871</v>
       </c>
       <c r="AF4">
-        <v>0.075793644708667118</v>
+        <v>0.075098804963808885</v>
       </c>
       <c r="AG4">
-        <v>0.075793644708667132</v>
+        <v>0.075098804963808899</v>
       </c>
       <c r="AH4">
-        <v>0.075793644708667118</v>
+        <v>0.075098804963808885</v>
       </c>
       <c r="AI4">
-        <v>0.075793644708667146</v>
+        <v>0.075098804963808899</v>
       </c>
       <c r="AJ4">
-        <v>0.075793644708667146</v>
+        <v>0.075098804963808899</v>
       </c>
       <c r="AK4">
-        <v>0.075793644708667146</v>
+        <v>0.075098804963808899</v>
       </c>
       <c r="AL4">
-        <v>0.075793644708667146</v>
+        <v>0.075098804963808899</v>
       </c>
       <c r="AM4">
-        <v>0.075793644708667146</v>
+        <v>0.075098804963808899</v>
       </c>
       <c r="AN4">
-        <v>0.075793644708667132</v>
+        <v>0.075098804963808899</v>
       </c>
       <c r="AO4">
-        <v>0.075793644708667146</v>
+        <v>0.075098804963808899</v>
       </c>
       <c r="AP4">
-        <v>0.075793644708667132</v>
+        <v>0.075098804963808899</v>
       </c>
       <c r="AQ4">
-        <v>0.075793644708667146</v>
+        <v>0.075098804963808899</v>
       </c>
       <c r="AR4">
-        <v>0.075793644708667146</v>
+        <v>0.075098804963808899</v>
       </c>
       <c r="AS4">
-        <v>0.07579364470866716</v>
+        <v>0.075098804963808913</v>
       </c>
       <c r="AT4">
-        <v>0.075793644708667146</v>
+        <v>0.075098804963808899</v>
       </c>
       <c r="AU4">
-        <v>0.07579364470866716</v>
+        <v>0.075098804963808927</v>
       </c>
       <c r="AV4">
-        <v>0.07579364470866716</v>
+        <v>0.075098804963808913</v>
       </c>
       <c r="AW4">
-        <v>0.075793644708667174</v>
+        <v>0.075098804963808927</v>
       </c>
       <c r="AX4">
-        <v>0.07579364470866716</v>
+        <v>0.075098804963808913</v>
       </c>
       <c r="AY4">
-        <v>0.07579364470866716</v>
+        <v>0.075098804963808913</v>
       </c>
       <c r="AZ4">
-        <v>0.07579364470866716</v>
+        <v>0.075098804963808913</v>
       </c>
       <c r="BA4">
-        <v>0.07579364470866716</v>
+        <v>0.075098804963808913</v>
       </c>
       <c r="BB4">
-        <v>0.07579364470866716</v>
+        <v>0.075098804963808927</v>
       </c>
       <c r="BC4">
-        <v>0.075793644708667146</v>
+        <v>0.075098804963808899</v>
       </c>
       <c r="BD4">
-        <v>0.075793644708667132</v>
+        <v>0.075098804963808899</v>
       </c>
       <c r="BE4">
-        <v>0.074255848414343226</v>
+        <v>0.073575106447588939</v>
       </c>
       <c r="BF4">
-        <v>0.07425584841434324</v>
+        <v>0.073575106447588939</v>
       </c>
       <c r="BG4">
-        <v>0.07425584841434324</v>
+        <v>0.073575106447588939</v>
       </c>
       <c r="BH4">
-        <v>0.07425584841434324</v>
+        <v>0.073575106447588939</v>
       </c>
       <c r="BI4">
-        <v>0.07425584841434324</v>
+        <v>0.073575106447588939</v>
       </c>
       <c r="BJ4">
-        <v>0.07595111396275174</v>
+        <v>0.075254830615375745</v>
       </c>
       <c r="BK4">
-        <v>0.075951113962751754</v>
+        <v>0.075254830615375759</v>
       </c>
       <c r="BL4">
-        <v>0.075951113962751754</v>
+        <v>0.075254830615375745</v>
       </c>
       <c r="BM4">
-        <v>0.075951113962751768</v>
+        <v>0.075254830615375773</v>
       </c>
       <c r="BN4">
-        <v>0.075951113962751754</v>
+        <v>0.075254830615375745</v>
       </c>
       <c r="BO4">
-        <v>0.075935245319668707</v>
+        <v>0.075239107448393697</v>
       </c>
       <c r="BP4">
-        <v>0.075935245319668707</v>
+        <v>0.075239107448393697</v>
       </c>
       <c r="BQ4">
-        <v>0.075935245319668734</v>
+        <v>0.075239107448393711</v>
       </c>
       <c r="BR4">
-        <v>0.075935245319668762</v>
+        <v>0.075239107448393738</v>
       </c>
       <c r="BS4">
-        <v>0.075935245319668748</v>
+        <v>0.075239107448393724</v>
       </c>
       <c r="BT4">
-        <v>0.075123426072361624</v>
+        <v>0.074434730570177549</v>
       </c>
       <c r="BU4">
-        <v>0.075123426072361624</v>
+        <v>0.074434730570177549</v>
       </c>
       <c r="BV4">
-        <v>0.075123426072361624</v>
+        <v>0.074434730570177549</v>
       </c>
       <c r="BW4">
-        <v>0.075542550982930945</v>
+        <v>0.074850013144795835</v>
       </c>
       <c r="BX4">
-        <v>0.075542550982930945</v>
+        <v>0.074850013144795835</v>
       </c>
       <c r="BY4">
-        <v>0.06530180815385099</v>
+        <v>0.064703152529216351</v>
       </c>
       <c r="BZ4">
-        <v>0.077066962506227243</v>
+        <v>0.07636044959514271</v>
       </c>
       <c r="CA4">
-        <v>0.077066962506227243</v>
+        <v>0.076360449595142724</v>
       </c>
       <c r="CB4">
-        <v>0.075658835704865104</v>
+        <v>0.074965231824229595</v>
       </c>
       <c r="CC4">
-        <v>0.075658835704865077</v>
+        <v>0.074965231824229567</v>
       </c>
       <c r="CD4">
-        <v>0.076841813044835866</v>
+        <v>0.076137364195915255</v>
       </c>
       <c r="CE4">
-        <v>0.0773231284768119</v>
+        <v>0.076614267159098734</v>
       </c>
       <c r="CF4">
-        <v>0.0773231284768119</v>
+        <v>0.076614267159098734</v>
       </c>
       <c r="CG4">
-        <v>0.077323128476811887</v>
+        <v>0.07661426715909872</v>
       </c>
       <c r="CH4">
-        <v>0.0773231284768119</v>
+        <v>0.076614267159098734</v>
       </c>
       <c r="CI4">
-        <v>0.076454466748432537</v>
+        <v>0.075753568904385726</v>
       </c>
       <c r="CJ4">
-        <v>0.077162456812874813</v>
+        <v>0.076455068455835398</v>
       </c>
       <c r="CK4">
-        <v>0.077162456812874813</v>
+        <v>0.076455068455835398</v>
       </c>
       <c r="CL4">
-        <v>0.077162456812874813</v>
+        <v>0.076455068455835398</v>
       </c>
       <c r="CM4">
-        <v>0.077162456812874813</v>
+        <v>0.076455068455835412</v>
       </c>
       <c r="CN4">
-        <v>0.07570280073892785</v>
+        <v>0.075008793807968432</v>
       </c>
       <c r="CO4">
-        <v>0.071492443348637066</v>
+        <v>0.070837034952766914</v>
       </c>
       <c r="CP4">
-        <v>0.071492443348637053</v>
+        <v>0.070837034952766914</v>
       </c>
       <c r="CQ4">
-        <v>0.072477606544036857</v>
+        <v>0.071813166644985049</v>
       </c>
       <c r="CR4">
-        <v>0.072477606544036871</v>
+        <v>0.071813166644985063</v>
       </c>
       <c r="CS4">
         <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.076113756250750342</v>
+        <v>0.075415981876965327</v>
       </c>
       <c r="CU4">
-        <v>0.076113756250750342</v>
+        <v>0.075415981876965327</v>
       </c>
       <c r="CV4">
-        <v>0.075212583595520605</v>
+        <v>0.074523070739970276</v>
       </c>
       <c r="CW4">
-        <v>0.075212583595520618</v>
+        <v>0.074523070739970276</v>
       </c>
       <c r="CX4">
-        <v>0.075212583595520605</v>
+        <v>0.074523070739970276</v>
       </c>
       <c r="CY4">
-        <v>0.075037566137002215</v>
+        <v>0.074349657757482687</v>
       </c>
       <c r="CZ4">
-        <v>0.075037566137002215</v>
+        <v>0.074349657757482687</v>
       </c>
       <c r="DA4">
-        <v>0.075037566137002229</v>
+        <v>0.074349657757482701</v>
       </c>
       <c r="DB4">
-        <v>0.075037566137002229</v>
+        <v>0.074349657757482687</v>
       </c>
       <c r="DC4">
-        <v>0.075037566137002229</v>
+        <v>0.074349657757482701</v>
       </c>
       <c r="DD4">
-        <v>0.07488808387284869</v>
+        <v>0.074201545874957919</v>
       </c>
       <c r="DE4">
-        <v>0.074888083872848704</v>
+        <v>0.074201545874957933</v>
       </c>
       <c r="DF4">
-        <v>0.074888083872848704</v>
+        <v>0.074201545874957933</v>
       </c>
       <c r="DG4">
-        <v>0.074888083872848704</v>
+        <v>0.074201545874957933</v>
       </c>
       <c r="DH4">
-        <v>0.074888083872848704</v>
+        <v>0.074201545874957933</v>
       </c>
       <c r="DI4">
-        <v>0.070101673630091205</v>
+        <v>0.069459015143268243</v>
       </c>
       <c r="DJ4">
-        <v>0.070101673630091205</v>
+        <v>0.069459015143268257</v>
       </c>
       <c r="DK4">
-        <v>0.070101673630091205</v>
+        <v>0.069459015143268243</v>
       </c>
       <c r="DL4">
-        <v>0.070101673630091205</v>
+        <v>0.069459015143268243</v>
       </c>
       <c r="DM4">
-        <v>0.070101673630091219</v>
+        <v>0.069459015143268257</v>
       </c>
       <c r="DN4">
-        <v>0.074373787525018553</v>
+        <v>0.073691964349122174</v>
       </c>
       <c r="DO4">
-        <v>0.074373787525018553</v>
+        <v>0.073691964349122188</v>
       </c>
       <c r="DP4">
-        <v>0.074373787525018581</v>
+        <v>0.073691964349122202</v>
       </c>
       <c r="DQ4">
-        <v>0.074373787525018567</v>
+        <v>0.073691964349122188</v>
       </c>
       <c r="DR4">
-        <v>0.074373787525018595</v>
+        <v>0.073691964349122216</v>
       </c>
       <c r="DS4">
-        <v>0.074373787525018581</v>
+        <v>0.073691964349122202</v>
       </c>
       <c r="DT4">
-        <v>0.074373787525018595</v>
+        <v>0.07369196434912223</v>
       </c>
       <c r="DU4">
-        <v>0.074373787525018581</v>
+        <v>0.073691964349122202</v>
       </c>
       <c r="DV4">
-        <v>0.074373787525018609</v>
+        <v>0.07369196434912223</v>
       </c>
       <c r="DW4">
-        <v>0.074373787525018595</v>
+        <v>0.07369196434912223</v>
       </c>
       <c r="DX4">
-        <v>0.074373787525018609</v>
+        <v>0.07369196434912223</v>
       </c>
       <c r="DY4">
-        <v>0.074373787525018609</v>
+        <v>0.07369196434912223</v>
       </c>
       <c r="DZ4">
-        <v>0.074373787525018609</v>
+        <v>0.07369196434912223</v>
       </c>
       <c r="EA4">
-        <v>0.074373787525018609</v>
+        <v>0.07369196434912223</v>
       </c>
       <c r="EB4">
-        <v>0.074373787525018609</v>
+        <v>0.07369196434912223</v>
       </c>
       <c r="EC4">
-        <v>0.074373787525018609</v>
+        <v>0.07369196434912223</v>
       </c>
       <c r="ED4">
-        <v>0.074373787525018623</v>
+        <v>0.073691964349122244</v>
       </c>
       <c r="EE4">
-        <v>0.074373787525018623</v>
+        <v>0.073691964349122244</v>
       </c>
       <c r="EF4">
-        <v>0.074373787525018609</v>
+        <v>0.07369196434912223</v>
       </c>
       <c r="EG4">
-        <v>0.074373787525018623</v>
+        <v>0.073691964349122244</v>
       </c>
       <c r="EH4">
-        <v>0.074373787525018623</v>
+        <v>0.073691964349122244</v>
       </c>
       <c r="EI4">
-        <v>0.074373787525018623</v>
+        <v>0.073691964349122244</v>
       </c>
       <c r="EJ4">
-        <v>0.074373787525018636</v>
+        <v>0.073691964349122258</v>
       </c>
       <c r="EK4">
-        <v>0.074373787525018623</v>
+        <v>0.073691964349122244</v>
       </c>
       <c r="EL4">
-        <v>0.074373787525018636</v>
+        <v>0.073691964349122258</v>
       </c>
       <c r="EM4">
-        <v>0.074373787525018636</v>
+        <v>0.073691964349122258</v>
       </c>
       <c r="EN4">
-        <v>0.074373787525018636</v>
+        <v>0.073691964349122258</v>
       </c>
       <c r="EO4">
-        <v>0.074373787525018636</v>
+        <v>0.073691964349122258</v>
       </c>
       <c r="EP4">
-        <v>0.074373787525018636</v>
+        <v>0.073691964349122258</v>
       </c>
       <c r="EQ4">
-        <v>0.074373787525018636</v>
+        <v>0.073691964349122258</v>
       </c>
       <c r="ER4">
-        <v>0.074373787525018636</v>
+        <v>0.073691964349122258</v>
       </c>
       <c r="ES4">
-        <v>0.074373787525018636</v>
+        <v>0.073691964349122258</v>
       </c>
       <c r="ET4">
-        <v>0.074373787525018636</v>
+        <v>0.073691964349122258</v>
       </c>
       <c r="EU4">
-        <v>0.074373787525018636</v>
+        <v>0.073691964349122258</v>
       </c>
       <c r="EV4">
-        <v>0.074373787525018636</v>
+        <v>0.073691964349122258</v>
       </c>
       <c r="EW4">
-        <v>0.074373787525018636</v>
+        <v>0.073691964349122258</v>
       </c>
       <c r="EX4">
-        <v>0.074373787525018636</v>
+        <v>0.073691964349122258</v>
       </c>
       <c r="EY4">
-        <v>0.07437378752501865</v>
+        <v>0.073691964349122271</v>
       </c>
       <c r="EZ4">
-        <v>0.07437378752501865</v>
+        <v>0.073691964349122271</v>
       </c>
       <c r="FA4">
-        <v>0.07437378752501865</v>
+        <v>0.073691964349122271</v>
       </c>
       <c r="FB4">
-        <v>0.07437378752501865</v>
+        <v>0.073691964349122271</v>
       </c>
       <c r="FC4">
-        <v>0.07437378752501865</v>
+        <v>0.073691964349122271</v>
       </c>
       <c r="FD4">
-        <v>0.074373787525018664</v>
+        <v>0.073691964349122285</v>
       </c>
       <c r="FE4">
-        <v>0.07437378752501865</v>
+        <v>0.073691964349122271</v>
       </c>
       <c r="FF4">
-        <v>0.074373787525018664</v>
+        <v>0.073691964349122285</v>
       </c>
       <c r="FG4">
-        <v>0.07437378752501865</v>
+        <v>0.073691964349122271</v>
       </c>
       <c r="FH4">
-        <v>0.074373787525018664</v>
+        <v>0.073691964349122285</v>
       </c>
       <c r="FI4">
-        <v>0.07437378752501865</v>
+        <v>0.073691964349122271</v>
       </c>
       <c r="FJ4">
-        <v>0.074373787525018664</v>
+        <v>0.073691964349122285</v>
       </c>
       <c r="FK4">
-        <v>0.074373787525018664</v>
+        <v>0.073691964349122285</v>
       </c>
       <c r="FL4">
-        <v>0.074373787525018664</v>
+        <v>0.073691964349122285</v>
       </c>
       <c r="FM4">
-        <v>0.074373787525018678</v>
+        <v>0.073691964349122299</v>
       </c>
       <c r="FN4">
-        <v>0.074373787525018692</v>
+        <v>0.073691964349122299</v>
       </c>
       <c r="FO4">
-        <v>0.074373787525018692</v>
+        <v>0.073691964349122299</v>
       </c>
       <c r="FP4">
-        <v>0.074373787525018678</v>
+        <v>0.073691964349122299</v>
       </c>
       <c r="FQ4">
-        <v>0.074373787525018706</v>
+        <v>0.073691964349122313</v>
       </c>
       <c r="FR4">
-        <v>0.074373787525018706</v>
+        <v>0.073691964349122313</v>
       </c>
       <c r="FS4">
-        <v>0.074373787525018692</v>
+        <v>0.073691964349122299</v>
       </c>
       <c r="FT4">
-        <v>0.074373787525018706</v>
+        <v>0.073691964349122313</v>
       </c>
       <c r="FU4">
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.060380761082317394</v>
+        <v>0.059827219254555336</v>
       </c>
       <c r="FW4">
         <v>0</v>

--- a/tables/ols_coefficients.xlsx
+++ b/tables/ols_coefficients.xlsx
@@ -10,13 +10,15 @@
     <sheet name="S2" sheetId="2" r:id="rId4"/>
     <sheet name="S3" sheetId="3" r:id="rId5"/>
     <sheet name="S4" sheetId="4" r:id="rId6"/>
+    <sheet name="S5" sheetId="5" r:id="rId7"/>
+    <sheet name="S6" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="19164" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="22044" uniqueCount="193">
   <si>
     <t>y1</t>
   </si>
@@ -592,6 +594,9 @@
   </si>
   <si>
     <t>o.bin_103</t>
+  </si>
+  <si>
+    <t>o.bin_123</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1457,7 @@
         <v>92</v>
       </c>
       <c r="CS2" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="CT2" t="s">
         <v>94</v>
@@ -1512,7 +1517,7 @@
         <v>112</v>
       </c>
       <c r="DM2" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="DN2" t="s">
         <v>114</v>
@@ -1709,535 +1714,535 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>0.0025696232289331854</v>
+        <v>0.0023209384247545664</v>
       </c>
       <c r="C3">
-        <v>-0.6368668867860483</v>
+        <v>-0.62551401805750162</v>
       </c>
       <c r="D3">
-        <v>-0.67167419527852079</v>
+        <v>-0.66533304371782931</v>
       </c>
       <c r="E3">
-        <v>-0.67111607403944629</v>
+        <v>-0.67288108418676329</v>
       </c>
       <c r="F3">
-        <v>-0.68195414124321585</v>
+        <v>-0.67889521710920486</v>
       </c>
       <c r="G3">
-        <v>-0.67940592307055492</v>
+        <v>-0.67627513428480668</v>
       </c>
       <c r="H3">
-        <v>-0.6760564292099176</v>
+        <v>-0.6880555520032795</v>
       </c>
       <c r="I3">
-        <v>-0.01078619810740045</v>
+        <v>-0.016673339341046142</v>
       </c>
       <c r="J3">
-        <v>-0.0039839747906249149</v>
+        <v>-0.0050711300219336546</v>
       </c>
       <c r="K3">
-        <v>0.0040795654511313071</v>
+        <v>0.00055822442675580806</v>
       </c>
       <c r="L3">
-        <v>-0.0038413629913106131</v>
+        <v>0.0064760638718830976</v>
       </c>
       <c r="M3">
-        <v>0.0064666616574198098</v>
+        <v>0.0026777254509074435</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.1675301279102746</v>
+        <v>1.1741704464294231</v>
       </c>
       <c r="P3">
-        <v>1.2676461874657574</v>
+        <v>1.264667087582938</v>
       </c>
       <c r="Q3">
-        <v>-0.23567880448788756</v>
+        <v>-0.29087554502184826</v>
       </c>
       <c r="R3">
-        <v>-0.27758763108833734</v>
+        <v>-0.29476272626190736</v>
       </c>
       <c r="S3">
-        <v>-0.26093148925640131</v>
+        <v>-0.22406352603477644</v>
       </c>
       <c r="T3">
-        <v>-0.21382710097683</v>
+        <v>-0.25971012489334511</v>
       </c>
       <c r="U3">
-        <v>-0.2340214275970427</v>
+        <v>-0.17946883553431539</v>
       </c>
       <c r="V3">
-        <v>-0.20938206510404728</v>
+        <v>-0.20688983015501597</v>
       </c>
       <c r="W3">
-        <v>-0.22645262731282337</v>
+        <v>-0.20854080881089923</v>
       </c>
       <c r="X3">
-        <v>-0.20902246288494977</v>
+        <v>-0.15775282571243746</v>
       </c>
       <c r="Y3">
-        <v>-0.13886917184326097</v>
+        <v>-0.18558225111829926</v>
       </c>
       <c r="Z3">
-        <v>-0.15924509564596678</v>
+        <v>-0.13400135327925305</v>
       </c>
       <c r="AA3">
-        <v>-0.16055230483354399</v>
+        <v>-0.1503521668259872</v>
       </c>
       <c r="AB3">
-        <v>-0.14993368868573009</v>
+        <v>-0.15005996802968202</v>
       </c>
       <c r="AC3">
-        <v>-0.13080310571522297</v>
+        <v>-0.1598214817537629</v>
       </c>
       <c r="AD3">
-        <v>-0.14821628387840624</v>
+        <v>-0.091667853280983216</v>
       </c>
       <c r="AE3">
-        <v>-0.12641040481495702</v>
+        <v>-0.14126878232420501</v>
       </c>
       <c r="AF3">
-        <v>-0.072537891757703629</v>
+        <v>-0.11851404133274746</v>
       </c>
       <c r="AG3">
-        <v>-0.12513117002756391</v>
+        <v>-0.074624441096245692</v>
       </c>
       <c r="AH3">
-        <v>-0.092279297671980121</v>
+        <v>-0.075361307472748704</v>
       </c>
       <c r="AI3">
-        <v>-0.087451637677291902</v>
+        <v>-0.067311147227585702</v>
       </c>
       <c r="AJ3">
-        <v>-0.080451372074280741</v>
+        <v>-0.10706405266143935</v>
       </c>
       <c r="AK3">
-        <v>-0.09841207110094273</v>
+        <v>-0.098012915960990654</v>
       </c>
       <c r="AL3">
-        <v>-0.09666127567439152</v>
+        <v>-0.093481737828977077</v>
       </c>
       <c r="AM3">
-        <v>-0.056324205543395865</v>
+        <v>-0.046011813989576537</v>
       </c>
       <c r="AN3">
-        <v>-0.034074156308345115</v>
+        <v>-0.043275624843997725</v>
       </c>
       <c r="AO3">
-        <v>-0.059078892300181041</v>
+        <v>-0.042505491180653165</v>
       </c>
       <c r="AP3">
-        <v>-0.044578272780163963</v>
+        <v>-0.09017960859900398</v>
       </c>
       <c r="AQ3">
-        <v>-0.020116788857957788</v>
+        <v>-0.055212977758447336</v>
       </c>
       <c r="AR3">
-        <v>-0.029601657592535448</v>
+        <v>-0.023247448230704709</v>
       </c>
       <c r="AS3">
-        <v>-0.036004897712394866</v>
+        <v>-0.095360800984144539</v>
       </c>
       <c r="AT3">
-        <v>-0.065402018943688203</v>
+        <v>-0.037516697457489541</v>
       </c>
       <c r="AU3">
-        <v>-0.032296022314947333</v>
+        <v>-0.02621081195374067</v>
       </c>
       <c r="AV3">
-        <v>-0.081559762879048314</v>
+        <v>-0.027241771212236508</v>
       </c>
       <c r="AW3">
-        <v>-0.055544331679759765</v>
+        <v>-0.027250057738172576</v>
       </c>
       <c r="AX3">
-        <v>-0.033450610060050026</v>
+        <v>-0.031167852500671354</v>
       </c>
       <c r="AY3">
-        <v>-0.032873634886434543</v>
+        <v>0.028105490489784658</v>
       </c>
       <c r="AZ3">
-        <v>0.00033657315390667886</v>
+        <v>-0.012680500151281039</v>
       </c>
       <c r="BA3">
-        <v>-0.0055843052198912384</v>
+        <v>-0.026371017502739093</v>
       </c>
       <c r="BB3">
-        <v>-0.039793492032741969</v>
+        <v>0.0087794072030836275</v>
       </c>
       <c r="BC3">
-        <v>-0.006155892842416427</v>
+        <v>0.012351761185565179</v>
       </c>
       <c r="BD3">
-        <v>-0.040853483649573009</v>
+        <v>-0.0095765238282036948</v>
       </c>
       <c r="BE3">
-        <v>-0.0080305802527098416</v>
+        <v>-0.025471557106851506</v>
       </c>
       <c r="BF3">
-        <v>-0.019984920217940082</v>
+        <v>-0.010674887674087594</v>
       </c>
       <c r="BG3">
-        <v>-0.028478985349920657</v>
+        <v>-0.015832121948166029</v>
       </c>
       <c r="BH3">
-        <v>0.0013293420530752238</v>
+        <v>-0.016122626437881031</v>
       </c>
       <c r="BI3">
-        <v>0.0031568359812345578</v>
+        <v>0.0065727355524559071</v>
       </c>
       <c r="BJ3">
-        <v>-0.0047122112699269801</v>
+        <v>-0.030058082110004148</v>
       </c>
       <c r="BK3">
-        <v>-0.015930763547959081</v>
+        <v>-0.031350642370333262</v>
       </c>
       <c r="BL3">
-        <v>-0.0044898362021154672</v>
+        <v>-3.5052389224705108e-05</v>
       </c>
       <c r="BM3">
-        <v>-0.011690623312025748</v>
+        <v>-0.023984810345775504</v>
       </c>
       <c r="BN3">
-        <v>-0.0096145919795216882</v>
+        <v>0.0044540030185585017</v>
       </c>
       <c r="BO3">
-        <v>-0.026582944518147279</v>
+        <v>-0.032373320022630422</v>
       </c>
       <c r="BP3">
-        <v>-0.0072834873586613037</v>
+        <v>0.0017658999771209623</v>
       </c>
       <c r="BQ3">
-        <v>0.015347896950427415</v>
+        <v>0.017159213331605031</v>
       </c>
       <c r="BR3">
-        <v>0.0082768692315742017</v>
+        <v>-0.024275957464043173</v>
       </c>
       <c r="BS3">
-        <v>0.0053880407198331924</v>
+        <v>-0.021712422866690596</v>
       </c>
       <c r="BT3">
-        <v>0.00070679535893051462</v>
+        <v>-0.041632510978799595</v>
       </c>
       <c r="BU3">
-        <v>-0.059038082893208207</v>
+        <v>-0.010343098811694283</v>
       </c>
       <c r="BV3">
-        <v>-0.01779257687717558</v>
+        <v>0.013031279923970747</v>
       </c>
       <c r="BW3">
-        <v>-0.0009968261963405878</v>
+        <v>-0.05501783743627333</v>
       </c>
       <c r="BX3">
-        <v>0.044716645727922694</v>
+        <v>-0.026507691113509726</v>
       </c>
       <c r="BY3">
-        <v>-0.00058659670337540739</v>
+        <v>0.015475854790566195</v>
       </c>
       <c r="BZ3">
-        <v>0.028846476733219197</v>
+        <v>0.0062147712105619594</v>
       </c>
       <c r="CA3">
-        <v>0.052002669003406561</v>
+        <v>-0.023472617953991703</v>
       </c>
       <c r="CB3">
-        <v>0.057504041364077441</v>
+        <v>0.021075081348889118</v>
       </c>
       <c r="CC3">
-        <v>-0.0078013880199251521</v>
+        <v>0.02953517510477114</v>
       </c>
       <c r="CD3">
-        <v>0.013411347147026855</v>
+        <v>-0.030094318440308014</v>
       </c>
       <c r="CE3">
-        <v>0.02473449812344174</v>
+        <v>0.02314004450170222</v>
       </c>
       <c r="CF3">
-        <v>0.0055494128704790509</v>
+        <v>0.0030488586101122205</v>
       </c>
       <c r="CG3">
-        <v>-0.017382312192398976</v>
+        <v>-0.003018792959410441</v>
       </c>
       <c r="CH3">
-        <v>-0.01860133819691211</v>
+        <v>-0.0001274895140020588</v>
       </c>
       <c r="CI3">
-        <v>0.010185498979522856</v>
+        <v>0.008384625967457135</v>
       </c>
       <c r="CJ3">
-        <v>0.056580014997424176</v>
+        <v>-0.0060185158482620339</v>
       </c>
       <c r="CK3">
-        <v>0.048906742474744566</v>
+        <v>0.018553426311327691</v>
       </c>
       <c r="CL3">
-        <v>0.027672526583980759</v>
+        <v>0.024088512895953866</v>
       </c>
       <c r="CM3">
-        <v>0.07427173608100994</v>
+        <v>-0.039968432404970763</v>
       </c>
       <c r="CN3">
-        <v>-0.028367227035600403</v>
+        <v>-0.0050011688970896988</v>
       </c>
       <c r="CO3">
-        <v>0.010035594926792922</v>
+        <v>-0.073073446958538762</v>
       </c>
       <c r="CP3">
-        <v>0.045944720198839641</v>
+        <v>0.0095002864890533396</v>
       </c>
       <c r="CQ3">
-        <v>-0.0016588656169869505</v>
+        <v>-0.039202209684622007</v>
       </c>
       <c r="CR3">
-        <v>0.033375411719405064</v>
+        <v>-0.023066599006346625</v>
       </c>
       <c r="CS3">
+        <v>-0.0022776842180178797</v>
+      </c>
+      <c r="CT3">
+        <v>0.047762831671339129</v>
+      </c>
+      <c r="CU3">
+        <v>0.026619405438760641</v>
+      </c>
+      <c r="CV3">
+        <v>0.0017783888654588418</v>
+      </c>
+      <c r="CW3">
+        <v>-0.019984448867553642</v>
+      </c>
+      <c r="CX3">
+        <v>0.020412684302996625</v>
+      </c>
+      <c r="CY3">
+        <v>0.0052171443674203779</v>
+      </c>
+      <c r="CZ3">
+        <v>-0.0038387953820991794</v>
+      </c>
+      <c r="DA3">
+        <v>-0.034586695244189586</v>
+      </c>
+      <c r="DB3">
+        <v>-0.024920116999681993</v>
+      </c>
+      <c r="DC3">
+        <v>0.025111015650629835</v>
+      </c>
+      <c r="DD3">
+        <v>-0.0033995634589441708</v>
+      </c>
+      <c r="DE3">
+        <v>-0.0025809801568506333</v>
+      </c>
+      <c r="DF3">
+        <v>0.0017681563671059081</v>
+      </c>
+      <c r="DG3">
+        <v>-0.020166808691228468</v>
+      </c>
+      <c r="DH3">
+        <v>-0.005633478376941308</v>
+      </c>
+      <c r="DI3">
+        <v>-0.06235312129711755</v>
+      </c>
+      <c r="DJ3">
+        <v>0.025443747607090908</v>
+      </c>
+      <c r="DK3">
+        <v>-0.009543817529492106</v>
+      </c>
+      <c r="DL3">
+        <v>0.0019421497116248363</v>
+      </c>
+      <c r="DM3">
         <v>0</v>
       </c>
-      <c r="CT3">
-        <v>0.023816299191906413</v>
-      </c>
-      <c r="CU3">
-        <v>0.03145124784606905</v>
-      </c>
-      <c r="CV3">
-        <v>0.042260449787566247</v>
-      </c>
-      <c r="CW3">
-        <v>-0.017018283334498931</v>
-      </c>
-      <c r="CX3">
-        <v>0.066207244716438657</v>
-      </c>
-      <c r="CY3">
-        <v>0.028574680519620598</v>
-      </c>
-      <c r="CZ3">
-        <v>-0.0066613032167767488</v>
-      </c>
-      <c r="DA3">
-        <v>0.02196443422863098</v>
-      </c>
-      <c r="DB3">
-        <v>0.035732822213244066</v>
-      </c>
-      <c r="DC3">
-        <v>0.033230907958748418</v>
-      </c>
-      <c r="DD3">
-        <v>0.042129076287316707</v>
-      </c>
-      <c r="DE3">
-        <v>0.020804564998627303</v>
-      </c>
-      <c r="DF3">
-        <v>0.0032051706926787865</v>
-      </c>
-      <c r="DG3">
-        <v>0.0072898844026247972</v>
-      </c>
-      <c r="DH3">
-        <v>0.011018492938853016</v>
-      </c>
-      <c r="DI3">
-        <v>0.024788823553328836</v>
-      </c>
-      <c r="DJ3">
-        <v>0.023826581291252286</v>
-      </c>
-      <c r="DK3">
-        <v>0.021719153996374075</v>
-      </c>
-      <c r="DL3">
-        <v>0.010167952153289804</v>
-      </c>
-      <c r="DM3">
-        <v>0.024819298780810857</v>
-      </c>
       <c r="DN3">
-        <v>0.058796527694868171</v>
+        <v>0.023235077869874929</v>
       </c>
       <c r="DO3">
-        <v>4.901093601629354e-05</v>
+        <v>0.016623450655771688</v>
       </c>
       <c r="DP3">
-        <v>0.016452386084182587</v>
+        <v>0.027732850924275982</v>
       </c>
       <c r="DQ3">
-        <v>0.012915013090813252</v>
+        <v>0.0087223035535870363</v>
       </c>
       <c r="DR3">
-        <v>0.0069687487120893045</v>
+        <v>0.0087308457296389717</v>
       </c>
       <c r="DS3">
-        <v>0.012634002343815086</v>
+        <v>0.010113663393295481</v>
       </c>
       <c r="DT3">
-        <v>0.0026627413534309938</v>
+        <v>0.025335087853140828</v>
       </c>
       <c r="DU3">
-        <v>-0.0095534535435133922</v>
+        <v>0.0043887275143737973</v>
       </c>
       <c r="DV3">
-        <v>0.035345481974526374</v>
+        <v>0.036821516823424882</v>
       </c>
       <c r="DW3">
-        <v>0.045330284067792929</v>
+        <v>-0.015751837095223063</v>
       </c>
       <c r="DX3">
-        <v>0.025973445678895053</v>
+        <v>0.01984704544688308</v>
       </c>
       <c r="DY3">
-        <v>-0.01431137375292663</v>
+        <v>-0.049316342751203432</v>
       </c>
       <c r="DZ3">
-        <v>0.02235560512374302</v>
+        <v>-0.01756526961504775</v>
       </c>
       <c r="EA3">
-        <v>-0.018484003321593723</v>
+        <v>-0.0074299398224020353</v>
       </c>
       <c r="EB3">
-        <v>-0.008277517398742296</v>
+        <v>-0.0044776884270064116</v>
       </c>
       <c r="EC3">
-        <v>0.032196346950904169</v>
+        <v>0.0063863691665957487</v>
       </c>
       <c r="ED3">
-        <v>-0.0041492515739733355</v>
+        <v>0.018537354578461604</v>
       </c>
       <c r="EE3">
-        <v>0.019586225359250437</v>
+        <v>-0.041773644590412315</v>
       </c>
       <c r="EF3">
-        <v>0.031831264115303966</v>
+        <v>-0.0041487327680559561</v>
       </c>
       <c r="EG3">
-        <v>0.0091123301913371407</v>
+        <v>0.0089511471266809032</v>
       </c>
       <c r="EH3">
-        <v>0.0065902878238179637</v>
+        <v>-0.044652719024812861</v>
       </c>
       <c r="EI3">
-        <v>0.017335755038001697</v>
+        <v>-0.016496942050525463</v>
       </c>
       <c r="EJ3">
-        <v>-0.026369337506403381</v>
+        <v>0.0079263081902613119</v>
       </c>
       <c r="EK3">
-        <v>0.0079380508011507572</v>
+        <v>-0.025513713875655451</v>
       </c>
       <c r="EL3">
-        <v>-0.00065570245741524823</v>
+        <v>0.010020627313284833</v>
       </c>
       <c r="EM3">
-        <v>0.04679755446270531</v>
+        <v>-0.06123271239354347</v>
       </c>
       <c r="EN3">
-        <v>-0.0099330520775268161</v>
+        <v>-0.034851247574734505</v>
       </c>
       <c r="EO3">
-        <v>-0.0071961719925214091</v>
+        <v>0.0030031677088899556</v>
       </c>
       <c r="EP3">
-        <v>0.033529557429319831</v>
+        <v>-0.03538660721895312</v>
       </c>
       <c r="EQ3">
-        <v>0.0075666832979873226</v>
+        <v>-0.017833958957011994</v>
       </c>
       <c r="ER3">
-        <v>-0.030630696101430561</v>
+        <v>-0.035201482582513273</v>
       </c>
       <c r="ES3">
-        <v>0.041619393661189372</v>
+        <v>-0.023675293709494862</v>
       </c>
       <c r="ET3">
-        <v>-0.007676411350179194</v>
+        <v>-0.029761140552998257</v>
       </c>
       <c r="EU3">
-        <v>0.018309036074998904</v>
+        <v>-0.04408182054862305</v>
       </c>
       <c r="EV3">
-        <v>-0.036521882490307404</v>
+        <v>-0.043260727339570017</v>
       </c>
       <c r="EW3">
-        <v>0.022483806097887915</v>
+        <v>-0.013738230618821082</v>
       </c>
       <c r="EX3">
-        <v>0.028832324982290845</v>
+        <v>-0.027920345600751618</v>
       </c>
       <c r="EY3">
-        <v>-0.0082372253241111502</v>
+        <v>-0.0073376171838905073</v>
       </c>
       <c r="EZ3">
-        <v>-0.035010308455402636</v>
+        <v>-0.050824105813429651</v>
       </c>
       <c r="FA3">
-        <v>0.011904902877435879</v>
+        <v>-0.028448409083352208</v>
       </c>
       <c r="FB3">
-        <v>0.0065904436489954317</v>
+        <v>-0.019843539346659798</v>
       </c>
       <c r="FC3">
-        <v>-0.011688238189726502</v>
+        <v>0.024299315598954801</v>
       </c>
       <c r="FD3">
-        <v>0.017886632075454448</v>
+        <v>-0.020144149822624823</v>
       </c>
       <c r="FE3">
-        <v>0.031007206112623083</v>
+        <v>-0.043917550067909039</v>
       </c>
       <c r="FF3">
-        <v>-0.0016079277304484642</v>
+        <v>-0.00067914391129009037</v>
       </c>
       <c r="FG3">
-        <v>-0.015286997539506297</v>
+        <v>-0.039531329638627821</v>
       </c>
       <c r="FH3">
-        <v>-0.016467446464439772</v>
+        <v>-0.038361720964609977</v>
       </c>
       <c r="FI3">
-        <v>-0.049122403052367591</v>
+        <v>-0.09541646940971317</v>
       </c>
       <c r="FJ3">
-        <v>-0.0033729607864063068</v>
+        <v>-0.047766319065409985</v>
       </c>
       <c r="FK3">
-        <v>-0.062529081060487296</v>
+        <v>-0.063756878716885776</v>
       </c>
       <c r="FL3">
-        <v>-0.020288325539177456</v>
+        <v>-0.013230027110180148</v>
       </c>
       <c r="FM3">
-        <v>0.0042714989751362316</v>
+        <v>-0.10616185199217498</v>
       </c>
       <c r="FN3">
-        <v>-0.0078553839825310917</v>
+        <v>-0.023844650954882654</v>
       </c>
       <c r="FO3">
-        <v>-0.017856229657338334</v>
+        <v>0.020082610158161263</v>
       </c>
       <c r="FP3">
-        <v>-0.041044994863834838</v>
+        <v>-0.033370820871232165</v>
       </c>
       <c r="FQ3">
-        <v>-0.0045818918993744562</v>
+        <v>-0.09108475567185105</v>
       </c>
       <c r="FR3">
-        <v>0.01632053020692335</v>
+        <v>-0.055677177149333013</v>
       </c>
       <c r="FS3">
-        <v>0.029019990516464478</v>
+        <v>-0.042741038747024895</v>
       </c>
       <c r="FT3">
-        <v>-0.047537018205643052</v>
+        <v>-0.044729489443415094</v>
       </c>
       <c r="FU3">
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.5038311776244822</v>
+        <v>-5.4815621491673232</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -2251,535 +2256,535 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.022502666178911675</v>
+        <v>0.022857510488139863</v>
       </c>
       <c r="C4">
-        <v>0.011246599583736021</v>
+        <v>0.011423947095747327</v>
       </c>
       <c r="D4">
-        <v>0.01291941776886427</v>
+        <v>0.013123143933460609</v>
       </c>
       <c r="E4">
-        <v>0.012578882853130852</v>
+        <v>0.012777239126178255</v>
       </c>
       <c r="F4">
-        <v>0.012546370847564454</v>
+        <v>0.012744214439133799</v>
       </c>
       <c r="G4">
-        <v>0.014475293214018657</v>
+        <v>0.014703553962347821</v>
       </c>
       <c r="H4">
-        <v>0.017035204582743144</v>
+        <v>0.017303832546854688</v>
       </c>
       <c r="I4">
-        <v>0.015829401331005966</v>
+        <v>0.016079014996166169</v>
       </c>
       <c r="J4">
-        <v>0.013003648758072703</v>
+        <v>0.013208703160262852</v>
       </c>
       <c r="K4">
-        <v>0.010738842116084179</v>
+        <v>0.010908182805862629</v>
       </c>
       <c r="L4">
-        <v>0.010764046291955815</v>
+        <v>0.010933784426121763</v>
       </c>
       <c r="M4">
-        <v>0.010939920047479668</v>
+        <v>0.011112431533069626</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02522401878115918</v>
+        <v>0.025621776071303094</v>
       </c>
       <c r="P4">
-        <v>0.025224018781159183</v>
+        <v>0.025621776071303094</v>
       </c>
       <c r="Q4">
-        <v>0.025224018781159183</v>
+        <v>0.025621776071303094</v>
       </c>
       <c r="R4">
-        <v>0.025224018781159183</v>
+        <v>0.025621776071303098</v>
       </c>
       <c r="S4">
-        <v>0.025224018781159183</v>
+        <v>0.025621776071303091</v>
       </c>
       <c r="T4">
-        <v>0.025224018781159183</v>
+        <v>0.025621776071303094</v>
       </c>
       <c r="U4">
-        <v>0.025224018781159194</v>
+        <v>0.025621776071303098</v>
       </c>
       <c r="V4">
-        <v>0.025224018781159187</v>
+        <v>0.025621776071303098</v>
       </c>
       <c r="W4">
-        <v>0.02522401878115919</v>
+        <v>0.025621776071303101</v>
       </c>
       <c r="X4">
-        <v>0.02522401878115919</v>
+        <v>0.025621776071303098</v>
       </c>
       <c r="Y4">
-        <v>0.025224018781159197</v>
+        <v>0.025621776071303105</v>
       </c>
       <c r="Z4">
-        <v>0.025224018781159197</v>
+        <v>0.025621776071303098</v>
       </c>
       <c r="AA4">
-        <v>0.02522401878115919</v>
+        <v>0.025621776071303105</v>
       </c>
       <c r="AB4">
-        <v>0.025224018781159197</v>
+        <v>0.025621776071303098</v>
       </c>
       <c r="AC4">
-        <v>0.025224018781159194</v>
+        <v>0.025621776071303108</v>
       </c>
       <c r="AD4">
-        <v>0.025224018781159194</v>
+        <v>0.025621776071303112</v>
       </c>
       <c r="AE4">
-        <v>0.025224018781159194</v>
+        <v>0.025621776071303112</v>
       </c>
       <c r="AF4">
-        <v>0.025224018781159201</v>
+        <v>0.025621776071303119</v>
       </c>
       <c r="AG4">
-        <v>0.025224018781159201</v>
+        <v>0.025621776071303112</v>
       </c>
       <c r="AH4">
-        <v>0.025224018781159201</v>
+        <v>0.025621776071303122</v>
       </c>
       <c r="AI4">
-        <v>0.025224018781159204</v>
+        <v>0.025621776071303119</v>
       </c>
       <c r="AJ4">
-        <v>0.025224018781159204</v>
+        <v>0.025621776071303132</v>
       </c>
       <c r="AK4">
-        <v>0.025224018781159204</v>
+        <v>0.025621776071303132</v>
       </c>
       <c r="AL4">
-        <v>0.025224018781159204</v>
+        <v>0.025621776071303132</v>
       </c>
       <c r="AM4">
-        <v>0.025224018781159204</v>
+        <v>0.025621776071303132</v>
       </c>
       <c r="AN4">
-        <v>0.025224018781159201</v>
+        <v>0.025621776071303132</v>
       </c>
       <c r="AO4">
-        <v>0.025224018781159204</v>
+        <v>0.025621776071303132</v>
       </c>
       <c r="AP4">
-        <v>0.025224018781159201</v>
+        <v>0.025621776071303132</v>
       </c>
       <c r="AQ4">
-        <v>0.025224018781159204</v>
+        <v>0.025621776071303132</v>
       </c>
       <c r="AR4">
-        <v>0.025224018781159204</v>
+        <v>0.025621776071303136</v>
       </c>
       <c r="AS4">
-        <v>0.025224018781159208</v>
+        <v>0.025621776071303132</v>
       </c>
       <c r="AT4">
-        <v>0.025224018781159204</v>
+        <v>0.025621776071303136</v>
       </c>
       <c r="AU4">
-        <v>0.025224018781159211</v>
+        <v>0.025621776071303132</v>
       </c>
       <c r="AV4">
-        <v>0.025224018781159208</v>
+        <v>0.025621776071303136</v>
       </c>
       <c r="AW4">
-        <v>0.025224018781159215</v>
+        <v>0.025621776071303136</v>
       </c>
       <c r="AX4">
-        <v>0.025224018781159208</v>
+        <v>0.025621776071303136</v>
       </c>
       <c r="AY4">
-        <v>0.025224018781159208</v>
+        <v>0.025621776071303136</v>
       </c>
       <c r="AZ4">
-        <v>0.025224018781159208</v>
+        <v>0.025621776071303136</v>
       </c>
       <c r="BA4">
-        <v>0.025224018781159208</v>
+        <v>0.025621776071303136</v>
       </c>
       <c r="BB4">
-        <v>0.025224018781159211</v>
+        <v>0.025621776071303136</v>
       </c>
       <c r="BC4">
-        <v>0.025224018781159204</v>
+        <v>0.025621776071303136</v>
       </c>
       <c r="BD4">
-        <v>0.025224018781159201</v>
+        <v>0.025621776071303139</v>
       </c>
       <c r="BE4">
-        <v>0.02471224232867799</v>
+        <v>0.025621776071303143</v>
       </c>
       <c r="BF4">
-        <v>0.02471224232867799</v>
+        <v>0.025621776071303146</v>
       </c>
       <c r="BG4">
-        <v>0.02471224232867799</v>
+        <v>0.025621776071303146</v>
       </c>
       <c r="BH4">
-        <v>0.02471224232867799</v>
+        <v>0.025621776071303146</v>
       </c>
       <c r="BI4">
-        <v>0.02471224232867799</v>
+        <v>0.025621776071303146</v>
       </c>
       <c r="BJ4">
-        <v>0.025276424328322857</v>
+        <v>0.025621776071303146</v>
       </c>
       <c r="BK4">
-        <v>0.025276424328322857</v>
+        <v>0.025621776071303146</v>
       </c>
       <c r="BL4">
-        <v>0.025276424328322857</v>
+        <v>0.025621776071303153</v>
       </c>
       <c r="BM4">
-        <v>0.025276424328322864</v>
+        <v>0.025621776071303146</v>
       </c>
       <c r="BN4">
-        <v>0.025276424328322857</v>
+        <v>0.02562177607130315</v>
       </c>
       <c r="BO4">
-        <v>0.025271143266134905</v>
+        <v>0.02562177607130315</v>
       </c>
       <c r="BP4">
-        <v>0.025271143266134905</v>
+        <v>0.02562177607130315</v>
       </c>
       <c r="BQ4">
-        <v>0.025271143266134912</v>
+        <v>0.025621776071303153</v>
       </c>
       <c r="BR4">
-        <v>0.025271143266134919</v>
+        <v>0.02562177607130315</v>
       </c>
       <c r="BS4">
-        <v>0.025271143266134916</v>
+        <v>0.02562177607130315</v>
       </c>
       <c r="BT4">
-        <v>0.025000970957893352</v>
+        <v>0.025621776071303153</v>
       </c>
       <c r="BU4">
-        <v>0.025000970957893352</v>
+        <v>0.025621776071303157</v>
       </c>
       <c r="BV4">
-        <v>0.025000970957893352</v>
+        <v>0.025621776071303153</v>
       </c>
       <c r="BW4">
-        <v>0.025140455140986655</v>
+        <v>0.025621776071303153</v>
       </c>
       <c r="BX4">
-        <v>0.025140455140986655</v>
+        <v>0.02562177607130315</v>
       </c>
       <c r="BY4">
-        <v>0.021732350273532042</v>
+        <v>0.025101929421259085</v>
       </c>
       <c r="BZ4">
-        <v>0.025647777160420351</v>
+        <v>0.025101929421259085</v>
       </c>
       <c r="CA4">
-        <v>0.025647777160420354</v>
+        <v>0.025101929421259085</v>
       </c>
       <c r="CB4">
-        <v>0.025179154533545269</v>
+        <v>0.025101929421259085</v>
       </c>
       <c r="CC4">
-        <v>0.025179154533545262</v>
+        <v>0.025101929421259085</v>
       </c>
       <c r="CD4">
-        <v>0.025572847735076933</v>
+        <v>0.025675008000995897</v>
       </c>
       <c r="CE4">
-        <v>0.025733028836572858</v>
+        <v>0.025675008000995894</v>
       </c>
       <c r="CF4">
-        <v>0.025733028836572858</v>
+        <v>0.025675008000995897</v>
       </c>
       <c r="CG4">
-        <v>0.025733028836572854</v>
+        <v>0.02567500800099589</v>
       </c>
       <c r="CH4">
-        <v>0.025733028836572858</v>
+        <v>0.025675008000995894</v>
       </c>
       <c r="CI4">
-        <v>0.02544393943026001</v>
+        <v>0.025669643661793171</v>
       </c>
       <c r="CJ4">
-        <v>0.025679557531896494</v>
+        <v>0.025669643661793171</v>
       </c>
       <c r="CK4">
-        <v>0.025679557531896494</v>
+        <v>0.025669643661793171</v>
       </c>
       <c r="CL4">
-        <v>0.025679557531896494</v>
+        <v>0.025669643661793171</v>
       </c>
       <c r="CM4">
-        <v>0.025679557531896498</v>
+        <v>0.025669643661793171</v>
       </c>
       <c r="CN4">
-        <v>0.025193786035291571</v>
+        <v>0.025395211009229358</v>
       </c>
       <c r="CO4">
-        <v>0.023792584994012933</v>
+        <v>0.025395211009229358</v>
       </c>
       <c r="CP4">
-        <v>0.023792584994012933</v>
+        <v>0.025395211009229358</v>
       </c>
       <c r="CQ4">
-        <v>0.024120445925345471</v>
+        <v>0.025536894716956967</v>
       </c>
       <c r="CR4">
-        <v>0.024120445925345478</v>
+        <v>0.025536894716956964</v>
       </c>
       <c r="CS4">
+        <v>0.022075047479249675</v>
+      </c>
+      <c r="CT4">
+        <v>0.026052216692045632</v>
+      </c>
+      <c r="CU4">
+        <v>0.026052216692045636</v>
+      </c>
+      <c r="CV4">
+        <v>0.025576204359835188</v>
+      </c>
+      <c r="CW4">
+        <v>0.025576204359835195</v>
+      </c>
+      <c r="CX4">
+        <v>0.025976105705372302</v>
+      </c>
+      <c r="CY4">
+        <v>0.026138812700993885</v>
+      </c>
+      <c r="CZ4">
+        <v>0.026138812700993889</v>
+      </c>
+      <c r="DA4">
+        <v>0.026138812700993889</v>
+      </c>
+      <c r="DB4">
+        <v>0.026138812700993892</v>
+      </c>
+      <c r="DC4">
+        <v>0.025845164646835821</v>
+      </c>
+      <c r="DD4">
+        <v>0.026084498207869514</v>
+      </c>
+      <c r="DE4">
+        <v>0.026084498207869511</v>
+      </c>
+      <c r="DF4">
+        <v>0.026084498207869511</v>
+      </c>
+      <c r="DG4">
+        <v>0.026084498207869514</v>
+      </c>
+      <c r="DH4">
+        <v>0.025591066585580573</v>
+      </c>
+      <c r="DI4">
+        <v>0.024167770019637047</v>
+      </c>
+      <c r="DJ4">
+        <v>0.024167770019637051</v>
+      </c>
+      <c r="DK4">
+        <v>0.02450080098659008</v>
+      </c>
+      <c r="DL4">
+        <v>0.024500800986590084</v>
+      </c>
+      <c r="DM4">
         <v>0</v>
       </c>
-      <c r="CT4">
-        <v>0.025330551453926278</v>
-      </c>
-      <c r="CU4">
-        <v>0.025330551453926278</v>
-      </c>
-      <c r="CV4">
-        <v>0.025030642456701578</v>
-      </c>
-      <c r="CW4">
-        <v>0.025030642456701578</v>
-      </c>
-      <c r="CX4">
-        <v>0.025030642456701578</v>
-      </c>
-      <c r="CY4">
-        <v>0.024972396891685306</v>
-      </c>
-      <c r="CZ4">
-        <v>0.024972396891685306</v>
-      </c>
-      <c r="DA4">
-        <v>0.024972396891685313</v>
-      </c>
-      <c r="DB4">
-        <v>0.024972396891685306</v>
-      </c>
-      <c r="DC4">
-        <v>0.024972396891685313</v>
-      </c>
-      <c r="DD4">
-        <v>0.024922649403581892</v>
-      </c>
-      <c r="DE4">
-        <v>0.024922649403581895</v>
-      </c>
-      <c r="DF4">
-        <v>0.024922649403581895</v>
-      </c>
-      <c r="DG4">
-        <v>0.024922649403581895</v>
-      </c>
-      <c r="DH4">
-        <v>0.024922649403581895</v>
-      </c>
-      <c r="DI4">
-        <v>0.0233297387799839</v>
-      </c>
-      <c r="DJ4">
-        <v>0.023329738779983903</v>
-      </c>
-      <c r="DK4">
-        <v>0.0233297387799839</v>
-      </c>
-      <c r="DL4">
-        <v>0.0233297387799839</v>
-      </c>
-      <c r="DM4">
-        <v>0.023329738779983903</v>
-      </c>
       <c r="DN4">
-        <v>0.02475149229949206</v>
+        <v>0.025729988656681208</v>
       </c>
       <c r="DO4">
-        <v>0.024751492299492063</v>
+        <v>0.025729988656681208</v>
       </c>
       <c r="DP4">
-        <v>0.02475149229949207</v>
+        <v>0.02542535039759463</v>
       </c>
       <c r="DQ4">
-        <v>0.024751492299492067</v>
+        <v>0.025425350397594623</v>
       </c>
       <c r="DR4">
-        <v>0.024751492299492077</v>
+        <v>0.02542535039759463</v>
       </c>
       <c r="DS4">
-        <v>0.02475149229949207</v>
+        <v>0.02536618635886868</v>
       </c>
       <c r="DT4">
-        <v>0.024751492299492077</v>
+        <v>0.02536618635886868</v>
       </c>
       <c r="DU4">
-        <v>0.02475149229949207</v>
+        <v>0.02536618635886868</v>
       </c>
       <c r="DV4">
-        <v>0.02475149229949208</v>
+        <v>0.02536618635886868</v>
       </c>
       <c r="DW4">
-        <v>0.024751492299492077</v>
+        <v>0.02536618635886868</v>
       </c>
       <c r="DX4">
-        <v>0.024751492299492084</v>
+        <v>0.025315654403142106</v>
       </c>
       <c r="DY4">
-        <v>0.024751492299492084</v>
+        <v>0.025315654403142106</v>
       </c>
       <c r="DZ4">
-        <v>0.024751492299492084</v>
+        <v>0.025315654403142106</v>
       </c>
       <c r="EA4">
-        <v>0.024751492299492084</v>
+        <v>0.025315654403142113</v>
       </c>
       <c r="EB4">
-        <v>0.024751492299492084</v>
+        <v>0.02531565440314211</v>
       </c>
       <c r="EC4">
-        <v>0.024751492299492084</v>
+        <v>0.023697625188467013</v>
       </c>
       <c r="ED4">
-        <v>0.024751492299492084</v>
+        <v>0.02369762518846702</v>
       </c>
       <c r="EE4">
-        <v>0.024751492299492084</v>
+        <v>0.023697625188467013</v>
       </c>
       <c r="EF4">
-        <v>0.024751492299492084</v>
+        <v>0.023697625188467013</v>
       </c>
       <c r="EG4">
-        <v>0.024751492299492087</v>
+        <v>0.023697625188467013</v>
       </c>
       <c r="EH4">
-        <v>0.024751492299492087</v>
+        <v>0.025141798324455844</v>
       </c>
       <c r="EI4">
-        <v>0.024751492299492087</v>
+        <v>0.025141798324455848</v>
       </c>
       <c r="EJ4">
-        <v>0.024751492299492087</v>
+        <v>0.025141798324455848</v>
       </c>
       <c r="EK4">
-        <v>0.024751492299492087</v>
+        <v>0.025141798324455844</v>
       </c>
       <c r="EL4">
-        <v>0.024751492299492087</v>
+        <v>0.025141798324455848</v>
       </c>
       <c r="EM4">
-        <v>0.024751492299492087</v>
+        <v>0.025141798324455848</v>
       </c>
       <c r="EN4">
-        <v>0.024751492299492087</v>
+        <v>0.025141798324455848</v>
       </c>
       <c r="EO4">
-        <v>0.024751492299492087</v>
+        <v>0.025141798324455848</v>
       </c>
       <c r="EP4">
-        <v>0.024751492299492087</v>
+        <v>0.025141798324455848</v>
       </c>
       <c r="EQ4">
-        <v>0.024751492299492087</v>
+        <v>0.025141798324455851</v>
       </c>
       <c r="ER4">
-        <v>0.024751492299492087</v>
+        <v>0.025141798324455851</v>
       </c>
       <c r="ES4">
-        <v>0.024751492299492087</v>
+        <v>0.025141798324455851</v>
       </c>
       <c r="ET4">
-        <v>0.024751492299492087</v>
+        <v>0.025141798324455848</v>
       </c>
       <c r="EU4">
-        <v>0.024751492299492087</v>
+        <v>0.025141798324455851</v>
       </c>
       <c r="EV4">
-        <v>0.024751492299492087</v>
+        <v>0.025141798324455851</v>
       </c>
       <c r="EW4">
-        <v>0.024751492299492087</v>
+        <v>0.025141798324455851</v>
       </c>
       <c r="EX4">
-        <v>0.024751492299492087</v>
+        <v>0.025141798324455851</v>
       </c>
       <c r="EY4">
-        <v>0.024751492299492094</v>
+        <v>0.025141798324455851</v>
       </c>
       <c r="EZ4">
-        <v>0.024751492299492094</v>
+        <v>0.025141798324455851</v>
       </c>
       <c r="FA4">
-        <v>0.024751492299492094</v>
+        <v>0.025141798324455851</v>
       </c>
       <c r="FB4">
-        <v>0.024751492299492094</v>
+        <v>0.025141798324455854</v>
       </c>
       <c r="FC4">
-        <v>0.024751492299492094</v>
+        <v>0.025141798324455854</v>
       </c>
       <c r="FD4">
-        <v>0.024751492299492098</v>
+        <v>0.025141798324455854</v>
       </c>
       <c r="FE4">
-        <v>0.024751492299492094</v>
+        <v>0.025141798324455851</v>
       </c>
       <c r="FF4">
-        <v>0.024751492299492098</v>
+        <v>0.025141798324455858</v>
       </c>
       <c r="FG4">
-        <v>0.024751492299492094</v>
+        <v>0.025141798324455858</v>
       </c>
       <c r="FH4">
-        <v>0.024751492299492101</v>
+        <v>0.025141798324455865</v>
       </c>
       <c r="FI4">
-        <v>0.024751492299492094</v>
+        <v>0.025141798324455858</v>
       </c>
       <c r="FJ4">
-        <v>0.024751492299492101</v>
+        <v>0.025141798324455865</v>
       </c>
       <c r="FK4">
-        <v>0.024751492299492098</v>
+        <v>0.025141798324455858</v>
       </c>
       <c r="FL4">
-        <v>0.024751492299492101</v>
+        <v>0.025141798324455865</v>
       </c>
       <c r="FM4">
-        <v>0.024751492299492105</v>
+        <v>0.025141798324455865</v>
       </c>
       <c r="FN4">
-        <v>0.024751492299492108</v>
+        <v>0.025141798324455865</v>
       </c>
       <c r="FO4">
-        <v>0.024751492299492108</v>
+        <v>0.025141798324455865</v>
       </c>
       <c r="FP4">
-        <v>0.024751492299492105</v>
+        <v>0.025141798324455865</v>
       </c>
       <c r="FQ4">
-        <v>0.024751492299492112</v>
+        <v>0.025141798324455868</v>
       </c>
       <c r="FR4">
-        <v>0.024751492299492112</v>
+        <v>0.025141798324455865</v>
       </c>
       <c r="FS4">
-        <v>0.024751492299492108</v>
+        <v>0.025141798324455865</v>
       </c>
       <c r="FT4">
-        <v>0.024751492299492112</v>
+        <v>0.025141798324455865</v>
       </c>
       <c r="FU4">
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.020094632701927548</v>
+        <v>0.020411504756270588</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -3868,535 +3873,535 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>0.0060833953612195058</v>
+        <v>1.9020965314807101</v>
       </c>
       <c r="C3">
-        <v>-0.62962742407599359</v>
+        <v>-0.75608146626773898</v>
       </c>
       <c r="D3">
-        <v>-0.66735443369297809</v>
+        <v>-0.79356916042300674</v>
       </c>
       <c r="E3">
-        <v>-0.66463125421171754</v>
+        <v>-0.7974674004268848</v>
       </c>
       <c r="F3">
-        <v>-0.67458017385450519</v>
+        <v>-0.7800216951219433</v>
       </c>
       <c r="G3">
-        <v>-0.68371386585965499</v>
+        <v>-0.80858201399180285</v>
       </c>
       <c r="H3">
-        <v>-0.662161215893174</v>
+        <v>-0.79492527241376865</v>
       </c>
       <c r="I3">
-        <v>0.00090815192876333214</v>
+        <v>-0.0044024721995172007</v>
       </c>
       <c r="J3">
-        <v>-0.010043139580673948</v>
+        <v>-0.0083183546767364135</v>
       </c>
       <c r="K3">
-        <v>-0.002182008641028443</v>
+        <v>0.0078264226834943648</v>
       </c>
       <c r="L3">
-        <v>0.0056637034784884155</v>
+        <v>0.0092587687725677031</v>
       </c>
       <c r="M3">
-        <v>0.0021809281393991077</v>
+        <v>-0.01033318977024208</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.1688297790797972</v>
+        <v>1.1265577780384306</v>
       </c>
       <c r="P3">
-        <v>1.2663816981057627</v>
+        <v>1.234489513098276</v>
       </c>
       <c r="Q3">
-        <v>-0.21386448304023128</v>
+        <v>-0.32148657523297008</v>
       </c>
       <c r="R3">
-        <v>-0.30746438673452031</v>
+        <v>-0.36111087498282368</v>
       </c>
       <c r="S3">
-        <v>-0.22457325327702488</v>
+        <v>-0.2963640244271995</v>
       </c>
       <c r="T3">
-        <v>-0.24175742994022484</v>
+        <v>-0.30012368636871795</v>
       </c>
       <c r="U3">
-        <v>-0.23077250118174414</v>
+        <v>-0.21809071769146204</v>
       </c>
       <c r="V3">
-        <v>-0.17680333753607033</v>
+        <v>-0.25604585455193274</v>
       </c>
       <c r="W3">
-        <v>-0.20220543212388101</v>
+        <v>-0.25860738700440133</v>
       </c>
       <c r="X3">
-        <v>-0.2082732668367023</v>
+        <v>-0.22477814425397144</v>
       </c>
       <c r="Y3">
-        <v>-0.17599271818297585</v>
+        <v>-0.2241675585173856</v>
       </c>
       <c r="Z3">
-        <v>-0.15858095894509566</v>
+        <v>-0.15519306210485204</v>
       </c>
       <c r="AA3">
-        <v>-0.14382324512722933</v>
+        <v>-0.18508589108904816</v>
       </c>
       <c r="AB3">
-        <v>-0.14325859091077692</v>
+        <v>-0.19690184477846853</v>
       </c>
       <c r="AC3">
-        <v>-0.15219972913437271</v>
+        <v>-0.18653204026209069</v>
       </c>
       <c r="AD3">
-        <v>-0.14068720095143439</v>
+        <v>-0.11957179036425827</v>
       </c>
       <c r="AE3">
-        <v>-0.12340671023152601</v>
+        <v>-0.18666763113424037</v>
       </c>
       <c r="AF3">
-        <v>-0.053222945606661652</v>
+        <v>-0.16238013025745754</v>
       </c>
       <c r="AG3">
-        <v>-0.084951311504372157</v>
+        <v>-0.13723057521838686</v>
       </c>
       <c r="AH3">
-        <v>-0.11276332108532863</v>
+        <v>-0.10031549036368567</v>
       </c>
       <c r="AI3">
-        <v>-0.086410228069465841</v>
+        <v>-0.11253665726148411</v>
       </c>
       <c r="AJ3">
-        <v>-0.083598832514678728</v>
+        <v>-0.14318432909643031</v>
       </c>
       <c r="AK3">
-        <v>-0.077469831893749994</v>
+        <v>-0.12093707369112495</v>
       </c>
       <c r="AL3">
-        <v>-0.090230569454564299</v>
+        <v>-0.14306285911696207</v>
       </c>
       <c r="AM3">
-        <v>-0.044569517421196199</v>
+        <v>-0.12548591997253017</v>
       </c>
       <c r="AN3">
-        <v>-0.02300804208247877</v>
+        <v>-0.10706904012546778</v>
       </c>
       <c r="AO3">
-        <v>-0.045486593979475201</v>
+        <v>-0.094297200315882582</v>
       </c>
       <c r="AP3">
-        <v>-0.042820500559869315</v>
+        <v>-0.13075264605808118</v>
       </c>
       <c r="AQ3">
-        <v>-0.025879616155881649</v>
+        <v>-0.080044483913827</v>
       </c>
       <c r="AR3">
-        <v>-0.042496669782698032</v>
+        <v>-0.067638854640391446</v>
       </c>
       <c r="AS3">
-        <v>-0.01193761568022903</v>
+        <v>-0.12668394681846495</v>
       </c>
       <c r="AT3">
-        <v>-0.05745337477058006</v>
+        <v>-0.066711912724982517</v>
       </c>
       <c r="AU3">
-        <v>-0.041627097513012003</v>
+        <v>-0.072844668947749158</v>
       </c>
       <c r="AV3">
-        <v>-0.12648628846582879</v>
+        <v>-0.1028043999172137</v>
       </c>
       <c r="AW3">
-        <v>-0.030902670813422784</v>
+        <v>-0.074305589986813983</v>
       </c>
       <c r="AX3">
-        <v>-0.0091755501552444069</v>
+        <v>-0.086946694883454204</v>
       </c>
       <c r="AY3">
-        <v>-0.010650902246544185</v>
+        <v>-0.02107902162170866</v>
       </c>
       <c r="AZ3">
-        <v>0.0086160113504454017</v>
+        <v>-0.063696241011944044</v>
       </c>
       <c r="BA3">
-        <v>0.012979821380969456</v>
+        <v>-0.093888785546927658</v>
       </c>
       <c r="BB3">
-        <v>-0.03845907630767266</v>
+        <v>-0.060137840659840687</v>
       </c>
       <c r="BC3">
-        <v>0.0041823623418321115</v>
+        <v>-0.060261473277659974</v>
       </c>
       <c r="BD3">
-        <v>-0.02594745302639322</v>
+        <v>-0.055092699362745266</v>
       </c>
       <c r="BE3">
-        <v>0.0050643079011795369</v>
+        <v>-0.097066137196328464</v>
       </c>
       <c r="BF3">
-        <v>-0.038985491349418852</v>
+        <v>-0.072282254802308279</v>
       </c>
       <c r="BG3">
-        <v>-0.048898247222036548</v>
+        <v>-0.060915190878528737</v>
       </c>
       <c r="BH3">
-        <v>-0.0075696866982718353</v>
+        <v>-0.062263362129995829</v>
       </c>
       <c r="BI3">
-        <v>0.014980523000082235</v>
+        <v>-0.093464032179296247</v>
       </c>
       <c r="BJ3">
-        <v>-0.01441781246690433</v>
+        <v>-0.08330437538867505</v>
       </c>
       <c r="BK3">
-        <v>-0.00061632816849336908</v>
+        <v>-0.098777935201945735</v>
       </c>
       <c r="BL3">
-        <v>-0.0033402282318550059</v>
+        <v>-0.04448937491793304</v>
       </c>
       <c r="BM3">
-        <v>-0.014425027005677476</v>
+        <v>-0.069320264504156681</v>
       </c>
       <c r="BN3">
-        <v>-0.048974332192966361</v>
+        <v>-0.08584743053675381</v>
       </c>
       <c r="BO3">
-        <v>-0.019117203729561348</v>
+        <v>-0.087999819063896714</v>
       </c>
       <c r="BP3">
-        <v>-0.017685771042934648</v>
+        <v>-0.095466367843152058</v>
       </c>
       <c r="BQ3">
-        <v>-0.032011618270475557</v>
+        <v>-0.046803179852433367</v>
       </c>
       <c r="BR3">
-        <v>-0.017762903694090202</v>
+        <v>-0.076010971790398701</v>
       </c>
       <c r="BS3">
-        <v>-0.012802323983727637</v>
+        <v>-0.071072933428782112</v>
       </c>
       <c r="BT3">
-        <v>0.0029759571434120717</v>
+        <v>-0.10099153264408454</v>
       </c>
       <c r="BU3">
-        <v>-0.027793553601499849</v>
+        <v>-0.073581299485781668</v>
       </c>
       <c r="BV3">
-        <v>-0.038544721296250313</v>
+        <v>-0.07642892075614259</v>
       </c>
       <c r="BW3">
-        <v>0.012934019487658434</v>
+        <v>-0.087634913143887425</v>
       </c>
       <c r="BX3">
-        <v>0.0058731243834707018</v>
+        <v>-0.094749516041226972</v>
       </c>
       <c r="BY3">
-        <v>-0.017819821071623075</v>
+        <v>-0.06277639396681528</v>
       </c>
       <c r="BZ3">
-        <v>0.0098822394802055031</v>
+        <v>-0.07469101745717896</v>
       </c>
       <c r="CA3">
-        <v>0.026833585626030981</v>
+        <v>-0.048052207737749895</v>
       </c>
       <c r="CB3">
-        <v>0.031306188066858621</v>
+        <v>-0.038911735730369712</v>
       </c>
       <c r="CC3">
-        <v>-0.036740814749110534</v>
+        <v>-0.0082798630136274847</v>
       </c>
       <c r="CD3">
-        <v>-0.02162372956719558</v>
+        <v>-0.087304784466993135</v>
       </c>
       <c r="CE3">
-        <v>0.021241812226369065</v>
+        <v>-0.057168298515264136</v>
       </c>
       <c r="CF3">
-        <v>-0.0060944304171691235</v>
+        <v>-0.073243161780600766</v>
       </c>
       <c r="CG3">
-        <v>-0.036201744469612794</v>
+        <v>-0.053098522919760034</v>
       </c>
       <c r="CH3">
-        <v>-0.034882344528453881</v>
+        <v>-0.067762188729751746</v>
       </c>
       <c r="CI3">
-        <v>-0.022312099276761255</v>
+        <v>-0.077869045188657782</v>
       </c>
       <c r="CJ3">
-        <v>0.022484956577334254</v>
+        <v>-0.096081599548452107</v>
       </c>
       <c r="CK3">
-        <v>0.01497260211304865</v>
+        <v>-0.077050596044228717</v>
       </c>
       <c r="CL3">
-        <v>-0.035493636327811842</v>
+        <v>-0.065887376318169669</v>
       </c>
       <c r="CM3">
-        <v>0.023542498937471363</v>
+        <v>-0.1063077804124313</v>
       </c>
       <c r="CN3">
-        <v>-0.05032183847452934</v>
+        <v>-0.077922332645007933</v>
       </c>
       <c r="CO3">
-        <v>-0.050317992969152465</v>
+        <v>-0.097910912079766391</v>
       </c>
       <c r="CP3">
-        <v>0.014935524072289819</v>
+        <v>-0.061337472429975136</v>
       </c>
       <c r="CQ3">
-        <v>-0.061471956034723427</v>
+        <v>-0.12185640765633561</v>
       </c>
       <c r="CR3">
-        <v>-0.0088709324722038262</v>
+        <v>-0.097160375336336452</v>
       </c>
       <c r="CS3">
-        <v>-0.027436954388151618</v>
+        <v>-0.10614316357074753</v>
       </c>
       <c r="CT3">
-        <v>-0.00056094200553957231</v>
+        <v>-0.047963033777260938</v>
       </c>
       <c r="CU3">
-        <v>-0.0055231005685755404</v>
+        <v>-0.050787135870474794</v>
       </c>
       <c r="CV3">
-        <v>0.037120663014592215</v>
+        <v>-0.048900236801188525</v>
       </c>
       <c r="CW3">
-        <v>-0.030454592664352496</v>
+        <v>-0.073343783748062996</v>
       </c>
       <c r="CX3">
-        <v>0.052240103168772985</v>
+        <v>-0.065416552203109227</v>
       </c>
       <c r="CY3">
-        <v>0.015315895493703742</v>
+        <v>-0.057384851363255419</v>
       </c>
       <c r="CZ3">
-        <v>-0.031117476745596846</v>
+        <v>-0.10839896397070976</v>
       </c>
       <c r="DA3">
-        <v>0.021351357248783134</v>
+        <v>-0.090745521998788214</v>
       </c>
       <c r="DB3">
-        <v>0.0074130696535331482</v>
+        <v>-0.11016181888076569</v>
       </c>
       <c r="DC3">
-        <v>0.0068403351925671188</v>
+        <v>-0.06163729165307865</v>
       </c>
       <c r="DD3">
-        <v>0.026551594659179847</v>
+        <v>-0.076200856574756948</v>
       </c>
       <c r="DE3">
-        <v>-0.0067148067081909393</v>
+        <v>-0.088593702745182384</v>
       </c>
       <c r="DF3">
-        <v>-0.05246704676815088</v>
+        <v>-0.055391258053217179</v>
       </c>
       <c r="DG3">
-        <v>-0.02651221926454168</v>
+        <v>-0.095636481371490251</v>
       </c>
       <c r="DH3">
-        <v>-0.02809385546115312</v>
+        <v>-0.075860175660482879</v>
       </c>
       <c r="DI3">
-        <v>-0.0086992845190432301</v>
+        <v>-0.11778040681308331</v>
       </c>
       <c r="DJ3">
-        <v>-0.0010738608804008371</v>
+        <v>-0.048563911953006397</v>
       </c>
       <c r="DK3">
-        <v>0.0048686461722160599</v>
+        <v>-0.086528988482388908</v>
       </c>
       <c r="DL3">
-        <v>-0.0095663371956786983</v>
+        <v>-0.034855383433927856</v>
       </c>
       <c r="DM3">
         <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.034421983871288357</v>
+        <v>-0.051060258367514003</v>
       </c>
       <c r="DO3">
-        <v>-0.024325532887563731</v>
+        <v>-0.057671885581617323</v>
       </c>
       <c r="DP3">
-        <v>-0.0024465119846787294</v>
+        <v>-0.038803439414947342</v>
       </c>
       <c r="DQ3">
-        <v>-0.0059838849780478771</v>
+        <v>-0.057813986785636061</v>
       </c>
       <c r="DR3">
-        <v>-0.011930149356771782</v>
+        <v>-0.057805444609584276</v>
       </c>
       <c r="DS3">
-        <v>-0.010195461194868834</v>
+        <v>-0.061680338401698412</v>
       </c>
       <c r="DT3">
-        <v>-0.020166722185253051</v>
+        <v>-0.046458913941853128</v>
       </c>
       <c r="DU3">
-        <v>-0.032382917082197357</v>
+        <v>-0.067405274280620014</v>
       </c>
       <c r="DV3">
-        <v>0.012516018435842588</v>
+        <v>-0.034972484971569164</v>
       </c>
       <c r="DW3">
-        <v>0.022500820529109306</v>
+        <v>-0.087545838890216762</v>
       </c>
       <c r="DX3">
-        <v>-0.00077887391954714234</v>
+        <v>-0.049704209670083911</v>
       </c>
       <c r="DY3">
-        <v>-0.04106369335136871</v>
+        <v>-0.11886759786817019</v>
       </c>
       <c r="DZ3">
-        <v>-0.0043967144746991735</v>
+        <v>-0.087116524732014672</v>
       </c>
       <c r="EA3">
-        <v>-0.045236322920035779</v>
+        <v>-0.076981194939368947</v>
       </c>
       <c r="EB3">
-        <v>-0.035029836997184358</v>
+        <v>-0.074028943543973338</v>
       </c>
       <c r="EC3">
-        <v>0.0071854150220068422</v>
+        <v>-0.055268075889454142</v>
       </c>
       <c r="ED3">
-        <v>-0.029160183502870717</v>
+        <v>-0.043117090477588216</v>
       </c>
       <c r="EE3">
-        <v>-0.0054247065696468172</v>
+        <v>-0.10342808964646225</v>
       </c>
       <c r="EF3">
-        <v>0.006820332186406668</v>
+        <v>-0.065803177824105816</v>
       </c>
       <c r="EG3">
-        <v>-0.015898601737560074</v>
+        <v>-0.052703297929368911</v>
       </c>
       <c r="EH3">
-        <v>-0.017330180035379672</v>
+        <v>-0.11281262169143751</v>
       </c>
       <c r="EI3">
-        <v>-0.006584712821195945</v>
+        <v>-0.084656844717150154</v>
       </c>
       <c r="EJ3">
-        <v>-0.05028980536560098</v>
+        <v>-0.06023359447636336</v>
       </c>
       <c r="EK3">
-        <v>-0.015982417058046806</v>
+        <v>-0.093673616542280153</v>
       </c>
       <c r="EL3">
-        <v>-0.02457617031661288</v>
+        <v>-0.058139275353339778</v>
       </c>
       <c r="EM3">
-        <v>0.022877086603507749</v>
+        <v>-0.12939261506016822</v>
       </c>
       <c r="EN3">
-        <v>-0.033853519936724412</v>
+        <v>-0.10301115024135929</v>
       </c>
       <c r="EO3">
-        <v>-0.031116639851719096</v>
+        <v>-0.065156734957734649</v>
       </c>
       <c r="EP3">
-        <v>0.0096090895701220723</v>
+        <v>-0.1035465098855779</v>
       </c>
       <c r="EQ3">
-        <v>-0.016353784561210248</v>
+        <v>-0.085993861623636592</v>
       </c>
       <c r="ER3">
-        <v>-0.054551163960628098</v>
+        <v>-0.10336138524913802</v>
       </c>
       <c r="ES3">
-        <v>0.017698925801991634</v>
+        <v>-0.091835196376119546</v>
       </c>
       <c r="ET3">
-        <v>-0.031596879209376885</v>
+        <v>-0.097921043219622889</v>
       </c>
       <c r="EU3">
-        <v>-0.005611431784198713</v>
+        <v>-0.11224172321524777</v>
       </c>
       <c r="EV3">
-        <v>-0.060442350349504979</v>
+        <v>-0.1114206300061947</v>
       </c>
       <c r="EW3">
-        <v>-0.0014366617613098655</v>
+        <v>-0.081898133285445596</v>
       </c>
       <c r="EX3">
-        <v>0.0049118571230931454</v>
+        <v>-0.096080248267376239</v>
       </c>
       <c r="EY3">
-        <v>-0.032157693183308821</v>
+        <v>-0.07549751985051506</v>
       </c>
       <c r="EZ3">
-        <v>-0.058930776314600343</v>
+        <v>-0.11898400848005439</v>
       </c>
       <c r="FA3">
-        <v>-0.012015564981761793</v>
+        <v>-0.096608311749976805</v>
       </c>
       <c r="FB3">
-        <v>-0.017330024210202237</v>
+        <v>-0.088003442013284389</v>
       </c>
       <c r="FC3">
-        <v>-0.035608706048924091</v>
+        <v>-0.043860587067669939</v>
       </c>
       <c r="FD3">
-        <v>-0.0060338357837431897</v>
+        <v>-0.088304052489249496</v>
       </c>
       <c r="FE3">
-        <v>0.0070867382534256212</v>
+        <v>-0.11207745273453389</v>
       </c>
       <c r="FF3">
-        <v>-0.025528395589646039</v>
+        <v>-0.068839046577914689</v>
       </c>
       <c r="FG3">
-        <v>-0.039207465398703838</v>
+        <v>-0.10769123230525257</v>
       </c>
       <c r="FH3">
-        <v>-0.040387914323637281</v>
+        <v>-0.10652162363123474</v>
       </c>
       <c r="FI3">
-        <v>-0.073042870911565222</v>
+        <v>-0.16357637207633799</v>
       </c>
       <c r="FJ3">
-        <v>-0.027293428645603853</v>
+        <v>-0.1159262217320348</v>
       </c>
       <c r="FK3">
-        <v>-0.086449548919684857</v>
+        <v>-0.1319167813835106</v>
       </c>
       <c r="FL3">
-        <v>-0.04420879339837485</v>
+        <v>-0.081389929776804926</v>
       </c>
       <c r="FM3">
-        <v>-0.01964896888406123</v>
+        <v>-0.17432175465879968</v>
       </c>
       <c r="FN3">
-        <v>-0.03177585184172859</v>
+        <v>-0.092004553621507432</v>
       </c>
       <c r="FO3">
-        <v>-0.041776697516535878</v>
+        <v>-0.048077292508463307</v>
       </c>
       <c r="FP3">
-        <v>-0.064965462723032427</v>
+        <v>-0.10153072353785698</v>
       </c>
       <c r="FQ3">
-        <v>-0.028502359758572102</v>
+        <v>-0.1592446583384759</v>
       </c>
       <c r="FR3">
-        <v>-0.0075999376522741767</v>
+        <v>-0.12383707981595769</v>
       </c>
       <c r="FS3">
-        <v>0.0050995226572669097</v>
+        <v>-0.1109009414136497</v>
       </c>
       <c r="FT3">
-        <v>-0.071457486064840661</v>
+        <v>-0.1128893921100399</v>
       </c>
       <c r="FU3">
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.479910709765285</v>
+        <v>-5.4134022465006977</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -4410,535 +4415,535 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.025147036225323886</v>
+        <v>0.025262575319147874</v>
       </c>
       <c r="C4">
-        <v>0.012568228355489656</v>
+        <v>0.012625973598394419</v>
       </c>
       <c r="D4">
-        <v>0.014437625482272251</v>
+        <v>0.014503959747282455</v>
       </c>
       <c r="E4">
-        <v>0.014057073071555588</v>
+        <v>0.014121658872838587</v>
       </c>
       <c r="F4">
-        <v>0.014020740462111186</v>
+        <v>0.014085159331723435</v>
       </c>
       <c r="G4">
-        <v>0.016176337502897299</v>
+        <v>0.016250660351909366</v>
       </c>
       <c r="H4">
-        <v>0.019037073355756554</v>
+        <v>0.019124539973487429</v>
       </c>
       <c r="I4">
-        <v>0.017689571783677728</v>
+        <v>0.017770847249927793</v>
       </c>
       <c r="J4">
-        <v>0.014531754761002019</v>
+        <v>0.014598521506860833</v>
       </c>
       <c r="K4">
-        <v>0.012000802463322234</v>
+        <v>0.01205594064459135</v>
       </c>
       <c r="L4">
-        <v>0.012028968473457829</v>
+        <v>0.012084236064620762</v>
       </c>
       <c r="M4">
-        <v>0.012225509792876593</v>
+        <v>0.012281680401227757</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.028188184857511556</v>
+        <v>0.028317696634000755</v>
       </c>
       <c r="P4">
-        <v>0.028188184857511553</v>
+        <v>0.028317696634000755</v>
       </c>
       <c r="Q4">
-        <v>0.028188184857511553</v>
+        <v>0.028317696634000755</v>
       </c>
       <c r="R4">
-        <v>0.028188184857511556</v>
+        <v>0.028317696634000758</v>
       </c>
       <c r="S4">
-        <v>0.028188184857511553</v>
+        <v>0.028317696634000751</v>
       </c>
       <c r="T4">
-        <v>0.028188184857511553</v>
+        <v>0.028317696634000755</v>
       </c>
       <c r="U4">
-        <v>0.028188184857511556</v>
+        <v>0.028317696634000758</v>
       </c>
       <c r="V4">
-        <v>0.028188184857511556</v>
+        <v>0.028317696634000758</v>
       </c>
       <c r="W4">
-        <v>0.02818818485751156</v>
+        <v>0.028317696634000761</v>
       </c>
       <c r="X4">
-        <v>0.028188184857511556</v>
+        <v>0.028317696634000758</v>
       </c>
       <c r="Y4">
-        <v>0.028188184857511567</v>
+        <v>0.028317696634000765</v>
       </c>
       <c r="Z4">
-        <v>0.028188184857511556</v>
+        <v>0.028317696634000758</v>
       </c>
       <c r="AA4">
-        <v>0.028188184857511567</v>
+        <v>0.028317696634000765</v>
       </c>
       <c r="AB4">
-        <v>0.028188184857511556</v>
+        <v>0.028317696634000758</v>
       </c>
       <c r="AC4">
-        <v>0.02818818485751157</v>
+        <v>0.028317696634000768</v>
       </c>
       <c r="AD4">
-        <v>0.028188184857511574</v>
+        <v>0.028317696634000775</v>
       </c>
       <c r="AE4">
-        <v>0.028188184857511574</v>
+        <v>0.028317696634000775</v>
       </c>
       <c r="AF4">
-        <v>0.028188184857511584</v>
+        <v>0.028317696634000782</v>
       </c>
       <c r="AG4">
-        <v>0.028188184857511574</v>
+        <v>0.028317696634000775</v>
       </c>
       <c r="AH4">
-        <v>0.028188184857511584</v>
+        <v>0.028317696634000786</v>
       </c>
       <c r="AI4">
-        <v>0.028188184857511584</v>
+        <v>0.028317696634000782</v>
       </c>
       <c r="AJ4">
-        <v>0.028188184857511595</v>
+        <v>0.028317696634000796</v>
       </c>
       <c r="AK4">
-        <v>0.028188184857511595</v>
+        <v>0.028317696634000796</v>
       </c>
       <c r="AL4">
-        <v>0.028188184857511595</v>
+        <v>0.028317696634000796</v>
       </c>
       <c r="AM4">
-        <v>0.028188184857511595</v>
+        <v>0.028317696634000796</v>
       </c>
       <c r="AN4">
-        <v>0.028188184857511595</v>
+        <v>0.028317696634000796</v>
       </c>
       <c r="AO4">
-        <v>0.028188184857511595</v>
+        <v>0.028317696634000796</v>
       </c>
       <c r="AP4">
-        <v>0.028188184857511595</v>
+        <v>0.028317696634000796</v>
       </c>
       <c r="AQ4">
-        <v>0.028188184857511598</v>
+        <v>0.0283176966340008</v>
       </c>
       <c r="AR4">
-        <v>0.028188184857511601</v>
+        <v>0.0283176966340008</v>
       </c>
       <c r="AS4">
-        <v>0.028188184857511595</v>
+        <v>0.028317696634000796</v>
       </c>
       <c r="AT4">
-        <v>0.028188184857511601</v>
+        <v>0.0283176966340008</v>
       </c>
       <c r="AU4">
-        <v>0.028188184857511598</v>
+        <v>0.0283176966340008</v>
       </c>
       <c r="AV4">
-        <v>0.028188184857511601</v>
+        <v>0.0283176966340008</v>
       </c>
       <c r="AW4">
-        <v>0.028188184857511601</v>
+        <v>0.0283176966340008</v>
       </c>
       <c r="AX4">
-        <v>0.028188184857511601</v>
+        <v>0.0283176966340008</v>
       </c>
       <c r="AY4">
-        <v>0.028188184857511601</v>
+        <v>0.0283176966340008</v>
       </c>
       <c r="AZ4">
-        <v>0.028188184857511601</v>
+        <v>0.0283176966340008</v>
       </c>
       <c r="BA4">
-        <v>0.028188184857511601</v>
+        <v>0.0283176966340008</v>
       </c>
       <c r="BB4">
-        <v>0.028188184857511601</v>
+        <v>0.0283176966340008</v>
       </c>
       <c r="BC4">
-        <v>0.028188184857511601</v>
+        <v>0.0283176966340008</v>
       </c>
       <c r="BD4">
-        <v>0.028188184857511605</v>
+        <v>0.028317696634000803</v>
       </c>
       <c r="BE4">
-        <v>0.028188184857511608</v>
+        <v>0.028317696634000807</v>
       </c>
       <c r="BF4">
-        <v>0.028188184857511612</v>
+        <v>0.028317696634000813</v>
       </c>
       <c r="BG4">
-        <v>0.028188184857511612</v>
+        <v>0.028317696634000813</v>
       </c>
       <c r="BH4">
-        <v>0.028188184857511612</v>
+        <v>0.028317696634000813</v>
       </c>
       <c r="BI4">
-        <v>0.028188184857511612</v>
+        <v>0.028317696634000813</v>
       </c>
       <c r="BJ4">
-        <v>0.028188184857511612</v>
+        <v>0.028317696634000813</v>
       </c>
       <c r="BK4">
-        <v>0.028188184857511612</v>
+        <v>0.028317696634000813</v>
       </c>
       <c r="BL4">
-        <v>0.028188184857511619</v>
+        <v>0.02831769663400082</v>
       </c>
       <c r="BM4">
-        <v>0.028188184857511612</v>
+        <v>0.028317696634000813</v>
       </c>
       <c r="BN4">
-        <v>0.028188184857511615</v>
+        <v>0.028317696634000817</v>
       </c>
       <c r="BO4">
-        <v>0.028188184857511615</v>
+        <v>0.028317696634000817</v>
       </c>
       <c r="BP4">
-        <v>0.028188184857511615</v>
+        <v>0.028317696634000817</v>
       </c>
       <c r="BQ4">
-        <v>0.028188184857511619</v>
+        <v>0.02831769663400082</v>
       </c>
       <c r="BR4">
-        <v>0.028188184857511615</v>
+        <v>0.028317696634000817</v>
       </c>
       <c r="BS4">
-        <v>0.028188184857511615</v>
+        <v>0.028317696634000817</v>
       </c>
       <c r="BT4">
-        <v>0.028188184857511619</v>
+        <v>0.02831769663400082</v>
       </c>
       <c r="BU4">
-        <v>0.028188184857511622</v>
+        <v>0.028317696634000824</v>
       </c>
       <c r="BV4">
-        <v>0.028188184857511619</v>
+        <v>0.02831769663400082</v>
       </c>
       <c r="BW4">
-        <v>0.028188184857511619</v>
+        <v>0.02831769663400082</v>
       </c>
       <c r="BX4">
-        <v>0.028188184857511615</v>
+        <v>0.028317696634000817</v>
       </c>
       <c r="BY4">
-        <v>0.027616267695008096</v>
+        <v>0.027743151774535079</v>
       </c>
       <c r="BZ4">
-        <v>0.027616267695008096</v>
+        <v>0.027743151774535079</v>
       </c>
       <c r="CA4">
-        <v>0.0276162676950081</v>
+        <v>0.027743151774535083</v>
       </c>
       <c r="CB4">
-        <v>0.0276162676950081</v>
+        <v>0.027743151774535083</v>
       </c>
       <c r="CC4">
-        <v>0.027616267695008096</v>
+        <v>0.027743151774535079</v>
       </c>
       <c r="CD4">
-        <v>0.028246748770892383</v>
+        <v>0.028376529621694044</v>
       </c>
       <c r="CE4">
-        <v>0.02824674877089238</v>
+        <v>0.028376529621694044</v>
       </c>
       <c r="CF4">
-        <v>0.028246748770892387</v>
+        <v>0.028376529621694048</v>
       </c>
       <c r="CG4">
-        <v>0.028246748770892376</v>
+        <v>0.028376529621694041</v>
       </c>
       <c r="CH4">
-        <v>0.02824674877089238</v>
+        <v>0.028376529621694044</v>
       </c>
       <c r="CI4">
-        <v>0.028240847111902622</v>
+        <v>0.02837060084728895</v>
       </c>
       <c r="CJ4">
-        <v>0.028240847111902622</v>
+        <v>0.02837060084728895</v>
       </c>
       <c r="CK4">
-        <v>0.028240847111902622</v>
+        <v>0.02837060084728895</v>
       </c>
       <c r="CL4">
-        <v>0.028240847111902622</v>
+        <v>0.02837060084728895</v>
       </c>
       <c r="CM4">
-        <v>0.028240847111902622</v>
+        <v>0.028370600847288947</v>
       </c>
       <c r="CN4">
-        <v>0.02793892587428513</v>
+        <v>0.028067292420108123</v>
       </c>
       <c r="CO4">
-        <v>0.027938925874285134</v>
+        <v>0.028067292420108126</v>
       </c>
       <c r="CP4">
-        <v>0.027938925874285134</v>
+        <v>0.028067292420108126</v>
       </c>
       <c r="CQ4">
-        <v>0.028094801350427343</v>
+        <v>0.028223884072546477</v>
       </c>
       <c r="CR4">
-        <v>0.028094801350427339</v>
+        <v>0.028223884072546477</v>
       </c>
       <c r="CS4">
-        <v>0.02428619769963461</v>
+        <v>0.024397781635391632</v>
       </c>
       <c r="CT4">
-        <v>0.02866174062327528</v>
+        <v>0.028793428171237555</v>
       </c>
       <c r="CU4">
-        <v>0.028661740623275284</v>
+        <v>0.028793428171237562</v>
       </c>
       <c r="CV4">
-        <v>0.028138048449186243</v>
+        <v>0.028267329871882116</v>
       </c>
       <c r="CW4">
-        <v>0.028138048449186253</v>
+        <v>0.028267329871882123</v>
       </c>
       <c r="CX4">
-        <v>0.028578005968969315</v>
+        <v>0.028709308794613083</v>
       </c>
       <c r="CY4">
-        <v>0.028757010533579826</v>
+        <v>0.028889135803069468</v>
       </c>
       <c r="CZ4">
-        <v>0.028757010533579826</v>
+        <v>0.028889135803069468</v>
       </c>
       <c r="DA4">
-        <v>0.028757010533579826</v>
+        <v>0.028889135803069468</v>
       </c>
       <c r="DB4">
-        <v>0.028757010533579829</v>
+        <v>0.028889135803069472</v>
       </c>
       <c r="DC4">
-        <v>0.028433949180978003</v>
+        <v>0.028564590131775185</v>
       </c>
       <c r="DD4">
-        <v>0.028697255621649789</v>
+        <v>0.028829106344735071</v>
       </c>
       <c r="DE4">
-        <v>0.028697255621649785</v>
+        <v>0.028829106344735067</v>
       </c>
       <c r="DF4">
-        <v>0.028697255621649785</v>
+        <v>0.028829106344735067</v>
       </c>
       <c r="DG4">
-        <v>0.028697255621649789</v>
+        <v>0.028829106344735071</v>
       </c>
       <c r="DH4">
-        <v>0.028154399351853533</v>
+        <v>0.028283755899445255</v>
       </c>
       <c r="DI4">
-        <v>0.026588538086177543</v>
+        <v>0.026710700219681287</v>
       </c>
       <c r="DJ4">
-        <v>0.026588538086177546</v>
+        <v>0.026710700219681291</v>
       </c>
       <c r="DK4">
-        <v>0.026954927146546473</v>
+        <v>0.027078772669680822</v>
       </c>
       <c r="DL4">
-        <v>0.026954927146546476</v>
+        <v>0.027078772669680822</v>
       </c>
       <c r="DM4">
         <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.028307236571649512</v>
+        <v>0.028437295336143441</v>
       </c>
       <c r="DO4">
-        <v>0.028307236571649512</v>
+        <v>0.028437295336143437</v>
       </c>
       <c r="DP4">
-        <v>0.027972084178704323</v>
+        <v>0.028100603071722866</v>
       </c>
       <c r="DQ4">
-        <v>0.027972084178704316</v>
+        <v>0.028100603071722862</v>
       </c>
       <c r="DR4">
-        <v>0.027972084178704327</v>
+        <v>0.028100603071722869</v>
       </c>
       <c r="DS4">
-        <v>0.027906993965758783</v>
+        <v>0.028035213799112675</v>
       </c>
       <c r="DT4">
-        <v>0.027906993965758787</v>
+        <v>0.028035213799112675</v>
       </c>
       <c r="DU4">
-        <v>0.027906993965758783</v>
+        <v>0.028035213799112675</v>
       </c>
       <c r="DV4">
-        <v>0.027906993965758783</v>
+        <v>0.028035213799112675</v>
       </c>
       <c r="DW4">
-        <v>0.027906993965758783</v>
+        <v>0.028035213799112675</v>
       </c>
       <c r="DX4">
-        <v>0.027851400469614405</v>
+        <v>0.027979364876360185</v>
       </c>
       <c r="DY4">
-        <v>0.027851400469614405</v>
+        <v>0.027979364876360185</v>
       </c>
       <c r="DZ4">
-        <v>0.027851400469614405</v>
+        <v>0.027979364876360185</v>
       </c>
       <c r="EA4">
-        <v>0.027851400469614408</v>
+        <v>0.027979364876360189</v>
       </c>
       <c r="EB4">
-        <v>0.027851400469614405</v>
+        <v>0.027979364876360189</v>
       </c>
       <c r="EC4">
-        <v>0.026071301132191842</v>
+        <v>0.026191086799203858</v>
       </c>
       <c r="ED4">
-        <v>0.026071301132191849</v>
+        <v>0.026191086799203865</v>
       </c>
       <c r="EE4">
-        <v>0.026071301132191846</v>
+        <v>0.026191086799203862</v>
       </c>
       <c r="EF4">
-        <v>0.026071301132191846</v>
+        <v>0.026191086799203862</v>
       </c>
       <c r="EG4">
-        <v>0.026071301132191842</v>
+        <v>0.026191086799203858</v>
       </c>
       <c r="EH4">
-        <v>0.027660130072473615</v>
+        <v>0.027787215679500696</v>
       </c>
       <c r="EI4">
-        <v>0.027660130072473619</v>
+        <v>0.027787215679500696</v>
       </c>
       <c r="EJ4">
-        <v>0.027660130072473619</v>
+        <v>0.027787215679500696</v>
       </c>
       <c r="EK4">
-        <v>0.027660130072473615</v>
+        <v>0.027787215679500696</v>
       </c>
       <c r="EL4">
-        <v>0.027660130072473619</v>
+        <v>0.027787215679500699</v>
       </c>
       <c r="EM4">
-        <v>0.027660130072473619</v>
+        <v>0.027787215679500696</v>
       </c>
       <c r="EN4">
-        <v>0.027660130072473619</v>
+        <v>0.027787215679500699</v>
       </c>
       <c r="EO4">
-        <v>0.027660130072473619</v>
+        <v>0.027787215679500699</v>
       </c>
       <c r="EP4">
-        <v>0.027660130072473619</v>
+        <v>0.027787215679500699</v>
       </c>
       <c r="EQ4">
-        <v>0.027660130072473622</v>
+        <v>0.027787215679500703</v>
       </c>
       <c r="ER4">
-        <v>0.027660130072473622</v>
+        <v>0.027787215679500703</v>
       </c>
       <c r="ES4">
-        <v>0.027660130072473622</v>
+        <v>0.027787215679500699</v>
       </c>
       <c r="ET4">
-        <v>0.027660130072473619</v>
+        <v>0.027787215679500699</v>
       </c>
       <c r="EU4">
-        <v>0.027660130072473622</v>
+        <v>0.027787215679500699</v>
       </c>
       <c r="EV4">
-        <v>0.027660130072473622</v>
+        <v>0.027787215679500703</v>
       </c>
       <c r="EW4">
-        <v>0.027660130072473622</v>
+        <v>0.027787215679500703</v>
       </c>
       <c r="EX4">
-        <v>0.027660130072473622</v>
+        <v>0.027787215679500703</v>
       </c>
       <c r="EY4">
-        <v>0.027660130072473622</v>
+        <v>0.027787215679500703</v>
       </c>
       <c r="EZ4">
-        <v>0.027660130072473622</v>
+        <v>0.027787215679500703</v>
       </c>
       <c r="FA4">
-        <v>0.027660130072473622</v>
+        <v>0.027787215679500703</v>
       </c>
       <c r="FB4">
-        <v>0.027660130072473629</v>
+        <v>0.02778721567950071</v>
       </c>
       <c r="FC4">
-        <v>0.027660130072473629</v>
+        <v>0.02778721567950071</v>
       </c>
       <c r="FD4">
-        <v>0.027660130072473629</v>
+        <v>0.02778721567950071</v>
       </c>
       <c r="FE4">
-        <v>0.027660130072473622</v>
+        <v>0.027787215679500703</v>
       </c>
       <c r="FF4">
-        <v>0.027660130072473633</v>
+        <v>0.027787215679500713</v>
       </c>
       <c r="FG4">
-        <v>0.027660130072473633</v>
+        <v>0.027787215679500713</v>
       </c>
       <c r="FH4">
-        <v>0.027660130072473636</v>
+        <v>0.027787215679500717</v>
       </c>
       <c r="FI4">
-        <v>0.027660130072473633</v>
+        <v>0.027787215679500713</v>
       </c>
       <c r="FJ4">
-        <v>0.027660130072473636</v>
+        <v>0.027787215679500717</v>
       </c>
       <c r="FK4">
-        <v>0.027660130072473633</v>
+        <v>0.027787215679500713</v>
       </c>
       <c r="FL4">
-        <v>0.027660130072473636</v>
+        <v>0.027787215679500717</v>
       </c>
       <c r="FM4">
-        <v>0.027660130072473636</v>
+        <v>0.027787215679500717</v>
       </c>
       <c r="FN4">
-        <v>0.027660130072473636</v>
+        <v>0.027787215679500717</v>
       </c>
       <c r="FO4">
-        <v>0.02766013007247364</v>
+        <v>0.02778721567950072</v>
       </c>
       <c r="FP4">
-        <v>0.027660130072473636</v>
+        <v>0.027787215679500717</v>
       </c>
       <c r="FQ4">
-        <v>0.027660130072473643</v>
+        <v>0.027787215679500724</v>
       </c>
       <c r="FR4">
-        <v>0.027660130072473636</v>
+        <v>0.027787215679500717</v>
       </c>
       <c r="FS4">
-        <v>0.027660130072473636</v>
+        <v>0.027787215679500717</v>
       </c>
       <c r="FT4">
-        <v>0.02766013007247364</v>
+        <v>0.02778721567950072</v>
       </c>
       <c r="FU4">
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.022456025986978715</v>
+        <v>0.02255920112341132</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -5770,7 +5775,7 @@
         <v>92</v>
       </c>
       <c r="CS2" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="CT2" t="s">
         <v>94</v>
@@ -5830,7 +5835,7 @@
         <v>112</v>
       </c>
       <c r="DM2" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="DN2" t="s">
         <v>114</v>
@@ -6027,535 +6032,535 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>2.2965586756037344</v>
+        <v>1.0854933750135534</v>
       </c>
       <c r="C3">
-        <v>-0.88561645341060757</v>
+        <v>-1.8086156018857675</v>
       </c>
       <c r="D3">
-        <v>-0.92293197134636196</v>
+        <v>-1.8773694125155205</v>
       </c>
       <c r="E3">
-        <v>-0.93233153981870787</v>
+        <v>-1.8733797378739117</v>
       </c>
       <c r="F3">
-        <v>-0.93436527838504302</v>
+        <v>-1.8438674160354798</v>
       </c>
       <c r="G3">
-        <v>-0.92303863682635157</v>
+        <v>-1.8382157247244706</v>
       </c>
       <c r="H3">
-        <v>-0.93008796038375841</v>
+        <v>-1.8672590466662442</v>
       </c>
       <c r="I3">
-        <v>-0.0055962880091655169</v>
+        <v>0.81105451367819292</v>
       </c>
       <c r="J3">
-        <v>0.01014988100768523</v>
+        <v>0.75436972125199009</v>
       </c>
       <c r="K3">
-        <v>0.002844498318329666</v>
+        <v>0.61503874760858201</v>
       </c>
       <c r="L3">
-        <v>0.0034958143185221647</v>
+        <v>0.48616012766839667</v>
       </c>
       <c r="M3">
-        <v>-0.010191726037901217</v>
+        <v>0.38853859659775236</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.1143843999487686</v>
+        <v>1.3757315339978422</v>
       </c>
       <c r="P3">
-        <v>1.2274411607068878</v>
+        <v>1.4642291832068031</v>
       </c>
       <c r="Q3">
-        <v>-0.28560855771797294</v>
+        <v>-0.071226593042851519</v>
       </c>
       <c r="R3">
-        <v>-0.33949668857146453</v>
+        <v>-0.10939262636728189</v>
       </c>
       <c r="S3">
-        <v>-0.30152477845706321</v>
+        <v>-0.016324818509848547</v>
       </c>
       <c r="T3">
-        <v>-0.29974476380939302</v>
+        <v>-0.05020632800903857</v>
       </c>
       <c r="U3">
-        <v>-0.30467359802383964</v>
+        <v>0.015365298581598111</v>
       </c>
       <c r="V3">
-        <v>-0.24123550072722005</v>
+        <v>-0.052528825775101262</v>
       </c>
       <c r="W3">
-        <v>-0.27580407747357494</v>
+        <v>0.0032888485726892385</v>
       </c>
       <c r="X3">
-        <v>-0.28714300580241447</v>
+        <v>0.011891241929084046</v>
       </c>
       <c r="Y3">
-        <v>-0.23872740494807165</v>
+        <v>0.053578834073719765</v>
       </c>
       <c r="Z3">
-        <v>-0.22403485716242133</v>
+        <v>0.067184480525043458</v>
       </c>
       <c r="AA3">
-        <v>-0.19132760044722935</v>
+        <v>0.076679450720255532</v>
       </c>
       <c r="AB3">
-        <v>-0.18020642230951092</v>
+        <v>0.056715224428422077</v>
       </c>
       <c r="AC3">
-        <v>-0.1799550631714377</v>
+        <v>0.064693851297086921</v>
       </c>
       <c r="AD3">
-        <v>-0.22169891189845534</v>
+        <v>0.12108420624126991</v>
       </c>
       <c r="AE3">
-        <v>-0.17692809350560679</v>
+        <v>0.033633030258564192</v>
       </c>
       <c r="AF3">
-        <v>-0.10935990475784155</v>
+        <v>0.075793198061865685</v>
       </c>
       <c r="AG3">
-        <v>-0.16186012267571986</v>
+        <v>0.13231839509515428</v>
       </c>
       <c r="AH3">
-        <v>-0.15755995871496634</v>
+        <v>0.11901664087448358</v>
       </c>
       <c r="AI3">
-        <v>-0.14141895640298452</v>
+        <v>0.052451905159704444</v>
       </c>
       <c r="AJ3">
-        <v>-0.16634094134764643</v>
+        <v>0.10018882242748119</v>
       </c>
       <c r="AK3">
-        <v>-0.16363142280781956</v>
+        <v>0.078072948035565998</v>
       </c>
       <c r="AL3">
-        <v>-0.13639370052330921</v>
+        <v>0.074144637707849154</v>
       </c>
       <c r="AM3">
-        <v>-0.11381040048783322</v>
+        <v>0.030075512845422429</v>
       </c>
       <c r="AN3">
-        <v>-0.11916628654317997</v>
+        <v>0.14506275871802005</v>
       </c>
       <c r="AO3">
-        <v>-0.087710664466452162</v>
+        <v>0.13142317226007025</v>
       </c>
       <c r="AP3">
-        <v>-0.099830584942376038</v>
+        <v>0.068462451197170621</v>
       </c>
       <c r="AQ3">
-        <v>-0.11338939401848419</v>
+        <v>0.1147401670014922</v>
       </c>
       <c r="AR3">
-        <v>-0.096821618806575457</v>
+        <v>0.15246113698161837</v>
       </c>
       <c r="AS3">
-        <v>-0.098200150026244493</v>
+        <v>0.086092512026862272</v>
       </c>
       <c r="AT3">
-        <v>-0.14054734074739764</v>
+        <v>0.12654199738284813</v>
       </c>
       <c r="AU3">
-        <v>-0.10438821928082018</v>
+        <v>0.16330492618411843</v>
       </c>
       <c r="AV3">
-        <v>-0.17166802288448571</v>
+        <v>0.13813269204569126</v>
       </c>
       <c r="AW3">
-        <v>-0.098019975747398028</v>
+        <v>0.098650563908873251</v>
       </c>
       <c r="AX3">
-        <v>-0.070783148272873853</v>
+        <v>0.10087186587325102</v>
       </c>
       <c r="AY3">
-        <v>-0.11364608994691909</v>
+        <v>0.17166562768534915</v>
       </c>
       <c r="AZ3">
-        <v>-0.046269186642065814</v>
+        <v>0.16452463143112955</v>
       </c>
       <c r="BA3">
-        <v>-0.086801561775589092</v>
+        <v>0.11771864209239741</v>
       </c>
       <c r="BB3">
-        <v>-0.13680923142134968</v>
+        <v>0.1141828813895213</v>
       </c>
       <c r="BC3">
-        <v>-0.071200229085979727</v>
+        <v>0.14532390798585254</v>
       </c>
       <c r="BD3">
-        <v>-0.090997410671975421</v>
+        <v>0.14973337517997037</v>
       </c>
       <c r="BE3">
-        <v>-0.045389313953889524</v>
+        <v>0.11167071191939321</v>
       </c>
       <c r="BF3">
-        <v>-0.075014524474057681</v>
+        <v>0.092724350009560697</v>
       </c>
       <c r="BG3">
-        <v>-0.10118050555861285</v>
+        <v>0.16149294206725964</v>
       </c>
       <c r="BH3">
-        <v>-0.062741930086651423</v>
+        <v>0.1386104052201155</v>
       </c>
       <c r="BI3">
-        <v>-0.08071415841018921</v>
+        <v>0.15905679308453483</v>
       </c>
       <c r="BJ3">
-        <v>-0.089195208903728659</v>
+        <v>0.11503010567780825</v>
       </c>
       <c r="BK3">
-        <v>-0.068797659788248436</v>
+        <v>0.12654141872593455</v>
       </c>
       <c r="BL3">
-        <v>-0.078079932342330224</v>
+        <v>0.13286952754286974</v>
       </c>
       <c r="BM3">
-        <v>-0.068546837858414228</v>
+        <v>0.12758274267941588</v>
       </c>
       <c r="BN3">
-        <v>-0.11264267038088829</v>
+        <v>0.16996373913291521</v>
       </c>
       <c r="BO3">
-        <v>-0.097494943631953213</v>
+        <v>0.11175322119168184</v>
       </c>
       <c r="BP3">
-        <v>-0.082485507544159078</v>
+        <v>0.096435539640744958</v>
       </c>
       <c r="BQ3">
-        <v>-0.089983322790944217</v>
+        <v>0.15901272810876885</v>
       </c>
       <c r="BR3">
-        <v>-0.074879588090293797</v>
+        <v>0.11285910245390229</v>
       </c>
       <c r="BS3">
-        <v>-0.084608678039935603</v>
+        <v>0.11989675288177581</v>
       </c>
       <c r="BT3">
-        <v>-0.077957252767305515</v>
+        <v>-0.0073368694664195143</v>
       </c>
       <c r="BU3">
-        <v>-0.10711636054944182</v>
+        <v>0.12068051386233764</v>
       </c>
       <c r="BV3">
-        <v>-0.061159202354702319</v>
+        <v>0.13476697158924086</v>
       </c>
       <c r="BW3">
-        <v>-0.067125671725273034</v>
+        <v>0.11187137281798733</v>
       </c>
       <c r="BX3">
-        <v>-0.068722239686408948</v>
+        <v>0.063767173522014026</v>
       </c>
       <c r="BY3">
-        <v>-0.14710737817119748</v>
+        <v>0.16296162706522524</v>
       </c>
       <c r="BZ3">
-        <v>-0.051257928572041409</v>
+        <v>0.15591020157022498</v>
       </c>
       <c r="CA3">
-        <v>-0.032724842567052083</v>
+        <v>0.1360365576909259</v>
       </c>
       <c r="CB3">
-        <v>-0.047291751012298648</v>
+        <v>0.13990674592911947</v>
       </c>
       <c r="CC3">
-        <v>-0.10325661229014184</v>
+        <v>0.19215259454008893</v>
       </c>
       <c r="CD3">
-        <v>-0.073833267170306818</v>
+        <v>0.073835789041475267</v>
       </c>
       <c r="CE3">
-        <v>-0.047077902043065736</v>
+        <v>0.11407390269544941</v>
       </c>
       <c r="CF3">
-        <v>-0.077376881539096012</v>
+        <v>0.10420003875063115</v>
       </c>
       <c r="CG3">
-        <v>-0.10518707557851296</v>
+        <v>0.14184397672745183</v>
       </c>
       <c r="CH3">
-        <v>-0.073679322716152879</v>
+        <v>0.10017241910368228</v>
       </c>
       <c r="CI3">
-        <v>-0.056085521495585516</v>
+        <v>0.086943612225149833</v>
       </c>
       <c r="CJ3">
-        <v>-0.042241443983885109</v>
+        <v>0.094979047999207297</v>
       </c>
       <c r="CK3">
-        <v>-0.039001177067826846</v>
+        <v>0.097761781661450678</v>
       </c>
       <c r="CL3">
-        <v>-0.055107495125063105</v>
+        <v>0.12769869373634204</v>
       </c>
       <c r="CM3">
-        <v>-0.012743815211087962</v>
+        <v>0.093342884117315381</v>
       </c>
       <c r="CN3">
-        <v>-0.10002657178688214</v>
+        <v>0.042336487367880093</v>
       </c>
       <c r="CO3">
-        <v>-0.059459215197330974</v>
+        <v>0.011478740172348506</v>
       </c>
       <c r="CP3">
-        <v>-0.012565305188471815</v>
+        <v>0.050376124319955813</v>
       </c>
       <c r="CQ3">
-        <v>-0.072859187000182873</v>
+        <v>0.07579438718634933</v>
       </c>
       <c r="CR3">
-        <v>-0.015636990123612457</v>
+        <v>0.076545511905656269</v>
       </c>
       <c r="CS3">
+        <v>0.049593437612546934</v>
+      </c>
+      <c r="CT3">
+        <v>0.17856951372947141</v>
+      </c>
+      <c r="CU3">
+        <v>0.17167569055145457</v>
+      </c>
+      <c r="CV3">
+        <v>0.11284901451064928</v>
+      </c>
+      <c r="CW3">
+        <v>0.10136095973339213</v>
+      </c>
+      <c r="CX3">
+        <v>0.11881392816057186</v>
+      </c>
+      <c r="CY3">
+        <v>0.15073002589055839</v>
+      </c>
+      <c r="CZ3">
+        <v>0.12371651519423374</v>
+      </c>
+      <c r="DA3">
+        <v>0.073512606153518206</v>
+      </c>
+      <c r="DB3">
+        <v>0.062025017744425079</v>
+      </c>
+      <c r="DC3">
+        <v>0.037507432905880267</v>
+      </c>
+      <c r="DD3">
+        <v>0.078851839996047182</v>
+      </c>
+      <c r="DE3">
+        <v>0.082294294962434553</v>
+      </c>
+      <c r="DF3">
+        <v>0.039608973439222761</v>
+      </c>
+      <c r="DG3">
+        <v>0.02768361738172774</v>
+      </c>
+      <c r="DH3">
+        <v>-0.0029701192057716252</v>
+      </c>
+      <c r="DI3">
+        <v>-0.019116633695083821</v>
+      </c>
+      <c r="DJ3">
+        <v>0.05920402331951477</v>
+      </c>
+      <c r="DK3">
+        <v>-0.017122018366930867</v>
+      </c>
+      <c r="DL3">
+        <v>-0.00081365958800501089</v>
+      </c>
+      <c r="DM3">
         <v>0</v>
       </c>
-      <c r="CT3">
-        <v>-0.053409749147719149</v>
-      </c>
-      <c r="CU3">
-        <v>-0.045774800493556395</v>
-      </c>
-      <c r="CV3">
-        <v>-0.039437571402096812</v>
-      </c>
-      <c r="CW3">
-        <v>-0.098716304524161955</v>
-      </c>
-      <c r="CX3">
-        <v>-0.015490776473224423</v>
-      </c>
-      <c r="CY3">
-        <v>-0.045438879204486436</v>
-      </c>
-      <c r="CZ3">
-        <v>-0.080674862940883885</v>
-      </c>
-      <c r="DA3">
-        <v>-0.052049125495476259</v>
-      </c>
-      <c r="DB3">
-        <v>-0.038280737510862972</v>
-      </c>
-      <c r="DC3">
-        <v>-0.040782651765358773</v>
-      </c>
-      <c r="DD3">
-        <v>-0.03617060565810757</v>
-      </c>
-      <c r="DE3">
-        <v>-0.05749511694679707</v>
-      </c>
-      <c r="DF3">
-        <v>-0.075094511252745508</v>
-      </c>
-      <c r="DG3">
-        <v>-0.071009797542799694</v>
-      </c>
-      <c r="DH3">
-        <v>-0.06728118900657129</v>
-      </c>
-      <c r="DI3">
-        <v>-0.041513075889518809</v>
-      </c>
-      <c r="DJ3">
-        <v>-0.042475318151595325</v>
-      </c>
-      <c r="DK3">
-        <v>-0.044582745446473622</v>
-      </c>
-      <c r="DL3">
-        <v>-0.056133947289557985</v>
-      </c>
-      <c r="DM3">
-        <v>-0.041482600662036843</v>
-      </c>
       <c r="DN3">
-        <v>-0.01583456559563981</v>
+        <v>0.29524347831071013</v>
       </c>
       <c r="DO3">
-        <v>-0.074582082354491847</v>
+        <v>0.26683213239061138</v>
       </c>
       <c r="DP3">
-        <v>-0.058178707206325543</v>
+        <v>0.26809568109193715</v>
       </c>
       <c r="DQ3">
-        <v>-0.061716080199694844</v>
+        <v>0.21378871035464653</v>
       </c>
       <c r="DR3">
-        <v>-0.067662344578418923</v>
+        <v>0.19850406119822656</v>
       </c>
       <c r="DS3">
-        <v>-0.061997090946693062</v>
+        <v>0.24280356870912739</v>
       </c>
       <c r="DT3">
-        <v>-0.071968351937077332</v>
+        <v>0.21868998523800767</v>
       </c>
       <c r="DU3">
-        <v>-0.084184546834021615</v>
+        <v>0.19183688080412389</v>
       </c>
       <c r="DV3">
-        <v>-0.039285611315981711</v>
+        <v>0.18587329569105435</v>
       </c>
       <c r="DW3">
-        <v>-0.029300809222715118</v>
+        <v>0.12677860525495702</v>
       </c>
       <c r="DX3">
-        <v>-0.048657647611613265</v>
+        <v>0.19680365261344787</v>
       </c>
       <c r="DY3">
-        <v>-0.088942467043434947</v>
+        <v>0.11868926529572629</v>
       </c>
       <c r="DZ3">
-        <v>-0.052275488166765124</v>
+        <v>0.1245779880262355</v>
       </c>
       <c r="EA3">
-        <v>-0.093115096612102016</v>
+        <v>0.10865709061239651</v>
       </c>
       <c r="EB3">
-        <v>-0.082908610689250428</v>
+        <v>0.088574107024207954</v>
       </c>
       <c r="EC3">
-        <v>-0.042434746339604007</v>
+        <v>0.12710715158118444</v>
       </c>
       <c r="ED3">
-        <v>-0.0787803448644816</v>
+        <v>0.12049461513915682</v>
       </c>
       <c r="EE3">
-        <v>-0.055044867931257693</v>
+        <v>0.059776591563410544</v>
       </c>
       <c r="EF3">
-        <v>-0.042799829175204029</v>
+        <v>0.065830871113012612</v>
       </c>
       <c r="EG3">
-        <v>-0.065518763099170971</v>
+        <v>0.06733162992371973</v>
       </c>
       <c r="EH3">
-        <v>-0.068040805466690057</v>
+        <v>0.20219168067938373</v>
       </c>
       <c r="EI3">
-        <v>-0.057295338252506448</v>
+        <v>0.19894153031209991</v>
       </c>
       <c r="EJ3">
-        <v>-0.10100043079691134</v>
+        <v>0.20647519660017516</v>
       </c>
       <c r="EK3">
-        <v>-0.066693042489357313</v>
+        <v>0.1703794876374525</v>
       </c>
       <c r="EL3">
-        <v>-0.075286795747923255</v>
+        <v>0.19348117559538636</v>
       </c>
       <c r="EM3">
-        <v>-0.027833538827802647</v>
+        <v>0.11184618072753422</v>
       </c>
       <c r="EN3">
-        <v>-0.08456414536803479</v>
+        <v>0.13323590359536569</v>
       </c>
       <c r="EO3">
-        <v>-0.081827265283029443</v>
+        <v>0.15355379512009124</v>
       </c>
       <c r="EP3">
-        <v>-0.041101535861188303</v>
+        <v>0.10412570840630282</v>
       </c>
       <c r="EQ3">
-        <v>-0.067064409992520627</v>
+        <v>0.10275009487373973</v>
       </c>
       <c r="ER3">
-        <v>-0.10526178939193852</v>
+        <v>0.083826694618111985</v>
       </c>
       <c r="ES3">
-        <v>-0.033011699629318707</v>
+        <v>0.092299133915801732</v>
       </c>
       <c r="ET3">
-        <v>-0.082307504640687298</v>
+        <v>0.079018019561432812</v>
       </c>
       <c r="EU3">
-        <v>-0.056322057215509119</v>
+        <v>0.052924492245611188</v>
       </c>
       <c r="EV3">
-        <v>-0.11115297578081543</v>
+        <v>0.056216995535738508</v>
       </c>
       <c r="EW3">
-        <v>-0.052147287192620184</v>
+        <v>0.068063928424995326</v>
       </c>
       <c r="EX3">
-        <v>-0.045798768308217344</v>
+        <v>0.051928432910825419</v>
       </c>
       <c r="EY3">
-        <v>-0.082868318614619255</v>
+        <v>0.059579160886664019</v>
       </c>
       <c r="EZ3">
-        <v>-0.10964140174591072</v>
+        <v>0.0080190386191848779</v>
       </c>
       <c r="FA3">
-        <v>-0.062726190413072078</v>
+        <v>0.029933945554656696</v>
       </c>
       <c r="FB3">
-        <v>-0.068040649641512616</v>
+        <v>0.038796484062186498</v>
       </c>
       <c r="FC3">
-        <v>-0.086319331480234629</v>
+        <v>0.068345076791415799</v>
       </c>
       <c r="FD3">
-        <v>-0.056744461215053568</v>
+        <v>0.026048786507044265</v>
       </c>
       <c r="FE3">
-        <v>-0.043623887177884922</v>
+        <v>-0.0063603168223447656</v>
       </c>
       <c r="FF3">
-        <v>-0.076239021020956574</v>
+        <v>0.037061692427980339</v>
       </c>
       <c r="FG3">
-        <v>-0.089918090830014438</v>
+        <v>-0.010259376966909515</v>
       </c>
       <c r="FH3">
-        <v>-0.091098539754947971</v>
+        <v>-0.0061128628353844137</v>
       </c>
       <c r="FI3">
-        <v>-0.12375349634287572</v>
+        <v>-0.065773558485619055</v>
       </c>
       <c r="FJ3">
-        <v>-0.078004054076914506</v>
+        <v>-0.032440690455324127</v>
       </c>
       <c r="FK3">
-        <v>-0.13716017435099553</v>
+        <v>-0.047427084042687716</v>
       </c>
       <c r="FL3">
-        <v>-0.094919418829685659</v>
+        <v>-0.0043505921077070537</v>
       </c>
       <c r="FM3">
-        <v>-0.070359594315371948</v>
+        <v>-0.099594364663336321</v>
       </c>
       <c r="FN3">
-        <v>-0.082486477273039191</v>
+        <v>-0.020781800817691765</v>
       </c>
       <c r="FO3">
-        <v>-0.092487322947846701</v>
+        <v>0.021350160671491723</v>
       </c>
       <c r="FP3">
-        <v>-0.11567608815434315</v>
+        <v>-0.037303976464139903</v>
       </c>
       <c r="FQ3">
-        <v>-0.07921298518988279</v>
+        <v>-0.084281471034805336</v>
       </c>
       <c r="FR3">
-        <v>-0.058310563083584885</v>
+        <v>-0.058820064356892042</v>
       </c>
       <c r="FS3">
-        <v>-0.045611102774043802</v>
+        <v>-0.047672347754351516</v>
       </c>
       <c r="FT3">
-        <v>-0.12216811149615135</v>
+        <v>-0.052967635894341475</v>
       </c>
       <c r="FU3">
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.4292000843339743</v>
+        <v>-5.4329527735699727</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -6569,535 +6574,535 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.025352450157959873</v>
+        <v>0.082911066042087311</v>
       </c>
       <c r="C4">
-        <v>0.01267089211234923</v>
+        <v>0.041438092420794451</v>
       </c>
       <c r="D4">
-        <v>0.014555559436861085</v>
+        <v>0.047601590466797829</v>
       </c>
       <c r="E4">
-        <v>0.014171898478220224</v>
+        <v>0.046346889683186961</v>
       </c>
       <c r="F4">
-        <v>0.014135269085324998</v>
+        <v>0.046227099209505108</v>
       </c>
       <c r="G4">
-        <v>0.016308474152017648</v>
+        <v>0.053334213026312104</v>
       </c>
       <c r="H4">
-        <v>0.019192577967467008</v>
+        <v>0.062766205611844941</v>
       </c>
       <c r="I4">
-        <v>0.017834069309118718</v>
+        <v>0.058323423932390588</v>
       </c>
       <c r="J4">
-        <v>0.014650457611978827</v>
+        <v>0.04791193951848443</v>
       </c>
       <c r="K4">
-        <v>0.012098831193495132</v>
+        <v>0.039567260200331557</v>
       </c>
       <c r="L4">
-        <v>0.012127227278095851</v>
+        <v>0.039660124977936757</v>
       </c>
       <c r="M4">
-        <v>0.012325374048152385</v>
+        <v>0.040308131771592932</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02841844045716144</v>
+        <v>0.092937888798766563</v>
       </c>
       <c r="P4">
-        <v>0.02841844045716144</v>
+        <v>0.092937888798766563</v>
       </c>
       <c r="Q4">
-        <v>0.02841844045716144</v>
+        <v>0.092937888798766563</v>
       </c>
       <c r="R4">
-        <v>0.02841844045716144</v>
+        <v>0.092937888798766577</v>
       </c>
       <c r="S4">
-        <v>0.02841844045716144</v>
+        <v>0.092937888798766549</v>
       </c>
       <c r="T4">
-        <v>0.02841844045716144</v>
+        <v>0.092937888798766563</v>
       </c>
       <c r="U4">
-        <v>0.028418440457161451</v>
+        <v>0.092937888798766577</v>
       </c>
       <c r="V4">
-        <v>0.028418440457161444</v>
+        <v>0.092937888798766577</v>
       </c>
       <c r="W4">
-        <v>0.028418440457161447</v>
+        <v>0.092937888798766577</v>
       </c>
       <c r="X4">
-        <v>0.028418440457161447</v>
+        <v>0.092937888798766577</v>
       </c>
       <c r="Y4">
-        <v>0.028418440457161458</v>
+        <v>0.092937888798766605</v>
       </c>
       <c r="Z4">
-        <v>0.028418440457161458</v>
+        <v>0.092937888798766577</v>
       </c>
       <c r="AA4">
-        <v>0.028418440457161447</v>
+        <v>0.092937888798766605</v>
       </c>
       <c r="AB4">
-        <v>0.028418440457161458</v>
+        <v>0.092937888798766577</v>
       </c>
       <c r="AC4">
-        <v>0.028418440457161454</v>
+        <v>0.092937888798766605</v>
       </c>
       <c r="AD4">
-        <v>0.028418440457161454</v>
+        <v>0.092937888798766632</v>
       </c>
       <c r="AE4">
-        <v>0.028418440457161451</v>
+        <v>0.092937888798766632</v>
       </c>
       <c r="AF4">
-        <v>0.028418440457161461</v>
+        <v>0.09293788879876666</v>
       </c>
       <c r="AG4">
-        <v>0.028418440457161461</v>
+        <v>0.092937888798766632</v>
       </c>
       <c r="AH4">
-        <v>0.028418440457161461</v>
+        <v>0.092937888798766674</v>
       </c>
       <c r="AI4">
-        <v>0.028418440457161468</v>
+        <v>0.09293788879876666</v>
       </c>
       <c r="AJ4">
-        <v>0.028418440457161465</v>
+        <v>0.092937888798766702</v>
       </c>
       <c r="AK4">
-        <v>0.028418440457161465</v>
+        <v>0.092937888798766702</v>
       </c>
       <c r="AL4">
-        <v>0.028418440457161465</v>
+        <v>0.092937888798766702</v>
       </c>
       <c r="AM4">
-        <v>0.028418440457161465</v>
+        <v>0.092937888798766702</v>
       </c>
       <c r="AN4">
-        <v>0.028418440457161461</v>
+        <v>0.092937888798766702</v>
       </c>
       <c r="AO4">
-        <v>0.028418440457161465</v>
+        <v>0.092937888798766702</v>
       </c>
       <c r="AP4">
-        <v>0.028418440457161461</v>
+        <v>0.092937888798766702</v>
       </c>
       <c r="AQ4">
-        <v>0.028418440457161465</v>
+        <v>0.092937888798766716</v>
       </c>
       <c r="AR4">
-        <v>0.028418440457161465</v>
+        <v>0.092937888798766716</v>
       </c>
       <c r="AS4">
-        <v>0.028418440457161468</v>
+        <v>0.092937888798766702</v>
       </c>
       <c r="AT4">
-        <v>0.028418440457161465</v>
+        <v>0.092937888798766716</v>
       </c>
       <c r="AU4">
-        <v>0.028418440457161472</v>
+        <v>0.092937888798766716</v>
       </c>
       <c r="AV4">
-        <v>0.028418440457161468</v>
+        <v>0.092937888798766716</v>
       </c>
       <c r="AW4">
-        <v>0.028418440457161475</v>
+        <v>0.092937888798766716</v>
       </c>
       <c r="AX4">
-        <v>0.028418440457161468</v>
+        <v>0.092937888798766716</v>
       </c>
       <c r="AY4">
-        <v>0.028418440457161468</v>
+        <v>0.092937888798766716</v>
       </c>
       <c r="AZ4">
-        <v>0.028418440457161468</v>
+        <v>0.092937888798766716</v>
       </c>
       <c r="BA4">
-        <v>0.028418440457161468</v>
+        <v>0.092937888798766716</v>
       </c>
       <c r="BB4">
-        <v>0.028418440457161472</v>
+        <v>0.092937888798766716</v>
       </c>
       <c r="BC4">
-        <v>0.028418440457161465</v>
+        <v>0.092937888798766716</v>
       </c>
       <c r="BD4">
-        <v>0.028418440457161461</v>
+        <v>0.09293788879876673</v>
       </c>
       <c r="BE4">
-        <v>0.027841851580963903</v>
+        <v>0.092937888798766743</v>
       </c>
       <c r="BF4">
-        <v>0.027841851580963906</v>
+        <v>0.092937888798766757</v>
       </c>
       <c r="BG4">
-        <v>0.02784185158096391</v>
+        <v>0.092937888798766757</v>
       </c>
       <c r="BH4">
-        <v>0.027841851580963906</v>
+        <v>0.092937888798766757</v>
       </c>
       <c r="BI4">
-        <v>0.027841851580963906</v>
+        <v>0.092937888798766757</v>
       </c>
       <c r="BJ4">
-        <v>0.028477482750723648</v>
+        <v>0.092937888798766757</v>
       </c>
       <c r="BK4">
-        <v>0.028477482750723652</v>
+        <v>0.092937888798766757</v>
       </c>
       <c r="BL4">
-        <v>0.028477482750723648</v>
+        <v>0.092937888798766785</v>
       </c>
       <c r="BM4">
-        <v>0.028477482750723655</v>
+        <v>0.092937888798766757</v>
       </c>
       <c r="BN4">
-        <v>0.028477482750723648</v>
+        <v>0.092937888798766757</v>
       </c>
       <c r="BO4">
-        <v>0.028471532883946236</v>
+        <v>0.092937888798766757</v>
       </c>
       <c r="BP4">
-        <v>0.028471532883946236</v>
+        <v>0.092937888798766757</v>
       </c>
       <c r="BQ4">
-        <v>0.02847153288394624</v>
+        <v>0.092937888798766785</v>
       </c>
       <c r="BR4">
-        <v>0.02847153288394625</v>
+        <v>0.092937888798766757</v>
       </c>
       <c r="BS4">
-        <v>0.028471532883946247</v>
+        <v>0.092937888798766757</v>
       </c>
       <c r="BT4">
-        <v>0.028167145398290249</v>
+        <v>0.092937888798766785</v>
       </c>
       <c r="BU4">
-        <v>0.028167145398290249</v>
+        <v>0.092937888798766785</v>
       </c>
       <c r="BV4">
-        <v>0.028167145398290249</v>
+        <v>0.092937888798766785</v>
       </c>
       <c r="BW4">
-        <v>0.028324294145535615</v>
+        <v>0.092937888798766785</v>
       </c>
       <c r="BX4">
-        <v>0.028324294145535615</v>
+        <v>0.092937888798766757</v>
       </c>
       <c r="BY4">
-        <v>0.024484579860202766</v>
+        <v>0.091052248630038621</v>
       </c>
       <c r="BZ4">
-        <v>0.028895864470112612</v>
+        <v>0.091052248630038621</v>
       </c>
       <c r="CA4">
-        <v>0.028895864470112619</v>
+        <v>0.091052248630038635</v>
       </c>
       <c r="CB4">
-        <v>0.028367894508851903</v>
+        <v>0.091052248630038635</v>
       </c>
       <c r="CC4">
-        <v>0.028367894508851896</v>
+        <v>0.091052248630038621</v>
       </c>
       <c r="CD4">
-        <v>0.02881144582806015</v>
+        <v>0.093130977019839356</v>
       </c>
       <c r="CE4">
-        <v>0.028991912594070673</v>
+        <v>0.093130977019839356</v>
       </c>
       <c r="CF4">
-        <v>0.028991912594070673</v>
+        <v>0.09313097701983937</v>
       </c>
       <c r="CG4">
-        <v>0.028991912594070669</v>
+        <v>0.093130977019839342</v>
       </c>
       <c r="CH4">
-        <v>0.028991912594070673</v>
+        <v>0.093130977019839356</v>
       </c>
       <c r="CI4">
-        <v>0.028666212310092361</v>
+        <v>0.093111518947966654</v>
       </c>
       <c r="CJ4">
-        <v>0.028931669573269921</v>
+        <v>0.093111518947966654</v>
       </c>
       <c r="CK4">
-        <v>0.028931669573269921</v>
+        <v>0.093111518947966654</v>
       </c>
       <c r="CL4">
-        <v>0.028931669573269921</v>
+        <v>0.093111518947966654</v>
       </c>
       <c r="CM4">
-        <v>0.028931669573269925</v>
+        <v>0.093111518947966654</v>
       </c>
       <c r="CN4">
-        <v>0.02838437897410637</v>
+        <v>0.092116069168226664</v>
       </c>
       <c r="CO4">
-        <v>0.02680572694781496</v>
+        <v>0.092116069168226664</v>
       </c>
       <c r="CP4">
-        <v>0.026805726947814957</v>
+        <v>0.092116069168226664</v>
       </c>
       <c r="CQ4">
-        <v>0.027175108862574026</v>
+        <v>0.092629998594381216</v>
       </c>
       <c r="CR4">
-        <v>0.027175108862574029</v>
+        <v>0.092629998594381202</v>
       </c>
       <c r="CS4">
+        <v>0.080072837345254971</v>
+      </c>
+      <c r="CT4">
+        <v>0.094499226406031339</v>
+      </c>
+      <c r="CU4">
+        <v>0.094499226406031339</v>
+      </c>
+      <c r="CV4">
+        <v>0.092772586493376524</v>
+      </c>
+      <c r="CW4">
+        <v>0.092772586493376552</v>
+      </c>
+      <c r="CX4">
+        <v>0.094223148963307399</v>
+      </c>
+      <c r="CY4">
+        <v>0.094813336178423885</v>
+      </c>
+      <c r="CZ4">
+        <v>0.094813336178423899</v>
+      </c>
+      <c r="DA4">
+        <v>0.094813336178423899</v>
+      </c>
+      <c r="DB4">
+        <v>0.094813336178423899</v>
+      </c>
+      <c r="DC4">
+        <v>0.093748186357140301</v>
+      </c>
+      <c r="DD4">
+        <v>0.094616321174151474</v>
+      </c>
+      <c r="DE4">
+        <v>0.094616321174151474</v>
+      </c>
+      <c r="DF4">
+        <v>0.094616321174151474</v>
+      </c>
+      <c r="DG4">
+        <v>0.094616321174151474</v>
+      </c>
+      <c r="DH4">
+        <v>0.092826496256688124</v>
+      </c>
+      <c r="DI4">
+        <v>0.087663771486742148</v>
+      </c>
+      <c r="DJ4">
+        <v>0.087663771486742162</v>
+      </c>
+      <c r="DK4">
+        <v>0.088871774979048537</v>
+      </c>
+      <c r="DL4">
+        <v>0.088871774979048537</v>
+      </c>
+      <c r="DM4">
         <v>0</v>
       </c>
-      <c r="CT4">
-        <v>0.028538464646964034</v>
-      </c>
-      <c r="CU4">
-        <v>0.028538464646964034</v>
-      </c>
-      <c r="CV4">
-        <v>0.028200574556802693</v>
-      </c>
-      <c r="CW4">
-        <v>0.028200574556802693</v>
-      </c>
-      <c r="CX4">
-        <v>0.028200574556802693</v>
-      </c>
-      <c r="CY4">
-        <v>0.028134952653502136</v>
-      </c>
-      <c r="CZ4">
-        <v>0.028134952653502136</v>
-      </c>
-      <c r="DA4">
-        <v>0.028134952653502143</v>
-      </c>
-      <c r="DB4">
-        <v>0.028134952653502139</v>
-      </c>
-      <c r="DC4">
-        <v>0.028134952653502143</v>
-      </c>
-      <c r="DD4">
-        <v>0.028078905041072664</v>
-      </c>
-      <c r="DE4">
-        <v>0.028078905041072667</v>
-      </c>
-      <c r="DF4">
-        <v>0.028078905041072667</v>
-      </c>
-      <c r="DG4">
-        <v>0.028078905041072667</v>
-      </c>
-      <c r="DH4">
-        <v>0.028078905041072667</v>
-      </c>
-      <c r="DI4">
-        <v>0.026284264936217053</v>
-      </c>
-      <c r="DJ4">
-        <v>0.026284264936217053</v>
-      </c>
-      <c r="DK4">
-        <v>0.026284264936217053</v>
-      </c>
-      <c r="DL4">
-        <v>0.026284264936217053</v>
-      </c>
-      <c r="DM4">
-        <v>0.026284264936217057</v>
-      </c>
       <c r="DN4">
-        <v>0.027886072248899586</v>
+        <v>0.093330408396100892</v>
       </c>
       <c r="DO4">
-        <v>0.02788607224889959</v>
+        <v>0.093330408396100892</v>
       </c>
       <c r="DP4">
-        <v>0.0278860722488996</v>
+        <v>0.092225393795706004</v>
       </c>
       <c r="DQ4">
-        <v>0.02788607224889959</v>
+        <v>0.09222539379570599</v>
       </c>
       <c r="DR4">
-        <v>0.027886072248899604</v>
+        <v>0.092225393795706004</v>
       </c>
       <c r="DS4">
-        <v>0.0278860722488996</v>
+        <v>0.09201078803080133</v>
       </c>
       <c r="DT4">
-        <v>0.027886072248899607</v>
+        <v>0.09201078803080133</v>
       </c>
       <c r="DU4">
-        <v>0.0278860722488996</v>
+        <v>0.09201078803080133</v>
       </c>
       <c r="DV4">
-        <v>0.027886072248899607</v>
+        <v>0.09201078803080133</v>
       </c>
       <c r="DW4">
-        <v>0.027886072248899607</v>
+        <v>0.09201078803080133</v>
       </c>
       <c r="DX4">
-        <v>0.027886072248899611</v>
+        <v>0.091827493427451792</v>
       </c>
       <c r="DY4">
-        <v>0.027886072248899611</v>
+        <v>0.091827493427451792</v>
       </c>
       <c r="DZ4">
-        <v>0.027886072248899611</v>
+        <v>0.091827493427451792</v>
       </c>
       <c r="EA4">
-        <v>0.027886072248899611</v>
+        <v>0.091827493427451792</v>
       </c>
       <c r="EB4">
-        <v>0.027886072248899611</v>
+        <v>0.091827493427451792</v>
       </c>
       <c r="EC4">
-        <v>0.027886072248899611</v>
+        <v>0.085958414765295574</v>
       </c>
       <c r="ED4">
-        <v>0.027886072248899611</v>
+        <v>0.085958414765295588</v>
       </c>
       <c r="EE4">
-        <v>0.027886072248899611</v>
+        <v>0.085958414765295574</v>
       </c>
       <c r="EF4">
-        <v>0.027886072248899611</v>
+        <v>0.085958414765295574</v>
       </c>
       <c r="EG4">
-        <v>0.027886072248899614</v>
+        <v>0.085958414765295574</v>
       </c>
       <c r="EH4">
-        <v>0.027886072248899614</v>
+        <v>0.091196865134433855</v>
       </c>
       <c r="EI4">
-        <v>0.027886072248899614</v>
+        <v>0.091196865134433869</v>
       </c>
       <c r="EJ4">
-        <v>0.027886072248899618</v>
+        <v>0.091196865134433869</v>
       </c>
       <c r="EK4">
-        <v>0.027886072248899614</v>
+        <v>0.091196865134433855</v>
       </c>
       <c r="EL4">
-        <v>0.027886072248899618</v>
+        <v>0.091196865134433869</v>
       </c>
       <c r="EM4">
-        <v>0.027886072248899618</v>
+        <v>0.091196865134433869</v>
       </c>
       <c r="EN4">
-        <v>0.027886072248899618</v>
+        <v>0.091196865134433869</v>
       </c>
       <c r="EO4">
-        <v>0.027886072248899618</v>
+        <v>0.091196865134433869</v>
       </c>
       <c r="EP4">
-        <v>0.027886072248899618</v>
+        <v>0.091196865134433869</v>
       </c>
       <c r="EQ4">
-        <v>0.027886072248899618</v>
+        <v>0.091196865134433883</v>
       </c>
       <c r="ER4">
-        <v>0.027886072248899618</v>
+        <v>0.091196865134433883</v>
       </c>
       <c r="ES4">
-        <v>0.027886072248899618</v>
+        <v>0.091196865134433869</v>
       </c>
       <c r="ET4">
-        <v>0.027886072248899618</v>
+        <v>0.091196865134433869</v>
       </c>
       <c r="EU4">
-        <v>0.027886072248899618</v>
+        <v>0.091196865134433869</v>
       </c>
       <c r="EV4">
-        <v>0.027886072248899618</v>
+        <v>0.091196865134433883</v>
       </c>
       <c r="EW4">
-        <v>0.027886072248899618</v>
+        <v>0.091196865134433883</v>
       </c>
       <c r="EX4">
-        <v>0.027886072248899618</v>
+        <v>0.091196865134433883</v>
       </c>
       <c r="EY4">
-        <v>0.027886072248899624</v>
+        <v>0.091196865134433883</v>
       </c>
       <c r="EZ4">
-        <v>0.027886072248899624</v>
+        <v>0.091196865134433883</v>
       </c>
       <c r="FA4">
-        <v>0.027886072248899624</v>
+        <v>0.091196865134433883</v>
       </c>
       <c r="FB4">
-        <v>0.027886072248899624</v>
+        <v>0.091196865134433897</v>
       </c>
       <c r="FC4">
-        <v>0.027886072248899624</v>
+        <v>0.091196865134433897</v>
       </c>
       <c r="FD4">
-        <v>0.027886072248899628</v>
+        <v>0.091196865134433897</v>
       </c>
       <c r="FE4">
-        <v>0.027886072248899624</v>
+        <v>0.091196865134433883</v>
       </c>
       <c r="FF4">
-        <v>0.027886072248899628</v>
+        <v>0.09119686513443391</v>
       </c>
       <c r="FG4">
-        <v>0.027886072248899624</v>
+        <v>0.09119686513443391</v>
       </c>
       <c r="FH4">
-        <v>0.027886072248899631</v>
+        <v>0.091196865134433924</v>
       </c>
       <c r="FI4">
-        <v>0.027886072248899624</v>
+        <v>0.09119686513443391</v>
       </c>
       <c r="FJ4">
-        <v>0.027886072248899631</v>
+        <v>0.091196865134433924</v>
       </c>
       <c r="FK4">
-        <v>0.027886072248899628</v>
+        <v>0.09119686513443391</v>
       </c>
       <c r="FL4">
-        <v>0.027886072248899631</v>
+        <v>0.091196865134433924</v>
       </c>
       <c r="FM4">
-        <v>0.027886072248899635</v>
+        <v>0.091196865134433924</v>
       </c>
       <c r="FN4">
-        <v>0.027886072248899638</v>
+        <v>0.091196865134433924</v>
       </c>
       <c r="FO4">
-        <v>0.027886072248899638</v>
+        <v>0.091196865134433938</v>
       </c>
       <c r="FP4">
-        <v>0.027886072248899635</v>
+        <v>0.091196865134433924</v>
       </c>
       <c r="FQ4">
-        <v>0.027886072248899642</v>
+        <v>0.091196865134433938</v>
       </c>
       <c r="FR4">
-        <v>0.027886072248899642</v>
+        <v>0.091196865134433924</v>
       </c>
       <c r="FS4">
-        <v>0.027886072248899638</v>
+        <v>0.091196865134433924</v>
       </c>
       <c r="FT4">
-        <v>0.027886072248899642</v>
+        <v>0.091196865134433938</v>
       </c>
       <c r="FU4">
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.022639458363185296</v>
+        <v>0.074038667498091654</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -7929,7 +7934,7 @@
         <v>92</v>
       </c>
       <c r="CS2" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="CT2" t="s">
         <v>94</v>
@@ -8049,7 +8054,7 @@
         <v>132</v>
       </c>
       <c r="EG2" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="EH2" t="s">
         <v>134</v>
@@ -8186,535 +8191,535 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>1.1425173126011556</v>
+        <v>0.011272941159691486</v>
       </c>
       <c r="C3">
-        <v>-1.7007410229144317</v>
+        <v>-0.6264114966851706</v>
       </c>
       <c r="D3">
-        <v>-1.7393839619636409</v>
+        <v>-0.64960198290857996</v>
       </c>
       <c r="E3">
-        <v>-1.7274057028949517</v>
+        <v>-0.67615897680811499</v>
       </c>
       <c r="F3">
-        <v>-1.7216953959328791</v>
+        <v>-0.66385643704459163</v>
       </c>
       <c r="G3">
-        <v>-1.709085238508961</v>
+        <v>-0.68011314779411081</v>
       </c>
       <c r="H3">
-        <v>-1.7123239107341985</v>
+        <v>-0.69343685668592692</v>
       </c>
       <c r="I3">
-        <v>0.8786669788486301</v>
+        <v>-0.0055352377648350253</v>
       </c>
       <c r="J3">
-        <v>0.76579898691590731</v>
+        <v>-0.0053507172976794233</v>
       </c>
       <c r="K3">
-        <v>0.60756338032699897</v>
+        <v>-0.0014523273548731556</v>
       </c>
       <c r="L3">
-        <v>0.45824194914174421</v>
+        <v>-0.0005523414477680501</v>
       </c>
       <c r="M3">
-        <v>0.33867558129520042</v>
+        <v>0.0074291942871135544</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.3316893930135802</v>
+        <v>1.2007980185071909</v>
       </c>
       <c r="P3">
-        <v>1.4461864931610233</v>
+        <v>1.3025012871243427</v>
       </c>
       <c r="Q3">
-        <v>-0.087332565938863266</v>
+        <v>-0.25295178449147798</v>
       </c>
       <c r="R3">
-        <v>-0.16179435150615701</v>
+        <v>-0.30887607563708075</v>
       </c>
       <c r="S3">
-        <v>-0.094019432936810171</v>
+        <v>-0.20924912109751034</v>
       </c>
       <c r="T3">
-        <v>-0.089228212639420143</v>
+        <v>-0.22215564335293683</v>
       </c>
       <c r="U3">
-        <v>-0.15788471589630498</v>
+        <v>-0.1385322189662585</v>
       </c>
       <c r="V3">
-        <v>-0.08262961570223952</v>
+        <v>-0.15990524182341428</v>
       </c>
       <c r="W3">
-        <v>-0.073108393222385812</v>
+        <v>-0.18080085162896514</v>
       </c>
       <c r="X3">
-        <v>-0.076738822998736023</v>
+        <v>-0.13781979061607016</v>
       </c>
       <c r="Y3">
-        <v>0.020342625431857917</v>
+        <v>-0.13020958630804491</v>
       </c>
       <c r="Z3">
-        <v>-0.001001799355093268</v>
+        <v>-0.081359583790800466</v>
       </c>
       <c r="AA3">
-        <v>0.022225190413084135</v>
+        <v>-0.10870694891651334</v>
       </c>
       <c r="AB3">
-        <v>-0.00050538075508520675</v>
+        <v>-0.12986377597463539</v>
       </c>
       <c r="AC3">
-        <v>0.025826228683652086</v>
+        <v>-0.099858380289596163</v>
       </c>
       <c r="AD3">
-        <v>-0.0028847237736972634</v>
+        <v>-0.061882122169590617</v>
       </c>
       <c r="AE3">
-        <v>0.036537524708487652</v>
+        <v>-0.10196599302333735</v>
       </c>
       <c r="AF3">
-        <v>0.070162988792869724</v>
+        <v>-0.099611678091195227</v>
       </c>
       <c r="AG3">
-        <v>0.090752818210842467</v>
+        <v>-0.064738969393221421</v>
       </c>
       <c r="AH3">
-        <v>0.049133184770002454</v>
+        <v>-0.018397627202826918</v>
       </c>
       <c r="AI3">
-        <v>0.053704253561239618</v>
+        <v>-0.049123383417674346</v>
       </c>
       <c r="AJ3">
-        <v>0.056284437043896809</v>
+        <v>-0.060556656116225398</v>
       </c>
       <c r="AK3">
-        <v>0.040835431516024201</v>
+        <v>-0.049002783143659502</v>
       </c>
       <c r="AL3">
-        <v>0.0067469328239032995</v>
+        <v>-0.075334315236481597</v>
       </c>
       <c r="AM3">
-        <v>0.096026515679549562</v>
+        <v>-0.01366903123456145</v>
       </c>
       <c r="AN3">
-        <v>0.046552922274684931</v>
+        <v>-0.021869725831386359</v>
       </c>
       <c r="AO3">
-        <v>0.042076249604140414</v>
+        <v>-0.013716112195598327</v>
       </c>
       <c r="AP3">
-        <v>0.068490955868301895</v>
+        <v>-0.049106074537992338</v>
       </c>
       <c r="AQ3">
-        <v>0.093029143806733383</v>
+        <v>-0.040248218320448476</v>
       </c>
       <c r="AR3">
-        <v>0.11634885295285657</v>
+        <v>0.0030936161600635093</v>
       </c>
       <c r="AS3">
-        <v>0.090744489453943741</v>
+        <v>-0.030262551524051391</v>
       </c>
       <c r="AT3">
-        <v>0.063855558116584318</v>
+        <v>0.019808976585329031</v>
       </c>
       <c r="AU3">
-        <v>0.071591896717214512</v>
+        <v>-0.0048705790392664268</v>
       </c>
       <c r="AV3">
-        <v>0.063040672505276438</v>
+        <v>0.029333563720955566</v>
       </c>
       <c r="AW3">
-        <v>0.097742473635162128</v>
+        <v>0.019721873945275005</v>
       </c>
       <c r="AX3">
-        <v>0.12694265143432948</v>
+        <v>-0.019874735125899986</v>
       </c>
       <c r="AY3">
-        <v>0.090464414092294929</v>
+        <v>0.063222169113617041</v>
       </c>
       <c r="AZ3">
-        <v>0.11369155887353316</v>
+        <v>-0.011592222178313943</v>
       </c>
       <c r="BA3">
-        <v>0.054323127849089978</v>
+        <v>0.020305621900061344</v>
       </c>
       <c r="BB3">
-        <v>0.057335143213045406</v>
+        <v>0.032484261383650979</v>
       </c>
       <c r="BC3">
-        <v>0.13456250463487912</v>
+        <v>0.048365658705258843</v>
       </c>
       <c r="BD3">
-        <v>0.13166050247298294</v>
+        <v>0.019565559823916709</v>
       </c>
       <c r="BE3">
-        <v>0.10563403228806209</v>
+        <v>0.011575910436421581</v>
       </c>
       <c r="BF3">
-        <v>0.080012215471358047</v>
+        <v>0.02766042724771775</v>
       </c>
       <c r="BG3">
-        <v>0.059120460029680695</v>
+        <v>0.024872722829483246</v>
       </c>
       <c r="BH3">
-        <v>0.13849965296920488</v>
+        <v>0.036783071694106495</v>
       </c>
       <c r="BI3">
-        <v>0.064459238912838848</v>
+        <v>0.0096502779560083147</v>
       </c>
       <c r="BJ3">
-        <v>0.094884719706445589</v>
+        <v>0.033882956854504348</v>
       </c>
       <c r="BK3">
-        <v>0.12536242877172596</v>
+        <v>0.0002876543679748795</v>
       </c>
       <c r="BL3">
-        <v>0.098594981365826354</v>
+        <v>0.058425022298096013</v>
       </c>
       <c r="BM3">
-        <v>0.096808213587705791</v>
+        <v>0.0364786676583716</v>
       </c>
       <c r="BN3">
-        <v>0.091194971520500503</v>
+        <v>0.036638176644989327</v>
       </c>
       <c r="BO3">
-        <v>0.10927722761916296</v>
+        <v>0.010200213930545153</v>
       </c>
       <c r="BP3">
-        <v>0.072609402564135408</v>
+        <v>0.020111407458972854</v>
       </c>
       <c r="BQ3">
-        <v>0.048293757550065881</v>
+        <v>0.063971910321682493</v>
       </c>
       <c r="BR3">
-        <v>0.12291636101853722</v>
+        <v>0.038426881840433476</v>
       </c>
       <c r="BS3">
-        <v>0.080064381569676379</v>
+        <v>-0.0056233502566630121</v>
       </c>
       <c r="BT3">
-        <v>0.054350596374053532</v>
+        <v>0.0050079097461811634</v>
       </c>
       <c r="BU3">
-        <v>0.031081608675272404</v>
+        <v>0.015493761998183961</v>
       </c>
       <c r="BV3">
-        <v>0.032264076850164032</v>
+        <v>0.074942920676229513</v>
       </c>
       <c r="BW3">
-        <v>0.07765558216658773</v>
+        <v>-0.017857312443660314</v>
       </c>
       <c r="BX3">
-        <v>0.1015414798246195</v>
+        <v>0.0049108491391055614</v>
       </c>
       <c r="BY3">
-        <v>0.018152841867043273</v>
+        <v>0.033301742489565717</v>
       </c>
       <c r="BZ3">
-        <v>0.14396151018643069</v>
+        <v>0.0052942915378340763</v>
       </c>
       <c r="CA3">
-        <v>0.11629012028356982</v>
+        <v>-0.011303562811945179</v>
       </c>
       <c r="CB3">
-        <v>0.17449737963285081</v>
+        <v>0.030070423501502158</v>
       </c>
       <c r="CC3">
-        <v>0.082997205018013789</v>
+        <v>0.027890174610709653</v>
       </c>
       <c r="CD3">
-        <v>0.059401330754422686</v>
+        <v>-0.02462334231243514</v>
       </c>
       <c r="CE3">
-        <v>0.12802798013815522</v>
+        <v>0.026323834860216205</v>
       </c>
       <c r="CF3">
-        <v>0.11728075809450632</v>
+        <v>-0.006472464749403742</v>
       </c>
       <c r="CG3">
-        <v>0.061902145128739601</v>
+        <v>0.013510252713855355</v>
       </c>
       <c r="CH3">
-        <v>0.040363209904543548</v>
+        <v>0.0007891267808673993</v>
       </c>
       <c r="CI3">
-        <v>0.013471008610727822</v>
+        <v>0.0010679825493339343</v>
       </c>
       <c r="CJ3">
-        <v>0.084293914513231621</v>
+        <v>0.010540186013910371</v>
       </c>
       <c r="CK3">
-        <v>0.10529151725655005</v>
+        <v>0.011155664437142703</v>
       </c>
       <c r="CL3">
-        <v>0.045991372922132623</v>
+        <v>0.035489884639857985</v>
       </c>
       <c r="CM3">
-        <v>0.088118342192513341</v>
+        <v>-0.010488074467080872</v>
       </c>
       <c r="CN3">
-        <v>-0.044434263286517575</v>
+        <v>-0.012427711210607395</v>
       </c>
       <c r="CO3">
-        <v>0.091662544978680885</v>
+        <v>-0.049428893956848123</v>
       </c>
       <c r="CP3">
-        <v>0.040199873602301761</v>
+        <v>0.017630192977161487</v>
       </c>
       <c r="CQ3">
-        <v>0.032907078757286656</v>
+        <v>-0.0051197759847951057</v>
       </c>
       <c r="CR3">
-        <v>0.041468772698804918</v>
+        <v>-0.012921221061615999</v>
       </c>
       <c r="CS3">
+        <v>-0.0023240456355754129</v>
+      </c>
+      <c r="CT3">
+        <v>0.024882540742869507</v>
+      </c>
+      <c r="CU3">
+        <v>0.0424273144060918</v>
+      </c>
+      <c r="CV3">
+        <v>0.01002644174820062</v>
+      </c>
+      <c r="CW3">
+        <v>-0.04902931366869355</v>
+      </c>
+      <c r="CX3">
+        <v>0.015873066220381989</v>
+      </c>
+      <c r="CY3">
+        <v>0.023315427121774548</v>
+      </c>
+      <c r="CZ3">
+        <v>0.0080828097446902208</v>
+      </c>
+      <c r="DA3">
+        <v>-0.014535133223047276</v>
+      </c>
+      <c r="DB3">
+        <v>-0.0062664683608125073</v>
+      </c>
+      <c r="DC3">
+        <v>-0.0069930231942610492</v>
+      </c>
+      <c r="DD3">
+        <v>-0.010948190822805341</v>
+      </c>
+      <c r="DE3">
+        <v>0.0022985722182615126</v>
+      </c>
+      <c r="DF3">
+        <v>0.002029093212283198</v>
+      </c>
+      <c r="DG3">
+        <v>-0.070188940282707488</v>
+      </c>
+      <c r="DH3">
+        <v>-0.017653837688490749</v>
+      </c>
+      <c r="DI3">
+        <v>-0.066786143981448998</v>
+      </c>
+      <c r="DJ3">
+        <v>-0.002495149005637375</v>
+      </c>
+      <c r="DK3">
+        <v>-0.05242852566648442</v>
+      </c>
+      <c r="DL3">
+        <v>0.021530460354161181</v>
+      </c>
+      <c r="DM3">
+        <v>-0.011634424786854083</v>
+      </c>
+      <c r="DN3">
+        <v>0.025552171663454651</v>
+      </c>
+      <c r="DO3">
+        <v>0.012360846558197332</v>
+      </c>
+      <c r="DP3">
+        <v>0.044318980588660011</v>
+      </c>
+      <c r="DQ3">
+        <v>0.0075039318631192628</v>
+      </c>
+      <c r="DR3">
+        <v>0.0070177941761972772</v>
+      </c>
+      <c r="DS3">
+        <v>0.0078446882656905415</v>
+      </c>
+      <c r="DT3">
+        <v>0.024585226744778567</v>
+      </c>
+      <c r="DU3">
+        <v>-0.0010626522922839608</v>
+      </c>
+      <c r="DV3">
+        <v>0.057360568860643106</v>
+      </c>
+      <c r="DW3">
+        <v>-0.020227367505012445</v>
+      </c>
+      <c r="DX3">
+        <v>0.020669188183493274</v>
+      </c>
+      <c r="DY3">
+        <v>-0.052469199056226143</v>
+      </c>
+      <c r="DZ3">
+        <v>-0.011022941488653046</v>
+      </c>
+      <c r="EA3">
+        <v>0.0048377369859348689</v>
+      </c>
+      <c r="EB3">
+        <v>-0.0053189698989955063</v>
+      </c>
+      <c r="EC3">
+        <v>0.0014148223943425656</v>
+      </c>
+      <c r="ED3">
+        <v>-0.003928078316304125</v>
+      </c>
+      <c r="EE3">
+        <v>-0.048041506336357433</v>
+      </c>
+      <c r="EF3">
+        <v>-0.015212098398129838</v>
+      </c>
+      <c r="EG3">
         <v>0</v>
       </c>
-      <c r="CT3">
-        <v>0.27858680981464817</v>
-      </c>
-      <c r="CU3">
-        <v>0.2545740112725049</v>
-      </c>
-      <c r="CV3">
-        <v>0.27612055469209995</v>
-      </c>
-      <c r="CW3">
-        <v>0.21061647913649401</v>
-      </c>
-      <c r="CX3">
-        <v>0.23514254559848927</v>
-      </c>
-      <c r="CY3">
-        <v>0.23841436067933933</v>
-      </c>
-      <c r="CZ3">
-        <v>0.21295390825092914</v>
-      </c>
-      <c r="DA3">
-        <v>0.20160676096690705</v>
-      </c>
-      <c r="DB3">
-        <v>0.18949025319282095</v>
-      </c>
-      <c r="DC3">
-        <v>0.15402970261732171</v>
-      </c>
-      <c r="DD3">
-        <v>0.22394760408844205</v>
-      </c>
-      <c r="DE3">
-        <v>0.1779424142700099</v>
-      </c>
-      <c r="DF3">
-        <v>0.14255072688143758</v>
-      </c>
-      <c r="DG3">
-        <v>0.1326386877841623</v>
-      </c>
-      <c r="DH3">
-        <v>0.11435149567169253</v>
-      </c>
-      <c r="DI3">
-        <v>0.17060096604836303</v>
-      </c>
-      <c r="DJ3">
-        <v>0.1569086211781783</v>
-      </c>
-      <c r="DK3">
-        <v>0.1427514664756348</v>
-      </c>
-      <c r="DL3">
-        <v>0.11842311939947402</v>
-      </c>
-      <c r="DM3">
-        <v>0.10642931528560619</v>
-      </c>
-      <c r="DN3">
-        <v>0.29376712055991611</v>
-      </c>
-      <c r="DO3">
-        <v>0.23623758327626609</v>
-      </c>
-      <c r="DP3">
-        <v>0.23587114791690722</v>
-      </c>
-      <c r="DQ3">
-        <v>0.21776414133102584</v>
-      </c>
-      <c r="DR3">
-        <v>0.20255092141291639</v>
-      </c>
-      <c r="DS3">
-        <v>0.19496376281949415</v>
-      </c>
-      <c r="DT3">
-        <v>0.17903664188339655</v>
-      </c>
-      <c r="DU3">
-        <v>0.16454056515326626</v>
-      </c>
-      <c r="DV3">
-        <v>0.18437657818046002</v>
-      </c>
-      <c r="DW3">
-        <v>0.19068744882461333</v>
-      </c>
-      <c r="DX3">
-        <v>0.16827065247675355</v>
-      </c>
-      <c r="DY3">
-        <v>0.12659650278366752</v>
-      </c>
-      <c r="DZ3">
-        <v>0.15673903761680513</v>
-      </c>
-      <c r="EA3">
-        <v>0.10469499691543296</v>
-      </c>
-      <c r="EB3">
-        <v>0.11254434442562725</v>
-      </c>
-      <c r="EC3">
-        <v>0.14125140520196677</v>
-      </c>
-      <c r="ED3">
-        <v>0.10311013437172772</v>
-      </c>
-      <c r="EE3">
-        <v>0.12758100537026318</v>
-      </c>
-      <c r="EF3">
-        <v>0.13225359844287132</v>
-      </c>
-      <c r="EG3">
-        <v>0.10474704218281644</v>
-      </c>
       <c r="EH3">
-        <v>0.10586146364870894</v>
+        <v>-0.042824042271121431</v>
       </c>
       <c r="EI3">
-        <v>0.1027427336206732</v>
+        <v>-0.014668265296834144</v>
       </c>
       <c r="EJ3">
-        <v>0.062251555428109492</v>
+        <v>0.0096627247103746889</v>
       </c>
       <c r="EK3">
-        <v>0.09025582145445693</v>
+        <v>-0.023777297355541689</v>
       </c>
       <c r="EL3">
-        <v>0.082742490521325748</v>
+        <v>0.011757043833398272</v>
       </c>
       <c r="EM3">
-        <v>0.12362791758779704</v>
+        <v>-0.061445490844832494</v>
       </c>
       <c r="EN3">
-        <v>0.063514357281187747</v>
+        <v>-0.035064026026023785</v>
       </c>
       <c r="EO3">
-        <v>0.068190715175354841</v>
+        <v>0.0027903892576006208</v>
       </c>
       <c r="EP3">
-        <v>0.10168261580003324</v>
+        <v>-0.03559938567024213</v>
       </c>
       <c r="EQ3">
-        <v>0.081914541398328891</v>
+        <v>-0.018046737408301174</v>
       </c>
       <c r="ER3">
-        <v>0.039961733625174058</v>
+        <v>-0.035864253987354745</v>
       </c>
       <c r="ES3">
-        <v>0.10364705620363983</v>
+        <v>-0.024338065114336362</v>
       </c>
       <c r="ET3">
-        <v>0.056473167820754726</v>
+        <v>-0.030423911957839785</v>
       </c>
       <c r="EU3">
-        <v>0.079600348909891885</v>
+        <v>-0.044744591953464342</v>
       </c>
       <c r="EV3">
-        <v>0.024473734926915305</v>
+        <v>-0.04392349874441117</v>
       </c>
       <c r="EW3">
-        <v>0.083488354843270857</v>
+        <v>-0.018391769891103218</v>
       </c>
       <c r="EX3">
-        <v>0.08424876575306052</v>
+        <v>-0.032573884873033754</v>
       </c>
       <c r="EY3">
-        <v>0.044320074477044745</v>
+        <v>-0.011991156456172644</v>
       </c>
       <c r="EZ3">
-        <v>0.017051254629342667</v>
+        <v>-0.055477645085711493</v>
       </c>
       <c r="FA3">
-        <v>0.06626673051188256</v>
+        <v>-0.033101948355634292</v>
       </c>
       <c r="FB3">
-        <v>0.058427662225228064</v>
+        <v>-0.020782481475385028</v>
       </c>
       <c r="FC3">
-        <v>0.038392062155691388</v>
+        <v>0.023360373470229231</v>
       </c>
       <c r="FD3">
-        <v>0.072347992402937975</v>
+        <v>-0.021083091951350132</v>
       </c>
       <c r="FE3">
-        <v>0.080004576722086329</v>
+        <v>-0.044856492196634061</v>
       </c>
       <c r="FF3">
-        <v>0.046007800347444762</v>
+        <v>-0.001618086040015305</v>
       </c>
       <c r="FG3">
-        <v>0.035358256158266807</v>
+        <v>-0.040470271767352843</v>
       </c>
       <c r="FH3">
-        <v>0.032986458553745865</v>
+        <v>-0.039300663093334902</v>
       </c>
       <c r="FI3">
-        <v>-0.003563177192709269</v>
+        <v>-0.096355411538437755</v>
       </c>
       <c r="FJ3">
-        <v>0.039653507097571296</v>
+        <v>-0.04870526119413468</v>
       </c>
       <c r="FK3">
-        <v>-0.015615566617297721</v>
+        <v>-0.064695820845610402</v>
       </c>
       <c r="FL3">
-        <v>0.025671062089179894</v>
+        <v>-0.014168969238905019</v>
       </c>
       <c r="FM3">
-        <v>0.049812724086808813</v>
+        <v>-0.10710079412089941</v>
       </c>
       <c r="FN3">
-        <v>0.037913555393453847</v>
+        <v>-0.024783593083607475</v>
       </c>
       <c r="FO3">
-        <v>0.026220422343322312</v>
+        <v>0.01914366802943648</v>
       </c>
       <c r="FP3">
-        <v>0.00013906045511574225</v>
+        <v>-0.034309762999956903</v>
       </c>
       <c r="FQ3">
-        <v>0.036157108593471765</v>
+        <v>-0.092023697800575399</v>
       </c>
       <c r="FR3">
-        <v>0.056254154712008606</v>
+        <v>-0.05661611927805732</v>
       </c>
       <c r="FS3">
-        <v>0.070791199512888314</v>
+        <v>-0.043679980875749189</v>
       </c>
       <c r="FT3">
-        <v>-0.007328426881213458</v>
+        <v>-0.045668431572139602</v>
       </c>
       <c r="FU3">
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.5380677762618795</v>
+        <v>-5.4806232070385983</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -8728,541 +8733,3775 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.066996593730657056</v>
+        <v>0.025964677696285739</v>
       </c>
       <c r="C4">
-        <v>0.033484203923758366</v>
+        <v>0.012976877097547891</v>
       </c>
       <c r="D4">
-        <v>0.038464641328074547</v>
+        <v>0.014907056600545789</v>
       </c>
       <c r="E4">
-        <v>0.037450775716813073</v>
+        <v>0.014514130746291237</v>
       </c>
       <c r="F4">
-        <v>0.037353978581265539</v>
+        <v>0.014476616802873161</v>
       </c>
       <c r="G4">
-        <v>0.043096908201064044</v>
+        <v>0.016702301846055968</v>
       </c>
       <c r="H4">
-        <v>0.050718464713227503</v>
+        <v>0.019656052885667449</v>
       </c>
       <c r="I4">
-        <v>0.04712845853647285</v>
+        <v>0.018264738072232889</v>
       </c>
       <c r="J4">
-        <v>0.038715420027747804</v>
+        <v>0.015004246438827239</v>
       </c>
       <c r="K4">
-        <v>0.031972471024931573</v>
+        <v>0.012391001677691084</v>
       </c>
       <c r="L4">
-        <v>0.032047510752124905</v>
+        <v>0.012420083489504161</v>
       </c>
       <c r="M4">
-        <v>0.032571135039710833</v>
+        <v>0.012623015237285054</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.07509880496380883</v>
+        <v>0.029104707533349299</v>
       </c>
       <c r="P4">
-        <v>0.07509880496380883</v>
+        <v>0.029104707533349303</v>
       </c>
       <c r="Q4">
-        <v>0.07509880496380883</v>
+        <v>0.029104707533349299</v>
       </c>
       <c r="R4">
-        <v>0.07509880496380883</v>
+        <v>0.029104707533349303</v>
       </c>
       <c r="S4">
-        <v>0.07509880496380883</v>
+        <v>0.029104707533349299</v>
       </c>
       <c r="T4">
-        <v>0.07509880496380883</v>
+        <v>0.029104707533349303</v>
       </c>
       <c r="U4">
-        <v>0.075098804963808871</v>
+        <v>0.02910470753334931</v>
       </c>
       <c r="V4">
-        <v>0.075098804963808843</v>
+        <v>0.02910470753334931</v>
       </c>
       <c r="W4">
-        <v>0.075098804963808857</v>
+        <v>0.02910470753334931</v>
       </c>
       <c r="X4">
-        <v>0.075098804963808857</v>
+        <v>0.02910470753334931</v>
       </c>
       <c r="Y4">
-        <v>0.075098804963808885</v>
+        <v>0.029104707533349313</v>
       </c>
       <c r="Z4">
-        <v>0.075098804963808885</v>
+        <v>0.02910470753334931</v>
       </c>
       <c r="AA4">
-        <v>0.075098804963808857</v>
+        <v>0.029104707533349317</v>
       </c>
       <c r="AB4">
-        <v>0.075098804963808885</v>
+        <v>0.029104707533349313</v>
       </c>
       <c r="AC4">
-        <v>0.075098804963808871</v>
+        <v>0.029104707533349317</v>
       </c>
       <c r="AD4">
-        <v>0.075098804963808871</v>
+        <v>0.029104707533349317</v>
       </c>
       <c r="AE4">
-        <v>0.075098804963808871</v>
+        <v>0.02910470753334932</v>
       </c>
       <c r="AF4">
-        <v>0.075098804963808885</v>
+        <v>0.029104707533349324</v>
       </c>
       <c r="AG4">
-        <v>0.075098804963808899</v>
+        <v>0.02910470753334933</v>
       </c>
       <c r="AH4">
-        <v>0.075098804963808885</v>
+        <v>0.029104707533349324</v>
       </c>
       <c r="AI4">
-        <v>0.075098804963808899</v>
+        <v>0.029104707533349327</v>
       </c>
       <c r="AJ4">
-        <v>0.075098804963808899</v>
+        <v>0.029104707533349337</v>
       </c>
       <c r="AK4">
-        <v>0.075098804963808899</v>
+        <v>0.029104707533349334</v>
       </c>
       <c r="AL4">
-        <v>0.075098804963808899</v>
+        <v>0.029104707533349337</v>
       </c>
       <c r="AM4">
-        <v>0.075098804963808899</v>
+        <v>0.029104707533349337</v>
       </c>
       <c r="AN4">
-        <v>0.075098804963808899</v>
+        <v>0.029104707533349344</v>
       </c>
       <c r="AO4">
-        <v>0.075098804963808899</v>
+        <v>0.029104707533349337</v>
       </c>
       <c r="AP4">
-        <v>0.075098804963808899</v>
+        <v>0.029104707533349344</v>
       </c>
       <c r="AQ4">
-        <v>0.075098804963808899</v>
+        <v>0.029104707533349337</v>
       </c>
       <c r="AR4">
-        <v>0.075098804963808899</v>
+        <v>0.029104707533349355</v>
       </c>
       <c r="AS4">
-        <v>0.075098804963808913</v>
+        <v>0.029104707533349344</v>
       </c>
       <c r="AT4">
-        <v>0.075098804963808899</v>
+        <v>0.029104707533349355</v>
       </c>
       <c r="AU4">
-        <v>0.075098804963808927</v>
+        <v>0.029104707533349348</v>
       </c>
       <c r="AV4">
-        <v>0.075098804963808913</v>
+        <v>0.029104707533349355</v>
       </c>
       <c r="AW4">
-        <v>0.075098804963808927</v>
+        <v>0.029104707533349344</v>
       </c>
       <c r="AX4">
-        <v>0.075098804963808913</v>
+        <v>0.029104707533349358</v>
       </c>
       <c r="AY4">
-        <v>0.075098804963808913</v>
+        <v>0.029104707533349358</v>
       </c>
       <c r="AZ4">
-        <v>0.075098804963808913</v>
+        <v>0.029104707533349365</v>
       </c>
       <c r="BA4">
-        <v>0.075098804963808913</v>
+        <v>0.029104707533349369</v>
       </c>
       <c r="BB4">
-        <v>0.075098804963808927</v>
+        <v>0.029104707533349365</v>
       </c>
       <c r="BC4">
-        <v>0.075098804963808899</v>
+        <v>0.029104707533349365</v>
       </c>
       <c r="BD4">
-        <v>0.075098804963808899</v>
+        <v>0.029104707533349372</v>
       </c>
       <c r="BE4">
-        <v>0.073575106447588939</v>
+        <v>0.029104707533349372</v>
       </c>
       <c r="BF4">
-        <v>0.073575106447588939</v>
+        <v>0.029104707533349372</v>
       </c>
       <c r="BG4">
-        <v>0.073575106447588939</v>
+        <v>0.029104707533349365</v>
       </c>
       <c r="BH4">
-        <v>0.073575106447588939</v>
+        <v>0.029104707533349376</v>
       </c>
       <c r="BI4">
-        <v>0.073575106447588939</v>
+        <v>0.029104707533349376</v>
       </c>
       <c r="BJ4">
-        <v>0.075254830615375745</v>
+        <v>0.029104707533349376</v>
       </c>
       <c r="BK4">
-        <v>0.075254830615375759</v>
+        <v>0.029104707533349376</v>
       </c>
       <c r="BL4">
-        <v>0.075254830615375745</v>
+        <v>0.029104707533349376</v>
       </c>
       <c r="BM4">
-        <v>0.075254830615375773</v>
+        <v>0.029104707533349376</v>
       </c>
       <c r="BN4">
-        <v>0.075254830615375745</v>
+        <v>0.029104707533349376</v>
       </c>
       <c r="BO4">
-        <v>0.075239107448393697</v>
+        <v>0.029104707533349379</v>
       </c>
       <c r="BP4">
-        <v>0.075239107448393697</v>
+        <v>0.029104707533349376</v>
       </c>
       <c r="BQ4">
-        <v>0.075239107448393711</v>
+        <v>0.029104707533349379</v>
       </c>
       <c r="BR4">
-        <v>0.075239107448393738</v>
+        <v>0.029104707533349379</v>
       </c>
       <c r="BS4">
-        <v>0.075239107448393724</v>
+        <v>0.029104707533349379</v>
       </c>
       <c r="BT4">
-        <v>0.074434730570177549</v>
+        <v>0.029104707533349379</v>
       </c>
       <c r="BU4">
-        <v>0.074434730570177549</v>
+        <v>0.029104707533349379</v>
       </c>
       <c r="BV4">
-        <v>0.074434730570177549</v>
+        <v>0.029104707533349379</v>
       </c>
       <c r="BW4">
-        <v>0.074850013144795835</v>
+        <v>0.029104707533349383</v>
       </c>
       <c r="BX4">
-        <v>0.074850013144795835</v>
+        <v>0.029104707533349389</v>
       </c>
       <c r="BY4">
-        <v>0.064703152529216351</v>
+        <v>0.029104707533349389</v>
       </c>
       <c r="BZ4">
-        <v>0.07636044959514271</v>
+        <v>0.029104707533349386</v>
       </c>
       <c r="CA4">
-        <v>0.076360449595142724</v>
+        <v>0.029104707533349386</v>
       </c>
       <c r="CB4">
-        <v>0.074965231824229595</v>
+        <v>0.029104707533349386</v>
       </c>
       <c r="CC4">
-        <v>0.074965231824229567</v>
+        <v>0.029104707533349386</v>
       </c>
       <c r="CD4">
-        <v>0.076137364195915255</v>
+        <v>0.029104707533349389</v>
       </c>
       <c r="CE4">
-        <v>0.076614267159098734</v>
+        <v>0.029104707533349389</v>
       </c>
       <c r="CF4">
-        <v>0.076614267159098734</v>
+        <v>0.029104707533349386</v>
       </c>
       <c r="CG4">
-        <v>0.07661426715909872</v>
+        <v>0.029104707533349389</v>
       </c>
       <c r="CH4">
-        <v>0.076614267159098734</v>
+        <v>0.029104707533349393</v>
       </c>
       <c r="CI4">
-        <v>0.075753568904385726</v>
+        <v>0.029104707533349393</v>
       </c>
       <c r="CJ4">
-        <v>0.076455068455835398</v>
+        <v>0.029104707533349396</v>
       </c>
       <c r="CK4">
-        <v>0.076455068455835398</v>
+        <v>0.029104707533349393</v>
       </c>
       <c r="CL4">
-        <v>0.076455068455835398</v>
+        <v>0.029104707533349396</v>
       </c>
       <c r="CM4">
-        <v>0.076455068455835412</v>
+        <v>0.029104707533349396</v>
       </c>
       <c r="CN4">
-        <v>0.075008793807968432</v>
+        <v>0.029104707533349396</v>
       </c>
       <c r="CO4">
-        <v>0.070837034952766914</v>
+        <v>0.029104707533349396</v>
       </c>
       <c r="CP4">
-        <v>0.070837034952766914</v>
+        <v>0.029104707533349396</v>
       </c>
       <c r="CQ4">
-        <v>0.071813166644985049</v>
+        <v>0.029104707533349396</v>
       </c>
       <c r="CR4">
-        <v>0.071813166644985063</v>
+        <v>0.029104707533349396</v>
       </c>
       <c r="CS4">
+        <v>0.028514194812076087</v>
+      </c>
+      <c r="CT4">
+        <v>0.028514194812076087</v>
+      </c>
+      <c r="CU4">
+        <v>0.028514194812076087</v>
+      </c>
+      <c r="CV4">
+        <v>0.028514194812076087</v>
+      </c>
+      <c r="CW4">
+        <v>0.028514194812076087</v>
+      </c>
+      <c r="CX4">
+        <v>0.02916517561881064</v>
+      </c>
+      <c r="CY4">
+        <v>0.029165175618810643</v>
+      </c>
+      <c r="CZ4">
+        <v>0.029165175618810643</v>
+      </c>
+      <c r="DA4">
+        <v>0.029165175618810647</v>
+      </c>
+      <c r="DB4">
+        <v>0.029165175618810643</v>
+      </c>
+      <c r="DC4">
+        <v>0.029159082070761105</v>
+      </c>
+      <c r="DD4">
+        <v>0.029159082070761101</v>
+      </c>
+      <c r="DE4">
+        <v>0.029159082070761105</v>
+      </c>
+      <c r="DF4">
+        <v>0.029159082070761101</v>
+      </c>
+      <c r="DG4">
+        <v>0.029159082070761101</v>
+      </c>
+      <c r="DH4">
+        <v>0.028847344037135132</v>
+      </c>
+      <c r="DI4">
+        <v>0.028847344037135132</v>
+      </c>
+      <c r="DJ4">
+        <v>0.028847344037135139</v>
+      </c>
+      <c r="DK4">
+        <v>0.029008287715050977</v>
+      </c>
+      <c r="DL4">
+        <v>0.029008287715050977</v>
+      </c>
+      <c r="DM4">
+        <v>0.025075849499284514</v>
+      </c>
+      <c r="DN4">
+        <v>0.029593660693439834</v>
+      </c>
+      <c r="DO4">
+        <v>0.029593660693439834</v>
+      </c>
+      <c r="DP4">
+        <v>0.029052940968441188</v>
+      </c>
+      <c r="DQ4">
+        <v>0.029052940968441188</v>
+      </c>
+      <c r="DR4">
+        <v>0.02950720345483801</v>
+      </c>
+      <c r="DS4">
+        <v>0.029692028250278397</v>
+      </c>
+      <c r="DT4">
+        <v>0.029692028250278397</v>
+      </c>
+      <c r="DU4">
+        <v>0.029692028250278397</v>
+      </c>
+      <c r="DV4">
+        <v>0.029692028250278394</v>
+      </c>
+      <c r="DW4">
+        <v>0.029358462742944968</v>
+      </c>
+      <c r="DX4">
+        <v>0.029630330441632824</v>
+      </c>
+      <c r="DY4">
+        <v>0.02963033044163282</v>
+      </c>
+      <c r="DZ4">
+        <v>0.029630330441632824</v>
+      </c>
+      <c r="EA4">
+        <v>0.02963033044163282</v>
+      </c>
+      <c r="EB4">
+        <v>0.02906982351133797</v>
+      </c>
+      <c r="EC4">
+        <v>0.027453049164012141</v>
+      </c>
+      <c r="ED4">
+        <v>0.027453049164012141</v>
+      </c>
+      <c r="EE4">
+        <v>0.02783135115469933</v>
+      </c>
+      <c r="EF4">
+        <v>0.02783135115469933</v>
+      </c>
+      <c r="EG4">
         <v>0</v>
       </c>
-      <c r="CT4">
-        <v>0.075415981876965327</v>
-      </c>
-      <c r="CU4">
-        <v>0.075415981876965327</v>
-      </c>
-      <c r="CV4">
-        <v>0.074523070739970276</v>
-      </c>
-      <c r="CW4">
-        <v>0.074523070739970276</v>
-      </c>
-      <c r="CX4">
-        <v>0.074523070739970276</v>
-      </c>
-      <c r="CY4">
-        <v>0.074349657757482687</v>
-      </c>
-      <c r="CZ4">
-        <v>0.074349657757482687</v>
-      </c>
-      <c r="DA4">
-        <v>0.074349657757482701</v>
-      </c>
-      <c r="DB4">
-        <v>0.074349657757482687</v>
-      </c>
-      <c r="DC4">
-        <v>0.074349657757482701</v>
-      </c>
-      <c r="DD4">
-        <v>0.074201545874957919</v>
-      </c>
-      <c r="DE4">
-        <v>0.074201545874957933</v>
-      </c>
-      <c r="DF4">
-        <v>0.074201545874957933</v>
-      </c>
-      <c r="DG4">
-        <v>0.074201545874957933</v>
-      </c>
-      <c r="DH4">
-        <v>0.074201545874957933</v>
-      </c>
-      <c r="DI4">
-        <v>0.069459015143268243</v>
-      </c>
-      <c r="DJ4">
-        <v>0.069459015143268257</v>
-      </c>
-      <c r="DK4">
-        <v>0.069459015143268243</v>
-      </c>
-      <c r="DL4">
-        <v>0.069459015143268243</v>
-      </c>
-      <c r="DM4">
-        <v>0.069459015143268257</v>
-      </c>
-      <c r="DN4">
-        <v>0.073691964349122174</v>
-      </c>
-      <c r="DO4">
-        <v>0.073691964349122188</v>
-      </c>
-      <c r="DP4">
-        <v>0.073691964349122202</v>
-      </c>
-      <c r="DQ4">
-        <v>0.073691964349122188</v>
-      </c>
-      <c r="DR4">
-        <v>0.073691964349122216</v>
-      </c>
-      <c r="DS4">
-        <v>0.073691964349122202</v>
-      </c>
-      <c r="DT4">
-        <v>0.07369196434912223</v>
-      </c>
-      <c r="DU4">
-        <v>0.073691964349122202</v>
-      </c>
-      <c r="DV4">
-        <v>0.07369196434912223</v>
-      </c>
-      <c r="DW4">
-        <v>0.07369196434912223</v>
-      </c>
-      <c r="DX4">
-        <v>0.07369196434912223</v>
-      </c>
-      <c r="DY4">
-        <v>0.07369196434912223</v>
-      </c>
-      <c r="DZ4">
-        <v>0.07369196434912223</v>
-      </c>
-      <c r="EA4">
-        <v>0.07369196434912223</v>
-      </c>
-      <c r="EB4">
-        <v>0.07369196434912223</v>
-      </c>
-      <c r="EC4">
-        <v>0.07369196434912223</v>
-      </c>
-      <c r="ED4">
-        <v>0.073691964349122244</v>
-      </c>
-      <c r="EE4">
-        <v>0.073691964349122244</v>
-      </c>
-      <c r="EF4">
-        <v>0.07369196434912223</v>
-      </c>
-      <c r="EG4">
-        <v>0.073691964349122244</v>
-      </c>
       <c r="EH4">
-        <v>0.073691964349122244</v>
+        <v>0.029227630145743963</v>
       </c>
       <c r="EI4">
-        <v>0.073691964349122244</v>
+        <v>0.029227630145743963</v>
       </c>
       <c r="EJ4">
-        <v>0.073691964349122258</v>
+        <v>0.028881580464819877</v>
       </c>
       <c r="EK4">
-        <v>0.073691964349122244</v>
+        <v>0.028881580464819884</v>
       </c>
       <c r="EL4">
-        <v>0.073691964349122258</v>
+        <v>0.028881580464819877</v>
       </c>
       <c r="EM4">
-        <v>0.073691964349122258</v>
+        <v>0.028814373880904062</v>
       </c>
       <c r="EN4">
-        <v>0.073691964349122258</v>
+        <v>0.028814373880904062</v>
       </c>
       <c r="EO4">
-        <v>0.073691964349122258</v>
+        <v>0.028814373880904062</v>
       </c>
       <c r="EP4">
-        <v>0.073691964349122258</v>
+        <v>0.028814373880904062</v>
       </c>
       <c r="EQ4">
-        <v>0.073691964349122258</v>
+        <v>0.028814373880904066</v>
       </c>
       <c r="ER4">
-        <v>0.073691964349122258</v>
+        <v>0.028756972794093463</v>
       </c>
       <c r="ES4">
-        <v>0.073691964349122258</v>
+        <v>0.028756972794093467</v>
       </c>
       <c r="ET4">
-        <v>0.073691964349122258</v>
+        <v>0.028756972794093467</v>
       </c>
       <c r="EU4">
-        <v>0.073691964349122258</v>
+        <v>0.02875697279409347</v>
       </c>
       <c r="EV4">
-        <v>0.073691964349122258</v>
+        <v>0.028756972794093474</v>
       </c>
       <c r="EW4">
-        <v>0.073691964349122258</v>
+        <v>0.026918994546899236</v>
       </c>
       <c r="EX4">
-        <v>0.073691964349122258</v>
+        <v>0.026918994546899236</v>
       </c>
       <c r="EY4">
-        <v>0.073691964349122271</v>
+        <v>0.026918994546899239</v>
       </c>
       <c r="EZ4">
-        <v>0.073691964349122271</v>
+        <v>0.026918994546899239</v>
       </c>
       <c r="FA4">
-        <v>0.073691964349122271</v>
+        <v>0.026918994546899239</v>
       </c>
       <c r="FB4">
-        <v>0.073691964349122271</v>
+        <v>0.028559483349607843</v>
       </c>
       <c r="FC4">
-        <v>0.073691964349122271</v>
+        <v>0.028559483349607843</v>
       </c>
       <c r="FD4">
-        <v>0.073691964349122285</v>
+        <v>0.028559483349607853</v>
       </c>
       <c r="FE4">
-        <v>0.073691964349122271</v>
+        <v>0.028559483349607843</v>
       </c>
       <c r="FF4">
-        <v>0.073691964349122285</v>
+        <v>0.028559483349607853</v>
       </c>
       <c r="FG4">
-        <v>0.073691964349122271</v>
+        <v>0.028559483349607846</v>
       </c>
       <c r="FH4">
-        <v>0.073691964349122285</v>
+        <v>0.028559483349607853</v>
       </c>
       <c r="FI4">
-        <v>0.073691964349122271</v>
+        <v>0.028559483349607853</v>
       </c>
       <c r="FJ4">
-        <v>0.073691964349122285</v>
+        <v>0.028559483349607857</v>
       </c>
       <c r="FK4">
-        <v>0.073691964349122285</v>
+        <v>0.028559483349607857</v>
       </c>
       <c r="FL4">
-        <v>0.073691964349122285</v>
+        <v>0.028559483349607857</v>
       </c>
       <c r="FM4">
-        <v>0.073691964349122299</v>
+        <v>0.028559483349607857</v>
       </c>
       <c r="FN4">
-        <v>0.073691964349122299</v>
+        <v>0.028559483349607857</v>
       </c>
       <c r="FO4">
-        <v>0.073691964349122299</v>
+        <v>0.02855948334960786</v>
       </c>
       <c r="FP4">
-        <v>0.073691964349122299</v>
+        <v>0.028559483349607857</v>
       </c>
       <c r="FQ4">
-        <v>0.073691964349122313</v>
+        <v>0.02855948334960786</v>
       </c>
       <c r="FR4">
-        <v>0.073691964349122313</v>
+        <v>0.02855948334960786</v>
       </c>
       <c r="FS4">
-        <v>0.073691964349122299</v>
+        <v>0.028559483349607857</v>
       </c>
       <c r="FT4">
-        <v>0.073691964349122313</v>
+        <v>0.02855948334960786</v>
       </c>
       <c r="FU4">
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.059827219254555336</v>
+        <v>0.023186170802274014</v>
       </c>
       <c r="FW4">
         <v>0</v>
       </c>
       <c r="FX4">
         <v>0.042895706218693617</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:FV4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>75</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>76</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>175</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>100</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>101</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>102</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>103</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>104</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>105</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>106</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>109</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>113</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>114</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>115</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>116</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>117</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>118</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>119</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>120</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>121</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>123</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>124</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>125</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>126</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>127</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>128</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>129</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>130</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>131</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>132</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>192</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>134</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>135</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>136</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>137</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>138</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>139</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>140</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>141</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>142</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>143</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>144</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>145</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>146</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>147</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>148</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>149</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>150</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>151</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>152</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>153</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>154</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>155</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>156</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>157</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>158</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>159</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>160</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>161</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>162</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>163</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>164</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>165</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>166</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>167</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>168</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>169</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>170</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>180</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3">
+        <v>2.1156250938861079</v>
+      </c>
+      <c r="C3">
+        <v>-0.76663262406213606</v>
+      </c>
+      <c r="D3">
+        <v>-0.7913404573690983</v>
+      </c>
+      <c r="E3">
+        <v>-0.80817212056281795</v>
+      </c>
+      <c r="F3">
+        <v>-0.81915694629728719</v>
+      </c>
+      <c r="G3">
+        <v>-0.82451906750540949</v>
+      </c>
+      <c r="H3">
+        <v>-0.82644583544962757</v>
+      </c>
+      <c r="I3">
+        <v>0.0024165977235115071</v>
+      </c>
+      <c r="J3">
+        <v>0.0020420937001745382</v>
+      </c>
+      <c r="K3">
+        <v>-0.0032453759468443807</v>
+      </c>
+      <c r="L3">
+        <v>0.0078496785185232058</v>
+      </c>
+      <c r="M3">
+        <v>-0.0067961978812783796</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.1730083618031715</v>
+      </c>
+      <c r="P3">
+        <v>1.2655611034352927</v>
+      </c>
+      <c r="Q3">
+        <v>-0.27997451652531979</v>
+      </c>
+      <c r="R3">
+        <v>-0.29962327155536278</v>
+      </c>
+      <c r="S3">
+        <v>-0.2427142487057844</v>
+      </c>
+      <c r="T3">
+        <v>-0.28766074831611915</v>
+      </c>
+      <c r="U3">
+        <v>-0.19085750671722879</v>
+      </c>
+      <c r="V3">
+        <v>-0.20438119554125597</v>
+      </c>
+      <c r="W3">
+        <v>-0.22160985645741316</v>
+      </c>
+      <c r="X3">
+        <v>-0.17011072911921887</v>
+      </c>
+      <c r="Y3">
+        <v>-0.20308484662096024</v>
+      </c>
+      <c r="Z3">
+        <v>-0.13436322161916817</v>
+      </c>
+      <c r="AA3">
+        <v>-0.13446237547097084</v>
+      </c>
+      <c r="AB3">
+        <v>-0.1534335858441418</v>
+      </c>
+      <c r="AC3">
+        <v>-0.13746027754308215</v>
+      </c>
+      <c r="AD3">
+        <v>-0.067941699798979918</v>
+      </c>
+      <c r="AE3">
+        <v>-0.12630704659970154</v>
+      </c>
+      <c r="AF3">
+        <v>-0.12217752801410031</v>
+      </c>
+      <c r="AG3">
+        <v>-0.10209311256410354</v>
+      </c>
+      <c r="AH3">
+        <v>-0.058441740698284304</v>
+      </c>
+      <c r="AI3">
+        <v>-0.076944867462411914</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.1027428739790449</v>
+      </c>
+      <c r="AK3">
+        <v>-0.087138277939860606</v>
+      </c>
+      <c r="AL3">
+        <v>-0.10969646183759764</v>
+      </c>
+      <c r="AM3">
+        <v>-0.058155922600085029</v>
+      </c>
+      <c r="AN3">
+        <v>-0.055186133946195516</v>
+      </c>
+      <c r="AO3">
+        <v>-0.088519599646241967</v>
+      </c>
+      <c r="AP3">
+        <v>-0.08110939547480904</v>
+      </c>
+      <c r="AQ3">
+        <v>-0.043297423240265059</v>
+      </c>
+      <c r="AR3">
+        <v>-0.01519445795567103</v>
+      </c>
+      <c r="AS3">
+        <v>-0.069009426393422252</v>
+      </c>
+      <c r="AT3">
+        <v>-0.045442378358949577</v>
+      </c>
+      <c r="AU3">
+        <v>-0.024327931410448436</v>
+      </c>
+      <c r="AV3">
+        <v>-0.042720441887365068</v>
+      </c>
+      <c r="AW3">
+        <v>-0.029872091338824711</v>
+      </c>
+      <c r="AX3">
+        <v>-0.034461905047843723</v>
+      </c>
+      <c r="AY3">
+        <v>0.023525076375448532</v>
+      </c>
+      <c r="AZ3">
+        <v>-0.035134913701803001</v>
+      </c>
+      <c r="BA3">
+        <v>-0.037260488973781869</v>
+      </c>
+      <c r="BB3">
+        <v>-0.024143992625856339</v>
+      </c>
+      <c r="BC3">
+        <v>-0.014221668247101004</v>
+      </c>
+      <c r="BD3">
+        <v>-0.023381368251020579</v>
+      </c>
+      <c r="BE3">
+        <v>-0.051812720882749547</v>
+      </c>
+      <c r="BF3">
+        <v>-0.0091967354878097866</v>
+      </c>
+      <c r="BG3">
+        <v>-0.0048080050366990229</v>
+      </c>
+      <c r="BH3">
+        <v>-0.014963839572204657</v>
+      </c>
+      <c r="BI3">
+        <v>-0.015622491690497337</v>
+      </c>
+      <c r="BJ3">
+        <v>-0.029457792974203624</v>
+      </c>
+      <c r="BK3">
+        <v>-0.071833771306132138</v>
+      </c>
+      <c r="BL3">
+        <v>-0.0084032442406883328</v>
+      </c>
+      <c r="BM3">
+        <v>0.00088137742418638863</v>
+      </c>
+      <c r="BN3">
+        <v>-0.0059078325075730478</v>
+      </c>
+      <c r="BO3">
+        <v>-0.056530747242899186</v>
+      </c>
+      <c r="BP3">
+        <v>-0.045994124249355263</v>
+      </c>
+      <c r="BQ3">
+        <v>-0.015765494887007594</v>
+      </c>
+      <c r="BR3">
+        <v>-0.015472610670316658</v>
+      </c>
+      <c r="BS3">
+        <v>-0.035266818347267449</v>
+      </c>
+      <c r="BT3">
+        <v>-0.059264154081368807</v>
+      </c>
+      <c r="BU3">
+        <v>-0.031325277257704787</v>
+      </c>
+      <c r="BV3">
+        <v>0.019976391797318443</v>
+      </c>
+      <c r="BW3">
+        <v>-0.073604800651770844</v>
+      </c>
+      <c r="BX3">
+        <v>-0.040728289818237215</v>
+      </c>
+      <c r="BY3">
+        <v>-0.024739288596076402</v>
+      </c>
+      <c r="BZ3">
+        <v>-0.062361071657081796</v>
+      </c>
+      <c r="CA3">
+        <v>-0.042595996867865714</v>
+      </c>
+      <c r="CB3">
+        <v>-0.018152421847222395</v>
+      </c>
+      <c r="CC3">
+        <v>-0.006892584725177617</v>
+      </c>
+      <c r="CD3">
+        <v>-0.071956514173693295</v>
+      </c>
+      <c r="CE3">
+        <v>-0.021439882207871418</v>
+      </c>
+      <c r="CF3">
+        <v>-0.061957921393726433</v>
+      </c>
+      <c r="CG3">
+        <v>-0.036300785578052421</v>
+      </c>
+      <c r="CH3">
+        <v>-0.046930699061013027</v>
+      </c>
+      <c r="CI3">
+        <v>-0.013469567058105845</v>
+      </c>
+      <c r="CJ3">
+        <v>-0.032903241620494621</v>
+      </c>
+      <c r="CK3">
+        <v>-0.045864674106095092</v>
+      </c>
+      <c r="CL3">
+        <v>-0.042944483204757668</v>
+      </c>
+      <c r="CM3">
+        <v>-0.055320804463870887</v>
+      </c>
+      <c r="CN3">
+        <v>-0.035322628634083232</v>
+      </c>
+      <c r="CO3">
+        <v>-0.10162205321910583</v>
+      </c>
+      <c r="CP3">
+        <v>-0.035162995594950008</v>
+      </c>
+      <c r="CQ3">
+        <v>-0.084389781318944895</v>
+      </c>
+      <c r="CR3">
+        <v>-0.049120021361159193</v>
+      </c>
+      <c r="CS3">
+        <v>-0.04952598335114157</v>
+      </c>
+      <c r="CT3">
+        <v>-0.040658620957016743</v>
+      </c>
+      <c r="CU3">
+        <v>-0.036039589691011044</v>
+      </c>
+      <c r="CV3">
+        <v>-0.065795554860944155</v>
+      </c>
+      <c r="CW3">
+        <v>-0.10277996300602375</v>
+      </c>
+      <c r="CX3">
+        <v>-0.062321693295351213</v>
+      </c>
+      <c r="CY3">
+        <v>-0.040003121855528262</v>
+      </c>
+      <c r="CZ3">
+        <v>-0.073700219479310061</v>
+      </c>
+      <c r="DA3">
+        <v>-0.090489470788669396</v>
+      </c>
+      <c r="DB3">
+        <v>-0.080495558454397029</v>
+      </c>
+      <c r="DC3">
+        <v>-0.042645748807263704</v>
+      </c>
+      <c r="DD3">
+        <v>-0.036408781988036924</v>
+      </c>
+      <c r="DE3">
+        <v>-0.048713325780769971</v>
+      </c>
+      <c r="DF3">
+        <v>-0.037127252991344013</v>
+      </c>
+      <c r="DG3">
+        <v>-0.083680106538681104</v>
+      </c>
+      <c r="DH3">
+        <v>-0.057646355831411401</v>
+      </c>
+      <c r="DI3">
+        <v>-0.10547702047796327</v>
+      </c>
+      <c r="DJ3">
+        <v>-0.023543861077456311</v>
+      </c>
+      <c r="DK3">
+        <v>-0.10090126076165853</v>
+      </c>
+      <c r="DL3">
+        <v>-0.073943139354880574</v>
+      </c>
+      <c r="DM3">
+        <v>-0.094997389573865082</v>
+      </c>
+      <c r="DN3">
+        <v>-0.059666649511444687</v>
+      </c>
+      <c r="DO3">
+        <v>-0.053268780066312568</v>
+      </c>
+      <c r="DP3">
+        <v>-0.031005432770912309</v>
+      </c>
+      <c r="DQ3">
+        <v>-0.064326087686971317</v>
+      </c>
+      <c r="DR3">
+        <v>-0.069584834406035745</v>
+      </c>
+      <c r="DS3">
+        <v>-0.032637452003810331</v>
+      </c>
+      <c r="DT3">
+        <v>-0.036081065196685622</v>
+      </c>
+      <c r="DU3">
+        <v>-0.053214654616161906</v>
+      </c>
+      <c r="DV3">
+        <v>-0.040337375692443403</v>
+      </c>
+      <c r="DW3">
+        <v>-0.073263477313225786</v>
+      </c>
+      <c r="DX3">
+        <v>-0.059502163844952674</v>
+      </c>
+      <c r="DY3">
+        <v>-0.10479898808944527</v>
+      </c>
+      <c r="DZ3">
+        <v>-0.088482110404623671</v>
+      </c>
+      <c r="EA3">
+        <v>-0.080711316645367362</v>
+      </c>
+      <c r="EB3">
+        <v>-0.0903071093731668</v>
+      </c>
+      <c r="EC3">
+        <v>-0.061171995484513693</v>
+      </c>
+      <c r="ED3">
+        <v>-0.048378834075298111</v>
+      </c>
+      <c r="EE3">
+        <v>-0.11882475951788711</v>
+      </c>
+      <c r="EF3">
+        <v>-0.048183183651735302</v>
+      </c>
+      <c r="EG3">
+        <v>0</v>
+      </c>
+      <c r="EH3">
+        <v>-0.11029643068247917</v>
+      </c>
+      <c r="EI3">
+        <v>-0.082140653708191402</v>
+      </c>
+      <c r="EJ3">
+        <v>-0.057530151455736131</v>
+      </c>
+      <c r="EK3">
+        <v>-0.090970173521652986</v>
+      </c>
+      <c r="EL3">
+        <v>-0.055435832332712535</v>
+      </c>
+      <c r="EM3">
+        <v>-0.12404543721603149</v>
+      </c>
+      <c r="EN3">
+        <v>-0.097663972397222534</v>
+      </c>
+      <c r="EO3">
+        <v>-0.059809557113597672</v>
+      </c>
+      <c r="EP3">
+        <v>-0.098199332041440962</v>
+      </c>
+      <c r="EQ3">
+        <v>-0.080646683779499753</v>
+      </c>
+      <c r="ER3">
+        <v>-0.10356173463768475</v>
+      </c>
+      <c r="ES3">
+        <v>-0.092035545764666229</v>
+      </c>
+      <c r="ET3">
+        <v>-0.098121392608169641</v>
+      </c>
+      <c r="EU3">
+        <v>-0.11244207260379445</v>
+      </c>
+      <c r="EV3">
+        <v>-0.11162097939474122</v>
+      </c>
+      <c r="EW3">
+        <v>-0.074775544474091307</v>
+      </c>
+      <c r="EX3">
+        <v>-0.088957659456021937</v>
+      </c>
+      <c r="EY3">
+        <v>-0.068374931039160591</v>
+      </c>
+      <c r="EZ3">
+        <v>-0.1118614196687</v>
+      </c>
+      <c r="FA3">
+        <v>-0.089485722938622572</v>
+      </c>
+      <c r="FB3">
+        <v>-0.084278952142568989</v>
+      </c>
+      <c r="FC3">
+        <v>-0.040136097196954344</v>
+      </c>
+      <c r="FD3">
+        <v>-0.084579562618534096</v>
+      </c>
+      <c r="FE3">
+        <v>-0.10835296286381847</v>
+      </c>
+      <c r="FF3">
+        <v>-0.065114556707199095</v>
+      </c>
+      <c r="FG3">
+        <v>-0.1039667424345373</v>
+      </c>
+      <c r="FH3">
+        <v>-0.10279713376051935</v>
+      </c>
+      <c r="FI3">
+        <v>-0.15985188220562213</v>
+      </c>
+      <c r="FJ3">
+        <v>-0.1122017318613192</v>
+      </c>
+      <c r="FK3">
+        <v>-0.12819229151279476</v>
+      </c>
+      <c r="FL3">
+        <v>-0.077665439906089068</v>
+      </c>
+      <c r="FM3">
+        <v>-0.17059726478808376</v>
+      </c>
+      <c r="FN3">
+        <v>-0.088280063750791615</v>
+      </c>
+      <c r="FO3">
+        <v>-0.04435280263774747</v>
+      </c>
+      <c r="FP3">
+        <v>-0.097806233667141126</v>
+      </c>
+      <c r="FQ3">
+        <v>-0.15552016846775973</v>
+      </c>
+      <c r="FR3">
+        <v>-0.12011258994524156</v>
+      </c>
+      <c r="FS3">
+        <v>-0.10717645154293351</v>
+      </c>
+      <c r="FT3">
+        <v>-0.10916490223932392</v>
+      </c>
+      <c r="FU3">
+        <v>0</v>
+      </c>
+      <c r="FV3">
+        <v>-5.4171267363714151</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4">
+        <v>0.029696655213342141</v>
+      </c>
+      <c r="C4">
+        <v>0.014842080823014536</v>
+      </c>
+      <c r="D4">
+        <v>0.017049690556163209</v>
+      </c>
+      <c r="E4">
+        <v>0.016600288343099168</v>
+      </c>
+      <c r="F4">
+        <v>0.01655738241311188</v>
+      </c>
+      <c r="G4">
+        <v>0.019102971544393384</v>
+      </c>
+      <c r="H4">
+        <v>0.022481273683762553</v>
+      </c>
+      <c r="I4">
+        <v>0.02088998120591708</v>
+      </c>
+      <c r="J4">
+        <v>0.017160849768360846</v>
+      </c>
+      <c r="K4">
+        <v>0.01417199585046167</v>
+      </c>
+      <c r="L4">
+        <v>0.014205257674409355</v>
+      </c>
+      <c r="M4">
+        <v>0.014437357383721448</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.03328801053543122</v>
+      </c>
+      <c r="P4">
+        <v>0.033288010535431227</v>
+      </c>
+      <c r="Q4">
+        <v>0.033288010535431227</v>
+      </c>
+      <c r="R4">
+        <v>0.033288010535431227</v>
+      </c>
+      <c r="S4">
+        <v>0.03328801053543122</v>
+      </c>
+      <c r="T4">
+        <v>0.033288010535431227</v>
+      </c>
+      <c r="U4">
+        <v>0.033288010535431234</v>
+      </c>
+      <c r="V4">
+        <v>0.033288010535431234</v>
+      </c>
+      <c r="W4">
+        <v>0.033288010535431234</v>
+      </c>
+      <c r="X4">
+        <v>0.033288010535431234</v>
+      </c>
+      <c r="Y4">
+        <v>0.033288010535431234</v>
+      </c>
+      <c r="Z4">
+        <v>0.033288010535431234</v>
+      </c>
+      <c r="AA4">
+        <v>0.033288010535431241</v>
+      </c>
+      <c r="AB4">
+        <v>0.033288010535431234</v>
+      </c>
+      <c r="AC4">
+        <v>0.033288010535431241</v>
+      </c>
+      <c r="AD4">
+        <v>0.033288010535431248</v>
+      </c>
+      <c r="AE4">
+        <v>0.033288010535431248</v>
+      </c>
+      <c r="AF4">
+        <v>0.033288010535431255</v>
+      </c>
+      <c r="AG4">
+        <v>0.033288010535431262</v>
+      </c>
+      <c r="AH4">
+        <v>0.033288010535431255</v>
+      </c>
+      <c r="AI4">
+        <v>0.033288010535431255</v>
+      </c>
+      <c r="AJ4">
+        <v>0.033288010535431269</v>
+      </c>
+      <c r="AK4">
+        <v>0.033288010535431262</v>
+      </c>
+      <c r="AL4">
+        <v>0.033288010535431269</v>
+      </c>
+      <c r="AM4">
+        <v>0.033288010535431269</v>
+      </c>
+      <c r="AN4">
+        <v>0.033288010535431276</v>
+      </c>
+      <c r="AO4">
+        <v>0.033288010535431269</v>
+      </c>
+      <c r="AP4">
+        <v>0.033288010535431276</v>
+      </c>
+      <c r="AQ4">
+        <v>0.033288010535431269</v>
+      </c>
+      <c r="AR4">
+        <v>0.033288010535431282</v>
+      </c>
+      <c r="AS4">
+        <v>0.033288010535431276</v>
+      </c>
+      <c r="AT4">
+        <v>0.033288010535431282</v>
+      </c>
+      <c r="AU4">
+        <v>0.033288010535431276</v>
+      </c>
+      <c r="AV4">
+        <v>0.033288010535431282</v>
+      </c>
+      <c r="AW4">
+        <v>0.033288010535431276</v>
+      </c>
+      <c r="AX4">
+        <v>0.033288010535431289</v>
+      </c>
+      <c r="AY4">
+        <v>0.033288010535431289</v>
+      </c>
+      <c r="AZ4">
+        <v>0.033288010535431296</v>
+      </c>
+      <c r="BA4">
+        <v>0.033288010535431303</v>
+      </c>
+      <c r="BB4">
+        <v>0.033288010535431303</v>
+      </c>
+      <c r="BC4">
+        <v>0.033288010535431303</v>
+      </c>
+      <c r="BD4">
+        <v>0.033288010535431303</v>
+      </c>
+      <c r="BE4">
+        <v>0.03328801053543131</v>
+      </c>
+      <c r="BF4">
+        <v>0.03328801053543131</v>
+      </c>
+      <c r="BG4">
+        <v>0.033288010535431303</v>
+      </c>
+      <c r="BH4">
+        <v>0.03328801053543131</v>
+      </c>
+      <c r="BI4">
+        <v>0.03328801053543131</v>
+      </c>
+      <c r="BJ4">
+        <v>0.03328801053543131</v>
+      </c>
+      <c r="BK4">
+        <v>0.03328801053543131</v>
+      </c>
+      <c r="BL4">
+        <v>0.03328801053543131</v>
+      </c>
+      <c r="BM4">
+        <v>0.03328801053543131</v>
+      </c>
+      <c r="BN4">
+        <v>0.03328801053543131</v>
+      </c>
+      <c r="BO4">
+        <v>0.033288010535431317</v>
+      </c>
+      <c r="BP4">
+        <v>0.03328801053543131</v>
+      </c>
+      <c r="BQ4">
+        <v>0.033288010535431317</v>
+      </c>
+      <c r="BR4">
+        <v>0.033288010535431317</v>
+      </c>
+      <c r="BS4">
+        <v>0.033288010535431317</v>
+      </c>
+      <c r="BT4">
+        <v>0.033288010535431317</v>
+      </c>
+      <c r="BU4">
+        <v>0.033288010535431317</v>
+      </c>
+      <c r="BV4">
+        <v>0.033288010535431317</v>
+      </c>
+      <c r="BW4">
+        <v>0.033288010535431317</v>
+      </c>
+      <c r="BX4">
+        <v>0.033288010535431324</v>
+      </c>
+      <c r="BY4">
+        <v>0.033288010535431324</v>
+      </c>
+      <c r="BZ4">
+        <v>0.033288010535431324</v>
+      </c>
+      <c r="CA4">
+        <v>0.033288010535431324</v>
+      </c>
+      <c r="CB4">
+        <v>0.033288010535431324</v>
+      </c>
+      <c r="CC4">
+        <v>0.033288010535431324</v>
+      </c>
+      <c r="CD4">
+        <v>0.033288010535431324</v>
+      </c>
+      <c r="CE4">
+        <v>0.033288010535431324</v>
+      </c>
+      <c r="CF4">
+        <v>0.033288010535431324</v>
+      </c>
+      <c r="CG4">
+        <v>0.033288010535431324</v>
+      </c>
+      <c r="CH4">
+        <v>0.033288010535431331</v>
+      </c>
+      <c r="CI4">
+        <v>0.033288010535431331</v>
+      </c>
+      <c r="CJ4">
+        <v>0.033288010535431331</v>
+      </c>
+      <c r="CK4">
+        <v>0.033288010535431331</v>
+      </c>
+      <c r="CL4">
+        <v>0.033288010535431331</v>
+      </c>
+      <c r="CM4">
+        <v>0.033288010535431331</v>
+      </c>
+      <c r="CN4">
+        <v>0.033288010535431331</v>
+      </c>
+      <c r="CO4">
+        <v>0.033288010535431331</v>
+      </c>
+      <c r="CP4">
+        <v>0.033288010535431331</v>
+      </c>
+      <c r="CQ4">
+        <v>0.033288010535431331</v>
+      </c>
+      <c r="CR4">
+        <v>0.033288010535431338</v>
+      </c>
+      <c r="CS4">
+        <v>0.032612621728842973</v>
+      </c>
+      <c r="CT4">
+        <v>0.032612621728842973</v>
+      </c>
+      <c r="CU4">
+        <v>0.032612621728842973</v>
+      </c>
+      <c r="CV4">
+        <v>0.032612621728842973</v>
+      </c>
+      <c r="CW4">
+        <v>0.032612621728842973</v>
+      </c>
+      <c r="CX4">
+        <v>0.033357169872063899</v>
+      </c>
+      <c r="CY4">
+        <v>0.033357169872063899</v>
+      </c>
+      <c r="CZ4">
+        <v>0.033357169872063906</v>
+      </c>
+      <c r="DA4">
+        <v>0.033357169872063906</v>
+      </c>
+      <c r="DB4">
+        <v>0.033357169872063906</v>
+      </c>
+      <c r="DC4">
+        <v>0.033350200480894487</v>
+      </c>
+      <c r="DD4">
+        <v>0.033350200480894487</v>
+      </c>
+      <c r="DE4">
+        <v>0.033350200480894487</v>
+      </c>
+      <c r="DF4">
+        <v>0.033350200480894487</v>
+      </c>
+      <c r="DG4">
+        <v>0.033350200480894487</v>
+      </c>
+      <c r="DH4">
+        <v>0.032993655446530365</v>
+      </c>
+      <c r="DI4">
+        <v>0.032993655446530365</v>
+      </c>
+      <c r="DJ4">
+        <v>0.032993655446530372</v>
+      </c>
+      <c r="DK4">
+        <v>0.033177732020395083</v>
+      </c>
+      <c r="DL4">
+        <v>0.033177732020395083</v>
+      </c>
+      <c r="DM4">
+        <v>0.028680073192991557</v>
+      </c>
+      <c r="DN4">
+        <v>0.033847242334128259</v>
+      </c>
+      <c r="DO4">
+        <v>0.033847242334128259</v>
+      </c>
+      <c r="DP4">
+        <v>0.033228803413831741</v>
+      </c>
+      <c r="DQ4">
+        <v>0.033228803413831741</v>
+      </c>
+      <c r="DR4">
+        <v>0.033748358348912329</v>
+      </c>
+      <c r="DS4">
+        <v>0.033959748541745521</v>
+      </c>
+      <c r="DT4">
+        <v>0.033959748541745521</v>
+      </c>
+      <c r="DU4">
+        <v>0.033959748541745521</v>
+      </c>
+      <c r="DV4">
+        <v>0.033959748541745521</v>
+      </c>
+      <c r="DW4">
+        <v>0.033578238708339758</v>
+      </c>
+      <c r="DX4">
+        <v>0.033889182730292046</v>
+      </c>
+      <c r="DY4">
+        <v>0.033889182730292046</v>
+      </c>
+      <c r="DZ4">
+        <v>0.033889182730292046</v>
+      </c>
+      <c r="EA4">
+        <v>0.033889182730292046</v>
+      </c>
+      <c r="EB4">
+        <v>0.033248112532989496</v>
+      </c>
+      <c r="EC4">
+        <v>0.031398954576479232</v>
+      </c>
+      <c r="ED4">
+        <v>0.031398954576479232</v>
+      </c>
+      <c r="EE4">
+        <v>0.03183163099616633</v>
+      </c>
+      <c r="EF4">
+        <v>0.03183163099616633</v>
+      </c>
+      <c r="EG4">
+        <v>0</v>
+      </c>
+      <c r="EH4">
+        <v>0.033428601167092703</v>
+      </c>
+      <c r="EI4">
+        <v>0.033428601167092703</v>
+      </c>
+      <c r="EJ4">
+        <v>0.033032812774057514</v>
+      </c>
+      <c r="EK4">
+        <v>0.033032812774057521</v>
+      </c>
+      <c r="EL4">
+        <v>0.033032812774057514</v>
+      </c>
+      <c r="EM4">
+        <v>0.032955946395280933</v>
+      </c>
+      <c r="EN4">
+        <v>0.032955946395280933</v>
+      </c>
+      <c r="EO4">
+        <v>0.032955946395280933</v>
+      </c>
+      <c r="EP4">
+        <v>0.032955946395280933</v>
+      </c>
+      <c r="EQ4">
+        <v>0.032955946395280933</v>
+      </c>
+      <c r="ER4">
+        <v>0.032890294885802369</v>
+      </c>
+      <c r="ES4">
+        <v>0.032890294885802376</v>
+      </c>
+      <c r="ET4">
+        <v>0.032890294885802376</v>
+      </c>
+      <c r="EU4">
+        <v>0.032890294885802383</v>
+      </c>
+      <c r="EV4">
+        <v>0.032890294885802383</v>
+      </c>
+      <c r="EW4">
+        <v>0.030788138759121165</v>
+      </c>
+      <c r="EX4">
+        <v>0.030788138759121168</v>
+      </c>
+      <c r="EY4">
+        <v>0.030788138759121175</v>
+      </c>
+      <c r="EZ4">
+        <v>0.030788138759121175</v>
+      </c>
+      <c r="FA4">
+        <v>0.030788138759121172</v>
+      </c>
+      <c r="FB4">
+        <v>0.032664419717631003</v>
+      </c>
+      <c r="FC4">
+        <v>0.032664419717631003</v>
+      </c>
+      <c r="FD4">
+        <v>0.032664419717631017</v>
+      </c>
+      <c r="FE4">
+        <v>0.032664419717631003</v>
+      </c>
+      <c r="FF4">
+        <v>0.032664419717631017</v>
+      </c>
+      <c r="FG4">
+        <v>0.03266441971763101</v>
+      </c>
+      <c r="FH4">
+        <v>0.032664419717631017</v>
+      </c>
+      <c r="FI4">
+        <v>0.032664419717631017</v>
+      </c>
+      <c r="FJ4">
+        <v>0.032664419717631017</v>
+      </c>
+      <c r="FK4">
+        <v>0.032664419717631017</v>
+      </c>
+      <c r="FL4">
+        <v>0.032664419717631017</v>
+      </c>
+      <c r="FM4">
+        <v>0.032664419717631017</v>
+      </c>
+      <c r="FN4">
+        <v>0.032664419717631017</v>
+      </c>
+      <c r="FO4">
+        <v>0.032664419717631024</v>
+      </c>
+      <c r="FP4">
+        <v>0.032664419717631017</v>
+      </c>
+      <c r="FQ4">
+        <v>0.032664419717631024</v>
+      </c>
+      <c r="FR4">
+        <v>0.032664419717631024</v>
+      </c>
+      <c r="FS4">
+        <v>0.032664419717631017</v>
+      </c>
+      <c r="FT4">
+        <v>0.032664419717631024</v>
+      </c>
+      <c r="FU4">
+        <v>0</v>
+      </c>
+      <c r="FV4">
+        <v>0.026518785562714288</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:FV4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>75</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>76</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>175</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>100</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>101</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>102</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>103</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>104</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>105</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>106</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>109</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>113</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>114</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>115</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>116</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>117</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>118</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>119</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>120</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>121</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>123</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>124</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>125</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>126</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>127</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>128</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>129</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>130</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>131</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>132</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>192</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>134</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>135</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>136</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>137</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>138</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>139</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>140</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>141</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>142</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>143</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>144</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>145</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>146</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>147</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>148</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>149</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>150</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>151</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>152</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>153</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>154</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>155</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>156</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>157</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>158</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>159</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>160</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>161</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>162</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>163</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>164</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>165</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>166</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>167</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>168</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>169</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>170</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>180</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3">
+        <v>1.0208525852476706</v>
+      </c>
+      <c r="C3">
+        <v>-1.9526378765787322</v>
+      </c>
+      <c r="D3">
+        <v>-2.011494659913974</v>
+      </c>
+      <c r="E3">
+        <v>-1.9966995777975702</v>
+      </c>
+      <c r="F3">
+        <v>-1.9873766851167227</v>
+      </c>
+      <c r="G3">
+        <v>-1.9597881419236858</v>
+      </c>
+      <c r="H3">
+        <v>-1.9930485389314598</v>
+      </c>
+      <c r="I3">
+        <v>0.76518824490993098</v>
+      </c>
+      <c r="J3">
+        <v>0.72988429441183911</v>
+      </c>
+      <c r="K3">
+        <v>0.59144516191085017</v>
+      </c>
+      <c r="L3">
+        <v>0.51545821084408805</v>
+      </c>
+      <c r="M3">
+        <v>0.39675099103298983</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.4687649094450934</v>
+      </c>
+      <c r="P3">
+        <v>1.573475132555658</v>
+      </c>
+      <c r="Q3">
+        <v>0.086701011834497466</v>
+      </c>
+      <c r="R3">
+        <v>-0.0053754526980272525</v>
+      </c>
+      <c r="S3">
+        <v>0.070096737421660504</v>
+      </c>
+      <c r="T3">
+        <v>0.026426957552637912</v>
+      </c>
+      <c r="U3">
+        <v>0.13614479671844923</v>
+      </c>
+      <c r="V3">
+        <v>0.090885934989920966</v>
+      </c>
+      <c r="W3">
+        <v>0.072773339364200926</v>
+      </c>
+      <c r="X3">
+        <v>0.098410895683344421</v>
+      </c>
+      <c r="Y3">
+        <v>0.11169943063296349</v>
+      </c>
+      <c r="Z3">
+        <v>0.14153532118454745</v>
+      </c>
+      <c r="AA3">
+        <v>0.11279875191499247</v>
+      </c>
+      <c r="AB3">
+        <v>0.14917870369632277</v>
+      </c>
+      <c r="AC3">
+        <v>0.07565336064274944</v>
+      </c>
+      <c r="AD3">
+        <v>0.181331410279056</v>
+      </c>
+      <c r="AE3">
+        <v>0.15818186700842715</v>
+      </c>
+      <c r="AF3">
+        <v>0.1733977410593831</v>
+      </c>
+      <c r="AG3">
+        <v>0.13470569931299892</v>
+      </c>
+      <c r="AH3">
+        <v>0.15259912087803076</v>
+      </c>
+      <c r="AI3">
+        <v>0.19467135651605649</v>
+      </c>
+      <c r="AJ3">
+        <v>0.20530184503912838</v>
+      </c>
+      <c r="AK3">
+        <v>0.18146739176173859</v>
+      </c>
+      <c r="AL3">
+        <v>0.12722347538461534</v>
+      </c>
+      <c r="AM3">
+        <v>0.2178699555851944</v>
+      </c>
+      <c r="AN3">
+        <v>0.22904452423813745</v>
+      </c>
+      <c r="AO3">
+        <v>0.18097072161334968</v>
+      </c>
+      <c r="AP3">
+        <v>0.18007104169316965</v>
+      </c>
+      <c r="AQ3">
+        <v>0.18603130340986479</v>
+      </c>
+      <c r="AR3">
+        <v>0.24850941877828714</v>
+      </c>
+      <c r="AS3">
+        <v>0.19333520829248835</v>
+      </c>
+      <c r="AT3">
+        <v>0.22746744605351774</v>
+      </c>
+      <c r="AU3">
+        <v>0.2396292360849418</v>
+      </c>
+      <c r="AV3">
+        <v>0.17949814997248859</v>
+      </c>
+      <c r="AW3">
+        <v>0.19991866443287296</v>
+      </c>
+      <c r="AX3">
+        <v>0.25847435613357117</v>
+      </c>
+      <c r="AY3">
+        <v>0.30460325071618843</v>
+      </c>
+      <c r="AZ3">
+        <v>0.2322723645922842</v>
+      </c>
+      <c r="BA3">
+        <v>0.2236461875451651</v>
+      </c>
+      <c r="BB3">
+        <v>0.22227632894111812</v>
+      </c>
+      <c r="BC3">
+        <v>0.27856818489013391</v>
+      </c>
+      <c r="BD3">
+        <v>0.23830029784130013</v>
+      </c>
+      <c r="BE3">
+        <v>0.22575620435379878</v>
+      </c>
+      <c r="BF3">
+        <v>0.20447131437785057</v>
+      </c>
+      <c r="BG3">
+        <v>0.2405634153161576</v>
+      </c>
+      <c r="BH3">
+        <v>0.21019273216296613</v>
+      </c>
+      <c r="BI3">
+        <v>0.22958206594052383</v>
+      </c>
+      <c r="BJ3">
+        <v>0.25312218643973061</v>
+      </c>
+      <c r="BK3">
+        <v>0.21512612625347993</v>
+      </c>
+      <c r="BL3">
+        <v>0.24685278004086245</v>
+      </c>
+      <c r="BM3">
+        <v>0.22371445504110804</v>
+      </c>
+      <c r="BN3">
+        <v>0.24899082621191757</v>
+      </c>
+      <c r="BO3">
+        <v>0.1788009735732462</v>
+      </c>
+      <c r="BP3">
+        <v>0.18747896176284662</v>
+      </c>
+      <c r="BQ3">
+        <v>0.25479485485607462</v>
+      </c>
+      <c r="BR3">
+        <v>0.1947902449837246</v>
+      </c>
+      <c r="BS3">
+        <v>0.21856836016802114</v>
+      </c>
+      <c r="BT3">
+        <v>0.16057507580896038</v>
+      </c>
+      <c r="BU3">
+        <v>0.20931631377446816</v>
+      </c>
+      <c r="BV3">
+        <v>0.23447180479782301</v>
+      </c>
+      <c r="BW3">
+        <v>0.11754813786179544</v>
+      </c>
+      <c r="BX3">
+        <v>0.22499894071721513</v>
+      </c>
+      <c r="BY3">
+        <v>0.2212689141158683</v>
+      </c>
+      <c r="BZ3">
+        <v>0.21817534752025047</v>
+      </c>
+      <c r="CA3">
+        <v>0.19412189547254316</v>
+      </c>
+      <c r="CB3">
+        <v>0.23383838942220628</v>
+      </c>
+      <c r="CC3">
+        <v>0.19834526313582504</v>
+      </c>
+      <c r="CD3">
+        <v>0.19202525180303459</v>
+      </c>
+      <c r="CE3">
+        <v>0.22312702348449223</v>
+      </c>
+      <c r="CF3">
+        <v>0.20972606084120951</v>
+      </c>
+      <c r="CG3">
+        <v>0.14965678183897124</v>
+      </c>
+      <c r="CH3">
+        <v>0.16065016774048166</v>
+      </c>
+      <c r="CI3">
+        <v>0.16849829998108065</v>
+      </c>
+      <c r="CJ3">
+        <v>0.15430528945879077</v>
+      </c>
+      <c r="CK3">
+        <v>0.20326347937992192</v>
+      </c>
+      <c r="CL3">
+        <v>0.19372623737767899</v>
+      </c>
+      <c r="CM3">
+        <v>0.11698158694369294</v>
+      </c>
+      <c r="CN3">
+        <v>0.16736870766123996</v>
+      </c>
+      <c r="CO3">
+        <v>0.1794825508377399</v>
+      </c>
+      <c r="CP3">
+        <v>0.16456477007208675</v>
+      </c>
+      <c r="CQ3">
+        <v>0.10797665973055817</v>
+      </c>
+      <c r="CR3">
+        <v>0.1500469630863972</v>
+      </c>
+      <c r="CS3">
+        <v>0.17761909000907236</v>
+      </c>
+      <c r="CT3">
+        <v>0.19605707236967626</v>
+      </c>
+      <c r="CU3">
+        <v>0.077575954880356138</v>
+      </c>
+      <c r="CV3">
+        <v>0.1277653848620797</v>
+      </c>
+      <c r="CW3">
+        <v>0.12074834634232036</v>
+      </c>
+      <c r="CX3">
+        <v>0.12315859406974541</v>
+      </c>
+      <c r="CY3">
+        <v>0.15567976042490805</v>
+      </c>
+      <c r="CZ3">
+        <v>0.1313176212450537</v>
+      </c>
+      <c r="DA3">
+        <v>0.17115522211056367</v>
+      </c>
+      <c r="DB3">
+        <v>0.10713206271992096</v>
+      </c>
+      <c r="DC3">
+        <v>0.16441323419466636</v>
+      </c>
+      <c r="DD3">
+        <v>0.11852566302296923</v>
+      </c>
+      <c r="DE3">
+        <v>0.09260859129871106</v>
+      </c>
+      <c r="DF3">
+        <v>0.15819456883572725</v>
+      </c>
+      <c r="DG3">
+        <v>0.095262139030216936</v>
+      </c>
+      <c r="DH3">
+        <v>0.11381505027507924</v>
+      </c>
+      <c r="DI3">
+        <v>0.027706414622208048</v>
+      </c>
+      <c r="DJ3">
+        <v>0.15706507735541236</v>
+      </c>
+      <c r="DK3">
+        <v>0.086467032344382133</v>
+      </c>
+      <c r="DL3">
+        <v>0.11466413568219741</v>
+      </c>
+      <c r="DM3">
+        <v>0.062091834174367103</v>
+      </c>
+      <c r="DN3">
+        <v>0.20886880172648711</v>
+      </c>
+      <c r="DO3">
+        <v>0.16244077816367697</v>
+      </c>
+      <c r="DP3">
+        <v>0.11333028142534475</v>
+      </c>
+      <c r="DQ3">
+        <v>0.12159935749666341</v>
+      </c>
+      <c r="DR3">
+        <v>0.08043539968636948</v>
+      </c>
+      <c r="DS3">
+        <v>0.15257273194191692</v>
+      </c>
+      <c r="DT3">
+        <v>0.17910333468317424</v>
+      </c>
+      <c r="DU3">
+        <v>0.088715994037223175</v>
+      </c>
+      <c r="DV3">
+        <v>0.13119369094877095</v>
+      </c>
+      <c r="DW3">
+        <v>0.084604977491246999</v>
+      </c>
+      <c r="DX3">
+        <v>0.1155789339502804</v>
+      </c>
+      <c r="DY3">
+        <v>0.037727272544103185</v>
+      </c>
+      <c r="DZ3">
+        <v>0.017058059347072205</v>
+      </c>
+      <c r="EA3">
+        <v>0.03349291595129051</v>
+      </c>
+      <c r="EB3">
+        <v>-0.043450186919366092</v>
+      </c>
+      <c r="EC3">
+        <v>0.050740490563719445</v>
+      </c>
+      <c r="ED3">
+        <v>0.070477037616208327</v>
+      </c>
+      <c r="EE3">
+        <v>0.025840977971849692</v>
+      </c>
+      <c r="EF3">
+        <v>0.031331676486664704</v>
+      </c>
+      <c r="EG3">
+        <v>0</v>
+      </c>
+      <c r="EH3">
+        <v>0.28078751471900748</v>
+      </c>
+      <c r="EI3">
+        <v>0.27131587425596981</v>
+      </c>
+      <c r="EJ3">
+        <v>0.27116942685020939</v>
+      </c>
+      <c r="EK3">
+        <v>0.22003823062348837</v>
+      </c>
+      <c r="EL3">
+        <v>0.2011798045324639</v>
+      </c>
+      <c r="EM3">
+        <v>0.21458318066548557</v>
+      </c>
+      <c r="EN3">
+        <v>0.20077951185169385</v>
+      </c>
+      <c r="EO3">
+        <v>0.18040456187681816</v>
+      </c>
+      <c r="EP3">
+        <v>0.15129415660730414</v>
+      </c>
+      <c r="EQ3">
+        <v>0.13628394507207944</v>
+      </c>
+      <c r="ER3">
+        <v>0.14945018575095914</v>
+      </c>
+      <c r="ES3">
+        <v>0.13171758157522892</v>
+      </c>
+      <c r="ET3">
+        <v>0.093869340832655315</v>
+      </c>
+      <c r="EU3">
+        <v>0.078667931843446615</v>
+      </c>
+      <c r="EV3">
+        <v>0.056742056060432242</v>
+      </c>
+      <c r="EW3">
+        <v>0.10034775181496276</v>
+      </c>
+      <c r="EX3">
+        <v>0.078323693886356349</v>
+      </c>
+      <c r="EY3">
+        <v>0.059622942183735379</v>
+      </c>
+      <c r="EZ3">
+        <v>0.032915959888652355</v>
+      </c>
+      <c r="FA3">
+        <v>0.028033728649445748</v>
+      </c>
+      <c r="FB3">
+        <v>0.21719498446377666</v>
+      </c>
+      <c r="FC3">
+        <v>0.22669154426406743</v>
+      </c>
+      <c r="FD3">
+        <v>0.17890734604285166</v>
+      </c>
+      <c r="FE3">
+        <v>0.15395769190062158</v>
+      </c>
+      <c r="FF3">
+        <v>0.1618489023255382</v>
+      </c>
+      <c r="FG3">
+        <v>0.14225770087538608</v>
+      </c>
+      <c r="FH3">
+        <v>0.10788705750044808</v>
+      </c>
+      <c r="FI3">
+        <v>0.059971994204327916</v>
+      </c>
+      <c r="FJ3">
+        <v>0.088998072208346851</v>
+      </c>
+      <c r="FK3">
+        <v>0.055192209909103437</v>
+      </c>
+      <c r="FL3">
+        <v>0.087688061410931953</v>
+      </c>
+      <c r="FM3">
+        <v>0.018048883568307195</v>
+      </c>
+      <c r="FN3">
+        <v>0.053625103437590672</v>
+      </c>
+      <c r="FO3">
+        <v>0.097240235295687275</v>
+      </c>
+      <c r="FP3">
+        <v>0.032500098431740267</v>
+      </c>
+      <c r="FQ3">
+        <v>-0.025080112203132859</v>
+      </c>
+      <c r="FR3">
+        <v>-0.011320448122024252</v>
+      </c>
+      <c r="FS3">
+        <v>-0.0061617960653957676</v>
+      </c>
+      <c r="FT3">
+        <v>-0.013860413118175976</v>
+      </c>
+      <c r="FU3">
+        <v>0</v>
+      </c>
+      <c r="FV3">
+        <v>-5.3488132609046319</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4">
+        <v>0.09253794959063362</v>
+      </c>
+      <c r="C4">
+        <v>0.046249509150214384</v>
+      </c>
+      <c r="D4">
+        <v>0.053128656876929456</v>
+      </c>
+      <c r="E4">
+        <v>0.051728271579673649</v>
+      </c>
+      <c r="F4">
+        <v>0.051594572118984244</v>
+      </c>
+      <c r="G4">
+        <v>0.059526899750385595</v>
+      </c>
+      <c r="H4">
+        <v>0.070054050058357617</v>
+      </c>
+      <c r="I4">
+        <v>0.065095412728970445</v>
+      </c>
+      <c r="J4">
+        <v>0.053475040855225371</v>
+      </c>
+      <c r="K4">
+        <v>0.044161452802923155</v>
+      </c>
+      <c r="L4">
+        <v>0.04426510019909121</v>
+      </c>
+      <c r="M4">
+        <v>0.044988347684238074</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.10372899637250219</v>
+      </c>
+      <c r="P4">
+        <v>0.10372899637250221</v>
+      </c>
+      <c r="Q4">
+        <v>0.1037289963725022</v>
+      </c>
+      <c r="R4">
+        <v>0.10372899637250221</v>
+      </c>
+      <c r="S4">
+        <v>0.10372899637250219</v>
+      </c>
+      <c r="T4">
+        <v>0.10372899637250221</v>
+      </c>
+      <c r="U4">
+        <v>0.10372899637250221</v>
+      </c>
+      <c r="V4">
+        <v>0.10372899637250221</v>
+      </c>
+      <c r="W4">
+        <v>0.10372899637250223</v>
+      </c>
+      <c r="X4">
+        <v>0.10372899637250221</v>
+      </c>
+      <c r="Y4">
+        <v>0.10372899637250223</v>
+      </c>
+      <c r="Z4">
+        <v>0.10372899637250221</v>
+      </c>
+      <c r="AA4">
+        <v>0.10372899637250226</v>
+      </c>
+      <c r="AB4">
+        <v>0.10372899637250223</v>
+      </c>
+      <c r="AC4">
+        <v>0.10372899637250226</v>
+      </c>
+      <c r="AD4">
+        <v>0.10372899637250226</v>
+      </c>
+      <c r="AE4">
+        <v>0.10372899637250227</v>
+      </c>
+      <c r="AF4">
+        <v>0.10372899637250228</v>
+      </c>
+      <c r="AG4">
+        <v>0.1037289963725023</v>
+      </c>
+      <c r="AH4">
+        <v>0.10372899637250228</v>
+      </c>
+      <c r="AI4">
+        <v>0.1037289963725023</v>
+      </c>
+      <c r="AJ4">
+        <v>0.10372899637250232</v>
+      </c>
+      <c r="AK4">
+        <v>0.10372899637250231</v>
+      </c>
+      <c r="AL4">
+        <v>0.10372899637250232</v>
+      </c>
+      <c r="AM4">
+        <v>0.10372899637250232</v>
+      </c>
+      <c r="AN4">
+        <v>0.10372899637250235</v>
+      </c>
+      <c r="AO4">
+        <v>0.10372899637250232</v>
+      </c>
+      <c r="AP4">
+        <v>0.10372899637250235</v>
+      </c>
+      <c r="AQ4">
+        <v>0.10372899637250232</v>
+      </c>
+      <c r="AR4">
+        <v>0.10372899637250238</v>
+      </c>
+      <c r="AS4">
+        <v>0.10372899637250235</v>
+      </c>
+      <c r="AT4">
+        <v>0.10372899637250238</v>
+      </c>
+      <c r="AU4">
+        <v>0.10372899637250237</v>
+      </c>
+      <c r="AV4">
+        <v>0.10372899637250238</v>
+      </c>
+      <c r="AW4">
+        <v>0.10372899637250235</v>
+      </c>
+      <c r="AX4">
+        <v>0.10372899637250239</v>
+      </c>
+      <c r="AY4">
+        <v>0.10372899637250239</v>
+      </c>
+      <c r="AZ4">
+        <v>0.10372899637250242</v>
+      </c>
+      <c r="BA4">
+        <v>0.10372899637250244</v>
+      </c>
+      <c r="BB4">
+        <v>0.10372899637250244</v>
+      </c>
+      <c r="BC4">
+        <v>0.10372899637250244</v>
+      </c>
+      <c r="BD4">
+        <v>0.10372899637250245</v>
+      </c>
+      <c r="BE4">
+        <v>0.10372899637250245</v>
+      </c>
+      <c r="BF4">
+        <v>0.10372899637250245</v>
+      </c>
+      <c r="BG4">
+        <v>0.10372899637250244</v>
+      </c>
+      <c r="BH4">
+        <v>0.10372899637250246</v>
+      </c>
+      <c r="BI4">
+        <v>0.10372899637250246</v>
+      </c>
+      <c r="BJ4">
+        <v>0.10372899637250246</v>
+      </c>
+      <c r="BK4">
+        <v>0.10372899637250246</v>
+      </c>
+      <c r="BL4">
+        <v>0.10372899637250246</v>
+      </c>
+      <c r="BM4">
+        <v>0.10372899637250246</v>
+      </c>
+      <c r="BN4">
+        <v>0.10372899637250246</v>
+      </c>
+      <c r="BO4">
+        <v>0.10372899637250248</v>
+      </c>
+      <c r="BP4">
+        <v>0.10372899637250246</v>
+      </c>
+      <c r="BQ4">
+        <v>0.10372899637250248</v>
+      </c>
+      <c r="BR4">
+        <v>0.10372899637250248</v>
+      </c>
+      <c r="BS4">
+        <v>0.10372899637250248</v>
+      </c>
+      <c r="BT4">
+        <v>0.10372899637250248</v>
+      </c>
+      <c r="BU4">
+        <v>0.10372899637250248</v>
+      </c>
+      <c r="BV4">
+        <v>0.10372899637250248</v>
+      </c>
+      <c r="BW4">
+        <v>0.10372899637250248</v>
+      </c>
+      <c r="BX4">
+        <v>0.1037289963725025</v>
+      </c>
+      <c r="BY4">
+        <v>0.1037289963725025</v>
+      </c>
+      <c r="BZ4">
+        <v>0.10372899637250249</v>
+      </c>
+      <c r="CA4">
+        <v>0.10372899637250249</v>
+      </c>
+      <c r="CB4">
+        <v>0.10372899637250249</v>
+      </c>
+      <c r="CC4">
+        <v>0.10372899637250249</v>
+      </c>
+      <c r="CD4">
+        <v>0.1037289963725025</v>
+      </c>
+      <c r="CE4">
+        <v>0.1037289963725025</v>
+      </c>
+      <c r="CF4">
+        <v>0.1037289963725025</v>
+      </c>
+      <c r="CG4">
+        <v>0.10372899637250252</v>
+      </c>
+      <c r="CH4">
+        <v>0.10372899637250252</v>
+      </c>
+      <c r="CI4">
+        <v>0.10372899637250252</v>
+      </c>
+      <c r="CJ4">
+        <v>0.10372899637250253</v>
+      </c>
+      <c r="CK4">
+        <v>0.10372899637250252</v>
+      </c>
+      <c r="CL4">
+        <v>0.10372899637250253</v>
+      </c>
+      <c r="CM4">
+        <v>0.10372899637250253</v>
+      </c>
+      <c r="CN4">
+        <v>0.10372899637250253</v>
+      </c>
+      <c r="CO4">
+        <v>0.10372899637250253</v>
+      </c>
+      <c r="CP4">
+        <v>0.10372899637250253</v>
+      </c>
+      <c r="CQ4">
+        <v>0.10372899637250253</v>
+      </c>
+      <c r="CR4">
+        <v>0.10372899637250255</v>
+      </c>
+      <c r="CS4">
+        <v>0.10162441271184595</v>
+      </c>
+      <c r="CT4">
+        <v>0.10162441271184595</v>
+      </c>
+      <c r="CU4">
+        <v>0.10162441271184595</v>
+      </c>
+      <c r="CV4">
+        <v>0.10162441271184595</v>
+      </c>
+      <c r="CW4">
+        <v>0.10162441271184595</v>
+      </c>
+      <c r="CX4">
+        <v>0.10394450425246574</v>
+      </c>
+      <c r="CY4">
+        <v>0.10394450425246575</v>
+      </c>
+      <c r="CZ4">
+        <v>0.10394450425246576</v>
+      </c>
+      <c r="DA4">
+        <v>0.10394450425246578</v>
+      </c>
+      <c r="DB4">
+        <v>0.10394450425246576</v>
+      </c>
+      <c r="DC4">
+        <v>0.10392278688517038</v>
+      </c>
+      <c r="DD4">
+        <v>0.10392278688517037</v>
+      </c>
+      <c r="DE4">
+        <v>0.10392278688517038</v>
+      </c>
+      <c r="DF4">
+        <v>0.10392278688517037</v>
+      </c>
+      <c r="DG4">
+        <v>0.10392278688517037</v>
+      </c>
+      <c r="DH4">
+        <v>0.10281175447496296</v>
+      </c>
+      <c r="DI4">
+        <v>0.10281175447496296</v>
+      </c>
+      <c r="DJ4">
+        <v>0.10281175447496298</v>
+      </c>
+      <c r="DK4">
+        <v>0.10338535674063014</v>
+      </c>
+      <c r="DL4">
+        <v>0.10338535674063014</v>
+      </c>
+      <c r="DM4">
+        <v>0.089370171432516937</v>
+      </c>
+      <c r="DN4">
+        <v>0.105471622389659</v>
+      </c>
+      <c r="DO4">
+        <v>0.105471622389659</v>
+      </c>
+      <c r="DP4">
+        <v>0.1035445006575936</v>
+      </c>
+      <c r="DQ4">
+        <v>0.1035445006575936</v>
+      </c>
+      <c r="DR4">
+        <v>0.10516348932977414</v>
+      </c>
+      <c r="DS4">
+        <v>0.10582220374955714</v>
+      </c>
+      <c r="DT4">
+        <v>0.10582220374955716</v>
+      </c>
+      <c r="DU4">
+        <v>0.10582220374955714</v>
+      </c>
+      <c r="DV4">
+        <v>0.10582220374955713</v>
+      </c>
+      <c r="DW4">
+        <v>0.10463337835900702</v>
+      </c>
+      <c r="DX4">
+        <v>0.10560231314382422</v>
+      </c>
+      <c r="DY4">
+        <v>0.10560231314382421</v>
+      </c>
+      <c r="DZ4">
+        <v>0.10560231314382422</v>
+      </c>
+      <c r="EA4">
+        <v>0.10560231314382421</v>
+      </c>
+      <c r="EB4">
+        <v>0.10360466993532616</v>
+      </c>
+      <c r="EC4">
+        <v>0.097842496231407283</v>
+      </c>
+      <c r="ED4">
+        <v>0.097842496231407283</v>
+      </c>
+      <c r="EE4">
+        <v>0.099190762169992577</v>
+      </c>
+      <c r="EF4">
+        <v>0.099190762169992577</v>
+      </c>
+      <c r="EG4">
+        <v>0</v>
+      </c>
+      <c r="EH4">
+        <v>0.10416709179746306</v>
+      </c>
+      <c r="EI4">
+        <v>0.10416709179746306</v>
+      </c>
+      <c r="EJ4">
+        <v>0.10293377288999252</v>
+      </c>
+      <c r="EK4">
+        <v>0.10293377288999253</v>
+      </c>
+      <c r="EL4">
+        <v>0.10293377288999253</v>
+      </c>
+      <c r="EM4">
+        <v>0.10269424904350741</v>
+      </c>
+      <c r="EN4">
+        <v>0.10269424904350741</v>
+      </c>
+      <c r="EO4">
+        <v>0.10269424904350741</v>
+      </c>
+      <c r="EP4">
+        <v>0.10269424904350741</v>
+      </c>
+      <c r="EQ4">
+        <v>0.10269424904350742</v>
+      </c>
+      <c r="ER4">
+        <v>0.10248967192763254</v>
+      </c>
+      <c r="ES4">
+        <v>0.10248967192763256</v>
+      </c>
+      <c r="ET4">
+        <v>0.10248967192763256</v>
+      </c>
+      <c r="EU4">
+        <v>0.10248967192763257</v>
+      </c>
+      <c r="EV4">
+        <v>0.10248967192763257</v>
+      </c>
+      <c r="EW4">
+        <v>0.095939128902333554</v>
+      </c>
+      <c r="EX4">
+        <v>0.095939128902333554</v>
+      </c>
+      <c r="EY4">
+        <v>0.095939128902333581</v>
+      </c>
+      <c r="EZ4">
+        <v>0.095939128902333581</v>
+      </c>
+      <c r="FA4">
+        <v>0.095939128902333567</v>
+      </c>
+      <c r="FB4">
+        <v>0.10178582077753308</v>
+      </c>
+      <c r="FC4">
+        <v>0.10178582077753308</v>
+      </c>
+      <c r="FD4">
+        <v>0.10178582077753311</v>
+      </c>
+      <c r="FE4">
+        <v>0.10178582077753308</v>
+      </c>
+      <c r="FF4">
+        <v>0.10178582077753311</v>
+      </c>
+      <c r="FG4">
+        <v>0.10178582077753311</v>
+      </c>
+      <c r="FH4">
+        <v>0.10178582077753311</v>
+      </c>
+      <c r="FI4">
+        <v>0.10178582077753311</v>
+      </c>
+      <c r="FJ4">
+        <v>0.10178582077753312</v>
+      </c>
+      <c r="FK4">
+        <v>0.10178582077753313</v>
+      </c>
+      <c r="FL4">
+        <v>0.10178582077753312</v>
+      </c>
+      <c r="FM4">
+        <v>0.10178582077753313</v>
+      </c>
+      <c r="FN4">
+        <v>0.10178582077753313</v>
+      </c>
+      <c r="FO4">
+        <v>0.10178582077753315</v>
+      </c>
+      <c r="FP4">
+        <v>0.10178582077753313</v>
+      </c>
+      <c r="FQ4">
+        <v>0.10178582077753315</v>
+      </c>
+      <c r="FR4">
+        <v>0.10178582077753313</v>
+      </c>
+      <c r="FS4">
+        <v>0.10178582077753313</v>
+      </c>
+      <c r="FT4">
+        <v>0.10178582077753315</v>
+      </c>
+      <c r="FU4">
+        <v>0</v>
+      </c>
+      <c r="FV4">
+        <v>0.082635368326084896</v>
       </c>
     </row>
   </sheetData>

--- a/tables/ols_coefficients.xlsx
+++ b/tables/ols_coefficients.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="22044" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="24204" uniqueCount="193">
   <si>
     <t>y1</t>
   </si>
@@ -1714,535 +1714,535 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>0.0023209384247545664</v>
+        <v>0.011024686521631947</v>
       </c>
       <c r="C3">
-        <v>-0.62551401805750162</v>
+        <v>-0.62259232871497594</v>
       </c>
       <c r="D3">
-        <v>-0.66533304371782931</v>
+        <v>-0.6677938091914033</v>
       </c>
       <c r="E3">
-        <v>-0.67288108418676329</v>
+        <v>-0.65723150628132454</v>
       </c>
       <c r="F3">
-        <v>-0.67889521710920486</v>
+        <v>-0.66783788344819539</v>
       </c>
       <c r="G3">
-        <v>-0.67627513428480668</v>
+        <v>-0.68809486876218118</v>
       </c>
       <c r="H3">
-        <v>-0.6880555520032795</v>
+        <v>-0.64974111595123685</v>
       </c>
       <c r="I3">
-        <v>-0.016673339341046142</v>
+        <v>-0.0053869158748620499</v>
       </c>
       <c r="J3">
-        <v>-0.0050711300219336546</v>
+        <v>-0.0033374903494901467</v>
       </c>
       <c r="K3">
-        <v>0.00055822442675580806</v>
+        <v>-0.002069253360321305</v>
       </c>
       <c r="L3">
-        <v>0.0064760638718830976</v>
+        <v>0.0021520180082325547</v>
       </c>
       <c r="M3">
-        <v>0.0026777254509074435</v>
+        <v>0.0040744959116932383</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.1741704464294231</v>
+        <v>1.2299056664972017</v>
       </c>
       <c r="P3">
-        <v>1.264667087582938</v>
+        <v>1.3548656112624968</v>
       </c>
       <c r="Q3">
-        <v>-0.29087554502184826</v>
+        <v>-0.22449107527316667</v>
       </c>
       <c r="R3">
-        <v>-0.29476272626190736</v>
+        <v>-0.16027728498090801</v>
       </c>
       <c r="S3">
-        <v>-0.22406352603477644</v>
+        <v>-0.1403754239410451</v>
       </c>
       <c r="T3">
-        <v>-0.25971012489334511</v>
+        <v>-0.1444303728856699</v>
       </c>
       <c r="U3">
-        <v>-0.17946883553431539</v>
+        <v>-0.13956157852055129</v>
       </c>
       <c r="V3">
-        <v>-0.20688983015501597</v>
+        <v>-0.14985859332875384</v>
       </c>
       <c r="W3">
-        <v>-0.20854080881089923</v>
+        <v>-0.10203835819335511</v>
       </c>
       <c r="X3">
-        <v>-0.15775282571243746</v>
+        <v>-0.11441780947779392</v>
       </c>
       <c r="Y3">
-        <v>-0.18558225111829926</v>
+        <v>-0.0833107584395541</v>
       </c>
       <c r="Z3">
-        <v>-0.13400135327925305</v>
+        <v>-0.092137604019585942</v>
       </c>
       <c r="AA3">
-        <v>-0.1503521668259872</v>
+        <v>-0.071097811487946458</v>
       </c>
       <c r="AB3">
-        <v>-0.15005996802968202</v>
+        <v>-0.049704790508281214</v>
       </c>
       <c r="AC3">
-        <v>-0.1598214817537629</v>
+        <v>-0.079199843600241529</v>
       </c>
       <c r="AD3">
-        <v>-0.091667853280983216</v>
+        <v>-0.039413117706796938</v>
       </c>
       <c r="AE3">
-        <v>-0.14126878232420501</v>
+        <v>-0.062933061677093227</v>
       </c>
       <c r="AF3">
-        <v>-0.11851404133274746</v>
+        <v>-0.039187780706328161</v>
       </c>
       <c r="AG3">
-        <v>-0.074624441096245692</v>
+        <v>-0.025554698026343952</v>
       </c>
       <c r="AH3">
-        <v>-0.075361307472748704</v>
+        <v>-0.048163477500022749</v>
       </c>
       <c r="AI3">
-        <v>-0.067311147227585702</v>
+        <v>0.0071154738845476033</v>
       </c>
       <c r="AJ3">
-        <v>-0.10706405266143935</v>
+        <v>-0.0088944925307097925</v>
       </c>
       <c r="AK3">
-        <v>-0.098012915960990654</v>
+        <v>-0.025851641753881882</v>
       </c>
       <c r="AL3">
-        <v>-0.093481737828977077</v>
+        <v>6.8664139216730117e-06</v>
       </c>
       <c r="AM3">
-        <v>-0.046011813989576537</v>
+        <v>0.02231744143272282</v>
       </c>
       <c r="AN3">
-        <v>-0.043275624843997725</v>
+        <v>-0.0052717932394248587</v>
       </c>
       <c r="AO3">
-        <v>-0.042505491180653165</v>
+        <v>0.038168774817085166</v>
       </c>
       <c r="AP3">
-        <v>-0.09017960859900398</v>
+        <v>0.01650403602087307</v>
       </c>
       <c r="AQ3">
-        <v>-0.055212977758447336</v>
+        <v>0.027527521316568954</v>
       </c>
       <c r="AR3">
-        <v>-0.023247448230704709</v>
+        <v>-0.0071348538326620574</v>
       </c>
       <c r="AS3">
-        <v>-0.095360800984144539</v>
+        <v>0.064302261706662478</v>
       </c>
       <c r="AT3">
-        <v>-0.037516697457489541</v>
+        <v>0.070360830408533026</v>
       </c>
       <c r="AU3">
-        <v>-0.02621081195374067</v>
+        <v>0.029113902146641824</v>
       </c>
       <c r="AV3">
-        <v>-0.027241771212236508</v>
+        <v>0.047952465503041775</v>
       </c>
       <c r="AW3">
-        <v>-0.027250057738172576</v>
+        <v>0.036773909220099245</v>
       </c>
       <c r="AX3">
-        <v>-0.031167852500671354</v>
+        <v>0.020053343483749642</v>
       </c>
       <c r="AY3">
-        <v>0.028105490489784658</v>
+        <v>0.062994315834656797</v>
       </c>
       <c r="AZ3">
-        <v>-0.012680500151281039</v>
+        <v>0.061872302793925159</v>
       </c>
       <c r="BA3">
-        <v>-0.026371017502739093</v>
+        <v>0.031266913316481099</v>
       </c>
       <c r="BB3">
-        <v>0.0087794072030836275</v>
+        <v>0.041384807351972232</v>
       </c>
       <c r="BC3">
-        <v>0.012351761185565179</v>
+        <v>0.08170246584121757</v>
       </c>
       <c r="BD3">
-        <v>-0.0095765238282036948</v>
+        <v>0.034262452758484899</v>
       </c>
       <c r="BE3">
-        <v>-0.025471557106851506</v>
+        <v>0.037616840579549747</v>
       </c>
       <c r="BF3">
-        <v>-0.010674887674087594</v>
+        <v>0.071270430171706048</v>
       </c>
       <c r="BG3">
-        <v>-0.015832121948166029</v>
+        <v>0.05240400649970392</v>
       </c>
       <c r="BH3">
-        <v>-0.016122626437881031</v>
+        <v>0.038756808010744728</v>
       </c>
       <c r="BI3">
-        <v>0.0065727355524559071</v>
+        <v>0.033031014016258582</v>
       </c>
       <c r="BJ3">
-        <v>-0.030058082110004148</v>
+        <v>0.045264420852662524</v>
       </c>
       <c r="BK3">
-        <v>-0.031350642370333262</v>
+        <v>0.023314910237753707</v>
       </c>
       <c r="BL3">
-        <v>-3.5052389224705108e-05</v>
+        <v>0.038203920850789656</v>
       </c>
       <c r="BM3">
-        <v>-0.023984810345775504</v>
+        <v>0.075023348473718762</v>
       </c>
       <c r="BN3">
-        <v>0.0044540030185585017</v>
+        <v>0.043217803995669053</v>
       </c>
       <c r="BO3">
-        <v>-0.032373320022630422</v>
+        <v>0.06113397983918481</v>
       </c>
       <c r="BP3">
-        <v>0.0017658999771209623</v>
+        <v>0.081579541509853165</v>
       </c>
       <c r="BQ3">
-        <v>0.017159213331605031</v>
+        <v>0.071802100033421593</v>
       </c>
       <c r="BR3">
-        <v>-0.024275957464043173</v>
+        <v>0.048563834799070095</v>
       </c>
       <c r="BS3">
-        <v>-0.021712422866690596</v>
+        <v>0.070065178415229509</v>
       </c>
       <c r="BT3">
-        <v>-0.041632510978799595</v>
+        <v>0.025927835529429951</v>
       </c>
       <c r="BU3">
-        <v>-0.010343098811694283</v>
+        <v>0.037455182659516445</v>
       </c>
       <c r="BV3">
-        <v>0.013031279923970747</v>
+        <v>0.073966360678671059</v>
       </c>
       <c r="BW3">
-        <v>-0.05501783743627333</v>
+        <v>0.09784822831722613</v>
       </c>
       <c r="BX3">
-        <v>-0.026507691113509726</v>
+        <v>0.080954852723857204</v>
       </c>
       <c r="BY3">
-        <v>0.015475854790566195</v>
+        <v>0.071556952572960478</v>
       </c>
       <c r="BZ3">
-        <v>0.0062147712105619594</v>
+        <v>0.052522992696674146</v>
       </c>
       <c r="CA3">
-        <v>-0.023472617953991703</v>
+        <v>0.098812653930812636</v>
       </c>
       <c r="CB3">
-        <v>0.021075081348889118</v>
+        <v>0.11838745083538557</v>
       </c>
       <c r="CC3">
-        <v>0.02953517510477114</v>
+        <v>0.11194626651587823</v>
       </c>
       <c r="CD3">
-        <v>-0.030094318440308014</v>
+        <v>0.081939539474581116</v>
       </c>
       <c r="CE3">
-        <v>0.02314004450170222</v>
+        <v>0.10101524868745175</v>
       </c>
       <c r="CF3">
-        <v>0.0030488586101122205</v>
+        <v>0.046710768905852608</v>
       </c>
       <c r="CG3">
-        <v>-0.003018792959410441</v>
+        <v>0.037104819829450658</v>
       </c>
       <c r="CH3">
-        <v>-0.0001274895140020588</v>
+        <v>0.057284214045560368</v>
       </c>
       <c r="CI3">
-        <v>0.008384625967457135</v>
+        <v>0.076731657806461101</v>
       </c>
       <c r="CJ3">
-        <v>-0.0060185158482620339</v>
+        <v>0.0091728823914826643</v>
       </c>
       <c r="CK3">
-        <v>0.018553426311327691</v>
+        <v>0.080182170017865581</v>
       </c>
       <c r="CL3">
-        <v>0.024088512895953866</v>
+        <v>0.053807660250419415</v>
       </c>
       <c r="CM3">
-        <v>-0.039968432404970763</v>
+        <v>0.066082427608623664</v>
       </c>
       <c r="CN3">
-        <v>-0.0050011688970896988</v>
+        <v>0.045174032674873424</v>
       </c>
       <c r="CO3">
-        <v>-0.073073446958538762</v>
+        <v>0.077917751611071645</v>
       </c>
       <c r="CP3">
-        <v>0.0095002864890533396</v>
+        <v>0.055650839368791179</v>
       </c>
       <c r="CQ3">
-        <v>-0.039202209684622007</v>
+        <v>0.055028894124824139</v>
       </c>
       <c r="CR3">
-        <v>-0.023066599006346625</v>
+        <v>0.048735878939755083</v>
       </c>
       <c r="CS3">
-        <v>-0.0022776842180178797</v>
+        <v>0.074543814155669699</v>
       </c>
       <c r="CT3">
-        <v>0.047762831671339129</v>
+        <v>0.079608117564043457</v>
       </c>
       <c r="CU3">
-        <v>0.026619405438760641</v>
+        <v>0.066226464825599393</v>
       </c>
       <c r="CV3">
-        <v>0.0017783888654588418</v>
+        <v>0.12134807722995397</v>
       </c>
       <c r="CW3">
-        <v>-0.019984448867553642</v>
+        <v>0.099095272408277188</v>
       </c>
       <c r="CX3">
-        <v>0.020412684302996625</v>
+        <v>0.06636961687582621</v>
       </c>
       <c r="CY3">
-        <v>0.0052171443674203779</v>
+        <v>0.087906123290272212</v>
       </c>
       <c r="CZ3">
-        <v>-0.0038387953820991794</v>
+        <v>0.095317506875870886</v>
       </c>
       <c r="DA3">
-        <v>-0.034586695244189586</v>
+        <v>0.047872333160573557</v>
       </c>
       <c r="DB3">
-        <v>-0.024920116999681993</v>
+        <v>0.043985975003869186</v>
       </c>
       <c r="DC3">
-        <v>0.025111015650629835</v>
+        <v>0.057475816309014091</v>
       </c>
       <c r="DD3">
-        <v>-0.0033995634589441708</v>
+        <v>0.075928994751919734</v>
       </c>
       <c r="DE3">
-        <v>-0.0025809801568506333</v>
+        <v>0.080895308694694204</v>
       </c>
       <c r="DF3">
-        <v>0.0017681563671059081</v>
+        <v>0.059480082742741913</v>
       </c>
       <c r="DG3">
-        <v>-0.020166808691228468</v>
+        <v>0.055738353004644199</v>
       </c>
       <c r="DH3">
-        <v>-0.005633478376941308</v>
+        <v>0.10094104116424485</v>
       </c>
       <c r="DI3">
-        <v>-0.06235312129711755</v>
+        <v>0.071840725938911165</v>
       </c>
       <c r="DJ3">
-        <v>0.025443747607090908</v>
+        <v>0.076608720416346837</v>
       </c>
       <c r="DK3">
-        <v>-0.009543817529492106</v>
+        <v>0.08468280509444541</v>
       </c>
       <c r="DL3">
-        <v>0.0019421497116248363</v>
+        <v>0.079579760543890973</v>
       </c>
       <c r="DM3">
         <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.023235077869874929</v>
+        <v>0.11589210331744579</v>
       </c>
       <c r="DO3">
-        <v>0.016623450655771688</v>
+        <v>0.074079909475821049</v>
       </c>
       <c r="DP3">
-        <v>0.027732850924275982</v>
+        <v>0.066494783808561303</v>
       </c>
       <c r="DQ3">
-        <v>0.0087223035535870363</v>
+        <v>0.11873391657570971</v>
       </c>
       <c r="DR3">
-        <v>0.0087308457296389717</v>
+        <v>0.092160372624848677</v>
       </c>
       <c r="DS3">
-        <v>0.010113663393295481</v>
+        <v>0.050879510017195449</v>
       </c>
       <c r="DT3">
-        <v>0.025335087853140828</v>
+        <v>0.081893992533364698</v>
       </c>
       <c r="DU3">
-        <v>0.0043887275143737973</v>
+        <v>0.074469494642519438</v>
       </c>
       <c r="DV3">
-        <v>0.036821516823424882</v>
+        <v>0.10137615767857874</v>
       </c>
       <c r="DW3">
-        <v>-0.015751837095223063</v>
+        <v>0.077451040816290229</v>
       </c>
       <c r="DX3">
-        <v>0.01984704544688308</v>
+        <v>0.12360955645479074</v>
       </c>
       <c r="DY3">
-        <v>-0.049316342751203432</v>
+        <v>0.092108204567742866</v>
       </c>
       <c r="DZ3">
-        <v>-0.01756526961504775</v>
+        <v>0.074353259875735628</v>
       </c>
       <c r="EA3">
-        <v>-0.0074299398224020353</v>
+        <v>0.061702746745609882</v>
       </c>
       <c r="EB3">
-        <v>-0.0044776884270064116</v>
+        <v>0.095292152261551633</v>
       </c>
       <c r="EC3">
-        <v>0.0063863691665957487</v>
+        <v>0.08237971625337949</v>
       </c>
       <c r="ED3">
-        <v>0.018537354578461604</v>
+        <v>0.083000209648436393</v>
       </c>
       <c r="EE3">
-        <v>-0.041773644590412315</v>
+        <v>0.057570243382293634</v>
       </c>
       <c r="EF3">
-        <v>-0.0041487327680559561</v>
+        <v>0.067846671003221004</v>
       </c>
       <c r="EG3">
-        <v>0.0089511471266809032</v>
+        <v>0.062120745979677851</v>
       </c>
       <c r="EH3">
-        <v>-0.044652719024812861</v>
+        <v>0.041879386911111378</v>
       </c>
       <c r="EI3">
-        <v>-0.016496942050525463</v>
+        <v>0.071501485070993298</v>
       </c>
       <c r="EJ3">
-        <v>0.0079263081902613119</v>
+        <v>0.045824054051475355</v>
       </c>
       <c r="EK3">
-        <v>-0.025513713875655451</v>
+        <v>0.067219178756679931</v>
       </c>
       <c r="EL3">
-        <v>0.010020627313284833</v>
+        <v>0.062096233454212425</v>
       </c>
       <c r="EM3">
-        <v>-0.06123271239354347</v>
+        <v>0.022542295785223088</v>
       </c>
       <c r="EN3">
-        <v>-0.034851247574734505</v>
+        <v>0.079448572234910947</v>
       </c>
       <c r="EO3">
-        <v>0.0030031677088899556</v>
+        <v>0.047790592259341555</v>
       </c>
       <c r="EP3">
-        <v>-0.03538660721895312</v>
+        <v>0.087707757374778553</v>
       </c>
       <c r="EQ3">
-        <v>-0.017833958957011994</v>
+        <v>0.066889160918434387</v>
       </c>
       <c r="ER3">
-        <v>-0.035201482582513273</v>
+        <v>0.058051334690440042</v>
       </c>
       <c r="ES3">
-        <v>-0.023675293709494862</v>
+        <v>0.048124028573070972</v>
       </c>
       <c r="ET3">
-        <v>-0.029761140552998257</v>
+        <v>0.051747614838359886</v>
       </c>
       <c r="EU3">
-        <v>-0.04408182054862305</v>
+        <v>0.083283545797718489</v>
       </c>
       <c r="EV3">
-        <v>-0.043260727339570017</v>
+        <v>0.045351489072359127</v>
       </c>
       <c r="EW3">
-        <v>-0.013738230618821082</v>
+        <v>0.06099514168456701</v>
       </c>
       <c r="EX3">
-        <v>-0.027920345600751618</v>
+        <v>0.045872621817656542</v>
       </c>
       <c r="EY3">
-        <v>-0.0073376171838905073</v>
+        <v>0.065617650701415578</v>
       </c>
       <c r="EZ3">
-        <v>-0.050824105813429651</v>
+        <v>0.034448991146765341</v>
       </c>
       <c r="FA3">
-        <v>-0.028448409083352208</v>
+        <v>0.063932019201319537</v>
       </c>
       <c r="FB3">
-        <v>-0.019843539346659798</v>
+        <v>0.040282829145819418</v>
       </c>
       <c r="FC3">
-        <v>0.024299315598954801</v>
+        <v>0.04708307430198342</v>
       </c>
       <c r="FD3">
-        <v>-0.020144149822624823</v>
+        <v>0.068944733081007126</v>
       </c>
       <c r="FE3">
-        <v>-0.043917550067909039</v>
+        <v>0.049753751482314937</v>
       </c>
       <c r="FF3">
-        <v>-0.00067914391129009037</v>
+        <v>0.0477879177377337</v>
       </c>
       <c r="FG3">
-        <v>-0.039531329638627821</v>
+        <v>-0.012100127825367742</v>
       </c>
       <c r="FH3">
-        <v>-0.038361720964609977</v>
+        <v>0.02685276049390194</v>
       </c>
       <c r="FI3">
-        <v>-0.09541646940971317</v>
+        <v>0.066623017296164808</v>
       </c>
       <c r="FJ3">
-        <v>-0.047766319065409985</v>
+        <v>0.067520671796953743</v>
       </c>
       <c r="FK3">
-        <v>-0.063756878716885776</v>
+        <v>0.017308599313205632</v>
       </c>
       <c r="FL3">
-        <v>-0.013230027110180148</v>
+        <v>0.052603307657974552</v>
       </c>
       <c r="FM3">
-        <v>-0.10616185199217498</v>
+        <v>0.041373775304429095</v>
       </c>
       <c r="FN3">
-        <v>-0.023844650954882654</v>
+        <v>0.001551026467010461</v>
       </c>
       <c r="FO3">
-        <v>0.020082610158161263</v>
+        <v>0.040574440929305296</v>
       </c>
       <c r="FP3">
-        <v>-0.033370820871232165</v>
+        <v>0.019490101438930766</v>
       </c>
       <c r="FQ3">
-        <v>-0.09108475567185105</v>
+        <v>0.034353322353961983</v>
       </c>
       <c r="FR3">
-        <v>-0.055677177149333013</v>
+        <v>0.039841903486596983</v>
       </c>
       <c r="FS3">
-        <v>-0.042741038747024895</v>
+        <v>0.042887853725170344</v>
       </c>
       <c r="FT3">
-        <v>-0.044729489443415094</v>
+        <v>0.029522464795606072</v>
       </c>
       <c r="FU3">
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.4815621491673232</v>
+        <v>-5.5554238592236027</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -2256,535 +2256,535 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.022857510488139863</v>
+        <v>0.024434601273566076</v>
       </c>
       <c r="C4">
-        <v>0.011423947095747327</v>
+        <v>0.01221216074251555</v>
       </c>
       <c r="D4">
-        <v>0.013123143933460609</v>
+        <v>0.014028596405374441</v>
       </c>
       <c r="E4">
-        <v>0.012777239126178255</v>
+        <v>0.013658825338269844</v>
       </c>
       <c r="F4">
-        <v>0.012744214439133799</v>
+        <v>0.013623522059702639</v>
       </c>
       <c r="G4">
-        <v>0.014703553962347821</v>
+        <v>0.015718049372032434</v>
       </c>
       <c r="H4">
-        <v>0.017303832546854688</v>
+        <v>0.018497738369466585</v>
       </c>
       <c r="I4">
-        <v>0.016079014996166169</v>
+        <v>0.017188412557302194</v>
       </c>
       <c r="J4">
-        <v>0.013208703160262852</v>
+        <v>0.014120058928962573</v>
       </c>
       <c r="K4">
-        <v>0.010908182805862629</v>
+        <v>0.011660810463970753</v>
       </c>
       <c r="L4">
-        <v>0.010933784426121763</v>
+        <v>0.011688178509292825</v>
       </c>
       <c r="M4">
-        <v>0.011112431533069626</v>
+        <v>0.011879151661387062</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.025621776071303094</v>
+        <v>0.027389591816997381</v>
       </c>
       <c r="P4">
-        <v>0.025621776071303094</v>
+        <v>0.027389591816997377</v>
       </c>
       <c r="Q4">
-        <v>0.025621776071303094</v>
+        <v>0.027389591816997377</v>
       </c>
       <c r="R4">
-        <v>0.025621776071303098</v>
+        <v>0.027389591816997381</v>
       </c>
       <c r="S4">
-        <v>0.025621776071303091</v>
+        <v>0.027389591816997374</v>
       </c>
       <c r="T4">
-        <v>0.025621776071303094</v>
+        <v>0.027389591816997377</v>
       </c>
       <c r="U4">
-        <v>0.025621776071303098</v>
+        <v>0.027389591816997381</v>
       </c>
       <c r="V4">
-        <v>0.025621776071303098</v>
+        <v>0.027389591816997381</v>
       </c>
       <c r="W4">
-        <v>0.025621776071303101</v>
+        <v>0.027389591816997384</v>
       </c>
       <c r="X4">
-        <v>0.025621776071303098</v>
+        <v>0.027389591816997381</v>
       </c>
       <c r="Y4">
-        <v>0.025621776071303105</v>
+        <v>0.027389591816997388</v>
       </c>
       <c r="Z4">
-        <v>0.025621776071303098</v>
+        <v>0.027389591816997381</v>
       </c>
       <c r="AA4">
-        <v>0.025621776071303105</v>
+        <v>0.027389591816997388</v>
       </c>
       <c r="AB4">
-        <v>0.025621776071303098</v>
+        <v>0.027389591816997381</v>
       </c>
       <c r="AC4">
-        <v>0.025621776071303108</v>
+        <v>0.027389591816997395</v>
       </c>
       <c r="AD4">
-        <v>0.025621776071303112</v>
+        <v>0.027389591816997398</v>
       </c>
       <c r="AE4">
-        <v>0.025621776071303112</v>
+        <v>0.027389591816997398</v>
       </c>
       <c r="AF4">
-        <v>0.025621776071303119</v>
+        <v>0.027389591816997405</v>
       </c>
       <c r="AG4">
-        <v>0.025621776071303112</v>
+        <v>0.027389591816997398</v>
       </c>
       <c r="AH4">
-        <v>0.025621776071303122</v>
+        <v>0.027389591816997409</v>
       </c>
       <c r="AI4">
-        <v>0.025621776071303119</v>
+        <v>0.027389591816997405</v>
       </c>
       <c r="AJ4">
-        <v>0.025621776071303132</v>
+        <v>0.027389591816997415</v>
       </c>
       <c r="AK4">
-        <v>0.025621776071303132</v>
+        <v>0.027389591816997415</v>
       </c>
       <c r="AL4">
-        <v>0.025621776071303132</v>
+        <v>0.027389591816997415</v>
       </c>
       <c r="AM4">
-        <v>0.025621776071303132</v>
+        <v>0.027389591816997415</v>
       </c>
       <c r="AN4">
-        <v>0.025621776071303132</v>
+        <v>0.027389591816997415</v>
       </c>
       <c r="AO4">
-        <v>0.025621776071303132</v>
+        <v>0.027389591816997415</v>
       </c>
       <c r="AP4">
-        <v>0.025621776071303132</v>
+        <v>0.027389591816997419</v>
       </c>
       <c r="AQ4">
-        <v>0.025621776071303132</v>
+        <v>0.027389591816997422</v>
       </c>
       <c r="AR4">
-        <v>0.025621776071303136</v>
+        <v>0.027389591816997422</v>
       </c>
       <c r="AS4">
-        <v>0.025621776071303132</v>
+        <v>0.027389591816997415</v>
       </c>
       <c r="AT4">
-        <v>0.025621776071303136</v>
+        <v>0.027389591816997422</v>
       </c>
       <c r="AU4">
-        <v>0.025621776071303132</v>
+        <v>0.027389591816997422</v>
       </c>
       <c r="AV4">
-        <v>0.025621776071303136</v>
+        <v>0.027389591816997422</v>
       </c>
       <c r="AW4">
-        <v>0.025621776071303136</v>
+        <v>0.027389591816997422</v>
       </c>
       <c r="AX4">
-        <v>0.025621776071303136</v>
+        <v>0.027389591816997422</v>
       </c>
       <c r="AY4">
-        <v>0.025621776071303136</v>
+        <v>0.027389591816997422</v>
       </c>
       <c r="AZ4">
-        <v>0.025621776071303136</v>
+        <v>0.027389591816997422</v>
       </c>
       <c r="BA4">
-        <v>0.025621776071303136</v>
+        <v>0.027389591816997422</v>
       </c>
       <c r="BB4">
-        <v>0.025621776071303136</v>
+        <v>0.027389591816997422</v>
       </c>
       <c r="BC4">
-        <v>0.025621776071303136</v>
+        <v>0.027389591816997422</v>
       </c>
       <c r="BD4">
-        <v>0.025621776071303139</v>
+        <v>0.027389591816997426</v>
       </c>
       <c r="BE4">
-        <v>0.025621776071303143</v>
+        <v>0.027389591816997429</v>
       </c>
       <c r="BF4">
-        <v>0.025621776071303146</v>
+        <v>0.027389591816997433</v>
       </c>
       <c r="BG4">
-        <v>0.025621776071303146</v>
+        <v>0.027389591816997433</v>
       </c>
       <c r="BH4">
-        <v>0.025621776071303146</v>
+        <v>0.027389591816997433</v>
       </c>
       <c r="BI4">
-        <v>0.025621776071303146</v>
+        <v>0.027389591816997433</v>
       </c>
       <c r="BJ4">
-        <v>0.025621776071303146</v>
+        <v>0.027389591816997433</v>
       </c>
       <c r="BK4">
-        <v>0.025621776071303146</v>
+        <v>0.027389591816997433</v>
       </c>
       <c r="BL4">
-        <v>0.025621776071303153</v>
+        <v>0.02738959181699744</v>
       </c>
       <c r="BM4">
-        <v>0.025621776071303146</v>
+        <v>0.027389591816997433</v>
       </c>
       <c r="BN4">
-        <v>0.02562177607130315</v>
+        <v>0.027389591816997436</v>
       </c>
       <c r="BO4">
-        <v>0.02562177607130315</v>
+        <v>0.027389591816997436</v>
       </c>
       <c r="BP4">
-        <v>0.02562177607130315</v>
+        <v>0.027389591816997436</v>
       </c>
       <c r="BQ4">
-        <v>0.025621776071303153</v>
+        <v>0.02738959181699744</v>
       </c>
       <c r="BR4">
-        <v>0.02562177607130315</v>
+        <v>0.027389591816997436</v>
       </c>
       <c r="BS4">
-        <v>0.02562177607130315</v>
+        <v>0.027389591816997436</v>
       </c>
       <c r="BT4">
-        <v>0.025621776071303153</v>
+        <v>0.02738959181699744</v>
       </c>
       <c r="BU4">
-        <v>0.025621776071303157</v>
+        <v>0.027389591816997443</v>
       </c>
       <c r="BV4">
-        <v>0.025621776071303153</v>
+        <v>0.02738959181699744</v>
       </c>
       <c r="BW4">
-        <v>0.025621776071303153</v>
+        <v>0.02738959181699744</v>
       </c>
       <c r="BX4">
-        <v>0.02562177607130315</v>
+        <v>0.027389591816997436</v>
       </c>
       <c r="BY4">
-        <v>0.025101929421259085</v>
+        <v>0.026833877509272779</v>
       </c>
       <c r="BZ4">
-        <v>0.025101929421259085</v>
+        <v>0.026833877509272779</v>
       </c>
       <c r="CA4">
-        <v>0.025101929421259085</v>
+        <v>0.026833877509272779</v>
       </c>
       <c r="CB4">
-        <v>0.025101929421259085</v>
+        <v>0.026833877509272779</v>
       </c>
       <c r="CC4">
-        <v>0.025101929421259085</v>
+        <v>0.026833877509272779</v>
       </c>
       <c r="CD4">
-        <v>0.025675008000995897</v>
+        <v>0.02744649656949617</v>
       </c>
       <c r="CE4">
-        <v>0.025675008000995894</v>
+        <v>0.027446496569496166</v>
       </c>
       <c r="CF4">
-        <v>0.025675008000995897</v>
+        <v>0.02744649656949617</v>
       </c>
       <c r="CG4">
-        <v>0.02567500800099589</v>
+        <v>0.027446496569496166</v>
       </c>
       <c r="CH4">
-        <v>0.025675008000995894</v>
+        <v>0.027446496569496166</v>
       </c>
       <c r="CI4">
-        <v>0.025669643661793171</v>
+        <v>0.027440762109062135</v>
       </c>
       <c r="CJ4">
-        <v>0.025669643661793171</v>
+        <v>0.027440762109062135</v>
       </c>
       <c r="CK4">
-        <v>0.025669643661793171</v>
+        <v>0.027440762109062135</v>
       </c>
       <c r="CL4">
-        <v>0.025669643661793171</v>
+        <v>0.027440762109062135</v>
       </c>
       <c r="CM4">
-        <v>0.025669643661793171</v>
+        <v>0.027440762109062135</v>
       </c>
       <c r="CN4">
-        <v>0.025395211009229358</v>
+        <v>0.027147394533213347</v>
       </c>
       <c r="CO4">
-        <v>0.025395211009229358</v>
+        <v>0.027147394533213347</v>
       </c>
       <c r="CP4">
-        <v>0.025395211009229358</v>
+        <v>0.027147394533213347</v>
       </c>
       <c r="CQ4">
-        <v>0.025536894716956967</v>
+        <v>0.027298853936768289</v>
       </c>
       <c r="CR4">
-        <v>0.025536894716956964</v>
+        <v>0.027298853936768289</v>
       </c>
       <c r="CS4">
-        <v>0.022075047479249675</v>
+        <v>0.023598150967944782</v>
       </c>
       <c r="CT4">
-        <v>0.026052216692045632</v>
+        <v>0.027849731382294636</v>
       </c>
       <c r="CU4">
-        <v>0.026052216692045636</v>
+        <v>0.027849731382294639</v>
       </c>
       <c r="CV4">
-        <v>0.025576204359835188</v>
+        <v>0.027340875811829181</v>
       </c>
       <c r="CW4">
-        <v>0.025576204359835195</v>
+        <v>0.027340875811829191</v>
       </c>
       <c r="CX4">
-        <v>0.025976105705372302</v>
+        <v>0.02776836899539491</v>
       </c>
       <c r="CY4">
-        <v>0.026138812700993885</v>
+        <v>0.02794230222248437</v>
       </c>
       <c r="CZ4">
-        <v>0.026138812700993889</v>
+        <v>0.027942302222484373</v>
       </c>
       <c r="DA4">
-        <v>0.026138812700993889</v>
+        <v>0.027942302222484373</v>
       </c>
       <c r="DB4">
-        <v>0.026138812700993892</v>
+        <v>0.027942302222484377</v>
       </c>
       <c r="DC4">
-        <v>0.025845164646835821</v>
+        <v>0.02762839344743059</v>
       </c>
       <c r="DD4">
-        <v>0.026084498207869514</v>
+        <v>0.027884240213344815</v>
       </c>
       <c r="DE4">
-        <v>0.026084498207869511</v>
+        <v>0.027884240213344808</v>
       </c>
       <c r="DF4">
-        <v>0.026084498207869511</v>
+        <v>0.027884240213344808</v>
       </c>
       <c r="DG4">
-        <v>0.026084498207869514</v>
+        <v>0.027884240213344815</v>
       </c>
       <c r="DH4">
-        <v>0.025591066585580573</v>
+        <v>0.027356763480799726</v>
       </c>
       <c r="DI4">
-        <v>0.024167770019637047</v>
+        <v>0.02583526427374867</v>
       </c>
       <c r="DJ4">
-        <v>0.024167770019637051</v>
+        <v>0.025835264273748677</v>
       </c>
       <c r="DK4">
-        <v>0.02450080098659008</v>
+        <v>0.026191273249156113</v>
       </c>
       <c r="DL4">
-        <v>0.024500800986590084</v>
+        <v>0.026191273249156113</v>
       </c>
       <c r="DM4">
         <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.025729988656681208</v>
+        <v>0.027505270704156499</v>
       </c>
       <c r="DO4">
-        <v>0.025729988656681208</v>
+        <v>0.027505270704156499</v>
       </c>
       <c r="DP4">
-        <v>0.02542535039759463</v>
+        <v>0.027179613437267516</v>
       </c>
       <c r="DQ4">
-        <v>0.025425350397594623</v>
+        <v>0.027179613437267512</v>
       </c>
       <c r="DR4">
-        <v>0.02542535039759463</v>
+        <v>0.027179613437267519</v>
       </c>
       <c r="DS4">
-        <v>0.02536618635886868</v>
+        <v>0.0271163672803095</v>
       </c>
       <c r="DT4">
-        <v>0.02536618635886868</v>
+        <v>0.027116367280309504</v>
       </c>
       <c r="DU4">
-        <v>0.02536618635886868</v>
+        <v>0.0271163672803095</v>
       </c>
       <c r="DV4">
-        <v>0.02536618635886868</v>
+        <v>0.0271163672803095</v>
       </c>
       <c r="DW4">
-        <v>0.02536618635886868</v>
+        <v>0.0271163672803095</v>
       </c>
       <c r="DX4">
-        <v>0.025315654403142106</v>
+        <v>0.027062348790833451</v>
       </c>
       <c r="DY4">
-        <v>0.025315654403142106</v>
+        <v>0.027062348790833451</v>
       </c>
       <c r="DZ4">
-        <v>0.025315654403142106</v>
+        <v>0.027062348790833451</v>
       </c>
       <c r="EA4">
-        <v>0.025315654403142113</v>
+        <v>0.027062348790833454</v>
       </c>
       <c r="EB4">
-        <v>0.02531565440314211</v>
+        <v>0.027062348790833451</v>
       </c>
       <c r="EC4">
-        <v>0.023697625188467013</v>
+        <v>0.02533268104201709</v>
       </c>
       <c r="ED4">
-        <v>0.02369762518846702</v>
+        <v>0.025332681042017097</v>
       </c>
       <c r="EE4">
-        <v>0.023697625188467013</v>
+        <v>0.02533268104201709</v>
       </c>
       <c r="EF4">
-        <v>0.023697625188467013</v>
+        <v>0.02533268104201709</v>
       </c>
       <c r="EG4">
-        <v>0.023697625188467013</v>
+        <v>0.02533268104201709</v>
       </c>
       <c r="EH4">
-        <v>0.025141798324455844</v>
+        <v>0.026876497231719487</v>
       </c>
       <c r="EI4">
-        <v>0.025141798324455848</v>
+        <v>0.026876497231719487</v>
       </c>
       <c r="EJ4">
-        <v>0.025141798324455848</v>
+        <v>0.026876497231719487</v>
       </c>
       <c r="EK4">
-        <v>0.025141798324455844</v>
+        <v>0.026876497231719487</v>
       </c>
       <c r="EL4">
-        <v>0.025141798324455848</v>
+        <v>0.02687649723171949</v>
       </c>
       <c r="EM4">
-        <v>0.025141798324455848</v>
+        <v>0.026876497231719487</v>
       </c>
       <c r="EN4">
-        <v>0.025141798324455848</v>
+        <v>0.02687649723171949</v>
       </c>
       <c r="EO4">
-        <v>0.025141798324455848</v>
+        <v>0.02687649723171949</v>
       </c>
       <c r="EP4">
-        <v>0.025141798324455848</v>
+        <v>0.02687649723171949</v>
       </c>
       <c r="EQ4">
-        <v>0.025141798324455851</v>
+        <v>0.026876497231719493</v>
       </c>
       <c r="ER4">
-        <v>0.025141798324455851</v>
+        <v>0.026876497231719493</v>
       </c>
       <c r="ES4">
-        <v>0.025141798324455851</v>
+        <v>0.026876497231719493</v>
       </c>
       <c r="ET4">
-        <v>0.025141798324455848</v>
+        <v>0.02687649723171949</v>
       </c>
       <c r="EU4">
-        <v>0.025141798324455851</v>
+        <v>0.026876497231719493</v>
       </c>
       <c r="EV4">
-        <v>0.025141798324455851</v>
+        <v>0.026876497231719493</v>
       </c>
       <c r="EW4">
-        <v>0.025141798324455851</v>
+        <v>0.026876497231719493</v>
       </c>
       <c r="EX4">
-        <v>0.025141798324455851</v>
+        <v>0.026876497231719493</v>
       </c>
       <c r="EY4">
-        <v>0.025141798324455851</v>
+        <v>0.026876497231719493</v>
       </c>
       <c r="EZ4">
-        <v>0.025141798324455851</v>
+        <v>0.026876497231719493</v>
       </c>
       <c r="FA4">
-        <v>0.025141798324455851</v>
+        <v>0.026876497231719493</v>
       </c>
       <c r="FB4">
-        <v>0.025141798324455854</v>
+        <v>0.026876497231719497</v>
       </c>
       <c r="FC4">
-        <v>0.025141798324455854</v>
+        <v>0.026876497231719497</v>
       </c>
       <c r="FD4">
-        <v>0.025141798324455854</v>
+        <v>0.026876497231719497</v>
       </c>
       <c r="FE4">
-        <v>0.025141798324455851</v>
+        <v>0.026876497231719493</v>
       </c>
       <c r="FF4">
-        <v>0.025141798324455858</v>
+        <v>0.0268764972317195</v>
       </c>
       <c r="FG4">
-        <v>0.025141798324455858</v>
+        <v>0.0268764972317195</v>
       </c>
       <c r="FH4">
-        <v>0.025141798324455865</v>
+        <v>0.026876497231719507</v>
       </c>
       <c r="FI4">
-        <v>0.025141798324455858</v>
+        <v>0.0268764972317195</v>
       </c>
       <c r="FJ4">
-        <v>0.025141798324455865</v>
+        <v>0.026876497231719507</v>
       </c>
       <c r="FK4">
-        <v>0.025141798324455858</v>
+        <v>0.0268764972317195</v>
       </c>
       <c r="FL4">
-        <v>0.025141798324455865</v>
+        <v>0.026876497231719507</v>
       </c>
       <c r="FM4">
-        <v>0.025141798324455865</v>
+        <v>0.026876497231719507</v>
       </c>
       <c r="FN4">
-        <v>0.025141798324455865</v>
+        <v>0.026876497231719507</v>
       </c>
       <c r="FO4">
-        <v>0.025141798324455865</v>
+        <v>0.026876497231719511</v>
       </c>
       <c r="FP4">
-        <v>0.025141798324455865</v>
+        <v>0.026876497231719507</v>
       </c>
       <c r="FQ4">
-        <v>0.025141798324455868</v>
+        <v>0.026876497231719511</v>
       </c>
       <c r="FR4">
-        <v>0.025141798324455865</v>
+        <v>0.026876497231719507</v>
       </c>
       <c r="FS4">
-        <v>0.025141798324455865</v>
+        <v>0.026876497231719507</v>
       </c>
       <c r="FT4">
-        <v>0.025141798324455865</v>
+        <v>0.026876497231719511</v>
       </c>
       <c r="FU4">
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.020411504756270588</v>
+        <v>0.021819829432945265</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -3873,535 +3873,535 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>1.9020965314807101</v>
+        <v>1.9436143125341365</v>
       </c>
       <c r="C3">
-        <v>-0.75608146626773898</v>
+        <v>-0.77345232892810889</v>
       </c>
       <c r="D3">
-        <v>-0.79356916042300674</v>
+        <v>-0.78283062625795508</v>
       </c>
       <c r="E3">
-        <v>-0.7974674004268848</v>
+        <v>-0.79579899062959603</v>
       </c>
       <c r="F3">
-        <v>-0.7800216951219433</v>
+        <v>-0.8108460940931207</v>
       </c>
       <c r="G3">
-        <v>-0.80858201399180285</v>
+        <v>-0.8193347873077641</v>
       </c>
       <c r="H3">
-        <v>-0.79492527241376865</v>
+        <v>-0.82158280402940154</v>
       </c>
       <c r="I3">
-        <v>-0.0044024721995172007</v>
+        <v>0.010246101912629594</v>
       </c>
       <c r="J3">
-        <v>-0.0083183546767364135</v>
+        <v>0.0004998564893009998</v>
       </c>
       <c r="K3">
-        <v>0.0078264226834943648</v>
+        <v>0.010777526324969217</v>
       </c>
       <c r="L3">
-        <v>0.0092587687725677031</v>
+        <v>-0.0033076605853837506</v>
       </c>
       <c r="M3">
-        <v>-0.01033318977024208</v>
+        <v>-0.011868220398260859</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.1265577780384306</v>
+        <v>1.1932992797602728</v>
       </c>
       <c r="P3">
-        <v>1.234489513098276</v>
+        <v>1.3010135408722558</v>
       </c>
       <c r="Q3">
-        <v>-0.32148657523297008</v>
+        <v>-0.28221760149445446</v>
       </c>
       <c r="R3">
-        <v>-0.36111087498282368</v>
+        <v>-0.24396293989485046</v>
       </c>
       <c r="S3">
-        <v>-0.2963640244271995</v>
+        <v>-0.22429278233250274</v>
       </c>
       <c r="T3">
-        <v>-0.30012368636871795</v>
+        <v>-0.2132961762331369</v>
       </c>
       <c r="U3">
-        <v>-0.21809071769146204</v>
+        <v>-0.15951970880935717</v>
       </c>
       <c r="V3">
-        <v>-0.25604585455193274</v>
+        <v>-0.1607136339861206</v>
       </c>
       <c r="W3">
-        <v>-0.25860738700440133</v>
+        <v>-0.14311308531765557</v>
       </c>
       <c r="X3">
-        <v>-0.22477814425397144</v>
+        <v>-0.16167507472124884</v>
       </c>
       <c r="Y3">
-        <v>-0.2241675585173856</v>
+        <v>-0.14722485978126576</v>
       </c>
       <c r="Z3">
-        <v>-0.15519306210485204</v>
+        <v>-0.10060783405868501</v>
       </c>
       <c r="AA3">
-        <v>-0.18508589108904816</v>
+        <v>-0.089080921995181611</v>
       </c>
       <c r="AB3">
-        <v>-0.19690184477846853</v>
+        <v>-0.097866326904255604</v>
       </c>
       <c r="AC3">
-        <v>-0.18653204026209069</v>
+        <v>-0.118069032197874</v>
       </c>
       <c r="AD3">
-        <v>-0.11957179036425827</v>
+        <v>-0.055580747075529555</v>
       </c>
       <c r="AE3">
-        <v>-0.18666763113424037</v>
+        <v>-0.097821325242208171</v>
       </c>
       <c r="AF3">
-        <v>-0.16238013025745754</v>
+        <v>-0.093528433083402612</v>
       </c>
       <c r="AG3">
-        <v>-0.13723057521838686</v>
+        <v>-0.026902124682559151</v>
       </c>
       <c r="AH3">
-        <v>-0.10031549036368567</v>
+        <v>-0.078450033853783963</v>
       </c>
       <c r="AI3">
-        <v>-0.11253665726148411</v>
+        <v>-0.043846580473062398</v>
       </c>
       <c r="AJ3">
-        <v>-0.14318432909643031</v>
+        <v>-0.048260947014989196</v>
       </c>
       <c r="AK3">
-        <v>-0.12093707369112495</v>
+        <v>-0.028211390752969748</v>
       </c>
       <c r="AL3">
-        <v>-0.14306285911696207</v>
+        <v>-0.065479326016541717</v>
       </c>
       <c r="AM3">
-        <v>-0.12548591997253017</v>
+        <v>-0.042281536500815793</v>
       </c>
       <c r="AN3">
-        <v>-0.10706904012546778</v>
+        <v>-0.017999341568349071</v>
       </c>
       <c r="AO3">
-        <v>-0.094297200315882582</v>
+        <v>-0.01599296040704818</v>
       </c>
       <c r="AP3">
-        <v>-0.13075264605808118</v>
+        <v>-0.026124061560835958</v>
       </c>
       <c r="AQ3">
-        <v>-0.080044483913827</v>
+        <v>-0.0088582379074566737</v>
       </c>
       <c r="AR3">
-        <v>-0.067638854640391446</v>
+        <v>-0.022164878060113146</v>
       </c>
       <c r="AS3">
-        <v>-0.12668394681846495</v>
+        <v>0.016014437820184045</v>
       </c>
       <c r="AT3">
-        <v>-0.066711912724982517</v>
+        <v>0.0016936319467665728</v>
       </c>
       <c r="AU3">
-        <v>-0.072844668947749158</v>
+        <v>-0.0064488078372808228</v>
       </c>
       <c r="AV3">
-        <v>-0.1028043999172137</v>
+        <v>0.016892283609087413</v>
       </c>
       <c r="AW3">
-        <v>-0.074305589986813983</v>
+        <v>-0.0051012353956639426</v>
       </c>
       <c r="AX3">
-        <v>-0.086946694883454204</v>
+        <v>-0.027276356111880513</v>
       </c>
       <c r="AY3">
-        <v>-0.02107902162170866</v>
+        <v>-0.029051180981266043</v>
       </c>
       <c r="AZ3">
-        <v>-0.063696241011944044</v>
+        <v>0.0052019626558282494</v>
       </c>
       <c r="BA3">
-        <v>-0.093888785546927658</v>
+        <v>0.0068169086575313531</v>
       </c>
       <c r="BB3">
-        <v>-0.060137840659840687</v>
+        <v>0.02748578220006535</v>
       </c>
       <c r="BC3">
-        <v>-0.060261473277659974</v>
+        <v>0.034436015631849337</v>
       </c>
       <c r="BD3">
-        <v>-0.055092699362745266</v>
+        <v>-0.012230243742490543</v>
       </c>
       <c r="BE3">
-        <v>-0.097066137196328464</v>
+        <v>-0.0071588828295079954</v>
       </c>
       <c r="BF3">
-        <v>-0.072282254802308279</v>
+        <v>-0.0059373130503915144</v>
       </c>
       <c r="BG3">
-        <v>-0.060915190878528737</v>
+        <v>0.00013909446130286592</v>
       </c>
       <c r="BH3">
-        <v>-0.062263362129995829</v>
+        <v>-0.0017001907195116257</v>
       </c>
       <c r="BI3">
-        <v>-0.093464032179296247</v>
+        <v>0.025890124554454906</v>
       </c>
       <c r="BJ3">
-        <v>-0.08330437538867505</v>
+        <v>0.0035899867551363067</v>
       </c>
       <c r="BK3">
-        <v>-0.098777935201945735</v>
+        <v>-0.045383382046439602</v>
       </c>
       <c r="BL3">
-        <v>-0.04448937491793304</v>
+        <v>-0.012140070039348376</v>
       </c>
       <c r="BM3">
-        <v>-0.069320264504156681</v>
+        <v>-0.026676288388056756</v>
       </c>
       <c r="BN3">
-        <v>-0.08584743053675381</v>
+        <v>0.01604777860242582</v>
       </c>
       <c r="BO3">
-        <v>-0.087999819063896714</v>
+        <v>0.020417628736319793</v>
       </c>
       <c r="BP3">
-        <v>-0.095466367843152058</v>
+        <v>0.035969389060335782</v>
       </c>
       <c r="BQ3">
-        <v>-0.046803179852433367</v>
+        <v>0.0010556133743396025</v>
       </c>
       <c r="BR3">
-        <v>-0.076010971790398701</v>
+        <v>0.0079617314949379549</v>
       </c>
       <c r="BS3">
-        <v>-0.071072933428782112</v>
+        <v>0.0043705247668721142</v>
       </c>
       <c r="BT3">
-        <v>-0.10099153264408454</v>
+        <v>-0.0059985777923230654</v>
       </c>
       <c r="BU3">
-        <v>-0.073581299485781668</v>
+        <v>-0.016242778455508831</v>
       </c>
       <c r="BV3">
-        <v>-0.07642892075614259</v>
+        <v>0.036766918232144771</v>
       </c>
       <c r="BW3">
-        <v>-0.087634913143887425</v>
+        <v>0.03336227476054239</v>
       </c>
       <c r="BX3">
-        <v>-0.094749516041226972</v>
+        <v>0.013422309856063037</v>
       </c>
       <c r="BY3">
-        <v>-0.06277639396681528</v>
+        <v>-0.0075808618020468312</v>
       </c>
       <c r="BZ3">
-        <v>-0.07469101745717896</v>
+        <v>-0.0096291454025110874</v>
       </c>
       <c r="CA3">
-        <v>-0.048052207737749895</v>
+        <v>0.022925439707451381</v>
       </c>
       <c r="CB3">
-        <v>-0.038911735730369712</v>
+        <v>0.038804523178944186</v>
       </c>
       <c r="CC3">
-        <v>-0.0082798630136274847</v>
+        <v>0.028215722766993339</v>
       </c>
       <c r="CD3">
-        <v>-0.087304784466993135</v>
+        <v>0.026368113899921389</v>
       </c>
       <c r="CE3">
-        <v>-0.057168298515264136</v>
+        <v>0.050653844187171435</v>
       </c>
       <c r="CF3">
-        <v>-0.073243161780600766</v>
+        <v>-0.012279110358152406</v>
       </c>
       <c r="CG3">
-        <v>-0.053098522919760034</v>
+        <v>-0.0078015605858064866</v>
       </c>
       <c r="CH3">
-        <v>-0.067762188729751746</v>
+        <v>-0.024411016208141272</v>
       </c>
       <c r="CI3">
-        <v>-0.077869045188657782</v>
+        <v>0.019404014148248695</v>
       </c>
       <c r="CJ3">
-        <v>-0.096081599548452107</v>
+        <v>-0.028189985793453838</v>
       </c>
       <c r="CK3">
-        <v>-0.077050596044228717</v>
+        <v>0.0030070848367692703</v>
       </c>
       <c r="CL3">
-        <v>-0.065887376318169669</v>
+        <v>-0.020583017879627866</v>
       </c>
       <c r="CM3">
-        <v>-0.1063077804124313</v>
+        <v>0.0042028859861409926</v>
       </c>
       <c r="CN3">
-        <v>-0.077922332645007933</v>
+        <v>-0.011057446480810723</v>
       </c>
       <c r="CO3">
-        <v>-0.097910912079766391</v>
+        <v>-0.0091606775190543159</v>
       </c>
       <c r="CP3">
-        <v>-0.061337472429975136</v>
+        <v>0.0024752656824386849</v>
       </c>
       <c r="CQ3">
-        <v>-0.12185640765633561</v>
+        <v>-0.0057715483670716383</v>
       </c>
       <c r="CR3">
-        <v>-0.097160375336336452</v>
+        <v>-0.02000072061763055</v>
       </c>
       <c r="CS3">
-        <v>-0.10614316357074753</v>
+        <v>-0.046952194532037542</v>
       </c>
       <c r="CT3">
-        <v>-0.047963033777260938</v>
+        <v>-0.040551148165294669</v>
       </c>
       <c r="CU3">
-        <v>-0.050787135870474794</v>
+        <v>-0.02869891654265434</v>
       </c>
       <c r="CV3">
-        <v>-0.048900236801188525</v>
+        <v>0.027204452044738051</v>
       </c>
       <c r="CW3">
-        <v>-0.073343783748062996</v>
+        <v>0.016702193883684935</v>
       </c>
       <c r="CX3">
-        <v>-0.065416552203109227</v>
+        <v>-0.026640130791597549</v>
       </c>
       <c r="CY3">
-        <v>-0.057384851363255419</v>
+        <v>-0.0059595610938019648</v>
       </c>
       <c r="CZ3">
-        <v>-0.10839896397070976</v>
+        <v>-0.018466013748686661</v>
       </c>
       <c r="DA3">
-        <v>-0.090745521998788214</v>
+        <v>-0.026169218186342564</v>
       </c>
       <c r="DB3">
-        <v>-0.11016181888076569</v>
+        <v>-0.084228581328151697</v>
       </c>
       <c r="DC3">
-        <v>-0.06163729165307865</v>
+        <v>-0.049433702980901023</v>
       </c>
       <c r="DD3">
-        <v>-0.076200856574756948</v>
+        <v>-0.0050563002508920941</v>
       </c>
       <c r="DE3">
-        <v>-0.088593702745182384</v>
+        <v>0.0062683328845191408</v>
       </c>
       <c r="DF3">
-        <v>-0.055391258053217179</v>
+        <v>-0.018315118225792317</v>
       </c>
       <c r="DG3">
-        <v>-0.095636481371490251</v>
+        <v>0.00048173503320544264</v>
       </c>
       <c r="DH3">
-        <v>-0.075860175660482879</v>
+        <v>0.010088736031524024</v>
       </c>
       <c r="DI3">
-        <v>-0.11778040681308331</v>
+        <v>-0.015777438514329417</v>
       </c>
       <c r="DJ3">
-        <v>-0.048563911953006397</v>
+        <v>-0.0071870283757282435</v>
       </c>
       <c r="DK3">
-        <v>-0.086528988482388908</v>
+        <v>0.031087979116520739</v>
       </c>
       <c r="DL3">
-        <v>-0.034855383433927856</v>
+        <v>0.00369488775398547</v>
       </c>
       <c r="DM3">
         <v>0</v>
       </c>
       <c r="DN3">
-        <v>-0.051060258367514003</v>
+        <v>0.023982797556141827</v>
       </c>
       <c r="DO3">
-        <v>-0.057671885581617323</v>
+        <v>-0.01782939628548267</v>
       </c>
       <c r="DP3">
-        <v>-0.038803439414947342</v>
+        <v>-0.01951668647839214</v>
       </c>
       <c r="DQ3">
-        <v>-0.057813986785636061</v>
+        <v>0.032722446288756056</v>
       </c>
       <c r="DR3">
-        <v>-0.057805444609584276</v>
+        <v>0.0061489023378950222</v>
       </c>
       <c r="DS3">
-        <v>-0.061680338401698412</v>
+        <v>-0.039636676693007279</v>
       </c>
       <c r="DT3">
-        <v>-0.046458913941853128</v>
+        <v>-0.0086221941768382382</v>
       </c>
       <c r="DU3">
-        <v>-0.067405274280620014</v>
+        <v>-0.016046692067683773</v>
       </c>
       <c r="DV3">
-        <v>-0.034972484971569164</v>
+        <v>0.010859970968375618</v>
       </c>
       <c r="DW3">
-        <v>-0.087545838890216762</v>
+        <v>-0.013065145893913034</v>
       </c>
       <c r="DX3">
-        <v>-0.049704209670083911</v>
+        <v>0.042246598884040677</v>
       </c>
       <c r="DY3">
-        <v>-0.11886759786817019</v>
+        <v>0.010745246996992808</v>
       </c>
       <c r="DZ3">
-        <v>-0.087116524732014672</v>
+        <v>-0.007009697695014209</v>
       </c>
       <c r="EA3">
-        <v>-0.076981194939368947</v>
+        <v>-0.019660210825139832</v>
       </c>
       <c r="EB3">
-        <v>-0.074028943543973338</v>
+        <v>0.013929194690801909</v>
       </c>
       <c r="EC3">
-        <v>-0.055268075889454142</v>
+        <v>0.0062582775407984638</v>
       </c>
       <c r="ED3">
-        <v>-0.043117090477588216</v>
+        <v>0.0068787709358551913</v>
       </c>
       <c r="EE3">
-        <v>-0.10342808964646225</v>
+        <v>-0.018551195330287241</v>
       </c>
       <c r="EF3">
-        <v>-0.065803177824105816</v>
+        <v>-0.0082747677093600227</v>
       </c>
       <c r="EG3">
-        <v>-0.052703297929368911</v>
+        <v>-0.01400069273290311</v>
       </c>
       <c r="EH3">
-        <v>-0.11281262169143751</v>
+        <v>-0.042213409956446374</v>
       </c>
       <c r="EI3">
-        <v>-0.084656844717150154</v>
+        <v>-0.012591311796564643</v>
       </c>
       <c r="EJ3">
-        <v>-0.06023359447636336</v>
+        <v>-0.038268742816082335</v>
       </c>
       <c r="EK3">
-        <v>-0.093673616542280153</v>
+        <v>-0.016873618110877949</v>
       </c>
       <c r="EL3">
-        <v>-0.058139275353339778</v>
+        <v>-0.021996563413345421</v>
       </c>
       <c r="EM3">
-        <v>-0.12939261506016822</v>
+        <v>-0.061550501082334667</v>
       </c>
       <c r="EN3">
-        <v>-0.10301115024135929</v>
+        <v>-0.0046442246326470552</v>
       </c>
       <c r="EO3">
-        <v>-0.065156734957734649</v>
+        <v>-0.03630220460821626</v>
       </c>
       <c r="EP3">
-        <v>-0.1035465098855779</v>
+        <v>0.0036149605072203646</v>
       </c>
       <c r="EQ3">
-        <v>-0.085993861623636592</v>
+        <v>-0.01720363594912357</v>
       </c>
       <c r="ER3">
-        <v>-0.10336138524913802</v>
+        <v>-0.026041462177117718</v>
       </c>
       <c r="ES3">
-        <v>-0.091835196376119546</v>
+        <v>-0.035968768294486773</v>
       </c>
       <c r="ET3">
-        <v>-0.097921043219622889</v>
+        <v>-0.032345182029197977</v>
       </c>
       <c r="EU3">
-        <v>-0.11224172321524777</v>
+        <v>-0.00080925106983959698</v>
       </c>
       <c r="EV3">
-        <v>-0.1114206300061947</v>
+        <v>-0.038741307795198764</v>
       </c>
       <c r="EW3">
-        <v>-0.081898133285445596</v>
+        <v>-0.023097655182991086</v>
       </c>
       <c r="EX3">
-        <v>-0.096080248267376239</v>
+        <v>-0.038220175049901446</v>
       </c>
       <c r="EY3">
-        <v>-0.07549751985051506</v>
+        <v>-0.018475146166142712</v>
       </c>
       <c r="EZ3">
-        <v>-0.11898400848005439</v>
+        <v>-0.04964380572079282</v>
       </c>
       <c r="FA3">
-        <v>-0.096608311749976805</v>
+        <v>-0.020160777666238604</v>
       </c>
       <c r="FB3">
-        <v>-0.088003442013284389</v>
+        <v>-0.043809967721738598</v>
       </c>
       <c r="FC3">
-        <v>-0.043860587067669939</v>
+        <v>-0.037009722565574631</v>
       </c>
       <c r="FD3">
-        <v>-0.088304052489249496</v>
+        <v>-0.015148063786551088</v>
       </c>
       <c r="FE3">
-        <v>-0.11207745273453389</v>
+        <v>-0.034339045385243135</v>
       </c>
       <c r="FF3">
-        <v>-0.068839046577914689</v>
+        <v>-0.036304879129824282</v>
       </c>
       <c r="FG3">
-        <v>-0.10769123230525257</v>
+        <v>-0.096192924692925744</v>
       </c>
       <c r="FH3">
-        <v>-0.10652162363123474</v>
+        <v>-0.0572400363736561</v>
       </c>
       <c r="FI3">
-        <v>-0.16357637207633799</v>
+        <v>-0.017469779571393351</v>
       </c>
       <c r="FJ3">
-        <v>-0.1159262217320348</v>
+        <v>-0.016572125070604481</v>
       </c>
       <c r="FK3">
-        <v>-0.1319167813835106</v>
+        <v>-0.066784197554352429</v>
       </c>
       <c r="FL3">
-        <v>-0.081389929776804926</v>
+        <v>-0.031489489209583534</v>
       </c>
       <c r="FM3">
-        <v>-0.17432175465879968</v>
+        <v>-0.042719021563128998</v>
       </c>
       <c r="FN3">
-        <v>-0.092004553621507432</v>
+        <v>-0.08254177040054772</v>
       </c>
       <c r="FO3">
-        <v>-0.048077292508463307</v>
+        <v>-0.043518355938252748</v>
       </c>
       <c r="FP3">
-        <v>-0.10153072353785698</v>
+        <v>-0.064602695428627302</v>
       </c>
       <c r="FQ3">
-        <v>-0.1592446583384759</v>
+        <v>-0.049739474513596088</v>
       </c>
       <c r="FR3">
-        <v>-0.12383707981595769</v>
+        <v>-0.044250893380960978</v>
       </c>
       <c r="FS3">
-        <v>-0.1109009414136497</v>
+        <v>-0.041204943142387686</v>
       </c>
       <c r="FT3">
-        <v>-0.1128893921100399</v>
+        <v>-0.054570332071952117</v>
       </c>
       <c r="FU3">
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.4134022465006977</v>
+        <v>-5.4713310623560441</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -4415,535 +4415,535 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.025262575319147874</v>
+        <v>0.027825956316740032</v>
       </c>
       <c r="C4">
-        <v>0.012625973598394419</v>
+        <v>0.013907124882036243</v>
       </c>
       <c r="D4">
-        <v>0.014503959747282455</v>
+        <v>0.015975669354728744</v>
       </c>
       <c r="E4">
-        <v>0.014121658872838587</v>
+        <v>0.015554576600021998</v>
       </c>
       <c r="F4">
-        <v>0.014085159331723435</v>
+        <v>0.015514373468558934</v>
       </c>
       <c r="G4">
-        <v>0.016250660351909366</v>
+        <v>0.01789960680404859</v>
       </c>
       <c r="H4">
-        <v>0.019124539973487429</v>
+        <v>0.02106509756654374</v>
       </c>
       <c r="I4">
-        <v>0.017770847249927793</v>
+        <v>0.019574046313209768</v>
       </c>
       <c r="J4">
-        <v>0.014598521506860833</v>
+        <v>0.016079826249187069</v>
       </c>
       <c r="K4">
-        <v>0.01205594064459135</v>
+        <v>0.013279250966917065</v>
       </c>
       <c r="L4">
-        <v>0.012084236064620762</v>
+        <v>0.013310417509193751</v>
       </c>
       <c r="M4">
-        <v>0.012281680401227757</v>
+        <v>0.013527896424783555</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.028317696634000755</v>
+        <v>0.03119107927730386</v>
       </c>
       <c r="P4">
-        <v>0.028317696634000755</v>
+        <v>0.03119107927730386</v>
       </c>
       <c r="Q4">
-        <v>0.028317696634000755</v>
+        <v>0.03119107927730386</v>
       </c>
       <c r="R4">
-        <v>0.028317696634000758</v>
+        <v>0.031191079277303864</v>
       </c>
       <c r="S4">
-        <v>0.028317696634000751</v>
+        <v>0.031191079277303857</v>
       </c>
       <c r="T4">
-        <v>0.028317696634000755</v>
+        <v>0.03119107927730386</v>
       </c>
       <c r="U4">
-        <v>0.028317696634000758</v>
+        <v>0.031191079277303864</v>
       </c>
       <c r="V4">
-        <v>0.028317696634000758</v>
+        <v>0.031191079277303864</v>
       </c>
       <c r="W4">
-        <v>0.028317696634000761</v>
+        <v>0.031191079277303867</v>
       </c>
       <c r="X4">
-        <v>0.028317696634000758</v>
+        <v>0.031191079277303864</v>
       </c>
       <c r="Y4">
-        <v>0.028317696634000765</v>
+        <v>0.031191079277303874</v>
       </c>
       <c r="Z4">
-        <v>0.028317696634000758</v>
+        <v>0.031191079277303864</v>
       </c>
       <c r="AA4">
-        <v>0.028317696634000765</v>
+        <v>0.031191079277303874</v>
       </c>
       <c r="AB4">
-        <v>0.028317696634000758</v>
+        <v>0.031191079277303864</v>
       </c>
       <c r="AC4">
-        <v>0.028317696634000768</v>
+        <v>0.031191079277303878</v>
       </c>
       <c r="AD4">
-        <v>0.028317696634000775</v>
+        <v>0.031191079277303881</v>
       </c>
       <c r="AE4">
-        <v>0.028317696634000775</v>
+        <v>0.031191079277303881</v>
       </c>
       <c r="AF4">
-        <v>0.028317696634000782</v>
+        <v>0.031191079277303892</v>
       </c>
       <c r="AG4">
-        <v>0.028317696634000775</v>
+        <v>0.031191079277303881</v>
       </c>
       <c r="AH4">
-        <v>0.028317696634000786</v>
+        <v>0.031191079277303895</v>
       </c>
       <c r="AI4">
-        <v>0.028317696634000782</v>
+        <v>0.031191079277303892</v>
       </c>
       <c r="AJ4">
-        <v>0.028317696634000796</v>
+        <v>0.031191079277303906</v>
       </c>
       <c r="AK4">
-        <v>0.028317696634000796</v>
+        <v>0.031191079277303906</v>
       </c>
       <c r="AL4">
-        <v>0.028317696634000796</v>
+        <v>0.031191079277303906</v>
       </c>
       <c r="AM4">
-        <v>0.028317696634000796</v>
+        <v>0.031191079277303906</v>
       </c>
       <c r="AN4">
-        <v>0.028317696634000796</v>
+        <v>0.031191079277303906</v>
       </c>
       <c r="AO4">
-        <v>0.028317696634000796</v>
+        <v>0.031191079277303906</v>
       </c>
       <c r="AP4">
-        <v>0.028317696634000796</v>
+        <v>0.031191079277303909</v>
       </c>
       <c r="AQ4">
-        <v>0.0283176966340008</v>
+        <v>0.031191079277303909</v>
       </c>
       <c r="AR4">
-        <v>0.0283176966340008</v>
+        <v>0.031191079277303912</v>
       </c>
       <c r="AS4">
-        <v>0.028317696634000796</v>
+        <v>0.031191079277303906</v>
       </c>
       <c r="AT4">
-        <v>0.0283176966340008</v>
+        <v>0.031191079277303912</v>
       </c>
       <c r="AU4">
-        <v>0.0283176966340008</v>
+        <v>0.031191079277303909</v>
       </c>
       <c r="AV4">
-        <v>0.0283176966340008</v>
+        <v>0.031191079277303912</v>
       </c>
       <c r="AW4">
-        <v>0.0283176966340008</v>
+        <v>0.031191079277303912</v>
       </c>
       <c r="AX4">
-        <v>0.0283176966340008</v>
+        <v>0.031191079277303912</v>
       </c>
       <c r="AY4">
-        <v>0.0283176966340008</v>
+        <v>0.031191079277303912</v>
       </c>
       <c r="AZ4">
-        <v>0.0283176966340008</v>
+        <v>0.031191079277303912</v>
       </c>
       <c r="BA4">
-        <v>0.0283176966340008</v>
+        <v>0.031191079277303912</v>
       </c>
       <c r="BB4">
-        <v>0.0283176966340008</v>
+        <v>0.031191079277303912</v>
       </c>
       <c r="BC4">
-        <v>0.0283176966340008</v>
+        <v>0.031191079277303912</v>
       </c>
       <c r="BD4">
-        <v>0.028317696634000803</v>
+        <v>0.031191079277303916</v>
       </c>
       <c r="BE4">
-        <v>0.028317696634000807</v>
+        <v>0.031191079277303919</v>
       </c>
       <c r="BF4">
-        <v>0.028317696634000813</v>
+        <v>0.031191079277303923</v>
       </c>
       <c r="BG4">
-        <v>0.028317696634000813</v>
+        <v>0.031191079277303926</v>
       </c>
       <c r="BH4">
-        <v>0.028317696634000813</v>
+        <v>0.031191079277303923</v>
       </c>
       <c r="BI4">
-        <v>0.028317696634000813</v>
+        <v>0.031191079277303923</v>
       </c>
       <c r="BJ4">
-        <v>0.028317696634000813</v>
+        <v>0.031191079277303926</v>
       </c>
       <c r="BK4">
-        <v>0.028317696634000813</v>
+        <v>0.031191079277303923</v>
       </c>
       <c r="BL4">
-        <v>0.02831769663400082</v>
+        <v>0.031191079277303933</v>
       </c>
       <c r="BM4">
-        <v>0.028317696634000813</v>
+        <v>0.031191079277303923</v>
       </c>
       <c r="BN4">
-        <v>0.028317696634000817</v>
+        <v>0.031191079277303926</v>
       </c>
       <c r="BO4">
-        <v>0.028317696634000817</v>
+        <v>0.031191079277303926</v>
       </c>
       <c r="BP4">
-        <v>0.028317696634000817</v>
+        <v>0.031191079277303926</v>
       </c>
       <c r="BQ4">
-        <v>0.02831769663400082</v>
+        <v>0.031191079277303933</v>
       </c>
       <c r="BR4">
-        <v>0.028317696634000817</v>
+        <v>0.031191079277303926</v>
       </c>
       <c r="BS4">
-        <v>0.028317696634000817</v>
+        <v>0.031191079277303926</v>
       </c>
       <c r="BT4">
-        <v>0.02831769663400082</v>
+        <v>0.031191079277303933</v>
       </c>
       <c r="BU4">
-        <v>0.028317696634000824</v>
+        <v>0.031191079277303937</v>
       </c>
       <c r="BV4">
-        <v>0.02831769663400082</v>
+        <v>0.031191079277303933</v>
       </c>
       <c r="BW4">
-        <v>0.02831769663400082</v>
+        <v>0.031191079277303933</v>
       </c>
       <c r="BX4">
-        <v>0.028317696634000817</v>
+        <v>0.031191079277303926</v>
       </c>
       <c r="BY4">
-        <v>0.027743151774535079</v>
+        <v>0.030558235635690576</v>
       </c>
       <c r="BZ4">
-        <v>0.027743151774535079</v>
+        <v>0.030558235635690576</v>
       </c>
       <c r="CA4">
-        <v>0.027743151774535083</v>
+        <v>0.03055823563569058</v>
       </c>
       <c r="CB4">
-        <v>0.027743151774535083</v>
+        <v>0.03055823563569058</v>
       </c>
       <c r="CC4">
-        <v>0.027743151774535079</v>
+        <v>0.030558235635690576</v>
       </c>
       <c r="CD4">
-        <v>0.028376529621694044</v>
+        <v>0.03125588201910097</v>
       </c>
       <c r="CE4">
-        <v>0.028376529621694044</v>
+        <v>0.03125588201910097</v>
       </c>
       <c r="CF4">
-        <v>0.028376529621694048</v>
+        <v>0.031255882019100976</v>
       </c>
       <c r="CG4">
-        <v>0.028376529621694041</v>
+        <v>0.03125588201910097</v>
       </c>
       <c r="CH4">
-        <v>0.028376529621694044</v>
+        <v>0.03125588201910097</v>
       </c>
       <c r="CI4">
-        <v>0.02837060084728895</v>
+        <v>0.031249351654895268</v>
       </c>
       <c r="CJ4">
-        <v>0.02837060084728895</v>
+        <v>0.031249351654895268</v>
       </c>
       <c r="CK4">
-        <v>0.02837060084728895</v>
+        <v>0.031249351654895268</v>
       </c>
       <c r="CL4">
-        <v>0.02837060084728895</v>
+        <v>0.031249351654895268</v>
       </c>
       <c r="CM4">
-        <v>0.028370600847288947</v>
+        <v>0.031249351654895268</v>
       </c>
       <c r="CN4">
-        <v>0.028067292420108123</v>
+        <v>0.03091526667192698</v>
       </c>
       <c r="CO4">
-        <v>0.028067292420108126</v>
+        <v>0.03091526667192698</v>
       </c>
       <c r="CP4">
-        <v>0.028067292420108126</v>
+        <v>0.03091526667192698</v>
       </c>
       <c r="CQ4">
-        <v>0.028223884072546477</v>
+        <v>0.03108774760173199</v>
       </c>
       <c r="CR4">
-        <v>0.028223884072546477</v>
+        <v>0.031087747601731986</v>
       </c>
       <c r="CS4">
-        <v>0.024397781635391632</v>
+        <v>0.026873412446481691</v>
       </c>
       <c r="CT4">
-        <v>0.028793428171237555</v>
+        <v>0.031715083057853234</v>
       </c>
       <c r="CU4">
-        <v>0.028793428171237562</v>
+        <v>0.031715083057853241</v>
       </c>
       <c r="CV4">
-        <v>0.028267329871882116</v>
+        <v>0.031135601824794627</v>
       </c>
       <c r="CW4">
-        <v>0.028267329871882123</v>
+        <v>0.031135601824794638</v>
       </c>
       <c r="CX4">
-        <v>0.028709308794613083</v>
+        <v>0.031622428129771937</v>
       </c>
       <c r="CY4">
-        <v>0.028889135803069468</v>
+        <v>0.031820502095654776</v>
       </c>
       <c r="CZ4">
-        <v>0.028889135803069468</v>
+        <v>0.031820502095654776</v>
       </c>
       <c r="DA4">
-        <v>0.028889135803069468</v>
+        <v>0.031820502095654776</v>
       </c>
       <c r="DB4">
-        <v>0.028889135803069472</v>
+        <v>0.031820502095654776</v>
       </c>
       <c r="DC4">
-        <v>0.028564590131775185</v>
+        <v>0.03146302493593793</v>
       </c>
       <c r="DD4">
-        <v>0.028829106344735071</v>
+        <v>0.031754381477933573</v>
       </c>
       <c r="DE4">
-        <v>0.028829106344735067</v>
+        <v>0.031754381477933566</v>
       </c>
       <c r="DF4">
-        <v>0.028829106344735067</v>
+        <v>0.031754381477933566</v>
       </c>
       <c r="DG4">
-        <v>0.028829106344735071</v>
+        <v>0.031754381477933573</v>
       </c>
       <c r="DH4">
-        <v>0.028283755899445255</v>
+        <v>0.031153694593233923</v>
       </c>
       <c r="DI4">
-        <v>0.026710700219681287</v>
+        <v>0.02942102173324506</v>
       </c>
       <c r="DJ4">
-        <v>0.026710700219681291</v>
+        <v>0.029421021733245067</v>
       </c>
       <c r="DK4">
-        <v>0.027078772669680822</v>
+        <v>0.029826442312330659</v>
       </c>
       <c r="DL4">
-        <v>0.027078772669680822</v>
+        <v>0.029826442312330663</v>
       </c>
       <c r="DM4">
         <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.028437295336143441</v>
+        <v>0.031322813600480282</v>
       </c>
       <c r="DO4">
-        <v>0.028437295336143437</v>
+        <v>0.031322813600480275</v>
       </c>
       <c r="DP4">
-        <v>0.028100603071722866</v>
+        <v>0.030951957338852427</v>
       </c>
       <c r="DQ4">
-        <v>0.028100603071722862</v>
+        <v>0.030951957338852424</v>
       </c>
       <c r="DR4">
-        <v>0.028100603071722869</v>
+        <v>0.030951957338852431</v>
       </c>
       <c r="DS4">
-        <v>0.028035213799112675</v>
+        <v>0.03087993304915717</v>
       </c>
       <c r="DT4">
-        <v>0.028035213799112675</v>
+        <v>0.03087993304915717</v>
       </c>
       <c r="DU4">
-        <v>0.028035213799112675</v>
+        <v>0.03087993304915717</v>
       </c>
       <c r="DV4">
-        <v>0.028035213799112675</v>
+        <v>0.03087993304915717</v>
       </c>
       <c r="DW4">
-        <v>0.028035213799112675</v>
+        <v>0.03087993304915717</v>
       </c>
       <c r="DX4">
-        <v>0.027979364876360185</v>
+        <v>0.030818417163891509</v>
       </c>
       <c r="DY4">
-        <v>0.027979364876360185</v>
+        <v>0.030818417163891509</v>
       </c>
       <c r="DZ4">
-        <v>0.027979364876360185</v>
+        <v>0.030818417163891509</v>
       </c>
       <c r="EA4">
-        <v>0.027979364876360189</v>
+        <v>0.030818417163891512</v>
       </c>
       <c r="EB4">
-        <v>0.027979364876360189</v>
+        <v>0.030818417163891512</v>
       </c>
       <c r="EC4">
-        <v>0.026191086799203858</v>
+        <v>0.028848683396510335</v>
       </c>
       <c r="ED4">
-        <v>0.026191086799203865</v>
+        <v>0.028848683396510345</v>
       </c>
       <c r="EE4">
-        <v>0.026191086799203862</v>
+        <v>0.028848683396510338</v>
       </c>
       <c r="EF4">
-        <v>0.026191086799203862</v>
+        <v>0.028848683396510338</v>
       </c>
       <c r="EG4">
-        <v>0.026191086799203858</v>
+        <v>0.028848683396510335</v>
       </c>
       <c r="EH4">
-        <v>0.027787215679500696</v>
+        <v>0.030606770683255138</v>
       </c>
       <c r="EI4">
-        <v>0.027787215679500696</v>
+        <v>0.030606770683255145</v>
       </c>
       <c r="EJ4">
-        <v>0.027787215679500696</v>
+        <v>0.030606770683255145</v>
       </c>
       <c r="EK4">
-        <v>0.027787215679500696</v>
+        <v>0.030606770683255138</v>
       </c>
       <c r="EL4">
-        <v>0.027787215679500699</v>
+        <v>0.030606770683255145</v>
       </c>
       <c r="EM4">
-        <v>0.027787215679500696</v>
+        <v>0.030606770683255145</v>
       </c>
       <c r="EN4">
-        <v>0.027787215679500699</v>
+        <v>0.030606770683255145</v>
       </c>
       <c r="EO4">
-        <v>0.027787215679500699</v>
+        <v>0.030606770683255145</v>
       </c>
       <c r="EP4">
-        <v>0.027787215679500699</v>
+        <v>0.030606770683255145</v>
       </c>
       <c r="EQ4">
-        <v>0.027787215679500703</v>
+        <v>0.030606770683255149</v>
       </c>
       <c r="ER4">
-        <v>0.027787215679500703</v>
+        <v>0.030606770683255149</v>
       </c>
       <c r="ES4">
-        <v>0.027787215679500699</v>
+        <v>0.030606770683255149</v>
       </c>
       <c r="ET4">
-        <v>0.027787215679500699</v>
+        <v>0.030606770683255145</v>
       </c>
       <c r="EU4">
-        <v>0.027787215679500699</v>
+        <v>0.030606770683255149</v>
       </c>
       <c r="EV4">
-        <v>0.027787215679500703</v>
+        <v>0.030606770683255149</v>
       </c>
       <c r="EW4">
-        <v>0.027787215679500703</v>
+        <v>0.030606770683255149</v>
       </c>
       <c r="EX4">
-        <v>0.027787215679500703</v>
+        <v>0.030606770683255149</v>
       </c>
       <c r="EY4">
-        <v>0.027787215679500703</v>
+        <v>0.030606770683255149</v>
       </c>
       <c r="EZ4">
-        <v>0.027787215679500703</v>
+        <v>0.030606770683255149</v>
       </c>
       <c r="FA4">
-        <v>0.027787215679500703</v>
+        <v>0.030606770683255149</v>
       </c>
       <c r="FB4">
-        <v>0.02778721567950071</v>
+        <v>0.030606770683255156</v>
       </c>
       <c r="FC4">
-        <v>0.02778721567950071</v>
+        <v>0.030606770683255156</v>
       </c>
       <c r="FD4">
-        <v>0.02778721567950071</v>
+        <v>0.030606770683255156</v>
       </c>
       <c r="FE4">
-        <v>0.027787215679500703</v>
+        <v>0.030606770683255149</v>
       </c>
       <c r="FF4">
-        <v>0.027787215679500713</v>
+        <v>0.030606770683255159</v>
       </c>
       <c r="FG4">
-        <v>0.027787215679500713</v>
+        <v>0.030606770683255159</v>
       </c>
       <c r="FH4">
-        <v>0.027787215679500717</v>
+        <v>0.030606770683255163</v>
       </c>
       <c r="FI4">
-        <v>0.027787215679500713</v>
+        <v>0.030606770683255159</v>
       </c>
       <c r="FJ4">
-        <v>0.027787215679500717</v>
+        <v>0.030606770683255163</v>
       </c>
       <c r="FK4">
-        <v>0.027787215679500713</v>
+        <v>0.030606770683255159</v>
       </c>
       <c r="FL4">
-        <v>0.027787215679500717</v>
+        <v>0.030606770683255163</v>
       </c>
       <c r="FM4">
-        <v>0.027787215679500717</v>
+        <v>0.030606770683255163</v>
       </c>
       <c r="FN4">
-        <v>0.027787215679500717</v>
+        <v>0.030606770683255163</v>
       </c>
       <c r="FO4">
-        <v>0.02778721567950072</v>
+        <v>0.03060677068325517</v>
       </c>
       <c r="FP4">
-        <v>0.027787215679500717</v>
+        <v>0.030606770683255166</v>
       </c>
       <c r="FQ4">
-        <v>0.027787215679500724</v>
+        <v>0.03060677068325517</v>
       </c>
       <c r="FR4">
-        <v>0.027787215679500717</v>
+        <v>0.030606770683255163</v>
       </c>
       <c r="FS4">
-        <v>0.027787215679500717</v>
+        <v>0.030606770683255163</v>
       </c>
       <c r="FT4">
-        <v>0.02778721567950072</v>
+        <v>0.03060677068325517</v>
       </c>
       <c r="FU4">
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.02255920112341132</v>
+        <v>0.024848272081144651</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -6032,535 +6032,535 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>1.0854933750135534</v>
+        <v>1.0955875335436405</v>
       </c>
       <c r="C3">
-        <v>-1.8086156018857675</v>
+        <v>-1.7973290504886117</v>
       </c>
       <c r="D3">
-        <v>-1.8773694125155205</v>
+        <v>-1.8502426306273265</v>
       </c>
       <c r="E3">
-        <v>-1.8733797378739117</v>
+        <v>-1.8684037543148515</v>
       </c>
       <c r="F3">
-        <v>-1.8438674160354798</v>
+        <v>-1.8666615128406725</v>
       </c>
       <c r="G3">
-        <v>-1.8382157247244706</v>
+        <v>-1.8408370445778535</v>
       </c>
       <c r="H3">
-        <v>-1.8672590466662442</v>
+        <v>-1.7922240976194577</v>
       </c>
       <c r="I3">
-        <v>0.81105451367819292</v>
+        <v>0.81787069261391532</v>
       </c>
       <c r="J3">
-        <v>0.75436972125199009</v>
+        <v>0.73198623698626297</v>
       </c>
       <c r="K3">
-        <v>0.61503874760858201</v>
+        <v>0.62085566728670472</v>
       </c>
       <c r="L3">
-        <v>0.48616012766839667</v>
+        <v>0.48907085265849565</v>
       </c>
       <c r="M3">
-        <v>0.38853859659775236</v>
+        <v>0.39152303799966209</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.3757315339978422</v>
+        <v>1.4040725804352527</v>
       </c>
       <c r="P3">
-        <v>1.4642291832068031</v>
+        <v>1.5272465531434836</v>
       </c>
       <c r="Q3">
-        <v>-0.071226593042851519</v>
+        <v>-0.047446591669815692</v>
       </c>
       <c r="R3">
-        <v>-0.10939262636728189</v>
+        <v>0.012315120669462108</v>
       </c>
       <c r="S3">
-        <v>-0.016324818509848547</v>
+        <v>-0.014865657133966516</v>
       </c>
       <c r="T3">
-        <v>-0.05020632800903857</v>
+        <v>-0.00097180129985171453</v>
       </c>
       <c r="U3">
-        <v>0.015365298581598111</v>
+        <v>0.032446456510651034</v>
       </c>
       <c r="V3">
-        <v>-0.052528825775101262</v>
+        <v>0.023983840647616071</v>
       </c>
       <c r="W3">
-        <v>0.0032888485726892385</v>
+        <v>0.01745572329959319</v>
       </c>
       <c r="X3">
-        <v>0.011891241929084046</v>
+        <v>-0.024808562128577027</v>
       </c>
       <c r="Y3">
-        <v>0.053578834073719765</v>
+        <v>0.035345611818050272</v>
       </c>
       <c r="Z3">
-        <v>0.067184480525043458</v>
+        <v>0.012161564119448257</v>
       </c>
       <c r="AA3">
-        <v>0.076679450720255532</v>
+        <v>0.11182534251280388</v>
       </c>
       <c r="AB3">
-        <v>0.056715224428422077</v>
+        <v>0.072356097437194067</v>
       </c>
       <c r="AC3">
-        <v>0.064693851297086921</v>
+        <v>0.067332674456420494</v>
       </c>
       <c r="AD3">
-        <v>0.12108420624126991</v>
+        <v>0.065803702554583288</v>
       </c>
       <c r="AE3">
-        <v>0.033633030258564192</v>
+        <v>0.10604178516786672</v>
       </c>
       <c r="AF3">
-        <v>0.075793198061865685</v>
+        <v>0.11687428631913135</v>
       </c>
       <c r="AG3">
-        <v>0.13231839509515428</v>
+        <v>0.12280149921410376</v>
       </c>
       <c r="AH3">
-        <v>0.11901664087448358</v>
+        <v>0.10115800762176548</v>
       </c>
       <c r="AI3">
-        <v>0.052451905159704444</v>
+        <v>0.13527220538157911</v>
       </c>
       <c r="AJ3">
-        <v>0.10018882242748119</v>
+        <v>0.14057435841418328</v>
       </c>
       <c r="AK3">
-        <v>0.078072948035565998</v>
+        <v>0.13757277464224793</v>
       </c>
       <c r="AL3">
-        <v>0.074144637707849154</v>
+        <v>0.11089867783421138</v>
       </c>
       <c r="AM3">
-        <v>0.030075512845422429</v>
+        <v>0.15524814926450378</v>
       </c>
       <c r="AN3">
-        <v>0.14506275871802005</v>
+        <v>0.18414505016774232</v>
       </c>
       <c r="AO3">
-        <v>0.13142317226007025</v>
+        <v>0.20799174883778443</v>
       </c>
       <c r="AP3">
-        <v>0.068462451197170621</v>
+        <v>0.12840354196130982</v>
       </c>
       <c r="AQ3">
-        <v>0.1147401670014922</v>
+        <v>0.16285975425400212</v>
       </c>
       <c r="AR3">
-        <v>0.15246113698161837</v>
+        <v>0.083442512861247736</v>
       </c>
       <c r="AS3">
-        <v>0.086092512026862272</v>
+        <v>0.17749209120245232</v>
       </c>
       <c r="AT3">
-        <v>0.12654199738284813</v>
+        <v>0.19604964147779017</v>
       </c>
       <c r="AU3">
-        <v>0.16330492618411843</v>
+        <v>0.19107047391959825</v>
       </c>
       <c r="AV3">
-        <v>0.13813269204569126</v>
+        <v>0.16203612747690346</v>
       </c>
       <c r="AW3">
-        <v>0.098650563908873251</v>
+        <v>0.10628989832820629</v>
       </c>
       <c r="AX3">
-        <v>0.10087186587325102</v>
+        <v>0.16350402769990621</v>
       </c>
       <c r="AY3">
-        <v>0.17166562768534915</v>
+        <v>0.1518710295387444</v>
       </c>
       <c r="AZ3">
-        <v>0.16452463143112955</v>
+        <v>0.18393012359579122</v>
       </c>
       <c r="BA3">
-        <v>0.11771864209239741</v>
+        <v>0.18706340005720198</v>
       </c>
       <c r="BB3">
-        <v>0.1141828813895213</v>
+        <v>0.23941053880564395</v>
       </c>
       <c r="BC3">
-        <v>0.14532390798585254</v>
+        <v>0.21090744396503874</v>
       </c>
       <c r="BD3">
-        <v>0.14973337517997037</v>
+        <v>0.17156765278144348</v>
       </c>
       <c r="BE3">
-        <v>0.11167071191939321</v>
+        <v>0.18968269707926777</v>
       </c>
       <c r="BF3">
-        <v>0.092724350009560697</v>
+        <v>0.17607071502076196</v>
       </c>
       <c r="BG3">
-        <v>0.16149294206725964</v>
+        <v>0.14451368709030568</v>
       </c>
       <c r="BH3">
-        <v>0.1386104052201155</v>
+        <v>0.19369585066060041</v>
       </c>
       <c r="BI3">
-        <v>0.15905679308453483</v>
+        <v>0.14522758712181169</v>
       </c>
       <c r="BJ3">
-        <v>0.11503010567780825</v>
+        <v>0.13265753858302201</v>
       </c>
       <c r="BK3">
-        <v>0.12654141872593455</v>
+        <v>0.10389403065686993</v>
       </c>
       <c r="BL3">
-        <v>0.13286952754286974</v>
+        <v>0.17278498251143426</v>
       </c>
       <c r="BM3">
-        <v>0.12758274267941588</v>
+        <v>0.13390615974314449</v>
       </c>
       <c r="BN3">
-        <v>0.16996373913291521</v>
+        <v>0.1308604861901127</v>
       </c>
       <c r="BO3">
-        <v>0.11175322119168184</v>
+        <v>0.10794974917344086</v>
       </c>
       <c r="BP3">
-        <v>0.096435539640744958</v>
+        <v>0.15426764229639142</v>
       </c>
       <c r="BQ3">
-        <v>0.15901272810876885</v>
+        <v>0.092962934878943845</v>
       </c>
       <c r="BR3">
-        <v>0.11285910245390229</v>
+        <v>0.15215304645107605</v>
       </c>
       <c r="BS3">
-        <v>0.11989675288177581</v>
+        <v>0.19120537216306105</v>
       </c>
       <c r="BT3">
-        <v>-0.0073368694664195143</v>
+        <v>0.1466423362906924</v>
       </c>
       <c r="BU3">
-        <v>0.12068051386233764</v>
+        <v>0.12070612512162562</v>
       </c>
       <c r="BV3">
-        <v>0.13476697158924086</v>
+        <v>0.19937166852641164</v>
       </c>
       <c r="BW3">
-        <v>0.11187137281798733</v>
+        <v>0.15447623169997837</v>
       </c>
       <c r="BX3">
-        <v>0.063767173522014026</v>
+        <v>0.13152303380553038</v>
       </c>
       <c r="BY3">
-        <v>0.16296162706522524</v>
+        <v>0.15481088266820114</v>
       </c>
       <c r="BZ3">
-        <v>0.15591020157022498</v>
+        <v>0.15284939968432459</v>
       </c>
       <c r="CA3">
-        <v>0.1360365576909259</v>
+        <v>0.19498943146097866</v>
       </c>
       <c r="CB3">
-        <v>0.13990674592911947</v>
+        <v>0.19827459595712665</v>
       </c>
       <c r="CC3">
-        <v>0.19215259454008893</v>
+        <v>0.20416723200918038</v>
       </c>
       <c r="CD3">
-        <v>0.073835789041475267</v>
+        <v>0.20500843421900927</v>
       </c>
       <c r="CE3">
-        <v>0.11407390269544941</v>
+        <v>0.17563859704969953</v>
       </c>
       <c r="CF3">
-        <v>0.10420003875063115</v>
+        <v>0.16103138851423074</v>
       </c>
       <c r="CG3">
-        <v>0.14184397672745183</v>
+        <v>0.14583258376087596</v>
       </c>
       <c r="CH3">
-        <v>0.10017241910368228</v>
+        <v>0.16027342155392951</v>
       </c>
       <c r="CI3">
-        <v>0.086943612225149833</v>
+        <v>0.15169788186123601</v>
       </c>
       <c r="CJ3">
-        <v>0.094979047999207297</v>
+        <v>0.14720012022943027</v>
       </c>
       <c r="CK3">
-        <v>0.097761781661450678</v>
+        <v>0.17087289477277481</v>
       </c>
       <c r="CL3">
-        <v>0.12769869373634204</v>
+        <v>0.14437522869118699</v>
       </c>
       <c r="CM3">
-        <v>0.093342884117315381</v>
+        <v>0.10867876630919049</v>
       </c>
       <c r="CN3">
-        <v>0.042336487367880093</v>
+        <v>0.10553699632966776</v>
       </c>
       <c r="CO3">
-        <v>0.011478740172348506</v>
+        <v>0.11954456715708144</v>
       </c>
       <c r="CP3">
-        <v>0.050376124319955813</v>
+        <v>0.12315262203468105</v>
       </c>
       <c r="CQ3">
-        <v>0.07579438718634933</v>
+        <v>0.11932563131873213</v>
       </c>
       <c r="CR3">
-        <v>0.076545511905656269</v>
+        <v>0.109696731607172</v>
       </c>
       <c r="CS3">
-        <v>0.049593437612546934</v>
+        <v>0.090499099705074332</v>
       </c>
       <c r="CT3">
-        <v>0.17856951372947141</v>
+        <v>0.22279428991269865</v>
       </c>
       <c r="CU3">
-        <v>0.17167569055145457</v>
+        <v>0.15684365125323688</v>
       </c>
       <c r="CV3">
-        <v>0.11284901451064928</v>
+        <v>0.23313061294853166</v>
       </c>
       <c r="CW3">
-        <v>0.10136095973339213</v>
+        <v>0.20966218413865967</v>
       </c>
       <c r="CX3">
-        <v>0.11881392816057186</v>
+        <v>0.14436575220076059</v>
       </c>
       <c r="CY3">
-        <v>0.15073002589055839</v>
+        <v>0.17677508163761818</v>
       </c>
       <c r="CZ3">
-        <v>0.12371651519423374</v>
+        <v>0.14463832261650064</v>
       </c>
       <c r="DA3">
-        <v>0.073512606153518206</v>
+        <v>0.14434222368538457</v>
       </c>
       <c r="DB3">
-        <v>0.062025017744425079</v>
+        <v>0.068231466794290513</v>
       </c>
       <c r="DC3">
-        <v>0.037507432905880267</v>
+        <v>0.061003824800586137</v>
       </c>
       <c r="DD3">
-        <v>0.078851839996047182</v>
+        <v>0.13910824633626226</v>
       </c>
       <c r="DE3">
-        <v>0.082294294962434553</v>
+        <v>0.10190688520503156</v>
       </c>
       <c r="DF3">
-        <v>0.039608973439222761</v>
+        <v>0.10052380326577383</v>
       </c>
       <c r="DG3">
-        <v>0.02768361738172774</v>
+        <v>0.059597928069184007</v>
       </c>
       <c r="DH3">
-        <v>-0.0029701192057716252</v>
+        <v>0.050245808843383415</v>
       </c>
       <c r="DI3">
-        <v>-0.019116633695083821</v>
+        <v>0.078619375155473889</v>
       </c>
       <c r="DJ3">
-        <v>0.05920402331951477</v>
+        <v>0.050335352269958507</v>
       </c>
       <c r="DK3">
-        <v>-0.017122018366930867</v>
+        <v>0.02826079277818851</v>
       </c>
       <c r="DL3">
-        <v>-0.00081365958800501089</v>
+        <v>0.045149983540401332</v>
       </c>
       <c r="DM3">
         <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.29524347831071013</v>
+        <v>0.34245942971942533</v>
       </c>
       <c r="DO3">
-        <v>0.26683213239061138</v>
+        <v>0.29955673971917052</v>
       </c>
       <c r="DP3">
-        <v>0.26809568109193715</v>
+        <v>0.31016185192363932</v>
       </c>
       <c r="DQ3">
-        <v>0.21378871035464653</v>
+        <v>0.2982599696663677</v>
       </c>
       <c r="DR3">
-        <v>0.19850406119822656</v>
+        <v>0.25606248031772116</v>
       </c>
       <c r="DS3">
-        <v>0.24280356870912739</v>
+        <v>0.27536704933308115</v>
       </c>
       <c r="DT3">
-        <v>0.21868998523800767</v>
+        <v>0.2540836688998736</v>
       </c>
       <c r="DU3">
-        <v>0.19183688080412389</v>
+        <v>0.22783291635117434</v>
       </c>
       <c r="DV3">
-        <v>0.18587329569105435</v>
+        <v>0.21330045202606684</v>
       </c>
       <c r="DW3">
-        <v>0.12677860525495702</v>
+        <v>0.18494638223565746</v>
       </c>
       <c r="DX3">
-        <v>0.19680365261344787</v>
+        <v>0.25562927455095474</v>
       </c>
       <c r="DY3">
-        <v>0.11868926529572629</v>
+        <v>0.20800794743938997</v>
       </c>
       <c r="DZ3">
-        <v>0.1245779880262355</v>
+        <v>0.18036335754978622</v>
       </c>
       <c r="EA3">
-        <v>0.10865709061239651</v>
+        <v>0.14494186952622026</v>
       </c>
       <c r="EB3">
-        <v>0.088574107024207954</v>
+        <v>0.14115331999421402</v>
       </c>
       <c r="EC3">
-        <v>0.12710715158118444</v>
+        <v>0.17226022339189592</v>
       </c>
       <c r="ED3">
-        <v>0.12049461513915682</v>
+        <v>0.15466917278229386</v>
       </c>
       <c r="EE3">
-        <v>0.059776591563410544</v>
+        <v>0.11810484430773917</v>
       </c>
       <c r="EF3">
-        <v>0.065830871113012612</v>
+        <v>0.10679712400316155</v>
       </c>
       <c r="EG3">
-        <v>0.06733162992371973</v>
+        <v>0.076691206324709202</v>
       </c>
       <c r="EH3">
-        <v>0.20219168067938373</v>
+        <v>0.25199821088071661</v>
       </c>
       <c r="EI3">
-        <v>0.19894153031209991</v>
+        <v>0.25445410644196692</v>
       </c>
       <c r="EJ3">
-        <v>0.20647519660017516</v>
+        <v>0.22104636109267406</v>
       </c>
       <c r="EK3">
-        <v>0.1703794876374525</v>
+        <v>0.22324071561899467</v>
       </c>
       <c r="EL3">
-        <v>0.19348117559538636</v>
+        <v>0.21511274463391908</v>
       </c>
       <c r="EM3">
-        <v>0.11184618072753422</v>
+        <v>0.17099282277271713</v>
       </c>
       <c r="EN3">
-        <v>0.13323590359536569</v>
+        <v>0.19542086851831444</v>
       </c>
       <c r="EO3">
-        <v>0.15355379512009124</v>
+        <v>0.16738848589630378</v>
       </c>
       <c r="EP3">
-        <v>0.10412570840630282</v>
+        <v>0.18955313709834626</v>
       </c>
       <c r="EQ3">
-        <v>0.10275009487373973</v>
+        <v>0.16096586874808502</v>
       </c>
       <c r="ER3">
-        <v>0.083826694618111985</v>
+        <v>0.14538434683740031</v>
       </c>
       <c r="ES3">
-        <v>0.092299133915801732</v>
+        <v>0.12600370313442444</v>
       </c>
       <c r="ET3">
-        <v>0.079018019561432812</v>
+        <v>0.13023898899533501</v>
       </c>
       <c r="EU3">
-        <v>0.052924492245611188</v>
+        <v>0.14386954918551198</v>
       </c>
       <c r="EV3">
-        <v>0.056216995535738508</v>
+        <v>0.098340264958556106</v>
       </c>
       <c r="EW3">
-        <v>0.068063928424995326</v>
+        <v>0.10967811579506151</v>
       </c>
       <c r="EX3">
-        <v>0.051928432910825419</v>
+        <v>0.086928599717910227</v>
       </c>
       <c r="EY3">
-        <v>0.059579160886664019</v>
+        <v>0.097830810974883234</v>
       </c>
       <c r="EZ3">
-        <v>0.0080190386191848779</v>
+        <v>0.069852334715483105</v>
       </c>
       <c r="FA3">
-        <v>0.029933945554656696</v>
+        <v>0.092192271083195873</v>
       </c>
       <c r="FB3">
-        <v>0.038796484062186498</v>
+        <v>0.059297138285713279</v>
       </c>
       <c r="FC3">
-        <v>0.068345076791415799</v>
+        <v>0.065172802021568554</v>
       </c>
       <c r="FD3">
-        <v>0.026048786507044265</v>
+        <v>0.07764004108304845</v>
       </c>
       <c r="FE3">
-        <v>-0.0063603168223447656</v>
+        <v>0.054060483165118883</v>
       </c>
       <c r="FF3">
-        <v>0.037061692427980339</v>
+        <v>0.048170484115347641</v>
       </c>
       <c r="FG3">
-        <v>-0.010259376966909515</v>
+        <v>-0.010459355013848084</v>
       </c>
       <c r="FH3">
-        <v>-0.0061128628353844137</v>
+        <v>0.022101619427613069</v>
       </c>
       <c r="FI3">
-        <v>-0.065773558485619055</v>
+        <v>0.051644669727183908</v>
       </c>
       <c r="FJ3">
-        <v>-0.032440690455324127</v>
+        <v>0.056573049970789886</v>
       </c>
       <c r="FK3">
-        <v>-0.047427084042687716</v>
+        <v>0.0042624960291678783</v>
       </c>
       <c r="FL3">
-        <v>-0.0043505921077070537</v>
+        <v>0.029915582224784694</v>
       </c>
       <c r="FM3">
-        <v>-0.099594364663336321</v>
+        <v>0.012764899372373297</v>
       </c>
       <c r="FN3">
-        <v>-0.020781800817691765</v>
+        <v>-0.019767449478107164</v>
       </c>
       <c r="FO3">
-        <v>0.021350160671491723</v>
+        <v>0.015488604014520095</v>
       </c>
       <c r="FP3">
-        <v>-0.037303976464139903</v>
+        <v>-0.012324506479498371</v>
       </c>
       <c r="FQ3">
-        <v>-0.084281471034805336</v>
+        <v>-0.001250518656539144</v>
       </c>
       <c r="FR3">
-        <v>-0.058820064356892042</v>
+        <v>0.00017347202070538934</v>
       </c>
       <c r="FS3">
-        <v>-0.047672347754351516</v>
+        <v>0.010826658716698318</v>
       </c>
       <c r="FT3">
-        <v>-0.052967635894341475</v>
+        <v>-0.012214521704245765</v>
       </c>
       <c r="FU3">
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.4329527735699727</v>
+        <v>-5.4739202916558112</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -6574,535 +6574,535 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.082911066042087311</v>
+        <v>0.085776667683336069</v>
       </c>
       <c r="C4">
-        <v>0.041438092420794451</v>
+        <v>0.042870290453213541</v>
       </c>
       <c r="D4">
-        <v>0.047601590466797829</v>
+        <v>0.049246813502507737</v>
       </c>
       <c r="E4">
-        <v>0.046346889683186961</v>
+        <v>0.047948747305853377</v>
       </c>
       <c r="F4">
-        <v>0.046227099209505108</v>
+        <v>0.047824816591376468</v>
       </c>
       <c r="G4">
-        <v>0.053334213026312104</v>
+        <v>0.055177568994082792</v>
       </c>
       <c r="H4">
-        <v>0.062766205611844941</v>
+        <v>0.064935553449260983</v>
       </c>
       <c r="I4">
-        <v>0.058323423932390588</v>
+        <v>0.0603392187752535</v>
       </c>
       <c r="J4">
-        <v>0.04791193951848443</v>
+        <v>0.049567888948080306</v>
       </c>
       <c r="K4">
-        <v>0.039567260200331557</v>
+        <v>0.040934797866681562</v>
       </c>
       <c r="L4">
-        <v>0.039660124977936757</v>
+        <v>0.041030872269633804</v>
       </c>
       <c r="M4">
-        <v>0.040308131771592932</v>
+        <v>0.041701275703691393</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.092937888798766563</v>
+        <v>0.096150041040793582</v>
       </c>
       <c r="P4">
-        <v>0.092937888798766563</v>
+        <v>0.096150041040793582</v>
       </c>
       <c r="Q4">
-        <v>0.092937888798766563</v>
+        <v>0.096150041040793582</v>
       </c>
       <c r="R4">
-        <v>0.092937888798766577</v>
+        <v>0.096150041040793596</v>
       </c>
       <c r="S4">
-        <v>0.092937888798766549</v>
+        <v>0.096150041040793569</v>
       </c>
       <c r="T4">
-        <v>0.092937888798766563</v>
+        <v>0.096150041040793582</v>
       </c>
       <c r="U4">
-        <v>0.092937888798766577</v>
+        <v>0.096150041040793596</v>
       </c>
       <c r="V4">
-        <v>0.092937888798766577</v>
+        <v>0.096150041040793596</v>
       </c>
       <c r="W4">
-        <v>0.092937888798766577</v>
+        <v>0.096150041040793596</v>
       </c>
       <c r="X4">
-        <v>0.092937888798766577</v>
+        <v>0.096150041040793596</v>
       </c>
       <c r="Y4">
-        <v>0.092937888798766605</v>
+        <v>0.096150041040793624</v>
       </c>
       <c r="Z4">
-        <v>0.092937888798766577</v>
+        <v>0.096150041040793596</v>
       </c>
       <c r="AA4">
-        <v>0.092937888798766605</v>
+        <v>0.096150041040793624</v>
       </c>
       <c r="AB4">
-        <v>0.092937888798766577</v>
+        <v>0.096150041040793596</v>
       </c>
       <c r="AC4">
-        <v>0.092937888798766605</v>
+        <v>0.096150041040793638</v>
       </c>
       <c r="AD4">
-        <v>0.092937888798766632</v>
+        <v>0.096150041040793652</v>
       </c>
       <c r="AE4">
-        <v>0.092937888798766632</v>
+        <v>0.096150041040793652</v>
       </c>
       <c r="AF4">
-        <v>0.09293788879876666</v>
+        <v>0.096150041040793666</v>
       </c>
       <c r="AG4">
-        <v>0.092937888798766632</v>
+        <v>0.096150041040793652</v>
       </c>
       <c r="AH4">
-        <v>0.092937888798766674</v>
+        <v>0.09615004104079368</v>
       </c>
       <c r="AI4">
-        <v>0.09293788879876666</v>
+        <v>0.096150041040793666</v>
       </c>
       <c r="AJ4">
-        <v>0.092937888798766702</v>
+        <v>0.096150041040793721</v>
       </c>
       <c r="AK4">
-        <v>0.092937888798766702</v>
+        <v>0.096150041040793721</v>
       </c>
       <c r="AL4">
-        <v>0.092937888798766702</v>
+        <v>0.096150041040793721</v>
       </c>
       <c r="AM4">
-        <v>0.092937888798766702</v>
+        <v>0.096150041040793721</v>
       </c>
       <c r="AN4">
-        <v>0.092937888798766702</v>
+        <v>0.096150041040793721</v>
       </c>
       <c r="AO4">
-        <v>0.092937888798766702</v>
+        <v>0.096150041040793721</v>
       </c>
       <c r="AP4">
-        <v>0.092937888798766702</v>
+        <v>0.096150041040793721</v>
       </c>
       <c r="AQ4">
-        <v>0.092937888798766716</v>
+        <v>0.096150041040793735</v>
       </c>
       <c r="AR4">
-        <v>0.092937888798766716</v>
+        <v>0.096150041040793735</v>
       </c>
       <c r="AS4">
-        <v>0.092937888798766702</v>
+        <v>0.096150041040793721</v>
       </c>
       <c r="AT4">
-        <v>0.092937888798766716</v>
+        <v>0.096150041040793735</v>
       </c>
       <c r="AU4">
-        <v>0.092937888798766716</v>
+        <v>0.096150041040793735</v>
       </c>
       <c r="AV4">
-        <v>0.092937888798766716</v>
+        <v>0.096150041040793735</v>
       </c>
       <c r="AW4">
-        <v>0.092937888798766716</v>
+        <v>0.096150041040793735</v>
       </c>
       <c r="AX4">
-        <v>0.092937888798766716</v>
+        <v>0.096150041040793735</v>
       </c>
       <c r="AY4">
-        <v>0.092937888798766716</v>
+        <v>0.096150041040793735</v>
       </c>
       <c r="AZ4">
-        <v>0.092937888798766716</v>
+        <v>0.096150041040793735</v>
       </c>
       <c r="BA4">
-        <v>0.092937888798766716</v>
+        <v>0.096150041040793735</v>
       </c>
       <c r="BB4">
-        <v>0.092937888798766716</v>
+        <v>0.096150041040793735</v>
       </c>
       <c r="BC4">
-        <v>0.092937888798766716</v>
+        <v>0.096150041040793735</v>
       </c>
       <c r="BD4">
-        <v>0.09293788879876673</v>
+        <v>0.096150041040793749</v>
       </c>
       <c r="BE4">
-        <v>0.092937888798766743</v>
+        <v>0.096150041040793763</v>
       </c>
       <c r="BF4">
-        <v>0.092937888798766757</v>
+        <v>0.096150041040793777</v>
       </c>
       <c r="BG4">
-        <v>0.092937888798766757</v>
+        <v>0.096150041040793777</v>
       </c>
       <c r="BH4">
-        <v>0.092937888798766757</v>
+        <v>0.096150041040793777</v>
       </c>
       <c r="BI4">
-        <v>0.092937888798766757</v>
+        <v>0.096150041040793777</v>
       </c>
       <c r="BJ4">
-        <v>0.092937888798766757</v>
+        <v>0.096150041040793777</v>
       </c>
       <c r="BK4">
-        <v>0.092937888798766757</v>
+        <v>0.096150041040793777</v>
       </c>
       <c r="BL4">
-        <v>0.092937888798766785</v>
+        <v>0.096150041040793804</v>
       </c>
       <c r="BM4">
-        <v>0.092937888798766757</v>
+        <v>0.096150041040793777</v>
       </c>
       <c r="BN4">
-        <v>0.092937888798766757</v>
+        <v>0.096150041040793791</v>
       </c>
       <c r="BO4">
-        <v>0.092937888798766757</v>
+        <v>0.096150041040793791</v>
       </c>
       <c r="BP4">
-        <v>0.092937888798766757</v>
+        <v>0.096150041040793791</v>
       </c>
       <c r="BQ4">
-        <v>0.092937888798766785</v>
+        <v>0.096150041040793804</v>
       </c>
       <c r="BR4">
-        <v>0.092937888798766757</v>
+        <v>0.096150041040793791</v>
       </c>
       <c r="BS4">
-        <v>0.092937888798766757</v>
+        <v>0.096150041040793791</v>
       </c>
       <c r="BT4">
-        <v>0.092937888798766785</v>
+        <v>0.096150041040793804</v>
       </c>
       <c r="BU4">
-        <v>0.092937888798766785</v>
+        <v>0.096150041040793818</v>
       </c>
       <c r="BV4">
-        <v>0.092937888798766785</v>
+        <v>0.096150041040793804</v>
       </c>
       <c r="BW4">
-        <v>0.092937888798766785</v>
+        <v>0.096150041040793804</v>
       </c>
       <c r="BX4">
-        <v>0.092937888798766757</v>
+        <v>0.096150041040793791</v>
       </c>
       <c r="BY4">
-        <v>0.091052248630038621</v>
+        <v>0.094199228708441926</v>
       </c>
       <c r="BZ4">
-        <v>0.091052248630038621</v>
+        <v>0.094199228708441926</v>
       </c>
       <c r="CA4">
-        <v>0.091052248630038635</v>
+        <v>0.094199228708441926</v>
       </c>
       <c r="CB4">
-        <v>0.091052248630038635</v>
+        <v>0.094199228708441926</v>
       </c>
       <c r="CC4">
-        <v>0.091052248630038621</v>
+        <v>0.094199228708441926</v>
       </c>
       <c r="CD4">
-        <v>0.093130977019839356</v>
+        <v>0.096349802845377308</v>
       </c>
       <c r="CE4">
-        <v>0.093130977019839356</v>
+        <v>0.096349802845377294</v>
       </c>
       <c r="CF4">
-        <v>0.09313097701983937</v>
+        <v>0.096349802845377308</v>
       </c>
       <c r="CG4">
-        <v>0.093130977019839342</v>
+        <v>0.096349802845377294</v>
       </c>
       <c r="CH4">
-        <v>0.093130977019839356</v>
+        <v>0.096349802845377294</v>
       </c>
       <c r="CI4">
-        <v>0.093111518947966654</v>
+        <v>0.096329672256730239</v>
       </c>
       <c r="CJ4">
-        <v>0.093111518947966654</v>
+        <v>0.096329672256730239</v>
       </c>
       <c r="CK4">
-        <v>0.093111518947966654</v>
+        <v>0.096329672256730239</v>
       </c>
       <c r="CL4">
-        <v>0.093111518947966654</v>
+        <v>0.096329672256730239</v>
       </c>
       <c r="CM4">
-        <v>0.093111518947966654</v>
+        <v>0.096329672256730225</v>
       </c>
       <c r="CN4">
-        <v>0.092116069168226664</v>
+        <v>0.095299817388999258</v>
       </c>
       <c r="CO4">
-        <v>0.092116069168226664</v>
+        <v>0.095299817388999258</v>
       </c>
       <c r="CP4">
-        <v>0.092116069168226664</v>
+        <v>0.095299817388999258</v>
       </c>
       <c r="CQ4">
-        <v>0.092629998594381216</v>
+        <v>0.095831509426073894</v>
       </c>
       <c r="CR4">
-        <v>0.092629998594381202</v>
+        <v>0.09583150942607388</v>
       </c>
       <c r="CS4">
-        <v>0.080072837345254971</v>
+        <v>0.082840343120654497</v>
       </c>
       <c r="CT4">
-        <v>0.094499226406031339</v>
+        <v>0.097765342151647242</v>
       </c>
       <c r="CU4">
-        <v>0.094499226406031339</v>
+        <v>0.097765342151647255</v>
       </c>
       <c r="CV4">
-        <v>0.092772586493376524</v>
+        <v>0.095979025498555429</v>
       </c>
       <c r="CW4">
-        <v>0.092772586493376552</v>
+        <v>0.095979025498555456</v>
       </c>
       <c r="CX4">
-        <v>0.094223148963307399</v>
+        <v>0.097479722822529286</v>
       </c>
       <c r="CY4">
-        <v>0.094813336178423885</v>
+        <v>0.098090308297287293</v>
       </c>
       <c r="CZ4">
-        <v>0.094813336178423899</v>
+        <v>0.098090308297287293</v>
       </c>
       <c r="DA4">
-        <v>0.094813336178423899</v>
+        <v>0.098090308297287293</v>
       </c>
       <c r="DB4">
-        <v>0.094813336178423899</v>
+        <v>0.098090308297287293</v>
       </c>
       <c r="DC4">
-        <v>0.093748186357140301</v>
+        <v>0.096988344390481054</v>
       </c>
       <c r="DD4">
-        <v>0.094616321174151474</v>
+        <v>0.097886483990631698</v>
       </c>
       <c r="DE4">
-        <v>0.094616321174151474</v>
+        <v>0.09788648399063167</v>
       </c>
       <c r="DF4">
-        <v>0.094616321174151474</v>
+        <v>0.09788648399063167</v>
       </c>
       <c r="DG4">
-        <v>0.094616321174151474</v>
+        <v>0.097886483990631698</v>
       </c>
       <c r="DH4">
-        <v>0.092826496256688124</v>
+        <v>0.096034798510207686</v>
       </c>
       <c r="DI4">
-        <v>0.087663771486742148</v>
+        <v>0.090693637817527775</v>
       </c>
       <c r="DJ4">
-        <v>0.087663771486742162</v>
+        <v>0.090693637817527803</v>
       </c>
       <c r="DK4">
-        <v>0.088871774979048537</v>
+        <v>0.091943392754550018</v>
       </c>
       <c r="DL4">
-        <v>0.088871774979048537</v>
+        <v>0.091943392754550018</v>
       </c>
       <c r="DM4">
         <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.093330408396100892</v>
+        <v>0.096556127039526887</v>
       </c>
       <c r="DO4">
-        <v>0.093330408396100892</v>
+        <v>0.096556127039526873</v>
       </c>
       <c r="DP4">
-        <v>0.092225393795706004</v>
+        <v>0.095412920532988985</v>
       </c>
       <c r="DQ4">
-        <v>0.09222539379570599</v>
+        <v>0.095412920532988971</v>
       </c>
       <c r="DR4">
-        <v>0.092225393795706004</v>
+        <v>0.095412920532988998</v>
       </c>
       <c r="DS4">
-        <v>0.09201078803080133</v>
+        <v>0.095190897487599457</v>
       </c>
       <c r="DT4">
-        <v>0.09201078803080133</v>
+        <v>0.095190897487599471</v>
       </c>
       <c r="DU4">
-        <v>0.09201078803080133</v>
+        <v>0.095190897487599457</v>
       </c>
       <c r="DV4">
-        <v>0.09201078803080133</v>
+        <v>0.095190897487599457</v>
       </c>
       <c r="DW4">
-        <v>0.09201078803080133</v>
+        <v>0.095190897487599457</v>
       </c>
       <c r="DX4">
-        <v>0.091827493427451792</v>
+        <v>0.09500126779122478</v>
       </c>
       <c r="DY4">
-        <v>0.091827493427451792</v>
+        <v>0.09500126779122478</v>
       </c>
       <c r="DZ4">
-        <v>0.091827493427451792</v>
+        <v>0.09500126779122478</v>
       </c>
       <c r="EA4">
-        <v>0.091827493427451792</v>
+        <v>0.095001267791224794</v>
       </c>
       <c r="EB4">
-        <v>0.091827493427451792</v>
+        <v>0.09500126779122478</v>
       </c>
       <c r="EC4">
-        <v>0.085958414765295574</v>
+        <v>0.08892933995283972</v>
       </c>
       <c r="ED4">
-        <v>0.085958414765295588</v>
+        <v>0.088929339952839734</v>
       </c>
       <c r="EE4">
-        <v>0.085958414765295574</v>
+        <v>0.088929339952839734</v>
       </c>
       <c r="EF4">
-        <v>0.085958414765295574</v>
+        <v>0.088929339952839734</v>
       </c>
       <c r="EG4">
-        <v>0.085958414765295574</v>
+        <v>0.08892933995283972</v>
       </c>
       <c r="EH4">
-        <v>0.091196865134433855</v>
+        <v>0.094348843499701976</v>
       </c>
       <c r="EI4">
-        <v>0.091196865134433869</v>
+        <v>0.09434884349970199</v>
       </c>
       <c r="EJ4">
-        <v>0.091196865134433869</v>
+        <v>0.09434884349970199</v>
       </c>
       <c r="EK4">
-        <v>0.091196865134433855</v>
+        <v>0.094348843499701976</v>
       </c>
       <c r="EL4">
-        <v>0.091196865134433869</v>
+        <v>0.094348843499702004</v>
       </c>
       <c r="EM4">
-        <v>0.091196865134433869</v>
+        <v>0.09434884349970199</v>
       </c>
       <c r="EN4">
-        <v>0.091196865134433869</v>
+        <v>0.094348843499702004</v>
       </c>
       <c r="EO4">
-        <v>0.091196865134433869</v>
+        <v>0.094348843499702004</v>
       </c>
       <c r="EP4">
-        <v>0.091196865134433869</v>
+        <v>0.094348843499702004</v>
       </c>
       <c r="EQ4">
-        <v>0.091196865134433883</v>
+        <v>0.094348843499702004</v>
       </c>
       <c r="ER4">
-        <v>0.091196865134433883</v>
+        <v>0.094348843499702004</v>
       </c>
       <c r="ES4">
-        <v>0.091196865134433869</v>
+        <v>0.094348843499702004</v>
       </c>
       <c r="ET4">
-        <v>0.091196865134433869</v>
+        <v>0.094348843499702004</v>
       </c>
       <c r="EU4">
-        <v>0.091196865134433869</v>
+        <v>0.094348843499702004</v>
       </c>
       <c r="EV4">
-        <v>0.091196865134433883</v>
+        <v>0.094348843499702004</v>
       </c>
       <c r="EW4">
-        <v>0.091196865134433883</v>
+        <v>0.094348843499702004</v>
       </c>
       <c r="EX4">
-        <v>0.091196865134433883</v>
+        <v>0.094348843499702004</v>
       </c>
       <c r="EY4">
-        <v>0.091196865134433883</v>
+        <v>0.094348843499702004</v>
       </c>
       <c r="EZ4">
-        <v>0.091196865134433883</v>
+        <v>0.094348843499702004</v>
       </c>
       <c r="FA4">
-        <v>0.091196865134433883</v>
+        <v>0.094348843499702004</v>
       </c>
       <c r="FB4">
-        <v>0.091196865134433897</v>
+        <v>0.094348843499702031</v>
       </c>
       <c r="FC4">
-        <v>0.091196865134433897</v>
+        <v>0.094348843499702031</v>
       </c>
       <c r="FD4">
-        <v>0.091196865134433897</v>
+        <v>0.094348843499702031</v>
       </c>
       <c r="FE4">
-        <v>0.091196865134433883</v>
+        <v>0.094348843499702004</v>
       </c>
       <c r="FF4">
-        <v>0.09119686513443391</v>
+        <v>0.094348843499702031</v>
       </c>
       <c r="FG4">
-        <v>0.09119686513443391</v>
+        <v>0.094348843499702031</v>
       </c>
       <c r="FH4">
-        <v>0.091196865134433924</v>
+        <v>0.094348843499702045</v>
       </c>
       <c r="FI4">
-        <v>0.09119686513443391</v>
+        <v>0.094348843499702031</v>
       </c>
       <c r="FJ4">
-        <v>0.091196865134433924</v>
+        <v>0.094348843499702045</v>
       </c>
       <c r="FK4">
-        <v>0.09119686513443391</v>
+        <v>0.094348843499702031</v>
       </c>
       <c r="FL4">
-        <v>0.091196865134433924</v>
+        <v>0.094348843499702045</v>
       </c>
       <c r="FM4">
-        <v>0.091196865134433924</v>
+        <v>0.094348843499702045</v>
       </c>
       <c r="FN4">
-        <v>0.091196865134433924</v>
+        <v>0.094348843499702045</v>
       </c>
       <c r="FO4">
-        <v>0.091196865134433938</v>
+        <v>0.094348843499702059</v>
       </c>
       <c r="FP4">
-        <v>0.091196865134433924</v>
+        <v>0.094348843499702059</v>
       </c>
       <c r="FQ4">
-        <v>0.091196865134433938</v>
+        <v>0.094348843499702073</v>
       </c>
       <c r="FR4">
-        <v>0.091196865134433924</v>
+        <v>0.094348843499702045</v>
       </c>
       <c r="FS4">
-        <v>0.091196865134433924</v>
+        <v>0.094348843499702045</v>
       </c>
       <c r="FT4">
-        <v>0.091196865134433938</v>
+        <v>0.094348843499702059</v>
       </c>
       <c r="FU4">
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.074038667498091654</v>
+        <v>0.076597618157231692</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -8191,535 +8191,535 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>0.011272941159691486</v>
+        <v>-0.0158628078965296</v>
       </c>
       <c r="C3">
-        <v>-0.6264114966851706</v>
+        <v>-0.63363479012534552</v>
       </c>
       <c r="D3">
-        <v>-0.64960198290857996</v>
+        <v>-0.65310443722177003</v>
       </c>
       <c r="E3">
-        <v>-0.67615897680811499</v>
+        <v>-0.67383451623222312</v>
       </c>
       <c r="F3">
-        <v>-0.66385643704459163</v>
+        <v>-0.67577594607644431</v>
       </c>
       <c r="G3">
-        <v>-0.68011314779411081</v>
+        <v>-0.66887630357820271</v>
       </c>
       <c r="H3">
-        <v>-0.69343685668592692</v>
+        <v>-0.67409882543468536</v>
       </c>
       <c r="I3">
-        <v>-0.0055352377648350253</v>
+        <v>-0.007139951651026738</v>
       </c>
       <c r="J3">
-        <v>-0.0053507172976794233</v>
+        <v>0.0089326192576711615</v>
       </c>
       <c r="K3">
-        <v>-0.0014523273548731556</v>
+        <v>-0.0069579443078100177</v>
       </c>
       <c r="L3">
-        <v>-0.0005523414477680501</v>
+        <v>0.0027393789747000453</v>
       </c>
       <c r="M3">
-        <v>0.0074291942871135544</v>
+        <v>0.0017149744388559784</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.2007980185071909</v>
+        <v>1.2152155866743868</v>
       </c>
       <c r="P3">
-        <v>1.3025012871243427</v>
+        <v>1.3286931626691081</v>
       </c>
       <c r="Q3">
-        <v>-0.25295178449147798</v>
+        <v>-0.24334083052412844</v>
       </c>
       <c r="R3">
-        <v>-0.30887607563708075</v>
+        <v>-0.20327398384802198</v>
       </c>
       <c r="S3">
-        <v>-0.20924912109751034</v>
+        <v>-0.19185673511454177</v>
       </c>
       <c r="T3">
-        <v>-0.22215564335293683</v>
+        <v>-0.16038532444201145</v>
       </c>
       <c r="U3">
-        <v>-0.1385322189662585</v>
+        <v>-0.15348351271849545</v>
       </c>
       <c r="V3">
-        <v>-0.15990524182341428</v>
+        <v>-0.15697968364143214</v>
       </c>
       <c r="W3">
-        <v>-0.18080085162896514</v>
+        <v>-0.12994303169819529</v>
       </c>
       <c r="X3">
-        <v>-0.13781979061607016</v>
+        <v>-0.14250987439597268</v>
       </c>
       <c r="Y3">
-        <v>-0.13020958630804491</v>
+        <v>-0.12123546729548564</v>
       </c>
       <c r="Z3">
-        <v>-0.081359583790800466</v>
+        <v>-0.098321534181386658</v>
       </c>
       <c r="AA3">
-        <v>-0.10870694891651334</v>
+        <v>-0.084592015895049694</v>
       </c>
       <c r="AB3">
-        <v>-0.12986377597463539</v>
+        <v>-0.093944060993109313</v>
       </c>
       <c r="AC3">
-        <v>-0.099858380289596163</v>
+        <v>-0.089318573316219049</v>
       </c>
       <c r="AD3">
-        <v>-0.061882122169590617</v>
+        <v>-0.049431231916013327</v>
       </c>
       <c r="AE3">
-        <v>-0.10196599302333735</v>
+        <v>-0.076600322994070186</v>
       </c>
       <c r="AF3">
-        <v>-0.099611678091195227</v>
+        <v>-0.062508505944044668</v>
       </c>
       <c r="AG3">
-        <v>-0.064738969393221421</v>
+        <v>-0.021414775996310472</v>
       </c>
       <c r="AH3">
-        <v>-0.018397627202826918</v>
+        <v>-0.058600037354410876</v>
       </c>
       <c r="AI3">
-        <v>-0.049123383417674346</v>
+        <v>-0.017506713405471771</v>
       </c>
       <c r="AJ3">
-        <v>-0.060556656116225398</v>
+        <v>-0.012352137248693752</v>
       </c>
       <c r="AK3">
-        <v>-0.049002783143659502</v>
+        <v>-0.036644955654552371</v>
       </c>
       <c r="AL3">
-        <v>-0.075334315236481597</v>
+        <v>-0.035461209989181397</v>
       </c>
       <c r="AM3">
-        <v>-0.01366903123456145</v>
+        <v>-0.01773717093452739</v>
       </c>
       <c r="AN3">
-        <v>-0.021869725831386359</v>
+        <v>-0.018959873032066452</v>
       </c>
       <c r="AO3">
-        <v>-0.013716112195598327</v>
+        <v>0.0074724562254261584</v>
       </c>
       <c r="AP3">
-        <v>-0.049106074537992338</v>
+        <v>0.0036053232916984975</v>
       </c>
       <c r="AQ3">
-        <v>-0.040248218320448476</v>
+        <v>-0.031840653990959103</v>
       </c>
       <c r="AR3">
-        <v>0.0030936161600635093</v>
+        <v>-0.028364739389487331</v>
       </c>
       <c r="AS3">
-        <v>-0.030262551524051391</v>
+        <v>0.061511163686813558</v>
       </c>
       <c r="AT3">
-        <v>0.019808976585329031</v>
+        <v>0.046316256002117126</v>
       </c>
       <c r="AU3">
-        <v>-0.0048705790392664268</v>
+        <v>0.017136239103523809</v>
       </c>
       <c r="AV3">
-        <v>0.029333563720955566</v>
+        <v>-0.00025028194549096312</v>
       </c>
       <c r="AW3">
-        <v>0.019721873945275005</v>
+        <v>0.019517916815619325</v>
       </c>
       <c r="AX3">
-        <v>-0.019874735125899986</v>
+        <v>-0.0064084988387184093</v>
       </c>
       <c r="AY3">
-        <v>0.063222169113617041</v>
+        <v>0.018132503868190666</v>
       </c>
       <c r="AZ3">
-        <v>-0.011592222178313943</v>
+        <v>0.049687698061547117</v>
       </c>
       <c r="BA3">
-        <v>0.020305621900061344</v>
+        <v>0.046246823240095485</v>
       </c>
       <c r="BB3">
-        <v>0.032484261383650979</v>
+        <v>0.050769267589516033</v>
       </c>
       <c r="BC3">
-        <v>0.048365658705258843</v>
+        <v>0.076476406078663767</v>
       </c>
       <c r="BD3">
-        <v>0.019565559823916709</v>
+        <v>0.0026374440402035988</v>
       </c>
       <c r="BE3">
-        <v>0.011575910436421581</v>
+        <v>0.027302900077122272</v>
       </c>
       <c r="BF3">
-        <v>0.02766042724771775</v>
+        <v>0.0439624015164067</v>
       </c>
       <c r="BG3">
-        <v>0.024872722829483246</v>
+        <v>0.032811309557627545</v>
       </c>
       <c r="BH3">
-        <v>0.036783071694106495</v>
+        <v>0.010266373104633885</v>
       </c>
       <c r="BI3">
-        <v>0.0096502779560083147</v>
+        <v>0.038859672689364542</v>
       </c>
       <c r="BJ3">
-        <v>0.033882956854504348</v>
+        <v>0.017485668367678647</v>
       </c>
       <c r="BK3">
-        <v>0.0002876543679748795</v>
+        <v>0.0078868837974481101</v>
       </c>
       <c r="BL3">
-        <v>0.058425022298096013</v>
+        <v>0.066030817246693713</v>
       </c>
       <c r="BM3">
-        <v>0.0364786676583716</v>
+        <v>0.036207549164775421</v>
       </c>
       <c r="BN3">
-        <v>0.036638176644989327</v>
+        <v>0.013585658682619881</v>
       </c>
       <c r="BO3">
-        <v>0.010200213930545153</v>
+        <v>0.012244196564200388</v>
       </c>
       <c r="BP3">
-        <v>0.020111407458972854</v>
+        <v>0.031699628947917766</v>
       </c>
       <c r="BQ3">
-        <v>0.063971910321682493</v>
+        <v>0.03014293386455013</v>
       </c>
       <c r="BR3">
-        <v>0.038426881840433476</v>
+        <v>0.034670262052065907</v>
       </c>
       <c r="BS3">
-        <v>-0.0056233502566630121</v>
+        <v>0.041362247566479514</v>
       </c>
       <c r="BT3">
-        <v>0.0050079097461811634</v>
+        <v>0.018812296754478711</v>
       </c>
       <c r="BU3">
-        <v>0.015493761998183961</v>
+        <v>0.032285205110481725</v>
       </c>
       <c r="BV3">
-        <v>0.074942920676229513</v>
+        <v>0.082400103086373702</v>
       </c>
       <c r="BW3">
-        <v>-0.017857312443660314</v>
+        <v>0.038787091266929127</v>
       </c>
       <c r="BX3">
-        <v>0.0049108491391055614</v>
+        <v>0.052250033098244775</v>
       </c>
       <c r="BY3">
-        <v>0.033301742489565717</v>
+        <v>0.038728926833555853</v>
       </c>
       <c r="BZ3">
-        <v>0.0052942915378340763</v>
+        <v>0.020057075323098309</v>
       </c>
       <c r="CA3">
-        <v>-0.011303562811945179</v>
+        <v>0.061630140131463153</v>
       </c>
       <c r="CB3">
-        <v>0.030070423501502158</v>
+        <v>0.072070168623502115</v>
       </c>
       <c r="CC3">
-        <v>0.027890174610709653</v>
+        <v>0.050195807511572522</v>
       </c>
       <c r="CD3">
-        <v>-0.02462334231243514</v>
+        <v>0.04423213312015746</v>
       </c>
       <c r="CE3">
-        <v>0.026323834860216205</v>
+        <v>0.052619102327751834</v>
       </c>
       <c r="CF3">
-        <v>-0.006472464749403742</v>
+        <v>0.0158898386258816</v>
       </c>
       <c r="CG3">
-        <v>0.013510252713855355</v>
+        <v>-0.0025359991961609991</v>
       </c>
       <c r="CH3">
-        <v>0.0007891267808673993</v>
+        <v>0.0071460063497118765</v>
       </c>
       <c r="CI3">
-        <v>0.0010679825493339343</v>
+        <v>0.026186146836881672</v>
       </c>
       <c r="CJ3">
-        <v>0.010540186013910371</v>
+        <v>-0.017083380619002633</v>
       </c>
       <c r="CK3">
-        <v>0.011155664437142703</v>
+        <v>0.028770898658039619</v>
       </c>
       <c r="CL3">
-        <v>0.035489884639857985</v>
+        <v>0.014164658669808925</v>
       </c>
       <c r="CM3">
-        <v>-0.010488074467080872</v>
+        <v>0.035279109511533166</v>
       </c>
       <c r="CN3">
-        <v>-0.012427711210607395</v>
+        <v>-0.0021171193341912682</v>
       </c>
       <c r="CO3">
-        <v>-0.049428893956848123</v>
+        <v>0.012475167424871042</v>
       </c>
       <c r="CP3">
-        <v>0.017630192977161487</v>
+        <v>0.023833260425766861</v>
       </c>
       <c r="CQ3">
-        <v>-0.0051197759847951057</v>
+        <v>0.029353572529757264</v>
       </c>
       <c r="CR3">
-        <v>-0.012921221061615999</v>
+        <v>0.016174514488508967</v>
       </c>
       <c r="CS3">
-        <v>-0.0023240456355754129</v>
+        <v>0.015030433808689458</v>
       </c>
       <c r="CT3">
-        <v>0.024882540742869507</v>
+        <v>-0.0078845150937935267</v>
       </c>
       <c r="CU3">
-        <v>0.0424273144060918</v>
+        <v>-0.0074458425166885247</v>
       </c>
       <c r="CV3">
-        <v>0.01002644174820062</v>
+        <v>0.046513748731490133</v>
       </c>
       <c r="CW3">
-        <v>-0.04902931366869355</v>
+        <v>0.031834560490382892</v>
       </c>
       <c r="CX3">
-        <v>0.015873066220381989</v>
+        <v>0.014443956558244025</v>
       </c>
       <c r="CY3">
-        <v>0.023315427121774548</v>
+        <v>0.033558815167253314</v>
       </c>
       <c r="CZ3">
-        <v>0.0080828097446902208</v>
+        <v>0.0044651058958475867</v>
       </c>
       <c r="DA3">
-        <v>-0.014535133223047276</v>
+        <v>-0.0072248463915795735</v>
       </c>
       <c r="DB3">
-        <v>-0.0062664683608125073</v>
+        <v>-0.047277791671947893</v>
       </c>
       <c r="DC3">
-        <v>-0.0069930231942610492</v>
+        <v>-0.0093480569192908557</v>
       </c>
       <c r="DD3">
-        <v>-0.010948190822805341</v>
+        <v>0.015646965981920349</v>
       </c>
       <c r="DE3">
-        <v>0.0022985722182615126</v>
+        <v>0.012871111029701753</v>
       </c>
       <c r="DF3">
-        <v>0.002029093212283198</v>
+        <v>-0.019955718590125703</v>
       </c>
       <c r="DG3">
-        <v>-0.070188940282707488</v>
+        <v>-0.0097464773622780911</v>
       </c>
       <c r="DH3">
-        <v>-0.017653837688490749</v>
+        <v>-0.0055585997331538111</v>
       </c>
       <c r="DI3">
-        <v>-0.066786143981448998</v>
+        <v>-0.016078345730885242</v>
       </c>
       <c r="DJ3">
-        <v>-0.002495149005637375</v>
+        <v>-0.017161379446987084</v>
       </c>
       <c r="DK3">
-        <v>-0.05242852566648442</v>
+        <v>0.013354761178244974</v>
       </c>
       <c r="DL3">
-        <v>0.021530460354161181</v>
+        <v>0.02382112505002967</v>
       </c>
       <c r="DM3">
-        <v>-0.011634424786854083</v>
+        <v>-0.039030620383542595</v>
       </c>
       <c r="DN3">
-        <v>0.025552171663454651</v>
+        <v>0.05224939855778693</v>
       </c>
       <c r="DO3">
-        <v>0.012360846558197332</v>
+        <v>0.01129173198497216</v>
       </c>
       <c r="DP3">
-        <v>0.044318980588660011</v>
+        <v>-0.012931279262449224</v>
       </c>
       <c r="DQ3">
-        <v>0.0075039318631192628</v>
+        <v>0.027889875364211246</v>
       </c>
       <c r="DR3">
-        <v>0.0070177941761972772</v>
+        <v>0.0035317227305135734</v>
       </c>
       <c r="DS3">
-        <v>0.0078446882656905415</v>
+        <v>-0.0073999074172237597</v>
       </c>
       <c r="DT3">
-        <v>0.024585226744778567</v>
+        <v>0.02112571998697084</v>
       </c>
       <c r="DU3">
-        <v>-0.0010626522922839608</v>
+        <v>0.0030146531508268705</v>
       </c>
       <c r="DV3">
-        <v>0.057360568860643106</v>
+        <v>0.043571901886875306</v>
       </c>
       <c r="DW3">
-        <v>-0.020227367505012445</v>
+        <v>0.016609723666456442</v>
       </c>
       <c r="DX3">
-        <v>0.020669188183493274</v>
+        <v>0.047674576571062631</v>
       </c>
       <c r="DY3">
-        <v>-0.052469199056226143</v>
+        <v>0.018453182112059322</v>
       </c>
       <c r="DZ3">
-        <v>-0.011022941488653046</v>
+        <v>3.1128707857732767e-05</v>
       </c>
       <c r="EA3">
-        <v>0.0048377369859348689</v>
+        <v>-0.014061897641255774</v>
       </c>
       <c r="EB3">
-        <v>-0.0053189698989955063</v>
+        <v>0.023644079544221961</v>
       </c>
       <c r="EC3">
-        <v>0.0014148223943425656</v>
+        <v>0.026176405034488332</v>
       </c>
       <c r="ED3">
-        <v>-0.003928078316304125</v>
+        <v>-0.0026302347513314137</v>
       </c>
       <c r="EE3">
-        <v>-0.048041506336357433</v>
+        <v>-0.022320011997263842</v>
       </c>
       <c r="EF3">
-        <v>-0.015212098398129838</v>
+        <v>-0.0071441938528887276</v>
       </c>
       <c r="EG3">
         <v>0</v>
       </c>
       <c r="EH3">
-        <v>-0.042824042271121431</v>
+        <v>-0.025782547927737192</v>
       </c>
       <c r="EI3">
-        <v>-0.014668265296834144</v>
+        <v>0.0038395502321444458</v>
       </c>
       <c r="EJ3">
-        <v>0.0096627247103746889</v>
+        <v>-0.029874166241722306</v>
       </c>
       <c r="EK3">
-        <v>-0.023777297355541689</v>
+        <v>-0.0084790415365180016</v>
       </c>
       <c r="EL3">
-        <v>0.011757043833398272</v>
+        <v>-0.013601986838985324</v>
       </c>
       <c r="EM3">
-        <v>-0.061445490844832494</v>
+        <v>-0.045210642725233979</v>
       </c>
       <c r="EN3">
-        <v>-0.035064026026023785</v>
+        <v>0.011695633724453695</v>
       </c>
       <c r="EO3">
-        <v>0.0027903892576006208</v>
+        <v>-0.01996234625111544</v>
       </c>
       <c r="EP3">
-        <v>-0.03559938567024213</v>
+        <v>0.019954818864321378</v>
       </c>
       <c r="EQ3">
-        <v>-0.018046737408301174</v>
+        <v>-0.00086377759202267972</v>
       </c>
       <c r="ER3">
-        <v>-0.035864253987354745</v>
+        <v>-0.014550265461271814</v>
       </c>
       <c r="ES3">
-        <v>-0.024338065114336362</v>
+        <v>-0.024477571578640892</v>
       </c>
       <c r="ET3">
-        <v>-0.030423911957839785</v>
+        <v>-0.020853985313352016</v>
       </c>
       <c r="EU3">
-        <v>-0.044744591953464342</v>
+        <v>0.010681945646006294</v>
       </c>
       <c r="EV3">
-        <v>-0.04392349874441117</v>
+        <v>-0.027250111079352532</v>
       </c>
       <c r="EW3">
-        <v>-0.018391769891103218</v>
+        <v>-0.011094256199222895</v>
       </c>
       <c r="EX3">
-        <v>-0.032573884873033754</v>
+        <v>-0.026216776066133176</v>
       </c>
       <c r="EY3">
-        <v>-0.011991156456172644</v>
+        <v>-0.0064717471823742198</v>
       </c>
       <c r="EZ3">
-        <v>-0.055477645085711493</v>
+        <v>-0.037640406737024262</v>
       </c>
       <c r="FA3">
-        <v>-0.033101948355634292</v>
+        <v>-0.0081573786824701341</v>
       </c>
       <c r="FB3">
-        <v>-0.020782481475385028</v>
+        <v>-0.030949081518541994</v>
       </c>
       <c r="FC3">
-        <v>0.023360373470229231</v>
+        <v>-0.024148836362378065</v>
       </c>
       <c r="FD3">
-        <v>-0.021083091951350132</v>
+        <v>-0.0022871775833543228</v>
       </c>
       <c r="FE3">
-        <v>-0.044856492196634061</v>
+        <v>-0.021478159182046468</v>
       </c>
       <c r="FF3">
-        <v>-0.001618086040015305</v>
+        <v>-0.023443992926627501</v>
       </c>
       <c r="FG3">
-        <v>-0.040470271767352843</v>
+        <v>-0.083332038489729338</v>
       </c>
       <c r="FH3">
-        <v>-0.039300663093334902</v>
+        <v>-0.04437915017045943</v>
       </c>
       <c r="FI3">
-        <v>-0.096355411538437755</v>
+        <v>-0.0046088933681964735</v>
       </c>
       <c r="FJ3">
-        <v>-0.04870526119413468</v>
+        <v>-0.0037112388674076075</v>
       </c>
       <c r="FK3">
-        <v>-0.064695820845610402</v>
+        <v>-0.05392331135115571</v>
       </c>
       <c r="FL3">
-        <v>-0.014168969238905019</v>
+        <v>-0.018628603006386614</v>
       </c>
       <c r="FM3">
-        <v>-0.10710079412089941</v>
+        <v>-0.029858135359932012</v>
       </c>
       <c r="FN3">
-        <v>-0.024783593083607475</v>
+        <v>-0.069680884197350981</v>
       </c>
       <c r="FO3">
-        <v>0.01914366802943648</v>
+        <v>-0.030657469735055766</v>
       </c>
       <c r="FP3">
-        <v>-0.034309762999956903</v>
+        <v>-0.051741809225430417</v>
       </c>
       <c r="FQ3">
-        <v>-0.092023697800575399</v>
+        <v>-0.036878588310399196</v>
       </c>
       <c r="FR3">
-        <v>-0.05661611927805732</v>
+        <v>-0.031390007177763982</v>
       </c>
       <c r="FS3">
-        <v>-0.043679980875749189</v>
+        <v>-0.028344056939190562</v>
       </c>
       <c r="FT3">
-        <v>-0.045668431572139602</v>
+        <v>-0.041709445868755211</v>
       </c>
       <c r="FU3">
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.4806232070385983</v>
+        <v>-5.4841919485592419</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -8733,535 +8733,535 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.025964677696285739</v>
+        <v>0.025667767709293653</v>
       </c>
       <c r="C4">
-        <v>0.012976877097547891</v>
+        <v>0.012828484559989759</v>
       </c>
       <c r="D4">
-        <v>0.014907056600545789</v>
+        <v>0.01473659217063332</v>
       </c>
       <c r="E4">
-        <v>0.014514130746291237</v>
+        <v>0.014348159482503925</v>
       </c>
       <c r="F4">
-        <v>0.014476616802873161</v>
+        <v>0.01431107451666002</v>
       </c>
       <c r="G4">
-        <v>0.016702301846055968</v>
+        <v>0.016511308517278396</v>
       </c>
       <c r="H4">
-        <v>0.019656052885667449</v>
+        <v>0.019431282970366934</v>
       </c>
       <c r="I4">
-        <v>0.018264738072232889</v>
+        <v>0.018055878050673047</v>
       </c>
       <c r="J4">
-        <v>0.015004246438827239</v>
+        <v>0.01483267062852494</v>
       </c>
       <c r="K4">
-        <v>0.012391001677691084</v>
+        <v>0.012249308713504261</v>
       </c>
       <c r="L4">
-        <v>0.012420083489504161</v>
+        <v>0.012278057970433812</v>
       </c>
       <c r="M4">
-        <v>0.012623015237285054</v>
+        <v>0.012478669163216922</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.029104707533349299</v>
+        <v>0.028771890833823255</v>
       </c>
       <c r="P4">
-        <v>0.029104707533349303</v>
+        <v>0.028771890833823262</v>
       </c>
       <c r="Q4">
-        <v>0.029104707533349299</v>
+        <v>0.028771890833823258</v>
       </c>
       <c r="R4">
-        <v>0.029104707533349303</v>
+        <v>0.028771890833823262</v>
       </c>
       <c r="S4">
-        <v>0.029104707533349299</v>
+        <v>0.028771890833823255</v>
       </c>
       <c r="T4">
-        <v>0.029104707533349303</v>
+        <v>0.028771890833823262</v>
       </c>
       <c r="U4">
-        <v>0.02910470753334931</v>
+        <v>0.028771890833823265</v>
       </c>
       <c r="V4">
-        <v>0.02910470753334931</v>
+        <v>0.028771890833823265</v>
       </c>
       <c r="W4">
-        <v>0.02910470753334931</v>
+        <v>0.028771890833823265</v>
       </c>
       <c r="X4">
-        <v>0.02910470753334931</v>
+        <v>0.028771890833823265</v>
       </c>
       <c r="Y4">
-        <v>0.029104707533349313</v>
+        <v>0.028771890833823269</v>
       </c>
       <c r="Z4">
-        <v>0.02910470753334931</v>
+        <v>0.028771890833823265</v>
       </c>
       <c r="AA4">
-        <v>0.029104707533349317</v>
+        <v>0.028771890833823272</v>
       </c>
       <c r="AB4">
-        <v>0.029104707533349313</v>
+        <v>0.028771890833823269</v>
       </c>
       <c r="AC4">
-        <v>0.029104707533349317</v>
+        <v>0.028771890833823272</v>
       </c>
       <c r="AD4">
-        <v>0.029104707533349317</v>
+        <v>0.028771890833823276</v>
       </c>
       <c r="AE4">
-        <v>0.02910470753334932</v>
+        <v>0.028771890833823276</v>
       </c>
       <c r="AF4">
-        <v>0.029104707533349324</v>
+        <v>0.028771890833823283</v>
       </c>
       <c r="AG4">
-        <v>0.02910470753334933</v>
+        <v>0.028771890833823286</v>
       </c>
       <c r="AH4">
-        <v>0.029104707533349324</v>
+        <v>0.028771890833823283</v>
       </c>
       <c r="AI4">
-        <v>0.029104707533349327</v>
+        <v>0.028771890833823283</v>
       </c>
       <c r="AJ4">
-        <v>0.029104707533349337</v>
+        <v>0.028771890833823293</v>
       </c>
       <c r="AK4">
-        <v>0.029104707533349334</v>
+        <v>0.02877189083382329</v>
       </c>
       <c r="AL4">
-        <v>0.029104707533349337</v>
+        <v>0.028771890833823293</v>
       </c>
       <c r="AM4">
-        <v>0.029104707533349337</v>
+        <v>0.028771890833823293</v>
       </c>
       <c r="AN4">
-        <v>0.029104707533349344</v>
+        <v>0.028771890833823303</v>
       </c>
       <c r="AO4">
-        <v>0.029104707533349337</v>
+        <v>0.028771890833823293</v>
       </c>
       <c r="AP4">
-        <v>0.029104707533349344</v>
+        <v>0.028771890833823303</v>
       </c>
       <c r="AQ4">
-        <v>0.029104707533349337</v>
+        <v>0.028771890833823293</v>
       </c>
       <c r="AR4">
-        <v>0.029104707533349355</v>
+        <v>0.02877189083382331</v>
       </c>
       <c r="AS4">
-        <v>0.029104707533349344</v>
+        <v>0.028771890833823303</v>
       </c>
       <c r="AT4">
-        <v>0.029104707533349355</v>
+        <v>0.02877189083382331</v>
       </c>
       <c r="AU4">
-        <v>0.029104707533349348</v>
+        <v>0.028771890833823303</v>
       </c>
       <c r="AV4">
-        <v>0.029104707533349355</v>
+        <v>0.02877189083382331</v>
       </c>
       <c r="AW4">
-        <v>0.029104707533349344</v>
+        <v>0.028771890833823303</v>
       </c>
       <c r="AX4">
-        <v>0.029104707533349358</v>
+        <v>0.02877189083382331</v>
       </c>
       <c r="AY4">
-        <v>0.029104707533349358</v>
+        <v>0.02877189083382331</v>
       </c>
       <c r="AZ4">
-        <v>0.029104707533349365</v>
+        <v>0.028771890833823321</v>
       </c>
       <c r="BA4">
-        <v>0.029104707533349369</v>
+        <v>0.028771890833823324</v>
       </c>
       <c r="BB4">
-        <v>0.029104707533349365</v>
+        <v>0.028771890833823324</v>
       </c>
       <c r="BC4">
-        <v>0.029104707533349365</v>
+        <v>0.028771890833823324</v>
       </c>
       <c r="BD4">
-        <v>0.029104707533349372</v>
+        <v>0.028771890833823328</v>
       </c>
       <c r="BE4">
-        <v>0.029104707533349372</v>
+        <v>0.028771890833823328</v>
       </c>
       <c r="BF4">
-        <v>0.029104707533349372</v>
+        <v>0.028771890833823328</v>
       </c>
       <c r="BG4">
-        <v>0.029104707533349365</v>
+        <v>0.028771890833823324</v>
       </c>
       <c r="BH4">
-        <v>0.029104707533349376</v>
+        <v>0.028771890833823331</v>
       </c>
       <c r="BI4">
-        <v>0.029104707533349376</v>
+        <v>0.028771890833823331</v>
       </c>
       <c r="BJ4">
-        <v>0.029104707533349376</v>
+        <v>0.028771890833823331</v>
       </c>
       <c r="BK4">
-        <v>0.029104707533349376</v>
+        <v>0.028771890833823331</v>
       </c>
       <c r="BL4">
-        <v>0.029104707533349376</v>
+        <v>0.028771890833823331</v>
       </c>
       <c r="BM4">
-        <v>0.029104707533349376</v>
+        <v>0.028771890833823331</v>
       </c>
       <c r="BN4">
-        <v>0.029104707533349376</v>
+        <v>0.028771890833823331</v>
       </c>
       <c r="BO4">
-        <v>0.029104707533349379</v>
+        <v>0.028771890833823338</v>
       </c>
       <c r="BP4">
-        <v>0.029104707533349376</v>
+        <v>0.028771890833823335</v>
       </c>
       <c r="BQ4">
-        <v>0.029104707533349379</v>
+        <v>0.028771890833823338</v>
       </c>
       <c r="BR4">
-        <v>0.029104707533349379</v>
+        <v>0.028771890833823338</v>
       </c>
       <c r="BS4">
-        <v>0.029104707533349379</v>
+        <v>0.028771890833823338</v>
       </c>
       <c r="BT4">
-        <v>0.029104707533349379</v>
+        <v>0.028771890833823338</v>
       </c>
       <c r="BU4">
-        <v>0.029104707533349379</v>
+        <v>0.028771890833823338</v>
       </c>
       <c r="BV4">
-        <v>0.029104707533349379</v>
+        <v>0.028771890833823338</v>
       </c>
       <c r="BW4">
-        <v>0.029104707533349383</v>
+        <v>0.028771890833823338</v>
       </c>
       <c r="BX4">
-        <v>0.029104707533349389</v>
+        <v>0.028771890833823345</v>
       </c>
       <c r="BY4">
-        <v>0.029104707533349389</v>
+        <v>0.028771890833823345</v>
       </c>
       <c r="BZ4">
-        <v>0.029104707533349386</v>
+        <v>0.028771890833823342</v>
       </c>
       <c r="CA4">
-        <v>0.029104707533349386</v>
+        <v>0.028771890833823342</v>
       </c>
       <c r="CB4">
-        <v>0.029104707533349386</v>
+        <v>0.028771890833823342</v>
       </c>
       <c r="CC4">
-        <v>0.029104707533349386</v>
+        <v>0.028771890833823342</v>
       </c>
       <c r="CD4">
-        <v>0.029104707533349389</v>
+        <v>0.028771890833823345</v>
       </c>
       <c r="CE4">
-        <v>0.029104707533349389</v>
+        <v>0.028771890833823345</v>
       </c>
       <c r="CF4">
-        <v>0.029104707533349386</v>
+        <v>0.028771890833823342</v>
       </c>
       <c r="CG4">
-        <v>0.029104707533349389</v>
+        <v>0.028771890833823345</v>
       </c>
       <c r="CH4">
-        <v>0.029104707533349393</v>
+        <v>0.028771890833823349</v>
       </c>
       <c r="CI4">
-        <v>0.029104707533349393</v>
+        <v>0.028771890833823349</v>
       </c>
       <c r="CJ4">
-        <v>0.029104707533349396</v>
+        <v>0.028771890833823352</v>
       </c>
       <c r="CK4">
-        <v>0.029104707533349393</v>
+        <v>0.028771890833823349</v>
       </c>
       <c r="CL4">
-        <v>0.029104707533349396</v>
+        <v>0.028771890833823352</v>
       </c>
       <c r="CM4">
-        <v>0.029104707533349396</v>
+        <v>0.028771890833823352</v>
       </c>
       <c r="CN4">
-        <v>0.029104707533349396</v>
+        <v>0.028771890833823352</v>
       </c>
       <c r="CO4">
-        <v>0.029104707533349396</v>
+        <v>0.028771890833823352</v>
       </c>
       <c r="CP4">
-        <v>0.029104707533349396</v>
+        <v>0.028771890833823352</v>
       </c>
       <c r="CQ4">
-        <v>0.029104707533349396</v>
+        <v>0.028771890833823352</v>
       </c>
       <c r="CR4">
-        <v>0.029104707533349396</v>
+        <v>0.028771890833823355</v>
       </c>
       <c r="CS4">
-        <v>0.028514194812076087</v>
+        <v>0.028188130714159151</v>
       </c>
       <c r="CT4">
-        <v>0.028514194812076087</v>
+        <v>0.028188130714159151</v>
       </c>
       <c r="CU4">
-        <v>0.028514194812076087</v>
+        <v>0.028188130714159151</v>
       </c>
       <c r="CV4">
-        <v>0.028514194812076087</v>
+        <v>0.028188130714159151</v>
       </c>
       <c r="CW4">
-        <v>0.028514194812076087</v>
+        <v>0.028188130714159151</v>
       </c>
       <c r="CX4">
-        <v>0.02916517561881064</v>
+        <v>0.028831667457650534</v>
       </c>
       <c r="CY4">
-        <v>0.029165175618810643</v>
+        <v>0.028831667457650537</v>
       </c>
       <c r="CZ4">
-        <v>0.029165175618810643</v>
+        <v>0.028831667457650541</v>
       </c>
       <c r="DA4">
-        <v>0.029165175618810647</v>
+        <v>0.028831667457650544</v>
       </c>
       <c r="DB4">
-        <v>0.029165175618810643</v>
+        <v>0.028831667457650541</v>
       </c>
       <c r="DC4">
-        <v>0.029159082070761105</v>
+        <v>0.028825643590237642</v>
       </c>
       <c r="DD4">
-        <v>0.029159082070761101</v>
+        <v>0.028825643590237638</v>
       </c>
       <c r="DE4">
-        <v>0.029159082070761105</v>
+        <v>0.028825643590237642</v>
       </c>
       <c r="DF4">
-        <v>0.029159082070761101</v>
+        <v>0.028825643590237642</v>
       </c>
       <c r="DG4">
-        <v>0.029159082070761101</v>
+        <v>0.028825643590237642</v>
       </c>
       <c r="DH4">
-        <v>0.028847344037135132</v>
+        <v>0.028517470327820909</v>
       </c>
       <c r="DI4">
-        <v>0.028847344037135132</v>
+        <v>0.028517470327820909</v>
       </c>
       <c r="DJ4">
-        <v>0.028847344037135139</v>
+        <v>0.028517470327820912</v>
       </c>
       <c r="DK4">
-        <v>0.029008287715050977</v>
+        <v>0.028676573590620671</v>
       </c>
       <c r="DL4">
-        <v>0.029008287715050977</v>
+        <v>0.028676573590620671</v>
       </c>
       <c r="DM4">
-        <v>0.025075849499284514</v>
+        <v>0.024789103396146355</v>
       </c>
       <c r="DN4">
-        <v>0.029593660693439834</v>
+        <v>0.029255252741131825</v>
       </c>
       <c r="DO4">
-        <v>0.029593660693439834</v>
+        <v>0.029255252741131825</v>
       </c>
       <c r="DP4">
-        <v>0.029052940968441188</v>
+        <v>0.028720716227355503</v>
       </c>
       <c r="DQ4">
-        <v>0.029052940968441188</v>
+        <v>0.028720716227355503</v>
       </c>
       <c r="DR4">
-        <v>0.02950720345483801</v>
+        <v>0.029169784154031434</v>
       </c>
       <c r="DS4">
-        <v>0.029692028250278397</v>
+        <v>0.02935249545019207</v>
       </c>
       <c r="DT4">
-        <v>0.029692028250278397</v>
+        <v>0.02935249545019207</v>
       </c>
       <c r="DU4">
-        <v>0.029692028250278397</v>
+        <v>0.02935249545019207</v>
       </c>
       <c r="DV4">
-        <v>0.029692028250278394</v>
+        <v>0.029352495450192067</v>
       </c>
       <c r="DW4">
-        <v>0.029358462742944968</v>
+        <v>0.029022744314506226</v>
       </c>
       <c r="DX4">
-        <v>0.029630330441632824</v>
+        <v>0.029291503165249765</v>
       </c>
       <c r="DY4">
-        <v>0.02963033044163282</v>
+        <v>0.029291503165249762</v>
       </c>
       <c r="DZ4">
-        <v>0.029630330441632824</v>
+        <v>0.029291503165249765</v>
       </c>
       <c r="EA4">
-        <v>0.02963033044163282</v>
+        <v>0.029291503165249762</v>
       </c>
       <c r="EB4">
-        <v>0.02906982351133797</v>
+        <v>0.028737405715840037</v>
       </c>
       <c r="EC4">
-        <v>0.027453049164012141</v>
+        <v>0.027139119425868462</v>
       </c>
       <c r="ED4">
-        <v>0.027453049164012141</v>
+        <v>0.027139119425868462</v>
       </c>
       <c r="EE4">
-        <v>0.02783135115469933</v>
+        <v>0.027513095476505565</v>
       </c>
       <c r="EF4">
-        <v>0.02783135115469933</v>
+        <v>0.027513095476505565</v>
       </c>
       <c r="EG4">
         <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.029227630145743963</v>
+        <v>0.02889340780769338</v>
       </c>
       <c r="EI4">
-        <v>0.029227630145743963</v>
+        <v>0.02889340780769338</v>
       </c>
       <c r="EJ4">
-        <v>0.028881580464819877</v>
+        <v>0.028551315256815878</v>
       </c>
       <c r="EK4">
-        <v>0.028881580464819884</v>
+        <v>0.028551315256815882</v>
       </c>
       <c r="EL4">
-        <v>0.028881580464819877</v>
+        <v>0.028551315256815878</v>
       </c>
       <c r="EM4">
-        <v>0.028814373880904062</v>
+        <v>0.028484877190275461</v>
       </c>
       <c r="EN4">
-        <v>0.028814373880904062</v>
+        <v>0.028484877190275461</v>
       </c>
       <c r="EO4">
-        <v>0.028814373880904062</v>
+        <v>0.028484877190275461</v>
       </c>
       <c r="EP4">
-        <v>0.028814373880904062</v>
+        <v>0.028484877190275461</v>
       </c>
       <c r="EQ4">
-        <v>0.028814373880904066</v>
+        <v>0.028484877190275464</v>
       </c>
       <c r="ER4">
-        <v>0.028756972794093463</v>
+        <v>0.028428132493508968</v>
       </c>
       <c r="ES4">
-        <v>0.028756972794093467</v>
+        <v>0.028428132493508972</v>
       </c>
       <c r="ET4">
-        <v>0.028756972794093467</v>
+        <v>0.028428132493508972</v>
       </c>
       <c r="EU4">
-        <v>0.02875697279409347</v>
+        <v>0.028428132493508975</v>
       </c>
       <c r="EV4">
-        <v>0.028756972794093474</v>
+        <v>0.028428132493508979</v>
       </c>
       <c r="EW4">
-        <v>0.026918994546899236</v>
+        <v>0.026611171803468711</v>
       </c>
       <c r="EX4">
-        <v>0.026918994546899236</v>
+        <v>0.026611171803468715</v>
       </c>
       <c r="EY4">
-        <v>0.026918994546899239</v>
+        <v>0.026611171803468718</v>
       </c>
       <c r="EZ4">
-        <v>0.026918994546899239</v>
+        <v>0.026611171803468718</v>
       </c>
       <c r="FA4">
-        <v>0.026918994546899239</v>
+        <v>0.026611171803468718</v>
       </c>
       <c r="FB4">
-        <v>0.028559483349607843</v>
+        <v>0.02823290137046601</v>
       </c>
       <c r="FC4">
-        <v>0.028559483349607843</v>
+        <v>0.02823290137046601</v>
       </c>
       <c r="FD4">
-        <v>0.028559483349607853</v>
+        <v>0.02823290137046602</v>
       </c>
       <c r="FE4">
-        <v>0.028559483349607843</v>
+        <v>0.02823290137046601</v>
       </c>
       <c r="FF4">
-        <v>0.028559483349607853</v>
+        <v>0.02823290137046602</v>
       </c>
       <c r="FG4">
-        <v>0.028559483349607846</v>
+        <v>0.028232901370466013</v>
       </c>
       <c r="FH4">
-        <v>0.028559483349607853</v>
+        <v>0.02823290137046602</v>
       </c>
       <c r="FI4">
-        <v>0.028559483349607853</v>
+        <v>0.02823290137046602</v>
       </c>
       <c r="FJ4">
-        <v>0.028559483349607857</v>
+        <v>0.02823290137046602</v>
       </c>
       <c r="FK4">
-        <v>0.028559483349607857</v>
+        <v>0.028232901370466024</v>
       </c>
       <c r="FL4">
-        <v>0.028559483349607857</v>
+        <v>0.02823290137046602</v>
       </c>
       <c r="FM4">
-        <v>0.028559483349607857</v>
+        <v>0.028232901370466024</v>
       </c>
       <c r="FN4">
-        <v>0.028559483349607857</v>
+        <v>0.028232901370466024</v>
       </c>
       <c r="FO4">
-        <v>0.02855948334960786</v>
+        <v>0.028232901370466027</v>
       </c>
       <c r="FP4">
-        <v>0.028559483349607857</v>
+        <v>0.028232901370466024</v>
       </c>
       <c r="FQ4">
-        <v>0.02855948334960786</v>
+        <v>0.028232901370466027</v>
       </c>
       <c r="FR4">
-        <v>0.02855948334960786</v>
+        <v>0.028232901370466027</v>
       </c>
       <c r="FS4">
-        <v>0.028559483349607857</v>
+        <v>0.028232901370466024</v>
       </c>
       <c r="FT4">
-        <v>0.02855948334960786</v>
+        <v>0.028232901370466027</v>
       </c>
       <c r="FU4">
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.023186170802274014</v>
+        <v>0.022921033458694187</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -9820,535 +9820,535 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>2.1156250938861079</v>
+        <v>2.1549754632635829</v>
       </c>
       <c r="C3">
-        <v>-0.76663262406213606</v>
+        <v>-0.75173600181360334</v>
       </c>
       <c r="D3">
-        <v>-0.7913404573690983</v>
+        <v>-0.79949382809896929</v>
       </c>
       <c r="E3">
-        <v>-0.80817212056281795</v>
+        <v>-0.78697741872205373</v>
       </c>
       <c r="F3">
-        <v>-0.81915694629728719</v>
+        <v>-0.80659813969792671</v>
       </c>
       <c r="G3">
-        <v>-0.82451906750540949</v>
+        <v>-0.82320604761180571</v>
       </c>
       <c r="H3">
-        <v>-0.82644583544962757</v>
+        <v>-0.80665183357599723</v>
       </c>
       <c r="I3">
-        <v>0.0024165977235115071</v>
+        <v>0.0024627628452494645</v>
       </c>
       <c r="J3">
-        <v>0.0020420937001745382</v>
+        <v>0.0060583089017248086</v>
       </c>
       <c r="K3">
-        <v>-0.0032453759468443807</v>
+        <v>0.0031708693237809957</v>
       </c>
       <c r="L3">
-        <v>0.0078496785185232058</v>
+        <v>0.00096118257501132196</v>
       </c>
       <c r="M3">
-        <v>-0.0067961978812783796</v>
+        <v>-0.0087521423780106394</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.1730083618031715</v>
+        <v>1.1731556224399169</v>
       </c>
       <c r="P3">
-        <v>1.2655611034352927</v>
+        <v>1.2870958039466041</v>
       </c>
       <c r="Q3">
-        <v>-0.27997451652531979</v>
+        <v>-0.27963068333846891</v>
       </c>
       <c r="R3">
-        <v>-0.29962327155536278</v>
+        <v>-0.26406186184285524</v>
       </c>
       <c r="S3">
-        <v>-0.2427142487057844</v>
+        <v>-0.20944427495706924</v>
       </c>
       <c r="T3">
-        <v>-0.28766074831611915</v>
+        <v>-0.21051535834569107</v>
       </c>
       <c r="U3">
-        <v>-0.19085750671722879</v>
+        <v>-0.19503584107222527</v>
       </c>
       <c r="V3">
-        <v>-0.20438119554125597</v>
+        <v>-0.19905234695139093</v>
       </c>
       <c r="W3">
-        <v>-0.22160985645741316</v>
+        <v>-0.14248791522534879</v>
       </c>
       <c r="X3">
-        <v>-0.17011072911921887</v>
+        <v>-0.17613587159527072</v>
       </c>
       <c r="Y3">
-        <v>-0.20308484662096024</v>
+        <v>-0.16537955796136514</v>
       </c>
       <c r="Z3">
-        <v>-0.13436322161916817</v>
+        <v>-0.15988815658307745</v>
       </c>
       <c r="AA3">
-        <v>-0.13446237547097084</v>
+        <v>-0.11138601968005404</v>
       </c>
       <c r="AB3">
-        <v>-0.1534335858441418</v>
+        <v>-0.099247852404325529</v>
       </c>
       <c r="AC3">
-        <v>-0.13746027754308215</v>
+        <v>-0.14785332756470546</v>
       </c>
       <c r="AD3">
-        <v>-0.067941699798979918</v>
+        <v>-0.11101692924553412</v>
       </c>
       <c r="AE3">
-        <v>-0.12630704659970154</v>
+        <v>-0.10066052399019342</v>
       </c>
       <c r="AF3">
-        <v>-0.12217752801410031</v>
+        <v>-0.094423109572321098</v>
       </c>
       <c r="AG3">
-        <v>-0.10209311256410354</v>
+        <v>-0.034430508905623346</v>
       </c>
       <c r="AH3">
-        <v>-0.058441740698284304</v>
+        <v>-0.085012366114432886</v>
       </c>
       <c r="AI3">
-        <v>-0.076944867462411914</v>
+        <v>-0.060427332487206019</v>
       </c>
       <c r="AJ3">
-        <v>-0.1027428739790449</v>
+        <v>-0.058980453480964361</v>
       </c>
       <c r="AK3">
-        <v>-0.087138277939860606</v>
+        <v>-0.075466273362870623</v>
       </c>
       <c r="AL3">
-        <v>-0.10969646183759764</v>
+        <v>-0.081208437138999473</v>
       </c>
       <c r="AM3">
-        <v>-0.058155922600085029</v>
+        <v>-0.03606538500932914</v>
       </c>
       <c r="AN3">
-        <v>-0.055186133946195516</v>
+        <v>-0.066143376019770286</v>
       </c>
       <c r="AO3">
-        <v>-0.088519599646241967</v>
+        <v>-0.0072173594398951468</v>
       </c>
       <c r="AP3">
-        <v>-0.08110939547480904</v>
+        <v>-0.046560007524665249</v>
       </c>
       <c r="AQ3">
-        <v>-0.043297423240265059</v>
+        <v>-0.058949932053664569</v>
       </c>
       <c r="AR3">
-        <v>-0.01519445795567103</v>
+        <v>-0.055548973140965102</v>
       </c>
       <c r="AS3">
-        <v>-0.069009426393422252</v>
+        <v>0.029683597731807846</v>
       </c>
       <c r="AT3">
-        <v>-0.045442378358949577</v>
+        <v>0.01865498420226196</v>
       </c>
       <c r="AU3">
-        <v>-0.024327931410448436</v>
+        <v>0.004564994745875444</v>
       </c>
       <c r="AV3">
-        <v>-0.042720441887365068</v>
+        <v>-0.017467561354467344</v>
       </c>
       <c r="AW3">
-        <v>-0.029872091338824711</v>
+        <v>-0.014457579663159057</v>
       </c>
       <c r="AX3">
-        <v>-0.034461905047843723</v>
+        <v>-0.050712929253438593</v>
       </c>
       <c r="AY3">
-        <v>0.023525076375448532</v>
+        <v>-0.023877622693807908</v>
       </c>
       <c r="AZ3">
-        <v>-0.035134913701803001</v>
+        <v>-0.015991375942903674</v>
       </c>
       <c r="BA3">
-        <v>-0.037260488973781869</v>
+        <v>-0.021210814562990437</v>
       </c>
       <c r="BB3">
-        <v>-0.024143992625856339</v>
+        <v>0.00054841011384730543</v>
       </c>
       <c r="BC3">
-        <v>-0.014221668247101004</v>
+        <v>0.019689845051057874</v>
       </c>
       <c r="BD3">
-        <v>-0.023381368251020579</v>
+        <v>-0.039022652463283639</v>
       </c>
       <c r="BE3">
-        <v>-0.051812720882749547</v>
+        <v>-0.027141440253725051</v>
       </c>
       <c r="BF3">
-        <v>-0.0091967354878097866</v>
+        <v>-0.018348132964149604</v>
       </c>
       <c r="BG3">
-        <v>-0.0048080050366990229</v>
+        <v>-0.019795900814463783</v>
       </c>
       <c r="BH3">
-        <v>-0.014963839572204657</v>
+        <v>0.0044736251029922382</v>
       </c>
       <c r="BI3">
-        <v>-0.015622491690497337</v>
+        <v>-0.017855932918647722</v>
       </c>
       <c r="BJ3">
-        <v>-0.029457792974203624</v>
+        <v>0.0065905208796317762</v>
       </c>
       <c r="BK3">
-        <v>-0.071833771306132138</v>
+        <v>-0.031831750915945013</v>
       </c>
       <c r="BL3">
-        <v>-0.0084032442406883328</v>
+        <v>-0.013573817608574811</v>
       </c>
       <c r="BM3">
-        <v>0.00088137742418638863</v>
+        <v>0.0013382980912160496</v>
       </c>
       <c r="BN3">
-        <v>-0.0059078325075730478</v>
+        <v>0.0053011445676752035</v>
       </c>
       <c r="BO3">
-        <v>-0.056530747242899186</v>
+        <v>0.01047875623449975</v>
       </c>
       <c r="BP3">
-        <v>-0.045994124249355263</v>
+        <v>0.015248167421644997</v>
       </c>
       <c r="BQ3">
-        <v>-0.015765494887007594</v>
+        <v>-0.017073410832170892</v>
       </c>
       <c r="BR3">
-        <v>-0.015472610670316658</v>
+        <v>-0.010060501980607163</v>
       </c>
       <c r="BS3">
-        <v>-0.035266818347267449</v>
+        <v>-0.0041839500320840521</v>
       </c>
       <c r="BT3">
-        <v>-0.059264154081368807</v>
+        <v>-0.014126291444955875</v>
       </c>
       <c r="BU3">
-        <v>-0.031325277257704787</v>
+        <v>-0.022097769799708133</v>
       </c>
       <c r="BV3">
-        <v>0.019976391797318443</v>
+        <v>0.045679001596699353</v>
       </c>
       <c r="BW3">
-        <v>-0.073604800651770844</v>
+        <v>0.051434515855432017</v>
       </c>
       <c r="BX3">
-        <v>-0.040728289818237215</v>
+        <v>0.010064109555991073</v>
       </c>
       <c r="BY3">
-        <v>-0.024739288596076402</v>
+        <v>-0.034689172225739702</v>
       </c>
       <c r="BZ3">
-        <v>-0.062361071657081796</v>
+        <v>-0.038701845608319102</v>
       </c>
       <c r="CA3">
-        <v>-0.042595996867865714</v>
+        <v>-0.0080095495823170604</v>
       </c>
       <c r="CB3">
-        <v>-0.018152421847222395</v>
+        <v>0.013072139654660314</v>
       </c>
       <c r="CC3">
-        <v>-0.006892584725177617</v>
+        <v>-0.0039472691427301651</v>
       </c>
       <c r="CD3">
-        <v>-0.071956514173693295</v>
+        <v>0.010157785530942747</v>
       </c>
       <c r="CE3">
-        <v>-0.021439882207871418</v>
+        <v>0.011754666002551418</v>
       </c>
       <c r="CF3">
-        <v>-0.061957921393726433</v>
+        <v>-0.044538948317848465</v>
       </c>
       <c r="CG3">
-        <v>-0.036300785578052421</v>
+        <v>-0.055141927737841566</v>
       </c>
       <c r="CH3">
-        <v>-0.046930699061013027</v>
+        <v>-0.031129224076143068</v>
       </c>
       <c r="CI3">
-        <v>-0.013469567058105845</v>
+        <v>-0.035705616828348094</v>
       </c>
       <c r="CJ3">
-        <v>-0.032903241620494621</v>
+        <v>-0.045357860440076725</v>
       </c>
       <c r="CK3">
-        <v>-0.045864674106095092</v>
+        <v>0.0012322172358521593</v>
       </c>
       <c r="CL3">
-        <v>-0.042944483204757668</v>
+        <v>-0.033587742948511919</v>
       </c>
       <c r="CM3">
-        <v>-0.055320804463870887</v>
+        <v>-0.033755266187435962</v>
       </c>
       <c r="CN3">
-        <v>-0.035322628634083232</v>
+        <v>-0.021331454487744837</v>
       </c>
       <c r="CO3">
-        <v>-0.10162205321910583</v>
+        <v>-0.029826718073463789</v>
       </c>
       <c r="CP3">
-        <v>-0.035162995594950008</v>
+        <v>-0.017224675145405172</v>
       </c>
       <c r="CQ3">
-        <v>-0.084389781318944895</v>
+        <v>-0.030940836744965131</v>
       </c>
       <c r="CR3">
-        <v>-0.049120021361159193</v>
+        <v>-0.063798483706479198</v>
       </c>
       <c r="CS3">
-        <v>-0.04952598335114157</v>
+        <v>0.00071149988175766676</v>
       </c>
       <c r="CT3">
-        <v>-0.040658620957016743</v>
+        <v>-0.049631257453311449</v>
       </c>
       <c r="CU3">
-        <v>-0.036039589691011044</v>
+        <v>-0.019450086243236128</v>
       </c>
       <c r="CV3">
-        <v>-0.065795554860944155</v>
+        <v>0.0047614536718210941</v>
       </c>
       <c r="CW3">
-        <v>-0.10277996300602375</v>
+        <v>-0.0045696303707167029</v>
       </c>
       <c r="CX3">
-        <v>-0.062321693295351213</v>
+        <v>-0.020183561372495929</v>
       </c>
       <c r="CY3">
-        <v>-0.040003121855528262</v>
+        <v>-0.035434685982202244</v>
       </c>
       <c r="CZ3">
-        <v>-0.073700219479310061</v>
+        <v>-0.039403534230091949</v>
       </c>
       <c r="DA3">
-        <v>-0.090489470788669396</v>
+        <v>-0.081274493607989343</v>
       </c>
       <c r="DB3">
-        <v>-0.080495558454397029</v>
+        <v>-0.10252113126498678</v>
       </c>
       <c r="DC3">
-        <v>-0.042645748807263704</v>
+        <v>-0.044699637167479156</v>
       </c>
       <c r="DD3">
-        <v>-0.036408781988036924</v>
+        <v>-0.036114870246164735</v>
       </c>
       <c r="DE3">
-        <v>-0.048713325780769971</v>
+        <v>-0.0053490092120907782</v>
       </c>
       <c r="DF3">
-        <v>-0.037127252991344013</v>
+        <v>-0.074665369099872703</v>
       </c>
       <c r="DG3">
-        <v>-0.083680106538681104</v>
+        <v>-0.076929634992428109</v>
       </c>
       <c r="DH3">
-        <v>-0.057646355831411401</v>
+        <v>-0.021719546087984373</v>
       </c>
       <c r="DI3">
-        <v>-0.10547702047796327</v>
+        <v>-0.046552572859307563</v>
       </c>
       <c r="DJ3">
-        <v>-0.023543861077456311</v>
+        <v>-0.04221271841863701</v>
       </c>
       <c r="DK3">
-        <v>-0.10090126076165853</v>
+        <v>-0.031558542899004491</v>
       </c>
       <c r="DL3">
-        <v>-0.073943139354880574</v>
+        <v>-0.068726786881932553</v>
       </c>
       <c r="DM3">
-        <v>-0.094997389573865082</v>
+        <v>-0.12965215631646249</v>
       </c>
       <c r="DN3">
-        <v>-0.059666649511444687</v>
+        <v>0.0075681094796197458</v>
       </c>
       <c r="DO3">
-        <v>-0.053268780066312568</v>
+        <v>-0.051271794181677377</v>
       </c>
       <c r="DP3">
-        <v>-0.031005432770912309</v>
+        <v>-0.041700083981609001</v>
       </c>
       <c r="DQ3">
-        <v>-0.064326087686971317</v>
+        <v>-0.008328116435306572</v>
       </c>
       <c r="DR3">
-        <v>-0.069584834406035745</v>
+        <v>-0.03620209178302998</v>
       </c>
       <c r="DS3">
-        <v>-0.032637452003810331</v>
+        <v>-0.066649476197743113</v>
       </c>
       <c r="DT3">
-        <v>-0.036081065196685622</v>
+        <v>-0.043285657049929233</v>
       </c>
       <c r="DU3">
-        <v>-0.053214654616161906</v>
+        <v>-0.035412445221846695</v>
       </c>
       <c r="DV3">
-        <v>-0.040337375692443403</v>
+        <v>-0.013057413115050487</v>
       </c>
       <c r="DW3">
-        <v>-0.073263477313225786</v>
+        <v>-0.036730698768421811</v>
       </c>
       <c r="DX3">
-        <v>-0.059502163844952674</v>
+        <v>0.024229077066660561</v>
       </c>
       <c r="DY3">
-        <v>-0.10479898808944527</v>
+        <v>-0.0048994575785547253</v>
       </c>
       <c r="DZ3">
-        <v>-0.088482110404623671</v>
+        <v>-0.04285868370339501</v>
       </c>
       <c r="EA3">
-        <v>-0.080711316645367362</v>
+        <v>-0.059000169331813221</v>
       </c>
       <c r="EB3">
-        <v>-0.0903071093731668</v>
+        <v>-0.024484903551250665</v>
       </c>
       <c r="EC3">
-        <v>-0.061171995484513693</v>
+        <v>-0.017625461914763468</v>
       </c>
       <c r="ED3">
-        <v>-0.048378834075298111</v>
+        <v>-0.022113114371309268</v>
       </c>
       <c r="EE3">
-        <v>-0.11882475951788711</v>
+        <v>-0.036452550989040794</v>
       </c>
       <c r="EF3">
-        <v>-0.048183183651735302</v>
+        <v>-0.047315211555346293</v>
       </c>
       <c r="EG3">
         <v>0</v>
       </c>
       <c r="EH3">
-        <v>-0.11029643068247917</v>
+        <v>-0.069802241053868536</v>
       </c>
       <c r="EI3">
-        <v>-0.082140653708191402</v>
+        <v>-0.040180142893986907</v>
       </c>
       <c r="EJ3">
-        <v>-0.057530151455736131</v>
+        <v>-0.067655346941742106</v>
       </c>
       <c r="EK3">
-        <v>-0.090970173521652986</v>
+        <v>-0.046260222236537973</v>
       </c>
       <c r="EL3">
-        <v>-0.055435832332712535</v>
+        <v>-0.051383167539005202</v>
       </c>
       <c r="EM3">
-        <v>-0.12404543721603149</v>
+        <v>-0.089493385419022298</v>
       </c>
       <c r="EN3">
-        <v>-0.097663972397222534</v>
+        <v>-0.032587108969334894</v>
       </c>
       <c r="EO3">
-        <v>-0.059809557113597672</v>
+        <v>-0.064245088944903758</v>
       </c>
       <c r="EP3">
-        <v>-0.098199332041440962</v>
+        <v>-0.02432792382946708</v>
       </c>
       <c r="EQ3">
-        <v>-0.080646683779499753</v>
+        <v>-0.045146520285811072</v>
       </c>
       <c r="ER3">
-        <v>-0.10356173463768475</v>
+        <v>-0.052879503139420476</v>
       </c>
       <c r="ES3">
-        <v>-0.092035545764666229</v>
+        <v>-0.062806809256789289</v>
       </c>
       <c r="ET3">
-        <v>-0.098121392608169641</v>
+        <v>-0.059183222991500334</v>
       </c>
       <c r="EU3">
-        <v>-0.11244207260379445</v>
+        <v>-0.027647292032142098</v>
       </c>
       <c r="EV3">
-        <v>-0.11162097939474122</v>
+        <v>-0.065579348757500849</v>
       </c>
       <c r="EW3">
-        <v>-0.074775544474091307</v>
+        <v>-0.045079033668782457</v>
       </c>
       <c r="EX3">
-        <v>-0.088957659456021937</v>
+        <v>-0.060201553535692495</v>
       </c>
       <c r="EY3">
-        <v>-0.068374931039160591</v>
+        <v>-0.040456524651933938</v>
       </c>
       <c r="EZ3">
-        <v>-0.1118614196687</v>
+        <v>-0.071625184206583828</v>
       </c>
       <c r="FA3">
-        <v>-0.089485722938622572</v>
+        <v>-0.042142156152029937</v>
       </c>
       <c r="FB3">
-        <v>-0.084278952142568989</v>
+        <v>-0.070167417396534815</v>
       </c>
       <c r="FC3">
-        <v>-0.040136097196954344</v>
+        <v>-0.063367172240370806</v>
       </c>
       <c r="FD3">
-        <v>-0.084579562618534096</v>
+        <v>-0.041505513461347378</v>
       </c>
       <c r="FE3">
-        <v>-0.10835296286381847</v>
+        <v>-0.060696495060039456</v>
       </c>
       <c r="FF3">
-        <v>-0.065114556707199095</v>
+        <v>-0.062662328804620401</v>
       </c>
       <c r="FG3">
-        <v>-0.1039667424345373</v>
+        <v>-0.12255037436772213</v>
       </c>
       <c r="FH3">
-        <v>-0.10279713376051935</v>
+        <v>-0.083597486048452269</v>
       </c>
       <c r="FI3">
-        <v>-0.15985188220562213</v>
+        <v>-0.043827229246189453</v>
       </c>
       <c r="FJ3">
-        <v>-0.1122017318613192</v>
+        <v>-0.042929574745400663</v>
       </c>
       <c r="FK3">
-        <v>-0.12819229151279476</v>
+        <v>-0.093141647229148528</v>
       </c>
       <c r="FL3">
-        <v>-0.077665439906089068</v>
+        <v>-0.057846938884379411</v>
       </c>
       <c r="FM3">
-        <v>-0.17059726478808376</v>
+        <v>-0.069076471237924791</v>
       </c>
       <c r="FN3">
-        <v>-0.088280063750791615</v>
+        <v>-0.10889922007534354</v>
       </c>
       <c r="FO3">
-        <v>-0.04435280263774747</v>
+        <v>-0.069875805613048569</v>
       </c>
       <c r="FP3">
-        <v>-0.097806233667141126</v>
+        <v>-0.090960145103423137</v>
       </c>
       <c r="FQ3">
-        <v>-0.15552016846775973</v>
+        <v>-0.076096924188391993</v>
       </c>
       <c r="FR3">
-        <v>-0.12011258994524156</v>
+        <v>-0.07060834305575675</v>
       </c>
       <c r="FS3">
-        <v>-0.10717645154293351</v>
+        <v>-0.067562392817183403</v>
       </c>
       <c r="FT3">
-        <v>-0.10916490223932392</v>
+        <v>-0.080927781746747959</v>
       </c>
       <c r="FU3">
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.4171267363714151</v>
+        <v>-5.4449736126812489</v>
       </c>
     </row>
     <row r="4">
@@ -10356,535 +10356,535 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.029696655213342141</v>
+        <v>0.026249050851607635</v>
       </c>
       <c r="C4">
-        <v>0.014842080823014536</v>
+        <v>0.013119003856432407</v>
       </c>
       <c r="D4">
-        <v>0.017049690556163209</v>
+        <v>0.015070323280442444</v>
       </c>
       <c r="E4">
-        <v>0.016600288343099168</v>
+        <v>0.014673093981088786</v>
       </c>
       <c r="F4">
-        <v>0.01655738241311188</v>
+        <v>0.014635169173396441</v>
       </c>
       <c r="G4">
-        <v>0.019102971544393384</v>
+        <v>0.016885230605375064</v>
       </c>
       <c r="H4">
-        <v>0.022481273683762553</v>
+        <v>0.019871332037045896</v>
       </c>
       <c r="I4">
-        <v>0.02088998120591708</v>
+        <v>0.018464779114817129</v>
       </c>
       <c r="J4">
-        <v>0.017160849768360846</v>
+        <v>0.015168577571797435</v>
       </c>
       <c r="K4">
-        <v>0.01417199585046167</v>
+        <v>0.012526711748345572</v>
       </c>
       <c r="L4">
-        <v>0.014205257674409355</v>
+        <v>0.012556112073127864</v>
       </c>
       <c r="M4">
-        <v>0.014437357383721448</v>
+        <v>0.012761266391976516</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.03328801053543122</v>
+        <v>0.029423471263552024</v>
       </c>
       <c r="P4">
-        <v>0.033288010535431227</v>
+        <v>0.029423471263552027</v>
       </c>
       <c r="Q4">
-        <v>0.033288010535431227</v>
+        <v>0.029423471263552024</v>
       </c>
       <c r="R4">
-        <v>0.033288010535431227</v>
+        <v>0.029423471263552027</v>
       </c>
       <c r="S4">
-        <v>0.03328801053543122</v>
+        <v>0.029423471263552024</v>
       </c>
       <c r="T4">
-        <v>0.033288010535431227</v>
+        <v>0.029423471263552027</v>
       </c>
       <c r="U4">
-        <v>0.033288010535431234</v>
+        <v>0.029423471263552031</v>
       </c>
       <c r="V4">
-        <v>0.033288010535431234</v>
+        <v>0.029423471263552031</v>
       </c>
       <c r="W4">
-        <v>0.033288010535431234</v>
+        <v>0.029423471263552034</v>
       </c>
       <c r="X4">
-        <v>0.033288010535431234</v>
+        <v>0.029423471263552031</v>
       </c>
       <c r="Y4">
-        <v>0.033288010535431234</v>
+        <v>0.029423471263552034</v>
       </c>
       <c r="Z4">
-        <v>0.033288010535431234</v>
+        <v>0.029423471263552031</v>
       </c>
       <c r="AA4">
-        <v>0.033288010535431241</v>
+        <v>0.029423471263552037</v>
       </c>
       <c r="AB4">
-        <v>0.033288010535431234</v>
+        <v>0.029423471263552034</v>
       </c>
       <c r="AC4">
-        <v>0.033288010535431241</v>
+        <v>0.029423471263552037</v>
       </c>
       <c r="AD4">
-        <v>0.033288010535431248</v>
+        <v>0.029423471263552041</v>
       </c>
       <c r="AE4">
-        <v>0.033288010535431248</v>
+        <v>0.029423471263552044</v>
       </c>
       <c r="AF4">
-        <v>0.033288010535431255</v>
+        <v>0.029423471263552048</v>
       </c>
       <c r="AG4">
-        <v>0.033288010535431262</v>
+        <v>0.029423471263552055</v>
       </c>
       <c r="AH4">
-        <v>0.033288010535431255</v>
+        <v>0.029423471263552048</v>
       </c>
       <c r="AI4">
-        <v>0.033288010535431255</v>
+        <v>0.029423471263552051</v>
       </c>
       <c r="AJ4">
-        <v>0.033288010535431269</v>
+        <v>0.029423471263552062</v>
       </c>
       <c r="AK4">
-        <v>0.033288010535431262</v>
+        <v>0.029423471263552058</v>
       </c>
       <c r="AL4">
-        <v>0.033288010535431269</v>
+        <v>0.029423471263552062</v>
       </c>
       <c r="AM4">
-        <v>0.033288010535431269</v>
+        <v>0.029423471263552062</v>
       </c>
       <c r="AN4">
-        <v>0.033288010535431276</v>
+        <v>0.029423471263552069</v>
       </c>
       <c r="AO4">
-        <v>0.033288010535431269</v>
+        <v>0.029423471263552062</v>
       </c>
       <c r="AP4">
-        <v>0.033288010535431276</v>
+        <v>0.029423471263552069</v>
       </c>
       <c r="AQ4">
-        <v>0.033288010535431269</v>
+        <v>0.029423471263552062</v>
       </c>
       <c r="AR4">
-        <v>0.033288010535431282</v>
+        <v>0.029423471263552079</v>
       </c>
       <c r="AS4">
-        <v>0.033288010535431276</v>
+        <v>0.029423471263552069</v>
       </c>
       <c r="AT4">
-        <v>0.033288010535431282</v>
+        <v>0.029423471263552079</v>
       </c>
       <c r="AU4">
-        <v>0.033288010535431276</v>
+        <v>0.029423471263552072</v>
       </c>
       <c r="AV4">
-        <v>0.033288010535431282</v>
+        <v>0.029423471263552079</v>
       </c>
       <c r="AW4">
-        <v>0.033288010535431276</v>
+        <v>0.029423471263552069</v>
       </c>
       <c r="AX4">
-        <v>0.033288010535431289</v>
+        <v>0.029423471263552079</v>
       </c>
       <c r="AY4">
-        <v>0.033288010535431289</v>
+        <v>0.029423471263552079</v>
       </c>
       <c r="AZ4">
-        <v>0.033288010535431296</v>
+        <v>0.02942347126355209</v>
       </c>
       <c r="BA4">
-        <v>0.033288010535431303</v>
+        <v>0.029423471263552093</v>
       </c>
       <c r="BB4">
-        <v>0.033288010535431303</v>
+        <v>0.02942347126355209</v>
       </c>
       <c r="BC4">
-        <v>0.033288010535431303</v>
+        <v>0.02942347126355209</v>
       </c>
       <c r="BD4">
-        <v>0.033288010535431303</v>
+        <v>0.029423471263552096</v>
       </c>
       <c r="BE4">
-        <v>0.03328801053543131</v>
+        <v>0.029423471263552096</v>
       </c>
       <c r="BF4">
-        <v>0.03328801053543131</v>
+        <v>0.029423471263552096</v>
       </c>
       <c r="BG4">
-        <v>0.033288010535431303</v>
+        <v>0.02942347126355209</v>
       </c>
       <c r="BH4">
-        <v>0.03328801053543131</v>
+        <v>0.0294234712635521</v>
       </c>
       <c r="BI4">
-        <v>0.03328801053543131</v>
+        <v>0.0294234712635521</v>
       </c>
       <c r="BJ4">
-        <v>0.03328801053543131</v>
+        <v>0.0294234712635521</v>
       </c>
       <c r="BK4">
-        <v>0.03328801053543131</v>
+        <v>0.0294234712635521</v>
       </c>
       <c r="BL4">
-        <v>0.03328801053543131</v>
+        <v>0.0294234712635521</v>
       </c>
       <c r="BM4">
-        <v>0.03328801053543131</v>
+        <v>0.0294234712635521</v>
       </c>
       <c r="BN4">
-        <v>0.03328801053543131</v>
+        <v>0.0294234712635521</v>
       </c>
       <c r="BO4">
-        <v>0.033288010535431317</v>
+        <v>0.029423471263552103</v>
       </c>
       <c r="BP4">
-        <v>0.03328801053543131</v>
+        <v>0.0294234712635521</v>
       </c>
       <c r="BQ4">
-        <v>0.033288010535431317</v>
+        <v>0.029423471263552103</v>
       </c>
       <c r="BR4">
-        <v>0.033288010535431317</v>
+        <v>0.029423471263552103</v>
       </c>
       <c r="BS4">
-        <v>0.033288010535431317</v>
+        <v>0.029423471263552103</v>
       </c>
       <c r="BT4">
-        <v>0.033288010535431317</v>
+        <v>0.029423471263552103</v>
       </c>
       <c r="BU4">
-        <v>0.033288010535431317</v>
+        <v>0.029423471263552103</v>
       </c>
       <c r="BV4">
-        <v>0.033288010535431317</v>
+        <v>0.029423471263552103</v>
       </c>
       <c r="BW4">
-        <v>0.033288010535431317</v>
+        <v>0.029423471263552107</v>
       </c>
       <c r="BX4">
-        <v>0.033288010535431324</v>
+        <v>0.029423471263552114</v>
       </c>
       <c r="BY4">
-        <v>0.033288010535431324</v>
+        <v>0.029423471263552114</v>
       </c>
       <c r="BZ4">
-        <v>0.033288010535431324</v>
+        <v>0.02942347126355211</v>
       </c>
       <c r="CA4">
-        <v>0.033288010535431324</v>
+        <v>0.02942347126355211</v>
       </c>
       <c r="CB4">
-        <v>0.033288010535431324</v>
+        <v>0.02942347126355211</v>
       </c>
       <c r="CC4">
-        <v>0.033288010535431324</v>
+        <v>0.02942347126355211</v>
       </c>
       <c r="CD4">
-        <v>0.033288010535431324</v>
+        <v>0.029423471263552114</v>
       </c>
       <c r="CE4">
-        <v>0.033288010535431324</v>
+        <v>0.029423471263552114</v>
       </c>
       <c r="CF4">
-        <v>0.033288010535431324</v>
+        <v>0.02942347126355211</v>
       </c>
       <c r="CG4">
-        <v>0.033288010535431324</v>
+        <v>0.029423471263552114</v>
       </c>
       <c r="CH4">
-        <v>0.033288010535431331</v>
+        <v>0.029423471263552117</v>
       </c>
       <c r="CI4">
-        <v>0.033288010535431331</v>
+        <v>0.029423471263552117</v>
       </c>
       <c r="CJ4">
-        <v>0.033288010535431331</v>
+        <v>0.029423471263552121</v>
       </c>
       <c r="CK4">
-        <v>0.033288010535431331</v>
+        <v>0.029423471263552117</v>
       </c>
       <c r="CL4">
-        <v>0.033288010535431331</v>
+        <v>0.029423471263552121</v>
       </c>
       <c r="CM4">
-        <v>0.033288010535431331</v>
+        <v>0.029423471263552121</v>
       </c>
       <c r="CN4">
-        <v>0.033288010535431331</v>
+        <v>0.029423471263552121</v>
       </c>
       <c r="CO4">
-        <v>0.033288010535431331</v>
+        <v>0.029423471263552121</v>
       </c>
       <c r="CP4">
-        <v>0.033288010535431331</v>
+        <v>0.029423471263552121</v>
       </c>
       <c r="CQ4">
-        <v>0.033288010535431331</v>
+        <v>0.029423471263552121</v>
       </c>
       <c r="CR4">
-        <v>0.033288010535431338</v>
+        <v>0.029423471263552124</v>
       </c>
       <c r="CS4">
-        <v>0.032612621728842973</v>
+        <v>0.02882649106489394</v>
       </c>
       <c r="CT4">
-        <v>0.032612621728842973</v>
+        <v>0.02882649106489394</v>
       </c>
       <c r="CU4">
-        <v>0.032612621728842973</v>
+        <v>0.02882649106489394</v>
       </c>
       <c r="CV4">
-        <v>0.032612621728842973</v>
+        <v>0.02882649106489394</v>
       </c>
       <c r="CW4">
-        <v>0.032612621728842973</v>
+        <v>0.02882649106489394</v>
       </c>
       <c r="CX4">
-        <v>0.033357169872063899</v>
+        <v>0.029484601614128303</v>
       </c>
       <c r="CY4">
-        <v>0.033357169872063899</v>
+        <v>0.029484601614128306</v>
       </c>
       <c r="CZ4">
-        <v>0.033357169872063906</v>
+        <v>0.02948460161412831</v>
       </c>
       <c r="DA4">
-        <v>0.033357169872063906</v>
+        <v>0.02948460161412831</v>
       </c>
       <c r="DB4">
-        <v>0.033357169872063906</v>
+        <v>0.02948460161412831</v>
       </c>
       <c r="DC4">
-        <v>0.033350200480894487</v>
+        <v>0.029478441327661822</v>
       </c>
       <c r="DD4">
-        <v>0.033350200480894487</v>
+        <v>0.029478441327661819</v>
       </c>
       <c r="DE4">
-        <v>0.033350200480894487</v>
+        <v>0.029478441327661822</v>
       </c>
       <c r="DF4">
-        <v>0.033350200480894487</v>
+        <v>0.029478441327661819</v>
       </c>
       <c r="DG4">
-        <v>0.033350200480894487</v>
+        <v>0.029478441327661819</v>
       </c>
       <c r="DH4">
-        <v>0.032993655446530365</v>
+        <v>0.029163289042979358</v>
       </c>
       <c r="DI4">
-        <v>0.032993655446530365</v>
+        <v>0.029163289042979358</v>
       </c>
       <c r="DJ4">
-        <v>0.032993655446530372</v>
+        <v>0.029163289042979362</v>
       </c>
       <c r="DK4">
-        <v>0.033177732020395083</v>
+        <v>0.029325995425676418</v>
       </c>
       <c r="DL4">
-        <v>0.033177732020395083</v>
+        <v>0.029325995425676418</v>
       </c>
       <c r="DM4">
-        <v>0.028680073192991557</v>
+        <v>0.025350487934157461</v>
       </c>
       <c r="DN4">
-        <v>0.033847242334128259</v>
+        <v>0.029917779589401439</v>
       </c>
       <c r="DO4">
-        <v>0.033847242334128259</v>
+        <v>0.029917779589401439</v>
       </c>
       <c r="DP4">
-        <v>0.033228803413831741</v>
+        <v>0.029371137735264841</v>
       </c>
       <c r="DQ4">
-        <v>0.033228803413831741</v>
+        <v>0.029371137735264841</v>
       </c>
       <c r="DR4">
-        <v>0.033748358348912329</v>
+        <v>0.029830375444466744</v>
       </c>
       <c r="DS4">
-        <v>0.033959748541745521</v>
+        <v>0.030017224498050284</v>
       </c>
       <c r="DT4">
-        <v>0.033959748541745521</v>
+        <v>0.030017224498050284</v>
       </c>
       <c r="DU4">
-        <v>0.033959748541745521</v>
+        <v>0.030017224498050284</v>
       </c>
       <c r="DV4">
-        <v>0.033959748541745521</v>
+        <v>0.03001722449805028</v>
       </c>
       <c r="DW4">
-        <v>0.033578238708339758</v>
+        <v>0.029680005678438669</v>
       </c>
       <c r="DX4">
-        <v>0.033889182730292046</v>
+        <v>0.029954850955982319</v>
       </c>
       <c r="DY4">
-        <v>0.033889182730292046</v>
+        <v>0.029954850955982319</v>
       </c>
       <c r="DZ4">
-        <v>0.033889182730292046</v>
+        <v>0.029954850955982319</v>
       </c>
       <c r="EA4">
-        <v>0.033889182730292046</v>
+        <v>0.029954850955982316</v>
       </c>
       <c r="EB4">
-        <v>0.033248112532989496</v>
+        <v>0.029388205180976502</v>
       </c>
       <c r="EC4">
-        <v>0.031398954576479232</v>
+        <v>0.027753723422529668</v>
       </c>
       <c r="ED4">
-        <v>0.031398954576479232</v>
+        <v>0.027753723422529668</v>
       </c>
       <c r="EE4">
-        <v>0.03183163099616633</v>
+        <v>0.028136168693253475</v>
       </c>
       <c r="EF4">
-        <v>0.03183163099616633</v>
+        <v>0.028136168693253475</v>
       </c>
       <c r="EG4">
         <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.033428601167092703</v>
+        <v>0.029547740162296009</v>
       </c>
       <c r="EI4">
-        <v>0.033428601167092703</v>
+        <v>0.029547740162296009</v>
       </c>
       <c r="EJ4">
-        <v>0.033032812774057514</v>
+        <v>0.029197900438575567</v>
       </c>
       <c r="EK4">
-        <v>0.033032812774057521</v>
+        <v>0.029197900438575571</v>
       </c>
       <c r="EL4">
-        <v>0.033032812774057514</v>
+        <v>0.029197900438575571</v>
       </c>
       <c r="EM4">
-        <v>0.032955946395280933</v>
+        <v>0.029129957787432187</v>
       </c>
       <c r="EN4">
-        <v>0.032955946395280933</v>
+        <v>0.029129957787432183</v>
       </c>
       <c r="EO4">
-        <v>0.032955946395280933</v>
+        <v>0.029129957787432187</v>
       </c>
       <c r="EP4">
-        <v>0.032955946395280933</v>
+        <v>0.029129957787432183</v>
       </c>
       <c r="EQ4">
-        <v>0.032955946395280933</v>
+        <v>0.029129957787432187</v>
       </c>
       <c r="ER4">
-        <v>0.032890294885802369</v>
+        <v>0.029071928026221459</v>
       </c>
       <c r="ES4">
-        <v>0.032890294885802376</v>
+        <v>0.029071928026221463</v>
       </c>
       <c r="ET4">
-        <v>0.032890294885802376</v>
+        <v>0.029071928026221463</v>
       </c>
       <c r="EU4">
-        <v>0.032890294885802383</v>
+        <v>0.029071928026221466</v>
       </c>
       <c r="EV4">
-        <v>0.032890294885802383</v>
+        <v>0.029071928026221473</v>
       </c>
       <c r="EW4">
-        <v>0.030788138759121165</v>
+        <v>0.0272138196745953</v>
       </c>
       <c r="EX4">
-        <v>0.030788138759121168</v>
+        <v>0.0272138196745953</v>
       </c>
       <c r="EY4">
-        <v>0.030788138759121175</v>
+        <v>0.027213819674595307</v>
       </c>
       <c r="EZ4">
-        <v>0.030788138759121175</v>
+        <v>0.027213819674595307</v>
       </c>
       <c r="FA4">
-        <v>0.030788138759121172</v>
+        <v>0.027213819674595307</v>
       </c>
       <c r="FB4">
-        <v>0.032664419717631003</v>
+        <v>0.028872275616451691</v>
       </c>
       <c r="FC4">
-        <v>0.032664419717631003</v>
+        <v>0.028872275616451691</v>
       </c>
       <c r="FD4">
-        <v>0.032664419717631017</v>
+        <v>0.028872275616451702</v>
       </c>
       <c r="FE4">
-        <v>0.032664419717631003</v>
+        <v>0.028872275616451691</v>
       </c>
       <c r="FF4">
-        <v>0.032664419717631017</v>
+        <v>0.028872275616451702</v>
       </c>
       <c r="FG4">
-        <v>0.03266441971763101</v>
+        <v>0.028872275616451698</v>
       </c>
       <c r="FH4">
-        <v>0.032664419717631017</v>
+        <v>0.028872275616451702</v>
       </c>
       <c r="FI4">
-        <v>0.032664419717631017</v>
+        <v>0.028872275616451702</v>
       </c>
       <c r="FJ4">
-        <v>0.032664419717631017</v>
+        <v>0.028872275616451705</v>
       </c>
       <c r="FK4">
-        <v>0.032664419717631017</v>
+        <v>0.028872275616451705</v>
       </c>
       <c r="FL4">
-        <v>0.032664419717631017</v>
+        <v>0.028872275616451705</v>
       </c>
       <c r="FM4">
-        <v>0.032664419717631017</v>
+        <v>0.028872275616451705</v>
       </c>
       <c r="FN4">
-        <v>0.032664419717631017</v>
+        <v>0.028872275616451705</v>
       </c>
       <c r="FO4">
-        <v>0.032664419717631024</v>
+        <v>0.028872275616451712</v>
       </c>
       <c r="FP4">
-        <v>0.032664419717631017</v>
+        <v>0.028872275616451705</v>
       </c>
       <c r="FQ4">
-        <v>0.032664419717631024</v>
+        <v>0.028872275616451712</v>
       </c>
       <c r="FR4">
-        <v>0.032664419717631024</v>
+        <v>0.028872275616451708</v>
       </c>
       <c r="FS4">
-        <v>0.032664419717631017</v>
+        <v>0.028872275616451705</v>
       </c>
       <c r="FT4">
-        <v>0.032664419717631024</v>
+        <v>0.028872275616451712</v>
       </c>
       <c r="FU4">
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.026518785562714288</v>
+        <v>0.023440112893448835</v>
       </c>
     </row>
   </sheetData>
@@ -11437,535 +11437,535 @@
         <v>173</v>
       </c>
       <c r="B3">
-        <v>1.0208525852476706</v>
+        <v>1.0157052027676658</v>
       </c>
       <c r="C3">
-        <v>-1.9526378765787322</v>
+        <v>-1.9511158780898119</v>
       </c>
       <c r="D3">
-        <v>-2.011494659913974</v>
+        <v>-2.0341597830473916</v>
       </c>
       <c r="E3">
-        <v>-1.9966995777975702</v>
+        <v>-1.9888654255816025</v>
       </c>
       <c r="F3">
-        <v>-1.9873766851167227</v>
+        <v>-1.9998561182974817</v>
       </c>
       <c r="G3">
-        <v>-1.9597881419236858</v>
+        <v>-1.9266345764524933</v>
       </c>
       <c r="H3">
-        <v>-1.9930485389314598</v>
+        <v>-1.9261568716172628</v>
       </c>
       <c r="I3">
-        <v>0.76518824490993098</v>
+        <v>0.76295640873216042</v>
       </c>
       <c r="J3">
-        <v>0.72988429441183911</v>
+        <v>0.70751242365460321</v>
       </c>
       <c r="K3">
-        <v>0.59144516191085017</v>
+        <v>0.62056465272773931</v>
       </c>
       <c r="L3">
-        <v>0.51545821084408805</v>
+        <v>0.49610385085382269</v>
       </c>
       <c r="M3">
-        <v>0.39675099103298983</v>
+        <v>0.42254605009002022</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.4687649094450934</v>
+        <v>1.4710387651521952</v>
       </c>
       <c r="P3">
-        <v>1.573475132555658</v>
+        <v>1.5846907193909656</v>
       </c>
       <c r="Q3">
-        <v>0.086701011834497466</v>
+        <v>-0.0027908514108727412</v>
       </c>
       <c r="R3">
-        <v>-0.0053754526980272525</v>
+        <v>0.063552698759989062</v>
       </c>
       <c r="S3">
-        <v>0.070096737421660504</v>
+        <v>0.047280214080205711</v>
       </c>
       <c r="T3">
-        <v>0.026426957552637912</v>
+        <v>0.07869299101891819</v>
       </c>
       <c r="U3">
-        <v>0.13614479671844923</v>
+        <v>0.12021417717880321</v>
       </c>
       <c r="V3">
-        <v>0.090885934989920966</v>
+        <v>0.062836767799574964</v>
       </c>
       <c r="W3">
-        <v>0.072773339364200926</v>
+        <v>0.10013235905214939</v>
       </c>
       <c r="X3">
-        <v>0.098410895683344421</v>
+        <v>0.046418078701373502</v>
       </c>
       <c r="Y3">
-        <v>0.11169943063296349</v>
+        <v>0.1236662701959659</v>
       </c>
       <c r="Z3">
-        <v>0.14153532118454745</v>
+        <v>0.14456589056153848</v>
       </c>
       <c r="AA3">
-        <v>0.11279875191499247</v>
+        <v>0.19692223185057597</v>
       </c>
       <c r="AB3">
-        <v>0.14917870369632277</v>
+        <v>0.13664304219816309</v>
       </c>
       <c r="AC3">
-        <v>0.07565336064274944</v>
+        <v>0.1537537152097902</v>
       </c>
       <c r="AD3">
-        <v>0.181331410279056</v>
+        <v>0.17016506375707147</v>
       </c>
       <c r="AE3">
-        <v>0.15818186700842715</v>
+        <v>0.12297480789394873</v>
       </c>
       <c r="AF3">
-        <v>0.1733977410593831</v>
+        <v>0.16745817886186809</v>
       </c>
       <c r="AG3">
-        <v>0.13470569931299892</v>
+        <v>0.24267831393121009</v>
       </c>
       <c r="AH3">
-        <v>0.15259912087803076</v>
+        <v>0.13057602656527931</v>
       </c>
       <c r="AI3">
-        <v>0.19467135651605649</v>
+        <v>0.21259117273672076</v>
       </c>
       <c r="AJ3">
-        <v>0.20530184503912838</v>
+        <v>0.21110999858392634</v>
       </c>
       <c r="AK3">
-        <v>0.18146739176173859</v>
+        <v>0.197205546929061</v>
       </c>
       <c r="AL3">
-        <v>0.12722347538461534</v>
+        <v>0.22026981223891151</v>
       </c>
       <c r="AM3">
-        <v>0.2178699555851944</v>
+        <v>0.23772760394257914</v>
       </c>
       <c r="AN3">
-        <v>0.22904452423813745</v>
+        <v>0.21476907242867882</v>
       </c>
       <c r="AO3">
-        <v>0.18097072161334968</v>
+        <v>0.25743655316604025</v>
       </c>
       <c r="AP3">
-        <v>0.18007104169316965</v>
+        <v>0.24265916419845301</v>
       </c>
       <c r="AQ3">
-        <v>0.18603130340986479</v>
+        <v>0.25339758057682293</v>
       </c>
       <c r="AR3">
-        <v>0.24850941877828714</v>
+        <v>0.2339107438531543</v>
       </c>
       <c r="AS3">
-        <v>0.19333520829248835</v>
+        <v>0.19764359206198839</v>
       </c>
       <c r="AT3">
-        <v>0.22746744605351774</v>
+        <v>0.27371905912848765</v>
       </c>
       <c r="AU3">
-        <v>0.2396292360849418</v>
+        <v>0.2649524117132751</v>
       </c>
       <c r="AV3">
-        <v>0.17949814997248859</v>
+        <v>0.23487506252167512</v>
       </c>
       <c r="AW3">
-        <v>0.19991866443287296</v>
+        <v>0.27396490016912206</v>
       </c>
       <c r="AX3">
-        <v>0.25847435613357117</v>
+        <v>0.1770789737650145</v>
       </c>
       <c r="AY3">
-        <v>0.30460325071618843</v>
+        <v>0.19633397183270901</v>
       </c>
       <c r="AZ3">
-        <v>0.2322723645922842</v>
+        <v>0.24222651387664493</v>
       </c>
       <c r="BA3">
-        <v>0.2236461875451651</v>
+        <v>0.22471250320131392</v>
       </c>
       <c r="BB3">
-        <v>0.22227632894111812</v>
+        <v>0.2469136891853263</v>
       </c>
       <c r="BC3">
-        <v>0.27856818489013391</v>
+        <v>0.29758907913605104</v>
       </c>
       <c r="BD3">
-        <v>0.23830029784130013</v>
+        <v>0.20243228558045653</v>
       </c>
       <c r="BE3">
-        <v>0.22575620435379878</v>
+        <v>0.20906265484414213</v>
       </c>
       <c r="BF3">
-        <v>0.20447131437785057</v>
+        <v>0.22814230710878536</v>
       </c>
       <c r="BG3">
-        <v>0.2405634153161576</v>
+        <v>0.22653988421829263</v>
       </c>
       <c r="BH3">
-        <v>0.21019273216296613</v>
+        <v>0.26103531332198454</v>
       </c>
       <c r="BI3">
-        <v>0.22958206594052383</v>
+        <v>0.18137228081902165</v>
       </c>
       <c r="BJ3">
-        <v>0.25312218643973061</v>
+        <v>0.21037710272569729</v>
       </c>
       <c r="BK3">
-        <v>0.21512612625347993</v>
+        <v>0.2080052091327344</v>
       </c>
       <c r="BL3">
-        <v>0.24685278004086245</v>
+        <v>0.21452082825108804</v>
       </c>
       <c r="BM3">
-        <v>0.22371445504110804</v>
+        <v>0.25545328552756635</v>
       </c>
       <c r="BN3">
-        <v>0.24899082621191757</v>
+        <v>0.23003624907483528</v>
       </c>
       <c r="BO3">
-        <v>0.1788009735732462</v>
+        <v>0.2677020006450947</v>
       </c>
       <c r="BP3">
-        <v>0.18747896176284662</v>
+        <v>0.21208756408283641</v>
       </c>
       <c r="BQ3">
-        <v>0.25479485485607462</v>
+        <v>0.16737651524251679</v>
       </c>
       <c r="BR3">
-        <v>0.1947902449837246</v>
+        <v>0.20013539634555538</v>
       </c>
       <c r="BS3">
-        <v>0.21856836016802114</v>
+        <v>0.23278811428744753</v>
       </c>
       <c r="BT3">
-        <v>0.16057507580896038</v>
+        <v>0.1985390020854681</v>
       </c>
       <c r="BU3">
-        <v>0.20931631377446816</v>
+        <v>0.17919524912925516</v>
       </c>
       <c r="BV3">
-        <v>0.23447180479782301</v>
+        <v>0.25265807349759301</v>
       </c>
       <c r="BW3">
-        <v>0.11754813786179544</v>
+        <v>0.26894571069462442</v>
       </c>
       <c r="BX3">
-        <v>0.22499894071721513</v>
+        <v>0.22805775735493625</v>
       </c>
       <c r="BY3">
-        <v>0.2212689141158683</v>
+        <v>0.20368154335523506</v>
       </c>
       <c r="BZ3">
-        <v>0.21817534752025047</v>
+        <v>0.18729007855645297</v>
       </c>
       <c r="CA3">
-        <v>0.19412189547254316</v>
+        <v>0.24503850378960512</v>
       </c>
       <c r="CB3">
-        <v>0.23383838942220628</v>
+        <v>0.25583719045537162</v>
       </c>
       <c r="CC3">
-        <v>0.19834526313582504</v>
+        <v>0.15473539404236572</v>
       </c>
       <c r="CD3">
-        <v>0.19202525180303459</v>
+        <v>0.19243872273306739</v>
       </c>
       <c r="CE3">
-        <v>0.22312702348449223</v>
+        <v>0.23964415995197505</v>
       </c>
       <c r="CF3">
-        <v>0.20972606084120951</v>
+        <v>0.19075650149779952</v>
       </c>
       <c r="CG3">
-        <v>0.14965678183897124</v>
+        <v>0.19403540106928466</v>
       </c>
       <c r="CH3">
-        <v>0.16065016774048166</v>
+        <v>0.24669311577459777</v>
       </c>
       <c r="CI3">
-        <v>0.16849829998108065</v>
+        <v>0.18089974245977006</v>
       </c>
       <c r="CJ3">
-        <v>0.15430528945879077</v>
+        <v>0.17622069516889341</v>
       </c>
       <c r="CK3">
-        <v>0.20326347937992192</v>
+        <v>0.20712350603861313</v>
       </c>
       <c r="CL3">
-        <v>0.19372623737767899</v>
+        <v>0.17720736459472788</v>
       </c>
       <c r="CM3">
-        <v>0.11698158694369294</v>
+        <v>0.14768087573139796</v>
       </c>
       <c r="CN3">
-        <v>0.16736870766123996</v>
+        <v>0.18729527237323357</v>
       </c>
       <c r="CO3">
-        <v>0.1794825508377399</v>
+        <v>0.19231930878558734</v>
       </c>
       <c r="CP3">
-        <v>0.16456477007208675</v>
+        <v>0.19312068028427415</v>
       </c>
       <c r="CQ3">
-        <v>0.10797665973055817</v>
+        <v>0.15173607373041539</v>
       </c>
       <c r="CR3">
-        <v>0.1500469630863972</v>
+        <v>0.14441936287846038</v>
       </c>
       <c r="CS3">
-        <v>0.17761909000907236</v>
+        <v>0.17261312839411486</v>
       </c>
       <c r="CT3">
-        <v>0.19605707236967626</v>
+        <v>0.13268310671440206</v>
       </c>
       <c r="CU3">
-        <v>0.077575954880356138</v>
+        <v>0.18317109282566549</v>
       </c>
       <c r="CV3">
-        <v>0.1277653848620797</v>
+        <v>0.19433311708947981</v>
       </c>
       <c r="CW3">
-        <v>0.12074834634232036</v>
+        <v>0.18890887570829734</v>
       </c>
       <c r="CX3">
-        <v>0.12315859406974541</v>
+        <v>0.15231251458101477</v>
       </c>
       <c r="CY3">
-        <v>0.15567976042490805</v>
+        <v>0.10899237204116519</v>
       </c>
       <c r="CZ3">
-        <v>0.1313176212450537</v>
+        <v>0.17818385899336331</v>
       </c>
       <c r="DA3">
-        <v>0.17115522211056367</v>
+        <v>0.087231095766904507</v>
       </c>
       <c r="DB3">
-        <v>0.10713206271992096</v>
+        <v>0.14280694496172219</v>
       </c>
       <c r="DC3">
-        <v>0.16441323419466636</v>
+        <v>0.12252655438936258</v>
       </c>
       <c r="DD3">
-        <v>0.11852566302296923</v>
+        <v>0.22061991678661283</v>
       </c>
       <c r="DE3">
-        <v>0.09260859129871106</v>
+        <v>0.14804678480166406</v>
       </c>
       <c r="DF3">
-        <v>0.15819456883572725</v>
+        <v>0.16261863517015882</v>
       </c>
       <c r="DG3">
-        <v>0.095262139030216936</v>
+        <v>0.10104741222249218</v>
       </c>
       <c r="DH3">
-        <v>0.11381505027507924</v>
+        <v>0.078104111219433794</v>
       </c>
       <c r="DI3">
-        <v>0.027706414622208048</v>
+        <v>0.11346386777030856</v>
       </c>
       <c r="DJ3">
-        <v>0.15706507735541236</v>
+        <v>0.091962385679644348</v>
       </c>
       <c r="DK3">
-        <v>0.086467032344382133</v>
+        <v>0.091077164530780241</v>
       </c>
       <c r="DL3">
-        <v>0.11466413568219741</v>
+        <v>0.10453376637802402</v>
       </c>
       <c r="DM3">
-        <v>0.062091834174367103</v>
+        <v>0.078388254839228913</v>
       </c>
       <c r="DN3">
-        <v>0.20886880172648711</v>
+        <v>0.2111852091490441</v>
       </c>
       <c r="DO3">
-        <v>0.16244077816367697</v>
+        <v>0.19826278130308914</v>
       </c>
       <c r="DP3">
-        <v>0.11333028142534475</v>
+        <v>0.13696090781376988</v>
       </c>
       <c r="DQ3">
-        <v>0.12159935749666341</v>
+        <v>0.20483051736512112</v>
       </c>
       <c r="DR3">
-        <v>0.08043539968636948</v>
+        <v>0.16937928233901808</v>
       </c>
       <c r="DS3">
-        <v>0.15257273194191692</v>
+        <v>0.11909936903098928</v>
       </c>
       <c r="DT3">
-        <v>0.17910333468317424</v>
+        <v>0.11535702721584125</v>
       </c>
       <c r="DU3">
-        <v>0.088715994037223175</v>
+        <v>0.12387762578427015</v>
       </c>
       <c r="DV3">
-        <v>0.13119369094877095</v>
+        <v>0.13133845188177115</v>
       </c>
       <c r="DW3">
-        <v>0.084604977491246999</v>
+        <v>0.076767695879661743</v>
       </c>
       <c r="DX3">
-        <v>0.1155789339502804</v>
+        <v>0.15217621193839731</v>
       </c>
       <c r="DY3">
-        <v>0.037727272544103185</v>
+        <v>0.076010952969522746</v>
       </c>
       <c r="DZ3">
-        <v>0.017058059347072205</v>
+        <v>0.08922223101046195</v>
       </c>
       <c r="EA3">
-        <v>0.03349291595129051</v>
+        <v>0.0762729763901136</v>
       </c>
       <c r="EB3">
-        <v>-0.043450186919366092</v>
+        <v>0.0025323804495336081</v>
       </c>
       <c r="EC3">
-        <v>0.050740490563719445</v>
+        <v>0.045542152718360512</v>
       </c>
       <c r="ED3">
-        <v>0.070477037616208327</v>
+        <v>0.024825688682289369</v>
       </c>
       <c r="EE3">
-        <v>0.025840977971849692</v>
+        <v>-0.017174105948492925</v>
       </c>
       <c r="EF3">
-        <v>0.031331676486664704</v>
+        <v>-0.03849048217821055</v>
       </c>
       <c r="EG3">
         <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.28078751471900748</v>
+        <v>0.29363525902190235</v>
       </c>
       <c r="EI3">
-        <v>0.27131587425596981</v>
+        <v>0.29179996423829041</v>
       </c>
       <c r="EJ3">
-        <v>0.27116942685020939</v>
+        <v>0.27068027711700143</v>
       </c>
       <c r="EK3">
-        <v>0.22003823062348837</v>
+        <v>0.2526455873501911</v>
       </c>
       <c r="EL3">
-        <v>0.2011798045324639</v>
+        <v>0.22636627932323858</v>
       </c>
       <c r="EM3">
-        <v>0.21458318066548557</v>
+        <v>0.209163685197537</v>
       </c>
       <c r="EN3">
-        <v>0.20077951185169385</v>
+        <v>0.21954684296453128</v>
       </c>
       <c r="EO3">
-        <v>0.18040456187681816</v>
+        <v>0.17772205555148865</v>
       </c>
       <c r="EP3">
-        <v>0.15129415660730414</v>
+        <v>0.18099700405135535</v>
       </c>
       <c r="EQ3">
-        <v>0.13628394507207944</v>
+        <v>0.13689430375760625</v>
       </c>
       <c r="ER3">
-        <v>0.14945018575095914</v>
+        <v>0.17615185252963217</v>
       </c>
       <c r="ES3">
-        <v>0.13171758157522892</v>
+        <v>0.15593754502878737</v>
       </c>
       <c r="ET3">
-        <v>0.093869340832655315</v>
+        <v>0.13108741582557429</v>
       </c>
       <c r="EU3">
-        <v>0.078667931843446615</v>
+        <v>0.13099542236383632</v>
       </c>
       <c r="EV3">
-        <v>0.056742056060432242</v>
+        <v>0.077419414479633256</v>
       </c>
       <c r="EW3">
-        <v>0.10034775181496276</v>
+        <v>0.10655839644144978</v>
       </c>
       <c r="EX3">
-        <v>0.078323693886356349</v>
+        <v>0.080503890744244952</v>
       </c>
       <c r="EY3">
-        <v>0.059622942183735379</v>
+        <v>0.076273177849206744</v>
       </c>
       <c r="EZ3">
-        <v>0.032915959888652355</v>
+        <v>0.050958780363520792</v>
       </c>
       <c r="FA3">
-        <v>0.028033728649445748</v>
+        <v>0.043566577598339144</v>
       </c>
       <c r="FB3">
-        <v>0.21719498446377666</v>
+        <v>0.22078464318282084</v>
       </c>
       <c r="FC3">
-        <v>0.22669154426406743</v>
+        <v>0.19836803695494981</v>
       </c>
       <c r="FD3">
-        <v>0.17890734604285166</v>
+        <v>0.2035013626724255</v>
       </c>
       <c r="FE3">
-        <v>0.15395769190062158</v>
+        <v>0.18196208994673949</v>
       </c>
       <c r="FF3">
-        <v>0.1618489023255382</v>
+        <v>0.17268632687547855</v>
       </c>
       <c r="FG3">
-        <v>0.14225770087538608</v>
+        <v>0.099561710138647508</v>
       </c>
       <c r="FH3">
-        <v>0.10788705750044808</v>
+        <v>0.11996635615751425</v>
       </c>
       <c r="FI3">
-        <v>0.059971994204327916</v>
+        <v>0.1291830066977975</v>
       </c>
       <c r="FJ3">
-        <v>0.088998072208346851</v>
+        <v>0.12382747507632781</v>
       </c>
       <c r="FK3">
-        <v>0.055192209909103437</v>
+        <v>0.075157118197942976</v>
       </c>
       <c r="FL3">
-        <v>0.087688061410931953</v>
+        <v>0.087087616613520907</v>
       </c>
       <c r="FM3">
-        <v>0.018048883568307195</v>
+        <v>0.071462675109888227</v>
       </c>
       <c r="FN3">
-        <v>0.053625103437590672</v>
+        <v>0.038292919954585759</v>
       </c>
       <c r="FO3">
-        <v>0.097240235295687275</v>
+        <v>0.054008988417919929</v>
       </c>
       <c r="FP3">
-        <v>0.032500098431740267</v>
+        <v>0.037242820702594721</v>
       </c>
       <c r="FQ3">
-        <v>-0.025080112203132859</v>
+        <v>0.030610667188028521</v>
       </c>
       <c r="FR3">
-        <v>-0.011320448122024252</v>
+        <v>0.033950501585795052</v>
       </c>
       <c r="FS3">
-        <v>-0.0061617960653957676</v>
+        <v>0.014647497051670582</v>
       </c>
       <c r="FT3">
-        <v>-0.013860413118175976</v>
+        <v>0.008881037615263777</v>
       </c>
       <c r="FU3">
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.3488132609046319</v>
+        <v>-5.3607747160984864</v>
       </c>
     </row>
     <row r="4">
@@ -11973,535 +11973,535 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>0.09253794959063362</v>
+        <v>0.094432179600795446</v>
       </c>
       <c r="C4">
-        <v>0.046249509150214384</v>
+        <v>0.047196225698129528</v>
       </c>
       <c r="D4">
-        <v>0.053128656876929456</v>
+        <v>0.054216187956892543</v>
       </c>
       <c r="E4">
-        <v>0.051728271579673649</v>
+        <v>0.052787137102775078</v>
       </c>
       <c r="F4">
-        <v>0.051594572118984244</v>
+        <v>0.052650700845648095</v>
       </c>
       <c r="G4">
-        <v>0.059526899750385595</v>
+        <v>0.060745401353434827</v>
       </c>
       <c r="H4">
-        <v>0.070054050058357617</v>
+        <v>0.071488039946192267</v>
       </c>
       <c r="I4">
-        <v>0.065095412728970445</v>
+        <v>0.066427900479785779</v>
       </c>
       <c r="J4">
-        <v>0.053475040855225371</v>
+        <v>0.054569662333556153</v>
       </c>
       <c r="K4">
-        <v>0.044161452802923155</v>
+        <v>0.045065427329716752</v>
       </c>
       <c r="L4">
-        <v>0.04426510019909121</v>
+        <v>0.045171196363647102</v>
       </c>
       <c r="M4">
-        <v>0.044988347684238074</v>
+        <v>0.045909248554292618</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.10372899637250219</v>
+        <v>0.10585230447174118</v>
       </c>
       <c r="P4">
-        <v>0.10372899637250221</v>
+        <v>0.1058523044717412</v>
       </c>
       <c r="Q4">
-        <v>0.1037289963725022</v>
+        <v>0.1058523044717412</v>
       </c>
       <c r="R4">
-        <v>0.10372899637250221</v>
+        <v>0.1058523044717412</v>
       </c>
       <c r="S4">
-        <v>0.10372899637250219</v>
+        <v>0.10585230447174118</v>
       </c>
       <c r="T4">
-        <v>0.10372899637250221</v>
+        <v>0.1058523044717412</v>
       </c>
       <c r="U4">
-        <v>0.10372899637250221</v>
+        <v>0.10585230447174121</v>
       </c>
       <c r="V4">
-        <v>0.10372899637250221</v>
+        <v>0.10585230447174121</v>
       </c>
       <c r="W4">
-        <v>0.10372899637250223</v>
+        <v>0.10585230447174122</v>
       </c>
       <c r="X4">
-        <v>0.10372899637250221</v>
+        <v>0.10585230447174121</v>
       </c>
       <c r="Y4">
-        <v>0.10372899637250223</v>
+        <v>0.10585230447174122</v>
       </c>
       <c r="Z4">
-        <v>0.10372899637250221</v>
+        <v>0.10585230447174121</v>
       </c>
       <c r="AA4">
-        <v>0.10372899637250226</v>
+        <v>0.10585230447174124</v>
       </c>
       <c r="AB4">
-        <v>0.10372899637250223</v>
+        <v>0.10585230447174122</v>
       </c>
       <c r="AC4">
-        <v>0.10372899637250226</v>
+        <v>0.10585230447174124</v>
       </c>
       <c r="AD4">
-        <v>0.10372899637250226</v>
+        <v>0.10585230447174125</v>
       </c>
       <c r="AE4">
-        <v>0.10372899637250227</v>
+        <v>0.10585230447174127</v>
       </c>
       <c r="AF4">
-        <v>0.10372899637250228</v>
+        <v>0.10585230447174128</v>
       </c>
       <c r="AG4">
-        <v>0.1037289963725023</v>
+        <v>0.10585230447174129</v>
       </c>
       <c r="AH4">
-        <v>0.10372899637250228</v>
+        <v>0.10585230447174128</v>
       </c>
       <c r="AI4">
-        <v>0.1037289963725023</v>
+        <v>0.10585230447174128</v>
       </c>
       <c r="AJ4">
-        <v>0.10372899637250232</v>
+        <v>0.10585230447174132</v>
       </c>
       <c r="AK4">
-        <v>0.10372899637250231</v>
+        <v>0.10585230447174131</v>
       </c>
       <c r="AL4">
-        <v>0.10372899637250232</v>
+        <v>0.10585230447174132</v>
       </c>
       <c r="AM4">
-        <v>0.10372899637250232</v>
+        <v>0.10585230447174132</v>
       </c>
       <c r="AN4">
-        <v>0.10372899637250235</v>
+        <v>0.10585230447174135</v>
       </c>
       <c r="AO4">
-        <v>0.10372899637250232</v>
+        <v>0.10585230447174132</v>
       </c>
       <c r="AP4">
-        <v>0.10372899637250235</v>
+        <v>0.10585230447174135</v>
       </c>
       <c r="AQ4">
-        <v>0.10372899637250232</v>
+        <v>0.10585230447174132</v>
       </c>
       <c r="AR4">
-        <v>0.10372899637250238</v>
+        <v>0.10585230447174138</v>
       </c>
       <c r="AS4">
-        <v>0.10372899637250235</v>
+        <v>0.10585230447174135</v>
       </c>
       <c r="AT4">
-        <v>0.10372899637250238</v>
+        <v>0.10585230447174138</v>
       </c>
       <c r="AU4">
-        <v>0.10372899637250237</v>
+        <v>0.10585230447174136</v>
       </c>
       <c r="AV4">
-        <v>0.10372899637250238</v>
+        <v>0.10585230447174138</v>
       </c>
       <c r="AW4">
-        <v>0.10372899637250235</v>
+        <v>0.10585230447174135</v>
       </c>
       <c r="AX4">
-        <v>0.10372899637250239</v>
+        <v>0.10585230447174139</v>
       </c>
       <c r="AY4">
-        <v>0.10372899637250239</v>
+        <v>0.10585230447174139</v>
       </c>
       <c r="AZ4">
-        <v>0.10372899637250242</v>
+        <v>0.10585230447174142</v>
       </c>
       <c r="BA4">
-        <v>0.10372899637250244</v>
+        <v>0.10585230447174143</v>
       </c>
       <c r="BB4">
-        <v>0.10372899637250244</v>
+        <v>0.10585230447174143</v>
       </c>
       <c r="BC4">
-        <v>0.10372899637250244</v>
+        <v>0.10585230447174143</v>
       </c>
       <c r="BD4">
-        <v>0.10372899637250245</v>
+        <v>0.10585230447174145</v>
       </c>
       <c r="BE4">
-        <v>0.10372899637250245</v>
+        <v>0.10585230447174146</v>
       </c>
       <c r="BF4">
-        <v>0.10372899637250245</v>
+        <v>0.10585230447174146</v>
       </c>
       <c r="BG4">
-        <v>0.10372899637250244</v>
+        <v>0.10585230447174143</v>
       </c>
       <c r="BH4">
-        <v>0.10372899637250246</v>
+        <v>0.10585230447174146</v>
       </c>
       <c r="BI4">
-        <v>0.10372899637250246</v>
+        <v>0.10585230447174146</v>
       </c>
       <c r="BJ4">
-        <v>0.10372899637250246</v>
+        <v>0.10585230447174146</v>
       </c>
       <c r="BK4">
-        <v>0.10372899637250246</v>
+        <v>0.10585230447174146</v>
       </c>
       <c r="BL4">
-        <v>0.10372899637250246</v>
+        <v>0.10585230447174146</v>
       </c>
       <c r="BM4">
-        <v>0.10372899637250246</v>
+        <v>0.10585230447174146</v>
       </c>
       <c r="BN4">
-        <v>0.10372899637250246</v>
+        <v>0.10585230447174146</v>
       </c>
       <c r="BO4">
-        <v>0.10372899637250248</v>
+        <v>0.10585230447174147</v>
       </c>
       <c r="BP4">
-        <v>0.10372899637250246</v>
+        <v>0.10585230447174146</v>
       </c>
       <c r="BQ4">
-        <v>0.10372899637250248</v>
+        <v>0.10585230447174147</v>
       </c>
       <c r="BR4">
-        <v>0.10372899637250248</v>
+        <v>0.10585230447174147</v>
       </c>
       <c r="BS4">
-        <v>0.10372899637250248</v>
+        <v>0.10585230447174147</v>
       </c>
       <c r="BT4">
-        <v>0.10372899637250248</v>
+        <v>0.10585230447174147</v>
       </c>
       <c r="BU4">
-        <v>0.10372899637250248</v>
+        <v>0.10585230447174147</v>
       </c>
       <c r="BV4">
-        <v>0.10372899637250248</v>
+        <v>0.10585230447174147</v>
       </c>
       <c r="BW4">
-        <v>0.10372899637250248</v>
+        <v>0.10585230447174147</v>
       </c>
       <c r="BX4">
-        <v>0.1037289963725025</v>
+        <v>0.1058523044717415</v>
       </c>
       <c r="BY4">
-        <v>0.1037289963725025</v>
+        <v>0.1058523044717415</v>
       </c>
       <c r="BZ4">
-        <v>0.10372899637250249</v>
+        <v>0.10585230447174149</v>
       </c>
       <c r="CA4">
-        <v>0.10372899637250249</v>
+        <v>0.10585230447174149</v>
       </c>
       <c r="CB4">
-        <v>0.10372899637250249</v>
+        <v>0.10585230447174149</v>
       </c>
       <c r="CC4">
-        <v>0.10372899637250249</v>
+        <v>0.10585230447174149</v>
       </c>
       <c r="CD4">
-        <v>0.1037289963725025</v>
+        <v>0.1058523044717415</v>
       </c>
       <c r="CE4">
-        <v>0.1037289963725025</v>
+        <v>0.1058523044717415</v>
       </c>
       <c r="CF4">
-        <v>0.1037289963725025</v>
+        <v>0.1058523044717415</v>
       </c>
       <c r="CG4">
-        <v>0.10372899637250252</v>
+        <v>0.10585230447174152</v>
       </c>
       <c r="CH4">
-        <v>0.10372899637250252</v>
+        <v>0.10585230447174152</v>
       </c>
       <c r="CI4">
-        <v>0.10372899637250252</v>
+        <v>0.10585230447174152</v>
       </c>
       <c r="CJ4">
-        <v>0.10372899637250253</v>
+        <v>0.10585230447174154</v>
       </c>
       <c r="CK4">
-        <v>0.10372899637250252</v>
+        <v>0.10585230447174152</v>
       </c>
       <c r="CL4">
-        <v>0.10372899637250253</v>
+        <v>0.10585230447174154</v>
       </c>
       <c r="CM4">
-        <v>0.10372899637250253</v>
+        <v>0.10585230447174154</v>
       </c>
       <c r="CN4">
-        <v>0.10372899637250253</v>
+        <v>0.10585230447174154</v>
       </c>
       <c r="CO4">
-        <v>0.10372899637250253</v>
+        <v>0.10585230447174154</v>
       </c>
       <c r="CP4">
-        <v>0.10372899637250253</v>
+        <v>0.10585230447174154</v>
       </c>
       <c r="CQ4">
-        <v>0.10372899637250253</v>
+        <v>0.10585230447174154</v>
       </c>
       <c r="CR4">
-        <v>0.10372899637250255</v>
+        <v>0.10585230447174154</v>
       </c>
       <c r="CS4">
-        <v>0.10162441271184595</v>
+        <v>0.10370464047975551</v>
       </c>
       <c r="CT4">
-        <v>0.10162441271184595</v>
+        <v>0.10370464047975551</v>
       </c>
       <c r="CU4">
-        <v>0.10162441271184595</v>
+        <v>0.10370464047975551</v>
       </c>
       <c r="CV4">
-        <v>0.10162441271184595</v>
+        <v>0.10370464047975551</v>
       </c>
       <c r="CW4">
-        <v>0.10162441271184595</v>
+        <v>0.10370464047975551</v>
       </c>
       <c r="CX4">
-        <v>0.10394450425246574</v>
+        <v>0.10607222374719663</v>
       </c>
       <c r="CY4">
-        <v>0.10394450425246575</v>
+        <v>0.10607222374719665</v>
       </c>
       <c r="CZ4">
-        <v>0.10394450425246576</v>
+        <v>0.10607222374719666</v>
       </c>
       <c r="DA4">
-        <v>0.10394450425246578</v>
+        <v>0.10607222374719666</v>
       </c>
       <c r="DB4">
-        <v>0.10394450425246576</v>
+        <v>0.10607222374719666</v>
       </c>
       <c r="DC4">
-        <v>0.10392278688517038</v>
+        <v>0.1060500618305131</v>
       </c>
       <c r="DD4">
-        <v>0.10392278688517037</v>
+        <v>0.10605006183051309</v>
       </c>
       <c r="DE4">
-        <v>0.10392278688517038</v>
+        <v>0.1060500618305131</v>
       </c>
       <c r="DF4">
-        <v>0.10392278688517037</v>
+        <v>0.1060500618305131</v>
       </c>
       <c r="DG4">
-        <v>0.10392278688517037</v>
+        <v>0.1060500618305131</v>
       </c>
       <c r="DH4">
-        <v>0.10281175447496296</v>
+        <v>0.10491628684882028</v>
       </c>
       <c r="DI4">
-        <v>0.10281175447496296</v>
+        <v>0.10491628684882028</v>
       </c>
       <c r="DJ4">
-        <v>0.10281175447496298</v>
+        <v>0.10491628684882029</v>
       </c>
       <c r="DK4">
-        <v>0.10338535674063014</v>
+        <v>0.10550163061762569</v>
       </c>
       <c r="DL4">
-        <v>0.10338535674063014</v>
+        <v>0.10550163061762569</v>
       </c>
       <c r="DM4">
-        <v>0.089370171432516937</v>
+        <v>0.091199557770658968</v>
       </c>
       <c r="DN4">
-        <v>0.105471622389659</v>
+        <v>0.10763060163260488</v>
       </c>
       <c r="DO4">
-        <v>0.105471622389659</v>
+        <v>0.10763060163260488</v>
       </c>
       <c r="DP4">
-        <v>0.1035445006575936</v>
+        <v>0.10566403217304755</v>
       </c>
       <c r="DQ4">
-        <v>0.1035445006575936</v>
+        <v>0.10566403217304755</v>
       </c>
       <c r="DR4">
-        <v>0.10516348932977414</v>
+        <v>0.10731616116163366</v>
       </c>
       <c r="DS4">
-        <v>0.10582220374955714</v>
+        <v>0.10798835931028249</v>
       </c>
       <c r="DT4">
-        <v>0.10582220374955716</v>
+        <v>0.10798835931028249</v>
       </c>
       <c r="DU4">
-        <v>0.10582220374955714</v>
+        <v>0.10798835931028249</v>
       </c>
       <c r="DV4">
-        <v>0.10582220374955713</v>
+        <v>0.10798835931028247</v>
       </c>
       <c r="DW4">
-        <v>0.10463337835900702</v>
+        <v>0.10677519894428084</v>
       </c>
       <c r="DX4">
-        <v>0.10560231314382422</v>
+        <v>0.10776396759569448</v>
       </c>
       <c r="DY4">
-        <v>0.10560231314382421</v>
+        <v>0.10776396759569448</v>
       </c>
       <c r="DZ4">
-        <v>0.10560231314382422</v>
+        <v>0.10776396759569448</v>
       </c>
       <c r="EA4">
-        <v>0.10560231314382421</v>
+        <v>0.10776396759569447</v>
       </c>
       <c r="EB4">
-        <v>0.10360466993532616</v>
+        <v>0.105725433101709</v>
       </c>
       <c r="EC4">
-        <v>0.097842496231407283</v>
+        <v>0.099845309060636392</v>
       </c>
       <c r="ED4">
-        <v>0.097842496231407283</v>
+        <v>0.099845309060636392</v>
       </c>
       <c r="EE4">
-        <v>0.099190762169992577</v>
+        <v>0.1012211736850997</v>
       </c>
       <c r="EF4">
-        <v>0.099190762169992577</v>
+        <v>0.1012211736850997</v>
       </c>
       <c r="EG4">
         <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.10416709179746306</v>
+        <v>0.1062993676067599</v>
       </c>
       <c r="EI4">
-        <v>0.10416709179746306</v>
+        <v>0.1062993676067599</v>
       </c>
       <c r="EJ4">
-        <v>0.10293377288999252</v>
+        <v>0.10504080295203684</v>
       </c>
       <c r="EK4">
-        <v>0.10293377288999253</v>
+        <v>0.10504080295203685</v>
       </c>
       <c r="EL4">
-        <v>0.10293377288999253</v>
+        <v>0.10504080295203684</v>
       </c>
       <c r="EM4">
-        <v>0.10269424904350741</v>
+        <v>0.10479637610888747</v>
       </c>
       <c r="EN4">
-        <v>0.10269424904350741</v>
+        <v>0.10479637610888745</v>
       </c>
       <c r="EO4">
-        <v>0.10269424904350741</v>
+        <v>0.10479637610888747</v>
       </c>
       <c r="EP4">
-        <v>0.10269424904350741</v>
+        <v>0.10479637610888745</v>
       </c>
       <c r="EQ4">
-        <v>0.10269424904350742</v>
+        <v>0.10479637610888747</v>
       </c>
       <c r="ER4">
-        <v>0.10248967192763254</v>
+        <v>0.10458761134768441</v>
       </c>
       <c r="ES4">
-        <v>0.10248967192763256</v>
+        <v>0.10458761134768442</v>
       </c>
       <c r="ET4">
-        <v>0.10248967192763256</v>
+        <v>0.10458761134768442</v>
       </c>
       <c r="EU4">
-        <v>0.10248967192763257</v>
+        <v>0.10458761134768443</v>
       </c>
       <c r="EV4">
-        <v>0.10248967192763257</v>
+        <v>0.10458761134768445</v>
       </c>
       <c r="EW4">
-        <v>0.095939128902333554</v>
+        <v>0.097902980251099322</v>
       </c>
       <c r="EX4">
-        <v>0.095939128902333554</v>
+        <v>0.097902980251099336</v>
       </c>
       <c r="EY4">
-        <v>0.095939128902333581</v>
+        <v>0.09790298025109935</v>
       </c>
       <c r="EZ4">
-        <v>0.095939128902333581</v>
+        <v>0.09790298025109935</v>
       </c>
       <c r="FA4">
-        <v>0.095939128902333567</v>
+        <v>0.09790298025109935</v>
       </c>
       <c r="FB4">
-        <v>0.10178582077753308</v>
+        <v>0.10386935253049158</v>
       </c>
       <c r="FC4">
-        <v>0.10178582077753308</v>
+        <v>0.10386935253049158</v>
       </c>
       <c r="FD4">
-        <v>0.10178582077753311</v>
+        <v>0.10386935253049161</v>
       </c>
       <c r="FE4">
-        <v>0.10178582077753308</v>
+        <v>0.10386935253049158</v>
       </c>
       <c r="FF4">
-        <v>0.10178582077753311</v>
+        <v>0.10386935253049161</v>
       </c>
       <c r="FG4">
-        <v>0.10178582077753311</v>
+        <v>0.10386935253049159</v>
       </c>
       <c r="FH4">
-        <v>0.10178582077753311</v>
+        <v>0.10386935253049161</v>
       </c>
       <c r="FI4">
-        <v>0.10178582077753311</v>
+        <v>0.10386935253049161</v>
       </c>
       <c r="FJ4">
-        <v>0.10178582077753312</v>
+        <v>0.10386935253049162</v>
       </c>
       <c r="FK4">
-        <v>0.10178582077753313</v>
+        <v>0.10386935253049162</v>
       </c>
       <c r="FL4">
-        <v>0.10178582077753312</v>
+        <v>0.10386935253049162</v>
       </c>
       <c r="FM4">
-        <v>0.10178582077753313</v>
+        <v>0.10386935253049162</v>
       </c>
       <c r="FN4">
-        <v>0.10178582077753313</v>
+        <v>0.10386935253049162</v>
       </c>
       <c r="FO4">
-        <v>0.10178582077753315</v>
+        <v>0.10386935253049165</v>
       </c>
       <c r="FP4">
-        <v>0.10178582077753313</v>
+        <v>0.10386935253049162</v>
       </c>
       <c r="FQ4">
-        <v>0.10178582077753315</v>
+        <v>0.10386935253049165</v>
       </c>
       <c r="FR4">
-        <v>0.10178582077753313</v>
+        <v>0.10386935253049163</v>
       </c>
       <c r="FS4">
-        <v>0.10178582077753313</v>
+        <v>0.10386935253049162</v>
       </c>
       <c r="FT4">
-        <v>0.10178582077753315</v>
+        <v>0.10386935253049165</v>
       </c>
       <c r="FU4">
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.082635368326084896</v>
+        <v>0.084326894832523619</v>
       </c>
     </row>
   </sheetData>
